--- a/DomesticTransport/DomesticTransport.xlsx
+++ b/DomesticTransport/DomesticTransport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aevse\Source\Repos\DomesticTransport\DomesticTransport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178D8AC0-B89E-41F9-B0B7-B645EA94A9F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A700EB5-2D61-4993-9F31-88B85E9EC01D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="495" windowWidth="22860" windowHeight="11010" activeTab="1" xr2:uid="{AC776459-6745-4339-B7EA-E0E0F9747FA4}"/>
+    <workbookView xWindow="4980" yWindow="30" windowWidth="22860" windowHeight="11010" xr2:uid="{AC776459-6745-4339-B7EA-E0E0F9747FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="233">
   <si>
     <t>Перевозчик</t>
   </si>
@@ -47,18 +47,9 @@
     <t>ID</t>
   </si>
   <si>
-    <t>ФИО</t>
-  </si>
-  <si>
-    <t>Телефон</t>
-  </si>
-  <si>
     <t>№ Авто</t>
   </si>
   <si>
-    <t>Марка</t>
-  </si>
-  <si>
     <t>Компания</t>
   </si>
   <si>
@@ -69,9 +60,6 @@
   </si>
   <si>
     <t>Товары</t>
-  </si>
-  <si>
-    <t>ID Перевозчика</t>
   </si>
   <si>
     <t>Накладная</t>
@@ -810,12 +798,15 @@
   <si>
     <t>id Получателя</t>
   </si>
+  <si>
+    <t>Дата доставки</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1001,8 +992,16 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1073,6 +1072,11 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
       </patternFill>
     </fill>
   </fills>
@@ -1308,15 +1312,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1768,154 +1773,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="13" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="60% — акцент6" xfId="4" builtinId="52"/>
     <cellStyle name="Excel Built-in Normal" xfId="5" xr:uid="{E86D5BE3-109F-42F2-B062-72D26BC4505E}"/>
+    <cellStyle name="Акцент3" xfId="6" builtinId="37"/>
     <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{0D8B4E41-A43D-4735-80FC-A622F3AB536B}"/>
     <cellStyle name="Обычный 4" xfId="1" xr:uid="{6D1EACBA-287E-493D-A31F-3D0C6DD7000A}"/>
   </cellStyles>
   <dxfs count="36">
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="9"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="57"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2167,6 +2041,144 @@
       </fill>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="57"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2227,14 +2239,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E3245CE-8CB7-440C-8A99-A387ADEE7331}" name="TableCarrier" displayName="TableCarrier" ref="B3:I4" insertRow="1" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34">
-  <autoFilter ref="B3:I4" xr:uid="{DEB12404-07BD-4FAF-83D7-6873DABB45B9}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{64C38326-B884-4325-8A47-3CF76FF099B6}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{332D9467-175D-488A-9FB5-F18A3BFB0AB8}" name="ФИО"/>
-    <tableColumn id="3" xr3:uid="{C025F93C-1EF0-4636-8F77-E5D2C7F81385}" name="Телефон"/>
-    <tableColumn id="4" xr3:uid="{5A37A17B-5273-42A5-A6B1-AD17E7FD388E}" name="№ Авто"/>
-    <tableColumn id="5" xr3:uid="{9D33E642-417F-42CB-AD1E-5D19C5D8C6FD}" name="Марка"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E3245CE-8CB7-440C-8A99-A387ADEE7331}" name="TableCarrier" displayName="TableCarrier" ref="B3:E4" insertRow="1" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34">
+  <autoFilter ref="B3:E4" xr:uid="{DEB12404-07BD-4FAF-83D7-6873DABB45B9}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{64C38326-B884-4325-8A47-3CF76FF099B6}" name="№ Авто"/>
     <tableColumn id="6" xr3:uid="{FEDCB64B-82B1-4C9E-9EEB-F53217E4637A}" name="Компания"/>
     <tableColumn id="8" xr3:uid="{510D2F31-046A-4033-9FB6-AE6640DBFF64}" name="Тоннаж"/>
     <tableColumn id="7" xr3:uid="{FEEFBF4E-D4C2-4544-85D3-3F06E352AFC2}" name="Стоимость доставки"/>
@@ -2247,7 +2255,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A1298FBD-3E0C-4829-AA91-D63AF491826E}" name="TableInvoicies" displayName="TableInvoicies" ref="B9:I10" insertRow="1" totalsRowShown="0" headerRowDxfId="33">
   <autoFilter ref="B9:I10" xr:uid="{9CC24962-0F87-4500-BB2C-B26DD82344EE}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{8E60E219-8ADB-48B1-A9CF-AF43EFB5E532}" name="ID Перевозчика"/>
+    <tableColumn id="1" xr3:uid="{8E60E219-8ADB-48B1-A9CF-AF43EFB5E532}" name="№ Авто"/>
     <tableColumn id="2" xr3:uid="{0C480417-9A5C-4A67-90B7-E69215A66717}" name="Накладная"/>
     <tableColumn id="3" xr3:uid="{F4CF124F-2E32-452D-A812-ED185FAE6CE1}" name="ID Получателя"/>
     <tableColumn id="4" xr3:uid="{FDB39A13-F31C-425A-A896-CEEDA012F19B}" name="Направление"/>
@@ -2261,7 +2269,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0E832B09-3D36-4DE3-8E20-EF81C85F4B4E}" name="PriceDelivery" displayName="PriceDelivery" ref="A3:J123" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" headerRowCellStyle="Обычный 4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0E832B09-3D36-4DE3-8E20-EF81C85F4B4E}" name="PriceDelivery" displayName="PriceDelivery" ref="A3:J123" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" headerRowCellStyle="Обычный 4">
   <autoFilter ref="A3:J123" xr:uid="{75E0B774-231E-4CE9-B5F7-6515E34100A9}">
     <filterColumn colId="2">
       <filters>
@@ -2282,7 +2290,7 @@
     <tableColumn id="7" xr3:uid="{63E92DBC-C612-44AB-8710-DE5D3A67E602}" name="tonnage, t"/>
     <tableColumn id="8" xr3:uid="{7956AE7A-C21C-4293-AB21-1C09E993025E}" name="vehicle"/>
     <tableColumn id="9" xr3:uid="{485FC7AA-9B80-40AC-B112-7709C94F7992}" name="add.point"/>
-    <tableColumn id="10" xr3:uid="{76EEE4BC-710C-4EA7-9DD0-0BBB946AB005}" name="vehicle + add.point" dataDxfId="5">
+    <tableColumn id="10" xr3:uid="{76EEE4BC-710C-4EA7-9DD0-0BBB946AB005}" name="vehicle + add.point" dataDxfId="30">
       <calculatedColumnFormula>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2295,15 +2303,15 @@
   <autoFilter ref="B2:D25" xr:uid="{DE4A6499-25FE-4A0E-AE62-0DABB7DFBF79}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{29A63BC4-2872-4EA4-B075-ED195D9BE031}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{FF7F5D4D-C144-4DC0-AEA8-3808900FD64A}" name="Компания" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{A6517B15-FFF0-4130-831C-781935AA2468}" name="Получатель письма" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="2" xr3:uid="{FF7F5D4D-C144-4DC0-AEA8-3808900FD64A}" name="Компания" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{A6517B15-FFF0-4130-831C-781935AA2468}" name="Получатель письма" dataDxfId="28" dataCellStyle="Гиперссылка"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C0B60422-EB35-4FB4-BF1B-2F6334DAF9A9}" name="Таблица5" displayName="Таблица5" ref="B2:S3" insertRow="1" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C0B60422-EB35-4FB4-BF1B-2F6334DAF9A9}" name="Таблица5" displayName="Таблица5" ref="B2:S3" insertRow="1" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
   <autoFilter ref="B2:S3" xr:uid="{6A8CAFF1-DE87-467A-9C9F-EAC45DD35AAA}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{6C78F3B1-C5C6-4E9B-B8B0-E04671622CA4}" name="ID перевозчика"/>
@@ -2626,25 +2634,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9007937B-86DB-4446-832F-F234A2840685}">
-  <dimension ref="B2:I9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H3" sqref="C3:H3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="178" t="s">
+        <v>232</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2656,35 +2669,27 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="179">
+        <f ca="1">TODAY()+1</f>
+        <v>43895</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2694,30 +2699,30 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2733,14 +2738,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB40C41-0399-4FC3-8526-AA71F4D11BE5}">
   <dimension ref="C1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2750,7 +2756,7 @@
       <c r="D2" s="166"/>
       <c r="E2" s="166"/>
       <c r="F2" s="169" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G2" s="170"/>
       <c r="H2" s="170"/>
@@ -2775,11 +2781,11 @@
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C4" s="166" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D4" s="166"/>
       <c r="E4" s="166" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F4" s="167"/>
       <c r="G4" s="167"/>
@@ -2821,57 +2827,57 @@
   <sheetData>
     <row r="1" spans="2:17" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="79" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C1" s="78" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D1" s="78" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E1" s="78" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F1" s="78" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G1" s="78" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H1" s="78" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I1" s="78" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J1" s="78" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K1" s="78" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L1" s="78" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M1" s="78" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N1" s="78" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O1" s="78" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="P1" s="77" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q1" s="76" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="172" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C2" s="75">
         <v>83838</v>
@@ -2880,10 +2886,10 @@
         <v>120022493</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F2" s="70" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G2" s="73">
         <v>1</v>
@@ -2901,22 +2907,22 @@
         <v>4</v>
       </c>
       <c r="L2" s="71" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M2" s="70" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N2" s="70" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O2" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="175" t="s">
         <v>79</v>
-      </c>
-      <c r="P2" s="68">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="175" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
@@ -2928,10 +2934,10 @@
         <v>120026430</v>
       </c>
       <c r="E3" s="70" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F3" s="70" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G3" s="73">
         <v>1</v>
@@ -2949,16 +2955,16 @@
         <v>4</v>
       </c>
       <c r="L3" s="71" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M3" s="70" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N3" s="70" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O3" s="69" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P3" s="68">
         <v>2</v>
@@ -2974,10 +2980,10 @@
         <v>120028098</v>
       </c>
       <c r="E4" s="70" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F4" s="70" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G4" s="73">
         <v>1</v>
@@ -2995,16 +3001,16 @@
         <v>4</v>
       </c>
       <c r="L4" s="71" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M4" s="70" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N4" s="70" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O4" s="69" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P4" s="68">
         <v>3</v>
@@ -3020,10 +3026,10 @@
         <v>120026747</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F5" s="70" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G5" s="73">
         <v>1</v>
@@ -3041,16 +3047,16 @@
         <v>4</v>
       </c>
       <c r="L5" s="71" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M5" s="70" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N5" s="70" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O5" s="69" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P5" s="68">
         <v>4</v>
@@ -3059,7 +3065,7 @@
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="172" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C6" s="67">
         <v>79735</v>
@@ -3068,10 +3074,10 @@
         <v>120026206</v>
       </c>
       <c r="E6" s="62" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F6" s="62" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G6" s="65">
         <v>1</v>
@@ -3089,16 +3095,16 @@
         <v>4</v>
       </c>
       <c r="L6" s="63" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M6" s="62" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N6" s="62" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O6" s="61" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P6" s="60">
         <v>1</v>
@@ -3114,10 +3120,10 @@
         <v>120025752</v>
       </c>
       <c r="E7" s="62" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F7" s="62" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G7" s="65">
         <v>1</v>
@@ -3135,16 +3141,16 @@
         <v>4</v>
       </c>
       <c r="L7" s="63" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M7" s="62" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N7" s="62" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O7" s="61" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P7" s="60">
         <v>2</v>
@@ -3160,10 +3166,10 @@
         <v>120024261</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F8" s="62" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G8" s="65">
         <v>1</v>
@@ -3181,16 +3187,16 @@
         <v>4</v>
       </c>
       <c r="L8" s="63" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M8" s="62" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N8" s="62" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O8" s="61" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P8" s="60">
         <v>3</v>
@@ -3206,10 +3212,10 @@
         <v>120022424</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F9" s="62" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G9" s="65">
         <v>1</v>
@@ -3227,16 +3233,16 @@
         <v>4</v>
       </c>
       <c r="L9" s="63" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M9" s="62" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N9" s="62" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O9" s="61" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="P9" s="60">
         <v>4</v>
@@ -3245,7 +3251,7 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="172" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C10" s="59">
         <v>94109</v>
@@ -3254,10 +3260,10 @@
         <v>120026389</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G10" s="57">
         <v>1</v>
@@ -3275,16 +3281,16 @@
         <v>4</v>
       </c>
       <c r="L10" s="55" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M10" s="54" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N10" s="54" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O10" s="53" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P10" s="52">
         <v>1</v>
@@ -3300,10 +3306,10 @@
         <v>120021605</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G11" s="57">
         <v>1</v>
@@ -3321,16 +3327,16 @@
         <v>4</v>
       </c>
       <c r="L11" s="55" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M11" s="54" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N11" s="54" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O11" s="53" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P11" s="52">
         <v>2</v>
@@ -3342,17 +3348,17 @@
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="172" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C13" s="51"/>
       <c r="D13" s="50">
         <v>120028781</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G13" s="46">
         <v>1</v>
@@ -3370,22 +3376,22 @@
         <v>4</v>
       </c>
       <c r="L13" s="44" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M13" s="49" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N13" s="49" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O13" s="42" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="P13" s="41">
         <v>1</v>
       </c>
       <c r="Q13" s="175" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3397,10 +3403,10 @@
         <v>120027759</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G14" s="46">
         <v>1</v>
@@ -3418,16 +3424,16 @@
         <v>4</v>
       </c>
       <c r="L14" s="44" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M14" s="43" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N14" s="43" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O14" s="42" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="P14" s="41">
         <v>2</v>
@@ -3436,7 +3442,7 @@
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="172" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C15" s="40">
         <v>93101</v>
@@ -3445,10 +3451,10 @@
         <v>120025885</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G15" s="38">
         <v>1</v>
@@ -3466,16 +3472,16 @@
         <v>4</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O15" s="34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="P15" s="33">
         <v>1</v>
@@ -3491,10 +3497,10 @@
         <v>91020</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G16" s="38">
         <v>1</v>
@@ -3512,16 +3518,16 @@
         <v>4</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O16" s="34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="P16" s="33">
         <v>2</v>
@@ -3537,10 +3543,10 @@
         <v>120029370</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G17" s="38">
         <v>1</v>
@@ -3558,16 +3564,16 @@
         <v>4</v>
       </c>
       <c r="L17" s="36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M17" s="35" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N17" s="35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O17" s="34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="P17" s="33">
         <v>3</v>
@@ -3579,7 +3585,7 @@
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="172" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C19" s="32">
         <v>77001</v>
@@ -3588,10 +3594,10 @@
         <v>120024301</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G19" s="30">
         <v>1</v>
@@ -3609,22 +3615,22 @@
         <v>4</v>
       </c>
       <c r="L19" s="28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M19" s="27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N19" s="27" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O19" s="26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P19" s="25">
         <v>1</v>
       </c>
       <c r="Q19" s="175" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -3636,10 +3642,10 @@
         <v>120024306</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G20" s="30">
         <v>1</v>
@@ -3657,16 +3663,16 @@
         <v>4</v>
       </c>
       <c r="L20" s="28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M20" s="27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N20" s="27" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O20" s="26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P20" s="25">
         <v>2</v>
@@ -3682,10 +3688,10 @@
         <v>120021905</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G21" s="30">
         <v>1</v>
@@ -3703,16 +3709,16 @@
         <v>4</v>
       </c>
       <c r="L21" s="28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M21" s="27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N21" s="27" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O21" s="26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P21" s="25">
         <v>3</v>
@@ -3728,10 +3734,10 @@
         <v>120026321</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G22" s="30">
         <v>1</v>
@@ -3749,16 +3755,16 @@
         <v>4</v>
       </c>
       <c r="L22" s="28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M22" s="27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N22" s="27" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O22" s="26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P22" s="25">
         <v>4</v>
@@ -3770,7 +3776,7 @@
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="172" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C24" s="21">
         <v>92536</v>
@@ -3779,10 +3785,10 @@
         <v>120025666</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G24" s="19">
         <v>1</v>
@@ -3800,22 +3806,22 @@
         <v>4</v>
       </c>
       <c r="L24" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N24" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P24" s="14">
         <v>1</v>
       </c>
       <c r="Q24" s="175" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
@@ -3827,10 +3833,10 @@
         <v>60102</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G25" s="19">
         <v>1</v>
@@ -3848,16 +3854,16 @@
         <v>4</v>
       </c>
       <c r="L25" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N25" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P25" s="14">
         <v>2</v>
@@ -3873,10 +3879,10 @@
         <v>120022426</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G26" s="19">
         <v>1</v>
@@ -3894,16 +3900,16 @@
         <v>4</v>
       </c>
       <c r="L26" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N26" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P26" s="14">
         <v>3</v>
@@ -3919,10 +3925,10 @@
         <v>78258</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G27" s="19">
         <v>1</v>
@@ -3940,16 +3946,16 @@
         <v>4</v>
       </c>
       <c r="L27" s="17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P27" s="14">
         <v>4</v>
@@ -3965,10 +3971,10 @@
         <v>120022423</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G28" s="19">
         <v>1</v>
@@ -3986,16 +3992,16 @@
         <v>4</v>
       </c>
       <c r="L28" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P28" s="14">
         <v>5</v>
@@ -4011,10 +4017,10 @@
         <v>120024225</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G29" s="19">
         <v>1</v>
@@ -4032,16 +4038,16 @@
         <v>4</v>
       </c>
       <c r="L29" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P29" s="14">
         <v>6</v>
@@ -4063,25 +4069,25 @@
     <mergeCell ref="B15:B17"/>
   </mergeCells>
   <conditionalFormatting sqref="D19:D22">
-    <cfRule type="duplicateValues" dxfId="32" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D17">
-    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D29">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D9">
-    <cfRule type="duplicateValues" dxfId="27" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="duplicateValues" dxfId="26" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4115,46 +4121,46 @@
   <sheetData>
     <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="80" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C1" s="80" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D1" s="80" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E1" s="80" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G1" s="80" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H1" s="80" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I1" s="80" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J1" s="80" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K1" s="80" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L1" s="80" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M1" s="80" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N1" s="81" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -4165,10 +4171,10 @@
         <v>120024301</v>
       </c>
       <c r="C2" s="84" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" s="84" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E2" s="85">
         <v>1</v>
@@ -4186,16 +4192,16 @@
         <v>4</v>
       </c>
       <c r="J2" s="87" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K2" s="84" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L2" s="84" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M2" s="88" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N2" s="89">
         <v>1</v>
@@ -4209,10 +4215,10 @@
         <v>120024306</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D3" s="84" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E3" s="85">
         <v>1</v>
@@ -4230,16 +4236,16 @@
         <v>4</v>
       </c>
       <c r="J3" s="87" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K3" s="84" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L3" s="84" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M3" s="88" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N3" s="89">
         <v>2</v>
@@ -4253,10 +4259,10 @@
         <v>120021905</v>
       </c>
       <c r="C4" s="84" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D4" s="84" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E4" s="85">
         <v>1</v>
@@ -4274,16 +4280,16 @@
         <v>4</v>
       </c>
       <c r="J4" s="87" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K4" s="84" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L4" s="84" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M4" s="88" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N4" s="89">
         <v>3</v>
@@ -4297,10 +4303,10 @@
         <v>120026321</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D5" s="84" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E5" s="85">
         <v>1</v>
@@ -4318,16 +4324,16 @@
         <v>4</v>
       </c>
       <c r="J5" s="87" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K5" s="84" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L5" s="84" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M5" s="88" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N5" s="89">
         <v>4</v>
@@ -4341,10 +4347,10 @@
         <v>120025885</v>
       </c>
       <c r="C6" s="91" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D6" s="91" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E6" s="92">
         <v>1</v>
@@ -4362,16 +4368,16 @@
         <v>4</v>
       </c>
       <c r="J6" s="94" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K6" s="91" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L6" s="91" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M6" s="95" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N6" s="96">
         <v>1</v>
@@ -4385,10 +4391,10 @@
         <v>91020</v>
       </c>
       <c r="C7" s="91" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D7" s="91" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E7" s="92">
         <v>1</v>
@@ -4406,16 +4412,16 @@
         <v>4</v>
       </c>
       <c r="J7" s="94" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K7" s="91" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L7" s="91" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M7" s="95" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N7" s="96">
         <v>2</v>
@@ -4429,10 +4435,10 @@
         <v>120029370</v>
       </c>
       <c r="C8" s="91" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D8" s="91" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E8" s="92">
         <v>1</v>
@@ -4450,16 +4456,16 @@
         <v>4</v>
       </c>
       <c r="J8" s="94" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K8" s="91" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L8" s="91" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M8" s="95" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N8" s="96">
         <v>3</v>
@@ -4471,10 +4477,10 @@
         <v>120028781</v>
       </c>
       <c r="C9" s="98" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D9" s="98" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E9" s="99">
         <v>1</v>
@@ -4492,16 +4498,16 @@
         <v>4</v>
       </c>
       <c r="J9" s="101" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K9" s="98" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L9" s="98" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M9" s="102" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N9" s="103">
         <v>1</v>
@@ -4515,10 +4521,10 @@
         <v>120027759</v>
       </c>
       <c r="C10" s="105" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D10" s="105" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E10" s="99">
         <v>1</v>
@@ -4536,16 +4542,16 @@
         <v>4</v>
       </c>
       <c r="J10" s="101" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K10" s="105" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L10" s="105" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M10" s="102" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N10" s="103">
         <v>2</v>
@@ -4559,10 +4565,10 @@
         <v>120026389</v>
       </c>
       <c r="C11" s="107" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D11" s="107" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E11" s="108">
         <v>1</v>
@@ -4580,16 +4586,16 @@
         <v>4</v>
       </c>
       <c r="J11" s="110" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K11" s="107" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L11" s="107" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M11" s="111" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N11" s="112">
         <v>1</v>
@@ -4603,10 +4609,10 @@
         <v>120021605</v>
       </c>
       <c r="C12" s="107" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D12" s="107" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E12" s="108">
         <v>1</v>
@@ -4624,16 +4630,16 @@
         <v>4</v>
       </c>
       <c r="J12" s="110" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K12" s="107" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L12" s="107" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M12" s="111" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N12" s="112">
         <v>2</v>
@@ -4647,10 +4653,10 @@
         <v>120025666</v>
       </c>
       <c r="C13" s="114" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D13" s="114" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E13" s="115">
         <v>1</v>
@@ -4668,16 +4674,16 @@
         <v>4</v>
       </c>
       <c r="J13" s="117" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K13" s="114" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L13" s="114" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M13" s="118" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N13" s="119">
         <v>1</v>
@@ -4691,10 +4697,10 @@
         <v>60102</v>
       </c>
       <c r="C14" s="114" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D14" s="114" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E14" s="115">
         <v>1</v>
@@ -4712,16 +4718,16 @@
         <v>4</v>
       </c>
       <c r="J14" s="117" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K14" s="114" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L14" s="114" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M14" s="118" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N14" s="119">
         <v>2</v>
@@ -4735,10 +4741,10 @@
         <v>120022426</v>
       </c>
       <c r="C15" s="121" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D15" s="121" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E15" s="115">
         <v>1</v>
@@ -4756,16 +4762,16 @@
         <v>4</v>
       </c>
       <c r="J15" s="117" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K15" s="114" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L15" s="114" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M15" s="118" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N15" s="119">
         <v>3</v>
@@ -4779,10 +4785,10 @@
         <v>78258</v>
       </c>
       <c r="C16" s="114" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D16" s="114" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E16" s="115">
         <v>1</v>
@@ -4800,16 +4806,16 @@
         <v>4</v>
       </c>
       <c r="J16" s="117" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K16" s="114" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L16" s="114" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M16" s="118" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N16" s="119">
         <v>4</v>
@@ -4823,10 +4829,10 @@
         <v>120022423</v>
       </c>
       <c r="C17" s="114" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D17" s="114" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E17" s="115">
         <v>1</v>
@@ -4844,16 +4850,16 @@
         <v>4</v>
       </c>
       <c r="J17" s="117" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K17" s="114" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L17" s="114" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M17" s="118" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N17" s="119">
         <v>5</v>
@@ -4867,10 +4873,10 @@
         <v>120024225</v>
       </c>
       <c r="C18" s="114" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D18" s="114" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E18" s="115">
         <v>1</v>
@@ -4888,16 +4894,16 @@
         <v>4</v>
       </c>
       <c r="J18" s="117" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K18" s="114" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L18" s="114" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M18" s="118" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N18" s="119">
         <v>6</v>
@@ -4911,10 +4917,10 @@
         <v>120026206</v>
       </c>
       <c r="C19" s="123" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D19" s="123" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E19" s="124">
         <v>1</v>
@@ -4932,16 +4938,16 @@
         <v>4</v>
       </c>
       <c r="J19" s="126" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K19" s="123" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L19" s="123" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M19" s="127" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N19" s="128">
         <v>1</v>
@@ -4955,10 +4961,10 @@
         <v>120025752</v>
       </c>
       <c r="C20" s="123" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D20" s="123" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E20" s="124">
         <v>1</v>
@@ -4976,16 +4982,16 @@
         <v>4</v>
       </c>
       <c r="J20" s="126" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K20" s="123" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L20" s="123" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M20" s="127" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N20" s="128">
         <v>2</v>
@@ -4999,10 +5005,10 @@
         <v>120024261</v>
       </c>
       <c r="C21" s="123" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D21" s="123" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E21" s="124">
         <v>1</v>
@@ -5020,16 +5026,16 @@
         <v>4</v>
       </c>
       <c r="J21" s="126" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K21" s="123" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L21" s="123" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M21" s="127" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N21" s="128">
         <v>3</v>
@@ -5043,10 +5049,10 @@
         <v>120022424</v>
       </c>
       <c r="C22" s="123" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D22" s="123" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E22" s="124">
         <v>1</v>
@@ -5064,16 +5070,16 @@
         <v>4</v>
       </c>
       <c r="J22" s="126" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K22" s="123" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L22" s="123" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M22" s="127" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N22" s="128">
         <v>4</v>
@@ -5087,10 +5093,10 @@
         <v>120022493</v>
       </c>
       <c r="C23" s="130" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D23" s="130" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E23" s="131">
         <v>1</v>
@@ -5108,16 +5114,16 @@
         <v>4</v>
       </c>
       <c r="J23" s="133" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K23" s="130" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L23" s="130" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M23" s="134" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N23" s="135">
         <v>1</v>
@@ -5131,10 +5137,10 @@
         <v>120026430</v>
       </c>
       <c r="C24" s="130" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D24" s="130" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E24" s="131">
         <v>1</v>
@@ -5152,16 +5158,16 @@
         <v>4</v>
       </c>
       <c r="J24" s="133" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K24" s="130" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L24" s="130" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M24" s="134" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N24" s="135">
         <v>2</v>
@@ -5175,10 +5181,10 @@
         <v>120028098</v>
       </c>
       <c r="C25" s="130" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D25" s="130" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E25" s="131">
         <v>1</v>
@@ -5196,16 +5202,16 @@
         <v>4</v>
       </c>
       <c r="J25" s="133" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K25" s="130" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L25" s="130" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M25" s="134" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N25" s="135">
         <v>3</v>
@@ -5219,10 +5225,10 @@
         <v>120026747</v>
       </c>
       <c r="C26" s="130" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D26" s="130" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E26" s="131">
         <v>1</v>
@@ -5240,16 +5246,16 @@
         <v>4</v>
       </c>
       <c r="J26" s="133" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K26" s="130" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L26" s="130" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M26" s="134" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N26" s="135">
         <v>4</v>
@@ -5263,10 +5269,10 @@
         <v>120024302</v>
       </c>
       <c r="C27" s="137" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D27" s="137" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E27" s="138">
         <v>1</v>
@@ -5286,16 +5292,16 @@
         <v>5</v>
       </c>
       <c r="J27" s="140" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K27" s="137" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L27" s="137" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M27" s="141" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N27" s="142">
         <v>1</v>
@@ -5309,10 +5315,10 @@
         <v>120025788</v>
       </c>
       <c r="C28" s="137" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D28" s="137" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E28" s="138">
         <v>1</v>
@@ -5331,16 +5337,16 @@
         <v>5</v>
       </c>
       <c r="J28" s="140" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K28" s="137" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L28" s="137" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M28" s="141" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N28" s="142">
         <v>2</v>
@@ -5354,10 +5360,10 @@
         <v>120030442</v>
       </c>
       <c r="C29" s="137" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D29" s="137" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E29" s="138">
         <v>1</v>
@@ -5376,16 +5382,16 @@
         <v>5</v>
       </c>
       <c r="J29" s="140" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K29" s="137" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L29" s="137" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M29" s="141" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N29" s="142">
         <v>3</v>
@@ -5399,10 +5405,10 @@
         <v>120025708</v>
       </c>
       <c r="C30" s="144" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D30" s="144" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E30" s="145">
         <v>1</v>
@@ -5421,16 +5427,16 @@
         <v>5</v>
       </c>
       <c r="J30" s="140" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K30" s="144" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L30" s="137" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M30" s="141" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N30" s="142">
         <v>4</v>
@@ -5444,10 +5450,10 @@
         <v>120030449</v>
       </c>
       <c r="C31" s="137" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D31" s="137" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E31" s="138">
         <v>1</v>
@@ -5466,16 +5472,16 @@
         <v>5</v>
       </c>
       <c r="J31" s="140" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K31" s="137" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L31" s="137" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M31" s="141" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N31" s="142">
         <v>5</v>
@@ -5489,10 +5495,10 @@
         <v>120024614</v>
       </c>
       <c r="C32" s="137" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D32" s="137" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E32" s="138">
         <v>1</v>
@@ -5511,16 +5517,16 @@
         <v>5</v>
       </c>
       <c r="J32" s="140" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K32" s="137" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L32" s="137" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M32" s="141" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N32" s="142">
         <v>6</v>
@@ -5534,10 +5540,10 @@
         <v>120025332</v>
       </c>
       <c r="C33" s="137" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D33" s="137" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E33" s="138">
         <v>1</v>
@@ -5556,16 +5562,16 @@
         <v>5</v>
       </c>
       <c r="J33" s="140" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K33" s="137" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L33" s="137" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M33" s="141" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N33" s="142">
         <v>7</v>
@@ -5579,10 +5585,10 @@
         <v>120022887</v>
       </c>
       <c r="C34" s="144" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D34" s="144" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E34" s="138">
         <v>1</v>
@@ -5600,16 +5606,16 @@
         <v>6</v>
       </c>
       <c r="J34" s="140" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K34" s="137" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L34" s="137" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M34" s="141" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N34" s="142">
         <v>1</v>
@@ -5623,10 +5629,10 @@
         <v>120030455</v>
       </c>
       <c r="C35" s="137" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D35" s="137" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E35" s="138">
         <v>1</v>
@@ -5644,16 +5650,16 @@
         <v>6</v>
       </c>
       <c r="J35" s="140" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K35" s="137" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L35" s="137" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M35" s="141" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N35" s="142">
         <v>2</v>
@@ -5667,10 +5673,10 @@
         <v>120026345</v>
       </c>
       <c r="C36" s="144" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D36" s="144" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E36" s="138">
         <v>1</v>
@@ -5688,16 +5694,16 @@
         <v>6</v>
       </c>
       <c r="J36" s="140" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K36" s="137" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L36" s="137" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M36" s="141" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N36" s="142">
         <v>3</v>
@@ -5711,10 +5717,10 @@
         <v>120029380</v>
       </c>
       <c r="C37" s="137" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D37" s="137" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E37" s="138">
         <v>1</v>
@@ -5732,16 +5738,16 @@
         <v>6</v>
       </c>
       <c r="J37" s="140" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K37" s="137" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L37" s="137" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M37" s="141" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N37" s="142">
         <v>4</v>
@@ -5755,10 +5761,10 @@
         <v>93587</v>
       </c>
       <c r="C38" s="144" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D38" s="144" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E38" s="138">
         <v>1</v>
@@ -5776,16 +5782,16 @@
         <v>6</v>
       </c>
       <c r="J38" s="140" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K38" s="137" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L38" s="137" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M38" s="141" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N38" s="142">
         <v>5</v>
@@ -5799,10 +5805,10 @@
         <v>120022985</v>
       </c>
       <c r="C39" s="144" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D39" s="144" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E39" s="138">
         <v>1</v>
@@ -5820,16 +5826,16 @@
         <v>6</v>
       </c>
       <c r="J39" s="140" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K39" s="137" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L39" s="137" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M39" s="141" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N39" s="142">
         <v>6</v>
@@ -5843,10 +5849,10 @@
         <v>92663</v>
       </c>
       <c r="C40" s="144" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D40" s="144" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E40" s="138">
         <v>1</v>
@@ -5864,16 +5870,16 @@
         <v>6</v>
       </c>
       <c r="J40" s="140" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K40" s="137" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L40" s="137" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M40" s="141" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N40" s="142">
         <v>7</v>
@@ -5887,10 +5893,10 @@
         <v>120024040</v>
       </c>
       <c r="C41" s="144" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D41" s="144" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E41" s="138">
         <v>1</v>
@@ -5908,16 +5914,16 @@
         <v>6</v>
       </c>
       <c r="J41" s="140" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K41" s="137" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L41" s="137" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M41" s="141" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N41" s="142">
         <v>8</v>
@@ -5931,10 +5937,10 @@
         <v>120030364</v>
       </c>
       <c r="C42" s="144" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D42" s="144" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E42" s="138">
         <v>1</v>
@@ -5952,16 +5958,16 @@
         <v>6</v>
       </c>
       <c r="J42" s="140" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K42" s="137" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L42" s="137" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M42" s="141" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N42" s="142">
         <v>9</v>
@@ -5975,10 +5981,10 @@
         <v>120024886</v>
       </c>
       <c r="C43" s="144" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D43" s="144" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E43" s="138">
         <v>1</v>
@@ -5996,16 +6002,16 @@
         <v>6</v>
       </c>
       <c r="J43" s="140" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K43" s="137" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L43" s="137" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M43" s="141" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N43" s="142">
         <v>10</v>
@@ -6019,10 +6025,10 @@
         <v>120028580</v>
       </c>
       <c r="C44" s="144" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D44" s="144" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E44" s="138">
         <v>1</v>
@@ -6040,16 +6046,16 @@
         <v>6</v>
       </c>
       <c r="J44" s="140" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K44" s="137" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L44" s="137" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M44" s="141" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N44" s="142">
         <v>11</v>
@@ -6063,10 +6069,10 @@
         <v>120024376</v>
       </c>
       <c r="C45" s="144" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D45" s="144" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E45" s="138">
         <v>1</v>
@@ -6084,16 +6090,16 @@
         <v>6</v>
       </c>
       <c r="J45" s="140" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K45" s="137" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L45" s="137" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M45" s="141" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N45" s="142">
         <v>12</v>
@@ -6107,10 +6113,10 @@
         <v>120027072</v>
       </c>
       <c r="C46" s="144" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D46" s="144" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E46" s="138">
         <v>1</v>
@@ -6128,16 +6134,16 @@
         <v>6</v>
       </c>
       <c r="J46" s="140" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K46" s="137" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L46" s="137" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M46" s="141" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N46" s="142">
         <v>13</v>
@@ -6151,10 +6157,10 @@
         <v>120030386</v>
       </c>
       <c r="C47" s="137" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D47" s="137" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E47" s="138">
         <v>1</v>
@@ -6172,16 +6178,16 @@
         <v>6</v>
       </c>
       <c r="J47" s="140" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K47" s="137" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L47" s="137" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M47" s="141" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N47" s="142">
         <v>14</v>
@@ -6195,10 +6201,10 @@
         <v>120030443</v>
       </c>
       <c r="C48" s="137" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D48" s="137" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E48" s="138">
         <v>1</v>
@@ -6216,16 +6222,16 @@
         <v>5</v>
       </c>
       <c r="J48" s="140" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K48" s="137" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L48" s="137" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M48" s="141" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N48" s="142">
         <v>1</v>
@@ -6239,10 +6245,10 @@
         <v>120025707</v>
       </c>
       <c r="C49" s="144" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D49" s="144" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E49" s="138">
         <v>1</v>
@@ -6260,16 +6266,16 @@
         <v>5</v>
       </c>
       <c r="J49" s="140" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K49" s="137" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L49" s="137" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M49" s="141" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N49" s="142">
         <v>2</v>
@@ -6283,10 +6289,10 @@
         <v>120029381</v>
       </c>
       <c r="C50" s="144" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D50" s="144" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E50" s="138">
         <v>1</v>
@@ -6304,16 +6310,16 @@
         <v>5</v>
       </c>
       <c r="J50" s="140" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K50" s="137" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L50" s="137" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M50" s="141" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N50" s="142">
         <v>3</v>
@@ -6327,10 +6333,10 @@
         <v>94010</v>
       </c>
       <c r="C51" s="144" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D51" s="144" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E51" s="138">
         <v>1</v>
@@ -6348,16 +6354,16 @@
         <v>5</v>
       </c>
       <c r="J51" s="140" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K51" s="137" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L51" s="137" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M51" s="141" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N51" s="142">
         <v>4</v>
@@ -6371,10 +6377,10 @@
         <v>120025498</v>
       </c>
       <c r="C52" s="144" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D52" s="144" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E52" s="138">
         <v>1</v>
@@ -6392,16 +6398,16 @@
         <v>5</v>
       </c>
       <c r="J52" s="140" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K52" s="137" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L52" s="137" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M52" s="141" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N52" s="142">
         <v>5</v>
@@ -6415,10 +6421,10 @@
         <v>120030883</v>
       </c>
       <c r="C53" s="144" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D53" s="144" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E53" s="145">
         <v>1</v>
@@ -6436,16 +6442,16 @@
         <v>5</v>
       </c>
       <c r="J53" s="146" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K53" s="137" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L53" s="144" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M53" s="142" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N53" s="142">
         <v>6</v>
@@ -6459,10 +6465,10 @@
         <v>120022936</v>
       </c>
       <c r="C54" s="144" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D54" s="144" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E54" s="138">
         <v>1</v>
@@ -6480,16 +6486,16 @@
         <v>5</v>
       </c>
       <c r="J54" s="140" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K54" s="137" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L54" s="137" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M54" s="141" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N54" s="142">
         <v>7</v>
@@ -6503,10 +6509,10 @@
         <v>120028579</v>
       </c>
       <c r="C55" s="144" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D55" s="144" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E55" s="138">
         <v>1</v>
@@ -6524,16 +6530,16 @@
         <v>5</v>
       </c>
       <c r="J55" s="140" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K55" s="137" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L55" s="137" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M55" s="141" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N55" s="142">
         <v>8</v>
@@ -6547,10 +6553,10 @@
         <v>120029262</v>
       </c>
       <c r="C56" s="147" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D56" s="144" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E56" s="138">
         <v>1</v>
@@ -6568,16 +6574,16 @@
         <v>5</v>
       </c>
       <c r="J56" s="140" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K56" s="137" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L56" s="137" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M56" s="141" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N56" s="142">
         <v>9</v>
@@ -6591,10 +6597,10 @@
         <v>120030302</v>
       </c>
       <c r="C57" s="147" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D57" s="144" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E57" s="138">
         <v>1</v>
@@ -6612,16 +6618,16 @@
         <v>5</v>
       </c>
       <c r="J57" s="140" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K57" s="137" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L57" s="137" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M57" s="141" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N57" s="142">
         <v>10</v>
@@ -6635,10 +6641,10 @@
         <v>99830</v>
       </c>
       <c r="C58" s="148" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D58" s="144" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E58" s="138">
         <v>1</v>
@@ -6656,16 +6662,16 @@
         <v>5</v>
       </c>
       <c r="J58" s="140" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K58" s="137" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L58" s="137" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M58" s="141" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N58" s="142">
         <v>11</v>
@@ -6679,10 +6685,10 @@
         <v>120024307</v>
       </c>
       <c r="C59" s="147" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D59" s="144" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E59" s="138">
         <v>1</v>
@@ -6700,16 +6706,16 @@
         <v>5</v>
       </c>
       <c r="J59" s="140" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K59" s="137" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L59" s="137" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M59" s="141" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N59" s="142">
         <v>12</v>
@@ -6723,10 +6729,10 @@
         <v>120029260</v>
       </c>
       <c r="C60" s="150" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D60" s="137" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E60" s="138">
         <v>1</v>
@@ -6744,16 +6750,16 @@
         <v>6</v>
       </c>
       <c r="J60" s="140" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K60" s="137" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L60" s="137" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M60" s="141" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N60" s="142">
         <v>1</v>
@@ -6767,10 +6773,10 @@
         <v>120029384</v>
       </c>
       <c r="C61" s="148" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D61" s="137" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E61" s="138">
         <v>1</v>
@@ -6788,16 +6794,16 @@
         <v>6</v>
       </c>
       <c r="J61" s="140" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K61" s="137" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L61" s="137" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M61" s="141" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N61" s="142">
         <v>2</v>
@@ -6811,10 +6817,10 @@
         <v>120024255</v>
       </c>
       <c r="C62" s="147" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D62" s="137" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E62" s="138">
         <v>1</v>
@@ -6832,16 +6838,16 @@
         <v>6</v>
       </c>
       <c r="J62" s="140" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K62" s="137" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L62" s="137" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M62" s="141" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N62" s="142">
         <v>3</v>
@@ -6855,10 +6861,10 @@
         <v>120030466</v>
       </c>
       <c r="C63" s="148" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D63" s="137" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E63" s="138">
         <v>1</v>
@@ -6876,16 +6882,16 @@
         <v>6</v>
       </c>
       <c r="J63" s="140" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K63" s="137" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L63" s="137" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M63" s="141" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N63" s="142">
         <v>4</v>
@@ -6899,10 +6905,10 @@
         <v>79014</v>
       </c>
       <c r="C64" s="137" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D64" s="137" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E64" s="138">
         <v>1</v>
@@ -6920,16 +6926,16 @@
         <v>8</v>
       </c>
       <c r="J64" s="140" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K64" s="137" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L64" s="137" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M64" s="141" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N64" s="142">
         <v>5</v>
@@ -6943,10 +6949,10 @@
         <v>120022938</v>
       </c>
       <c r="C65" s="137" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D65" s="137" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E65" s="138">
         <v>1</v>
@@ -6964,16 +6970,16 @@
         <v>8</v>
       </c>
       <c r="J65" s="140" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K65" s="137" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L65" s="137" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M65" s="141" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N65" s="142">
         <v>6</v>
@@ -6987,10 +6993,10 @@
         <v>120029383</v>
       </c>
       <c r="C66" s="137" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D66" s="137" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E66" s="138">
         <v>1</v>
@@ -7008,16 +7014,16 @@
         <v>8</v>
       </c>
       <c r="J66" s="140" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K66" s="137" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L66" s="137" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M66" s="141" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N66" s="142">
         <v>7</v>
@@ -7031,10 +7037,10 @@
         <v>120024626</v>
       </c>
       <c r="C67" s="137" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D67" s="137" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E67" s="138">
         <v>1</v>
@@ -7052,16 +7058,16 @@
         <v>8</v>
       </c>
       <c r="J67" s="140" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K67" s="137" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L67" s="137" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M67" s="141" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N67" s="142">
         <v>8</v>
@@ -7075,10 +7081,10 @@
         <v>120023289</v>
       </c>
       <c r="C68" s="137" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D68" s="137" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E68" s="138">
         <v>1</v>
@@ -7096,16 +7102,16 @@
         <v>8</v>
       </c>
       <c r="J68" s="140" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K68" s="137" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L68" s="137" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M68" s="141" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N68" s="142">
         <v>9</v>
@@ -7119,10 +7125,10 @@
         <v>120025009</v>
       </c>
       <c r="C69" s="137" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D69" s="137" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E69" s="138">
         <v>1</v>
@@ -7140,16 +7146,16 @@
         <v>8</v>
       </c>
       <c r="J69" s="140" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K69" s="137" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L69" s="137" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M69" s="141" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N69" s="142">
         <v>10</v>
@@ -7163,10 +7169,10 @@
         <v>120024863</v>
       </c>
       <c r="C70" s="137" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D70" s="137" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E70" s="138">
         <v>1</v>
@@ -7184,16 +7190,16 @@
         <v>8</v>
       </c>
       <c r="J70" s="140" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K70" s="137" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L70" s="137" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M70" s="141" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N70" s="142">
         <v>11</v>
@@ -7207,10 +7213,10 @@
         <v>120027901</v>
       </c>
       <c r="C71" s="137" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D71" s="137" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E71" s="138">
         <v>1</v>
@@ -7228,16 +7234,16 @@
         <v>8</v>
       </c>
       <c r="J71" s="140" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K71" s="137" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L71" s="137" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M71" s="141" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N71" s="142">
         <v>12</v>
@@ -7251,10 +7257,10 @@
         <v>120024375</v>
       </c>
       <c r="C72" s="137" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D72" s="137" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E72" s="138">
         <v>1</v>
@@ -7272,16 +7278,16 @@
         <v>8</v>
       </c>
       <c r="J72" s="140" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K72" s="137" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L72" s="137" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M72" s="141" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N72" s="142">
         <v>13</v>
@@ -7295,10 +7301,10 @@
         <v>120026573</v>
       </c>
       <c r="C73" s="152" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D73" s="153" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E73" s="138">
         <v>1</v>
@@ -7317,16 +7323,16 @@
         <v>5</v>
       </c>
       <c r="J73" s="140" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K73" s="137" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L73" s="137" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M73" s="137" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N73" s="142">
         <v>1</v>
@@ -7340,10 +7346,10 @@
         <v>120026488</v>
       </c>
       <c r="C74" s="153" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D74" s="153" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E74" s="138">
         <v>1</v>
@@ -7362,16 +7368,16 @@
         <v>5</v>
       </c>
       <c r="J74" s="140" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K74" s="137" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L74" s="137" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M74" s="137" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N74" s="142">
         <v>2</v>
@@ -7385,10 +7391,10 @@
         <v>32990</v>
       </c>
       <c r="C75" s="153" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D75" s="153" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E75" s="138">
         <v>1</v>
@@ -7407,16 +7413,16 @@
         <v>5</v>
       </c>
       <c r="J75" s="140" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K75" s="137" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L75" s="137" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M75" s="137" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N75" s="142">
         <v>3</v>
@@ -7430,10 +7436,10 @@
         <v>120026491</v>
       </c>
       <c r="C76" s="153" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D76" s="153" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E76" s="138">
         <v>1</v>
@@ -7452,16 +7458,16 @@
         <v>5</v>
       </c>
       <c r="J76" s="140" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K76" s="137" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L76" s="137" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M76" s="137" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N76" s="142">
         <v>4</v>
@@ -7475,10 +7481,10 @@
         <v>120026492</v>
       </c>
       <c r="C77" s="153" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D77" s="153" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E77" s="138">
         <v>1</v>
@@ -7497,16 +7503,16 @@
         <v>5</v>
       </c>
       <c r="J77" s="140" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K77" s="137" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L77" s="137" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M77" s="137" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N77" s="142">
         <v>5</v>
@@ -7520,10 +7526,10 @@
         <v>47722</v>
       </c>
       <c r="C78" s="153" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D78" s="153" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E78" s="138">
         <v>1</v>
@@ -7542,16 +7548,16 @@
         <v>5</v>
       </c>
       <c r="J78" s="140" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K78" s="137" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L78" s="137" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M78" s="137" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N78" s="142">
         <v>6</v>
@@ -7565,10 +7571,10 @@
         <v>120026489</v>
       </c>
       <c r="C79" s="153" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D79" s="153" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E79" s="138">
         <v>1</v>
@@ -7587,16 +7593,16 @@
         <v>5</v>
       </c>
       <c r="J79" s="140" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K79" s="137" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L79" s="137" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M79" s="137" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N79" s="142">
         <v>7</v>
@@ -7610,10 +7616,10 @@
         <v>120026487</v>
       </c>
       <c r="C80" s="144" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D80" s="144" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E80" s="145">
         <v>1</v>
@@ -7632,16 +7638,16 @@
         <v>5</v>
       </c>
       <c r="J80" s="140" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K80" s="137" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L80" s="137" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M80" s="137" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N80" s="142">
         <v>8</v>
@@ -7655,10 +7661,10 @@
         <v>120027482</v>
       </c>
       <c r="C81" s="155" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D81" s="137" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E81" s="138">
         <v>1</v>
@@ -7676,16 +7682,16 @@
         <v>11</v>
       </c>
       <c r="J81" s="140" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K81" s="137" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L81" s="137" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M81" s="142" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N81" s="142">
         <v>1</v>
@@ -7699,10 +7705,10 @@
         <v>120030467</v>
       </c>
       <c r="C82" s="155" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D82" s="137" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E82" s="138">
         <v>1</v>
@@ -7720,16 +7726,16 @@
         <v>11</v>
       </c>
       <c r="J82" s="140" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K82" s="137" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L82" s="137" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M82" s="142" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N82" s="142">
         <v>2</v>
@@ -7743,10 +7749,10 @@
         <v>120027824</v>
       </c>
       <c r="C83" s="155" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D83" s="137" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E83" s="138">
         <v>1</v>
@@ -7765,16 +7771,16 @@
         <v>11</v>
       </c>
       <c r="J83" s="140" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K83" s="137" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L83" s="137" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M83" s="142" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N83" s="142">
         <v>3</v>
@@ -7788,10 +7794,10 @@
         <v>90005</v>
       </c>
       <c r="C84" s="157" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D84" s="137" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E84" s="138">
         <v>1</v>
@@ -7810,16 +7816,16 @@
         <v>11</v>
       </c>
       <c r="J84" s="140" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K84" s="137" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L84" s="137" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M84" s="142" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N84" s="142">
         <v>4</v>
@@ -7833,10 +7839,10 @@
         <v>120028904</v>
       </c>
       <c r="C85" s="155" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D85" s="137" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E85" s="138">
         <v>1</v>
@@ -7854,16 +7860,16 @@
         <v>11</v>
       </c>
       <c r="J85" s="140" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K85" s="137" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L85" s="137" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M85" s="142" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N85" s="142">
         <v>5</v>
@@ -7877,10 +7883,10 @@
         <v>120024377</v>
       </c>
       <c r="C86" s="157" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D86" s="137" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E86" s="138">
         <v>1</v>
@@ -7899,16 +7905,16 @@
         <v>11</v>
       </c>
       <c r="J86" s="140" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K86" s="137" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L86" s="137" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M86" s="142" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N86" s="142">
         <v>6</v>
@@ -7922,10 +7928,10 @@
         <v>120024969</v>
       </c>
       <c r="C87" s="155" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D87" s="137" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E87" s="138">
         <v>1</v>
@@ -7944,16 +7950,16 @@
         <v>11</v>
       </c>
       <c r="J87" s="140" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K87" s="137" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L87" s="137" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M87" s="142" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N87" s="142">
         <v>7</v>
@@ -7967,10 +7973,10 @@
         <v>120024892</v>
       </c>
       <c r="C88" s="157" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D88" s="137" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E88" s="138">
         <v>1</v>
@@ -7989,16 +7995,16 @@
         <v>11</v>
       </c>
       <c r="J88" s="140" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K88" s="137" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L88" s="137" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M88" s="142" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N88" s="142">
         <v>8</v>
@@ -8012,10 +8018,10 @@
         <v>99677</v>
       </c>
       <c r="C89" s="140" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D89" s="140" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E89" s="138">
         <v>1</v>
@@ -8033,16 +8039,16 @@
         <v>11</v>
       </c>
       <c r="J89" s="140" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K89" s="137" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L89" s="137" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M89" s="142" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N89" s="142">
         <v>9</v>
@@ -8056,10 +8062,10 @@
         <v>59421</v>
       </c>
       <c r="C90" s="153" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D90" s="153" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E90" s="138">
         <v>1</v>
@@ -8077,16 +8083,16 @@
         <v>12</v>
       </c>
       <c r="J90" s="140" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K90" s="137" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L90" s="137" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M90" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N90" s="141">
         <v>1</v>
@@ -8100,10 +8106,10 @@
         <v>82946</v>
       </c>
       <c r="C91" s="153" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D91" s="153" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E91" s="138">
         <v>1</v>
@@ -8121,16 +8127,16 @@
         <v>12</v>
       </c>
       <c r="J91" s="140" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K91" s="137" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L91" s="137" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M91" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N91" s="141">
         <v>2</v>
@@ -8144,10 +8150,10 @@
         <v>97324</v>
       </c>
       <c r="C92" s="153" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D92" s="153" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E92" s="138">
         <v>1</v>
@@ -8165,16 +8171,16 @@
         <v>12</v>
       </c>
       <c r="J92" s="140" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K92" s="137" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L92" s="137" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M92" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N92" s="141">
         <v>3</v>
@@ -8188,10 +8194,10 @@
         <v>120026634</v>
       </c>
       <c r="C93" s="153" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D93" s="153" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E93" s="138">
         <v>1</v>
@@ -8209,16 +8215,16 @@
         <v>12</v>
       </c>
       <c r="J93" s="140" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K93" s="137" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L93" s="137" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M93" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N93" s="141">
         <v>4</v>
@@ -8232,10 +8238,10 @@
         <v>120027080</v>
       </c>
       <c r="C94" s="153" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D94" s="153" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E94" s="138">
         <v>1</v>
@@ -8253,16 +8259,16 @@
         <v>12</v>
       </c>
       <c r="J94" s="140" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K94" s="137" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L94" s="137" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M94" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N94" s="141">
         <v>5</v>
@@ -8276,10 +8282,10 @@
         <v>120027441</v>
       </c>
       <c r="C95" s="144" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D95" s="144" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E95" s="145">
         <v>1</v>
@@ -8297,16 +8303,16 @@
         <v>12</v>
       </c>
       <c r="J95" s="140" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K95" s="137" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L95" s="137" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M95" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N95" s="141">
         <v>6</v>
@@ -8320,10 +8326,10 @@
         <v>120027806</v>
       </c>
       <c r="C96" s="153" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D96" s="153" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E96" s="138">
         <v>1</v>
@@ -8341,16 +8347,16 @@
         <v>12</v>
       </c>
       <c r="J96" s="140" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K96" s="137" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L96" s="137" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M96" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N96" s="141">
         <v>7</v>
@@ -8364,10 +8370,10 @@
         <v>120026620</v>
       </c>
       <c r="C97" s="153" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D97" s="153" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E97" s="138">
         <v>1</v>
@@ -8385,16 +8391,16 @@
         <v>12</v>
       </c>
       <c r="J97" s="140" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K97" s="137" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L97" s="137" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M97" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N97" s="141">
         <v>8</v>
@@ -8408,10 +8414,10 @@
         <v>120026626</v>
       </c>
       <c r="C98" s="153" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D98" s="153" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E98" s="138">
         <v>1</v>
@@ -8429,16 +8435,16 @@
         <v>12</v>
       </c>
       <c r="J98" s="140" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K98" s="137" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L98" s="137" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M98" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N98" s="141">
         <v>9</v>
@@ -8452,10 +8458,10 @@
         <v>96078</v>
       </c>
       <c r="C99" s="153" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D99" s="153" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E99" s="138">
         <v>1</v>
@@ -8474,16 +8480,16 @@
         <v>12</v>
       </c>
       <c r="J99" s="140" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K99" s="137" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L99" s="137" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M99" s="141" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="N99" s="141">
         <v>1</v>
@@ -8497,10 +8503,10 @@
         <v>120027103</v>
       </c>
       <c r="C100" s="153" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D100" s="153" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E100" s="138">
         <v>1</v>
@@ -8519,16 +8525,16 @@
         <v>12</v>
       </c>
       <c r="J100" s="140" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K100" s="137" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L100" s="137" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M100" s="141" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="N100" s="141">
         <v>2</v>
@@ -8542,10 +8548,10 @@
         <v>120027696</v>
       </c>
       <c r="C101" s="153" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D101" s="153" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E101" s="138">
         <v>1</v>
@@ -8564,16 +8570,16 @@
         <v>12</v>
       </c>
       <c r="J101" s="140" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K101" s="137" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L101" s="137" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M101" s="141" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="N101" s="141">
         <v>3</v>
@@ -8587,10 +8593,10 @@
         <v>120029269</v>
       </c>
       <c r="C102" s="144" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D102" s="153" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E102" s="138">
         <v>1</v>
@@ -8609,16 +8615,16 @@
         <v>12</v>
       </c>
       <c r="J102" s="140" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K102" s="137" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L102" s="137" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M102" s="141" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="N102" s="141">
         <v>4</v>
@@ -8632,10 +8638,10 @@
         <v>120030188</v>
       </c>
       <c r="C103" s="153" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D103" s="153" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E103" s="138">
         <v>1</v>
@@ -8654,16 +8660,16 @@
         <v>12</v>
       </c>
       <c r="J103" s="140" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K103" s="137" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L103" s="137" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M103" s="141" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="N103" s="142">
         <v>5</v>
@@ -8677,10 +8683,10 @@
         <v>120030568</v>
       </c>
       <c r="C104" s="137" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D104" s="137" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E104" s="138">
         <v>1</v>
@@ -8699,16 +8705,16 @@
         <v>8</v>
       </c>
       <c r="J104" s="140" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K104" s="137" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L104" s="137" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M104" s="141" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="N104" s="141">
         <v>1</v>
@@ -8722,10 +8728,10 @@
         <v>120030573</v>
       </c>
       <c r="C105" s="137" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D105" s="137" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E105" s="138">
         <v>1</v>
@@ -8744,16 +8750,16 @@
         <v>8</v>
       </c>
       <c r="J105" s="140" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K105" s="137" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L105" s="137" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M105" s="141" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="N105" s="141">
         <v>2</v>
@@ -8767,10 +8773,10 @@
         <v>120030639</v>
       </c>
       <c r="C106" s="137" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D106" s="137" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E106" s="138">
         <v>1</v>
@@ -8789,16 +8795,16 @@
         <v>8</v>
       </c>
       <c r="J106" s="140" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K106" s="137" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L106" s="137" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M106" s="141" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="N106" s="141">
         <v>3</v>
@@ -8812,10 +8818,10 @@
         <v>99802</v>
       </c>
       <c r="C107" s="155" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D107" s="137" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E107" s="138">
         <v>1</v>
@@ -8833,16 +8839,16 @@
         <v>11</v>
       </c>
       <c r="J107" s="140" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K107" s="137" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L107" s="137" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M107" s="141" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="N107" s="141">
         <v>1</v>
@@ -8856,10 +8862,10 @@
         <v>120022942</v>
       </c>
       <c r="C108" s="155" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D108" s="137" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E108" s="138">
         <v>1</v>
@@ -8877,16 +8883,16 @@
         <v>11</v>
       </c>
       <c r="J108" s="140" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K108" s="137" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L108" s="137" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M108" s="141" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="N108" s="141">
         <v>2</v>
@@ -8900,10 +8906,10 @@
         <v>120027412</v>
       </c>
       <c r="C109" s="155" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D109" s="137" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E109" s="138">
         <v>1</v>
@@ -8921,16 +8927,16 @@
         <v>11</v>
       </c>
       <c r="J109" s="140" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K109" s="137" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L109" s="137" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M109" s="141" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="N109" s="141">
         <v>3</v>
@@ -8944,10 +8950,10 @@
         <v>120027481</v>
       </c>
       <c r="C110" s="155" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D110" s="137" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E110" s="138">
         <v>1</v>
@@ -8965,16 +8971,16 @@
         <v>12</v>
       </c>
       <c r="J110" s="140" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K110" s="137" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L110" s="137" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M110" s="141" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="N110" s="141">
         <v>1</v>
@@ -8988,10 +8994,10 @@
         <v>120028362</v>
       </c>
       <c r="C111" s="155" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D111" s="137" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E111" s="138">
         <v>1</v>
@@ -9009,16 +9015,16 @@
         <v>12</v>
       </c>
       <c r="J111" s="140" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K111" s="137" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L111" s="137" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M111" s="141" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="N111" s="141">
         <v>2</v>
@@ -9032,10 +9038,10 @@
         <v>120022957</v>
       </c>
       <c r="C112" s="155" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D112" s="137" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E112" s="138">
         <v>1</v>
@@ -9053,16 +9059,16 @@
         <v>12</v>
       </c>
       <c r="J112" s="140" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K112" s="137" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L112" s="137" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M112" s="141" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="N112" s="141">
         <v>1</v>
@@ -9076,10 +9082,10 @@
         <v>120029638</v>
       </c>
       <c r="C113" s="155" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D113" s="155" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E113" s="138">
         <v>1</v>
@@ -9097,16 +9103,16 @@
         <v>12</v>
       </c>
       <c r="J113" s="140" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K113" s="137" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L113" s="137" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M113" s="141" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="N113" s="141">
         <v>2</v>
@@ -9120,10 +9126,10 @@
         <v>92536</v>
       </c>
       <c r="C114" s="144" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D114" s="144" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E114" s="145">
         <v>1</v>
@@ -9141,16 +9147,16 @@
         <v>9</v>
       </c>
       <c r="J114" s="140" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K114" s="137" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L114" s="137" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M114" s="141" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="N114" s="141">
         <v>1</v>
@@ -9158,58 +9164,58 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="duplicateValues" dxfId="25" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="duplicateValues" dxfId="24" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B8">
-    <cfRule type="duplicateValues" dxfId="23" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="duplicateValues" dxfId="22" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="duplicateValues" dxfId="21" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B22">
-    <cfRule type="duplicateValues" dxfId="20" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B26">
-    <cfRule type="duplicateValues" dxfId="19" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B33">
-    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B47">
-    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B52 B54:B59">
-    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B72">
-    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B80">
-    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B89">
-    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B98">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B103">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B106">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107:B114">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9239,61 +9245,61 @@
     <row r="1" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H2" s="13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G4">
         <v>1.5</v>
@@ -9311,22 +9317,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -9344,22 +9350,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -9377,22 +9383,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -9410,22 +9416,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G8">
         <v>20</v>
@@ -9443,22 +9449,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
       </c>
       <c r="G9">
         <v>1.5</v>
@@ -9476,22 +9482,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -9509,22 +9515,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
       <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -9542,22 +9548,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
       </c>
       <c r="G12">
         <v>10</v>
@@ -9575,22 +9581,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
         <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13">
         <v>20</v>
@@ -9608,22 +9614,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
       <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
         <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
       </c>
       <c r="G14">
         <v>1.5</v>
@@ -9641,22 +9647,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
       <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
         <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" t="s">
-        <v>25</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -9674,22 +9680,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
         <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" t="s">
-        <v>26</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -9707,22 +9713,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
       <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
         <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" t="s">
-        <v>25</v>
       </c>
       <c r="G17">
         <v>10</v>
@@ -9740,22 +9746,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
       <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
         <v>21</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" t="s">
-        <v>25</v>
       </c>
       <c r="G18">
         <v>20</v>
@@ -9773,19 +9779,19 @@
     </row>
     <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J19">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -9794,19 +9800,19 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J20">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -9815,7 +9821,7 @@
     </row>
     <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J21">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -9824,7 +9830,7 @@
     </row>
     <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J22">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -9833,7 +9839,7 @@
     </row>
     <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J23">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -9842,7 +9848,7 @@
     </row>
     <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J24">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -9851,7 +9857,7 @@
     </row>
     <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J25">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -9860,7 +9866,7 @@
     </row>
     <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J26">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -9869,7 +9875,7 @@
     </row>
     <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J27">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -9878,7 +9884,7 @@
     </row>
     <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J28">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -9887,7 +9893,7 @@
     </row>
     <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J29">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -9896,7 +9902,7 @@
     </row>
     <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J30">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -9905,7 +9911,7 @@
     </row>
     <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J31">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -9914,7 +9920,7 @@
     </row>
     <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J32">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -9923,7 +9929,7 @@
     </row>
     <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J33">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -9932,7 +9938,7 @@
     </row>
     <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J34">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -9941,7 +9947,7 @@
     </row>
     <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J35">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -9950,7 +9956,7 @@
     </row>
     <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J36">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -9959,7 +9965,7 @@
     </row>
     <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J37">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -9968,7 +9974,7 @@
     </row>
     <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J38">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -9977,7 +9983,7 @@
     </row>
     <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J39">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -9986,7 +9992,7 @@
     </row>
     <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J40">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -9995,7 +10001,7 @@
     </row>
     <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J41">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10004,7 +10010,7 @@
     </row>
     <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J42">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10013,7 +10019,7 @@
     </row>
     <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J43">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10022,7 +10028,7 @@
     </row>
     <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J44">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10031,7 +10037,7 @@
     </row>
     <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J45">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10040,7 +10046,7 @@
     </row>
     <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J46">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10049,7 +10055,7 @@
     </row>
     <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J47">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10058,7 +10064,7 @@
     </row>
     <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J48">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10067,7 +10073,7 @@
     </row>
     <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J49">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10076,7 +10082,7 @@
     </row>
     <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J50">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10085,7 +10091,7 @@
     </row>
     <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J51">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10094,7 +10100,7 @@
     </row>
     <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J52">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10103,7 +10109,7 @@
     </row>
     <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J53">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10112,7 +10118,7 @@
     </row>
     <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J54">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10121,7 +10127,7 @@
     </row>
     <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J55">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10130,7 +10136,7 @@
     </row>
     <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J56">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10139,7 +10145,7 @@
     </row>
     <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J57">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10148,7 +10154,7 @@
     </row>
     <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J58">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10157,7 +10163,7 @@
     </row>
     <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J59">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10166,7 +10172,7 @@
     </row>
     <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J60">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10175,7 +10181,7 @@
     </row>
     <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J61">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10184,7 +10190,7 @@
     </row>
     <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J62">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10193,7 +10199,7 @@
     </row>
     <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J63">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10202,7 +10208,7 @@
     </row>
     <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J64">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10211,7 +10217,7 @@
     </row>
     <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J65">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10220,7 +10226,7 @@
     </row>
     <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J66">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10229,7 +10235,7 @@
     </row>
     <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J67">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10238,7 +10244,7 @@
     </row>
     <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J68">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10247,7 +10253,7 @@
     </row>
     <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J69">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10256,7 +10262,7 @@
     </row>
     <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J70">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10265,7 +10271,7 @@
     </row>
     <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J71">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10274,7 +10280,7 @@
     </row>
     <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J72">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10283,7 +10289,7 @@
     </row>
     <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J73">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10292,7 +10298,7 @@
     </row>
     <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J74">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10301,7 +10307,7 @@
     </row>
     <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J75">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10310,7 +10316,7 @@
     </row>
     <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J76">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10319,7 +10325,7 @@
     </row>
     <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J77">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10328,7 +10334,7 @@
     </row>
     <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J78">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10337,7 +10343,7 @@
     </row>
     <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J79">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10346,7 +10352,7 @@
     </row>
     <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J80">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10355,7 +10361,7 @@
     </row>
     <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J81">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10364,7 +10370,7 @@
     </row>
     <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J82">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10373,7 +10379,7 @@
     </row>
     <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J83">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10382,7 +10388,7 @@
     </row>
     <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J84">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10391,7 +10397,7 @@
     </row>
     <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J85">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10400,7 +10406,7 @@
     </row>
     <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J86">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10409,7 +10415,7 @@
     </row>
     <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J87">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10418,7 +10424,7 @@
     </row>
     <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J88">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10427,7 +10433,7 @@
     </row>
     <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J89">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10436,7 +10442,7 @@
     </row>
     <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J90">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10445,7 +10451,7 @@
     </row>
     <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J91">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10454,7 +10460,7 @@
     </row>
     <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J92">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10463,7 +10469,7 @@
     </row>
     <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J93">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10472,7 +10478,7 @@
     </row>
     <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J94">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10481,7 +10487,7 @@
     </row>
     <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J95">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10490,7 +10496,7 @@
     </row>
     <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J96">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10499,7 +10505,7 @@
     </row>
     <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J97">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10508,7 +10514,7 @@
     </row>
     <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J98">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10517,7 +10523,7 @@
     </row>
     <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J99">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10526,7 +10532,7 @@
     </row>
     <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J100">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10535,7 +10541,7 @@
     </row>
     <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J101">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10544,7 +10550,7 @@
     </row>
     <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J102">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10553,7 +10559,7 @@
     </row>
     <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J103">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10562,7 +10568,7 @@
     </row>
     <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J104">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10571,7 +10577,7 @@
     </row>
     <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J105">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10580,7 +10586,7 @@
     </row>
     <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J106">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10589,7 +10595,7 @@
     </row>
     <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J107">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10598,7 +10604,7 @@
     </row>
     <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J108">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10607,7 +10613,7 @@
     </row>
     <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J109">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10616,7 +10622,7 @@
     </row>
     <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J110">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10625,7 +10631,7 @@
     </row>
     <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J111">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10634,7 +10640,7 @@
     </row>
     <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J112">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10643,7 +10649,7 @@
     </row>
     <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J113">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10652,7 +10658,7 @@
     </row>
     <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J114">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10661,7 +10667,7 @@
     </row>
     <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J115">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10670,7 +10676,7 @@
     </row>
     <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J116">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10679,7 +10685,7 @@
     </row>
     <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J117">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10688,7 +10694,7 @@
     </row>
     <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J118">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10697,7 +10703,7 @@
     </row>
     <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J119">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10706,7 +10712,7 @@
     </row>
     <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J120">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10715,7 +10721,7 @@
     </row>
     <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J121">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10724,7 +10730,7 @@
     </row>
     <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J122">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10733,7 +10739,7 @@
     </row>
     <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J123">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -10767,194 +10773,194 @@
         <v>1</v>
       </c>
       <c r="C2" s="160" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" s="160" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C3" s="160" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D3" s="161" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C4" s="160" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4" s="161" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C5" s="160" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5" s="161" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" s="160" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6" s="161" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C7" s="160" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D7" s="161" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C8" s="160" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D8" s="161" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C9" s="160" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D9" s="161" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C10" s="160" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D10" s="161" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C11" s="160" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D11" s="161" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C12" s="160" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="161" t="s">
         <v>201</v>
-      </c>
-      <c r="D12" s="161" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C13" s="160" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D13" s="161" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C14" s="160" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D14" s="161" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C15" s="160" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D15" s="161" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C16" s="160" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D16" s="161" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="160" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D17" s="161" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="160" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D18" s="161" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="160" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D19" s="161" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="160" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D20" s="161" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="160" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D21" s="161" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" s="160" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D22" s="161" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" s="160" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D23" s="161" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="160" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D24" s="161" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" s="160" t="s">
+        <v>211</v>
+      </c>
+      <c r="D25" s="161" t="s">
         <v>215</v>
-      </c>
-      <c r="D25" s="161" t="s">
-        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -11024,58 +11030,58 @@
     <row r="1" spans="2:19" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="162" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="163" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" s="164" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2" s="164" t="s">
+        <v>219</v>
+      </c>
+      <c r="G2" s="164" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="163" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="163" t="s">
+      <c r="H2" s="163" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="163" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="163" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="163" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="164" t="s">
+      <c r="L2" s="163" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="164" t="s">
+      <c r="M2" s="163" t="s">
         <v>223</v>
       </c>
-      <c r="G2" s="164" t="s">
+      <c r="N2" s="163" t="s">
         <v>224</v>
       </c>
-      <c r="H2" s="163" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="163" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="163" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="163" t="s">
+      <c r="O2" s="163" t="s">
         <v>225</v>
       </c>
-      <c r="L2" s="163" t="s">
+      <c r="P2" s="163" t="s">
         <v>226</v>
       </c>
-      <c r="M2" s="163" t="s">
+      <c r="Q2" s="163" t="s">
         <v>227</v>
       </c>
-      <c r="N2" s="163" t="s">
+      <c r="R2" s="163" t="s">
         <v>228</v>
       </c>
-      <c r="O2" s="163" t="s">
-        <v>229</v>
-      </c>
-      <c r="P2" s="163" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q2" s="163" t="s">
-        <v>231</v>
-      </c>
-      <c r="R2" s="163" t="s">
-        <v>232</v>
-      </c>
       <c r="S2" s="165" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/DomesticTransport/DomesticTransport.xlsx
+++ b/DomesticTransport/DomesticTransport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aevse\Source\Repos\DomesticTransport\DomesticTransport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A700EB5-2D61-4993-9F31-88B85E9EC01D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE90A1FE-56FE-4F27-98CB-37098FFB12EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="30" windowWidth="22860" windowHeight="11010" xr2:uid="{AC776459-6745-4339-B7EA-E0E0F9747FA4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="6" xr2:uid="{AC776459-6745-4339-B7EA-E0E0F9747FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="234">
   <si>
     <t>Перевозчик</t>
   </si>
@@ -800,6 +800,9 @@
   </si>
   <si>
     <t>Дата доставки</t>
+  </si>
+  <si>
+    <t>Адрес</t>
   </si>
 </sst>
 </file>
@@ -1755,6 +1758,12 @@
     <xf numFmtId="0" fontId="21" fillId="12" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="13" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1772,12 +1781,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="13" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1790,6 +1793,144 @@
     <cellStyle name="Обычный 4" xfId="1" xr:uid="{6D1EACBA-287E-493D-A31F-3D0C6DD7000A}"/>
   </cellStyles>
   <dxfs count="36">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="57"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2041,144 +2182,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="9"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="57"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2239,8 +2242,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E3245CE-8CB7-440C-8A99-A387ADEE7331}" name="TableCarrier" displayName="TableCarrier" ref="B3:E4" insertRow="1" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34">
-  <autoFilter ref="B3:E4" xr:uid="{DEB12404-07BD-4FAF-83D7-6873DABB45B9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E3245CE-8CB7-440C-8A99-A387ADEE7331}" name="TableCarrier" displayName="TableCarrier" ref="B5:E6" insertRow="1" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34">
+  <autoFilter ref="B5:E6" xr:uid="{DEB12404-07BD-4FAF-83D7-6873DABB45B9}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{64C38326-B884-4325-8A47-3CF76FF099B6}" name="№ Авто"/>
     <tableColumn id="6" xr3:uid="{FEDCB64B-82B1-4C9E-9EEB-F53217E4637A}" name="Компания"/>
@@ -2252,13 +2255,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A1298FBD-3E0C-4829-AA91-D63AF491826E}" name="TableInvoicies" displayName="TableInvoicies" ref="B9:I10" insertRow="1" totalsRowShown="0" headerRowDxfId="33">
-  <autoFilter ref="B9:I10" xr:uid="{9CC24962-0F87-4500-BB2C-B26DD82344EE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A1298FBD-3E0C-4829-AA91-D63AF491826E}" name="TableInvoicies" displayName="TableInvoicies" ref="B10:I11" insertRow="1" totalsRowShown="0" headerRowDxfId="33">
+  <autoFilter ref="B10:I11" xr:uid="{9CC24962-0F87-4500-BB2C-B26DD82344EE}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{8E60E219-8ADB-48B1-A9CF-AF43EFB5E532}" name="№ Авто"/>
     <tableColumn id="2" xr3:uid="{0C480417-9A5C-4A67-90B7-E69215A66717}" name="Накладная"/>
     <tableColumn id="3" xr3:uid="{F4CF124F-2E32-452D-A812-ED185FAE6CE1}" name="ID Получателя"/>
-    <tableColumn id="4" xr3:uid="{FDB39A13-F31C-425A-A896-CEEDA012F19B}" name="Направление"/>
+    <tableColumn id="4" xr3:uid="{FDB39A13-F31C-425A-A896-CEEDA012F19B}" name="Адрес"/>
     <tableColumn id="5" xr3:uid="{3FC51D7E-32E2-4359-996D-239B1FACFB4D}" name="Маршрут"/>
     <tableColumn id="6" xr3:uid="{3FE52EE4-7FF0-4E5C-B44B-D132FB630934}" name="Колличество"/>
     <tableColumn id="8" xr3:uid="{50E3B879-A171-45D7-A925-1D1E08A707A7}" name="Вес"/>
@@ -2269,7 +2272,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0E832B09-3D36-4DE3-8E20-EF81C85F4B4E}" name="PriceDelivery" displayName="PriceDelivery" ref="A3:J123" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" headerRowCellStyle="Обычный 4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0E832B09-3D36-4DE3-8E20-EF81C85F4B4E}" name="PriceDelivery" displayName="PriceDelivery" ref="A3:J123" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" headerRowCellStyle="Обычный 4">
   <autoFilter ref="A3:J123" xr:uid="{75E0B774-231E-4CE9-B5F7-6515E34100A9}">
     <filterColumn colId="2">
       <filters>
@@ -2290,7 +2293,7 @@
     <tableColumn id="7" xr3:uid="{63E92DBC-C612-44AB-8710-DE5D3A67E602}" name="tonnage, t"/>
     <tableColumn id="8" xr3:uid="{7956AE7A-C21C-4293-AB21-1C09E993025E}" name="vehicle"/>
     <tableColumn id="9" xr3:uid="{485FC7AA-9B80-40AC-B112-7709C94F7992}" name="add.point"/>
-    <tableColumn id="10" xr3:uid="{76EEE4BC-710C-4EA7-9DD0-0BBB946AB005}" name="vehicle + add.point" dataDxfId="30">
+    <tableColumn id="10" xr3:uid="{76EEE4BC-710C-4EA7-9DD0-0BBB946AB005}" name="vehicle + add.point" dataDxfId="5">
       <calculatedColumnFormula>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2303,15 +2306,15 @@
   <autoFilter ref="B2:D25" xr:uid="{DE4A6499-25FE-4A0E-AE62-0DABB7DFBF79}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{29A63BC4-2872-4EA4-B075-ED195D9BE031}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{FF7F5D4D-C144-4DC0-AEA8-3808900FD64A}" name="Компания" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{A6517B15-FFF0-4130-831C-781935AA2468}" name="Получатель письма" dataDxfId="28" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="2" xr3:uid="{FF7F5D4D-C144-4DC0-AEA8-3808900FD64A}" name="Компания" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{A6517B15-FFF0-4130-831C-781935AA2468}" name="Получатель письма" dataDxfId="3" dataCellStyle="Гиперссылка"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C0B60422-EB35-4FB4-BF1B-2F6334DAF9A9}" name="Таблица5" displayName="Таблица5" ref="B2:S3" insertRow="1" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C0B60422-EB35-4FB4-BF1B-2F6334DAF9A9}" name="Таблица5" displayName="Таблица5" ref="B2:S3" insertRow="1" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="B2:S3" xr:uid="{6A8CAFF1-DE87-467A-9C9F-EAC45DD35AAA}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{6C78F3B1-C5C6-4E9B-B8B0-E04671622CA4}" name="ID перевозчика"/>
@@ -2634,17 +2637,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9007937B-86DB-4446-832F-F234A2840685}">
-  <dimension ref="A1:I9"/>
+  <sheetPr codeName="Лист2"/>
+  <dimension ref="B1:I10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -2653,15 +2657,15 @@
     <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="178" t="s">
+    <row r="1" spans="2:9" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="172" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="173">
+        <f ca="1">TODAY()+1</f>
+        <v>43895</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2669,59 +2673,61 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="179">
-        <f ca="1">TODAY()+1</f>
-        <v>43895</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    <row r="3" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+    <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2736,6 +2742,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB40C41-0399-4FC3-8526-AA71F4D11BE5}">
+  <sheetPr codeName="Лист3"/>
   <dimension ref="C1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2799,6 +2806,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2A8660-FA2E-487C-BB12-9A558B42F740}">
+  <sheetPr codeName="Лист4"/>
   <dimension ref="B1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2876,7 +2884,7 @@
       </c>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="174" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="75">
@@ -2921,12 +2929,12 @@
       <c r="P2" s="68">
         <v>1</v>
       </c>
-      <c r="Q2" s="175" t="s">
+      <c r="Q2" s="177" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="173"/>
+      <c r="B3" s="175"/>
       <c r="C3" s="75">
         <v>94206</v>
       </c>
@@ -2969,10 +2977,10 @@
       <c r="P3" s="68">
         <v>2</v>
       </c>
-      <c r="Q3" s="176"/>
+      <c r="Q3" s="178"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="173"/>
+      <c r="B4" s="175"/>
       <c r="C4" s="75">
         <v>92587</v>
       </c>
@@ -3015,10 +3023,10 @@
       <c r="P4" s="68">
         <v>3</v>
       </c>
-      <c r="Q4" s="176"/>
+      <c r="Q4" s="178"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="174"/>
+      <c r="B5" s="176"/>
       <c r="C5" s="75">
         <v>83838</v>
       </c>
@@ -3061,10 +3069,10 @@
       <c r="P5" s="68">
         <v>4</v>
       </c>
-      <c r="Q5" s="176"/>
+      <c r="Q5" s="178"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="172" t="s">
+      <c r="B6" s="174" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="67">
@@ -3109,10 +3117,10 @@
       <c r="P6" s="60">
         <v>1</v>
       </c>
-      <c r="Q6" s="176"/>
+      <c r="Q6" s="178"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="173"/>
+      <c r="B7" s="175"/>
       <c r="C7" s="67">
         <v>73499</v>
       </c>
@@ -3155,10 +3163,10 @@
       <c r="P7" s="60">
         <v>2</v>
       </c>
-      <c r="Q7" s="176"/>
+      <c r="Q7" s="178"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="173"/>
+      <c r="B8" s="175"/>
       <c r="C8" s="67">
         <v>90317</v>
       </c>
@@ -3201,10 +3209,10 @@
       <c r="P8" s="60">
         <v>3</v>
       </c>
-      <c r="Q8" s="176"/>
+      <c r="Q8" s="178"/>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="174"/>
+      <c r="B9" s="176"/>
       <c r="C9" s="67">
         <v>56096</v>
       </c>
@@ -3247,10 +3255,10 @@
       <c r="P9" s="60">
         <v>4</v>
       </c>
-      <c r="Q9" s="176"/>
+      <c r="Q9" s="178"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="172" t="s">
+      <c r="B10" s="174" t="s">
         <v>68</v>
       </c>
       <c r="C10" s="59">
@@ -3295,10 +3303,10 @@
       <c r="P10" s="52">
         <v>1</v>
       </c>
-      <c r="Q10" s="176"/>
+      <c r="Q10" s="178"/>
     </row>
     <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="174"/>
+      <c r="B11" s="176"/>
       <c r="C11" s="59">
         <v>83805</v>
       </c>
@@ -3341,13 +3349,13 @@
       <c r="P11" s="52">
         <v>2</v>
       </c>
-      <c r="Q11" s="177"/>
+      <c r="Q11" s="179"/>
     </row>
     <row r="12" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="24"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="172" t="s">
+      <c r="B13" s="174" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="51"/>
@@ -3390,12 +3398,12 @@
       <c r="P13" s="41">
         <v>1</v>
       </c>
-      <c r="Q13" s="175" t="s">
+      <c r="Q13" s="177" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="174"/>
+      <c r="B14" s="176"/>
       <c r="C14" s="48">
         <v>56205</v>
       </c>
@@ -3438,10 +3446,10 @@
       <c r="P14" s="41">
         <v>2</v>
       </c>
-      <c r="Q14" s="176"/>
+      <c r="Q14" s="178"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="172" t="s">
+      <c r="B15" s="174" t="s">
         <v>60</v>
       </c>
       <c r="C15" s="40">
@@ -3486,10 +3494,10 @@
       <c r="P15" s="33">
         <v>1</v>
       </c>
-      <c r="Q15" s="176"/>
+      <c r="Q15" s="178"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="173"/>
+      <c r="B16" s="175"/>
       <c r="C16" s="40">
         <v>91020</v>
       </c>
@@ -3532,10 +3540,10 @@
       <c r="P16" s="33">
         <v>2</v>
       </c>
-      <c r="Q16" s="176"/>
+      <c r="Q16" s="178"/>
     </row>
     <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="174"/>
+      <c r="B17" s="176"/>
       <c r="C17" s="40">
         <v>84183</v>
       </c>
@@ -3578,13 +3586,13 @@
       <c r="P17" s="33">
         <v>3</v>
       </c>
-      <c r="Q17" s="177"/>
+      <c r="Q17" s="179"/>
     </row>
     <row r="18" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="24"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="172" t="s">
+      <c r="B19" s="174" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="32">
@@ -3629,12 +3637,12 @@
       <c r="P19" s="25">
         <v>1</v>
       </c>
-      <c r="Q19" s="175" t="s">
+      <c r="Q19" s="177" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="173"/>
+      <c r="B20" s="175"/>
       <c r="C20" s="32">
         <v>56161</v>
       </c>
@@ -3677,10 +3685,10 @@
       <c r="P20" s="25">
         <v>2</v>
       </c>
-      <c r="Q20" s="176"/>
+      <c r="Q20" s="178"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="173"/>
+      <c r="B21" s="175"/>
       <c r="C21" s="32">
         <v>59425</v>
       </c>
@@ -3723,10 +3731,10 @@
       <c r="P21" s="25">
         <v>3</v>
       </c>
-      <c r="Q21" s="176"/>
+      <c r="Q21" s="178"/>
     </row>
     <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="174"/>
+      <c r="B22" s="176"/>
       <c r="C22" s="32">
         <v>94012</v>
       </c>
@@ -3769,13 +3777,13 @@
       <c r="P22" s="25">
         <v>4</v>
       </c>
-      <c r="Q22" s="177"/>
+      <c r="Q22" s="179"/>
     </row>
     <row r="23" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="24"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="172" t="s">
+      <c r="B24" s="174" t="s">
         <v>47</v>
       </c>
       <c r="C24" s="21">
@@ -3820,12 +3828,12 @@
       <c r="P24" s="14">
         <v>1</v>
       </c>
-      <c r="Q24" s="175" t="s">
+      <c r="Q24" s="177" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="173"/>
+      <c r="B25" s="175"/>
       <c r="C25" s="21">
         <v>60102</v>
       </c>
@@ -3868,10 +3876,10 @@
       <c r="P25" s="14">
         <v>2</v>
       </c>
-      <c r="Q25" s="176"/>
+      <c r="Q25" s="178"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="173"/>
+      <c r="B26" s="175"/>
       <c r="C26" s="23">
         <v>57317</v>
       </c>
@@ -3914,10 +3922,10 @@
       <c r="P26" s="14">
         <v>3</v>
       </c>
-      <c r="Q26" s="176"/>
+      <c r="Q26" s="178"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="173"/>
+      <c r="B27" s="175"/>
       <c r="C27" s="21">
         <v>78258</v>
       </c>
@@ -3960,10 +3968,10 @@
       <c r="P27" s="14">
         <v>4</v>
       </c>
-      <c r="Q27" s="176"/>
+      <c r="Q27" s="178"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="173"/>
+      <c r="B28" s="175"/>
       <c r="C28" s="21">
         <v>59019</v>
       </c>
@@ -4006,10 +4014,10 @@
       <c r="P28" s="14">
         <v>5</v>
       </c>
-      <c r="Q28" s="176"/>
+      <c r="Q28" s="178"/>
     </row>
     <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="174"/>
+      <c r="B29" s="176"/>
       <c r="C29" s="21">
         <v>92968</v>
       </c>
@@ -4052,7 +4060,7 @@
       <c r="P29" s="14">
         <v>6</v>
       </c>
-      <c r="Q29" s="177"/>
+      <c r="Q29" s="179"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4069,25 +4077,25 @@
     <mergeCell ref="B15:B17"/>
   </mergeCells>
   <conditionalFormatting sqref="D19:D22">
-    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D17">
-    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D29">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D9">
-    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4096,6 +4104,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C656078C-5788-473C-A81C-C0AA8668C0B2}">
+  <sheetPr codeName="Лист5"/>
   <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -9164,58 +9173,58 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B8">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B22">
-    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B26">
-    <cfRule type="duplicateValues" dxfId="11" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B33">
-    <cfRule type="duplicateValues" dxfId="10" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B47">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B52 B54:B59">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B72">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B80">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B89">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B98">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B103">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B106">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107:B114">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9223,6 +9232,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED890B8B-86AE-4973-89A7-EA4F62A8B1DF}">
+  <sheetPr codeName="Лист6"/>
   <dimension ref="A1:J123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10756,6 +10766,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2949FE64-A100-43D3-B687-D859BE56E0C5}">
+  <sheetPr codeName="Лист7"/>
   <dimension ref="B2:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11001,7 +11012,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="B1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>

--- a/DomesticTransport/DomesticTransport.xlsx
+++ b/DomesticTransport/DomesticTransport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aevse\Source\Repos\DomesticTransport\DomesticTransport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE90A1FE-56FE-4F27-98CB-37098FFB12EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73BBFC5-6EBB-4477-BBE4-26E7D250F058}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="6" xr2:uid="{AC776459-6745-4339-B7EA-E0E0F9747FA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{AC776459-6745-4339-B7EA-E0E0F9747FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery" sheetId="2" r:id="rId1"/>

--- a/DomesticTransport/DomesticTransport.xlsx
+++ b/DomesticTransport/DomesticTransport.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aevse\Source\Repos\DomesticTransport\DomesticTransport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73BBFC5-6EBB-4477-BBE4-26E7D250F058}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDD9E4C-31BE-4FE8-B757-AFD20310DD45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{AC776459-6745-4339-B7EA-E0E0F9747FA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{AC776459-6745-4339-B7EA-E0E0F9747FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery" sheetId="2" r:id="rId1"/>
-    <sheet name="Routes" sheetId="9" r:id="rId2"/>
+    <sheet name="Rate" sheetId="3" r:id="rId2"/>
     <sheet name="ZoneCustomer" sheetId="4" r:id="rId3"/>
     <sheet name="Customers" sheetId="5" r:id="rId4"/>
-    <sheet name="Rate" sheetId="3" r:id="rId5"/>
-    <sheet name="ShippingCompany" sheetId="7" state="hidden" r:id="rId6"/>
-    <sheet name="Отгрузка" sheetId="1" r:id="rId7"/>
+    <sheet name="Routes" sheetId="9" r:id="rId5"/>
+    <sheet name="Отгрузка" sheetId="1" r:id="rId6"/>
+    <sheet name="ShippingCompany" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="239">
   <si>
     <t>Перевозчик</t>
   </si>
@@ -790,19 +790,34 @@
     <t>Стоимость поставки</t>
   </si>
   <si>
-    <t>Точки</t>
-  </si>
-  <si>
-    <t>№ Маршрута</t>
-  </si>
-  <si>
-    <t>id Получателя</t>
-  </si>
-  <si>
     <t>Дата доставки</t>
   </si>
   <si>
     <t>Адрес</t>
+  </si>
+  <si>
+    <t>id Получателя (Точки)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">№ </t>
+  </si>
+  <si>
+    <t>Маршруты</t>
+  </si>
+  <si>
+    <t>Столбец1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -989,13 +1004,15 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1004,7 +1021,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1080,6 +1097,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
       </patternFill>
     </fill>
   </fills>
@@ -1315,16 +1337,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1732,20 +1755,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="11" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1782,48 +1792,35 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="60% — акцент6" xfId="4" builtinId="52"/>
     <cellStyle name="Excel Built-in Normal" xfId="5" xr:uid="{E86D5BE3-109F-42F2-B062-72D26BC4505E}"/>
     <cellStyle name="Акцент3" xfId="6" builtinId="37"/>
+    <cellStyle name="Акцент6" xfId="7" builtinId="49"/>
     <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{0D8B4E41-A43D-4735-80FC-A622F3AB536B}"/>
     <cellStyle name="Обычный 4" xfId="1" xr:uid="{6D1EACBA-287E-493D-A31F-3D0C6DD7000A}"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="37">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <b/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1842,80 +1839,15 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <border>
-        <bottom style="medium">
+        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="9"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="57"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1924,12 +1856,7 @@
         </right>
         <top/>
         <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
       </border>
-      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2182,6 +2109,103 @@
       </fill>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="57"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2242,7 +2266,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E3245CE-8CB7-440C-8A99-A387ADEE7331}" name="TableCarrier" displayName="TableCarrier" ref="B5:E6" insertRow="1" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E3245CE-8CB7-440C-8A99-A387ADEE7331}" name="TableCarrier" displayName="TableCarrier" ref="B5:E6" insertRow="1" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35">
   <autoFilter ref="B5:E6" xr:uid="{DEB12404-07BD-4FAF-83D7-6873DABB45B9}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{64C38326-B884-4325-8A47-3CF76FF099B6}" name="№ Авто"/>
@@ -2255,7 +2279,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A1298FBD-3E0C-4829-AA91-D63AF491826E}" name="TableInvoicies" displayName="TableInvoicies" ref="B10:I11" insertRow="1" totalsRowShown="0" headerRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A1298FBD-3E0C-4829-AA91-D63AF491826E}" name="TableInvoicies" displayName="TableInvoicies" ref="B10:I11" insertRow="1" totalsRowShown="0" headerRowDxfId="34">
   <autoFilter ref="B10:I11" xr:uid="{9CC24962-0F87-4500-BB2C-B26DD82344EE}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{8E60E219-8ADB-48B1-A9CF-AF43EFB5E532}" name="№ Авто"/>
@@ -2272,7 +2296,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0E832B09-3D36-4DE3-8E20-EF81C85F4B4E}" name="PriceDelivery" displayName="PriceDelivery" ref="A3:J123" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" headerRowCellStyle="Обычный 4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0E832B09-3D36-4DE3-8E20-EF81C85F4B4E}" name="PriceDelivery" displayName="PriceDelivery" ref="A3:J123" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" headerRowCellStyle="Обычный 4">
   <autoFilter ref="A3:J123" xr:uid="{75E0B774-231E-4CE9-B5F7-6515E34100A9}">
     <filterColumn colId="2">
       <filters>
@@ -2293,7 +2317,7 @@
     <tableColumn id="7" xr3:uid="{63E92DBC-C612-44AB-8710-DE5D3A67E602}" name="tonnage, t"/>
     <tableColumn id="8" xr3:uid="{7956AE7A-C21C-4293-AB21-1C09E993025E}" name="vehicle"/>
     <tableColumn id="9" xr3:uid="{485FC7AA-9B80-40AC-B112-7709C94F7992}" name="add.point"/>
-    <tableColumn id="10" xr3:uid="{76EEE4BC-710C-4EA7-9DD0-0BBB946AB005}" name="vehicle + add.point" dataDxfId="5">
+    <tableColumn id="10" xr3:uid="{76EEE4BC-710C-4EA7-9DD0-0BBB946AB005}" name="vehicle + add.point" dataDxfId="31">
       <calculatedColumnFormula>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2302,19 +2326,22 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{831D85DE-6D3B-420B-AC1F-E9FEED9646DD}" name="Таблица4" displayName="Таблица4" ref="B2:D25" totalsRowShown="0">
-  <autoFilter ref="B2:D25" xr:uid="{DE4A6499-25FE-4A0E-AE62-0DABB7DFBF79}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{29A63BC4-2872-4EA4-B075-ED195D9BE031}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{FF7F5D4D-C144-4DC0-AEA8-3808900FD64A}" name="Компания" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{A6517B15-FFF0-4130-831C-781935AA2468}" name="Получатель письма" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5A2BEE8F-C787-4493-8D50-391BF4730E5C}" name="Таблица6" displayName="Таблица6" ref="B4:G5" totalsRowShown="0" headerRowDxfId="2" headerRowCellStyle="60% — акцент6">
+  <autoFilter ref="B4:G5" xr:uid="{A8EE02C6-5C6C-4466-8322-A0CDDB992E4C}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{30866AF2-A560-4911-AA2F-9AFA1E12790B}" name="№ "/>
+    <tableColumn id="2" xr3:uid="{E94C6028-DC1C-4775-90C7-7A75F79E5A40}" name="Столбец1"/>
+    <tableColumn id="3" xr3:uid="{8E791B06-001F-4AAF-B4AE-0DAEBD7A729D}" name="1"/>
+    <tableColumn id="4" xr3:uid="{AA209621-8CA7-43DA-B3EB-8D166AB95669}" name="2"/>
+    <tableColumn id="5" xr3:uid="{DDEA8557-1067-445D-867D-F113E1C9BA12}" name="3"/>
+    <tableColumn id="6" xr3:uid="{EC62389C-A344-4984-8558-5A77A2CC54AD}" name="4"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C0B60422-EB35-4FB4-BF1B-2F6334DAF9A9}" name="Таблица5" displayName="Таблица5" ref="B2:S3" insertRow="1" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C0B60422-EB35-4FB4-BF1B-2F6334DAF9A9}" name="Таблица5" displayName="Таблица5" ref="B2:S3" insertRow="1" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="28" headerRowCellStyle="Акцент6">
   <autoFilter ref="B2:S3" xr:uid="{6A8CAFF1-DE87-467A-9C9F-EAC45DD35AAA}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{6C78F3B1-C5C6-4E9B-B8B0-E04671622CA4}" name="ID перевозчика"/>
@@ -2337,6 +2364,18 @@
     <tableColumn id="18" xr3:uid="{4299B292-9ABA-4875-998F-986B00EE5C86}" name="Стоимость доставки"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{831D85DE-6D3B-420B-AC1F-E9FEED9646DD}" name="Таблица4" displayName="Таблица4" ref="B2:D25" totalsRowShown="0">
+  <autoFilter ref="B2:D25" xr:uid="{DE4A6499-25FE-4A0E-AE62-0DABB7DFBF79}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{29A63BC4-2872-4EA4-B075-ED195D9BE031}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{FF7F5D4D-C144-4DC0-AEA8-3808900FD64A}" name="Компания" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{A6517B15-FFF0-4130-831C-781935AA2468}" name="Получатель письма" dataDxfId="29" dataCellStyle="Гиперссылка"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2659,10 +2698,10 @@
   <sheetData>
     <row r="1" spans="2:9" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="172" t="s">
-        <v>232</v>
-      </c>
-      <c r="C2" s="173">
+      <c r="B2" s="167" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="168">
         <f ca="1">TODAY()+1</f>
         <v>43895</v>
       </c>
@@ -2716,7 +2755,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
@@ -2741,66 +2780,1536 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB40C41-0399-4FC3-8526-AA71F4D11BE5}">
-  <sheetPr codeName="Лист3"/>
-  <dimension ref="C1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED890B8B-86AE-4973-89A7-EA4F62A8B1DF}">
+  <sheetPr codeName="Лист6"/>
+  <dimension ref="A1:J123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="169" t="s">
-        <v>229</v>
-      </c>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="171"/>
-    </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="168">
-        <v>1</v>
-      </c>
-      <c r="G3" s="168">
-        <v>2</v>
-      </c>
-      <c r="H3" s="168">
+    <row r="1" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="1:10" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4">
+        <v>1.5</v>
+      </c>
+      <c r="H4">
+        <v>3200</v>
+      </c>
+      <c r="I4">
+        <v>1000</v>
+      </c>
+      <c r="J4">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5">
         <v>3</v>
       </c>
-      <c r="I3" s="168">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="166" t="s">
-        <v>230</v>
-      </c>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166" t="s">
-        <v>231</v>
-      </c>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
+      <c r="H5">
+        <v>3800</v>
+      </c>
+      <c r="I5">
+        <v>1000</v>
+      </c>
+      <c r="J5">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>4700</v>
+      </c>
+      <c r="I6">
+        <v>1000</v>
+      </c>
+      <c r="J6">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>7500</v>
+      </c>
+      <c r="I7">
+        <v>1000</v>
+      </c>
+      <c r="J7">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>8400</v>
+      </c>
+      <c r="I8">
+        <v>1850</v>
+      </c>
+      <c r="J8">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9">
+        <v>1.5</v>
+      </c>
+      <c r="H9">
+        <v>3400</v>
+      </c>
+      <c r="I9">
+        <v>1000</v>
+      </c>
+      <c r="J9">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>4100</v>
+      </c>
+      <c r="I10">
+        <v>1000</v>
+      </c>
+      <c r="J10">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>4752</v>
+      </c>
+      <c r="I11">
+        <v>1000</v>
+      </c>
+      <c r="J11">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>5752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>7800</v>
+      </c>
+      <c r="I12">
+        <v>1000</v>
+      </c>
+      <c r="J12">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>8700</v>
+      </c>
+      <c r="I13">
+        <v>2000</v>
+      </c>
+      <c r="J13">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>10700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14">
+        <v>1.5</v>
+      </c>
+      <c r="H14">
+        <v>3360</v>
+      </c>
+      <c r="I14">
+        <v>1000</v>
+      </c>
+      <c r="J14">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>3465</v>
+      </c>
+      <c r="I15">
+        <v>1000</v>
+      </c>
+      <c r="J15">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>4465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>5000</v>
+      </c>
+      <c r="I16">
+        <v>1000</v>
+      </c>
+      <c r="J16">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>7414</v>
+      </c>
+      <c r="I17">
+        <v>1000</v>
+      </c>
+      <c r="J17">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>8414</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18">
+        <v>20</v>
+      </c>
+      <c r="H18">
+        <v>8269</v>
+      </c>
+      <c r="I18">
+        <v>1000</v>
+      </c>
+      <c r="J18">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>9269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="J55">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="J60">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="J61">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="J62">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="J64">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="J66">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="J67">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="J68">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="J69">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="J71">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="J72">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="J73">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="J74">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J75">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="J76">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="J77">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="J78">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="J79">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="J80">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="J81">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>14</v>
+      </c>
+      <c r="J82">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>14</v>
+      </c>
+      <c r="J83">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>14</v>
+      </c>
+      <c r="J84">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="J85">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="J86">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>14</v>
+      </c>
+      <c r="J87">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>14</v>
+      </c>
+      <c r="J88">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="J89">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
+      <c r="J90">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>14</v>
+      </c>
+      <c r="J91">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>14</v>
+      </c>
+      <c r="J92">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>14</v>
+      </c>
+      <c r="J93">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>14</v>
+      </c>
+      <c r="J94">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="J95">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>14</v>
+      </c>
+      <c r="J96">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>14</v>
+      </c>
+      <c r="J98">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>14</v>
+      </c>
+      <c r="J100">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>14</v>
+      </c>
+      <c r="J101">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>14</v>
+      </c>
+      <c r="J102">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>14</v>
+      </c>
+      <c r="J103">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>14</v>
+      </c>
+      <c r="J104">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>14</v>
+      </c>
+      <c r="J105">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>14</v>
+      </c>
+      <c r="J106">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>14</v>
+      </c>
+      <c r="J107">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>14</v>
+      </c>
+      <c r="J108">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>14</v>
+      </c>
+      <c r="J109">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>14</v>
+      </c>
+      <c r="J110">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+      <c r="J111">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>14</v>
+      </c>
+      <c r="J112">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>14</v>
+      </c>
+      <c r="J113">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>14</v>
+      </c>
+      <c r="J114">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>14</v>
+      </c>
+      <c r="J115">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>14</v>
+      </c>
+      <c r="J116">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>14</v>
+      </c>
+      <c r="J117">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>14</v>
+      </c>
+      <c r="J118">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>14</v>
+      </c>
+      <c r="J119">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J120">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>14</v>
+      </c>
+      <c r="J121">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>14</v>
+      </c>
+      <c r="J122">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>14</v>
+      </c>
+      <c r="J123">
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2809,7 +4318,7 @@
   <sheetPr codeName="Лист4"/>
   <dimension ref="B1:Q29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -2884,7 +4393,7 @@
       </c>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="169" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="75">
@@ -2929,12 +4438,12 @@
       <c r="P2" s="68">
         <v>1</v>
       </c>
-      <c r="Q2" s="177" t="s">
+      <c r="Q2" s="172" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="175"/>
+      <c r="B3" s="170"/>
       <c r="C3" s="75">
         <v>94206</v>
       </c>
@@ -2977,10 +4486,10 @@
       <c r="P3" s="68">
         <v>2</v>
       </c>
-      <c r="Q3" s="178"/>
+      <c r="Q3" s="173"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="175"/>
+      <c r="B4" s="170"/>
       <c r="C4" s="75">
         <v>92587</v>
       </c>
@@ -3023,10 +4532,10 @@
       <c r="P4" s="68">
         <v>3</v>
       </c>
-      <c r="Q4" s="178"/>
+      <c r="Q4" s="173"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="176"/>
+      <c r="B5" s="171"/>
       <c r="C5" s="75">
         <v>83838</v>
       </c>
@@ -3069,10 +4578,10 @@
       <c r="P5" s="68">
         <v>4</v>
       </c>
-      <c r="Q5" s="178"/>
+      <c r="Q5" s="173"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="174" t="s">
+      <c r="B6" s="169" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="67">
@@ -3117,10 +4626,10 @@
       <c r="P6" s="60">
         <v>1</v>
       </c>
-      <c r="Q6" s="178"/>
+      <c r="Q6" s="173"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="175"/>
+      <c r="B7" s="170"/>
       <c r="C7" s="67">
         <v>73499</v>
       </c>
@@ -3163,10 +4672,10 @@
       <c r="P7" s="60">
         <v>2</v>
       </c>
-      <c r="Q7" s="178"/>
+      <c r="Q7" s="173"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="175"/>
+      <c r="B8" s="170"/>
       <c r="C8" s="67">
         <v>90317</v>
       </c>
@@ -3209,10 +4718,10 @@
       <c r="P8" s="60">
         <v>3</v>
       </c>
-      <c r="Q8" s="178"/>
+      <c r="Q8" s="173"/>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="176"/>
+      <c r="B9" s="171"/>
       <c r="C9" s="67">
         <v>56096</v>
       </c>
@@ -3255,10 +4764,10 @@
       <c r="P9" s="60">
         <v>4</v>
       </c>
-      <c r="Q9" s="178"/>
+      <c r="Q9" s="173"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="174" t="s">
+      <c r="B10" s="169" t="s">
         <v>68</v>
       </c>
       <c r="C10" s="59">
@@ -3303,10 +4812,10 @@
       <c r="P10" s="52">
         <v>1</v>
       </c>
-      <c r="Q10" s="178"/>
+      <c r="Q10" s="173"/>
     </row>
     <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="176"/>
+      <c r="B11" s="171"/>
       <c r="C11" s="59">
         <v>83805</v>
       </c>
@@ -3349,13 +4858,13 @@
       <c r="P11" s="52">
         <v>2</v>
       </c>
-      <c r="Q11" s="179"/>
+      <c r="Q11" s="174"/>
     </row>
     <row r="12" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="24"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="174" t="s">
+      <c r="B13" s="169" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="51"/>
@@ -3398,12 +4907,12 @@
       <c r="P13" s="41">
         <v>1</v>
       </c>
-      <c r="Q13" s="177" t="s">
+      <c r="Q13" s="172" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="176"/>
+      <c r="B14" s="171"/>
       <c r="C14" s="48">
         <v>56205</v>
       </c>
@@ -3446,10 +4955,10 @@
       <c r="P14" s="41">
         <v>2</v>
       </c>
-      <c r="Q14" s="178"/>
+      <c r="Q14" s="173"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="174" t="s">
+      <c r="B15" s="169" t="s">
         <v>60</v>
       </c>
       <c r="C15" s="40">
@@ -3494,10 +5003,10 @@
       <c r="P15" s="33">
         <v>1</v>
       </c>
-      <c r="Q15" s="178"/>
+      <c r="Q15" s="173"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="175"/>
+      <c r="B16" s="170"/>
       <c r="C16" s="40">
         <v>91020</v>
       </c>
@@ -3540,10 +5049,10 @@
       <c r="P16" s="33">
         <v>2</v>
       </c>
-      <c r="Q16" s="178"/>
+      <c r="Q16" s="173"/>
     </row>
     <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="176"/>
+      <c r="B17" s="171"/>
       <c r="C17" s="40">
         <v>84183</v>
       </c>
@@ -3586,13 +5095,13 @@
       <c r="P17" s="33">
         <v>3</v>
       </c>
-      <c r="Q17" s="179"/>
+      <c r="Q17" s="174"/>
     </row>
     <row r="18" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="24"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="174" t="s">
+      <c r="B19" s="169" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="32">
@@ -3637,12 +5146,12 @@
       <c r="P19" s="25">
         <v>1</v>
       </c>
-      <c r="Q19" s="177" t="s">
+      <c r="Q19" s="172" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="175"/>
+      <c r="B20" s="170"/>
       <c r="C20" s="32">
         <v>56161</v>
       </c>
@@ -3685,10 +5194,10 @@
       <c r="P20" s="25">
         <v>2</v>
       </c>
-      <c r="Q20" s="178"/>
+      <c r="Q20" s="173"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="175"/>
+      <c r="B21" s="170"/>
       <c r="C21" s="32">
         <v>59425</v>
       </c>
@@ -3731,10 +5240,10 @@
       <c r="P21" s="25">
         <v>3</v>
       </c>
-      <c r="Q21" s="178"/>
+      <c r="Q21" s="173"/>
     </row>
     <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="176"/>
+      <c r="B22" s="171"/>
       <c r="C22" s="32">
         <v>94012</v>
       </c>
@@ -3777,13 +5286,13 @@
       <c r="P22" s="25">
         <v>4</v>
       </c>
-      <c r="Q22" s="179"/>
+      <c r="Q22" s="174"/>
     </row>
     <row r="23" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="24"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="174" t="s">
+      <c r="B24" s="169" t="s">
         <v>47</v>
       </c>
       <c r="C24" s="21">
@@ -3828,12 +5337,12 @@
       <c r="P24" s="14">
         <v>1</v>
       </c>
-      <c r="Q24" s="177" t="s">
+      <c r="Q24" s="172" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="175"/>
+      <c r="B25" s="170"/>
       <c r="C25" s="21">
         <v>60102</v>
       </c>
@@ -3876,10 +5385,10 @@
       <c r="P25" s="14">
         <v>2</v>
       </c>
-      <c r="Q25" s="178"/>
+      <c r="Q25" s="173"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="175"/>
+      <c r="B26" s="170"/>
       <c r="C26" s="23">
         <v>57317</v>
       </c>
@@ -3922,10 +5431,10 @@
       <c r="P26" s="14">
         <v>3</v>
       </c>
-      <c r="Q26" s="178"/>
+      <c r="Q26" s="173"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="175"/>
+      <c r="B27" s="170"/>
       <c r="C27" s="21">
         <v>78258</v>
       </c>
@@ -3968,10 +5477,10 @@
       <c r="P27" s="14">
         <v>4</v>
       </c>
-      <c r="Q27" s="178"/>
+      <c r="Q27" s="173"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="175"/>
+      <c r="B28" s="170"/>
       <c r="C28" s="21">
         <v>59019</v>
       </c>
@@ -4014,10 +5523,10 @@
       <c r="P28" s="14">
         <v>5</v>
       </c>
-      <c r="Q28" s="178"/>
+      <c r="Q28" s="173"/>
     </row>
     <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="176"/>
+      <c r="B29" s="171"/>
       <c r="C29" s="21">
         <v>92968</v>
       </c>
@@ -4060,7 +5569,7 @@
       <c r="P29" s="14">
         <v>6</v>
       </c>
-      <c r="Q29" s="179"/>
+      <c r="Q29" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4077,25 +5586,25 @@
     <mergeCell ref="B15:B17"/>
   </mergeCells>
   <conditionalFormatting sqref="D19:D22">
-    <cfRule type="duplicateValues" dxfId="32" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D17">
-    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D29">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D9">
-    <cfRule type="duplicateValues" dxfId="27" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="duplicateValues" dxfId="26" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9173,1587 +10682,126 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="duplicateValues" dxfId="25" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="duplicateValues" dxfId="24" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B8">
-    <cfRule type="duplicateValues" dxfId="23" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="duplicateValues" dxfId="22" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="duplicateValues" dxfId="21" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B22">
-    <cfRule type="duplicateValues" dxfId="20" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B26">
-    <cfRule type="duplicateValues" dxfId="19" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B33">
-    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B47">
-    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B52 B54:B59">
-    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B72">
-    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B80">
-    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B89">
-    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B98">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B103">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B106">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107:B114">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED890B8B-86AE-4973-89A7-EA4F62A8B1DF}">
-  <sheetPr codeName="Лист6"/>
-  <dimension ref="A1:J123"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB40C41-0399-4FC3-8526-AA71F4D11BE5}">
+  <sheetPr codeName="Лист3"/>
+  <dimension ref="B1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-    </row>
-    <row r="3" spans="1:10" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4">
-        <v>1.5</v>
-      </c>
-      <c r="H4">
-        <v>3200</v>
-      </c>
-      <c r="I4">
-        <v>1000</v>
-      </c>
-      <c r="J4">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
+    <row r="1" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="162" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="162"/>
+      <c r="D3" s="164" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="166"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="162" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="162" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" s="163" t="s">
+        <v>235</v>
+      </c>
+      <c r="E4" s="163" t="s">
+        <v>236</v>
+      </c>
+      <c r="F4" s="163" t="s">
+        <v>237</v>
+      </c>
+      <c r="G4" s="163" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>332</v>
+      </c>
+      <c r="F5">
+        <v>22</v>
       </c>
       <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>3800</v>
-      </c>
-      <c r="I5">
-        <v>1000</v>
-      </c>
-      <c r="J5">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>4700</v>
-      </c>
-      <c r="I6">
-        <v>1000</v>
-      </c>
-      <c r="J6">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>7500</v>
-      </c>
-      <c r="I7">
-        <v>1000</v>
-      </c>
-      <c r="J7">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8">
-        <v>20</v>
-      </c>
-      <c r="H8">
-        <v>8400</v>
-      </c>
-      <c r="I8">
-        <v>1850</v>
-      </c>
-      <c r="J8">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>10250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9">
-        <v>1.5</v>
-      </c>
-      <c r="H9">
-        <v>3400</v>
-      </c>
-      <c r="I9">
-        <v>1000</v>
-      </c>
-      <c r="J9">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>4100</v>
-      </c>
-      <c r="I10">
-        <v>1000</v>
-      </c>
-      <c r="J10">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>5100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <v>4752</v>
-      </c>
-      <c r="I11">
-        <v>1000</v>
-      </c>
-      <c r="J11">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>5752</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12">
-        <v>10</v>
-      </c>
-      <c r="H12">
-        <v>7800</v>
-      </c>
-      <c r="I12">
-        <v>1000</v>
-      </c>
-      <c r="J12">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>8800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13">
-        <v>20</v>
-      </c>
-      <c r="H13">
-        <v>8700</v>
-      </c>
-      <c r="I13">
-        <v>2000</v>
-      </c>
-      <c r="J13">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>10700</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14">
-        <v>1.5</v>
-      </c>
-      <c r="H14">
-        <v>3360</v>
-      </c>
-      <c r="I14">
-        <v>1000</v>
-      </c>
-      <c r="J14">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>4360</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15">
-        <v>3465</v>
-      </c>
-      <c r="I15">
-        <v>1000</v>
-      </c>
-      <c r="J15">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>4465</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16">
-        <v>5</v>
-      </c>
-      <c r="H16">
-        <v>5000</v>
-      </c>
-      <c r="I16">
-        <v>1000</v>
-      </c>
-      <c r="J16">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17">
-        <v>10</v>
-      </c>
-      <c r="H17">
-        <v>7414</v>
-      </c>
-      <c r="I17">
-        <v>1000</v>
-      </c>
-      <c r="J17">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>8414</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18">
-        <v>20</v>
-      </c>
-      <c r="H18">
-        <v>8269</v>
-      </c>
-      <c r="I18">
-        <v>1000</v>
-      </c>
-      <c r="J18">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>9269</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="J34">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="J37">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>14</v>
-      </c>
-      <c r="J38">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>14</v>
-      </c>
-      <c r="J39">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>14</v>
-      </c>
-      <c r="J40">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J43">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>14</v>
-      </c>
-      <c r="J44">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>14</v>
-      </c>
-      <c r="J45">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>14</v>
-      </c>
-      <c r="J46">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>14</v>
-      </c>
-      <c r="J47">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>14</v>
-      </c>
-      <c r="J48">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>14</v>
-      </c>
-      <c r="J49">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>14</v>
-      </c>
-      <c r="J50">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>14</v>
-      </c>
-      <c r="J51">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>14</v>
-      </c>
-      <c r="J52">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>14</v>
-      </c>
-      <c r="J53">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>14</v>
-      </c>
-      <c r="J54">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>14</v>
-      </c>
-      <c r="J55">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>14</v>
-      </c>
-      <c r="J56">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>14</v>
-      </c>
-      <c r="J57">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>14</v>
-      </c>
-      <c r="J58">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>14</v>
-      </c>
-      <c r="J59">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>14</v>
-      </c>
-      <c r="J60">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>14</v>
-      </c>
-      <c r="J61">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>14</v>
-      </c>
-      <c r="J62">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>14</v>
-      </c>
-      <c r="J63">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>14</v>
-      </c>
-      <c r="J64">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>14</v>
-      </c>
-      <c r="J65">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>14</v>
-      </c>
-      <c r="J66">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>14</v>
-      </c>
-      <c r="J67">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>14</v>
-      </c>
-      <c r="J68">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>14</v>
-      </c>
-      <c r="J69">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>14</v>
-      </c>
-      <c r="J70">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>14</v>
-      </c>
-      <c r="J71">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>14</v>
-      </c>
-      <c r="J72">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>14</v>
-      </c>
-      <c r="J73">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>14</v>
-      </c>
-      <c r="J74">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>14</v>
-      </c>
-      <c r="J75">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>14</v>
-      </c>
-      <c r="J76">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>14</v>
-      </c>
-      <c r="J77">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>14</v>
-      </c>
-      <c r="J78">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>14</v>
-      </c>
-      <c r="J79">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>14</v>
-      </c>
-      <c r="J80">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>14</v>
-      </c>
-      <c r="J81">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>14</v>
-      </c>
-      <c r="J82">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>14</v>
-      </c>
-      <c r="J83">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>14</v>
-      </c>
-      <c r="J84">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>14</v>
-      </c>
-      <c r="J85">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>14</v>
-      </c>
-      <c r="J86">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>14</v>
-      </c>
-      <c r="J87">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>14</v>
-      </c>
-      <c r="J88">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>14</v>
-      </c>
-      <c r="J89">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>14</v>
-      </c>
-      <c r="J90">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>14</v>
-      </c>
-      <c r="J91">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>14</v>
-      </c>
-      <c r="J92">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>14</v>
-      </c>
-      <c r="J93">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>14</v>
-      </c>
-      <c r="J94">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>14</v>
-      </c>
-      <c r="J95">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>14</v>
-      </c>
-      <c r="J96">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>14</v>
-      </c>
-      <c r="J97">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>14</v>
-      </c>
-      <c r="J98">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>14</v>
-      </c>
-      <c r="J99">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>14</v>
-      </c>
-      <c r="J100">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>14</v>
-      </c>
-      <c r="J101">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>14</v>
-      </c>
-      <c r="J102">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>14</v>
-      </c>
-      <c r="J103">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>14</v>
-      </c>
-      <c r="J104">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>14</v>
-      </c>
-      <c r="J105">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>14</v>
-      </c>
-      <c r="J106">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>14</v>
-      </c>
-      <c r="J107">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>14</v>
-      </c>
-      <c r="J108">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>14</v>
-      </c>
-      <c r="J109">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>14</v>
-      </c>
-      <c r="J110">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>14</v>
-      </c>
-      <c r="J111">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>14</v>
-      </c>
-      <c r="J112">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>14</v>
-      </c>
-      <c r="J113">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>14</v>
-      </c>
-      <c r="J114">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>14</v>
-      </c>
-      <c r="J115">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>14</v>
-      </c>
-      <c r="J116">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>14</v>
-      </c>
-      <c r="J117">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>14</v>
-      </c>
-      <c r="J118">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>14</v>
-      </c>
-      <c r="J119">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>14</v>
-      </c>
-      <c r="J120">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>14</v>
-      </c>
-      <c r="J121">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>14</v>
-      </c>
-      <c r="J122">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>14</v>
-      </c>
-      <c r="J123">
-        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -10765,6 +10813,102 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375F6EB9-3D32-44EC-A21F-591B8DAB3347}">
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="B1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="25.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" customWidth="1"/>
+    <col min="18" max="19" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="175" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="175" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="175" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" s="175" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2" s="175" t="s">
+        <v>219</v>
+      </c>
+      <c r="G2" s="175" t="s">
+        <v>220</v>
+      </c>
+      <c r="H2" s="175" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="175" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="175" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="175" t="s">
+        <v>221</v>
+      </c>
+      <c r="L2" s="175" t="s">
+        <v>222</v>
+      </c>
+      <c r="M2" s="175" t="s">
+        <v>223</v>
+      </c>
+      <c r="N2" s="175" t="s">
+        <v>224</v>
+      </c>
+      <c r="O2" s="175" t="s">
+        <v>225</v>
+      </c>
+      <c r="P2" s="175" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q2" s="175" t="s">
+        <v>227</v>
+      </c>
+      <c r="R2" s="175" t="s">
+        <v>228</v>
+      </c>
+      <c r="S2" s="175" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2949FE64-A100-43D3-B687-D859BE56E0C5}">
   <sheetPr codeName="Лист7"/>
   <dimension ref="B2:D25"/>
@@ -11005,100 +11149,4 @@
     <tablePart r:id="rId24"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375F6EB9-3D32-44EC-A21F-591B8DAB3347}">
-  <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:S2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="1.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" customWidth="1"/>
-    <col min="14" max="14" width="25.28515625" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" customWidth="1"/>
-    <col min="18" max="19" width="22.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:19" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:19" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="162" t="s">
-        <v>216</v>
-      </c>
-      <c r="C2" s="163" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="163" t="s">
-        <v>217</v>
-      </c>
-      <c r="E2" s="164" t="s">
-        <v>218</v>
-      </c>
-      <c r="F2" s="164" t="s">
-        <v>219</v>
-      </c>
-      <c r="G2" s="164" t="s">
-        <v>220</v>
-      </c>
-      <c r="H2" s="163" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="163" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="163" t="s">
-        <v>82</v>
-      </c>
-      <c r="K2" s="163" t="s">
-        <v>221</v>
-      </c>
-      <c r="L2" s="163" t="s">
-        <v>222</v>
-      </c>
-      <c r="M2" s="163" t="s">
-        <v>223</v>
-      </c>
-      <c r="N2" s="163" t="s">
-        <v>224</v>
-      </c>
-      <c r="O2" s="163" t="s">
-        <v>225</v>
-      </c>
-      <c r="P2" s="163" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q2" s="163" t="s">
-        <v>227</v>
-      </c>
-      <c r="R2" s="163" t="s">
-        <v>228</v>
-      </c>
-      <c r="S2" s="165" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/DomesticTransport/DomesticTransport.xlsx
+++ b/DomesticTransport/DomesticTransport.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aevse\Source\Repos\DomesticTransport\DomesticTransport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDD9E4C-31BE-4FE8-B757-AFD20310DD45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFD2243-F2D0-4483-B067-53AC8C0A3B76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{AC776459-6745-4339-B7EA-E0E0F9747FA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC776459-6745-4339-B7EA-E0E0F9747FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery" sheetId="2" r:id="rId1"/>
     <sheet name="Rate" sheetId="3" r:id="rId2"/>
-    <sheet name="ZoneCustomer" sheetId="4" r:id="rId3"/>
-    <sheet name="Customers" sheetId="5" r:id="rId4"/>
-    <sheet name="Routes" sheetId="9" r:id="rId5"/>
+    <sheet name="Routes" sheetId="9" r:id="rId3"/>
+    <sheet name="ZoneCustomer" sheetId="4" r:id="rId4"/>
+    <sheet name="Customers" sheetId="5" r:id="rId5"/>
     <sheet name="Отгрузка" sheetId="1" r:id="rId6"/>
     <sheet name="ShippingCompany" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
@@ -72,12 +72,6 @@
   </si>
   <si>
     <t>Маршрут</t>
-  </si>
-  <si>
-    <t>Колличество</t>
-  </si>
-  <si>
-    <t>Вес</t>
   </si>
   <si>
     <t>Стоимость товаров</t>
@@ -818,6 +812,12 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>Колличество паллет</t>
+  </si>
+  <si>
+    <t>Вес нетто</t>
   </si>
 </sst>
 </file>
@@ -1774,6 +1774,9 @@
     <xf numFmtId="14" fontId="1" fillId="13" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1791,9 +1794,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1807,57 +1807,6 @@
     <cellStyle name="Обычный 4" xfId="1" xr:uid="{6D1EACBA-287E-493D-A31F-3D0C6DD7000A}"/>
   </cellStyles>
   <dxfs count="37">
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2109,10 +2058,30 @@
       </fill>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
+      <border>
+        <bottom style="medium">
           <color indexed="64"/>
-        </top>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2152,6 +2121,64 @@
         <charset val="204"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2225,33 +2252,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2266,8 +2266,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E3245CE-8CB7-440C-8A99-A387ADEE7331}" name="TableCarrier" displayName="TableCarrier" ref="B5:E6" insertRow="1" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35">
-  <autoFilter ref="B5:E6" xr:uid="{DEB12404-07BD-4FAF-83D7-6873DABB45B9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E3245CE-8CB7-440C-8A99-A387ADEE7331}" name="TableCarrier" displayName="TableCarrier" ref="B5:E9" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25">
+  <autoFilter ref="B5:E9" xr:uid="{DEB12404-07BD-4FAF-83D7-6873DABB45B9}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{64C38326-B884-4325-8A47-3CF76FF099B6}" name="№ Авто"/>
     <tableColumn id="6" xr3:uid="{FEDCB64B-82B1-4C9E-9EEB-F53217E4637A}" name="Компания"/>
@@ -2279,16 +2279,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A1298FBD-3E0C-4829-AA91-D63AF491826E}" name="TableInvoicies" displayName="TableInvoicies" ref="B10:I11" insertRow="1" totalsRowShown="0" headerRowDxfId="34">
-  <autoFilter ref="B10:I11" xr:uid="{9CC24962-0F87-4500-BB2C-B26DD82344EE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A1298FBD-3E0C-4829-AA91-D63AF491826E}" name="TableInvoicies" displayName="TableInvoicies" ref="B14:I15" totalsRowShown="0" headerRowDxfId="36">
+  <autoFilter ref="B14:I15" xr:uid="{9CC24962-0F87-4500-BB2C-B26DD82344EE}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{8E60E219-8ADB-48B1-A9CF-AF43EFB5E532}" name="№ Авто"/>
     <tableColumn id="2" xr3:uid="{0C480417-9A5C-4A67-90B7-E69215A66717}" name="Накладная"/>
     <tableColumn id="3" xr3:uid="{F4CF124F-2E32-452D-A812-ED185FAE6CE1}" name="ID Получателя"/>
     <tableColumn id="4" xr3:uid="{FDB39A13-F31C-425A-A896-CEEDA012F19B}" name="Адрес"/>
     <tableColumn id="5" xr3:uid="{3FC51D7E-32E2-4359-996D-239B1FACFB4D}" name="Маршрут"/>
-    <tableColumn id="6" xr3:uid="{3FE52EE4-7FF0-4E5C-B44B-D132FB630934}" name="Колличество"/>
-    <tableColumn id="8" xr3:uid="{50E3B879-A171-45D7-A925-1D1E08A707A7}" name="Вес"/>
+    <tableColumn id="6" xr3:uid="{3FE52EE4-7FF0-4E5C-B44B-D132FB630934}" name="Колличество паллет"/>
+    <tableColumn id="8" xr3:uid="{50E3B879-A171-45D7-A925-1D1E08A707A7}" name="Вес нетто"/>
     <tableColumn id="7" xr3:uid="{36573115-E5BA-4072-B379-0897EE672340}" name="Стоимость товаров"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2296,7 +2296,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0E832B09-3D36-4DE3-8E20-EF81C85F4B4E}" name="PriceDelivery" displayName="PriceDelivery" ref="A3:J123" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" headerRowCellStyle="Обычный 4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0E832B09-3D36-4DE3-8E20-EF81C85F4B4E}" name="PriceDelivery" displayName="PriceDelivery" ref="A3:J123" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" headerRowCellStyle="Обычный 4">
   <autoFilter ref="A3:J123" xr:uid="{75E0B774-231E-4CE9-B5F7-6515E34100A9}">
     <filterColumn colId="2">
       <filters>
@@ -2317,7 +2317,7 @@
     <tableColumn id="7" xr3:uid="{63E92DBC-C612-44AB-8710-DE5D3A67E602}" name="tonnage, t"/>
     <tableColumn id="8" xr3:uid="{7956AE7A-C21C-4293-AB21-1C09E993025E}" name="vehicle"/>
     <tableColumn id="9" xr3:uid="{485FC7AA-9B80-40AC-B112-7709C94F7992}" name="add.point"/>
-    <tableColumn id="10" xr3:uid="{76EEE4BC-710C-4EA7-9DD0-0BBB946AB005}" name="vehicle + add.point" dataDxfId="31">
+    <tableColumn id="10" xr3:uid="{76EEE4BC-710C-4EA7-9DD0-0BBB946AB005}" name="vehicle + add.point" dataDxfId="33">
       <calculatedColumnFormula>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2326,7 +2326,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5A2BEE8F-C787-4493-8D50-391BF4730E5C}" name="Таблица6" displayName="Таблица6" ref="B4:G5" totalsRowShown="0" headerRowDxfId="2" headerRowCellStyle="60% — акцент6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5A2BEE8F-C787-4493-8D50-391BF4730E5C}" name="Таблица6" displayName="Таблица6" ref="B4:G5" totalsRowShown="0" headerRowDxfId="32" headerRowCellStyle="60% — акцент6">
   <autoFilter ref="B4:G5" xr:uid="{A8EE02C6-5C6C-4466-8322-A0CDDB992E4C}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{30866AF2-A560-4911-AA2F-9AFA1E12790B}" name="№ "/>
@@ -2341,7 +2341,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C0B60422-EB35-4FB4-BF1B-2F6334DAF9A9}" name="Таблица5" displayName="Таблица5" ref="B2:S3" insertRow="1" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="28" headerRowCellStyle="Акцент6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C0B60422-EB35-4FB4-BF1B-2F6334DAF9A9}" name="TableTotal" displayName="TableTotal" ref="B2:S3" insertRow="1" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29" headerRowCellStyle="Акцент6">
   <autoFilter ref="B2:S3" xr:uid="{6A8CAFF1-DE87-467A-9C9F-EAC45DD35AAA}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{6C78F3B1-C5C6-4E9B-B8B0-E04671622CA4}" name="ID перевозчика"/>
@@ -2372,8 +2372,8 @@
   <autoFilter ref="B2:D25" xr:uid="{DE4A6499-25FE-4A0E-AE62-0DABB7DFBF79}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{29A63BC4-2872-4EA4-B075-ED195D9BE031}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{FF7F5D4D-C144-4DC0-AEA8-3808900FD64A}" name="Компания" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{A6517B15-FFF0-4130-831C-781935AA2468}" name="Получатель письма" dataDxfId="29" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="2" xr3:uid="{FF7F5D4D-C144-4DC0-AEA8-3808900FD64A}" name="Компания" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{A6517B15-FFF0-4130-831C-781935AA2468}" name="Получатель письма" dataDxfId="27" dataCellStyle="Гиперссылка"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2677,10 +2677,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9007937B-86DB-4446-832F-F234A2840685}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="B1:I10"/>
+  <dimension ref="B1:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S15" sqref="R14:S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2691,19 +2691,19 @@
     <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
     <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="167" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C2" s="168">
         <f ca="1">TODAY()+1</f>
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2732,42 +2732,42 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+    <row r="13" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E14" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G14" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2804,61 +2804,61 @@
     <row r="1" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H2" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4">
         <v>1.5</v>
@@ -2876,22 +2876,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -2909,22 +2909,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -2942,22 +2942,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -2975,22 +2975,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G8">
         <v>20</v>
@@ -3008,22 +3008,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G9">
         <v>1.5</v>
@@ -3041,22 +3041,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -3074,22 +3074,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -3107,22 +3107,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G12">
         <v>10</v>
@@ -3140,22 +3140,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G13">
         <v>20</v>
@@ -3173,22 +3173,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G14">
         <v>1.5</v>
@@ -3206,22 +3206,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -3239,22 +3239,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -3272,22 +3272,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G17">
         <v>10</v>
@@ -3305,22 +3305,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G18">
         <v>20</v>
@@ -3338,19 +3338,19 @@
     </row>
     <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
         <v>14</v>
       </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J19">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3359,19 +3359,19 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J20">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3380,7 +3380,7 @@
     </row>
     <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J21">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3389,7 +3389,7 @@
     </row>
     <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J22">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J23">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J24">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J25">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J26">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3434,7 +3434,7 @@
     </row>
     <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J27">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3443,7 +3443,7 @@
     </row>
     <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J28">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3452,7 +3452,7 @@
     </row>
     <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J29">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J30">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J31">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J32">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3488,7 +3488,7 @@
     </row>
     <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J33">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3497,7 +3497,7 @@
     </row>
     <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J34">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3506,7 +3506,7 @@
     </row>
     <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J35">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3515,7 +3515,7 @@
     </row>
     <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J36">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3524,7 +3524,7 @@
     </row>
     <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J37">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J38">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J39">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J40">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3560,7 +3560,7 @@
     </row>
     <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J41">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J42">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J43">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3587,7 +3587,7 @@
     </row>
     <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J44">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3596,7 +3596,7 @@
     </row>
     <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J45">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J46">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J47">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J48">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3632,7 +3632,7 @@
     </row>
     <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J49">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J50">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3650,7 +3650,7 @@
     </row>
     <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J51">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J52">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J53">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J54">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3686,7 +3686,7 @@
     </row>
     <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J55">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J56">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3704,7 +3704,7 @@
     </row>
     <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J57">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J58">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3722,7 +3722,7 @@
     </row>
     <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J59">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J60">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J61">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3749,7 +3749,7 @@
     </row>
     <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J62">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3758,7 +3758,7 @@
     </row>
     <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J63">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J64">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3776,7 +3776,7 @@
     </row>
     <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J65">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J66">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J67">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J68">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J69">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3821,7 +3821,7 @@
     </row>
     <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J70">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J71">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J72">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3848,7 +3848,7 @@
     </row>
     <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J73">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J74">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3866,7 +3866,7 @@
     </row>
     <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J75">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3875,7 +3875,7 @@
     </row>
     <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J76">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J77">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3893,7 +3893,7 @@
     </row>
     <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J78">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J79">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J80">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J81">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3929,7 +3929,7 @@
     </row>
     <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J82">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3938,7 +3938,7 @@
     </row>
     <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J83">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3947,7 +3947,7 @@
     </row>
     <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J84">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3956,7 +3956,7 @@
     </row>
     <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J85">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3965,7 +3965,7 @@
     </row>
     <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J86">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J87">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J88">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J89">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4001,7 +4001,7 @@
     </row>
     <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J90">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J91">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J92">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J93">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J94">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J95">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J96">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4064,7 +4064,7 @@
     </row>
     <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J97">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J98">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4082,7 +4082,7 @@
     </row>
     <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J99">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4091,7 +4091,7 @@
     </row>
     <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J100">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4100,7 +4100,7 @@
     </row>
     <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J101">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4109,7 +4109,7 @@
     </row>
     <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J102">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4118,7 +4118,7 @@
     </row>
     <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J103">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J104">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4136,7 +4136,7 @@
     </row>
     <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J105">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4145,7 +4145,7 @@
     </row>
     <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J106">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J107">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4163,7 +4163,7 @@
     </row>
     <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J108">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J109">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4181,7 +4181,7 @@
     </row>
     <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J110">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J111">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J112">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4208,7 +4208,7 @@
     </row>
     <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J113">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J114">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4226,7 +4226,7 @@
     </row>
     <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J115">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4235,7 +4235,7 @@
     </row>
     <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J116">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4244,7 +4244,7 @@
     </row>
     <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J117">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J118">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J119">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J120">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4280,7 +4280,7 @@
     </row>
     <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J121">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J122">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J123">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4314,12 +4314,88 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB40C41-0399-4FC3-8526-AA71F4D11BE5}">
+  <sheetPr codeName="Лист3"/>
+  <dimension ref="B1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="162" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="162"/>
+      <c r="D3" s="164" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="166"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="162" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="162" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" s="163" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" s="163" t="s">
+        <v>234</v>
+      </c>
+      <c r="F4" s="163" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" s="163" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>332</v>
+      </c>
+      <c r="F5">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2A8660-FA2E-487C-BB12-9A558B42F740}">
   <sheetPr codeName="Лист4"/>
   <dimension ref="B1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4344,57 +4420,57 @@
   <sheetData>
     <row r="1" spans="2:17" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="79" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C1" s="78" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D1" s="78" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E1" s="78" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F1" s="78" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G1" s="78" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H1" s="78" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I1" s="78" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J1" s="78" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K1" s="78" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L1" s="78" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M1" s="78" t="s">
         <v>10</v>
       </c>
       <c r="N1" s="78" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O1" s="78" t="s">
         <v>9</v>
       </c>
       <c r="P1" s="77" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q1" s="76" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="169" t="s">
-        <v>47</v>
+      <c r="B2" s="170" t="s">
+        <v>45</v>
       </c>
       <c r="C2" s="75">
         <v>83838</v>
@@ -4403,10 +4479,10 @@
         <v>120022493</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F2" s="70" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G2" s="73">
         <v>1</v>
@@ -4424,26 +4500,26 @@
         <v>4</v>
       </c>
       <c r="L2" s="71" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M2" s="70" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N2" s="70" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O2" s="69" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P2" s="68">
         <v>1</v>
       </c>
-      <c r="Q2" s="172" t="s">
-        <v>79</v>
+      <c r="Q2" s="173" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="170"/>
+      <c r="B3" s="171"/>
       <c r="C3" s="75">
         <v>94206</v>
       </c>
@@ -4451,10 +4527,10 @@
         <v>120026430</v>
       </c>
       <c r="E3" s="70" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F3" s="70" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G3" s="73">
         <v>1</v>
@@ -4472,24 +4548,24 @@
         <v>4</v>
       </c>
       <c r="L3" s="71" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M3" s="70" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N3" s="70" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O3" s="69" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P3" s="68">
         <v>2</v>
       </c>
-      <c r="Q3" s="173"/>
+      <c r="Q3" s="174"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="170"/>
+      <c r="B4" s="171"/>
       <c r="C4" s="75">
         <v>92587</v>
       </c>
@@ -4497,10 +4573,10 @@
         <v>120028098</v>
       </c>
       <c r="E4" s="70" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F4" s="70" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G4" s="73">
         <v>1</v>
@@ -4518,24 +4594,24 @@
         <v>4</v>
       </c>
       <c r="L4" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="69" t="s">
         <v>73</v>
-      </c>
-      <c r="M4" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="69" t="s">
-        <v>75</v>
       </c>
       <c r="P4" s="68">
         <v>3</v>
       </c>
-      <c r="Q4" s="173"/>
+      <c r="Q4" s="174"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="171"/>
+      <c r="B5" s="172"/>
       <c r="C5" s="75">
         <v>83838</v>
       </c>
@@ -4543,10 +4619,10 @@
         <v>120026747</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F5" s="70" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G5" s="73">
         <v>1</v>
@@ -4564,25 +4640,25 @@
         <v>4</v>
       </c>
       <c r="L5" s="71" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M5" s="70" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N5" s="70" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O5" s="69" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P5" s="68">
         <v>4</v>
       </c>
-      <c r="Q5" s="173"/>
+      <c r="Q5" s="174"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="169" t="s">
-        <v>60</v>
+      <c r="B6" s="170" t="s">
+        <v>58</v>
       </c>
       <c r="C6" s="67">
         <v>79735</v>
@@ -4591,10 +4667,10 @@
         <v>120026206</v>
       </c>
       <c r="E6" s="62" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F6" s="62" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G6" s="65">
         <v>1</v>
@@ -4612,24 +4688,24 @@
         <v>4</v>
       </c>
       <c r="L6" s="63" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M6" s="62" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N6" s="62" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O6" s="61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P6" s="60">
         <v>1</v>
       </c>
-      <c r="Q6" s="173"/>
+      <c r="Q6" s="174"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="170"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="67">
         <v>73499</v>
       </c>
@@ -4637,10 +4713,10 @@
         <v>120025752</v>
       </c>
       <c r="E7" s="62" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F7" s="62" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G7" s="65">
         <v>1</v>
@@ -4658,24 +4734,24 @@
         <v>4</v>
       </c>
       <c r="L7" s="63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M7" s="62" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N7" s="62" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O7" s="61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P7" s="60">
         <v>2</v>
       </c>
-      <c r="Q7" s="173"/>
+      <c r="Q7" s="174"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="170"/>
+      <c r="B8" s="171"/>
       <c r="C8" s="67">
         <v>90317</v>
       </c>
@@ -4683,10 +4759,10 @@
         <v>120024261</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F8" s="62" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G8" s="65">
         <v>1</v>
@@ -4704,24 +4780,24 @@
         <v>4</v>
       </c>
       <c r="L8" s="63" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M8" s="62" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N8" s="62" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O8" s="61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P8" s="60">
         <v>3</v>
       </c>
-      <c r="Q8" s="173"/>
+      <c r="Q8" s="174"/>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="171"/>
+      <c r="B9" s="172"/>
       <c r="C9" s="67">
         <v>56096</v>
       </c>
@@ -4729,10 +4805,10 @@
         <v>120022424</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9" s="62" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G9" s="65">
         <v>1</v>
@@ -4750,25 +4826,25 @@
         <v>4</v>
       </c>
       <c r="L9" s="63" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M9" s="62" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N9" s="62" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O9" s="61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P9" s="60">
         <v>4</v>
       </c>
-      <c r="Q9" s="173"/>
+      <c r="Q9" s="174"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="169" t="s">
-        <v>68</v>
+      <c r="B10" s="170" t="s">
+        <v>66</v>
       </c>
       <c r="C10" s="59">
         <v>94109</v>
@@ -4777,10 +4853,10 @@
         <v>120026389</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G10" s="57">
         <v>1</v>
@@ -4798,24 +4874,24 @@
         <v>4</v>
       </c>
       <c r="L10" s="55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M10" s="54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N10" s="54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O10" s="53" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P10" s="52">
         <v>1</v>
       </c>
-      <c r="Q10" s="173"/>
+      <c r="Q10" s="174"/>
     </row>
     <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="171"/>
+      <c r="B11" s="172"/>
       <c r="C11" s="59">
         <v>83805</v>
       </c>
@@ -4823,10 +4899,10 @@
         <v>120021605</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G11" s="57">
         <v>1</v>
@@ -4844,38 +4920,38 @@
         <v>4</v>
       </c>
       <c r="L11" s="55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M11" s="54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N11" s="54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O11" s="53" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P11" s="52">
         <v>2</v>
       </c>
-      <c r="Q11" s="174"/>
+      <c r="Q11" s="175"/>
     </row>
     <row r="12" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="24"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="169" t="s">
-        <v>47</v>
+      <c r="B13" s="170" t="s">
+        <v>45</v>
       </c>
       <c r="C13" s="51"/>
       <c r="D13" s="50">
         <v>120028781</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G13" s="46">
         <v>1</v>
@@ -4893,26 +4969,26 @@
         <v>4</v>
       </c>
       <c r="L13" s="44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M13" s="49" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N13" s="49" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O13" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" s="41">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="173" t="s">
         <v>61</v>
       </c>
-      <c r="P13" s="41">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="172" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="171"/>
+      <c r="B14" s="172"/>
       <c r="C14" s="48">
         <v>56205</v>
       </c>
@@ -4920,10 +4996,10 @@
         <v>120027759</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G14" s="46">
         <v>1</v>
@@ -4941,25 +5017,25 @@
         <v>4</v>
       </c>
       <c r="L14" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M14" s="43" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N14" s="43" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O14" s="42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P14" s="41">
         <v>2</v>
       </c>
-      <c r="Q14" s="173"/>
+      <c r="Q14" s="174"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="169" t="s">
-        <v>60</v>
+      <c r="B15" s="170" t="s">
+        <v>58</v>
       </c>
       <c r="C15" s="40">
         <v>93101</v>
@@ -4968,10 +5044,10 @@
         <v>120025885</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15" s="38">
         <v>1</v>
@@ -4989,24 +5065,24 @@
         <v>4</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O15" s="34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P15" s="33">
         <v>1</v>
       </c>
-      <c r="Q15" s="173"/>
+      <c r="Q15" s="174"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="170"/>
+      <c r="B16" s="171"/>
       <c r="C16" s="40">
         <v>91020</v>
       </c>
@@ -5014,10 +5090,10 @@
         <v>91020</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G16" s="38">
         <v>1</v>
@@ -5035,24 +5111,24 @@
         <v>4</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O16" s="34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P16" s="33">
         <v>2</v>
       </c>
-      <c r="Q16" s="173"/>
+      <c r="Q16" s="174"/>
     </row>
     <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="171"/>
+      <c r="B17" s="172"/>
       <c r="C17" s="40">
         <v>84183</v>
       </c>
@@ -5060,10 +5136,10 @@
         <v>120029370</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G17" s="38">
         <v>1</v>
@@ -5081,28 +5157,28 @@
         <v>4</v>
       </c>
       <c r="L17" s="36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M17" s="35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N17" s="35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O17" s="34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P17" s="33">
         <v>3</v>
       </c>
-      <c r="Q17" s="174"/>
+      <c r="Q17" s="175"/>
     </row>
     <row r="18" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="24"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="169" t="s">
-        <v>47</v>
+      <c r="B19" s="170" t="s">
+        <v>45</v>
       </c>
       <c r="C19" s="32">
         <v>77001</v>
@@ -5111,10 +5187,10 @@
         <v>120024301</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19" s="30">
         <v>1</v>
@@ -5132,26 +5208,26 @@
         <v>4</v>
       </c>
       <c r="L19" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M19" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N19" s="27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O19" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P19" s="25">
         <v>1</v>
       </c>
-      <c r="Q19" s="172" t="s">
-        <v>53</v>
+      <c r="Q19" s="173" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="170"/>
+      <c r="B20" s="171"/>
       <c r="C20" s="32">
         <v>56161</v>
       </c>
@@ -5159,10 +5235,10 @@
         <v>120024306</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G20" s="30">
         <v>1</v>
@@ -5180,24 +5256,24 @@
         <v>4</v>
       </c>
       <c r="L20" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M20" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N20" s="27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O20" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P20" s="25">
         <v>2</v>
       </c>
-      <c r="Q20" s="173"/>
+      <c r="Q20" s="174"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="170"/>
+      <c r="B21" s="171"/>
       <c r="C21" s="32">
         <v>59425</v>
       </c>
@@ -5205,10 +5281,10 @@
         <v>120021905</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G21" s="30">
         <v>1</v>
@@ -5226,24 +5302,24 @@
         <v>4</v>
       </c>
       <c r="L21" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M21" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N21" s="27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O21" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P21" s="25">
         <v>3</v>
       </c>
-      <c r="Q21" s="173"/>
+      <c r="Q21" s="174"/>
     </row>
     <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="171"/>
+      <c r="B22" s="172"/>
       <c r="C22" s="32">
         <v>94012</v>
       </c>
@@ -5251,10 +5327,10 @@
         <v>120026321</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G22" s="30">
         <v>1</v>
@@ -5272,28 +5348,28 @@
         <v>4</v>
       </c>
       <c r="L22" s="28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M22" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N22" s="27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O22" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P22" s="25">
         <v>4</v>
       </c>
-      <c r="Q22" s="174"/>
+      <c r="Q22" s="175"/>
     </row>
     <row r="23" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="24"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="169" t="s">
-        <v>47</v>
+      <c r="B24" s="170" t="s">
+        <v>45</v>
       </c>
       <c r="C24" s="21">
         <v>92536</v>
@@ -5302,10 +5378,10 @@
         <v>120025666</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G24" s="19">
         <v>1</v>
@@ -5323,26 +5399,26 @@
         <v>4</v>
       </c>
       <c r="L24" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P24" s="14">
         <v>1</v>
       </c>
-      <c r="Q24" s="172" t="s">
-        <v>45</v>
+      <c r="Q24" s="173" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="170"/>
+      <c r="B25" s="171"/>
       <c r="C25" s="21">
         <v>60102</v>
       </c>
@@ -5350,10 +5426,10 @@
         <v>60102</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G25" s="19">
         <v>1</v>
@@ -5371,24 +5447,24 @@
         <v>4</v>
       </c>
       <c r="L25" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N25" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P25" s="14">
         <v>2</v>
       </c>
-      <c r="Q25" s="173"/>
+      <c r="Q25" s="174"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="170"/>
+      <c r="B26" s="171"/>
       <c r="C26" s="23">
         <v>57317</v>
       </c>
@@ -5396,10 +5472,10 @@
         <v>120022426</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G26" s="19">
         <v>1</v>
@@ -5417,24 +5493,24 @@
         <v>4</v>
       </c>
       <c r="L26" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N26" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P26" s="14">
         <v>3</v>
       </c>
-      <c r="Q26" s="173"/>
+      <c r="Q26" s="174"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="170"/>
+      <c r="B27" s="171"/>
       <c r="C27" s="21">
         <v>78258</v>
       </c>
@@ -5442,10 +5518,10 @@
         <v>78258</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G27" s="19">
         <v>1</v>
@@ -5463,24 +5539,24 @@
         <v>4</v>
       </c>
       <c r="L27" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P27" s="14">
         <v>4</v>
       </c>
-      <c r="Q27" s="173"/>
+      <c r="Q27" s="174"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="170"/>
+      <c r="B28" s="171"/>
       <c r="C28" s="21">
         <v>59019</v>
       </c>
@@ -5488,10 +5564,10 @@
         <v>120022423</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G28" s="19">
         <v>1</v>
@@ -5509,24 +5585,24 @@
         <v>4</v>
       </c>
       <c r="L28" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N28" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P28" s="14">
         <v>5</v>
       </c>
-      <c r="Q28" s="173"/>
+      <c r="Q28" s="174"/>
     </row>
     <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="171"/>
+      <c r="B29" s="172"/>
       <c r="C29" s="21">
         <v>92968</v>
       </c>
@@ -5534,10 +5610,10 @@
         <v>120024225</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G29" s="19">
         <v>1</v>
@@ -5555,21 +5631,21 @@
         <v>4</v>
       </c>
       <c r="L29" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P29" s="14">
         <v>6</v>
       </c>
-      <c r="Q29" s="174"/>
+      <c r="Q29" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5586,37 +5662,37 @@
     <mergeCell ref="B15:B17"/>
   </mergeCells>
   <conditionalFormatting sqref="D19:D22">
-    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="duplicateValues" dxfId="26" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D17">
-    <cfRule type="duplicateValues" dxfId="25" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D29">
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D9">
-    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="duplicateValues" dxfId="21" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C656078C-5788-473C-A81C-C0AA8668C0B2}">
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:N114"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="C44" sqref="C44:C48"/>
     </sheetView>
   </sheetViews>
@@ -5639,46 +5715,46 @@
   <sheetData>
     <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="80" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C1" s="80" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D1" s="80" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E1" s="80" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G1" s="80" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H1" s="80" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I1" s="80" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J1" s="80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K1" s="80" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="80" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M1" s="80" t="s">
         <v>9</v>
       </c>
       <c r="N1" s="81" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -5689,10 +5765,10 @@
         <v>120024301</v>
       </c>
       <c r="C2" s="84" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D2" s="84" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="85">
         <v>1</v>
@@ -5710,16 +5786,16 @@
         <v>4</v>
       </c>
       <c r="J2" s="87" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K2" s="84" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L2" s="84" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M2" s="88" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N2" s="89">
         <v>1</v>
@@ -5733,10 +5809,10 @@
         <v>120024306</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="84" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="85">
         <v>1</v>
@@ -5754,16 +5830,16 @@
         <v>4</v>
       </c>
       <c r="J3" s="87" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K3" s="84" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L3" s="84" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M3" s="88" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N3" s="89">
         <v>2</v>
@@ -5777,10 +5853,10 @@
         <v>120021905</v>
       </c>
       <c r="C4" s="84" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" s="84" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" s="85">
         <v>1</v>
@@ -5798,16 +5874,16 @@
         <v>4</v>
       </c>
       <c r="J4" s="87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K4" s="84" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L4" s="84" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M4" s="88" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N4" s="89">
         <v>3</v>
@@ -5821,10 +5897,10 @@
         <v>120026321</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="84" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="85">
         <v>1</v>
@@ -5842,16 +5918,16 @@
         <v>4</v>
       </c>
       <c r="J5" s="87" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K5" s="84" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L5" s="84" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M5" s="88" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N5" s="89">
         <v>4</v>
@@ -5865,10 +5941,10 @@
         <v>120025885</v>
       </c>
       <c r="C6" s="91" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" s="91" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E6" s="92">
         <v>1</v>
@@ -5886,16 +5962,16 @@
         <v>4</v>
       </c>
       <c r="J6" s="94" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K6" s="91" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L6" s="91" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M6" s="95" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N6" s="96">
         <v>1</v>
@@ -5909,10 +5985,10 @@
         <v>91020</v>
       </c>
       <c r="C7" s="91" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="91" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7" s="92">
         <v>1</v>
@@ -5930,16 +6006,16 @@
         <v>4</v>
       </c>
       <c r="J7" s="94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K7" s="91" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L7" s="91" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M7" s="95" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N7" s="96">
         <v>2</v>
@@ -5953,10 +6029,10 @@
         <v>120029370</v>
       </c>
       <c r="C8" s="91" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="91" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" s="92">
         <v>1</v>
@@ -5974,16 +6050,16 @@
         <v>4</v>
       </c>
       <c r="J8" s="94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K8" s="91" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L8" s="91" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M8" s="95" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N8" s="96">
         <v>3</v>
@@ -5995,10 +6071,10 @@
         <v>120028781</v>
       </c>
       <c r="C9" s="98" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D9" s="98" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" s="99">
         <v>1</v>
@@ -6016,16 +6092,16 @@
         <v>4</v>
       </c>
       <c r="J9" s="101" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K9" s="98" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L9" s="98" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M9" s="102" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N9" s="103">
         <v>1</v>
@@ -6039,10 +6115,10 @@
         <v>120027759</v>
       </c>
       <c r="C10" s="105" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="105" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10" s="99">
         <v>1</v>
@@ -6060,16 +6136,16 @@
         <v>4</v>
       </c>
       <c r="J10" s="101" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K10" s="105" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L10" s="105" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M10" s="102" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N10" s="103">
         <v>2</v>
@@ -6083,10 +6159,10 @@
         <v>120026389</v>
       </c>
       <c r="C11" s="107" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="107" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E11" s="108">
         <v>1</v>
@@ -6104,16 +6180,16 @@
         <v>4</v>
       </c>
       <c r="J11" s="110" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K11" s="107" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L11" s="107" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M11" s="111" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N11" s="112">
         <v>1</v>
@@ -6127,10 +6203,10 @@
         <v>120021605</v>
       </c>
       <c r="C12" s="107" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D12" s="107" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12" s="108">
         <v>1</v>
@@ -6148,16 +6224,16 @@
         <v>4</v>
       </c>
       <c r="J12" s="110" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K12" s="107" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L12" s="107" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M12" s="111" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N12" s="112">
         <v>2</v>
@@ -6171,10 +6247,10 @@
         <v>120025666</v>
       </c>
       <c r="C13" s="114" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" s="114" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" s="115">
         <v>1</v>
@@ -6192,16 +6268,16 @@
         <v>4</v>
       </c>
       <c r="J13" s="117" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K13" s="114" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L13" s="114" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M13" s="118" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N13" s="119">
         <v>1</v>
@@ -6215,10 +6291,10 @@
         <v>60102</v>
       </c>
       <c r="C14" s="114" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="114" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14" s="115">
         <v>1</v>
@@ -6236,16 +6312,16 @@
         <v>4</v>
       </c>
       <c r="J14" s="117" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K14" s="114" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L14" s="114" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M14" s="118" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N14" s="119">
         <v>2</v>
@@ -6259,10 +6335,10 @@
         <v>120022426</v>
       </c>
       <c r="C15" s="121" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="121" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15" s="115">
         <v>1</v>
@@ -6280,16 +6356,16 @@
         <v>4</v>
       </c>
       <c r="J15" s="117" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K15" s="114" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L15" s="114" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M15" s="118" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N15" s="119">
         <v>3</v>
@@ -6303,10 +6379,10 @@
         <v>78258</v>
       </c>
       <c r="C16" s="114" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" s="114" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E16" s="115">
         <v>1</v>
@@ -6324,16 +6400,16 @@
         <v>4</v>
       </c>
       <c r="J16" s="117" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K16" s="114" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L16" s="114" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M16" s="118" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N16" s="119">
         <v>4</v>
@@ -6347,10 +6423,10 @@
         <v>120022423</v>
       </c>
       <c r="C17" s="114" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="114" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17" s="115">
         <v>1</v>
@@ -6368,16 +6444,16 @@
         <v>4</v>
       </c>
       <c r="J17" s="117" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K17" s="114" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L17" s="114" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M17" s="118" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N17" s="119">
         <v>5</v>
@@ -6391,10 +6467,10 @@
         <v>120024225</v>
       </c>
       <c r="C18" s="114" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" s="114" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E18" s="115">
         <v>1</v>
@@ -6412,16 +6488,16 @@
         <v>4</v>
       </c>
       <c r="J18" s="117" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K18" s="114" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L18" s="114" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M18" s="118" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N18" s="119">
         <v>6</v>
@@ -6435,10 +6511,10 @@
         <v>120026206</v>
       </c>
       <c r="C19" s="123" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D19" s="123" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E19" s="124">
         <v>1</v>
@@ -6456,16 +6532,16 @@
         <v>4</v>
       </c>
       <c r="J19" s="126" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K19" s="123" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L19" s="123" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M19" s="127" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N19" s="128">
         <v>1</v>
@@ -6479,10 +6555,10 @@
         <v>120025752</v>
       </c>
       <c r="C20" s="123" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D20" s="123" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E20" s="124">
         <v>1</v>
@@ -6500,16 +6576,16 @@
         <v>4</v>
       </c>
       <c r="J20" s="126" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K20" s="123" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L20" s="123" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M20" s="127" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N20" s="128">
         <v>2</v>
@@ -6523,10 +6599,10 @@
         <v>120024261</v>
       </c>
       <c r="C21" s="123" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D21" s="123" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E21" s="124">
         <v>1</v>
@@ -6544,16 +6620,16 @@
         <v>4</v>
       </c>
       <c r="J21" s="126" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K21" s="123" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L21" s="123" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M21" s="127" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N21" s="128">
         <v>3</v>
@@ -6567,10 +6643,10 @@
         <v>120022424</v>
       </c>
       <c r="C22" s="123" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="123" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E22" s="124">
         <v>1</v>
@@ -6588,16 +6664,16 @@
         <v>4</v>
       </c>
       <c r="J22" s="126" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K22" s="123" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L22" s="123" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M22" s="127" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N22" s="128">
         <v>4</v>
@@ -6611,10 +6687,10 @@
         <v>120022493</v>
       </c>
       <c r="C23" s="130" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D23" s="130" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E23" s="131">
         <v>1</v>
@@ -6632,16 +6708,16 @@
         <v>4</v>
       </c>
       <c r="J23" s="133" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K23" s="130" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L23" s="130" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M23" s="134" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N23" s="135">
         <v>1</v>
@@ -6655,10 +6731,10 @@
         <v>120026430</v>
       </c>
       <c r="C24" s="130" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D24" s="130" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E24" s="131">
         <v>1</v>
@@ -6676,16 +6752,16 @@
         <v>4</v>
       </c>
       <c r="J24" s="133" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K24" s="130" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L24" s="130" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M24" s="134" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N24" s="135">
         <v>2</v>
@@ -6699,10 +6775,10 @@
         <v>120028098</v>
       </c>
       <c r="C25" s="130" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="130" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E25" s="131">
         <v>1</v>
@@ -6720,16 +6796,16 @@
         <v>4</v>
       </c>
       <c r="J25" s="133" t="s">
+        <v>71</v>
+      </c>
+      <c r="K25" s="130" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="134" t="s">
         <v>73</v>
-      </c>
-      <c r="K25" s="130" t="s">
-        <v>36</v>
-      </c>
-      <c r="L25" s="130" t="s">
-        <v>19</v>
-      </c>
-      <c r="M25" s="134" t="s">
-        <v>75</v>
       </c>
       <c r="N25" s="135">
         <v>3</v>
@@ -6743,10 +6819,10 @@
         <v>120026747</v>
       </c>
       <c r="C26" s="130" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D26" s="130" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E26" s="131">
         <v>1</v>
@@ -6764,16 +6840,16 @@
         <v>4</v>
       </c>
       <c r="J26" s="133" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K26" s="130" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L26" s="130" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M26" s="134" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N26" s="135">
         <v>4</v>
@@ -6787,10 +6863,10 @@
         <v>120024302</v>
       </c>
       <c r="C27" s="137" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D27" s="137" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E27" s="138">
         <v>1</v>
@@ -6810,16 +6886,16 @@
         <v>5</v>
       </c>
       <c r="J27" s="140" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K27" s="137" t="s">
+        <v>94</v>
+      </c>
+      <c r="L27" s="137" t="s">
+        <v>95</v>
+      </c>
+      <c r="M27" s="141" t="s">
         <v>96</v>
-      </c>
-      <c r="L27" s="137" t="s">
-        <v>97</v>
-      </c>
-      <c r="M27" s="141" t="s">
-        <v>98</v>
       </c>
       <c r="N27" s="142">
         <v>1</v>
@@ -6833,10 +6909,10 @@
         <v>120025788</v>
       </c>
       <c r="C28" s="137" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D28" s="137" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E28" s="138">
         <v>1</v>
@@ -6855,16 +6931,16 @@
         <v>5</v>
       </c>
       <c r="J28" s="140" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K28" s="137" t="s">
+        <v>94</v>
+      </c>
+      <c r="L28" s="137" t="s">
+        <v>95</v>
+      </c>
+      <c r="M28" s="141" t="s">
         <v>96</v>
-      </c>
-      <c r="L28" s="137" t="s">
-        <v>97</v>
-      </c>
-      <c r="M28" s="141" t="s">
-        <v>98</v>
       </c>
       <c r="N28" s="142">
         <v>2</v>
@@ -6878,10 +6954,10 @@
         <v>120030442</v>
       </c>
       <c r="C29" s="137" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D29" s="137" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E29" s="138">
         <v>1</v>
@@ -6900,16 +6976,16 @@
         <v>5</v>
       </c>
       <c r="J29" s="140" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K29" s="137" t="s">
+        <v>94</v>
+      </c>
+      <c r="L29" s="137" t="s">
+        <v>95</v>
+      </c>
+      <c r="M29" s="141" t="s">
         <v>96</v>
-      </c>
-      <c r="L29" s="137" t="s">
-        <v>97</v>
-      </c>
-      <c r="M29" s="141" t="s">
-        <v>98</v>
       </c>
       <c r="N29" s="142">
         <v>3</v>
@@ -6923,10 +6999,10 @@
         <v>120025708</v>
       </c>
       <c r="C30" s="144" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D30" s="144" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E30" s="145">
         <v>1</v>
@@ -6945,16 +7021,16 @@
         <v>5</v>
       </c>
       <c r="J30" s="140" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K30" s="144" t="s">
+        <v>94</v>
+      </c>
+      <c r="L30" s="137" t="s">
+        <v>95</v>
+      </c>
+      <c r="M30" s="141" t="s">
         <v>96</v>
-      </c>
-      <c r="L30" s="137" t="s">
-        <v>97</v>
-      </c>
-      <c r="M30" s="141" t="s">
-        <v>98</v>
       </c>
       <c r="N30" s="142">
         <v>4</v>
@@ -6968,10 +7044,10 @@
         <v>120030449</v>
       </c>
       <c r="C31" s="137" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" s="137" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E31" s="138">
         <v>1</v>
@@ -6990,16 +7066,16 @@
         <v>5</v>
       </c>
       <c r="J31" s="140" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K31" s="137" t="s">
+        <v>94</v>
+      </c>
+      <c r="L31" s="137" t="s">
+        <v>95</v>
+      </c>
+      <c r="M31" s="141" t="s">
         <v>96</v>
-      </c>
-      <c r="L31" s="137" t="s">
-        <v>97</v>
-      </c>
-      <c r="M31" s="141" t="s">
-        <v>98</v>
       </c>
       <c r="N31" s="142">
         <v>5</v>
@@ -7013,10 +7089,10 @@
         <v>120024614</v>
       </c>
       <c r="C32" s="137" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" s="137" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E32" s="138">
         <v>1</v>
@@ -7035,16 +7111,16 @@
         <v>5</v>
       </c>
       <c r="J32" s="140" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K32" s="137" t="s">
+        <v>94</v>
+      </c>
+      <c r="L32" s="137" t="s">
+        <v>95</v>
+      </c>
+      <c r="M32" s="141" t="s">
         <v>96</v>
-      </c>
-      <c r="L32" s="137" t="s">
-        <v>97</v>
-      </c>
-      <c r="M32" s="141" t="s">
-        <v>98</v>
       </c>
       <c r="N32" s="142">
         <v>6</v>
@@ -7058,10 +7134,10 @@
         <v>120025332</v>
       </c>
       <c r="C33" s="137" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="137" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E33" s="138">
         <v>1</v>
@@ -7080,16 +7156,16 @@
         <v>5</v>
       </c>
       <c r="J33" s="140" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K33" s="137" t="s">
+        <v>94</v>
+      </c>
+      <c r="L33" s="137" t="s">
+        <v>95</v>
+      </c>
+      <c r="M33" s="141" t="s">
         <v>96</v>
-      </c>
-      <c r="L33" s="137" t="s">
-        <v>97</v>
-      </c>
-      <c r="M33" s="141" t="s">
-        <v>98</v>
       </c>
       <c r="N33" s="142">
         <v>7</v>
@@ -7103,10 +7179,10 @@
         <v>120022887</v>
       </c>
       <c r="C34" s="144" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D34" s="144" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E34" s="138">
         <v>1</v>
@@ -7124,16 +7200,16 @@
         <v>6</v>
       </c>
       <c r="J34" s="140" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K34" s="137" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L34" s="137" t="s">
+        <v>101</v>
+      </c>
+      <c r="M34" s="141" t="s">
         <v>103</v>
-      </c>
-      <c r="M34" s="141" t="s">
-        <v>105</v>
       </c>
       <c r="N34" s="142">
         <v>1</v>
@@ -7147,10 +7223,10 @@
         <v>120030455</v>
       </c>
       <c r="C35" s="137" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D35" s="137" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E35" s="138">
         <v>1</v>
@@ -7168,16 +7244,16 @@
         <v>6</v>
       </c>
       <c r="J35" s="140" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K35" s="137" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L35" s="137" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M35" s="141" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N35" s="142">
         <v>2</v>
@@ -7191,10 +7267,10 @@
         <v>120026345</v>
       </c>
       <c r="C36" s="144" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D36" s="144" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E36" s="138">
         <v>1</v>
@@ -7212,16 +7288,16 @@
         <v>6</v>
       </c>
       <c r="J36" s="140" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K36" s="137" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L36" s="137" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M36" s="141" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N36" s="142">
         <v>3</v>
@@ -7235,10 +7311,10 @@
         <v>120029380</v>
       </c>
       <c r="C37" s="137" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D37" s="137" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E37" s="138">
         <v>1</v>
@@ -7256,16 +7332,16 @@
         <v>6</v>
       </c>
       <c r="J37" s="140" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K37" s="137" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L37" s="137" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M37" s="141" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N37" s="142">
         <v>4</v>
@@ -7279,10 +7355,10 @@
         <v>93587</v>
       </c>
       <c r="C38" s="144" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D38" s="144" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E38" s="138">
         <v>1</v>
@@ -7300,16 +7376,16 @@
         <v>6</v>
       </c>
       <c r="J38" s="140" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K38" s="137" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L38" s="137" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M38" s="141" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N38" s="142">
         <v>5</v>
@@ -7323,10 +7399,10 @@
         <v>120022985</v>
       </c>
       <c r="C39" s="144" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D39" s="144" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E39" s="138">
         <v>1</v>
@@ -7344,16 +7420,16 @@
         <v>6</v>
       </c>
       <c r="J39" s="140" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K39" s="137" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L39" s="137" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M39" s="141" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N39" s="142">
         <v>6</v>
@@ -7367,10 +7443,10 @@
         <v>92663</v>
       </c>
       <c r="C40" s="144" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D40" s="144" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E40" s="138">
         <v>1</v>
@@ -7388,16 +7464,16 @@
         <v>6</v>
       </c>
       <c r="J40" s="140" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K40" s="137" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L40" s="137" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M40" s="141" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N40" s="142">
         <v>7</v>
@@ -7411,10 +7487,10 @@
         <v>120024040</v>
       </c>
       <c r="C41" s="144" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D41" s="144" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E41" s="138">
         <v>1</v>
@@ -7432,16 +7508,16 @@
         <v>6</v>
       </c>
       <c r="J41" s="140" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K41" s="137" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L41" s="137" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M41" s="141" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N41" s="142">
         <v>8</v>
@@ -7455,10 +7531,10 @@
         <v>120030364</v>
       </c>
       <c r="C42" s="144" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D42" s="144" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E42" s="138">
         <v>1</v>
@@ -7476,16 +7552,16 @@
         <v>6</v>
       </c>
       <c r="J42" s="140" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K42" s="137" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L42" s="137" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M42" s="141" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N42" s="142">
         <v>9</v>
@@ -7499,10 +7575,10 @@
         <v>120024886</v>
       </c>
       <c r="C43" s="144" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D43" s="144" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E43" s="138">
         <v>1</v>
@@ -7520,16 +7596,16 @@
         <v>6</v>
       </c>
       <c r="J43" s="140" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K43" s="137" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L43" s="137" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M43" s="141" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N43" s="142">
         <v>10</v>
@@ -7543,10 +7619,10 @@
         <v>120028580</v>
       </c>
       <c r="C44" s="144" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D44" s="144" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E44" s="138">
         <v>1</v>
@@ -7564,16 +7640,16 @@
         <v>6</v>
       </c>
       <c r="J44" s="140" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K44" s="137" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L44" s="137" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M44" s="141" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N44" s="142">
         <v>11</v>
@@ -7587,10 +7663,10 @@
         <v>120024376</v>
       </c>
       <c r="C45" s="144" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D45" s="144" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E45" s="138">
         <v>1</v>
@@ -7608,16 +7684,16 @@
         <v>6</v>
       </c>
       <c r="J45" s="140" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K45" s="137" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L45" s="137" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M45" s="141" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N45" s="142">
         <v>12</v>
@@ -7631,10 +7707,10 @@
         <v>120027072</v>
       </c>
       <c r="C46" s="144" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="144" t="s">
         <v>111</v>
-      </c>
-      <c r="D46" s="144" t="s">
-        <v>113</v>
       </c>
       <c r="E46" s="138">
         <v>1</v>
@@ -7652,16 +7728,16 @@
         <v>6</v>
       </c>
       <c r="J46" s="140" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K46" s="137" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L46" s="137" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M46" s="141" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N46" s="142">
         <v>13</v>
@@ -7675,10 +7751,10 @@
         <v>120030386</v>
       </c>
       <c r="C47" s="137" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D47" s="137" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E47" s="138">
         <v>1</v>
@@ -7696,16 +7772,16 @@
         <v>6</v>
       </c>
       <c r="J47" s="140" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K47" s="137" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L47" s="137" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M47" s="141" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N47" s="142">
         <v>14</v>
@@ -7719,10 +7795,10 @@
         <v>120030443</v>
       </c>
       <c r="C48" s="137" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D48" s="137" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E48" s="138">
         <v>1</v>
@@ -7740,16 +7816,16 @@
         <v>5</v>
       </c>
       <c r="J48" s="140" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K48" s="137" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L48" s="137" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M48" s="141" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N48" s="142">
         <v>1</v>
@@ -7763,10 +7839,10 @@
         <v>120025707</v>
       </c>
       <c r="C49" s="144" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D49" s="144" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E49" s="138">
         <v>1</v>
@@ -7784,16 +7860,16 @@
         <v>5</v>
       </c>
       <c r="J49" s="140" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K49" s="137" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L49" s="137" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M49" s="141" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N49" s="142">
         <v>2</v>
@@ -7807,10 +7883,10 @@
         <v>120029381</v>
       </c>
       <c r="C50" s="144" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D50" s="144" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E50" s="138">
         <v>1</v>
@@ -7828,16 +7904,16 @@
         <v>5</v>
       </c>
       <c r="J50" s="140" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K50" s="137" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L50" s="137" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M50" s="141" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N50" s="142">
         <v>3</v>
@@ -7851,10 +7927,10 @@
         <v>94010</v>
       </c>
       <c r="C51" s="144" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D51" s="144" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E51" s="138">
         <v>1</v>
@@ -7872,16 +7948,16 @@
         <v>5</v>
       </c>
       <c r="J51" s="140" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K51" s="137" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L51" s="137" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M51" s="141" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N51" s="142">
         <v>4</v>
@@ -7895,10 +7971,10 @@
         <v>120025498</v>
       </c>
       <c r="C52" s="144" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D52" s="144" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E52" s="138">
         <v>1</v>
@@ -7916,16 +7992,16 @@
         <v>5</v>
       </c>
       <c r="J52" s="140" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K52" s="137" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L52" s="137" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M52" s="141" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N52" s="142">
         <v>5</v>
@@ -7939,10 +8015,10 @@
         <v>120030883</v>
       </c>
       <c r="C53" s="144" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D53" s="144" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E53" s="145">
         <v>1</v>
@@ -7960,16 +8036,16 @@
         <v>5</v>
       </c>
       <c r="J53" s="146" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K53" s="137" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L53" s="144" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M53" s="142" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N53" s="142">
         <v>6</v>
@@ -7983,10 +8059,10 @@
         <v>120022936</v>
       </c>
       <c r="C54" s="144" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D54" s="144" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E54" s="138">
         <v>1</v>
@@ -8004,16 +8080,16 @@
         <v>5</v>
       </c>
       <c r="J54" s="140" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K54" s="137" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L54" s="137" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M54" s="141" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N54" s="142">
         <v>7</v>
@@ -8027,10 +8103,10 @@
         <v>120028579</v>
       </c>
       <c r="C55" s="144" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D55" s="144" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E55" s="138">
         <v>1</v>
@@ -8048,16 +8124,16 @@
         <v>5</v>
       </c>
       <c r="J55" s="140" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K55" s="137" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L55" s="137" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M55" s="141" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N55" s="142">
         <v>8</v>
@@ -8071,10 +8147,10 @@
         <v>120029262</v>
       </c>
       <c r="C56" s="147" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D56" s="144" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E56" s="138">
         <v>1</v>
@@ -8092,16 +8168,16 @@
         <v>5</v>
       </c>
       <c r="J56" s="140" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K56" s="137" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L56" s="137" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M56" s="141" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N56" s="142">
         <v>9</v>
@@ -8115,10 +8191,10 @@
         <v>120030302</v>
       </c>
       <c r="C57" s="147" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D57" s="144" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E57" s="138">
         <v>1</v>
@@ -8136,16 +8212,16 @@
         <v>5</v>
       </c>
       <c r="J57" s="140" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K57" s="137" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L57" s="137" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M57" s="141" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N57" s="142">
         <v>10</v>
@@ -8159,10 +8235,10 @@
         <v>99830</v>
       </c>
       <c r="C58" s="148" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D58" s="144" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E58" s="138">
         <v>1</v>
@@ -8180,16 +8256,16 @@
         <v>5</v>
       </c>
       <c r="J58" s="140" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K58" s="137" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L58" s="137" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M58" s="141" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N58" s="142">
         <v>11</v>
@@ -8203,10 +8279,10 @@
         <v>120024307</v>
       </c>
       <c r="C59" s="147" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D59" s="144" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E59" s="138">
         <v>1</v>
@@ -8224,16 +8300,16 @@
         <v>5</v>
       </c>
       <c r="J59" s="140" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K59" s="137" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L59" s="137" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M59" s="141" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N59" s="142">
         <v>12</v>
@@ -8247,10 +8323,10 @@
         <v>120029260</v>
       </c>
       <c r="C60" s="150" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D60" s="137" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E60" s="138">
         <v>1</v>
@@ -8268,16 +8344,16 @@
         <v>6</v>
       </c>
       <c r="J60" s="140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K60" s="137" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L60" s="137" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M60" s="141" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N60" s="142">
         <v>1</v>
@@ -8291,10 +8367,10 @@
         <v>120029384</v>
       </c>
       <c r="C61" s="148" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D61" s="137" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E61" s="138">
         <v>1</v>
@@ -8312,16 +8388,16 @@
         <v>6</v>
       </c>
       <c r="J61" s="140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K61" s="137" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L61" s="137" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M61" s="141" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N61" s="142">
         <v>2</v>
@@ -8335,10 +8411,10 @@
         <v>120024255</v>
       </c>
       <c r="C62" s="147" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D62" s="137" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E62" s="138">
         <v>1</v>
@@ -8356,16 +8432,16 @@
         <v>6</v>
       </c>
       <c r="J62" s="140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K62" s="137" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L62" s="137" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M62" s="141" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N62" s="142">
         <v>3</v>
@@ -8379,10 +8455,10 @@
         <v>120030466</v>
       </c>
       <c r="C63" s="148" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D63" s="137" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E63" s="138">
         <v>1</v>
@@ -8400,16 +8476,16 @@
         <v>6</v>
       </c>
       <c r="J63" s="140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K63" s="137" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L63" s="137" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M63" s="141" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N63" s="142">
         <v>4</v>
@@ -8423,10 +8499,10 @@
         <v>79014</v>
       </c>
       <c r="C64" s="137" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D64" s="137" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E64" s="138">
         <v>1</v>
@@ -8444,16 +8520,16 @@
         <v>8</v>
       </c>
       <c r="J64" s="140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K64" s="137" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L64" s="137" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M64" s="141" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N64" s="142">
         <v>5</v>
@@ -8467,10 +8543,10 @@
         <v>120022938</v>
       </c>
       <c r="C65" s="137" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D65" s="137" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E65" s="138">
         <v>1</v>
@@ -8488,16 +8564,16 @@
         <v>8</v>
       </c>
       <c r="J65" s="140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K65" s="137" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L65" s="137" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M65" s="141" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N65" s="142">
         <v>6</v>
@@ -8511,10 +8587,10 @@
         <v>120029383</v>
       </c>
       <c r="C66" s="137" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D66" s="137" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E66" s="138">
         <v>1</v>
@@ -8532,16 +8608,16 @@
         <v>8</v>
       </c>
       <c r="J66" s="140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K66" s="137" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L66" s="137" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M66" s="141" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N66" s="142">
         <v>7</v>
@@ -8555,10 +8631,10 @@
         <v>120024626</v>
       </c>
       <c r="C67" s="137" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D67" s="137" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E67" s="138">
         <v>1</v>
@@ -8576,16 +8652,16 @@
         <v>8</v>
       </c>
       <c r="J67" s="140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K67" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="L67" s="137" t="s">
         <v>132</v>
       </c>
-      <c r="L67" s="137" t="s">
-        <v>134</v>
-      </c>
       <c r="M67" s="141" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N67" s="142">
         <v>8</v>
@@ -8599,10 +8675,10 @@
         <v>120023289</v>
       </c>
       <c r="C68" s="137" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D68" s="137" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E68" s="138">
         <v>1</v>
@@ -8620,16 +8696,16 @@
         <v>8</v>
       </c>
       <c r="J68" s="140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K68" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="L68" s="137" t="s">
         <v>132</v>
       </c>
-      <c r="L68" s="137" t="s">
-        <v>134</v>
-      </c>
       <c r="M68" s="141" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N68" s="142">
         <v>9</v>
@@ -8643,10 +8719,10 @@
         <v>120025009</v>
       </c>
       <c r="C69" s="137" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D69" s="137" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E69" s="138">
         <v>1</v>
@@ -8664,16 +8740,16 @@
         <v>8</v>
       </c>
       <c r="J69" s="140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K69" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="L69" s="137" t="s">
         <v>132</v>
       </c>
-      <c r="L69" s="137" t="s">
-        <v>134</v>
-      </c>
       <c r="M69" s="141" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N69" s="142">
         <v>10</v>
@@ -8687,10 +8763,10 @@
         <v>120024863</v>
       </c>
       <c r="C70" s="137" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D70" s="137" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E70" s="138">
         <v>1</v>
@@ -8708,16 +8784,16 @@
         <v>8</v>
       </c>
       <c r="J70" s="140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K70" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="L70" s="137" t="s">
         <v>132</v>
       </c>
-      <c r="L70" s="137" t="s">
-        <v>134</v>
-      </c>
       <c r="M70" s="141" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N70" s="142">
         <v>11</v>
@@ -8731,10 +8807,10 @@
         <v>120027901</v>
       </c>
       <c r="C71" s="137" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D71" s="137" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E71" s="138">
         <v>1</v>
@@ -8752,16 +8828,16 @@
         <v>8</v>
       </c>
       <c r="J71" s="140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K71" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="L71" s="137" t="s">
         <v>132</v>
       </c>
-      <c r="L71" s="137" t="s">
-        <v>134</v>
-      </c>
       <c r="M71" s="141" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N71" s="142">
         <v>12</v>
@@ -8775,10 +8851,10 @@
         <v>120024375</v>
       </c>
       <c r="C72" s="137" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D72" s="137" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E72" s="138">
         <v>1</v>
@@ -8796,16 +8872,16 @@
         <v>8</v>
       </c>
       <c r="J72" s="140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K72" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="L72" s="137" t="s">
         <v>132</v>
       </c>
-      <c r="L72" s="137" t="s">
-        <v>134</v>
-      </c>
       <c r="M72" s="141" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N72" s="142">
         <v>13</v>
@@ -8819,10 +8895,10 @@
         <v>120026573</v>
       </c>
       <c r="C73" s="152" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D73" s="153" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E73" s="138">
         <v>1</v>
@@ -8841,16 +8917,16 @@
         <v>5</v>
       </c>
       <c r="J73" s="140" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K73" s="137" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L73" s="137" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M73" s="137" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N73" s="142">
         <v>1</v>
@@ -8864,10 +8940,10 @@
         <v>120026488</v>
       </c>
       <c r="C74" s="153" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D74" s="153" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E74" s="138">
         <v>1</v>
@@ -8886,16 +8962,16 @@
         <v>5</v>
       </c>
       <c r="J74" s="140" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K74" s="137" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L74" s="137" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M74" s="137" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N74" s="142">
         <v>2</v>
@@ -8909,10 +8985,10 @@
         <v>32990</v>
       </c>
       <c r="C75" s="153" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D75" s="153" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E75" s="138">
         <v>1</v>
@@ -8931,16 +9007,16 @@
         <v>5</v>
       </c>
       <c r="J75" s="140" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K75" s="137" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L75" s="137" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M75" s="137" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N75" s="142">
         <v>3</v>
@@ -8954,10 +9030,10 @@
         <v>120026491</v>
       </c>
       <c r="C76" s="153" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D76" s="153" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E76" s="138">
         <v>1</v>
@@ -8976,16 +9052,16 @@
         <v>5</v>
       </c>
       <c r="J76" s="140" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K76" s="137" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L76" s="137" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M76" s="137" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N76" s="142">
         <v>4</v>
@@ -8999,10 +9075,10 @@
         <v>120026492</v>
       </c>
       <c r="C77" s="153" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D77" s="153" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E77" s="138">
         <v>1</v>
@@ -9021,16 +9097,16 @@
         <v>5</v>
       </c>
       <c r="J77" s="140" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K77" s="137" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L77" s="137" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M77" s="137" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N77" s="142">
         <v>5</v>
@@ -9044,10 +9120,10 @@
         <v>47722</v>
       </c>
       <c r="C78" s="153" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D78" s="153" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E78" s="138">
         <v>1</v>
@@ -9066,16 +9142,16 @@
         <v>5</v>
       </c>
       <c r="J78" s="140" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K78" s="137" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L78" s="137" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M78" s="137" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N78" s="142">
         <v>6</v>
@@ -9089,10 +9165,10 @@
         <v>120026489</v>
       </c>
       <c r="C79" s="153" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D79" s="153" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E79" s="138">
         <v>1</v>
@@ -9111,16 +9187,16 @@
         <v>5</v>
       </c>
       <c r="J79" s="140" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K79" s="137" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L79" s="137" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M79" s="137" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N79" s="142">
         <v>7</v>
@@ -9134,10 +9210,10 @@
         <v>120026487</v>
       </c>
       <c r="C80" s="144" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D80" s="144" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E80" s="145">
         <v>1</v>
@@ -9156,16 +9232,16 @@
         <v>5</v>
       </c>
       <c r="J80" s="140" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K80" s="137" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L80" s="137" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M80" s="137" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N80" s="142">
         <v>8</v>
@@ -9179,10 +9255,10 @@
         <v>120027482</v>
       </c>
       <c r="C81" s="155" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D81" s="137" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E81" s="138">
         <v>1</v>
@@ -9200,16 +9276,16 @@
         <v>11</v>
       </c>
       <c r="J81" s="140" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K81" s="137" t="s">
+        <v>146</v>
+      </c>
+      <c r="L81" s="137" t="s">
+        <v>147</v>
+      </c>
+      <c r="M81" s="142" t="s">
         <v>148</v>
-      </c>
-      <c r="L81" s="137" t="s">
-        <v>149</v>
-      </c>
-      <c r="M81" s="142" t="s">
-        <v>150</v>
       </c>
       <c r="N81" s="142">
         <v>1</v>
@@ -9223,10 +9299,10 @@
         <v>120030467</v>
       </c>
       <c r="C82" s="155" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D82" s="137" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E82" s="138">
         <v>1</v>
@@ -9244,16 +9320,16 @@
         <v>11</v>
       </c>
       <c r="J82" s="140" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K82" s="137" t="s">
+        <v>146</v>
+      </c>
+      <c r="L82" s="137" t="s">
+        <v>147</v>
+      </c>
+      <c r="M82" s="142" t="s">
         <v>148</v>
-      </c>
-      <c r="L82" s="137" t="s">
-        <v>149</v>
-      </c>
-      <c r="M82" s="142" t="s">
-        <v>150</v>
       </c>
       <c r="N82" s="142">
         <v>2</v>
@@ -9267,10 +9343,10 @@
         <v>120027824</v>
       </c>
       <c r="C83" s="155" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D83" s="137" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E83" s="138">
         <v>1</v>
@@ -9289,16 +9365,16 @@
         <v>11</v>
       </c>
       <c r="J83" s="140" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K83" s="137" t="s">
+        <v>146</v>
+      </c>
+      <c r="L83" s="137" t="s">
+        <v>147</v>
+      </c>
+      <c r="M83" s="142" t="s">
         <v>148</v>
-      </c>
-      <c r="L83" s="137" t="s">
-        <v>149</v>
-      </c>
-      <c r="M83" s="142" t="s">
-        <v>150</v>
       </c>
       <c r="N83" s="142">
         <v>3</v>
@@ -9312,10 +9388,10 @@
         <v>90005</v>
       </c>
       <c r="C84" s="157" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D84" s="137" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E84" s="138">
         <v>1</v>
@@ -9334,16 +9410,16 @@
         <v>11</v>
       </c>
       <c r="J84" s="140" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K84" s="137" t="s">
+        <v>146</v>
+      </c>
+      <c r="L84" s="137" t="s">
+        <v>147</v>
+      </c>
+      <c r="M84" s="142" t="s">
         <v>148</v>
-      </c>
-      <c r="L84" s="137" t="s">
-        <v>149</v>
-      </c>
-      <c r="M84" s="142" t="s">
-        <v>150</v>
       </c>
       <c r="N84" s="142">
         <v>4</v>
@@ -9357,10 +9433,10 @@
         <v>120028904</v>
       </c>
       <c r="C85" s="155" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D85" s="137" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E85" s="138">
         <v>1</v>
@@ -9378,16 +9454,16 @@
         <v>11</v>
       </c>
       <c r="J85" s="140" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K85" s="137" t="s">
+        <v>146</v>
+      </c>
+      <c r="L85" s="137" t="s">
+        <v>147</v>
+      </c>
+      <c r="M85" s="142" t="s">
         <v>148</v>
-      </c>
-      <c r="L85" s="137" t="s">
-        <v>149</v>
-      </c>
-      <c r="M85" s="142" t="s">
-        <v>150</v>
       </c>
       <c r="N85" s="142">
         <v>5</v>
@@ -9401,10 +9477,10 @@
         <v>120024377</v>
       </c>
       <c r="C86" s="157" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D86" s="137" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E86" s="138">
         <v>1</v>
@@ -9423,16 +9499,16 @@
         <v>11</v>
       </c>
       <c r="J86" s="140" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K86" s="137" t="s">
+        <v>146</v>
+      </c>
+      <c r="L86" s="137" t="s">
+        <v>147</v>
+      </c>
+      <c r="M86" s="142" t="s">
         <v>148</v>
-      </c>
-      <c r="L86" s="137" t="s">
-        <v>149</v>
-      </c>
-      <c r="M86" s="142" t="s">
-        <v>150</v>
       </c>
       <c r="N86" s="142">
         <v>6</v>
@@ -9446,10 +9522,10 @@
         <v>120024969</v>
       </c>
       <c r="C87" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D87" s="137" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E87" s="138">
         <v>1</v>
@@ -9468,16 +9544,16 @@
         <v>11</v>
       </c>
       <c r="J87" s="140" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K87" s="137" t="s">
+        <v>146</v>
+      </c>
+      <c r="L87" s="137" t="s">
+        <v>147</v>
+      </c>
+      <c r="M87" s="142" t="s">
         <v>148</v>
-      </c>
-      <c r="L87" s="137" t="s">
-        <v>149</v>
-      </c>
-      <c r="M87" s="142" t="s">
-        <v>150</v>
       </c>
       <c r="N87" s="142">
         <v>7</v>
@@ -9491,10 +9567,10 @@
         <v>120024892</v>
       </c>
       <c r="C88" s="157" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D88" s="137" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E88" s="138">
         <v>1</v>
@@ -9513,16 +9589,16 @@
         <v>11</v>
       </c>
       <c r="J88" s="140" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K88" s="137" t="s">
+        <v>146</v>
+      </c>
+      <c r="L88" s="137" t="s">
+        <v>147</v>
+      </c>
+      <c r="M88" s="142" t="s">
         <v>148</v>
-      </c>
-      <c r="L88" s="137" t="s">
-        <v>149</v>
-      </c>
-      <c r="M88" s="142" t="s">
-        <v>150</v>
       </c>
       <c r="N88" s="142">
         <v>8</v>
@@ -9536,10 +9612,10 @@
         <v>99677</v>
       </c>
       <c r="C89" s="140" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D89" s="140" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E89" s="138">
         <v>1</v>
@@ -9557,16 +9633,16 @@
         <v>11</v>
       </c>
       <c r="J89" s="140" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K89" s="137" t="s">
+        <v>146</v>
+      </c>
+      <c r="L89" s="137" t="s">
+        <v>147</v>
+      </c>
+      <c r="M89" s="142" t="s">
         <v>148</v>
-      </c>
-      <c r="L89" s="137" t="s">
-        <v>149</v>
-      </c>
-      <c r="M89" s="142" t="s">
-        <v>150</v>
       </c>
       <c r="N89" s="142">
         <v>9</v>
@@ -9580,10 +9656,10 @@
         <v>59421</v>
       </c>
       <c r="C90" s="153" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D90" s="153" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E90" s="138">
         <v>1</v>
@@ -9601,16 +9677,16 @@
         <v>12</v>
       </c>
       <c r="J90" s="140" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K90" s="137" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L90" s="137" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M90" s="141" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N90" s="141">
         <v>1</v>
@@ -9624,10 +9700,10 @@
         <v>82946</v>
       </c>
       <c r="C91" s="153" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D91" s="153" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E91" s="138">
         <v>1</v>
@@ -9645,16 +9721,16 @@
         <v>12</v>
       </c>
       <c r="J91" s="140" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K91" s="137" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L91" s="137" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M91" s="141" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N91" s="141">
         <v>2</v>
@@ -9668,10 +9744,10 @@
         <v>97324</v>
       </c>
       <c r="C92" s="153" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D92" s="153" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E92" s="138">
         <v>1</v>
@@ -9689,16 +9765,16 @@
         <v>12</v>
       </c>
       <c r="J92" s="140" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K92" s="137" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L92" s="137" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M92" s="141" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N92" s="141">
         <v>3</v>
@@ -9712,10 +9788,10 @@
         <v>120026634</v>
       </c>
       <c r="C93" s="153" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D93" s="153" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E93" s="138">
         <v>1</v>
@@ -9733,16 +9809,16 @@
         <v>12</v>
       </c>
       <c r="J93" s="140" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K93" s="137" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L93" s="137" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M93" s="141" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N93" s="141">
         <v>4</v>
@@ -9756,10 +9832,10 @@
         <v>120027080</v>
       </c>
       <c r="C94" s="153" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D94" s="153" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E94" s="138">
         <v>1</v>
@@ -9777,16 +9853,16 @@
         <v>12</v>
       </c>
       <c r="J94" s="140" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K94" s="137" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L94" s="137" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M94" s="141" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N94" s="141">
         <v>5</v>
@@ -9800,10 +9876,10 @@
         <v>120027441</v>
       </c>
       <c r="C95" s="144" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D95" s="144" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E95" s="145">
         <v>1</v>
@@ -9821,16 +9897,16 @@
         <v>12</v>
       </c>
       <c r="J95" s="140" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K95" s="137" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L95" s="137" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M95" s="141" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N95" s="141">
         <v>6</v>
@@ -9844,10 +9920,10 @@
         <v>120027806</v>
       </c>
       <c r="C96" s="153" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D96" s="153" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E96" s="138">
         <v>1</v>
@@ -9865,16 +9941,16 @@
         <v>12</v>
       </c>
       <c r="J96" s="140" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K96" s="137" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L96" s="137" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M96" s="141" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N96" s="141">
         <v>7</v>
@@ -9888,10 +9964,10 @@
         <v>120026620</v>
       </c>
       <c r="C97" s="153" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D97" s="153" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E97" s="138">
         <v>1</v>
@@ -9909,16 +9985,16 @@
         <v>12</v>
       </c>
       <c r="J97" s="140" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K97" s="137" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L97" s="137" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M97" s="141" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N97" s="141">
         <v>8</v>
@@ -9932,10 +10008,10 @@
         <v>120026626</v>
       </c>
       <c r="C98" s="153" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D98" s="153" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E98" s="138">
         <v>1</v>
@@ -9953,16 +10029,16 @@
         <v>12</v>
       </c>
       <c r="J98" s="140" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K98" s="137" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L98" s="137" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M98" s="141" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N98" s="141">
         <v>9</v>
@@ -9976,10 +10052,10 @@
         <v>96078</v>
       </c>
       <c r="C99" s="153" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D99" s="153" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E99" s="138">
         <v>1</v>
@@ -9998,16 +10074,16 @@
         <v>12</v>
       </c>
       <c r="J99" s="140" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K99" s="137" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L99" s="137" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M99" s="141" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N99" s="141">
         <v>1</v>
@@ -10021,10 +10097,10 @@
         <v>120027103</v>
       </c>
       <c r="C100" s="153" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D100" s="153" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E100" s="138">
         <v>1</v>
@@ -10043,16 +10119,16 @@
         <v>12</v>
       </c>
       <c r="J100" s="140" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K100" s="137" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L100" s="137" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M100" s="141" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N100" s="141">
         <v>2</v>
@@ -10066,10 +10142,10 @@
         <v>120027696</v>
       </c>
       <c r="C101" s="153" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D101" s="153" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E101" s="138">
         <v>1</v>
@@ -10088,16 +10164,16 @@
         <v>12</v>
       </c>
       <c r="J101" s="140" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K101" s="137" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L101" s="137" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M101" s="141" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N101" s="141">
         <v>3</v>
@@ -10111,10 +10187,10 @@
         <v>120029269</v>
       </c>
       <c r="C102" s="144" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D102" s="153" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E102" s="138">
         <v>1</v>
@@ -10133,16 +10209,16 @@
         <v>12</v>
       </c>
       <c r="J102" s="140" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K102" s="137" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L102" s="137" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M102" s="141" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N102" s="141">
         <v>4</v>
@@ -10156,10 +10232,10 @@
         <v>120030188</v>
       </c>
       <c r="C103" s="153" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D103" s="153" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E103" s="138">
         <v>1</v>
@@ -10178,16 +10254,16 @@
         <v>12</v>
       </c>
       <c r="J103" s="140" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K103" s="137" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L103" s="137" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M103" s="141" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N103" s="142">
         <v>5</v>
@@ -10201,10 +10277,10 @@
         <v>120030568</v>
       </c>
       <c r="C104" s="137" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D104" s="137" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E104" s="138">
         <v>1</v>
@@ -10223,16 +10299,16 @@
         <v>8</v>
       </c>
       <c r="J104" s="140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K104" s="137" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L104" s="137" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M104" s="141" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N104" s="141">
         <v>1</v>
@@ -10246,10 +10322,10 @@
         <v>120030573</v>
       </c>
       <c r="C105" s="137" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D105" s="137" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E105" s="138">
         <v>1</v>
@@ -10268,16 +10344,16 @@
         <v>8</v>
       </c>
       <c r="J105" s="140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K105" s="137" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L105" s="137" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M105" s="141" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N105" s="141">
         <v>2</v>
@@ -10291,10 +10367,10 @@
         <v>120030639</v>
       </c>
       <c r="C106" s="137" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D106" s="137" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E106" s="138">
         <v>1</v>
@@ -10313,16 +10389,16 @@
         <v>8</v>
       </c>
       <c r="J106" s="140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K106" s="137" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L106" s="137" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M106" s="141" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N106" s="141">
         <v>3</v>
@@ -10336,10 +10412,10 @@
         <v>99802</v>
       </c>
       <c r="C107" s="155" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D107" s="137" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E107" s="138">
         <v>1</v>
@@ -10357,16 +10433,16 @@
         <v>11</v>
       </c>
       <c r="J107" s="140" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K107" s="137" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L107" s="137" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M107" s="141" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N107" s="141">
         <v>1</v>
@@ -10380,10 +10456,10 @@
         <v>120022942</v>
       </c>
       <c r="C108" s="155" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D108" s="137" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E108" s="138">
         <v>1</v>
@@ -10401,16 +10477,16 @@
         <v>11</v>
       </c>
       <c r="J108" s="140" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K108" s="137" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L108" s="137" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M108" s="141" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N108" s="141">
         <v>2</v>
@@ -10424,10 +10500,10 @@
         <v>120027412</v>
       </c>
       <c r="C109" s="155" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D109" s="137" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E109" s="138">
         <v>1</v>
@@ -10445,16 +10521,16 @@
         <v>11</v>
       </c>
       <c r="J109" s="140" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K109" s="137" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L109" s="137" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M109" s="141" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N109" s="141">
         <v>3</v>
@@ -10468,10 +10544,10 @@
         <v>120027481</v>
       </c>
       <c r="C110" s="155" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D110" s="137" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E110" s="138">
         <v>1</v>
@@ -10489,16 +10565,16 @@
         <v>12</v>
       </c>
       <c r="J110" s="140" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K110" s="137" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L110" s="137" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M110" s="141" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N110" s="141">
         <v>1</v>
@@ -10512,10 +10588,10 @@
         <v>120028362</v>
       </c>
       <c r="C111" s="155" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D111" s="137" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E111" s="138">
         <v>1</v>
@@ -10533,16 +10609,16 @@
         <v>12</v>
       </c>
       <c r="J111" s="140" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K111" s="137" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L111" s="137" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M111" s="141" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N111" s="141">
         <v>2</v>
@@ -10556,10 +10632,10 @@
         <v>120022957</v>
       </c>
       <c r="C112" s="155" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D112" s="137" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E112" s="138">
         <v>1</v>
@@ -10577,16 +10653,16 @@
         <v>12</v>
       </c>
       <c r="J112" s="140" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K112" s="137" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L112" s="137" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M112" s="141" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N112" s="141">
         <v>1</v>
@@ -10600,10 +10676,10 @@
         <v>120029638</v>
       </c>
       <c r="C113" s="155" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D113" s="155" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E113" s="138">
         <v>1</v>
@@ -10621,16 +10697,16 @@
         <v>12</v>
       </c>
       <c r="J113" s="140" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K113" s="137" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L113" s="137" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M113" s="141" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N113" s="141">
         <v>2</v>
@@ -10644,10 +10720,10 @@
         <v>92536</v>
       </c>
       <c r="C114" s="144" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D114" s="144" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E114" s="145">
         <v>1</v>
@@ -10665,16 +10741,16 @@
         <v>9</v>
       </c>
       <c r="J114" s="140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K114" s="137" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L114" s="137" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M114" s="141" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N114" s="141">
         <v>1</v>
@@ -10682,133 +10758,60 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="duplicateValues" dxfId="20" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B8">
-    <cfRule type="duplicateValues" dxfId="18" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B22">
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B26">
-    <cfRule type="duplicateValues" dxfId="14" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B33">
-    <cfRule type="duplicateValues" dxfId="13" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B47">
-    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B52 B54:B59">
-    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B72">
-    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B80">
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B89">
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B98">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B103">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B106">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107:B114">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB40C41-0399-4FC3-8526-AA71F4D11BE5}">
-  <sheetPr codeName="Лист3"/>
-  <dimension ref="B1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="162" t="s">
-        <v>233</v>
-      </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="164" t="s">
-        <v>231</v>
-      </c>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="166"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="162" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" s="162" t="s">
-        <v>234</v>
-      </c>
-      <c r="D4" s="163" t="s">
-        <v>235</v>
-      </c>
-      <c r="E4" s="163" t="s">
-        <v>236</v>
-      </c>
-      <c r="F4" s="163" t="s">
-        <v>237</v>
-      </c>
-      <c r="G4" s="163" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D5">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>332</v>
-      </c>
-      <c r="F5">
-        <v>22</v>
-      </c>
-      <c r="G5">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -10818,7 +10821,7 @@
   <dimension ref="B1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10845,58 +10848,58 @@
   <sheetData>
     <row r="1" spans="2:19" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="175" t="s">
+      <c r="B2" s="169" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="169" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="169" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="169" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="175" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="175" t="s">
+      <c r="F2" s="169" t="s">
         <v>217</v>
       </c>
-      <c r="E2" s="175" t="s">
+      <c r="G2" s="169" t="s">
         <v>218</v>
       </c>
-      <c r="F2" s="175" t="s">
+      <c r="H2" s="169" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="169" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="169" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="169" t="s">
         <v>219</v>
       </c>
-      <c r="G2" s="175" t="s">
+      <c r="L2" s="169" t="s">
         <v>220</v>
       </c>
-      <c r="H2" s="175" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="175" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="175" t="s">
-        <v>82</v>
-      </c>
-      <c r="K2" s="175" t="s">
+      <c r="M2" s="169" t="s">
         <v>221</v>
       </c>
-      <c r="L2" s="175" t="s">
+      <c r="N2" s="169" t="s">
         <v>222</v>
       </c>
-      <c r="M2" s="175" t="s">
+      <c r="O2" s="169" t="s">
         <v>223</v>
       </c>
-      <c r="N2" s="175" t="s">
+      <c r="P2" s="169" t="s">
         <v>224</v>
       </c>
-      <c r="O2" s="175" t="s">
+      <c r="Q2" s="169" t="s">
         <v>225</v>
       </c>
-      <c r="P2" s="175" t="s">
+      <c r="R2" s="169" t="s">
         <v>226</v>
       </c>
-      <c r="Q2" s="175" t="s">
-        <v>227</v>
-      </c>
-      <c r="R2" s="175" t="s">
-        <v>228</v>
-      </c>
-      <c r="S2" s="175" t="s">
+      <c r="S2" s="169" t="s">
         <v>5</v>
       </c>
     </row>
@@ -10931,191 +10934,191 @@
         <v>3</v>
       </c>
       <c r="D2" s="160" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C3" s="160" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="161" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C4" s="160" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="161" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C5" s="160" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" s="161" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" s="160" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="161" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C7" s="160" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="161" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C8" s="160" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="161" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C9" s="160" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D9" s="161" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C10" s="160" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="161" t="s">
         <v>197</v>
-      </c>
-      <c r="D10" s="161" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C11" s="160" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D11" s="161" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C12" s="160" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D12" s="161" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C13" s="160" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D13" s="161" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C14" s="160" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D14" s="161" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C15" s="160" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D15" s="161" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C16" s="160" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D16" s="161" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="160" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D17" s="161" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="160" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D18" s="161" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="160" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D19" s="161" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="160" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D20" s="161" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="160" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D21" s="161" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" s="160" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D22" s="161" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" s="160" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="161" t="s">
         <v>211</v>
-      </c>
-      <c r="D23" s="161" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="160" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D24" s="161" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" s="160" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D25" s="161" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/DomesticTransport/DomesticTransport.xlsx
+++ b/DomesticTransport/DomesticTransport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aevse\Source\Repos\DomesticTransport\DomesticTransport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFD2243-F2D0-4483-B067-53AC8C0A3B76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082F0787-8356-41EC-B8BE-CE09BC650E44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC776459-6745-4339-B7EA-E0E0F9747FA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{AC776459-6745-4339-B7EA-E0E0F9747FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery" sheetId="2" r:id="rId1"/>
@@ -2058,33 +2058,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2252,6 +2225,33 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2266,8 +2266,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E3245CE-8CB7-440C-8A99-A387ADEE7331}" name="TableCarrier" displayName="TableCarrier" ref="B5:E9" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25">
-  <autoFilter ref="B5:E9" xr:uid="{DEB12404-07BD-4FAF-83D7-6873DABB45B9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E3245CE-8CB7-440C-8A99-A387ADEE7331}" name="TableCarrier" displayName="TableCarrier" ref="B5:E6" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35">
+  <autoFilter ref="B5:E6" xr:uid="{DEB12404-07BD-4FAF-83D7-6873DABB45B9}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{64C38326-B884-4325-8A47-3CF76FF099B6}" name="№ Авто"/>
     <tableColumn id="6" xr3:uid="{FEDCB64B-82B1-4C9E-9EEB-F53217E4637A}" name="Компания"/>
@@ -2279,8 +2279,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A1298FBD-3E0C-4829-AA91-D63AF491826E}" name="TableInvoicies" displayName="TableInvoicies" ref="B14:I15" totalsRowShown="0" headerRowDxfId="36">
-  <autoFilter ref="B14:I15" xr:uid="{9CC24962-0F87-4500-BB2C-B26DD82344EE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A1298FBD-3E0C-4829-AA91-D63AF491826E}" name="TableInvoicies" displayName="TableInvoicies" ref="B13:I14" totalsRowShown="0" headerRowDxfId="34">
+  <autoFilter ref="B13:I14" xr:uid="{9CC24962-0F87-4500-BB2C-B26DD82344EE}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{8E60E219-8ADB-48B1-A9CF-AF43EFB5E532}" name="№ Авто"/>
     <tableColumn id="2" xr3:uid="{0C480417-9A5C-4A67-90B7-E69215A66717}" name="Накладная"/>
@@ -2296,7 +2296,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0E832B09-3D36-4DE3-8E20-EF81C85F4B4E}" name="PriceDelivery" displayName="PriceDelivery" ref="A3:J123" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" headerRowCellStyle="Обычный 4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0E832B09-3D36-4DE3-8E20-EF81C85F4B4E}" name="PriceDelivery" displayName="PriceDelivery" ref="A3:J123" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" headerRowCellStyle="Обычный 4">
   <autoFilter ref="A3:J123" xr:uid="{75E0B774-231E-4CE9-B5F7-6515E34100A9}">
     <filterColumn colId="2">
       <filters>
@@ -2317,7 +2317,7 @@
     <tableColumn id="7" xr3:uid="{63E92DBC-C612-44AB-8710-DE5D3A67E602}" name="tonnage, t"/>
     <tableColumn id="8" xr3:uid="{7956AE7A-C21C-4293-AB21-1C09E993025E}" name="vehicle"/>
     <tableColumn id="9" xr3:uid="{485FC7AA-9B80-40AC-B112-7709C94F7992}" name="add.point"/>
-    <tableColumn id="10" xr3:uid="{76EEE4BC-710C-4EA7-9DD0-0BBB946AB005}" name="vehicle + add.point" dataDxfId="33">
+    <tableColumn id="10" xr3:uid="{76EEE4BC-710C-4EA7-9DD0-0BBB946AB005}" name="vehicle + add.point" dataDxfId="31">
       <calculatedColumnFormula>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2326,7 +2326,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5A2BEE8F-C787-4493-8D50-391BF4730E5C}" name="Таблица6" displayName="Таблица6" ref="B4:G5" totalsRowShown="0" headerRowDxfId="32" headerRowCellStyle="60% — акцент6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5A2BEE8F-C787-4493-8D50-391BF4730E5C}" name="Таблица6" displayName="Таблица6" ref="B4:G5" totalsRowShown="0" headerRowDxfId="30" headerRowCellStyle="60% — акцент6">
   <autoFilter ref="B4:G5" xr:uid="{A8EE02C6-5C6C-4466-8322-A0CDDB992E4C}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{30866AF2-A560-4911-AA2F-9AFA1E12790B}" name="№ "/>
@@ -2341,7 +2341,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C0B60422-EB35-4FB4-BF1B-2F6334DAF9A9}" name="TableTotal" displayName="TableTotal" ref="B2:S3" insertRow="1" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29" headerRowCellStyle="Акцент6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C0B60422-EB35-4FB4-BF1B-2F6334DAF9A9}" name="TableTotal" displayName="TableTotal" ref="B2:S3" insertRow="1" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" headerRowCellStyle="Акцент6">
   <autoFilter ref="B2:S3" xr:uid="{6A8CAFF1-DE87-467A-9C9F-EAC45DD35AAA}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{6C78F3B1-C5C6-4E9B-B8B0-E04671622CA4}" name="ID перевозчика"/>
@@ -2372,8 +2372,8 @@
   <autoFilter ref="B2:D25" xr:uid="{DE4A6499-25FE-4A0E-AE62-0DABB7DFBF79}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{29A63BC4-2872-4EA4-B075-ED195D9BE031}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{FF7F5D4D-C144-4DC0-AEA8-3808900FD64A}" name="Компания" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{A6517B15-FFF0-4130-831C-781935AA2468}" name="Получатель письма" dataDxfId="27" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="2" xr3:uid="{FF7F5D4D-C144-4DC0-AEA8-3808900FD64A}" name="Компания" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{A6517B15-FFF0-4130-831C-781935AA2468}" name="Получатель письма" dataDxfId="25" dataCellStyle="Гиперссылка"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2677,10 +2677,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9007937B-86DB-4446-832F-F234A2840685}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="B1:I14"/>
+  <dimension ref="B1:I13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="R14:S15"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2732,41 +2732,41 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
     <row r="13" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -10820,7 +10820,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="B1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>

--- a/DomesticTransport/DomesticTransport.xlsx
+++ b/DomesticTransport/DomesticTransport.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aevse\Source\Repos\DomesticTransport\DomesticTransport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082F0787-8356-41EC-B8BE-CE09BC650E44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A34BBD-10D9-474E-83AA-72284EA7948E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{AC776459-6745-4339-B7EA-E0E0F9747FA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{AC776459-6745-4339-B7EA-E0E0F9747FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery" sheetId="2" r:id="rId1"/>
     <sheet name="Rate" sheetId="3" r:id="rId2"/>
-    <sheet name="Routes" sheetId="9" r:id="rId3"/>
+    <sheet name="Routes" sheetId="10" r:id="rId3"/>
     <sheet name="ZoneCustomer" sheetId="4" r:id="rId4"/>
     <sheet name="Customers" sheetId="5" r:id="rId5"/>
     <sheet name="Отгрузка" sheetId="1" r:id="rId6"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="234">
   <si>
     <t>Перевозчик</t>
   </si>
@@ -790,34 +790,19 @@
     <t>Адрес</t>
   </si>
   <si>
-    <t>id Получателя (Точки)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">№ </t>
-  </si>
-  <si>
-    <t>Маршруты</t>
-  </si>
-  <si>
-    <t>Столбец1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Колличество паллет</t>
   </si>
   <si>
     <t>Вес нетто</t>
+  </si>
+  <si>
+    <t>Priority route</t>
+  </si>
+  <si>
+    <t>Id route</t>
+  </si>
+  <si>
+    <t>Priority point</t>
   </si>
 </sst>
 </file>
@@ -990,14 +975,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1020,8 +997,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1090,12 +1075,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
       </patternFill>
     </fill>
@@ -1105,7 +1084,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1336,18 +1315,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1755,27 +1796,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="12" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="13" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1796,17 +1854,99 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="60% — акцент6" xfId="4" builtinId="52"/>
-    <cellStyle name="Excel Built-in Normal" xfId="5" xr:uid="{E86D5BE3-109F-42F2-B062-72D26BC4505E}"/>
-    <cellStyle name="Акцент3" xfId="6" builtinId="37"/>
-    <cellStyle name="Акцент6" xfId="7" builtinId="49"/>
+  <cellStyles count="7">
+    <cellStyle name="Excel Built-in Normal" xfId="4" xr:uid="{E86D5BE3-109F-42F2-B062-72D26BC4505E}"/>
+    <cellStyle name="Акцент3" xfId="5" builtinId="37"/>
+    <cellStyle name="Акцент6" xfId="6" builtinId="49"/>
     <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{0D8B4E41-A43D-4735-80FC-A622F3AB536B}"/>
     <cellStyle name="Обычный 4" xfId="1" xr:uid="{6D1EACBA-287E-493D-A31F-3D0C6DD7000A}"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="55">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2058,27 +2198,31 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -2088,59 +2232,12 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <name val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -2152,6 +2249,166 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2266,7 +2523,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E3245CE-8CB7-440C-8A99-A387ADEE7331}" name="TableCarrier" displayName="TableCarrier" ref="B5:E6" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E3245CE-8CB7-440C-8A99-A387ADEE7331}" name="TableCarrier" displayName="TableCarrier" ref="B5:E6" totalsRowShown="0" headerRowDxfId="54" headerRowBorderDxfId="53">
   <autoFilter ref="B5:E6" xr:uid="{DEB12404-07BD-4FAF-83D7-6873DABB45B9}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{64C38326-B884-4325-8A47-3CF76FF099B6}" name="№ Авто"/>
@@ -2279,7 +2536,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A1298FBD-3E0C-4829-AA91-D63AF491826E}" name="TableInvoicies" displayName="TableInvoicies" ref="B13:I14" totalsRowShown="0" headerRowDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A1298FBD-3E0C-4829-AA91-D63AF491826E}" name="TableInvoicies" displayName="TableInvoicies" ref="B13:I14" totalsRowShown="0" headerRowDxfId="52">
   <autoFilter ref="B13:I14" xr:uid="{9CC24962-0F87-4500-BB2C-B26DD82344EE}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{8E60E219-8ADB-48B1-A9CF-AF43EFB5E532}" name="№ Авто"/>
@@ -2296,7 +2553,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0E832B09-3D36-4DE3-8E20-EF81C85F4B4E}" name="PriceDelivery" displayName="PriceDelivery" ref="A3:J123" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" headerRowCellStyle="Обычный 4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0E832B09-3D36-4DE3-8E20-EF81C85F4B4E}" name="PriceDelivery" displayName="PriceDelivery" ref="A3:J123" totalsRowShown="0" headerRowDxfId="51" headerRowBorderDxfId="50" headerRowCellStyle="Обычный 4">
   <autoFilter ref="A3:J123" xr:uid="{75E0B774-231E-4CE9-B5F7-6515E34100A9}">
     <filterColumn colId="2">
       <filters>
@@ -2317,7 +2574,7 @@
     <tableColumn id="7" xr3:uid="{63E92DBC-C612-44AB-8710-DE5D3A67E602}" name="tonnage, t"/>
     <tableColumn id="8" xr3:uid="{7956AE7A-C21C-4293-AB21-1C09E993025E}" name="vehicle"/>
     <tableColumn id="9" xr3:uid="{485FC7AA-9B80-40AC-B112-7709C94F7992}" name="add.point"/>
-    <tableColumn id="10" xr3:uid="{76EEE4BC-710C-4EA7-9DD0-0BBB946AB005}" name="vehicle + add.point" dataDxfId="31">
+    <tableColumn id="10" xr3:uid="{76EEE4BC-710C-4EA7-9DD0-0BBB946AB005}" name="vehicle + add.point" dataDxfId="49">
       <calculatedColumnFormula>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2326,22 +2583,30 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5A2BEE8F-C787-4493-8D50-391BF4730E5C}" name="Таблица6" displayName="Таблица6" ref="B4:G5" totalsRowShown="0" headerRowDxfId="30" headerRowCellStyle="60% — акцент6">
-  <autoFilter ref="B4:G5" xr:uid="{A8EE02C6-5C6C-4466-8322-A0CDDB992E4C}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{30866AF2-A560-4911-AA2F-9AFA1E12790B}" name="№ "/>
-    <tableColumn id="2" xr3:uid="{E94C6028-DC1C-4775-90C7-7A75F79E5A40}" name="Столбец1"/>
-    <tableColumn id="3" xr3:uid="{8E791B06-001F-4AAF-B4AE-0DAEBD7A729D}" name="1"/>
-    <tableColumn id="4" xr3:uid="{AA209621-8CA7-43DA-B3EB-8D166AB95669}" name="2"/>
-    <tableColumn id="5" xr3:uid="{DDEA8557-1067-445D-867D-F113E1C9BA12}" name="3"/>
-    <tableColumn id="6" xr3:uid="{EC62389C-A344-4984-8558-5A77A2CC54AD}" name="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{6A36CA48-51F0-4212-A000-6CAA37B4755A}" name="TableRoutes" displayName="TableRoutes" ref="A1:J27" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30">
+  <autoFilter ref="A1:J27" xr:uid="{00CBBFBD-BD9E-42F8-8B7E-FE2310A2C83B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J27">
+    <sortCondition ref="B2:B27"/>
+    <sortCondition ref="C2:C27"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{A37757C1-D62A-4B25-A367-C4F2545FB39C}" name="Id route"/>
+    <tableColumn id="2" xr3:uid="{C576587B-9FF1-4321-8EFA-E0BDDF28607A}" name="Priority route"/>
+    <tableColumn id="3" xr3:uid="{067BC0D3-E773-4C50-AA43-24E4D7FE8B65}" name="Priority point"/>
+    <tableColumn id="4" xr3:uid="{9199F0DD-7634-46F4-80A2-39B07927B9E6}" name="Номер клиента"/>
+    <tableColumn id="5" xr3:uid="{386BE280-F236-4F23-91EF-DACF36A94FDD}" name="Получатель материала"/>
+    <tableColumn id="6" xr3:uid="{CB367FA0-361A-4CB3-B175-CFDAD63FDC61}" name="Клиент"/>
+    <tableColumn id="7" xr3:uid="{297706F8-D3AA-4B0F-ACD6-C16C02E896DD}" name="Город"/>
+    <tableColumn id="8" xr3:uid="{EFDF7186-D2AD-4353-8080-6B4776836818}" name="Маршрут"/>
+    <tableColumn id="9" xr3:uid="{C5AC18C4-36CD-46E5-807D-6F2F35975187}" name="City"/>
+    <tableColumn id="10" xr3:uid="{C231C9F8-9468-47DA-B38E-EBD3C3FF19F2}" name="Направление"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C0B60422-EB35-4FB4-BF1B-2F6334DAF9A9}" name="TableTotal" displayName="TableTotal" ref="B2:S3" insertRow="1" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" headerRowCellStyle="Акцент6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C0B60422-EB35-4FB4-BF1B-2F6334DAF9A9}" name="TableTotal" displayName="TableTotal" ref="B2:S3" insertRow="1" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" headerRowCellStyle="Акцент6">
   <autoFilter ref="B2:S3" xr:uid="{6A8CAFF1-DE87-467A-9C9F-EAC45DD35AAA}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{6C78F3B1-C5C6-4E9B-B8B0-E04671622CA4}" name="ID перевозчика"/>
@@ -2372,8 +2637,8 @@
   <autoFilter ref="B2:D25" xr:uid="{DE4A6499-25FE-4A0E-AE62-0DABB7DFBF79}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{29A63BC4-2872-4EA4-B075-ED195D9BE031}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{FF7F5D4D-C144-4DC0-AEA8-3808900FD64A}" name="Компания" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{A6517B15-FFF0-4130-831C-781935AA2468}" name="Получатель письма" dataDxfId="25" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="2" xr3:uid="{FF7F5D4D-C144-4DC0-AEA8-3808900FD64A}" name="Компания" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{A6517B15-FFF0-4130-831C-781935AA2468}" name="Получатель письма" dataDxfId="0" dataCellStyle="Гиперссылка"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2698,12 +2963,12 @@
   <sheetData>
     <row r="1" spans="2:9" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="162" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="168">
+      <c r="C2" s="163">
         <f ca="1">TODAY()+1</f>
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2761,10 +3026,10 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>11</v>
@@ -4314,77 +4579,1030 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB40C41-0399-4FC3-8526-AA71F4D11BE5}">
-  <sheetPr codeName="Лист3"/>
-  <dimension ref="B1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67A1708-3085-4C0B-B20B-14DE5D5EB1E8}">
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="162" t="s">
+    <row r="1" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="171" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="172" t="s">
         <v>231</v>
       </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="164" t="s">
-        <v>229</v>
-      </c>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="166"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="162" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" s="162" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4" s="163" t="s">
+      <c r="C1" s="173" t="s">
         <v>233</v>
       </c>
-      <c r="E4" s="163" t="s">
-        <v>234</v>
-      </c>
-      <c r="F4" s="163" t="s">
-        <v>235</v>
-      </c>
-      <c r="G4" s="163" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D1" s="173" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="173" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="173" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="173" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="173" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="173" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>83838</v>
+      </c>
+      <c r="E2">
+        <v>120022493</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="165">
+        <v>120022493</v>
+      </c>
+      <c r="O2" s="169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>94206</v>
+      </c>
+      <c r="E3">
+        <v>120026430</v>
+      </c>
+      <c r="F3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="166">
+        <v>120022493</v>
+      </c>
+      <c r="O3" s="169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>92587</v>
+      </c>
+      <c r="E4">
+        <v>120028098</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="166">
+        <v>120026430</v>
+      </c>
+      <c r="O4" s="169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
       <c r="D5">
-        <v>11</v>
+        <v>83838</v>
       </c>
       <c r="E5">
-        <v>332</v>
-      </c>
-      <c r="F5">
-        <v>22</v>
-      </c>
-      <c r="G5">
-        <v>12</v>
+        <v>120026747</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="165">
+        <v>120026430</v>
+      </c>
+      <c r="O5" s="169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>79735</v>
+      </c>
+      <c r="E6">
+        <v>120026206</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="166">
+        <v>120028098</v>
+      </c>
+      <c r="O6" s="169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>73499</v>
+      </c>
+      <c r="E7">
+        <v>120025752</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="166">
+        <v>120028098</v>
+      </c>
+      <c r="O7" s="169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>90317</v>
+      </c>
+      <c r="E8">
+        <v>120024261</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" s="166">
+        <v>120026747</v>
+      </c>
+      <c r="O8" s="169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>56096</v>
+      </c>
+      <c r="E9">
+        <v>120022424</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>94109</v>
+      </c>
+      <c r="E10">
+        <v>120026389</v>
+      </c>
+      <c r="F10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10" s="166">
+        <v>120026747</v>
+      </c>
+      <c r="O10" s="169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>83805</v>
+      </c>
+      <c r="E11">
+        <v>120021605</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" s="167">
+        <v>120026206</v>
+      </c>
+      <c r="O11" s="169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>120028781</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="167">
+        <v>120025752</v>
+      </c>
+      <c r="O12" s="169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>56205</v>
+      </c>
+      <c r="E13">
+        <v>120027759</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="167">
+        <v>120025752</v>
+      </c>
+      <c r="O13" s="169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>93101</v>
+      </c>
+      <c r="E14">
+        <v>120025885</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>91020</v>
+      </c>
+      <c r="E15">
+        <v>91020</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>84183</v>
+      </c>
+      <c r="E16">
+        <v>120029370</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16" s="167">
+        <v>120024261</v>
+      </c>
+      <c r="O16" s="169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>77001</v>
+      </c>
+      <c r="E17">
+        <v>120024301</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="167">
+        <v>120022424</v>
+      </c>
+      <c r="O17" s="169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>56161</v>
+      </c>
+      <c r="E18">
+        <v>120024306</v>
+      </c>
+      <c r="F18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>59425</v>
+      </c>
+      <c r="E19">
+        <v>120021905</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19">
+        <v>4</v>
+      </c>
+      <c r="N19" s="168">
+        <v>120026389</v>
+      </c>
+      <c r="O19" s="169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>94012</v>
+      </c>
+      <c r="E20">
+        <v>120026321</v>
+      </c>
+      <c r="F20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" s="168">
+        <v>120021605</v>
+      </c>
+      <c r="O20" s="169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>92536</v>
+      </c>
+      <c r="E21">
+        <v>120025666</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" s="170">
+        <v>120025885</v>
+      </c>
+      <c r="O21" s="169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>60102</v>
+      </c>
+      <c r="E22">
+        <v>60102</v>
+      </c>
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>57317</v>
+      </c>
+      <c r="E23">
+        <v>120022426</v>
+      </c>
+      <c r="F23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>78258</v>
+      </c>
+      <c r="E24">
+        <v>78258</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>59019</v>
+      </c>
+      <c r="E25">
+        <v>120022423</v>
+      </c>
+      <c r="F25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>92968</v>
+      </c>
+      <c r="E26">
+        <v>120024225</v>
+      </c>
+      <c r="F26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="N2">
+    <cfRule type="duplicateValues" dxfId="48" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3">
+    <cfRule type="duplicateValues" dxfId="47" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="duplicateValues" dxfId="46" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="45" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6">
+    <cfRule type="duplicateValues" dxfId="44" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="43" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8">
+    <cfRule type="duplicateValues" dxfId="42" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="duplicateValues" dxfId="41" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11">
+    <cfRule type="duplicateValues" dxfId="40" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12">
+    <cfRule type="duplicateValues" dxfId="39" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13">
+    <cfRule type="duplicateValues" dxfId="38" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16">
+    <cfRule type="duplicateValues" dxfId="37" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17">
+    <cfRule type="duplicateValues" dxfId="36" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19">
+    <cfRule type="duplicateValues" dxfId="35" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N20">
+    <cfRule type="duplicateValues" dxfId="34" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N21">
+    <cfRule type="duplicateValues" dxfId="33" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:C27">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4395,7 +5613,7 @@
   <dimension ref="B1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="P2" sqref="P2:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4469,7 +5687,7 @@
       </c>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="175" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="75">
@@ -4514,12 +5732,12 @@
       <c r="P2" s="68">
         <v>1</v>
       </c>
-      <c r="Q2" s="173" t="s">
+      <c r="Q2" s="178" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="171"/>
+      <c r="B3" s="176"/>
       <c r="C3" s="75">
         <v>94206</v>
       </c>
@@ -4562,10 +5780,10 @@
       <c r="P3" s="68">
         <v>2</v>
       </c>
-      <c r="Q3" s="174"/>
+      <c r="Q3" s="179"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="171"/>
+      <c r="B4" s="176"/>
       <c r="C4" s="75">
         <v>92587</v>
       </c>
@@ -4608,10 +5826,10 @@
       <c r="P4" s="68">
         <v>3</v>
       </c>
-      <c r="Q4" s="174"/>
+      <c r="Q4" s="179"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="172"/>
+      <c r="B5" s="177"/>
       <c r="C5" s="75">
         <v>83838</v>
       </c>
@@ -4654,10 +5872,10 @@
       <c r="P5" s="68">
         <v>4</v>
       </c>
-      <c r="Q5" s="174"/>
+      <c r="Q5" s="179"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="170" t="s">
+      <c r="B6" s="175" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="67">
@@ -4702,10 +5920,10 @@
       <c r="P6" s="60">
         <v>1</v>
       </c>
-      <c r="Q6" s="174"/>
+      <c r="Q6" s="179"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="171"/>
+      <c r="B7" s="176"/>
       <c r="C7" s="67">
         <v>73499</v>
       </c>
@@ -4748,10 +5966,10 @@
       <c r="P7" s="60">
         <v>2</v>
       </c>
-      <c r="Q7" s="174"/>
+      <c r="Q7" s="179"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="171"/>
+      <c r="B8" s="176"/>
       <c r="C8" s="67">
         <v>90317</v>
       </c>
@@ -4794,10 +6012,10 @@
       <c r="P8" s="60">
         <v>3</v>
       </c>
-      <c r="Q8" s="174"/>
+      <c r="Q8" s="179"/>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="172"/>
+      <c r="B9" s="177"/>
       <c r="C9" s="67">
         <v>56096</v>
       </c>
@@ -4840,10 +6058,10 @@
       <c r="P9" s="60">
         <v>4</v>
       </c>
-      <c r="Q9" s="174"/>
+      <c r="Q9" s="179"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="170" t="s">
+      <c r="B10" s="175" t="s">
         <v>66</v>
       </c>
       <c r="C10" s="59">
@@ -4888,10 +6106,10 @@
       <c r="P10" s="52">
         <v>1</v>
       </c>
-      <c r="Q10" s="174"/>
+      <c r="Q10" s="179"/>
     </row>
     <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="172"/>
+      <c r="B11" s="177"/>
       <c r="C11" s="59">
         <v>83805</v>
       </c>
@@ -4934,13 +6152,13 @@
       <c r="P11" s="52">
         <v>2</v>
       </c>
-      <c r="Q11" s="175"/>
+      <c r="Q11" s="180"/>
     </row>
     <row r="12" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="24"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="170" t="s">
+      <c r="B13" s="175" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="51"/>
@@ -4983,12 +6201,12 @@
       <c r="P13" s="41">
         <v>1</v>
       </c>
-      <c r="Q13" s="173" t="s">
+      <c r="Q13" s="178" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="172"/>
+      <c r="B14" s="177"/>
       <c r="C14" s="48">
         <v>56205</v>
       </c>
@@ -5031,10 +6249,10 @@
       <c r="P14" s="41">
         <v>2</v>
       </c>
-      <c r="Q14" s="174"/>
+      <c r="Q14" s="179"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="170" t="s">
+      <c r="B15" s="175" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="40">
@@ -5079,10 +6297,10 @@
       <c r="P15" s="33">
         <v>1</v>
       </c>
-      <c r="Q15" s="174"/>
+      <c r="Q15" s="179"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="171"/>
+      <c r="B16" s="176"/>
       <c r="C16" s="40">
         <v>91020</v>
       </c>
@@ -5125,10 +6343,10 @@
       <c r="P16" s="33">
         <v>2</v>
       </c>
-      <c r="Q16" s="174"/>
+      <c r="Q16" s="179"/>
     </row>
     <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="172"/>
+      <c r="B17" s="177"/>
       <c r="C17" s="40">
         <v>84183</v>
       </c>
@@ -5171,13 +6389,13 @@
       <c r="P17" s="33">
         <v>3</v>
       </c>
-      <c r="Q17" s="175"/>
+      <c r="Q17" s="180"/>
     </row>
     <row r="18" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="24"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="170" t="s">
+      <c r="B19" s="175" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="32">
@@ -5222,12 +6440,12 @@
       <c r="P19" s="25">
         <v>1</v>
       </c>
-      <c r="Q19" s="173" t="s">
+      <c r="Q19" s="178" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="171"/>
+      <c r="B20" s="176"/>
       <c r="C20" s="32">
         <v>56161</v>
       </c>
@@ -5270,10 +6488,10 @@
       <c r="P20" s="25">
         <v>2</v>
       </c>
-      <c r="Q20" s="174"/>
+      <c r="Q20" s="179"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="171"/>
+      <c r="B21" s="176"/>
       <c r="C21" s="32">
         <v>59425</v>
       </c>
@@ -5316,10 +6534,10 @@
       <c r="P21" s="25">
         <v>3</v>
       </c>
-      <c r="Q21" s="174"/>
+      <c r="Q21" s="179"/>
     </row>
     <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="172"/>
+      <c r="B22" s="177"/>
       <c r="C22" s="32">
         <v>94012</v>
       </c>
@@ -5362,13 +6580,13 @@
       <c r="P22" s="25">
         <v>4</v>
       </c>
-      <c r="Q22" s="175"/>
+      <c r="Q22" s="180"/>
     </row>
     <row r="23" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="24"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="170" t="s">
+      <c r="B24" s="175" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="21">
@@ -5413,12 +6631,12 @@
       <c r="P24" s="14">
         <v>1</v>
       </c>
-      <c r="Q24" s="173" t="s">
+      <c r="Q24" s="178" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="171"/>
+      <c r="B25" s="176"/>
       <c r="C25" s="21">
         <v>60102</v>
       </c>
@@ -5461,10 +6679,10 @@
       <c r="P25" s="14">
         <v>2</v>
       </c>
-      <c r="Q25" s="174"/>
+      <c r="Q25" s="179"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="171"/>
+      <c r="B26" s="176"/>
       <c r="C26" s="23">
         <v>57317</v>
       </c>
@@ -5507,10 +6725,10 @@
       <c r="P26" s="14">
         <v>3</v>
       </c>
-      <c r="Q26" s="174"/>
+      <c r="Q26" s="179"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="171"/>
+      <c r="B27" s="176"/>
       <c r="C27" s="21">
         <v>78258</v>
       </c>
@@ -5553,10 +6771,10 @@
       <c r="P27" s="14">
         <v>4</v>
       </c>
-      <c r="Q27" s="174"/>
+      <c r="Q27" s="179"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="171"/>
+      <c r="B28" s="176"/>
       <c r="C28" s="21">
         <v>59019</v>
       </c>
@@ -5599,10 +6817,10 @@
       <c r="P28" s="14">
         <v>5</v>
       </c>
-      <c r="Q28" s="174"/>
+      <c r="Q28" s="179"/>
     </row>
     <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="172"/>
+      <c r="B29" s="177"/>
       <c r="C29" s="21">
         <v>92968</v>
       </c>
@@ -5645,7 +6863,7 @@
       <c r="P29" s="14">
         <v>6</v>
       </c>
-      <c r="Q29" s="175"/>
+      <c r="Q29" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5662,25 +6880,25 @@
     <mergeCell ref="B15:B17"/>
   </mergeCells>
   <conditionalFormatting sqref="D19:D22">
-    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D17">
-    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D29">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D9">
-    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -10758,58 +11976,58 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B8">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B22">
-    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B26">
-    <cfRule type="duplicateValues" dxfId="11" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B33">
-    <cfRule type="duplicateValues" dxfId="10" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B47">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B52 B54:B59">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B72">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B80">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B89">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B98">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B103">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B106">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107:B114">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10820,7 +12038,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="B1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -10848,58 +12066,58 @@
   <sheetData>
     <row r="1" spans="2:19" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="164" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="169" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="169" t="s">
+      <c r="C2" s="164" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="164" t="s">
         <v>215</v>
       </c>
-      <c r="E2" s="169" t="s">
+      <c r="E2" s="164" t="s">
         <v>216</v>
       </c>
-      <c r="F2" s="169" t="s">
+      <c r="F2" s="164" t="s">
         <v>217</v>
       </c>
-      <c r="G2" s="169" t="s">
+      <c r="G2" s="164" t="s">
         <v>218</v>
       </c>
-      <c r="H2" s="169" t="s">
+      <c r="H2" s="164" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="169" t="s">
+      <c r="I2" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="169" t="s">
+      <c r="J2" s="164" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="169" t="s">
+      <c r="K2" s="164" t="s">
         <v>219</v>
       </c>
-      <c r="L2" s="169" t="s">
+      <c r="L2" s="164" t="s">
         <v>220</v>
       </c>
-      <c r="M2" s="169" t="s">
+      <c r="M2" s="164" t="s">
         <v>221</v>
       </c>
-      <c r="N2" s="169" t="s">
+      <c r="N2" s="164" t="s">
         <v>222</v>
       </c>
-      <c r="O2" s="169" t="s">
+      <c r="O2" s="164" t="s">
         <v>223</v>
       </c>
-      <c r="P2" s="169" t="s">
+      <c r="P2" s="164" t="s">
         <v>224</v>
       </c>
-      <c r="Q2" s="169" t="s">
+      <c r="Q2" s="164" t="s">
         <v>225</v>
       </c>
-      <c r="R2" s="169" t="s">
+      <c r="R2" s="164" t="s">
         <v>226</v>
       </c>
-      <c r="S2" s="169" t="s">
+      <c r="S2" s="164" t="s">
         <v>5</v>
       </c>
     </row>

--- a/DomesticTransport/DomesticTransport.xlsx
+++ b/DomesticTransport/DomesticTransport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aevse\Source\Repos\DomesticTransport\DomesticTransport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A34BBD-10D9-474E-83AA-72284EA7948E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1CE0A7-9AF7-4077-B21D-6DEFE594FA53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{AC776459-6745-4339-B7EA-E0E0F9747FA4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{AC776459-6745-4339-B7EA-E0E0F9747FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="234">
   <si>
     <t>Перевозчик</t>
   </si>
@@ -1006,7 +1006,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1083,8 +1083,14 @@
         <fgColor theme="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1378,6 +1384,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1388,7 +1414,7 @@
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1853,6 +1879,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel Built-in Normal" xfId="4" xr:uid="{E86D5BE3-109F-42F2-B062-72D26BC4505E}"/>
@@ -1863,7 +1891,14 @@
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{0D8B4E41-A43D-4735-80FC-A622F3AB536B}"/>
     <cellStyle name="Обычный 4" xfId="1" xr:uid="{6D1EACBA-287E-493D-A31F-3D0C6DD7000A}"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="56">
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2523,7 +2558,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E3245CE-8CB7-440C-8A99-A387ADEE7331}" name="TableCarrier" displayName="TableCarrier" ref="B5:E6" totalsRowShown="0" headerRowDxfId="54" headerRowBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E3245CE-8CB7-440C-8A99-A387ADEE7331}" name="TableCarrier" displayName="TableCarrier" ref="B5:E6" totalsRowShown="0" headerRowDxfId="55" headerRowBorderDxfId="54">
   <autoFilter ref="B5:E6" xr:uid="{DEB12404-07BD-4FAF-83D7-6873DABB45B9}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{64C38326-B884-4325-8A47-3CF76FF099B6}" name="№ Авто"/>
@@ -2536,7 +2571,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A1298FBD-3E0C-4829-AA91-D63AF491826E}" name="TableInvoicies" displayName="TableInvoicies" ref="B13:I14" totalsRowShown="0" headerRowDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A1298FBD-3E0C-4829-AA91-D63AF491826E}" name="TableInvoicies" displayName="TableInvoicies" ref="B13:I14" totalsRowShown="0" headerRowDxfId="53">
   <autoFilter ref="B13:I14" xr:uid="{9CC24962-0F87-4500-BB2C-B26DD82344EE}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{8E60E219-8ADB-48B1-A9CF-AF43EFB5E532}" name="№ Авто"/>
@@ -2553,7 +2588,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0E832B09-3D36-4DE3-8E20-EF81C85F4B4E}" name="PriceDelivery" displayName="PriceDelivery" ref="A3:J123" totalsRowShown="0" headerRowDxfId="51" headerRowBorderDxfId="50" headerRowCellStyle="Обычный 4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0E832B09-3D36-4DE3-8E20-EF81C85F4B4E}" name="PriceDelivery" displayName="PriceDelivery" ref="A3:J123" totalsRowShown="0" headerRowDxfId="52" headerRowBorderDxfId="51" headerRowCellStyle="Обычный 4">
   <autoFilter ref="A3:J123" xr:uid="{75E0B774-231E-4CE9-B5F7-6515E34100A9}">
     <filterColumn colId="2">
       <filters>
@@ -2574,7 +2609,7 @@
     <tableColumn id="7" xr3:uid="{63E92DBC-C612-44AB-8710-DE5D3A67E602}" name="tonnage, t"/>
     <tableColumn id="8" xr3:uid="{7956AE7A-C21C-4293-AB21-1C09E993025E}" name="vehicle"/>
     <tableColumn id="9" xr3:uid="{485FC7AA-9B80-40AC-B112-7709C94F7992}" name="add.point"/>
-    <tableColumn id="10" xr3:uid="{76EEE4BC-710C-4EA7-9DD0-0BBB946AB005}" name="vehicle + add.point" dataDxfId="49">
+    <tableColumn id="10" xr3:uid="{76EEE4BC-710C-4EA7-9DD0-0BBB946AB005}" name="vehicle + add.point" dataDxfId="50">
       <calculatedColumnFormula>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2583,7 +2618,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{6A36CA48-51F0-4212-A000-6CAA37B4755A}" name="TableRoutes" displayName="TableRoutes" ref="A1:J27" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{6A36CA48-51F0-4212-A000-6CAA37B4755A}" name="TableRoutes" displayName="TableRoutes" ref="A1:J27" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31">
   <autoFilter ref="A1:J27" xr:uid="{00CBBFBD-BD9E-42F8-8B7E-FE2310A2C83B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J27">
     <sortCondition ref="B2:B27"/>
@@ -2606,7 +2641,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C0B60422-EB35-4FB4-BF1B-2F6334DAF9A9}" name="TableTotal" displayName="TableTotal" ref="B2:S3" insertRow="1" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" headerRowCellStyle="Акцент6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9A862C54-5BC7-4DC8-939D-1D0F0DB1B1F7}" name="Таблица6" displayName="Таблица6" ref="L1:L3" totalsRowShown="0" tableBorderDxfId="0">
+  <autoFilter ref="L1:L3" xr:uid="{F0D971AA-AC8C-4605-83A2-6B61E5764DD2}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{5B2341CD-B68D-4499-9CEE-95E3E8C87B87}" name="City"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C0B60422-EB35-4FB4-BF1B-2F6334DAF9A9}" name="TableTotal" displayName="TableTotal" ref="B2:S3" insertRow="1" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" headerRowCellStyle="Акцент6">
   <autoFilter ref="B2:S3" xr:uid="{6A8CAFF1-DE87-467A-9C9F-EAC45DD35AAA}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{6C78F3B1-C5C6-4E9B-B8B0-E04671622CA4}" name="ID перевозчика"/>
@@ -2632,13 +2677,13 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{831D85DE-6D3B-420B-AC1F-E9FEED9646DD}" name="Таблица4" displayName="Таблица4" ref="B2:D25" totalsRowShown="0">
   <autoFilter ref="B2:D25" xr:uid="{DE4A6499-25FE-4A0E-AE62-0DABB7DFBF79}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{29A63BC4-2872-4EA4-B075-ED195D9BE031}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{FF7F5D4D-C144-4DC0-AEA8-3808900FD64A}" name="Компания" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{A6517B15-FFF0-4130-831C-781935AA2468}" name="Получатель письма" dataDxfId="0" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="2" xr3:uid="{FF7F5D4D-C144-4DC0-AEA8-3808900FD64A}" name="Компания" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{A6517B15-FFF0-4130-831C-781935AA2468}" name="Получатель письма" dataDxfId="1" dataCellStyle="Гиперссылка"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2944,8 +2989,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="B1:I13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4583,7 +4628,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4632,6 +4677,9 @@
       <c r="J1" s="174" t="s">
         <v>9</v>
       </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -4664,6 +4712,9 @@
       <c r="J2" t="s">
         <v>73</v>
       </c>
+      <c r="L2" s="181" t="s">
+        <v>17</v>
+      </c>
       <c r="M2">
         <v>1</v>
       </c>
@@ -4704,6 +4755,9 @@
       </c>
       <c r="J3" t="s">
         <v>73</v>
+      </c>
+      <c r="L3" s="182" t="s">
+        <v>15</v>
       </c>
       <c r="N3" s="166">
         <v>120022493</v>
@@ -5540,52 +5594,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N2">
-    <cfRule type="duplicateValues" dxfId="48" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3">
-    <cfRule type="duplicateValues" dxfId="47" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="duplicateValues" dxfId="46" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="45" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="duplicateValues" dxfId="44" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="43" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="duplicateValues" dxfId="42" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="duplicateValues" dxfId="41" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11">
-    <cfRule type="duplicateValues" dxfId="40" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="duplicateValues" dxfId="39" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="duplicateValues" dxfId="38" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="duplicateValues" dxfId="37" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="duplicateValues" dxfId="36" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="duplicateValues" dxfId="35" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="duplicateValues" dxfId="34" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21">
-    <cfRule type="duplicateValues" dxfId="33" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C27">
     <cfRule type="colorScale" priority="1">
@@ -5601,8 +5655,9 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5613,7 +5668,7 @@
   <dimension ref="B1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P11"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6880,25 +6935,25 @@
     <mergeCell ref="B15:B17"/>
   </mergeCells>
   <conditionalFormatting sqref="D19:D22">
-    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D17">
-    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D29">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D9">
-    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="duplicateValues" dxfId="23" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6910,7 +6965,7 @@
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:N114"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C44" sqref="C44:C48"/>
     </sheetView>
   </sheetViews>
@@ -11976,58 +12031,58 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="duplicateValues" dxfId="21" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B8">
-    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B22">
-    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B26">
-    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B33">
-    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B47">
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B52 B54:B59">
-    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B72">
-    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B80">
-    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B89">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B98">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B103">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B106">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107:B114">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DomesticTransport/DomesticTransport.xlsx
+++ b/DomesticTransport/DomesticTransport.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aevse\Source\Repos\DomesticTransport\DomesticTransport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1CE0A7-9AF7-4077-B21D-6DEFE594FA53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5F8467-BC81-47DE-9708-06907901AB6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{AC776459-6745-4339-B7EA-E0E0F9747FA4}"/>
+    <workbookView xWindow="0" yWindow="4590" windowWidth="22860" windowHeight="11010" xr2:uid="{AC776459-6745-4339-B7EA-E0E0F9747FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery" sheetId="2" r:id="rId1"/>
     <sheet name="Rate" sheetId="3" r:id="rId2"/>
     <sheet name="Routes" sheetId="10" r:id="rId3"/>
-    <sheet name="ZoneCustomer" sheetId="4" r:id="rId4"/>
-    <sheet name="Customers" sheetId="5" r:id="rId5"/>
+    <sheet name="ZoneCustomer" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="Customers" sheetId="5" state="hidden" r:id="rId5"/>
     <sheet name="Отгрузка" sheetId="1" r:id="rId6"/>
     <sheet name="ShippingCompany" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="236">
   <si>
     <t>Перевозчик</t>
   </si>
@@ -803,6 +803,12 @@
   </si>
   <si>
     <t>Priority point</t>
+  </si>
+  <si>
+    <t>Вес доставки</t>
+  </si>
+  <si>
+    <t>Марка авто</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1096,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1309,39 +1315,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1414,7 +1392,7 @@
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1831,36 +1809,20 @@
     <xf numFmtId="0" fontId="23" fillId="13" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1879,8 +1841,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel Built-in Normal" xfId="4" xr:uid="{E86D5BE3-109F-42F2-B062-72D26BC4505E}"/>
@@ -1891,97 +1851,7 @@
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{0D8B4E41-A43D-4735-80FC-A622F3AB536B}"/>
     <cellStyle name="Обычный 4" xfId="1" xr:uid="{6D1EACBA-287E-493D-A31F-3D0C6DD7000A}"/>
   </cellStyles>
-  <dxfs count="56">
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2233,6 +2103,96 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -2284,166 +2244,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2557,13 +2357,198 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Облачко с текстом: прямоугольное со скругленными углами 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34477AE7-BD47-485A-B4D6-CC4BAF1549F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11620500" y="1304924"/>
+          <a:ext cx="5391150" cy="3381375"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -38147"/>
+            <a:gd name="adj2" fmla="val 69797"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Таблица</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> маршрутов</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>Строки сортируются по приоритету направления и точки выгрузки</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>В этом порядке заказы добаввляются в доставку и формируется груз авто</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>В этой таблице также будут сохраняться пользовательские маршруты </a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>65517</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>20887</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96E36FC8-E403-4300-8A05-C725E85AAD66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11876517" y="2276475"/>
+          <a:ext cx="4889320" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E3245CE-8CB7-440C-8A99-A387ADEE7331}" name="TableCarrier" displayName="TableCarrier" ref="B5:E6" totalsRowShown="0" headerRowDxfId="55" headerRowBorderDxfId="54">
-  <autoFilter ref="B5:E6" xr:uid="{DEB12404-07BD-4FAF-83D7-6873DABB45B9}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E3245CE-8CB7-440C-8A99-A387ADEE7331}" name="TableCarrier" displayName="TableCarrier" ref="B5:H6" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38">
+  <autoFilter ref="B5:H6" xr:uid="{DEB12404-07BD-4FAF-83D7-6873DABB45B9}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{64C38326-B884-4325-8A47-3CF76FF099B6}" name="№ Авто"/>
     <tableColumn id="6" xr3:uid="{FEDCB64B-82B1-4C9E-9EEB-F53217E4637A}" name="Компания"/>
+    <tableColumn id="4" xr3:uid="{7417DAF0-71D1-45F1-82D7-33F47D829C20}" name="Марка авто"/>
     <tableColumn id="8" xr3:uid="{510D2F31-046A-4033-9FB6-AE6640DBFF64}" name="Тоннаж"/>
+    <tableColumn id="3" xr3:uid="{E1396E0F-5B45-4BC6-A158-315D942BD00A}" name="Вес доставки"/>
+    <tableColumn id="5" xr3:uid="{B9EF59F9-8682-4A39-927F-F15D58B47664}" name="Стоимость товаров"/>
     <tableColumn id="7" xr3:uid="{FEEFBF4E-D4C2-4544-85D3-3F06E352AFC2}" name="Стоимость доставки"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2571,7 +2556,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A1298FBD-3E0C-4829-AA91-D63AF491826E}" name="TableInvoicies" displayName="TableInvoicies" ref="B13:I14" totalsRowShown="0" headerRowDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A1298FBD-3E0C-4829-AA91-D63AF491826E}" name="TableInvoicies" displayName="TableInvoicies" ref="B13:I14" totalsRowShown="0" headerRowDxfId="37">
   <autoFilter ref="B13:I14" xr:uid="{9CC24962-0F87-4500-BB2C-B26DD82344EE}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{8E60E219-8ADB-48B1-A9CF-AF43EFB5E532}" name="№ Авто"/>
@@ -2588,7 +2573,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0E832B09-3D36-4DE3-8E20-EF81C85F4B4E}" name="PriceDelivery" displayName="PriceDelivery" ref="A3:J123" totalsRowShown="0" headerRowDxfId="52" headerRowBorderDxfId="51" headerRowCellStyle="Обычный 4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0E832B09-3D36-4DE3-8E20-EF81C85F4B4E}" name="PriceDelivery" displayName="PriceDelivery" ref="A3:J123" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" headerRowCellStyle="Обычный 4">
   <autoFilter ref="A3:J123" xr:uid="{75E0B774-231E-4CE9-B5F7-6515E34100A9}">
     <filterColumn colId="2">
       <filters>
@@ -2609,7 +2594,7 @@
     <tableColumn id="7" xr3:uid="{63E92DBC-C612-44AB-8710-DE5D3A67E602}" name="tonnage, t"/>
     <tableColumn id="8" xr3:uid="{7956AE7A-C21C-4293-AB21-1C09E993025E}" name="vehicle"/>
     <tableColumn id="9" xr3:uid="{485FC7AA-9B80-40AC-B112-7709C94F7992}" name="add.point"/>
-    <tableColumn id="10" xr3:uid="{76EEE4BC-710C-4EA7-9DD0-0BBB946AB005}" name="vehicle + add.point" dataDxfId="50">
+    <tableColumn id="10" xr3:uid="{76EEE4BC-710C-4EA7-9DD0-0BBB946AB005}" name="vehicle + add.point" dataDxfId="34">
       <calculatedColumnFormula>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2641,7 +2626,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9A862C54-5BC7-4DC8-939D-1D0F0DB1B1F7}" name="Таблица6" displayName="Таблица6" ref="L1:L3" totalsRowShown="0" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9A862C54-5BC7-4DC8-939D-1D0F0DB1B1F7}" name="Таблица6" displayName="Таблица6" ref="L1:L3" totalsRowShown="0" tableBorderDxfId="30">
   <autoFilter ref="L1:L3" xr:uid="{F0D971AA-AC8C-4605-83A2-6B61E5764DD2}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{5B2341CD-B68D-4499-9CEE-95E3E8C87B87}" name="City"/>
@@ -2651,7 +2636,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C0B60422-EB35-4FB4-BF1B-2F6334DAF9A9}" name="TableTotal" displayName="TableTotal" ref="B2:S3" insertRow="1" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" headerRowCellStyle="Акцент6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C0B60422-EB35-4FB4-BF1B-2F6334DAF9A9}" name="TableTotal" displayName="TableTotal" ref="B2:S3" insertRow="1" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" headerRowCellStyle="Акцент6">
   <autoFilter ref="B2:S3" xr:uid="{6A8CAFF1-DE87-467A-9C9F-EAC45DD35AAA}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{6C78F3B1-C5C6-4E9B-B8B0-E04671622CA4}" name="ID перевозчика"/>
@@ -2682,8 +2667,8 @@
   <autoFilter ref="B2:D25" xr:uid="{DE4A6499-25FE-4A0E-AE62-0DABB7DFBF79}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{29A63BC4-2872-4EA4-B075-ED195D9BE031}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{FF7F5D4D-C144-4DC0-AEA8-3808900FD64A}" name="Компания" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{A6517B15-FFF0-4130-831C-781935AA2468}" name="Получатель письма" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="2" xr3:uid="{FF7F5D4D-C144-4DC0-AEA8-3808900FD64A}" name="Компания" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{A6517B15-FFF0-4130-831C-781935AA2468}" name="Получатель письма" dataDxfId="25" dataCellStyle="Гиперссылка"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2989,8 +2974,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="B1:I13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41:C43"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2999,10 +2984,10 @@
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" customWidth="1"/>
     <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3013,7 +2998,7 @@
       </c>
       <c r="C2" s="163">
         <f ca="1">TODAY()+1</f>
-        <v>43897</v>
+        <v>43901</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -3036,9 +3021,18 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3095,7 +3089,7 @@
   <dimension ref="A1:J123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4625,10 +4619,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67A1708-3085-4C0B-B20B-14DE5D5EB1E8}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4646,42 +4640,42 @@
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="171" t="s">
+    <row r="1" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="165" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="166" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="173" t="s">
+      <c r="C1" s="167" t="s">
         <v>233</v>
       </c>
-      <c r="D1" s="173" t="s">
+      <c r="D1" s="167" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="173" t="s">
+      <c r="E1" s="167" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="173" t="s">
+      <c r="F1" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="173" t="s">
+      <c r="G1" s="167" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="173" t="s">
+      <c r="H1" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="173" t="s">
+      <c r="I1" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="174" t="s">
+      <c r="J1" s="168" t="s">
         <v>9</v>
       </c>
       <c r="L1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4712,20 +4706,11 @@
       <c r="J2" t="s">
         <v>73</v>
       </c>
-      <c r="L2" s="181" t="s">
+      <c r="L2" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2" s="165">
-        <v>120022493</v>
-      </c>
-      <c r="O2" s="169">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4756,17 +4741,11 @@
       <c r="J3" t="s">
         <v>73</v>
       </c>
-      <c r="L3" s="182" t="s">
+      <c r="L3" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="166">
-        <v>120022493</v>
-      </c>
-      <c r="O3" s="169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4797,14 +4776,8 @@
       <c r="J4" t="s">
         <v>73</v>
       </c>
-      <c r="N4" s="166">
-        <v>120026430</v>
-      </c>
-      <c r="O4" s="169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4835,14 +4808,8 @@
       <c r="J5" t="s">
         <v>73</v>
       </c>
-      <c r="N5" s="165">
-        <v>120026430</v>
-      </c>
-      <c r="O5" s="169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4873,14 +4840,8 @@
       <c r="J6" t="s">
         <v>67</v>
       </c>
-      <c r="N6" s="166">
-        <v>120028098</v>
-      </c>
-      <c r="O6" s="169">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4911,14 +4872,8 @@
       <c r="J7" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="166">
-        <v>120028098</v>
-      </c>
-      <c r="O7" s="169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4949,14 +4904,8 @@
       <c r="J8" t="s">
         <v>67</v>
       </c>
-      <c r="N8" s="166">
-        <v>120026747</v>
-      </c>
-      <c r="O8" s="169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4988,7 +4937,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -5019,17 +4968,8 @@
       <c r="J10" t="s">
         <v>63</v>
       </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
-      <c r="N10" s="166">
-        <v>120026747</v>
-      </c>
-      <c r="O10" s="169">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -5060,14 +5000,8 @@
       <c r="J11" t="s">
         <v>63</v>
       </c>
-      <c r="N11" s="167">
-        <v>120026206</v>
-      </c>
-      <c r="O11" s="169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -5095,14 +5029,8 @@
       <c r="J12" t="s">
         <v>59</v>
       </c>
-      <c r="N12" s="167">
-        <v>120025752</v>
-      </c>
-      <c r="O12" s="169">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -5133,14 +5061,8 @@
       <c r="J13" t="s">
         <v>59</v>
       </c>
-      <c r="N13" s="167">
-        <v>120025752</v>
-      </c>
-      <c r="O13" s="169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -5172,7 +5094,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -5204,7 +5126,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -5235,17 +5157,8 @@
       <c r="J16" t="s">
         <v>53</v>
       </c>
-      <c r="M16">
-        <v>3</v>
-      </c>
-      <c r="N16" s="167">
-        <v>120024261</v>
-      </c>
-      <c r="O16" s="169">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -5276,14 +5189,8 @@
       <c r="J17" t="s">
         <v>46</v>
       </c>
-      <c r="N17" s="167">
-        <v>120022424</v>
-      </c>
-      <c r="O17" s="169">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5315,7 +5222,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -5346,17 +5253,8 @@
       <c r="J19" t="s">
         <v>46</v>
       </c>
-      <c r="M19">
-        <v>4</v>
-      </c>
-      <c r="N19" s="168">
-        <v>120026389</v>
-      </c>
-      <c r="O19" s="169">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -5387,14 +5285,8 @@
       <c r="J20" t="s">
         <v>46</v>
       </c>
-      <c r="N20" s="168">
-        <v>120021605</v>
-      </c>
-      <c r="O20" s="169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -5425,14 +5317,8 @@
       <c r="J21" t="s">
         <v>33</v>
       </c>
-      <c r="N21" s="170">
-        <v>120025885</v>
-      </c>
-      <c r="O21" s="169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -5464,7 +5350,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -5496,7 +5382,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
@@ -5528,7 +5414,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
@@ -5560,7 +5446,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
@@ -5593,54 +5479,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N2">
-    <cfRule type="duplicateValues" dxfId="49" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3">
-    <cfRule type="duplicateValues" dxfId="48" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
-    <cfRule type="duplicateValues" dxfId="47" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="46" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6">
-    <cfRule type="duplicateValues" dxfId="45" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="44" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N8">
-    <cfRule type="duplicateValues" dxfId="43" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N10">
-    <cfRule type="duplicateValues" dxfId="42" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N11">
-    <cfRule type="duplicateValues" dxfId="41" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N12">
-    <cfRule type="duplicateValues" dxfId="40" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N13">
-    <cfRule type="duplicateValues" dxfId="39" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N16">
-    <cfRule type="duplicateValues" dxfId="38" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N17">
-    <cfRule type="duplicateValues" dxfId="37" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N19">
-    <cfRule type="duplicateValues" dxfId="36" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N20">
-    <cfRule type="duplicateValues" dxfId="35" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N21">
-    <cfRule type="duplicateValues" dxfId="34" priority="5"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B2:C27">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -5655,9 +5493,10 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="2">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5742,7 +5581,7 @@
       </c>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="175" t="s">
+      <c r="B2" s="171" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="75">
@@ -5787,12 +5626,12 @@
       <c r="P2" s="68">
         <v>1</v>
       </c>
-      <c r="Q2" s="178" t="s">
+      <c r="Q2" s="174" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="176"/>
+      <c r="B3" s="172"/>
       <c r="C3" s="75">
         <v>94206</v>
       </c>
@@ -5835,10 +5674,10 @@
       <c r="P3" s="68">
         <v>2</v>
       </c>
-      <c r="Q3" s="179"/>
+      <c r="Q3" s="175"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="176"/>
+      <c r="B4" s="172"/>
       <c r="C4" s="75">
         <v>92587</v>
       </c>
@@ -5881,10 +5720,10 @@
       <c r="P4" s="68">
         <v>3</v>
       </c>
-      <c r="Q4" s="179"/>
+      <c r="Q4" s="175"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="177"/>
+      <c r="B5" s="173"/>
       <c r="C5" s="75">
         <v>83838</v>
       </c>
@@ -5927,10 +5766,10 @@
       <c r="P5" s="68">
         <v>4</v>
       </c>
-      <c r="Q5" s="179"/>
+      <c r="Q5" s="175"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="175" t="s">
+      <c r="B6" s="171" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="67">
@@ -5975,10 +5814,10 @@
       <c r="P6" s="60">
         <v>1</v>
       </c>
-      <c r="Q6" s="179"/>
+      <c r="Q6" s="175"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="176"/>
+      <c r="B7" s="172"/>
       <c r="C7" s="67">
         <v>73499</v>
       </c>
@@ -6021,10 +5860,10 @@
       <c r="P7" s="60">
         <v>2</v>
       </c>
-      <c r="Q7" s="179"/>
+      <c r="Q7" s="175"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="176"/>
+      <c r="B8" s="172"/>
       <c r="C8" s="67">
         <v>90317</v>
       </c>
@@ -6067,10 +5906,10 @@
       <c r="P8" s="60">
         <v>3</v>
       </c>
-      <c r="Q8" s="179"/>
+      <c r="Q8" s="175"/>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="177"/>
+      <c r="B9" s="173"/>
       <c r="C9" s="67">
         <v>56096</v>
       </c>
@@ -6113,10 +5952,10 @@
       <c r="P9" s="60">
         <v>4</v>
       </c>
-      <c r="Q9" s="179"/>
+      <c r="Q9" s="175"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="175" t="s">
+      <c r="B10" s="171" t="s">
         <v>66</v>
       </c>
       <c r="C10" s="59">
@@ -6161,10 +6000,10 @@
       <c r="P10" s="52">
         <v>1</v>
       </c>
-      <c r="Q10" s="179"/>
+      <c r="Q10" s="175"/>
     </row>
     <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="177"/>
+      <c r="B11" s="173"/>
       <c r="C11" s="59">
         <v>83805</v>
       </c>
@@ -6207,13 +6046,13 @@
       <c r="P11" s="52">
         <v>2</v>
       </c>
-      <c r="Q11" s="180"/>
+      <c r="Q11" s="176"/>
     </row>
     <row r="12" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="24"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="175" t="s">
+      <c r="B13" s="171" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="51"/>
@@ -6256,12 +6095,12 @@
       <c r="P13" s="41">
         <v>1</v>
       </c>
-      <c r="Q13" s="178" t="s">
+      <c r="Q13" s="174" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="177"/>
+      <c r="B14" s="173"/>
       <c r="C14" s="48">
         <v>56205</v>
       </c>
@@ -6304,10 +6143,10 @@
       <c r="P14" s="41">
         <v>2</v>
       </c>
-      <c r="Q14" s="179"/>
+      <c r="Q14" s="175"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="175" t="s">
+      <c r="B15" s="171" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="40">
@@ -6352,10 +6191,10 @@
       <c r="P15" s="33">
         <v>1</v>
       </c>
-      <c r="Q15" s="179"/>
+      <c r="Q15" s="175"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="176"/>
+      <c r="B16" s="172"/>
       <c r="C16" s="40">
         <v>91020</v>
       </c>
@@ -6398,10 +6237,10 @@
       <c r="P16" s="33">
         <v>2</v>
       </c>
-      <c r="Q16" s="179"/>
+      <c r="Q16" s="175"/>
     </row>
     <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="177"/>
+      <c r="B17" s="173"/>
       <c r="C17" s="40">
         <v>84183</v>
       </c>
@@ -6444,13 +6283,13 @@
       <c r="P17" s="33">
         <v>3</v>
       </c>
-      <c r="Q17" s="180"/>
+      <c r="Q17" s="176"/>
     </row>
     <row r="18" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="24"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="175" t="s">
+      <c r="B19" s="171" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="32">
@@ -6495,12 +6334,12 @@
       <c r="P19" s="25">
         <v>1</v>
       </c>
-      <c r="Q19" s="178" t="s">
+      <c r="Q19" s="174" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="176"/>
+      <c r="B20" s="172"/>
       <c r="C20" s="32">
         <v>56161</v>
       </c>
@@ -6543,10 +6382,10 @@
       <c r="P20" s="25">
         <v>2</v>
       </c>
-      <c r="Q20" s="179"/>
+      <c r="Q20" s="175"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="176"/>
+      <c r="B21" s="172"/>
       <c r="C21" s="32">
         <v>59425</v>
       </c>
@@ -6589,10 +6428,10 @@
       <c r="P21" s="25">
         <v>3</v>
       </c>
-      <c r="Q21" s="179"/>
+      <c r="Q21" s="175"/>
     </row>
     <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="177"/>
+      <c r="B22" s="173"/>
       <c r="C22" s="32">
         <v>94012</v>
       </c>
@@ -6635,13 +6474,13 @@
       <c r="P22" s="25">
         <v>4</v>
       </c>
-      <c r="Q22" s="180"/>
+      <c r="Q22" s="176"/>
     </row>
     <row r="23" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="24"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="175" t="s">
+      <c r="B24" s="171" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="21">
@@ -6686,12 +6525,12 @@
       <c r="P24" s="14">
         <v>1</v>
       </c>
-      <c r="Q24" s="178" t="s">
+      <c r="Q24" s="174" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="176"/>
+      <c r="B25" s="172"/>
       <c r="C25" s="21">
         <v>60102</v>
       </c>
@@ -6734,10 +6573,10 @@
       <c r="P25" s="14">
         <v>2</v>
       </c>
-      <c r="Q25" s="179"/>
+      <c r="Q25" s="175"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="176"/>
+      <c r="B26" s="172"/>
       <c r="C26" s="23">
         <v>57317</v>
       </c>
@@ -6780,10 +6619,10 @@
       <c r="P26" s="14">
         <v>3</v>
       </c>
-      <c r="Q26" s="179"/>
+      <c r="Q26" s="175"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="176"/>
+      <c r="B27" s="172"/>
       <c r="C27" s="21">
         <v>78258</v>
       </c>
@@ -6826,10 +6665,10 @@
       <c r="P27" s="14">
         <v>4</v>
       </c>
-      <c r="Q27" s="179"/>
+      <c r="Q27" s="175"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="176"/>
+      <c r="B28" s="172"/>
       <c r="C28" s="21">
         <v>59019</v>
       </c>
@@ -6872,10 +6711,10 @@
       <c r="P28" s="14">
         <v>5</v>
       </c>
-      <c r="Q28" s="179"/>
+      <c r="Q28" s="175"/>
     </row>
     <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="177"/>
+      <c r="B29" s="173"/>
       <c r="C29" s="21">
         <v>92968</v>
       </c>
@@ -6918,7 +6757,7 @@
       <c r="P29" s="14">
         <v>6</v>
       </c>
-      <c r="Q29" s="180"/>
+      <c r="Q29" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6935,25 +6774,25 @@
     <mergeCell ref="B15:B17"/>
   </mergeCells>
   <conditionalFormatting sqref="D19:D22">
-    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D17">
-    <cfRule type="duplicateValues" dxfId="28" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D29">
-    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D9">
-    <cfRule type="duplicateValues" dxfId="25" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="duplicateValues" dxfId="24" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -12031,58 +11870,58 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="duplicateValues" dxfId="23" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="duplicateValues" dxfId="22" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B8">
-    <cfRule type="duplicateValues" dxfId="21" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="duplicateValues" dxfId="20" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="duplicateValues" dxfId="19" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B22">
-    <cfRule type="duplicateValues" dxfId="18" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B26">
-    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B33">
-    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B47">
-    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B52 B54:B59">
-    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B72">
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B80">
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B89">
-    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B98">
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B103">
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B106">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107:B114">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DomesticTransport/DomesticTransport.xlsx
+++ b/DomesticTransport/DomesticTransport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aevse\Source\Repos\DomesticTransport\DomesticTransport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5F8467-BC81-47DE-9708-06907901AB6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECE3B97-CFFF-4CB1-ADE7-445BAAA1BA6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4590" windowWidth="22860" windowHeight="11010" xr2:uid="{AC776459-6745-4339-B7EA-E0E0F9747FA4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{AC776459-6745-4339-B7EA-E0E0F9747FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Отгрузка" sheetId="1" r:id="rId6"/>
     <sheet name="ShippingCompany" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>№ Авто</t>
   </si>
   <si>
     <t>Компания</t>
@@ -809,6 +806,9 @@
   </si>
   <si>
     <t>Марка авто</t>
+  </si>
+  <si>
+    <t>№ Доставки</t>
   </si>
 </sst>
 </file>
@@ -1854,6 +1854,89 @@
   <dxfs count="40">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2103,89 +2186,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="9" tint="0.39997558519241921"/>
@@ -2430,7 +2430,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
-            <a:t>Строки сортируются по приоритету направления и точки выгрузки</a:t>
+            <a:t>Строки сортируются по приоритету направления и приоритету точки выгрузки</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2485,6 +2485,13 @@
           <a:r>
             <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
             <a:t>В этой таблице также будут сохраняться пользовательские маршруты </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>Столбцы 1-3, 5, 9 должны быть заполнены</a:t>
           </a:r>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
@@ -2543,7 +2550,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E3245CE-8CB7-440C-8A99-A387ADEE7331}" name="TableCarrier" displayName="TableCarrier" ref="B5:H6" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38">
   <autoFilter ref="B5:H6" xr:uid="{DEB12404-07BD-4FAF-83D7-6873DABB45B9}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{64C38326-B884-4325-8A47-3CF76FF099B6}" name="№ Авто"/>
+    <tableColumn id="1" xr3:uid="{64C38326-B884-4325-8A47-3CF76FF099B6}" name="№ Доставки"/>
     <tableColumn id="6" xr3:uid="{FEDCB64B-82B1-4C9E-9EEB-F53217E4637A}" name="Компания"/>
     <tableColumn id="4" xr3:uid="{7417DAF0-71D1-45F1-82D7-33F47D829C20}" name="Марка авто"/>
     <tableColumn id="8" xr3:uid="{510D2F31-046A-4033-9FB6-AE6640DBFF64}" name="Тоннаж"/>
@@ -2559,7 +2566,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A1298FBD-3E0C-4829-AA91-D63AF491826E}" name="TableInvoicies" displayName="TableInvoicies" ref="B13:I14" totalsRowShown="0" headerRowDxfId="37">
   <autoFilter ref="B13:I14" xr:uid="{9CC24962-0F87-4500-BB2C-B26DD82344EE}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{8E60E219-8ADB-48B1-A9CF-AF43EFB5E532}" name="№ Авто"/>
+    <tableColumn id="1" xr3:uid="{8E60E219-8ADB-48B1-A9CF-AF43EFB5E532}" name="№ Доставки"/>
     <tableColumn id="2" xr3:uid="{0C480417-9A5C-4A67-90B7-E69215A66717}" name="Накладная"/>
     <tableColumn id="3" xr3:uid="{F4CF124F-2E32-452D-A812-ED185FAE6CE1}" name="ID Получателя"/>
     <tableColumn id="4" xr3:uid="{FDB39A13-F31C-425A-A896-CEEDA012F19B}" name="Адрес"/>
@@ -2603,8 +2610,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{6A36CA48-51F0-4212-A000-6CAA37B4755A}" name="TableRoutes" displayName="TableRoutes" ref="A1:J27" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31">
-  <autoFilter ref="A1:J27" xr:uid="{00CBBFBD-BD9E-42F8-8B7E-FE2310A2C83B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{6A36CA48-51F0-4212-A000-6CAA37B4755A}" name="TableRoutes" displayName="TableRoutes" ref="A1:J28" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31">
+  <autoFilter ref="A1:J28" xr:uid="{00CBBFBD-BD9E-42F8-8B7E-FE2310A2C83B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J27">
     <sortCondition ref="B2:B27"/>
     <sortCondition ref="C2:C27"/>
@@ -2636,7 +2643,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C0B60422-EB35-4FB4-BF1B-2F6334DAF9A9}" name="TableTotal" displayName="TableTotal" ref="B2:S3" insertRow="1" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" headerRowCellStyle="Акцент6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C0B60422-EB35-4FB4-BF1B-2F6334DAF9A9}" name="TableTotal" displayName="TableTotal" ref="B2:S3" insertRow="1" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" headerRowCellStyle="Акцент6">
   <autoFilter ref="B2:S3" xr:uid="{6A8CAFF1-DE87-467A-9C9F-EAC45DD35AAA}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{6C78F3B1-C5C6-4E9B-B8B0-E04671622CA4}" name="ID перевозчика"/>
@@ -2667,8 +2674,8 @@
   <autoFilter ref="B2:D25" xr:uid="{DE4A6499-25FE-4A0E-AE62-0DABB7DFBF79}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{29A63BC4-2872-4EA4-B075-ED195D9BE031}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{FF7F5D4D-C144-4DC0-AEA8-3808900FD64A}" name="Компания" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{A6517B15-FFF0-4130-831C-781935AA2468}" name="Получатель письма" dataDxfId="25" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="2" xr3:uid="{FF7F5D4D-C144-4DC0-AEA8-3808900FD64A}" name="Компания" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{A6517B15-FFF0-4130-831C-781935AA2468}" name="Получатель письма" dataDxfId="0" dataCellStyle="Гиперссылка"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2974,8 +2981,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="B1:I13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2987,14 +2994,14 @@
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" customWidth="1"/>
     <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="162" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C2" s="163">
         <f ca="1">TODAY()+1</f>
@@ -3015,30 +3022,30 @@
     </row>
     <row r="5" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>2</v>
+        <v>235</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -3050,28 +3057,28 @@
     </row>
     <row r="13" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>2</v>
+        <v>235</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E13" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="H13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3108,61 +3115,61 @@
     <row r="1" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H2" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4">
         <v>1.5</v>
@@ -3180,22 +3187,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -3213,22 +3220,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -3246,22 +3253,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -3279,22 +3286,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8">
         <v>20</v>
@@ -3312,22 +3319,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9">
         <v>1.5</v>
@@ -3345,22 +3352,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -3378,22 +3385,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -3411,22 +3418,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12">
         <v>10</v>
@@ -3444,22 +3451,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13">
         <v>20</v>
@@ -3477,22 +3484,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14">
         <v>1.5</v>
@@ -3510,22 +3517,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -3543,22 +3550,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -3576,22 +3583,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17">
         <v>10</v>
@@ -3609,22 +3616,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18">
         <v>20</v>
@@ -3642,19 +3649,19 @@
     </row>
     <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
         <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
       </c>
       <c r="J19">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3663,19 +3670,19 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
         <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
-        <v>13</v>
       </c>
       <c r="J20">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3684,7 +3691,7 @@
     </row>
     <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J21">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3693,7 +3700,7 @@
     </row>
     <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J22">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3702,7 +3709,7 @@
     </row>
     <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J23">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3711,7 +3718,7 @@
     </row>
     <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J24">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3720,7 +3727,7 @@
     </row>
     <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J25">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3729,7 +3736,7 @@
     </row>
     <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J26">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3738,7 +3745,7 @@
     </row>
     <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J27">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3747,7 +3754,7 @@
     </row>
     <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J28">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3756,7 +3763,7 @@
     </row>
     <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J29">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3765,7 +3772,7 @@
     </row>
     <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J30">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3774,7 +3781,7 @@
     </row>
     <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J31">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3783,7 +3790,7 @@
     </row>
     <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J32">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3792,7 +3799,7 @@
     </row>
     <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J33">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3801,7 +3808,7 @@
     </row>
     <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J34">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3810,7 +3817,7 @@
     </row>
     <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J35">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3819,7 +3826,7 @@
     </row>
     <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J36">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3828,7 +3835,7 @@
     </row>
     <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J37">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3837,7 +3844,7 @@
     </row>
     <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J38">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3846,7 +3853,7 @@
     </row>
     <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J39">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3855,7 +3862,7 @@
     </row>
     <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J40">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3864,7 +3871,7 @@
     </row>
     <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J41">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3873,7 +3880,7 @@
     </row>
     <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J42">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3882,7 +3889,7 @@
     </row>
     <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J43">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3891,7 +3898,7 @@
     </row>
     <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J44">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3900,7 +3907,7 @@
     </row>
     <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J45">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3909,7 +3916,7 @@
     </row>
     <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J46">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3918,7 +3925,7 @@
     </row>
     <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J47">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3927,7 +3934,7 @@
     </row>
     <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J48">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3936,7 +3943,7 @@
     </row>
     <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J49">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3945,7 +3952,7 @@
     </row>
     <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J50">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3954,7 +3961,7 @@
     </row>
     <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J51">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3963,7 +3970,7 @@
     </row>
     <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J52">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3972,7 +3979,7 @@
     </row>
     <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J53">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3981,7 +3988,7 @@
     </row>
     <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J54">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3990,7 +3997,7 @@
     </row>
     <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J55">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -3999,7 +4006,7 @@
     </row>
     <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J56">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4008,7 +4015,7 @@
     </row>
     <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J57">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4017,7 +4024,7 @@
     </row>
     <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J58">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4026,7 +4033,7 @@
     </row>
     <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J59">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4035,7 +4042,7 @@
     </row>
     <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J60">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4044,7 +4051,7 @@
     </row>
     <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J61">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4053,7 +4060,7 @@
     </row>
     <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J62">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4062,7 +4069,7 @@
     </row>
     <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J63">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4071,7 +4078,7 @@
     </row>
     <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J64">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4080,7 +4087,7 @@
     </row>
     <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J65">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4089,7 +4096,7 @@
     </row>
     <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J66">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4098,7 +4105,7 @@
     </row>
     <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J67">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4107,7 +4114,7 @@
     </row>
     <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J68">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4116,7 +4123,7 @@
     </row>
     <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J69">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4125,7 +4132,7 @@
     </row>
     <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J70">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4134,7 +4141,7 @@
     </row>
     <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J71">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4143,7 +4150,7 @@
     </row>
     <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J72">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4152,7 +4159,7 @@
     </row>
     <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J73">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4161,7 +4168,7 @@
     </row>
     <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J74">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4170,7 +4177,7 @@
     </row>
     <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J75">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4179,7 +4186,7 @@
     </row>
     <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J76">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4188,7 +4195,7 @@
     </row>
     <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J77">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4197,7 +4204,7 @@
     </row>
     <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J78">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4206,7 +4213,7 @@
     </row>
     <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J79">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4215,7 +4222,7 @@
     </row>
     <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J80">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4224,7 +4231,7 @@
     </row>
     <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J81">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4233,7 +4240,7 @@
     </row>
     <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J82">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4242,7 +4249,7 @@
     </row>
     <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J83">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4251,7 +4258,7 @@
     </row>
     <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J84">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4260,7 +4267,7 @@
     </row>
     <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J85">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4269,7 +4276,7 @@
     </row>
     <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J86">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4278,7 +4285,7 @@
     </row>
     <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J87">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4287,7 +4294,7 @@
     </row>
     <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J88">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4296,7 +4303,7 @@
     </row>
     <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J89">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4305,7 +4312,7 @@
     </row>
     <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J90">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4314,7 +4321,7 @@
     </row>
     <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J91">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4323,7 +4330,7 @@
     </row>
     <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J92">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4332,7 +4339,7 @@
     </row>
     <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J93">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4341,7 +4348,7 @@
     </row>
     <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J94">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4350,7 +4357,7 @@
     </row>
     <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J95">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4359,7 +4366,7 @@
     </row>
     <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J96">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4368,7 +4375,7 @@
     </row>
     <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J97">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4377,7 +4384,7 @@
     </row>
     <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J98">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4386,7 +4393,7 @@
     </row>
     <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J99">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4395,7 +4402,7 @@
     </row>
     <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J100">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4404,7 +4411,7 @@
     </row>
     <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J101">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4413,7 +4420,7 @@
     </row>
     <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J102">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4422,7 +4429,7 @@
     </row>
     <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J103">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4431,7 +4438,7 @@
     </row>
     <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J104">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4440,7 +4447,7 @@
     </row>
     <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J105">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4449,7 +4456,7 @@
     </row>
     <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J106">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4458,7 +4465,7 @@
     </row>
     <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J107">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4467,7 +4474,7 @@
     </row>
     <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J108">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4476,7 +4483,7 @@
     </row>
     <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J109">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4485,7 +4492,7 @@
     </row>
     <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J110">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4494,7 +4501,7 @@
     </row>
     <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J111">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4503,7 +4510,7 @@
     </row>
     <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J112">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4512,7 +4519,7 @@
     </row>
     <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J113">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4521,7 +4528,7 @@
     </row>
     <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J114">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4530,7 +4537,7 @@
     </row>
     <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J115">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4539,7 +4546,7 @@
     </row>
     <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J116">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4548,7 +4555,7 @@
     </row>
     <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J117">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4557,7 +4564,7 @@
     </row>
     <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J118">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4566,7 +4573,7 @@
     </row>
     <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J119">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4575,7 +4582,7 @@
     </row>
     <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J120">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4584,7 +4591,7 @@
     </row>
     <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J121">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4593,7 +4600,7 @@
     </row>
     <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J122">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4602,7 +4609,7 @@
     </row>
     <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J123">
         <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
@@ -4619,10 +4626,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67A1708-3085-4C0B-B20B-14DE5D5EB1E8}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4642,37 +4649,37 @@
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="165" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="166" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="167" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="166" t="s">
-        <v>231</v>
-      </c>
-      <c r="C1" s="167" t="s">
-        <v>233</v>
-      </c>
       <c r="D1" s="167" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E1" s="167" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F1" s="167" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" s="167" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H1" s="167" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I1" s="167" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J1" s="168" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -4692,22 +4699,22 @@
         <v>120022493</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L2" s="169" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -4727,22 +4734,22 @@
         <v>120026430</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L3" s="170" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -4762,19 +4769,19 @@
         <v>120028098</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -4794,19 +4801,19 @@
         <v>120026747</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -4826,19 +4833,19 @@
         <v>120026206</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -4858,19 +4865,19 @@
         <v>120025752</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -4890,19 +4897,19 @@
         <v>120024261</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -4922,19 +4929,19 @@
         <v>120022424</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -4954,19 +4961,19 @@
         <v>120026389</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -4986,19 +4993,19 @@
         <v>120021605</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -5015,19 +5022,19 @@
         <v>120028781</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -5047,19 +5054,19 @@
         <v>120027759</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -5079,19 +5086,19 @@
         <v>120025885</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -5111,19 +5118,19 @@
         <v>91020</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -5143,19 +5150,19 @@
         <v>120029370</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -5175,19 +5182,19 @@
         <v>120024301</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -5207,19 +5214,19 @@
         <v>120024306</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -5239,19 +5246,19 @@
         <v>120021905</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -5271,19 +5278,19 @@
         <v>120026321</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5303,19 +5310,19 @@
         <v>120025666</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -5335,19 +5342,19 @@
         <v>60102</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -5367,19 +5374,19 @@
         <v>120022426</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -5399,19 +5406,19 @@
         <v>78258</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -5431,19 +5438,19 @@
         <v>120022423</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -5463,23 +5470,34 @@
         <v>120024225</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J26" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:C27">
+  <conditionalFormatting sqref="B2:C28">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5532,57 +5550,57 @@
   <sheetData>
     <row r="1" spans="2:17" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="79" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C1" s="78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D1" s="78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E1" s="78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F1" s="78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G1" s="78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H1" s="78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I1" s="78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J1" s="78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K1" s="78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L1" s="78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M1" s="78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N1" s="78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O1" s="78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P1" s="77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q1" s="76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="171" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="75">
         <v>83838</v>
@@ -5591,10 +5609,10 @@
         <v>120022493</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="73">
         <v>1</v>
@@ -5612,22 +5630,22 @@
         <v>4</v>
       </c>
       <c r="L2" s="71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M2" s="70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N2" s="70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O2" s="69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P2" s="68">
         <v>1</v>
       </c>
       <c r="Q2" s="174" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
@@ -5639,10 +5657,10 @@
         <v>120026430</v>
       </c>
       <c r="E3" s="70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" s="70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="73">
         <v>1</v>
@@ -5660,16 +5678,16 @@
         <v>4</v>
       </c>
       <c r="L3" s="71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M3" s="70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N3" s="70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O3" s="69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P3" s="68">
         <v>2</v>
@@ -5685,10 +5703,10 @@
         <v>120028098</v>
       </c>
       <c r="E4" s="70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" s="73">
         <v>1</v>
@@ -5706,16 +5724,16 @@
         <v>4</v>
       </c>
       <c r="L4" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M4" s="70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N4" s="70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O4" s="69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P4" s="68">
         <v>3</v>
@@ -5731,10 +5749,10 @@
         <v>120026747</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="73">
         <v>1</v>
@@ -5752,16 +5770,16 @@
         <v>4</v>
       </c>
       <c r="L5" s="71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M5" s="70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N5" s="70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O5" s="69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P5" s="68">
         <v>4</v>
@@ -5770,7 +5788,7 @@
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="171" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="67">
         <v>79735</v>
@@ -5779,10 +5797,10 @@
         <v>120026206</v>
       </c>
       <c r="E6" s="62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" s="62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="65">
         <v>1</v>
@@ -5800,16 +5818,16 @@
         <v>4</v>
       </c>
       <c r="L6" s="63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M6" s="62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N6" s="62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O6" s="61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P6" s="60">
         <v>1</v>
@@ -5825,10 +5843,10 @@
         <v>120025752</v>
       </c>
       <c r="E7" s="62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="65">
         <v>1</v>
@@ -5846,16 +5864,16 @@
         <v>4</v>
       </c>
       <c r="L7" s="63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M7" s="62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N7" s="62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O7" s="61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P7" s="60">
         <v>2</v>
@@ -5871,10 +5889,10 @@
         <v>120024261</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" s="62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="65">
         <v>1</v>
@@ -5892,16 +5910,16 @@
         <v>4</v>
       </c>
       <c r="L8" s="63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M8" s="62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N8" s="62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O8" s="61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P8" s="60">
         <v>3</v>
@@ -5917,10 +5935,10 @@
         <v>120022424</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9" s="62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="65">
         <v>1</v>
@@ -5938,16 +5956,16 @@
         <v>4</v>
       </c>
       <c r="L9" s="63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M9" s="62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N9" s="62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O9" s="61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P9" s="60">
         <v>4</v>
@@ -5956,7 +5974,7 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="171" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="59">
         <v>94109</v>
@@ -5965,10 +5983,10 @@
         <v>120026389</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="57">
         <v>1</v>
@@ -5986,16 +6004,16 @@
         <v>4</v>
       </c>
       <c r="L10" s="55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M10" s="54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N10" s="54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O10" s="53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P10" s="52">
         <v>1</v>
@@ -6011,10 +6029,10 @@
         <v>120021605</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="57">
         <v>1</v>
@@ -6032,16 +6050,16 @@
         <v>4</v>
       </c>
       <c r="L11" s="55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M11" s="54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N11" s="54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O11" s="53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P11" s="52">
         <v>2</v>
@@ -6053,17 +6071,17 @@
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="171" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="51"/>
       <c r="D13" s="50">
         <v>120028781</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="46">
         <v>1</v>
@@ -6081,22 +6099,22 @@
         <v>4</v>
       </c>
       <c r="L13" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M13" s="49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N13" s="49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O13" s="42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P13" s="41">
         <v>1</v>
       </c>
       <c r="Q13" s="174" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6108,10 +6126,10 @@
         <v>120027759</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" s="46">
         <v>1</v>
@@ -6129,16 +6147,16 @@
         <v>4</v>
       </c>
       <c r="L14" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M14" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N14" s="43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O14" s="42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P14" s="41">
         <v>2</v>
@@ -6147,7 +6165,7 @@
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="171" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="40">
         <v>93101</v>
@@ -6156,10 +6174,10 @@
         <v>120025885</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" s="38">
         <v>1</v>
@@ -6177,16 +6195,16 @@
         <v>4</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O15" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P15" s="33">
         <v>1</v>
@@ -6202,10 +6220,10 @@
         <v>91020</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" s="38">
         <v>1</v>
@@ -6223,16 +6241,16 @@
         <v>4</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O16" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P16" s="33">
         <v>2</v>
@@ -6248,10 +6266,10 @@
         <v>120029370</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" s="38">
         <v>1</v>
@@ -6269,16 +6287,16 @@
         <v>4</v>
       </c>
       <c r="L17" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M17" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N17" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O17" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P17" s="33">
         <v>3</v>
@@ -6290,7 +6308,7 @@
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="171" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="32">
         <v>77001</v>
@@ -6299,10 +6317,10 @@
         <v>120024301</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="30">
         <v>1</v>
@@ -6320,22 +6338,22 @@
         <v>4</v>
       </c>
       <c r="L19" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M19" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N19" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O19" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P19" s="25">
         <v>1</v>
       </c>
       <c r="Q19" s="174" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -6347,10 +6365,10 @@
         <v>120024306</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20" s="30">
         <v>1</v>
@@ -6368,16 +6386,16 @@
         <v>4</v>
       </c>
       <c r="L20" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M20" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N20" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O20" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P20" s="25">
         <v>2</v>
@@ -6393,10 +6411,10 @@
         <v>120021905</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" s="30">
         <v>1</v>
@@ -6414,16 +6432,16 @@
         <v>4</v>
       </c>
       <c r="L21" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M21" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N21" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O21" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P21" s="25">
         <v>3</v>
@@ -6439,10 +6457,10 @@
         <v>120026321</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" s="30">
         <v>1</v>
@@ -6460,16 +6478,16 @@
         <v>4</v>
       </c>
       <c r="L22" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M22" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N22" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O22" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P22" s="25">
         <v>4</v>
@@ -6481,7 +6499,7 @@
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="171" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="21">
         <v>92536</v>
@@ -6490,10 +6508,10 @@
         <v>120025666</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" s="19">
         <v>1</v>
@@ -6511,22 +6529,22 @@
         <v>4</v>
       </c>
       <c r="L24" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N24" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P24" s="14">
         <v>1</v>
       </c>
       <c r="Q24" s="174" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
@@ -6538,10 +6556,10 @@
         <v>60102</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G25" s="19">
         <v>1</v>
@@ -6559,16 +6577,16 @@
         <v>4</v>
       </c>
       <c r="L25" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N25" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P25" s="14">
         <v>2</v>
@@ -6584,10 +6602,10 @@
         <v>120022426</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G26" s="19">
         <v>1</v>
@@ -6605,16 +6623,16 @@
         <v>4</v>
       </c>
       <c r="L26" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N26" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P26" s="14">
         <v>3</v>
@@ -6630,10 +6648,10 @@
         <v>78258</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" s="19">
         <v>1</v>
@@ -6651,16 +6669,16 @@
         <v>4</v>
       </c>
       <c r="L27" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P27" s="14">
         <v>4</v>
@@ -6676,10 +6694,10 @@
         <v>120022423</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28" s="19">
         <v>1</v>
@@ -6697,16 +6715,16 @@
         <v>4</v>
       </c>
       <c r="L28" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N28" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P28" s="14">
         <v>5</v>
@@ -6722,10 +6740,10 @@
         <v>120024225</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="19">
         <v>1</v>
@@ -6743,16 +6761,16 @@
         <v>4</v>
       </c>
       <c r="L29" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P29" s="14">
         <v>6</v>
@@ -6774,25 +6792,25 @@
     <mergeCell ref="B15:B17"/>
   </mergeCells>
   <conditionalFormatting sqref="D19:D22">
-    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D17">
-    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D29">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D9">
-    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6804,7 +6822,7 @@
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:N114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C44" sqref="C44:C48"/>
     </sheetView>
   </sheetViews>
@@ -6827,46 +6845,46 @@
   <sheetData>
     <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C1" s="80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" s="80" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E1" s="80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G1" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H1" s="80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I1" s="80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J1" s="80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K1" s="80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L1" s="80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M1" s="80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N1" s="81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -6877,10 +6895,10 @@
         <v>120024301</v>
       </c>
       <c r="C2" s="84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="85">
         <v>1</v>
@@ -6898,16 +6916,16 @@
         <v>4</v>
       </c>
       <c r="J2" s="87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K2" s="84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L2" s="84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M2" s="88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N2" s="89">
         <v>1</v>
@@ -6921,10 +6939,10 @@
         <v>120024306</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="85">
         <v>1</v>
@@ -6942,16 +6960,16 @@
         <v>4</v>
       </c>
       <c r="J3" s="87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3" s="84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L3" s="84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3" s="88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N3" s="89">
         <v>2</v>
@@ -6965,10 +6983,10 @@
         <v>120021905</v>
       </c>
       <c r="C4" s="84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="85">
         <v>1</v>
@@ -6986,16 +7004,16 @@
         <v>4</v>
       </c>
       <c r="J4" s="87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4" s="84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L4" s="84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M4" s="88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N4" s="89">
         <v>3</v>
@@ -7009,10 +7027,10 @@
         <v>120026321</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="85">
         <v>1</v>
@@ -7030,16 +7048,16 @@
         <v>4</v>
       </c>
       <c r="J5" s="87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K5" s="84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L5" s="84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M5" s="88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N5" s="89">
         <v>4</v>
@@ -7053,10 +7071,10 @@
         <v>120025885</v>
       </c>
       <c r="C6" s="91" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="92">
         <v>1</v>
@@ -7074,16 +7092,16 @@
         <v>4</v>
       </c>
       <c r="J6" s="94" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K6" s="91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L6" s="91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M6" s="95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N6" s="96">
         <v>1</v>
@@ -7097,10 +7115,10 @@
         <v>91020</v>
       </c>
       <c r="C7" s="91" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="92">
         <v>1</v>
@@ -7118,16 +7136,16 @@
         <v>4</v>
       </c>
       <c r="J7" s="94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7" s="91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L7" s="91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M7" s="95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N7" s="96">
         <v>2</v>
@@ -7141,10 +7159,10 @@
         <v>120029370</v>
       </c>
       <c r="C8" s="91" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="92">
         <v>1</v>
@@ -7162,16 +7180,16 @@
         <v>4</v>
       </c>
       <c r="J8" s="94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8" s="91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L8" s="91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M8" s="95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N8" s="96">
         <v>3</v>
@@ -7183,10 +7201,10 @@
         <v>120028781</v>
       </c>
       <c r="C9" s="98" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="99">
         <v>1</v>
@@ -7204,16 +7222,16 @@
         <v>4</v>
       </c>
       <c r="J9" s="101" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K9" s="98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L9" s="98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M9" s="102" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N9" s="103">
         <v>1</v>
@@ -7227,10 +7245,10 @@
         <v>120027759</v>
       </c>
       <c r="C10" s="105" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="99">
         <v>1</v>
@@ -7248,16 +7266,16 @@
         <v>4</v>
       </c>
       <c r="J10" s="101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K10" s="105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L10" s="105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M10" s="102" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N10" s="103">
         <v>2</v>
@@ -7271,10 +7289,10 @@
         <v>120026389</v>
       </c>
       <c r="C11" s="107" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="108">
         <v>1</v>
@@ -7292,16 +7310,16 @@
         <v>4</v>
       </c>
       <c r="J11" s="110" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K11" s="107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L11" s="107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M11" s="111" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N11" s="112">
         <v>1</v>
@@ -7315,10 +7333,10 @@
         <v>120021605</v>
       </c>
       <c r="C12" s="107" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="108">
         <v>1</v>
@@ -7336,16 +7354,16 @@
         <v>4</v>
       </c>
       <c r="J12" s="110" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K12" s="107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L12" s="107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M12" s="111" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N12" s="112">
         <v>2</v>
@@ -7359,10 +7377,10 @@
         <v>120025666</v>
       </c>
       <c r="C13" s="114" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="115">
         <v>1</v>
@@ -7380,16 +7398,16 @@
         <v>4</v>
       </c>
       <c r="J13" s="117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K13" s="114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L13" s="114" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M13" s="118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N13" s="119">
         <v>1</v>
@@ -7403,10 +7421,10 @@
         <v>60102</v>
       </c>
       <c r="C14" s="114" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="115">
         <v>1</v>
@@ -7424,16 +7442,16 @@
         <v>4</v>
       </c>
       <c r="J14" s="117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K14" s="114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L14" s="114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M14" s="118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N14" s="119">
         <v>2</v>
@@ -7447,10 +7465,10 @@
         <v>120022426</v>
       </c>
       <c r="C15" s="121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="115">
         <v>1</v>
@@ -7468,16 +7486,16 @@
         <v>4</v>
       </c>
       <c r="J15" s="117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K15" s="114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L15" s="114" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M15" s="118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N15" s="119">
         <v>3</v>
@@ -7491,10 +7509,10 @@
         <v>78258</v>
       </c>
       <c r="C16" s="114" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="115">
         <v>1</v>
@@ -7512,16 +7530,16 @@
         <v>4</v>
       </c>
       <c r="J16" s="117" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K16" s="114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L16" s="114" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M16" s="118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N16" s="119">
         <v>4</v>
@@ -7535,10 +7553,10 @@
         <v>120022423</v>
       </c>
       <c r="C17" s="114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" s="115">
         <v>1</v>
@@ -7556,16 +7574,16 @@
         <v>4</v>
       </c>
       <c r="J17" s="117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K17" s="114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L17" s="114" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M17" s="118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N17" s="119">
         <v>5</v>
@@ -7579,10 +7597,10 @@
         <v>120024225</v>
       </c>
       <c r="C18" s="114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="115">
         <v>1</v>
@@ -7600,16 +7618,16 @@
         <v>4</v>
       </c>
       <c r="J18" s="117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K18" s="114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L18" s="114" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M18" s="118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N18" s="119">
         <v>6</v>
@@ -7623,10 +7641,10 @@
         <v>120026206</v>
       </c>
       <c r="C19" s="123" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" s="123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" s="124">
         <v>1</v>
@@ -7644,16 +7662,16 @@
         <v>4</v>
       </c>
       <c r="J19" s="126" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K19" s="123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L19" s="123" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M19" s="127" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N19" s="128">
         <v>1</v>
@@ -7667,10 +7685,10 @@
         <v>120025752</v>
       </c>
       <c r="C20" s="123" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" s="124">
         <v>1</v>
@@ -7688,16 +7706,16 @@
         <v>4</v>
       </c>
       <c r="J20" s="126" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20" s="123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L20" s="123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M20" s="127" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N20" s="128">
         <v>2</v>
@@ -7711,10 +7729,10 @@
         <v>120024261</v>
       </c>
       <c r="C21" s="123" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="124">
         <v>1</v>
@@ -7732,16 +7750,16 @@
         <v>4</v>
       </c>
       <c r="J21" s="126" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K21" s="123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L21" s="123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M21" s="127" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N21" s="128">
         <v>3</v>
@@ -7755,10 +7773,10 @@
         <v>120022424</v>
       </c>
       <c r="C22" s="123" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" s="124">
         <v>1</v>
@@ -7776,16 +7794,16 @@
         <v>4</v>
       </c>
       <c r="J22" s="126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22" s="123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L22" s="123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M22" s="127" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N22" s="128">
         <v>4</v>
@@ -7799,10 +7817,10 @@
         <v>120022493</v>
       </c>
       <c r="C23" s="130" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23" s="130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" s="131">
         <v>1</v>
@@ -7820,16 +7838,16 @@
         <v>4</v>
       </c>
       <c r="J23" s="133" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K23" s="130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L23" s="130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M23" s="134" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N23" s="135">
         <v>1</v>
@@ -7843,10 +7861,10 @@
         <v>120026430</v>
       </c>
       <c r="C24" s="130" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" s="131">
         <v>1</v>
@@ -7864,16 +7882,16 @@
         <v>4</v>
       </c>
       <c r="J24" s="133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K24" s="130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L24" s="130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M24" s="134" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N24" s="135">
         <v>2</v>
@@ -7887,10 +7905,10 @@
         <v>120028098</v>
       </c>
       <c r="C25" s="130" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" s="131">
         <v>1</v>
@@ -7908,16 +7926,16 @@
         <v>4</v>
       </c>
       <c r="J25" s="133" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K25" s="130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L25" s="130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M25" s="134" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N25" s="135">
         <v>3</v>
@@ -7931,10 +7949,10 @@
         <v>120026747</v>
       </c>
       <c r="C26" s="130" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D26" s="130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" s="131">
         <v>1</v>
@@ -7952,16 +7970,16 @@
         <v>4</v>
       </c>
       <c r="J26" s="133" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26" s="130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L26" s="130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M26" s="134" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N26" s="135">
         <v>4</v>
@@ -7975,10 +7993,10 @@
         <v>120024302</v>
       </c>
       <c r="C27" s="137" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="137" t="s">
         <v>92</v>
-      </c>
-      <c r="D27" s="137" t="s">
-        <v>93</v>
       </c>
       <c r="E27" s="138">
         <v>1</v>
@@ -7998,16 +8016,16 @@
         <v>5</v>
       </c>
       <c r="J27" s="140" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K27" s="137" t="s">
+        <v>93</v>
+      </c>
+      <c r="L27" s="137" t="s">
         <v>94</v>
       </c>
-      <c r="L27" s="137" t="s">
+      <c r="M27" s="141" t="s">
         <v>95</v>
-      </c>
-      <c r="M27" s="141" t="s">
-        <v>96</v>
       </c>
       <c r="N27" s="142">
         <v>1</v>
@@ -8021,10 +8039,10 @@
         <v>120025788</v>
       </c>
       <c r="C28" s="137" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" s="137" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E28" s="138">
         <v>1</v>
@@ -8043,16 +8061,16 @@
         <v>5</v>
       </c>
       <c r="J28" s="140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K28" s="137" t="s">
+        <v>93</v>
+      </c>
+      <c r="L28" s="137" t="s">
         <v>94</v>
       </c>
-      <c r="L28" s="137" t="s">
+      <c r="M28" s="141" t="s">
         <v>95</v>
-      </c>
-      <c r="M28" s="141" t="s">
-        <v>96</v>
       </c>
       <c r="N28" s="142">
         <v>2</v>
@@ -8066,10 +8084,10 @@
         <v>120030442</v>
       </c>
       <c r="C29" s="137" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29" s="137" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E29" s="138">
         <v>1</v>
@@ -8088,16 +8106,16 @@
         <v>5</v>
       </c>
       <c r="J29" s="140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K29" s="137" t="s">
+        <v>93</v>
+      </c>
+      <c r="L29" s="137" t="s">
         <v>94</v>
       </c>
-      <c r="L29" s="137" t="s">
+      <c r="M29" s="141" t="s">
         <v>95</v>
-      </c>
-      <c r="M29" s="141" t="s">
-        <v>96</v>
       </c>
       <c r="N29" s="142">
         <v>3</v>
@@ -8111,10 +8129,10 @@
         <v>120025708</v>
       </c>
       <c r="C30" s="144" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30" s="144" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E30" s="145">
         <v>1</v>
@@ -8133,16 +8151,16 @@
         <v>5</v>
       </c>
       <c r="J30" s="140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K30" s="144" t="s">
+        <v>93</v>
+      </c>
+      <c r="L30" s="137" t="s">
         <v>94</v>
       </c>
-      <c r="L30" s="137" t="s">
+      <c r="M30" s="141" t="s">
         <v>95</v>
-      </c>
-      <c r="M30" s="141" t="s">
-        <v>96</v>
       </c>
       <c r="N30" s="142">
         <v>4</v>
@@ -8156,10 +8174,10 @@
         <v>120030449</v>
       </c>
       <c r="C31" s="137" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="137" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E31" s="138">
         <v>1</v>
@@ -8178,16 +8196,16 @@
         <v>5</v>
       </c>
       <c r="J31" s="140" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K31" s="137" t="s">
+        <v>93</v>
+      </c>
+      <c r="L31" s="137" t="s">
         <v>94</v>
       </c>
-      <c r="L31" s="137" t="s">
+      <c r="M31" s="141" t="s">
         <v>95</v>
-      </c>
-      <c r="M31" s="141" t="s">
-        <v>96</v>
       </c>
       <c r="N31" s="142">
         <v>5</v>
@@ -8201,10 +8219,10 @@
         <v>120024614</v>
       </c>
       <c r="C32" s="137" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="137" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E32" s="138">
         <v>1</v>
@@ -8223,16 +8241,16 @@
         <v>5</v>
       </c>
       <c r="J32" s="140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K32" s="137" t="s">
+        <v>93</v>
+      </c>
+      <c r="L32" s="137" t="s">
         <v>94</v>
       </c>
-      <c r="L32" s="137" t="s">
+      <c r="M32" s="141" t="s">
         <v>95</v>
-      </c>
-      <c r="M32" s="141" t="s">
-        <v>96</v>
       </c>
       <c r="N32" s="142">
         <v>6</v>
@@ -8246,10 +8264,10 @@
         <v>120025332</v>
       </c>
       <c r="C33" s="137" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="137" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E33" s="138">
         <v>1</v>
@@ -8268,16 +8286,16 @@
         <v>5</v>
       </c>
       <c r="J33" s="140" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K33" s="137" t="s">
+        <v>93</v>
+      </c>
+      <c r="L33" s="137" t="s">
         <v>94</v>
       </c>
-      <c r="L33" s="137" t="s">
+      <c r="M33" s="141" t="s">
         <v>95</v>
-      </c>
-      <c r="M33" s="141" t="s">
-        <v>96</v>
       </c>
       <c r="N33" s="142">
         <v>7</v>
@@ -8291,10 +8309,10 @@
         <v>120022887</v>
       </c>
       <c r="C34" s="144" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="144" t="s">
         <v>100</v>
-      </c>
-      <c r="D34" s="144" t="s">
-        <v>101</v>
       </c>
       <c r="E34" s="138">
         <v>1</v>
@@ -8312,16 +8330,16 @@
         <v>6</v>
       </c>
       <c r="J34" s="140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K34" s="137" t="s">
+        <v>101</v>
+      </c>
+      <c r="L34" s="137" t="s">
+        <v>100</v>
+      </c>
+      <c r="M34" s="141" t="s">
         <v>102</v>
-      </c>
-      <c r="L34" s="137" t="s">
-        <v>101</v>
-      </c>
-      <c r="M34" s="141" t="s">
-        <v>103</v>
       </c>
       <c r="N34" s="142">
         <v>1</v>
@@ -8335,10 +8353,10 @@
         <v>120030455</v>
       </c>
       <c r="C35" s="137" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D35" s="137" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E35" s="138">
         <v>1</v>
@@ -8356,16 +8374,16 @@
         <v>6</v>
       </c>
       <c r="J35" s="140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K35" s="137" t="s">
+        <v>101</v>
+      </c>
+      <c r="L35" s="137" t="s">
+        <v>104</v>
+      </c>
+      <c r="M35" s="141" t="s">
         <v>102</v>
-      </c>
-      <c r="L35" s="137" t="s">
-        <v>105</v>
-      </c>
-      <c r="M35" s="141" t="s">
-        <v>103</v>
       </c>
       <c r="N35" s="142">
         <v>2</v>
@@ -8379,10 +8397,10 @@
         <v>120026345</v>
       </c>
       <c r="C36" s="144" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="144" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E36" s="138">
         <v>1</v>
@@ -8400,16 +8418,16 @@
         <v>6</v>
       </c>
       <c r="J36" s="140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K36" s="137" t="s">
+        <v>101</v>
+      </c>
+      <c r="L36" s="137" t="s">
+        <v>104</v>
+      </c>
+      <c r="M36" s="141" t="s">
         <v>102</v>
-      </c>
-      <c r="L36" s="137" t="s">
-        <v>105</v>
-      </c>
-      <c r="M36" s="141" t="s">
-        <v>103</v>
       </c>
       <c r="N36" s="142">
         <v>3</v>
@@ -8423,10 +8441,10 @@
         <v>120029380</v>
       </c>
       <c r="C37" s="137" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D37" s="137" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E37" s="138">
         <v>1</v>
@@ -8444,16 +8462,16 @@
         <v>6</v>
       </c>
       <c r="J37" s="140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K37" s="137" t="s">
+        <v>101</v>
+      </c>
+      <c r="L37" s="137" t="s">
+        <v>104</v>
+      </c>
+      <c r="M37" s="141" t="s">
         <v>102</v>
-      </c>
-      <c r="L37" s="137" t="s">
-        <v>105</v>
-      </c>
-      <c r="M37" s="141" t="s">
-        <v>103</v>
       </c>
       <c r="N37" s="142">
         <v>4</v>
@@ -8467,10 +8485,10 @@
         <v>93587</v>
       </c>
       <c r="C38" s="144" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D38" s="144" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E38" s="138">
         <v>1</v>
@@ -8488,16 +8506,16 @@
         <v>6</v>
       </c>
       <c r="J38" s="140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K38" s="137" t="s">
+        <v>101</v>
+      </c>
+      <c r="L38" s="137" t="s">
+        <v>104</v>
+      </c>
+      <c r="M38" s="141" t="s">
         <v>102</v>
-      </c>
-      <c r="L38" s="137" t="s">
-        <v>105</v>
-      </c>
-      <c r="M38" s="141" t="s">
-        <v>103</v>
       </c>
       <c r="N38" s="142">
         <v>5</v>
@@ -8511,10 +8529,10 @@
         <v>120022985</v>
       </c>
       <c r="C39" s="144" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D39" s="144" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E39" s="138">
         <v>1</v>
@@ -8532,16 +8550,16 @@
         <v>6</v>
       </c>
       <c r="J39" s="140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K39" s="137" t="s">
+        <v>101</v>
+      </c>
+      <c r="L39" s="137" t="s">
+        <v>104</v>
+      </c>
+      <c r="M39" s="141" t="s">
         <v>102</v>
-      </c>
-      <c r="L39" s="137" t="s">
-        <v>105</v>
-      </c>
-      <c r="M39" s="141" t="s">
-        <v>103</v>
       </c>
       <c r="N39" s="142">
         <v>6</v>
@@ -8555,10 +8573,10 @@
         <v>92663</v>
       </c>
       <c r="C40" s="144" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D40" s="144" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E40" s="138">
         <v>1</v>
@@ -8576,16 +8594,16 @@
         <v>6</v>
       </c>
       <c r="J40" s="140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K40" s="137" t="s">
+        <v>101</v>
+      </c>
+      <c r="L40" s="137" t="s">
+        <v>104</v>
+      </c>
+      <c r="M40" s="141" t="s">
         <v>102</v>
-      </c>
-      <c r="L40" s="137" t="s">
-        <v>105</v>
-      </c>
-      <c r="M40" s="141" t="s">
-        <v>103</v>
       </c>
       <c r="N40" s="142">
         <v>7</v>
@@ -8599,10 +8617,10 @@
         <v>120024040</v>
       </c>
       <c r="C41" s="144" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D41" s="144" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E41" s="138">
         <v>1</v>
@@ -8620,16 +8638,16 @@
         <v>6</v>
       </c>
       <c r="J41" s="140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K41" s="137" t="s">
+        <v>101</v>
+      </c>
+      <c r="L41" s="137" t="s">
+        <v>104</v>
+      </c>
+      <c r="M41" s="141" t="s">
         <v>102</v>
-      </c>
-      <c r="L41" s="137" t="s">
-        <v>105</v>
-      </c>
-      <c r="M41" s="141" t="s">
-        <v>103</v>
       </c>
       <c r="N41" s="142">
         <v>8</v>
@@ -8643,10 +8661,10 @@
         <v>120030364</v>
       </c>
       <c r="C42" s="144" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="144" t="s">
         <v>110</v>
-      </c>
-      <c r="D42" s="144" t="s">
-        <v>111</v>
       </c>
       <c r="E42" s="138">
         <v>1</v>
@@ -8664,16 +8682,16 @@
         <v>6</v>
       </c>
       <c r="J42" s="140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K42" s="137" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L42" s="137" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M42" s="141" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N42" s="142">
         <v>9</v>
@@ -8687,10 +8705,10 @@
         <v>120024886</v>
       </c>
       <c r="C43" s="144" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D43" s="144" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E43" s="138">
         <v>1</v>
@@ -8708,16 +8726,16 @@
         <v>6</v>
       </c>
       <c r="J43" s="140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K43" s="137" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L43" s="137" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M43" s="141" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N43" s="142">
         <v>10</v>
@@ -8731,10 +8749,10 @@
         <v>120028580</v>
       </c>
       <c r="C44" s="144" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" s="144" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E44" s="138">
         <v>1</v>
@@ -8752,16 +8770,16 @@
         <v>6</v>
       </c>
       <c r="J44" s="140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K44" s="137" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L44" s="137" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M44" s="141" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N44" s="142">
         <v>11</v>
@@ -8775,10 +8793,10 @@
         <v>120024376</v>
       </c>
       <c r="C45" s="144" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D45" s="144" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E45" s="138">
         <v>1</v>
@@ -8796,16 +8814,16 @@
         <v>6</v>
       </c>
       <c r="J45" s="140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K45" s="137" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L45" s="137" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M45" s="141" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N45" s="142">
         <v>12</v>
@@ -8819,10 +8837,10 @@
         <v>120027072</v>
       </c>
       <c r="C46" s="144" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D46" s="144" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E46" s="138">
         <v>1</v>
@@ -8840,16 +8858,16 @@
         <v>6</v>
       </c>
       <c r="J46" s="140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K46" s="137" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L46" s="137" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M46" s="141" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N46" s="142">
         <v>13</v>
@@ -8863,10 +8881,10 @@
         <v>120030386</v>
       </c>
       <c r="C47" s="137" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D47" s="137" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E47" s="138">
         <v>1</v>
@@ -8884,16 +8902,16 @@
         <v>6</v>
       </c>
       <c r="J47" s="140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K47" s="137" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L47" s="137" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M47" s="141" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N47" s="142">
         <v>14</v>
@@ -8907,10 +8925,10 @@
         <v>120030443</v>
       </c>
       <c r="C48" s="137" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D48" s="137" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E48" s="138">
         <v>1</v>
@@ -8928,16 +8946,16 @@
         <v>5</v>
       </c>
       <c r="J48" s="140" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K48" s="137" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L48" s="137" t="s">
+        <v>113</v>
+      </c>
+      <c r="M48" s="141" t="s">
         <v>114</v>
-      </c>
-      <c r="M48" s="141" t="s">
-        <v>115</v>
       </c>
       <c r="N48" s="142">
         <v>1</v>
@@ -8951,10 +8969,10 @@
         <v>120025707</v>
       </c>
       <c r="C49" s="144" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D49" s="144" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E49" s="138">
         <v>1</v>
@@ -8972,16 +8990,16 @@
         <v>5</v>
       </c>
       <c r="J49" s="140" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K49" s="137" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L49" s="137" t="s">
+        <v>113</v>
+      </c>
+      <c r="M49" s="141" t="s">
         <v>114</v>
-      </c>
-      <c r="M49" s="141" t="s">
-        <v>115</v>
       </c>
       <c r="N49" s="142">
         <v>2</v>
@@ -8995,10 +9013,10 @@
         <v>120029381</v>
       </c>
       <c r="C50" s="144" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D50" s="144" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E50" s="138">
         <v>1</v>
@@ -9016,16 +9034,16 @@
         <v>5</v>
       </c>
       <c r="J50" s="140" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K50" s="137" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L50" s="137" t="s">
+        <v>113</v>
+      </c>
+      <c r="M50" s="141" t="s">
         <v>114</v>
-      </c>
-      <c r="M50" s="141" t="s">
-        <v>115</v>
       </c>
       <c r="N50" s="142">
         <v>3</v>
@@ -9039,10 +9057,10 @@
         <v>94010</v>
       </c>
       <c r="C51" s="144" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D51" s="144" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E51" s="138">
         <v>1</v>
@@ -9060,16 +9078,16 @@
         <v>5</v>
       </c>
       <c r="J51" s="140" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K51" s="137" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L51" s="137" t="s">
+        <v>113</v>
+      </c>
+      <c r="M51" s="141" t="s">
         <v>114</v>
-      </c>
-      <c r="M51" s="141" t="s">
-        <v>115</v>
       </c>
       <c r="N51" s="142">
         <v>4</v>
@@ -9083,10 +9101,10 @@
         <v>120025498</v>
       </c>
       <c r="C52" s="144" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D52" s="144" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E52" s="138">
         <v>1</v>
@@ -9104,16 +9122,16 @@
         <v>5</v>
       </c>
       <c r="J52" s="140" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K52" s="137" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L52" s="137" t="s">
+        <v>113</v>
+      </c>
+      <c r="M52" s="141" t="s">
         <v>114</v>
-      </c>
-      <c r="M52" s="141" t="s">
-        <v>115</v>
       </c>
       <c r="N52" s="142">
         <v>5</v>
@@ -9127,10 +9145,10 @@
         <v>120030883</v>
       </c>
       <c r="C53" s="144" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D53" s="144" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E53" s="145">
         <v>1</v>
@@ -9148,16 +9166,16 @@
         <v>5</v>
       </c>
       <c r="J53" s="146" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K53" s="137" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L53" s="144" t="s">
+        <v>113</v>
+      </c>
+      <c r="M53" s="142" t="s">
         <v>114</v>
-      </c>
-      <c r="M53" s="142" t="s">
-        <v>115</v>
       </c>
       <c r="N53" s="142">
         <v>6</v>
@@ -9171,10 +9189,10 @@
         <v>120022936</v>
       </c>
       <c r="C54" s="144" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" s="144" t="s">
         <v>119</v>
-      </c>
-      <c r="D54" s="144" t="s">
-        <v>120</v>
       </c>
       <c r="E54" s="138">
         <v>1</v>
@@ -9192,16 +9210,16 @@
         <v>5</v>
       </c>
       <c r="J54" s="140" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K54" s="137" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L54" s="137" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M54" s="141" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N54" s="142">
         <v>7</v>
@@ -9215,10 +9233,10 @@
         <v>120028579</v>
       </c>
       <c r="C55" s="144" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D55" s="144" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E55" s="138">
         <v>1</v>
@@ -9236,16 +9254,16 @@
         <v>5</v>
       </c>
       <c r="J55" s="140" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K55" s="137" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L55" s="137" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M55" s="141" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N55" s="142">
         <v>8</v>
@@ -9259,10 +9277,10 @@
         <v>120029262</v>
       </c>
       <c r="C56" s="147" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D56" s="144" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E56" s="138">
         <v>1</v>
@@ -9280,16 +9298,16 @@
         <v>5</v>
       </c>
       <c r="J56" s="140" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K56" s="137" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L56" s="137" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M56" s="141" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N56" s="142">
         <v>9</v>
@@ -9303,10 +9321,10 @@
         <v>120030302</v>
       </c>
       <c r="C57" s="147" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D57" s="144" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E57" s="138">
         <v>1</v>
@@ -9324,16 +9342,16 @@
         <v>5</v>
       </c>
       <c r="J57" s="140" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K57" s="137" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L57" s="137" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M57" s="141" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N57" s="142">
         <v>10</v>
@@ -9347,10 +9365,10 @@
         <v>99830</v>
       </c>
       <c r="C58" s="148" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D58" s="144" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E58" s="138">
         <v>1</v>
@@ -9368,16 +9386,16 @@
         <v>5</v>
       </c>
       <c r="J58" s="140" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K58" s="137" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L58" s="137" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M58" s="141" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N58" s="142">
         <v>11</v>
@@ -9391,10 +9409,10 @@
         <v>120024307</v>
       </c>
       <c r="C59" s="147" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" s="144" t="s">
         <v>122</v>
-      </c>
-      <c r="D59" s="144" t="s">
-        <v>123</v>
       </c>
       <c r="E59" s="138">
         <v>1</v>
@@ -9412,16 +9430,16 @@
         <v>5</v>
       </c>
       <c r="J59" s="140" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K59" s="137" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L59" s="137" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M59" s="141" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N59" s="142">
         <v>12</v>
@@ -9435,10 +9453,10 @@
         <v>120029260</v>
       </c>
       <c r="C60" s="150" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D60" s="137" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E60" s="138">
         <v>1</v>
@@ -9456,16 +9474,16 @@
         <v>6</v>
       </c>
       <c r="J60" s="140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K60" s="137" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L60" s="137" t="s">
+        <v>124</v>
+      </c>
+      <c r="M60" s="141" t="s">
         <v>125</v>
-      </c>
-      <c r="M60" s="141" t="s">
-        <v>126</v>
       </c>
       <c r="N60" s="142">
         <v>1</v>
@@ -9479,10 +9497,10 @@
         <v>120029384</v>
       </c>
       <c r="C61" s="148" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D61" s="137" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E61" s="138">
         <v>1</v>
@@ -9500,16 +9518,16 @@
         <v>6</v>
       </c>
       <c r="J61" s="140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K61" s="137" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L61" s="137" t="s">
+        <v>124</v>
+      </c>
+      <c r="M61" s="141" t="s">
         <v>125</v>
-      </c>
-      <c r="M61" s="141" t="s">
-        <v>126</v>
       </c>
       <c r="N61" s="142">
         <v>2</v>
@@ -9523,10 +9541,10 @@
         <v>120024255</v>
       </c>
       <c r="C62" s="147" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D62" s="137" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E62" s="138">
         <v>1</v>
@@ -9544,16 +9562,16 @@
         <v>6</v>
       </c>
       <c r="J62" s="140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K62" s="137" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L62" s="137" t="s">
+        <v>124</v>
+      </c>
+      <c r="M62" s="141" t="s">
         <v>125</v>
-      </c>
-      <c r="M62" s="141" t="s">
-        <v>126</v>
       </c>
       <c r="N62" s="142">
         <v>3</v>
@@ -9567,10 +9585,10 @@
         <v>120030466</v>
       </c>
       <c r="C63" s="148" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D63" s="137" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E63" s="138">
         <v>1</v>
@@ -9588,16 +9606,16 @@
         <v>6</v>
       </c>
       <c r="J63" s="140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K63" s="137" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L63" s="137" t="s">
+        <v>124</v>
+      </c>
+      <c r="M63" s="141" t="s">
         <v>125</v>
-      </c>
-      <c r="M63" s="141" t="s">
-        <v>126</v>
       </c>
       <c r="N63" s="142">
         <v>4</v>
@@ -9611,10 +9629,10 @@
         <v>79014</v>
       </c>
       <c r="C64" s="137" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" s="137" t="s">
         <v>128</v>
-      </c>
-      <c r="D64" s="137" t="s">
-        <v>129</v>
       </c>
       <c r="E64" s="138">
         <v>1</v>
@@ -9632,16 +9650,16 @@
         <v>8</v>
       </c>
       <c r="J64" s="140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K64" s="137" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L64" s="137" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M64" s="141" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N64" s="142">
         <v>5</v>
@@ -9655,10 +9673,10 @@
         <v>120022938</v>
       </c>
       <c r="C65" s="137" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D65" s="137" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E65" s="138">
         <v>1</v>
@@ -9676,16 +9694,16 @@
         <v>8</v>
       </c>
       <c r="J65" s="140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K65" s="137" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L65" s="137" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M65" s="141" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N65" s="142">
         <v>6</v>
@@ -9699,10 +9717,10 @@
         <v>120029383</v>
       </c>
       <c r="C66" s="137" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D66" s="137" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E66" s="138">
         <v>1</v>
@@ -9720,16 +9738,16 @@
         <v>8</v>
       </c>
       <c r="J66" s="140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K66" s="137" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L66" s="137" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M66" s="141" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N66" s="142">
         <v>7</v>
@@ -9743,10 +9761,10 @@
         <v>120024626</v>
       </c>
       <c r="C67" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" s="137" t="s">
         <v>131</v>
-      </c>
-      <c r="D67" s="137" t="s">
-        <v>132</v>
       </c>
       <c r="E67" s="138">
         <v>1</v>
@@ -9764,16 +9782,16 @@
         <v>8</v>
       </c>
       <c r="J67" s="140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K67" s="137" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L67" s="137" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M67" s="141" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N67" s="142">
         <v>8</v>
@@ -9787,10 +9805,10 @@
         <v>120023289</v>
       </c>
       <c r="C68" s="137" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D68" s="137" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E68" s="138">
         <v>1</v>
@@ -9808,16 +9826,16 @@
         <v>8</v>
       </c>
       <c r="J68" s="140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K68" s="137" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L68" s="137" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M68" s="141" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N68" s="142">
         <v>9</v>
@@ -9831,10 +9849,10 @@
         <v>120025009</v>
       </c>
       <c r="C69" s="137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D69" s="137" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E69" s="138">
         <v>1</v>
@@ -9852,16 +9870,16 @@
         <v>8</v>
       </c>
       <c r="J69" s="140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K69" s="137" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L69" s="137" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M69" s="141" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N69" s="142">
         <v>10</v>
@@ -9875,10 +9893,10 @@
         <v>120024863</v>
       </c>
       <c r="C70" s="137" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D70" s="137" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E70" s="138">
         <v>1</v>
@@ -9896,16 +9914,16 @@
         <v>8</v>
       </c>
       <c r="J70" s="140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K70" s="137" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L70" s="137" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M70" s="141" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N70" s="142">
         <v>11</v>
@@ -9919,10 +9937,10 @@
         <v>120027901</v>
       </c>
       <c r="C71" s="137" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D71" s="137" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E71" s="138">
         <v>1</v>
@@ -9940,16 +9958,16 @@
         <v>8</v>
       </c>
       <c r="J71" s="140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K71" s="137" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L71" s="137" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M71" s="141" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N71" s="142">
         <v>12</v>
@@ -9963,10 +9981,10 @@
         <v>120024375</v>
       </c>
       <c r="C72" s="137" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D72" s="137" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E72" s="138">
         <v>1</v>
@@ -9984,16 +10002,16 @@
         <v>8</v>
       </c>
       <c r="J72" s="140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K72" s="137" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L72" s="137" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M72" s="141" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N72" s="142">
         <v>13</v>
@@ -10007,10 +10025,10 @@
         <v>120026573</v>
       </c>
       <c r="C73" s="152" t="s">
+        <v>132</v>
+      </c>
+      <c r="D73" s="153" t="s">
         <v>133</v>
-      </c>
-      <c r="D73" s="153" t="s">
-        <v>134</v>
       </c>
       <c r="E73" s="138">
         <v>1</v>
@@ -10029,16 +10047,16 @@
         <v>5</v>
       </c>
       <c r="J73" s="140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K73" s="137" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L73" s="137" t="s">
+        <v>134</v>
+      </c>
+      <c r="M73" s="137" t="s">
         <v>135</v>
-      </c>
-      <c r="M73" s="137" t="s">
-        <v>136</v>
       </c>
       <c r="N73" s="142">
         <v>1</v>
@@ -10052,10 +10070,10 @@
         <v>120026488</v>
       </c>
       <c r="C74" s="153" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D74" s="153" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E74" s="138">
         <v>1</v>
@@ -10074,16 +10092,16 @@
         <v>5</v>
       </c>
       <c r="J74" s="140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K74" s="137" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L74" s="137" t="s">
+        <v>134</v>
+      </c>
+      <c r="M74" s="137" t="s">
         <v>135</v>
-      </c>
-      <c r="M74" s="137" t="s">
-        <v>136</v>
       </c>
       <c r="N74" s="142">
         <v>2</v>
@@ -10097,10 +10115,10 @@
         <v>32990</v>
       </c>
       <c r="C75" s="153" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D75" s="153" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E75" s="138">
         <v>1</v>
@@ -10119,16 +10137,16 @@
         <v>5</v>
       </c>
       <c r="J75" s="140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K75" s="137" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L75" s="137" t="s">
+        <v>134</v>
+      </c>
+      <c r="M75" s="137" t="s">
         <v>135</v>
-      </c>
-      <c r="M75" s="137" t="s">
-        <v>136</v>
       </c>
       <c r="N75" s="142">
         <v>3</v>
@@ -10142,10 +10160,10 @@
         <v>120026491</v>
       </c>
       <c r="C76" s="153" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D76" s="153" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E76" s="138">
         <v>1</v>
@@ -10164,16 +10182,16 @@
         <v>5</v>
       </c>
       <c r="J76" s="140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K76" s="137" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L76" s="137" t="s">
+        <v>134</v>
+      </c>
+      <c r="M76" s="137" t="s">
         <v>135</v>
-      </c>
-      <c r="M76" s="137" t="s">
-        <v>136</v>
       </c>
       <c r="N76" s="142">
         <v>4</v>
@@ -10187,10 +10205,10 @@
         <v>120026492</v>
       </c>
       <c r="C77" s="153" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D77" s="153" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E77" s="138">
         <v>1</v>
@@ -10209,16 +10227,16 @@
         <v>5</v>
       </c>
       <c r="J77" s="140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K77" s="137" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L77" s="137" t="s">
+        <v>134</v>
+      </c>
+      <c r="M77" s="137" t="s">
         <v>135</v>
-      </c>
-      <c r="M77" s="137" t="s">
-        <v>136</v>
       </c>
       <c r="N77" s="142">
         <v>5</v>
@@ -10232,10 +10250,10 @@
         <v>47722</v>
       </c>
       <c r="C78" s="153" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D78" s="153" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E78" s="138">
         <v>1</v>
@@ -10254,16 +10272,16 @@
         <v>5</v>
       </c>
       <c r="J78" s="140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K78" s="137" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L78" s="137" t="s">
+        <v>134</v>
+      </c>
+      <c r="M78" s="137" t="s">
         <v>135</v>
-      </c>
-      <c r="M78" s="137" t="s">
-        <v>136</v>
       </c>
       <c r="N78" s="142">
         <v>6</v>
@@ -10277,10 +10295,10 @@
         <v>120026489</v>
       </c>
       <c r="C79" s="153" t="s">
+        <v>140</v>
+      </c>
+      <c r="D79" s="153" t="s">
         <v>141</v>
-      </c>
-      <c r="D79" s="153" t="s">
-        <v>142</v>
       </c>
       <c r="E79" s="138">
         <v>1</v>
@@ -10299,16 +10317,16 @@
         <v>5</v>
       </c>
       <c r="J79" s="140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K79" s="137" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L79" s="137" t="s">
+        <v>134</v>
+      </c>
+      <c r="M79" s="137" t="s">
         <v>135</v>
-      </c>
-      <c r="M79" s="137" t="s">
-        <v>136</v>
       </c>
       <c r="N79" s="142">
         <v>7</v>
@@ -10322,10 +10340,10 @@
         <v>120026487</v>
       </c>
       <c r="C80" s="144" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D80" s="144" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E80" s="145">
         <v>1</v>
@@ -10344,16 +10362,16 @@
         <v>5</v>
       </c>
       <c r="J80" s="140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K80" s="137" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L80" s="137" t="s">
+        <v>134</v>
+      </c>
+      <c r="M80" s="137" t="s">
         <v>135</v>
-      </c>
-      <c r="M80" s="137" t="s">
-        <v>136</v>
       </c>
       <c r="N80" s="142">
         <v>8</v>
@@ -10367,10 +10385,10 @@
         <v>120027482</v>
       </c>
       <c r="C81" s="155" t="s">
+        <v>143</v>
+      </c>
+      <c r="D81" s="137" t="s">
         <v>144</v>
-      </c>
-      <c r="D81" s="137" t="s">
-        <v>145</v>
       </c>
       <c r="E81" s="138">
         <v>1</v>
@@ -10388,16 +10406,16 @@
         <v>11</v>
       </c>
       <c r="J81" s="140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K81" s="137" t="s">
+        <v>145</v>
+      </c>
+      <c r="L81" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="L81" s="137" t="s">
+      <c r="M81" s="142" t="s">
         <v>147</v>
-      </c>
-      <c r="M81" s="142" t="s">
-        <v>148</v>
       </c>
       <c r="N81" s="142">
         <v>1</v>
@@ -10411,10 +10429,10 @@
         <v>120030467</v>
       </c>
       <c r="C82" s="155" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D82" s="137" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E82" s="138">
         <v>1</v>
@@ -10432,16 +10450,16 @@
         <v>11</v>
       </c>
       <c r="J82" s="140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K82" s="137" t="s">
+        <v>145</v>
+      </c>
+      <c r="L82" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="L82" s="137" t="s">
+      <c r="M82" s="142" t="s">
         <v>147</v>
-      </c>
-      <c r="M82" s="142" t="s">
-        <v>148</v>
       </c>
       <c r="N82" s="142">
         <v>2</v>
@@ -10455,10 +10473,10 @@
         <v>120027824</v>
       </c>
       <c r="C83" s="155" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D83" s="137" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E83" s="138">
         <v>1</v>
@@ -10477,16 +10495,16 @@
         <v>11</v>
       </c>
       <c r="J83" s="140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K83" s="137" t="s">
+        <v>145</v>
+      </c>
+      <c r="L83" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="L83" s="137" t="s">
+      <c r="M83" s="142" t="s">
         <v>147</v>
-      </c>
-      <c r="M83" s="142" t="s">
-        <v>148</v>
       </c>
       <c r="N83" s="142">
         <v>3</v>
@@ -10500,10 +10518,10 @@
         <v>90005</v>
       </c>
       <c r="C84" s="157" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D84" s="137" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E84" s="138">
         <v>1</v>
@@ -10522,16 +10540,16 @@
         <v>11</v>
       </c>
       <c r="J84" s="140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K84" s="137" t="s">
+        <v>145</v>
+      </c>
+      <c r="L84" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="L84" s="137" t="s">
+      <c r="M84" s="142" t="s">
         <v>147</v>
-      </c>
-      <c r="M84" s="142" t="s">
-        <v>148</v>
       </c>
       <c r="N84" s="142">
         <v>4</v>
@@ -10545,10 +10563,10 @@
         <v>120028904</v>
       </c>
       <c r="C85" s="155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D85" s="137" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E85" s="138">
         <v>1</v>
@@ -10566,16 +10584,16 @@
         <v>11</v>
       </c>
       <c r="J85" s="140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K85" s="137" t="s">
+        <v>145</v>
+      </c>
+      <c r="L85" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="L85" s="137" t="s">
+      <c r="M85" s="142" t="s">
         <v>147</v>
-      </c>
-      <c r="M85" s="142" t="s">
-        <v>148</v>
       </c>
       <c r="N85" s="142">
         <v>5</v>
@@ -10589,10 +10607,10 @@
         <v>120024377</v>
       </c>
       <c r="C86" s="157" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D86" s="137" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E86" s="138">
         <v>1</v>
@@ -10611,16 +10629,16 @@
         <v>11</v>
       </c>
       <c r="J86" s="140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K86" s="137" t="s">
+        <v>145</v>
+      </c>
+      <c r="L86" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="L86" s="137" t="s">
+      <c r="M86" s="142" t="s">
         <v>147</v>
-      </c>
-      <c r="M86" s="142" t="s">
-        <v>148</v>
       </c>
       <c r="N86" s="142">
         <v>6</v>
@@ -10634,10 +10652,10 @@
         <v>120024969</v>
       </c>
       <c r="C87" s="155" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D87" s="137" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E87" s="138">
         <v>1</v>
@@ -10656,16 +10674,16 @@
         <v>11</v>
       </c>
       <c r="J87" s="140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K87" s="137" t="s">
+        <v>145</v>
+      </c>
+      <c r="L87" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="L87" s="137" t="s">
+      <c r="M87" s="142" t="s">
         <v>147</v>
-      </c>
-      <c r="M87" s="142" t="s">
-        <v>148</v>
       </c>
       <c r="N87" s="142">
         <v>7</v>
@@ -10679,10 +10697,10 @@
         <v>120024892</v>
       </c>
       <c r="C88" s="157" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D88" s="137" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E88" s="138">
         <v>1</v>
@@ -10701,16 +10719,16 @@
         <v>11</v>
       </c>
       <c r="J88" s="140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K88" s="137" t="s">
+        <v>145</v>
+      </c>
+      <c r="L88" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="L88" s="137" t="s">
+      <c r="M88" s="142" t="s">
         <v>147</v>
-      </c>
-      <c r="M88" s="142" t="s">
-        <v>148</v>
       </c>
       <c r="N88" s="142">
         <v>8</v>
@@ -10724,10 +10742,10 @@
         <v>99677</v>
       </c>
       <c r="C89" s="140" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D89" s="140" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E89" s="138">
         <v>1</v>
@@ -10745,16 +10763,16 @@
         <v>11</v>
       </c>
       <c r="J89" s="140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K89" s="137" t="s">
+        <v>145</v>
+      </c>
+      <c r="L89" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="L89" s="137" t="s">
+      <c r="M89" s="142" t="s">
         <v>147</v>
-      </c>
-      <c r="M89" s="142" t="s">
-        <v>148</v>
       </c>
       <c r="N89" s="142">
         <v>9</v>
@@ -10768,10 +10786,10 @@
         <v>59421</v>
       </c>
       <c r="C90" s="153" t="s">
+        <v>154</v>
+      </c>
+      <c r="D90" s="153" t="s">
         <v>155</v>
-      </c>
-      <c r="D90" s="153" t="s">
-        <v>156</v>
       </c>
       <c r="E90" s="138">
         <v>1</v>
@@ -10789,16 +10807,16 @@
         <v>12</v>
       </c>
       <c r="J90" s="140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K90" s="137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L90" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="M90" s="141" t="s">
         <v>156</v>
-      </c>
-      <c r="M90" s="141" t="s">
-        <v>157</v>
       </c>
       <c r="N90" s="141">
         <v>1</v>
@@ -10812,10 +10830,10 @@
         <v>82946</v>
       </c>
       <c r="C91" s="153" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D91" s="153" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E91" s="138">
         <v>1</v>
@@ -10833,16 +10851,16 @@
         <v>12</v>
       </c>
       <c r="J91" s="140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K91" s="137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L91" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="M91" s="141" t="s">
         <v>156</v>
-      </c>
-      <c r="M91" s="141" t="s">
-        <v>157</v>
       </c>
       <c r="N91" s="141">
         <v>2</v>
@@ -10856,10 +10874,10 @@
         <v>97324</v>
       </c>
       <c r="C92" s="153" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D92" s="153" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E92" s="138">
         <v>1</v>
@@ -10877,16 +10895,16 @@
         <v>12</v>
       </c>
       <c r="J92" s="140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K92" s="137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L92" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="M92" s="141" t="s">
         <v>156</v>
-      </c>
-      <c r="M92" s="141" t="s">
-        <v>157</v>
       </c>
       <c r="N92" s="141">
         <v>3</v>
@@ -10900,10 +10918,10 @@
         <v>120026634</v>
       </c>
       <c r="C93" s="153" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D93" s="153" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E93" s="138">
         <v>1</v>
@@ -10921,16 +10939,16 @@
         <v>12</v>
       </c>
       <c r="J93" s="140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K93" s="137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L93" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="M93" s="141" t="s">
         <v>156</v>
-      </c>
-      <c r="M93" s="141" t="s">
-        <v>157</v>
       </c>
       <c r="N93" s="141">
         <v>4</v>
@@ -10944,10 +10962,10 @@
         <v>120027080</v>
       </c>
       <c r="C94" s="153" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D94" s="153" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E94" s="138">
         <v>1</v>
@@ -10965,16 +10983,16 @@
         <v>12</v>
       </c>
       <c r="J94" s="140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K94" s="137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L94" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="M94" s="141" t="s">
         <v>156</v>
-      </c>
-      <c r="M94" s="141" t="s">
-        <v>157</v>
       </c>
       <c r="N94" s="141">
         <v>5</v>
@@ -10988,10 +11006,10 @@
         <v>120027441</v>
       </c>
       <c r="C95" s="144" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D95" s="144" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E95" s="145">
         <v>1</v>
@@ -11009,16 +11027,16 @@
         <v>12</v>
       </c>
       <c r="J95" s="140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K95" s="137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L95" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="M95" s="141" t="s">
         <v>156</v>
-      </c>
-      <c r="M95" s="141" t="s">
-        <v>157</v>
       </c>
       <c r="N95" s="141">
         <v>6</v>
@@ -11032,10 +11050,10 @@
         <v>120027806</v>
       </c>
       <c r="C96" s="153" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D96" s="153" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E96" s="138">
         <v>1</v>
@@ -11053,16 +11071,16 @@
         <v>12</v>
       </c>
       <c r="J96" s="140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K96" s="137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L96" s="137" t="s">
+        <v>155</v>
+      </c>
+      <c r="M96" s="141" t="s">
         <v>156</v>
-      </c>
-      <c r="M96" s="141" t="s">
-        <v>157</v>
       </c>
       <c r="N96" s="141">
         <v>7</v>
@@ -11076,10 +11094,10 @@
         <v>120026620</v>
       </c>
       <c r="C97" s="153" t="s">
+        <v>163</v>
+      </c>
+      <c r="D97" s="153" t="s">
         <v>164</v>
-      </c>
-      <c r="D97" s="153" t="s">
-        <v>165</v>
       </c>
       <c r="E97" s="138">
         <v>1</v>
@@ -11097,16 +11115,16 @@
         <v>12</v>
       </c>
       <c r="J97" s="140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K97" s="137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L97" s="137" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M97" s="141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N97" s="141">
         <v>8</v>
@@ -11120,10 +11138,10 @@
         <v>120026626</v>
       </c>
       <c r="C98" s="153" t="s">
+        <v>166</v>
+      </c>
+      <c r="D98" s="153" t="s">
         <v>167</v>
-      </c>
-      <c r="D98" s="153" t="s">
-        <v>168</v>
       </c>
       <c r="E98" s="138">
         <v>1</v>
@@ -11141,16 +11159,16 @@
         <v>12</v>
       </c>
       <c r="J98" s="140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K98" s="137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L98" s="137" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M98" s="141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N98" s="141">
         <v>9</v>
@@ -11164,10 +11182,10 @@
         <v>96078</v>
       </c>
       <c r="C99" s="153" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D99" s="153" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E99" s="138">
         <v>1</v>
@@ -11186,16 +11204,16 @@
         <v>12</v>
       </c>
       <c r="J99" s="140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K99" s="137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L99" s="137" t="s">
+        <v>168</v>
+      </c>
+      <c r="M99" s="141" t="s">
         <v>169</v>
-      </c>
-      <c r="M99" s="141" t="s">
-        <v>170</v>
       </c>
       <c r="N99" s="141">
         <v>1</v>
@@ -11209,10 +11227,10 @@
         <v>120027103</v>
       </c>
       <c r="C100" s="153" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D100" s="153" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E100" s="138">
         <v>1</v>
@@ -11231,16 +11249,16 @@
         <v>12</v>
       </c>
       <c r="J100" s="140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K100" s="137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L100" s="137" t="s">
+        <v>168</v>
+      </c>
+      <c r="M100" s="141" t="s">
         <v>169</v>
-      </c>
-      <c r="M100" s="141" t="s">
-        <v>170</v>
       </c>
       <c r="N100" s="141">
         <v>2</v>
@@ -11254,10 +11272,10 @@
         <v>120027696</v>
       </c>
       <c r="C101" s="153" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D101" s="153" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E101" s="138">
         <v>1</v>
@@ -11276,16 +11294,16 @@
         <v>12</v>
       </c>
       <c r="J101" s="140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K101" s="137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L101" s="137" t="s">
+        <v>168</v>
+      </c>
+      <c r="M101" s="141" t="s">
         <v>169</v>
-      </c>
-      <c r="M101" s="141" t="s">
-        <v>170</v>
       </c>
       <c r="N101" s="141">
         <v>3</v>
@@ -11299,10 +11317,10 @@
         <v>120029269</v>
       </c>
       <c r="C102" s="144" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D102" s="153" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E102" s="138">
         <v>1</v>
@@ -11321,16 +11339,16 @@
         <v>12</v>
       </c>
       <c r="J102" s="140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K102" s="137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L102" s="137" t="s">
+        <v>168</v>
+      </c>
+      <c r="M102" s="141" t="s">
         <v>169</v>
-      </c>
-      <c r="M102" s="141" t="s">
-        <v>170</v>
       </c>
       <c r="N102" s="141">
         <v>4</v>
@@ -11344,10 +11362,10 @@
         <v>120030188</v>
       </c>
       <c r="C103" s="153" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D103" s="153" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E103" s="138">
         <v>1</v>
@@ -11366,16 +11384,16 @@
         <v>12</v>
       </c>
       <c r="J103" s="140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K103" s="137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L103" s="137" t="s">
+        <v>168</v>
+      </c>
+      <c r="M103" s="141" t="s">
         <v>169</v>
-      </c>
-      <c r="M103" s="141" t="s">
-        <v>170</v>
       </c>
       <c r="N103" s="142">
         <v>5</v>
@@ -11389,10 +11407,10 @@
         <v>120030568</v>
       </c>
       <c r="C104" s="137" t="s">
+        <v>170</v>
+      </c>
+      <c r="D104" s="137" t="s">
         <v>171</v>
-      </c>
-      <c r="D104" s="137" t="s">
-        <v>172</v>
       </c>
       <c r="E104" s="138">
         <v>1</v>
@@ -11411,16 +11429,16 @@
         <v>8</v>
       </c>
       <c r="J104" s="140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K104" s="137" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L104" s="137" t="s">
+        <v>171</v>
+      </c>
+      <c r="M104" s="141" t="s">
         <v>172</v>
-      </c>
-      <c r="M104" s="141" t="s">
-        <v>173</v>
       </c>
       <c r="N104" s="141">
         <v>1</v>
@@ -11434,10 +11452,10 @@
         <v>120030573</v>
       </c>
       <c r="C105" s="137" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D105" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E105" s="138">
         <v>1</v>
@@ -11456,16 +11474,16 @@
         <v>8</v>
       </c>
       <c r="J105" s="140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K105" s="137" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L105" s="137" t="s">
+        <v>171</v>
+      </c>
+      <c r="M105" s="141" t="s">
         <v>172</v>
-      </c>
-      <c r="M105" s="141" t="s">
-        <v>173</v>
       </c>
       <c r="N105" s="141">
         <v>2</v>
@@ -11479,10 +11497,10 @@
         <v>120030639</v>
       </c>
       <c r="C106" s="137" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D106" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E106" s="138">
         <v>1</v>
@@ -11501,16 +11519,16 @@
         <v>8</v>
       </c>
       <c r="J106" s="140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K106" s="137" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L106" s="137" t="s">
+        <v>171</v>
+      </c>
+      <c r="M106" s="141" t="s">
         <v>172</v>
-      </c>
-      <c r="M106" s="141" t="s">
-        <v>173</v>
       </c>
       <c r="N106" s="141">
         <v>3</v>
@@ -11524,10 +11542,10 @@
         <v>99802</v>
       </c>
       <c r="C107" s="155" t="s">
+        <v>175</v>
+      </c>
+      <c r="D107" s="137" t="s">
         <v>176</v>
-      </c>
-      <c r="D107" s="137" t="s">
-        <v>177</v>
       </c>
       <c r="E107" s="138">
         <v>1</v>
@@ -11545,16 +11563,16 @@
         <v>11</v>
       </c>
       <c r="J107" s="140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K107" s="137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L107" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="M107" s="141" t="s">
         <v>177</v>
-      </c>
-      <c r="M107" s="141" t="s">
-        <v>178</v>
       </c>
       <c r="N107" s="141">
         <v>1</v>
@@ -11568,10 +11586,10 @@
         <v>120022942</v>
       </c>
       <c r="C108" s="155" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D108" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E108" s="138">
         <v>1</v>
@@ -11589,16 +11607,16 @@
         <v>11</v>
       </c>
       <c r="J108" s="140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K108" s="137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L108" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="M108" s="141" t="s">
         <v>177</v>
-      </c>
-      <c r="M108" s="141" t="s">
-        <v>178</v>
       </c>
       <c r="N108" s="141">
         <v>2</v>
@@ -11612,10 +11630,10 @@
         <v>120027412</v>
       </c>
       <c r="C109" s="155" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D109" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E109" s="138">
         <v>1</v>
@@ -11633,16 +11651,16 @@
         <v>11</v>
       </c>
       <c r="J109" s="140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K109" s="137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L109" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="M109" s="141" t="s">
         <v>177</v>
-      </c>
-      <c r="M109" s="141" t="s">
-        <v>178</v>
       </c>
       <c r="N109" s="141">
         <v>3</v>
@@ -11656,10 +11674,10 @@
         <v>120027481</v>
       </c>
       <c r="C110" s="155" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D110" s="137" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E110" s="138">
         <v>1</v>
@@ -11677,16 +11695,16 @@
         <v>12</v>
       </c>
       <c r="J110" s="140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K110" s="137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L110" s="137" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M110" s="141" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N110" s="141">
         <v>1</v>
@@ -11700,10 +11718,10 @@
         <v>120028362</v>
       </c>
       <c r="C111" s="155" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D111" s="137" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E111" s="138">
         <v>1</v>
@@ -11721,16 +11739,16 @@
         <v>12</v>
       </c>
       <c r="J111" s="140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K111" s="137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L111" s="137" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M111" s="141" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N111" s="141">
         <v>2</v>
@@ -11744,10 +11762,10 @@
         <v>120022957</v>
       </c>
       <c r="C112" s="155" t="s">
+        <v>183</v>
+      </c>
+      <c r="D112" s="137" t="s">
         <v>184</v>
-      </c>
-      <c r="D112" s="137" t="s">
-        <v>185</v>
       </c>
       <c r="E112" s="138">
         <v>1</v>
@@ -11765,16 +11783,16 @@
         <v>12</v>
       </c>
       <c r="J112" s="140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K112" s="137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L112" s="137" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M112" s="141" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N112" s="141">
         <v>1</v>
@@ -11788,10 +11806,10 @@
         <v>120029638</v>
       </c>
       <c r="C113" s="155" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D113" s="155" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E113" s="138">
         <v>1</v>
@@ -11809,16 +11827,16 @@
         <v>12</v>
       </c>
       <c r="J113" s="140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K113" s="137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L113" s="137" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M113" s="141" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N113" s="141">
         <v>2</v>
@@ -11832,10 +11850,10 @@
         <v>92536</v>
       </c>
       <c r="C114" s="144" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D114" s="144" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E114" s="145">
         <v>1</v>
@@ -11853,16 +11871,16 @@
         <v>9</v>
       </c>
       <c r="J114" s="140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K114" s="137" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L114" s="137" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M114" s="141" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N114" s="141">
         <v>1</v>
@@ -11870,58 +11888,58 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B8">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B22">
-    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B26">
-    <cfRule type="duplicateValues" dxfId="11" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B33">
-    <cfRule type="duplicateValues" dxfId="10" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B47">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B52 B54:B59">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B72">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B80">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B89">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B98">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B103">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B106">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107:B114">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11961,58 +11979,58 @@
     <row r="1" spans="2:19" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="164" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="164" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="164" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="164" t="s">
+      <c r="E2" s="164" t="s">
         <v>215</v>
       </c>
-      <c r="E2" s="164" t="s">
+      <c r="F2" s="164" t="s">
         <v>216</v>
       </c>
-      <c r="F2" s="164" t="s">
+      <c r="G2" s="164" t="s">
         <v>217</v>
       </c>
-      <c r="G2" s="164" t="s">
+      <c r="H2" s="164" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="164" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="164" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="164" t="s">
         <v>218</v>
       </c>
-      <c r="H2" s="164" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="164" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="164" t="s">
-        <v>80</v>
-      </c>
-      <c r="K2" s="164" t="s">
+      <c r="L2" s="164" t="s">
         <v>219</v>
       </c>
-      <c r="L2" s="164" t="s">
+      <c r="M2" s="164" t="s">
         <v>220</v>
       </c>
-      <c r="M2" s="164" t="s">
+      <c r="N2" s="164" t="s">
         <v>221</v>
       </c>
-      <c r="N2" s="164" t="s">
+      <c r="O2" s="164" t="s">
         <v>222</v>
       </c>
-      <c r="O2" s="164" t="s">
+      <c r="P2" s="164" t="s">
         <v>223</v>
       </c>
-      <c r="P2" s="164" t="s">
+      <c r="Q2" s="164" t="s">
         <v>224</v>
       </c>
-      <c r="Q2" s="164" t="s">
+      <c r="R2" s="164" t="s">
         <v>225</v>
       </c>
-      <c r="R2" s="164" t="s">
-        <v>226</v>
-      </c>
       <c r="S2" s="164" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -12043,194 +12061,194 @@
         <v>1</v>
       </c>
       <c r="C2" s="160" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="160" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C3" s="160" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="161" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C4" s="160" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="161" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C5" s="160" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="161" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" s="160" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="161" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C7" s="160" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="161" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C8" s="160" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="161" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C9" s="160" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="161" t="s">
         <v>195</v>
-      </c>
-      <c r="D9" s="161" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C10" s="160" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D10" s="161" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C11" s="160" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D11" s="161" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C12" s="160" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D12" s="161" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C13" s="160" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D13" s="161" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C14" s="160" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D14" s="161" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C15" s="160" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D15" s="161" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C16" s="160" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D16" s="161" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="160" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D17" s="161" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="160" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D18" s="161" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="160" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D19" s="161" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="160" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D20" s="161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="160" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D21" s="161" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" s="160" t="s">
+        <v>208</v>
+      </c>
+      <c r="D22" s="161" t="s">
         <v>209</v>
-      </c>
-      <c r="D22" s="161" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" s="160" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D23" s="161" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="160" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D24" s="161" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" s="160" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D25" s="161" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/DomesticTransport/DomesticTransport.xlsx
+++ b/DomesticTransport/DomesticTransport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aevse\Source\repos\DomesticTransport\DomesticTransport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA847FA6-BAC5-4258-8C18-1A659A6CE884}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591BFAD3-C368-40A7-A307-EED403CEC363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="1545" windowWidth="22860" windowHeight="11010" activeTab="1" xr2:uid="{AC776459-6745-4339-B7EA-E0E0F9747FA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AC776459-6745-4339-B7EA-E0E0F9747FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery" sheetId="2" r:id="rId1"/>
@@ -21,9 +21,6 @@
     <sheet name="Отгрузка" sheetId="1" r:id="rId6"/>
     <sheet name="ShippingCompany" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1983,6 +1980,89 @@
   <dxfs count="40">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2230,89 +2310,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2675,25 +2672,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="All Rate sheet FTL"/>
-      <sheetName val="All scenarios MSK, MO FTL"/>
-      <sheetName val="LTL Nur-Sultan_Erevan"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E3245CE-8CB7-440C-8A99-A387ADEE7331}" name="TableCarrier" displayName="TableCarrier" ref="B5:H6" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38">
   <autoFilter ref="B5:H6" xr:uid="{DEB12404-07BD-4FAF-83D7-6873DABB45B9}"/>
@@ -2780,7 +2758,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C0B60422-EB35-4FB4-BF1B-2F6334DAF9A9}" name="TableTotal" displayName="TableTotal" ref="B2:S3" insertRow="1" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" headerRowCellStyle="Акцент6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C0B60422-EB35-4FB4-BF1B-2F6334DAF9A9}" name="TableTotal" displayName="TableTotal" ref="B2:S3" insertRow="1" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" headerRowCellStyle="Акцент6">
   <autoFilter ref="B2:S3" xr:uid="{6A8CAFF1-DE87-467A-9C9F-EAC45DD35AAA}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{6C78F3B1-C5C6-4E9B-B8B0-E04671622CA4}" name="ID перевозчика"/>
@@ -2811,8 +2789,8 @@
   <autoFilter ref="B2:D25" xr:uid="{DE4A6499-25FE-4A0E-AE62-0DABB7DFBF79}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{29A63BC4-2872-4EA4-B075-ED195D9BE031}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{FF7F5D4D-C144-4DC0-AEA8-3808900FD64A}" name="Компания" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{A6517B15-FFF0-4130-831C-781935AA2468}" name="Получатель письма" dataDxfId="25" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="2" xr3:uid="{FF7F5D4D-C144-4DC0-AEA8-3808900FD64A}" name="Компания" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{A6517B15-FFF0-4130-831C-781935AA2468}" name="Получатель письма" dataDxfId="0" dataCellStyle="Гиперссылка"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3233,7 +3211,7 @@
   <dimension ref="A1:J542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3351,7 +3329,7 @@
         <v>1000</v>
       </c>
       <c r="J5">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>4400</v>
       </c>
     </row>
@@ -3384,7 +3362,7 @@
         <v>1000</v>
       </c>
       <c r="J6">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>4360</v>
       </c>
     </row>
@@ -3417,7 +3395,7 @@
         <v>1000</v>
       </c>
       <c r="J7">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>4800</v>
       </c>
     </row>
@@ -3450,7 +3428,7 @@
         <v>1000</v>
       </c>
       <c r="J8">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>5100</v>
       </c>
     </row>
@@ -3483,7 +3461,7 @@
         <v>1000</v>
       </c>
       <c r="J9">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>4465</v>
       </c>
     </row>
@@ -3516,7 +3494,7 @@
         <v>1000</v>
       </c>
       <c r="J10">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>5700</v>
       </c>
     </row>
@@ -3549,7 +3527,7 @@
         <v>1000</v>
       </c>
       <c r="J11">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>6000</v>
       </c>
     </row>
@@ -3582,7 +3560,7 @@
         <v>1000</v>
       </c>
       <c r="J12">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>5752</v>
       </c>
     </row>
@@ -3615,7 +3593,7 @@
         <v>1000</v>
       </c>
       <c r="J13">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>8500</v>
       </c>
     </row>
@@ -3648,7 +3626,7 @@
         <v>1000</v>
       </c>
       <c r="J14">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>8800</v>
       </c>
     </row>
@@ -3681,7 +3659,7 @@
         <v>1000</v>
       </c>
       <c r="J15">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>8414</v>
       </c>
     </row>
@@ -3714,7 +3692,7 @@
         <v>1850</v>
       </c>
       <c r="J16">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>10250</v>
       </c>
     </row>
@@ -3747,7 +3725,7 @@
         <v>2000</v>
       </c>
       <c r="J17">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>10700</v>
       </c>
     </row>
@@ -3780,7 +3758,7 @@
         <v>1000</v>
       </c>
       <c r="J18">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>9269</v>
       </c>
     </row>
@@ -3813,7 +3791,7 @@
         <v>1350</v>
       </c>
       <c r="J19">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>5350</v>
       </c>
     </row>
@@ -3846,7 +3824,7 @@
         <v>1500</v>
       </c>
       <c r="J20">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>5800</v>
       </c>
     </row>
@@ -3879,7 +3857,7 @@
         <v>1500</v>
       </c>
       <c r="J21">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>5628</v>
       </c>
     </row>
@@ -3912,7 +3890,7 @@
         <v>1350</v>
       </c>
       <c r="J22">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>6250</v>
       </c>
     </row>
@@ -3945,7 +3923,7 @@
         <v>1500</v>
       </c>
       <c r="J23">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>6700</v>
       </c>
     </row>
@@ -3978,7 +3956,7 @@
         <v>1500</v>
       </c>
       <c r="J24">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>5757</v>
       </c>
     </row>
@@ -4011,7 +3989,7 @@
         <v>1350</v>
       </c>
       <c r="J25">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>7150</v>
       </c>
     </row>
@@ -4044,7 +4022,7 @@
         <v>1500</v>
       </c>
       <c r="J26">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>7500</v>
       </c>
     </row>
@@ -4077,7 +4055,7 @@
         <v>1500</v>
       </c>
       <c r="J27">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>7203</v>
       </c>
     </row>
@@ -4110,7 +4088,7 @@
         <v>1350</v>
       </c>
       <c r="J28">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>10550</v>
       </c>
     </row>
@@ -4143,7 +4121,7 @@
         <v>1500</v>
       </c>
       <c r="J29">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>11043</v>
       </c>
     </row>
@@ -4176,7 +4154,7 @@
         <v>1500</v>
       </c>
       <c r="J30">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>10690</v>
       </c>
     </row>
@@ -4209,7 +4187,7 @@
         <v>1400</v>
       </c>
       <c r="J31">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>11500</v>
       </c>
     </row>
@@ -4242,7 +4220,7 @@
         <v>2000</v>
       </c>
       <c r="J32">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>12493</v>
       </c>
     </row>
@@ -4275,7 +4253,7 @@
         <v>1500</v>
       </c>
       <c r="J33">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>11498</v>
       </c>
     </row>
@@ -4308,7 +4286,7 @@
         <v>1350</v>
       </c>
       <c r="J34">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>7550</v>
       </c>
     </row>
@@ -4341,7 +4319,7 @@
         <v>1800</v>
       </c>
       <c r="J35">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>9000</v>
       </c>
     </row>
@@ -4374,7 +4352,7 @@
         <v>1500</v>
       </c>
       <c r="J36">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>8000</v>
       </c>
     </row>
@@ -4407,7 +4385,7 @@
         <v>1350</v>
       </c>
       <c r="J37">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>9050</v>
       </c>
     </row>
@@ -4440,7 +4418,7 @@
         <v>1800</v>
       </c>
       <c r="J38">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>11000</v>
       </c>
     </row>
@@ -4473,7 +4451,7 @@
         <v>1500</v>
       </c>
       <c r="J39">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>9500</v>
       </c>
     </row>
@@ -4506,7 +4484,7 @@
         <v>1350</v>
       </c>
       <c r="J40">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>10550</v>
       </c>
     </row>
@@ -4539,7 +4517,7 @@
         <v>1800</v>
       </c>
       <c r="J41">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>12600</v>
       </c>
     </row>
@@ -4572,7 +4550,7 @@
         <v>1500</v>
       </c>
       <c r="J42">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>11000</v>
       </c>
     </row>
@@ -4605,7 +4583,7 @@
         <v>1350</v>
       </c>
       <c r="J43">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>11550</v>
       </c>
     </row>
@@ -4638,7 +4616,7 @@
         <v>1800</v>
       </c>
       <c r="J44">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>13700</v>
       </c>
     </row>
@@ -4671,7 +4649,7 @@
         <v>1500</v>
       </c>
       <c r="J45">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>12000</v>
       </c>
     </row>
@@ -4704,7 +4682,7 @@
         <v>1350</v>
       </c>
       <c r="J46">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>13450</v>
       </c>
     </row>
@@ -4737,7 +4715,7 @@
         <v>1800</v>
       </c>
       <c r="J47">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>15700</v>
       </c>
     </row>
@@ -4770,7 +4748,7 @@
         <v>1500</v>
       </c>
       <c r="J48">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>14000</v>
       </c>
     </row>
@@ -4803,7 +4781,7 @@
         <v>1700</v>
       </c>
       <c r="J49">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>14200</v>
       </c>
     </row>
@@ -4836,7 +4814,7 @@
         <v>1800</v>
       </c>
       <c r="J50">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>16300</v>
       </c>
     </row>
@@ -4869,7 +4847,7 @@
         <v>2100</v>
       </c>
       <c r="J51">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>16555</v>
       </c>
     </row>
@@ -4902,7 +4880,7 @@
         <v>1700</v>
       </c>
       <c r="J52">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>16400</v>
       </c>
     </row>
@@ -4935,7 +4913,7 @@
         <v>1800</v>
       </c>
       <c r="J53">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>18300</v>
       </c>
     </row>
@@ -4968,7 +4946,7 @@
         <v>2100</v>
       </c>
       <c r="J54">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>16700</v>
       </c>
     </row>
@@ -5001,7 +4979,7 @@
         <v>1700</v>
       </c>
       <c r="J55">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>18700</v>
       </c>
     </row>
@@ -5034,7 +5012,7 @@
         <v>1800</v>
       </c>
       <c r="J56">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>19800</v>
       </c>
     </row>
@@ -5067,7 +5045,7 @@
         <v>2100</v>
       </c>
       <c r="J57">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>22496</v>
       </c>
     </row>
@@ -5100,7 +5078,7 @@
         <v>1700</v>
       </c>
       <c r="J58">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>23700</v>
       </c>
     </row>
@@ -5133,7 +5111,7 @@
         <v>1800</v>
       </c>
       <c r="J59">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>23800</v>
       </c>
     </row>
@@ -5166,7 +5144,7 @@
         <v>2100</v>
       </c>
       <c r="J60">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>27436</v>
       </c>
     </row>
@@ -5199,7 +5177,7 @@
         <v>1700</v>
       </c>
       <c r="J61">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>25000</v>
       </c>
     </row>
@@ -5232,7 +5210,7 @@
         <v>1800</v>
       </c>
       <c r="J62">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>28300</v>
       </c>
     </row>
@@ -5265,7 +5243,7 @@
         <v>2100</v>
       </c>
       <c r="J63">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>28773</v>
       </c>
     </row>
@@ -5298,7 +5276,7 @@
         <v>1700</v>
       </c>
       <c r="J64">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>13400</v>
       </c>
     </row>
@@ -5331,7 +5309,7 @@
         <v>1800</v>
       </c>
       <c r="J65">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>13800</v>
       </c>
     </row>
@@ -5364,7 +5342,7 @@
         <v>2100</v>
       </c>
       <c r="J66">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>16753</v>
       </c>
     </row>
@@ -5397,7 +5375,7 @@
         <v>1700</v>
       </c>
       <c r="J67">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>15450</v>
       </c>
     </row>
@@ -5430,7 +5408,7 @@
         <v>1800</v>
       </c>
       <c r="J68">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>15800</v>
       </c>
     </row>
@@ -5463,7 +5441,7 @@
         <v>2100</v>
       </c>
       <c r="J69">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>16900</v>
       </c>
     </row>
@@ -5496,7 +5474,7 @@
         <v>1700</v>
       </c>
       <c r="J70">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>17400</v>
       </c>
     </row>
@@ -5529,7 +5507,7 @@
         <v>1800</v>
       </c>
       <c r="J71">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>17800</v>
       </c>
     </row>
@@ -5562,7 +5540,7 @@
         <v>2100</v>
       </c>
       <c r="J72">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>19823</v>
       </c>
     </row>
@@ -5595,7 +5573,7 @@
         <v>1700</v>
       </c>
       <c r="J73">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>21300</v>
       </c>
     </row>
@@ -5628,7 +5606,7 @@
         <v>1800</v>
       </c>
       <c r="J74">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>20800</v>
       </c>
     </row>
@@ -5661,7 +5639,7 @@
         <v>2100</v>
       </c>
       <c r="J75">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>22858</v>
       </c>
     </row>
@@ -5694,7 +5672,7 @@
         <v>1700</v>
       </c>
       <c r="J76">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>24700</v>
       </c>
     </row>
@@ -5727,7 +5705,7 @@
         <v>1800</v>
       </c>
       <c r="J77">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>22800</v>
       </c>
     </row>
@@ -5760,7 +5738,7 @@
         <v>2100</v>
       </c>
       <c r="J78">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>26274</v>
       </c>
     </row>
@@ -5793,7 +5771,7 @@
         <v>1700</v>
       </c>
       <c r="J79">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>24700</v>
       </c>
     </row>
@@ -5826,7 +5804,7 @@
         <v>1800</v>
       </c>
       <c r="J80">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>26800</v>
       </c>
     </row>
@@ -5859,7 +5837,7 @@
         <v>2100</v>
       </c>
       <c r="J81">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>33189</v>
       </c>
     </row>
@@ -5892,7 +5870,7 @@
         <v>1700</v>
       </c>
       <c r="J82">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>27700</v>
       </c>
     </row>
@@ -5925,7 +5903,7 @@
         <v>1800</v>
       </c>
       <c r="J83">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>31800</v>
       </c>
     </row>
@@ -5958,7 +5936,7 @@
         <v>2100</v>
       </c>
       <c r="J84">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>33500</v>
       </c>
     </row>
@@ -5991,7 +5969,7 @@
         <v>1700</v>
       </c>
       <c r="J85">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>34700</v>
       </c>
     </row>
@@ -6024,7 +6002,7 @@
         <v>1800</v>
       </c>
       <c r="J86">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>36800</v>
       </c>
     </row>
@@ -6057,7 +6035,7 @@
         <v>2100</v>
       </c>
       <c r="J87">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>42397</v>
       </c>
     </row>
@@ -6090,7 +6068,7 @@
         <v>1700</v>
       </c>
       <c r="J88">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>45200</v>
       </c>
     </row>
@@ -6123,7 +6101,7 @@
         <v>1800</v>
       </c>
       <c r="J89">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>46800</v>
       </c>
     </row>
@@ -6156,7 +6134,7 @@
         <v>2100</v>
       </c>
       <c r="J90">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>48168</v>
       </c>
     </row>
@@ -6189,7 +6167,7 @@
         <v>1700</v>
       </c>
       <c r="J91">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>53700</v>
       </c>
     </row>
@@ -6222,7 +6200,7 @@
         <v>1800</v>
       </c>
       <c r="J92">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>56800</v>
       </c>
     </row>
@@ -6255,7 +6233,7 @@
         <v>2100</v>
       </c>
       <c r="J93">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>54604</v>
       </c>
     </row>
@@ -6288,7 +6266,7 @@
         <v>1700</v>
       </c>
       <c r="J94">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>15450</v>
       </c>
     </row>
@@ -6321,7 +6299,7 @@
         <v>1800</v>
       </c>
       <c r="J95">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>15800</v>
       </c>
     </row>
@@ -6354,7 +6332,7 @@
         <v>2100</v>
       </c>
       <c r="J96">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>23090</v>
       </c>
     </row>
@@ -6387,7 +6365,7 @@
         <v>1700</v>
       </c>
       <c r="J97">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>17900</v>
       </c>
     </row>
@@ -6420,7 +6398,7 @@
         <v>1800</v>
       </c>
       <c r="J98">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>17800</v>
       </c>
     </row>
@@ -6453,7 +6431,7 @@
         <v>2100</v>
       </c>
       <c r="J99">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>23300</v>
       </c>
     </row>
@@ -6486,7 +6464,7 @@
         <v>1700</v>
       </c>
       <c r="J100">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>20350</v>
       </c>
     </row>
@@ -6519,7 +6497,7 @@
         <v>1800</v>
       </c>
       <c r="J101">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>19800</v>
       </c>
     </row>
@@ -6552,7 +6530,7 @@
         <v>2100</v>
       </c>
       <c r="J102">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>27249</v>
       </c>
     </row>
@@ -6585,7 +6563,7 @@
         <v>1700</v>
       </c>
       <c r="J103">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>22300</v>
       </c>
     </row>
@@ -6618,7 +6596,7 @@
         <v>1800</v>
       </c>
       <c r="J104">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>22800</v>
       </c>
     </row>
@@ -6651,7 +6629,7 @@
         <v>2100</v>
       </c>
       <c r="J105">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>31289</v>
       </c>
     </row>
@@ -6684,7 +6662,7 @@
         <v>1700</v>
       </c>
       <c r="J106">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>25700</v>
       </c>
     </row>
@@ -6717,7 +6695,7 @@
         <v>1800</v>
       </c>
       <c r="J107">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>26800</v>
       </c>
     </row>
@@ -6750,7 +6728,7 @@
         <v>2100</v>
       </c>
       <c r="J108">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>36338</v>
       </c>
     </row>
@@ -6783,7 +6761,7 @@
         <v>1700</v>
       </c>
       <c r="J109">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>12500</v>
       </c>
     </row>
@@ -6816,7 +6794,7 @@
         <v>1800</v>
       </c>
       <c r="J110">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>14800</v>
       </c>
     </row>
@@ -6849,7 +6827,7 @@
         <v>2100</v>
       </c>
       <c r="J111">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>16110</v>
       </c>
     </row>
@@ -6882,7 +6860,7 @@
         <v>1700</v>
       </c>
       <c r="J112">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>15450</v>
       </c>
     </row>
@@ -6915,7 +6893,7 @@
         <v>1800</v>
       </c>
       <c r="J113">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>15800</v>
       </c>
     </row>
@@ -6948,7 +6926,7 @@
         <v>2100</v>
       </c>
       <c r="J114">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>16250</v>
       </c>
     </row>
@@ -6981,7 +6959,7 @@
         <v>1700</v>
       </c>
       <c r="J115">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>17400</v>
       </c>
     </row>
@@ -7014,7 +6992,7 @@
         <v>1800</v>
       </c>
       <c r="J116">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>16800</v>
       </c>
     </row>
@@ -7047,7 +7025,7 @@
         <v>2100</v>
       </c>
       <c r="J117">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>22397</v>
       </c>
     </row>
@@ -7080,7 +7058,7 @@
         <v>1700</v>
       </c>
       <c r="J118">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>21300</v>
       </c>
     </row>
@@ -7113,7 +7091,7 @@
         <v>1800</v>
       </c>
       <c r="J119">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>18800</v>
       </c>
     </row>
@@ -7146,7 +7124,7 @@
         <v>2100</v>
       </c>
       <c r="J120">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>26096</v>
       </c>
     </row>
@@ -7179,7 +7157,7 @@
         <v>1700</v>
       </c>
       <c r="J121">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>23700</v>
       </c>
     </row>
@@ -7212,7 +7190,7 @@
         <v>1800</v>
       </c>
       <c r="J122">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>20800</v>
       </c>
     </row>
@@ -7245,7 +7223,7 @@
         <v>2100</v>
       </c>
       <c r="J123">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>30997</v>
       </c>
     </row>
@@ -7278,7 +7256,7 @@
         <v>1700</v>
       </c>
       <c r="J124">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>14700</v>
       </c>
     </row>
@@ -7311,7 +7289,7 @@
         <v>1800</v>
       </c>
       <c r="J125">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>17800</v>
       </c>
     </row>
@@ -7344,7 +7322,7 @@
         <v>2100</v>
       </c>
       <c r="J126">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>20318</v>
       </c>
     </row>
@@ -7377,7 +7355,7 @@
         <v>1700</v>
       </c>
       <c r="J127">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>16700</v>
       </c>
     </row>
@@ -7410,7 +7388,7 @@
         <v>1800</v>
       </c>
       <c r="J128">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>19800</v>
       </c>
     </row>
@@ -7443,7 +7421,7 @@
         <v>2100</v>
       </c>
       <c r="J129">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>20500</v>
       </c>
     </row>
@@ -7476,7 +7454,7 @@
         <v>1700</v>
       </c>
       <c r="J130">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>19200</v>
       </c>
     </row>
@@ -7509,7 +7487,7 @@
         <v>1800</v>
       </c>
       <c r="J131">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>21800</v>
       </c>
     </row>
@@ -7542,7 +7520,7 @@
         <v>2100</v>
       </c>
       <c r="J132">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>23783</v>
       </c>
     </row>
@@ -7575,7 +7553,7 @@
         <v>1700</v>
       </c>
       <c r="J133">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>22200</v>
       </c>
     </row>
@@ -7608,7 +7586,7 @@
         <v>1800</v>
       </c>
       <c r="J134">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>25800</v>
       </c>
     </row>
@@ -7641,7 +7619,7 @@
         <v>2100</v>
       </c>
       <c r="J135">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>26280</v>
       </c>
     </row>
@@ -7674,7 +7652,7 @@
         <v>1700</v>
       </c>
       <c r="J136">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>25700</v>
       </c>
     </row>
@@ -7707,7 +7685,7 @@
         <v>1800</v>
       </c>
       <c r="J137">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>29300</v>
       </c>
     </row>
@@ -7740,7 +7718,7 @@
         <v>2100</v>
       </c>
       <c r="J138">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>28805</v>
       </c>
     </row>
@@ -7773,7 +7751,7 @@
         <v>1700</v>
       </c>
       <c r="J139">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>24700</v>
       </c>
     </row>
@@ -7806,7 +7784,7 @@
         <v>1800</v>
       </c>
       <c r="J140">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>26800</v>
       </c>
     </row>
@@ -7839,7 +7817,7 @@
         <v>2100</v>
       </c>
       <c r="J141">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>34080</v>
       </c>
     </row>
@@ -7872,7 +7850,7 @@
         <v>1700</v>
       </c>
       <c r="J142">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>27700</v>
       </c>
     </row>
@@ -7905,7 +7883,7 @@
         <v>1800</v>
       </c>
       <c r="J143">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>31800</v>
       </c>
     </row>
@@ -7938,7 +7916,7 @@
         <v>2100</v>
       </c>
       <c r="J144">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>34400</v>
       </c>
     </row>
@@ -7971,7 +7949,7 @@
         <v>1700</v>
       </c>
       <c r="J145">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>34700</v>
       </c>
     </row>
@@ -8004,7 +7982,7 @@
         <v>1800</v>
       </c>
       <c r="J146">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>36800</v>
       </c>
     </row>
@@ -8037,7 +8015,7 @@
         <v>2100</v>
       </c>
       <c r="J147">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>44179</v>
       </c>
     </row>
@@ -8070,7 +8048,7 @@
         <v>1700</v>
       </c>
       <c r="J148">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>45200</v>
       </c>
     </row>
@@ -8103,7 +8081,7 @@
         <v>1800</v>
       </c>
       <c r="J149">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>46800</v>
       </c>
     </row>
@@ -8136,7 +8114,7 @@
         <v>2100</v>
       </c>
       <c r="J150">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>49099</v>
       </c>
     </row>
@@ -8169,7 +8147,7 @@
         <v>1700</v>
       </c>
       <c r="J151">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>53700</v>
       </c>
     </row>
@@ -8202,7 +8180,7 @@
         <v>1800</v>
       </c>
       <c r="J152">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>56800</v>
       </c>
     </row>
@@ -8235,7 +8213,7 @@
         <v>2100</v>
       </c>
       <c r="J153">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>53901</v>
       </c>
     </row>
@@ -8268,7 +8246,7 @@
         <v>1700</v>
       </c>
       <c r="J154">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>30650</v>
       </c>
     </row>
@@ -8301,7 +8279,7 @@
         <v>1800</v>
       </c>
       <c r="J155">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>39800</v>
       </c>
     </row>
@@ -8334,7 +8312,7 @@
         <v>2100</v>
       </c>
       <c r="J156">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>47843</v>
       </c>
     </row>
@@ -8367,7 +8345,7 @@
         <v>1700</v>
       </c>
       <c r="J157">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>35050</v>
       </c>
     </row>
@@ -8400,7 +8378,7 @@
         <v>1800</v>
       </c>
       <c r="J158">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>43800</v>
       </c>
     </row>
@@ -8433,7 +8411,7 @@
         <v>2100</v>
       </c>
       <c r="J159">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>48300</v>
       </c>
     </row>
@@ -8466,7 +8444,7 @@
         <v>1700</v>
       </c>
       <c r="J160">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>39450</v>
       </c>
     </row>
@@ -8499,7 +8477,7 @@
         <v>1800</v>
       </c>
       <c r="J161">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>49800</v>
       </c>
     </row>
@@ -8532,7 +8510,7 @@
         <v>2100</v>
       </c>
       <c r="J162">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>56951</v>
       </c>
     </row>
@@ -8565,7 +8543,7 @@
         <v>1700</v>
       </c>
       <c r="J163">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>48250</v>
       </c>
     </row>
@@ -8598,7 +8576,7 @@
         <v>1800</v>
       </c>
       <c r="J164">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>57800</v>
       </c>
     </row>
@@ -8631,7 +8609,7 @@
         <v>2100</v>
       </c>
       <c r="J165">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>63986</v>
       </c>
     </row>
@@ -8664,7 +8642,7 @@
         <v>1700</v>
       </c>
       <c r="J166">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>57700</v>
       </c>
     </row>
@@ -8697,7 +8675,7 @@
         <v>1800</v>
       </c>
       <c r="J167">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>66800</v>
       </c>
     </row>
@@ -8730,7 +8708,7 @@
         <v>2100</v>
       </c>
       <c r="J168">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>66511</v>
       </c>
     </row>
@@ -8763,7 +8741,7 @@
         <v>1700</v>
       </c>
       <c r="J169">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>36000</v>
       </c>
     </row>
@@ -8796,7 +8774,7 @@
         <v>1800</v>
       </c>
       <c r="J170">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>39800</v>
       </c>
     </row>
@@ -8829,7 +8807,7 @@
         <v>2100</v>
       </c>
       <c r="J171">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>56951</v>
       </c>
     </row>
@@ -8862,7 +8840,7 @@
         <v>1700</v>
       </c>
       <c r="J172">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>42900</v>
       </c>
     </row>
@@ -8895,7 +8873,7 @@
         <v>1800</v>
       </c>
       <c r="J173">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>43800</v>
       </c>
     </row>
@@ -8928,7 +8906,7 @@
         <v>2100</v>
       </c>
       <c r="J174">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>57500</v>
       </c>
     </row>
@@ -8961,7 +8939,7 @@
         <v>1700</v>
       </c>
       <c r="J175">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>46800</v>
       </c>
     </row>
@@ -8994,7 +8972,7 @@
         <v>1800</v>
       </c>
       <c r="J176">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>49800</v>
       </c>
     </row>
@@ -9027,7 +9005,7 @@
         <v>2100</v>
       </c>
       <c r="J177">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>65169</v>
       </c>
     </row>
@@ -9060,7 +9038,7 @@
         <v>1700</v>
       </c>
       <c r="J178">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>58550</v>
       </c>
     </row>
@@ -9093,7 +9071,7 @@
         <v>1800</v>
       </c>
       <c r="J179">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>57800</v>
       </c>
     </row>
@@ -9126,7 +9104,7 @@
         <v>2100</v>
       </c>
       <c r="J180">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>72465</v>
       </c>
     </row>
@@ -9159,7 +9137,7 @@
         <v>1700</v>
       </c>
       <c r="J181">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>67200</v>
       </c>
     </row>
@@ -9192,7 +9170,7 @@
         <v>1800</v>
       </c>
       <c r="J182">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>66800</v>
       </c>
     </row>
@@ -9225,7 +9203,7 @@
         <v>2100</v>
       </c>
       <c r="J183">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>77267</v>
       </c>
     </row>
@@ -9258,7 +9236,7 @@
         <v>1700</v>
       </c>
       <c r="J184">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>13700</v>
       </c>
     </row>
@@ -9291,7 +9269,7 @@
         <v>1800</v>
       </c>
       <c r="J185">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>13300</v>
       </c>
     </row>
@@ -9324,7 +9302,7 @@
         <v>2100</v>
       </c>
       <c r="J186">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>16110</v>
       </c>
     </row>
@@ -9357,7 +9335,7 @@
         <v>1700</v>
       </c>
       <c r="J187">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>15700</v>
       </c>
     </row>
@@ -9390,7 +9368,7 @@
         <v>1800</v>
       </c>
       <c r="J188">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>15300</v>
       </c>
     </row>
@@ -9423,7 +9401,7 @@
         <v>2100</v>
       </c>
       <c r="J189">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>16250</v>
       </c>
     </row>
@@ -9456,7 +9434,7 @@
         <v>1700</v>
       </c>
       <c r="J190">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>17700</v>
       </c>
     </row>
@@ -9489,7 +9467,7 @@
         <v>1800</v>
       </c>
       <c r="J191">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>19800</v>
       </c>
     </row>
@@ -9522,7 +9500,7 @@
         <v>2100</v>
       </c>
       <c r="J192">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>20714</v>
       </c>
     </row>
@@ -9555,7 +9533,7 @@
         <v>1700</v>
       </c>
       <c r="J193">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>21700</v>
       </c>
     </row>
@@ -9588,7 +9566,7 @@
         <v>1800</v>
       </c>
       <c r="J194">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>22800</v>
       </c>
     </row>
@@ -9621,7 +9599,7 @@
         <v>2100</v>
       </c>
       <c r="J195">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>24038</v>
       </c>
     </row>
@@ -9654,7 +9632,7 @@
         <v>1700</v>
       </c>
       <c r="J196">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>26200</v>
       </c>
     </row>
@@ -9687,7 +9665,7 @@
         <v>1800</v>
       </c>
       <c r="J197">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>25800</v>
       </c>
     </row>
@@ -9720,7 +9698,7 @@
         <v>2100</v>
       </c>
       <c r="J198">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>27355</v>
       </c>
     </row>
@@ -9753,7 +9731,7 @@
         <v>1700</v>
       </c>
       <c r="J199">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>22700</v>
       </c>
     </row>
@@ -9786,7 +9764,7 @@
         <v>1800</v>
       </c>
       <c r="J200">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>24800</v>
       </c>
     </row>
@@ -9819,7 +9797,7 @@
         <v>2100</v>
       </c>
       <c r="J201">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>30714</v>
       </c>
     </row>
@@ -9852,7 +9830,7 @@
         <v>1700</v>
       </c>
       <c r="J202">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>25700</v>
       </c>
     </row>
@@ -9885,7 +9863,7 @@
         <v>1800</v>
       </c>
       <c r="J203">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>27800</v>
       </c>
     </row>
@@ -9918,7 +9896,7 @@
         <v>2100</v>
       </c>
       <c r="J204">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>31000</v>
       </c>
     </row>
@@ -9951,7 +9929,7 @@
         <v>1700</v>
       </c>
       <c r="J205">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>30200</v>
       </c>
     </row>
@@ -9984,7 +9962,7 @@
         <v>1800</v>
       </c>
       <c r="J206">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>32800</v>
       </c>
     </row>
@@ -10017,7 +9995,7 @@
         <v>2100</v>
       </c>
       <c r="J207">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>38635</v>
       </c>
     </row>
@@ -10050,7 +10028,7 @@
         <v>1700</v>
       </c>
       <c r="J208">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>41700</v>
       </c>
     </row>
@@ -10083,7 +10061,7 @@
         <v>1800</v>
       </c>
       <c r="J209">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>38800</v>
       </c>
     </row>
@@ -10116,7 +10094,7 @@
         <v>2100</v>
       </c>
       <c r="J210">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>44521</v>
       </c>
     </row>
@@ -10149,7 +10127,7 @@
         <v>1700</v>
       </c>
       <c r="J211">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>47700</v>
       </c>
     </row>
@@ -10182,7 +10160,7 @@
         <v>1800</v>
       </c>
       <c r="J212">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>51800</v>
       </c>
     </row>
@@ -10215,7 +10193,7 @@
         <v>2100</v>
       </c>
       <c r="J213">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>49323</v>
       </c>
     </row>
@@ -10248,7 +10226,7 @@
         <v>1700</v>
       </c>
       <c r="J214">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>25250</v>
       </c>
     </row>
@@ -10281,7 +10259,7 @@
         <v>1800</v>
       </c>
       <c r="J215">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>28800</v>
       </c>
     </row>
@@ -10314,7 +10292,7 @@
         <v>2100</v>
       </c>
       <c r="J216">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>33981</v>
       </c>
     </row>
@@ -10347,7 +10325,7 @@
         <v>1700</v>
       </c>
       <c r="J217">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>31100</v>
       </c>
     </row>
@@ -10380,7 +10358,7 @@
         <v>1800</v>
       </c>
       <c r="J218">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>32800</v>
       </c>
     </row>
@@ -10413,7 +10391,7 @@
         <v>2100</v>
       </c>
       <c r="J219">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>34300</v>
       </c>
     </row>
@@ -10446,7 +10424,7 @@
         <v>1700</v>
       </c>
       <c r="J220">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>35050</v>
       </c>
     </row>
@@ -10479,7 +10457,7 @@
         <v>1800</v>
       </c>
       <c r="J221">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>38300</v>
       </c>
     </row>
@@ -10512,7 +10490,7 @@
         <v>2100</v>
       </c>
       <c r="J222">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>45466</v>
       </c>
     </row>
@@ -10545,7 +10523,7 @@
         <v>1700</v>
       </c>
       <c r="J223">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>46300</v>
       </c>
     </row>
@@ -10578,7 +10556,7 @@
         <v>1800</v>
       </c>
       <c r="J224">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>46800</v>
       </c>
     </row>
@@ -10611,7 +10589,7 @@
         <v>2100</v>
       </c>
       <c r="J225">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>51152</v>
       </c>
     </row>
@@ -10644,7 +10622,7 @@
         <v>1700</v>
       </c>
       <c r="J226">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>53700</v>
       </c>
     </row>
@@ -10677,7 +10655,7 @@
         <v>1800</v>
       </c>
       <c r="J227">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>56800</v>
       </c>
     </row>
@@ -10710,7 +10688,7 @@
         <v>2100</v>
       </c>
       <c r="J228">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>56746</v>
       </c>
     </row>
@@ -10743,7 +10721,7 @@
         <v>1700</v>
       </c>
       <c r="J229">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>25200</v>
       </c>
     </row>
@@ -10776,7 +10754,7 @@
         <v>1800</v>
       </c>
       <c r="J230">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>28800</v>
       </c>
     </row>
@@ -10809,7 +10787,7 @@
         <v>2100</v>
       </c>
       <c r="J231">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>34031</v>
       </c>
     </row>
@@ -10842,7 +10820,7 @@
         <v>1700</v>
       </c>
       <c r="J232">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>31200</v>
       </c>
     </row>
@@ -10875,7 +10853,7 @@
         <v>1800</v>
       </c>
       <c r="J233">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>33800</v>
       </c>
     </row>
@@ -10908,7 +10886,7 @@
         <v>2100</v>
       </c>
       <c r="J234">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>34350</v>
       </c>
     </row>
@@ -10941,7 +10919,7 @@
         <v>1700</v>
       </c>
       <c r="J235">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>34700</v>
       </c>
     </row>
@@ -10974,7 +10952,7 @@
         <v>1800</v>
       </c>
       <c r="J236">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>37800</v>
       </c>
     </row>
@@ -11007,7 +10985,7 @@
         <v>2100</v>
       </c>
       <c r="J237">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>43833</v>
       </c>
     </row>
@@ -11040,7 +11018,7 @@
         <v>1700</v>
       </c>
       <c r="J238">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>44200</v>
       </c>
     </row>
@@ -11073,7 +11051,7 @@
         <v>1800</v>
       </c>
       <c r="J239">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>44800</v>
       </c>
     </row>
@@ -11106,7 +11084,7 @@
         <v>2100</v>
       </c>
       <c r="J240">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>51619</v>
       </c>
     </row>
@@ -11139,7 +11117,7 @@
         <v>1700</v>
       </c>
       <c r="J241">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>51700</v>
       </c>
     </row>
@@ -11172,7 +11150,7 @@
         <v>1800</v>
       </c>
       <c r="J242">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>53800</v>
       </c>
     </row>
@@ -11205,7 +11183,7 @@
         <v>2100</v>
       </c>
       <c r="J243">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>56867</v>
       </c>
     </row>
@@ -11238,7 +11216,7 @@
         <v>1700</v>
       </c>
       <c r="J244">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>38200</v>
       </c>
     </row>
@@ -11271,7 +11249,7 @@
         <v>1800</v>
       </c>
       <c r="J245">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>44800</v>
       </c>
     </row>
@@ -11304,7 +11282,7 @@
         <v>2100</v>
       </c>
       <c r="J246">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>59724</v>
       </c>
     </row>
@@ -11337,7 +11315,7 @@
         <v>1700</v>
       </c>
       <c r="J247">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>50700</v>
       </c>
     </row>
@@ -11370,7 +11348,7 @@
         <v>1800</v>
       </c>
       <c r="J248">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>51800</v>
       </c>
     </row>
@@ -11403,7 +11381,7 @@
         <v>2100</v>
       </c>
       <c r="J249">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>60300</v>
       </c>
     </row>
@@ -11436,7 +11414,7 @@
         <v>1700</v>
       </c>
       <c r="J250">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>68100</v>
       </c>
     </row>
@@ -11469,7 +11447,7 @@
         <v>1800</v>
       </c>
       <c r="J251">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>60800</v>
       </c>
     </row>
@@ -11502,7 +11480,7 @@
         <v>2100</v>
       </c>
       <c r="J252">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>71506</v>
       </c>
     </row>
@@ -11535,7 +11513,7 @@
         <v>1700</v>
       </c>
       <c r="J253">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>81200</v>
       </c>
     </row>
@@ -11568,7 +11546,7 @@
         <v>1800</v>
       </c>
       <c r="J254">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>71800</v>
       </c>
     </row>
@@ -11601,7 +11579,7 @@
         <v>2100</v>
       </c>
       <c r="J255">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>81818</v>
       </c>
     </row>
@@ -11634,7 +11612,7 @@
         <v>1700</v>
       </c>
       <c r="J256">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>86200</v>
       </c>
     </row>
@@ -11667,7 +11645,7 @@
         <v>1800</v>
       </c>
       <c r="J257">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>84800</v>
       </c>
     </row>
@@ -11700,7 +11678,7 @@
         <v>2100</v>
       </c>
       <c r="J258">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>87313</v>
       </c>
     </row>
@@ -11733,7 +11711,7 @@
         <v>1700</v>
       </c>
       <c r="J259">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>40200</v>
       </c>
     </row>
@@ -11766,7 +11744,7 @@
         <v>1800</v>
       </c>
       <c r="J260">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>44800</v>
       </c>
     </row>
@@ -11799,7 +11777,7 @@
         <v>2100</v>
       </c>
       <c r="J261">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>61407</v>
       </c>
     </row>
@@ -11832,7 +11810,7 @@
         <v>1700</v>
       </c>
       <c r="J262">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>51700</v>
       </c>
     </row>
@@ -11865,7 +11843,7 @@
         <v>1800</v>
       </c>
       <c r="J263">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>51800</v>
       </c>
     </row>
@@ -11898,7 +11876,7 @@
         <v>2100</v>
       </c>
       <c r="J264">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>62000</v>
       </c>
     </row>
@@ -11931,7 +11909,7 @@
         <v>1700</v>
       </c>
       <c r="J265">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>68100</v>
       </c>
     </row>
@@ -11964,7 +11942,7 @@
         <v>1800</v>
       </c>
       <c r="J266">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>60800</v>
       </c>
     </row>
@@ -11997,7 +11975,7 @@
         <v>2100</v>
       </c>
       <c r="J267">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>73684</v>
       </c>
     </row>
@@ -12030,7 +12008,7 @@
         <v>1700</v>
       </c>
       <c r="J268">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>81200</v>
       </c>
     </row>
@@ -12063,7 +12041,7 @@
         <v>1800</v>
       </c>
       <c r="J269">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>71800</v>
       </c>
     </row>
@@ -12096,7 +12074,7 @@
         <v>2100</v>
       </c>
       <c r="J270">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>84297</v>
       </c>
     </row>
@@ -12129,7 +12107,7 @@
         <v>1700</v>
       </c>
       <c r="J271">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>86200</v>
       </c>
     </row>
@@ -12162,7 +12140,7 @@
         <v>1800</v>
       </c>
       <c r="J272">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>84800</v>
       </c>
     </row>
@@ -12195,7 +12173,7 @@
         <v>2100</v>
       </c>
       <c r="J273">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>89000</v>
       </c>
     </row>
@@ -12228,7 +12206,7 @@
         <v>1700</v>
       </c>
       <c r="J274">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>85000</v>
       </c>
     </row>
@@ -12261,7 +12239,7 @@
         <v>1800</v>
       </c>
       <c r="J275">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>87467</v>
       </c>
     </row>
@@ -12294,7 +12272,7 @@
         <v>2100</v>
       </c>
       <c r="J276">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>114377</v>
       </c>
     </row>
@@ -12327,7 +12305,7 @@
         <v>1700</v>
       </c>
       <c r="J277">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>98750</v>
       </c>
     </row>
@@ -12360,7 +12338,7 @@
         <v>1800</v>
       </c>
       <c r="J278">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>97133</v>
       </c>
     </row>
@@ -12393,7 +12371,7 @@
         <v>2100</v>
       </c>
       <c r="J279">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>115500</v>
       </c>
     </row>
@@ -12426,7 +12404,7 @@
         <v>1700</v>
       </c>
       <c r="J280">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>115400</v>
       </c>
     </row>
@@ -12459,7 +12437,7 @@
         <v>1800</v>
       </c>
       <c r="J281">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>113133</v>
       </c>
     </row>
@@ -12492,7 +12470,7 @@
         <v>2100</v>
       </c>
       <c r="J282">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>131605</v>
       </c>
     </row>
@@ -12525,7 +12503,7 @@
         <v>1700</v>
       </c>
       <c r="J283">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>151650</v>
       </c>
     </row>
@@ -12558,7 +12536,7 @@
         <v>1800</v>
       </c>
       <c r="J284">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>126317</v>
       </c>
     </row>
@@ -12591,7 +12569,7 @@
         <v>2100</v>
       </c>
       <c r="J285">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>156242</v>
       </c>
     </row>
@@ -12624,7 +12602,7 @@
         <v>1700</v>
       </c>
       <c r="J286">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>164700</v>
       </c>
     </row>
@@ -12657,7 +12635,7 @@
         <v>1800</v>
       </c>
       <c r="J287">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>150817</v>
       </c>
     </row>
@@ -12690,7 +12668,7 @@
         <v>2100</v>
       </c>
       <c r="J288">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>165301</v>
       </c>
     </row>
@@ -12723,7 +12701,7 @@
         <v>1700</v>
       </c>
       <c r="J289">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>70300</v>
       </c>
     </row>
@@ -12756,7 +12734,7 @@
         <v>1800</v>
       </c>
       <c r="J290">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>74133</v>
       </c>
     </row>
@@ -12789,7 +12767,7 @@
         <v>2100</v>
       </c>
       <c r="J291">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>100120</v>
       </c>
     </row>
@@ -12822,7 +12800,7 @@
         <v>1700</v>
       </c>
       <c r="J292">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>94800</v>
       </c>
     </row>
@@ -12855,7 +12833,7 @@
         <v>1800</v>
       </c>
       <c r="J293">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>85967</v>
       </c>
     </row>
@@ -12888,7 +12866,7 @@
         <v>2100</v>
       </c>
       <c r="J294">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>101100</v>
       </c>
     </row>
@@ -12921,7 +12899,7 @@
         <v>1700</v>
       </c>
       <c r="J295">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>101700</v>
       </c>
     </row>
@@ -12954,7 +12932,7 @@
         <v>1800</v>
       </c>
       <c r="J296">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>98300</v>
       </c>
     </row>
@@ -12987,7 +12965,7 @@
         <v>2100</v>
       </c>
       <c r="J297">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>123041</v>
       </c>
     </row>
@@ -13020,7 +12998,7 @@
         <v>1700</v>
       </c>
       <c r="J298">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>141850</v>
       </c>
     </row>
@@ -13053,7 +13031,7 @@
         <v>1800</v>
       </c>
       <c r="J299">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>117442</v>
       </c>
     </row>
@@ -13086,7 +13064,7 @@
         <v>2100</v>
       </c>
       <c r="J300">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>145371</v>
       </c>
     </row>
@@ -13119,7 +13097,7 @@
         <v>1700</v>
       </c>
       <c r="J301">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>154700</v>
       </c>
     </row>
@@ -13152,7 +13130,7 @@
         <v>1800</v>
       </c>
       <c r="J302">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>143942</v>
       </c>
     </row>
@@ -13185,7 +13163,7 @@
         <v>2100</v>
       </c>
       <c r="J303">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>153044</v>
       </c>
     </row>
@@ -13218,7 +13196,7 @@
         <v>1700</v>
       </c>
       <c r="J304">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>92850</v>
       </c>
     </row>
@@ -13251,7 +13229,7 @@
         <v>1800</v>
       </c>
       <c r="J305">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>94967</v>
       </c>
     </row>
@@ -13284,7 +13262,7 @@
         <v>2100</v>
       </c>
       <c r="J306">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>120318</v>
       </c>
     </row>
@@ -13317,7 +13295,7 @@
         <v>1700</v>
       </c>
       <c r="J307">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>124200</v>
       </c>
     </row>
@@ -13350,7 +13328,7 @@
         <v>1800</v>
       </c>
       <c r="J308">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>106133</v>
       </c>
     </row>
@@ -13383,7 +13361,7 @@
         <v>2100</v>
       </c>
       <c r="J309">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>121500</v>
       </c>
     </row>
@@ -13416,7 +13394,7 @@
         <v>1700</v>
       </c>
       <c r="J310">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>128200</v>
       </c>
     </row>
@@ -13449,7 +13427,7 @@
         <v>1800</v>
       </c>
       <c r="J311">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>122133</v>
       </c>
     </row>
@@ -13482,7 +13460,7 @@
         <v>2100</v>
       </c>
       <c r="J312">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>146951</v>
       </c>
     </row>
@@ -13515,7 +13493,7 @@
         <v>1700</v>
       </c>
       <c r="J313">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>175200</v>
       </c>
     </row>
@@ -13548,7 +13526,7 @@
         <v>1800</v>
       </c>
       <c r="J314">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>137910</v>
       </c>
     </row>
@@ -13581,7 +13559,7 @@
         <v>2100</v>
       </c>
       <c r="J315">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>171195</v>
       </c>
     </row>
@@ -13614,7 +13592,7 @@
         <v>1700</v>
       </c>
       <c r="J316">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>190000</v>
       </c>
     </row>
@@ -13647,7 +13625,7 @@
         <v>1800</v>
       </c>
       <c r="J317">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>168410</v>
       </c>
     </row>
@@ -13680,7 +13658,7 @@
         <v>2100</v>
       </c>
       <c r="J318">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>181245</v>
       </c>
     </row>
@@ -13713,7 +13691,7 @@
         <v>1700</v>
       </c>
       <c r="J319">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>24750</v>
       </c>
     </row>
@@ -13746,7 +13724,7 @@
         <v>1800</v>
       </c>
       <c r="J320">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>25800</v>
       </c>
     </row>
@@ -13779,7 +13757,7 @@
         <v>2100</v>
       </c>
       <c r="J321">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>32942</v>
       </c>
     </row>
@@ -13812,7 +13790,7 @@
         <v>1700</v>
       </c>
       <c r="J322">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>30700</v>
       </c>
     </row>
@@ -13845,7 +13823,7 @@
         <v>1800</v>
       </c>
       <c r="J323">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>30800</v>
       </c>
     </row>
@@ -13878,7 +13856,7 @@
         <v>2100</v>
       </c>
       <c r="J324">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>33250</v>
       </c>
     </row>
@@ -13911,7 +13889,7 @@
         <v>1700</v>
       </c>
       <c r="J325">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>34050</v>
       </c>
     </row>
@@ -13944,7 +13922,7 @@
         <v>1800</v>
       </c>
       <c r="J326">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>34800</v>
       </c>
     </row>
@@ -13977,7 +13955,7 @@
         <v>2100</v>
       </c>
       <c r="J327">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>41110</v>
       </c>
     </row>
@@ -14010,7 +13988,7 @@
         <v>1700</v>
       </c>
       <c r="J328">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>43350</v>
       </c>
     </row>
@@ -14043,7 +14021,7 @@
         <v>1800</v>
       </c>
       <c r="J329">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>41800</v>
       </c>
     </row>
@@ -14076,7 +14054,7 @@
         <v>2100</v>
       </c>
       <c r="J330">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>48326</v>
       </c>
     </row>
@@ -14109,7 +14087,7 @@
         <v>1700</v>
       </c>
       <c r="J331">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>50200</v>
       </c>
     </row>
@@ -14142,7 +14120,7 @@
         <v>1800</v>
       </c>
       <c r="J332">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>46800</v>
       </c>
     </row>
@@ -14175,7 +14153,7 @@
         <v>2100</v>
       </c>
       <c r="J333">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>53425</v>
       </c>
     </row>
@@ -14208,7 +14186,7 @@
         <v>1700</v>
       </c>
       <c r="J334">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>57600</v>
       </c>
     </row>
@@ -14241,7 +14219,7 @@
         <v>1800</v>
       </c>
       <c r="J335">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>51800</v>
       </c>
     </row>
@@ -14274,7 +14252,7 @@
         <v>2100</v>
       </c>
       <c r="J336">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>80516</v>
       </c>
     </row>
@@ -14307,7 +14285,7 @@
         <v>1700</v>
       </c>
       <c r="J337">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>69850</v>
       </c>
     </row>
@@ -14340,7 +14318,7 @@
         <v>1800</v>
       </c>
       <c r="J338">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>60800</v>
       </c>
     </row>
@@ -14373,7 +14351,7 @@
         <v>2100</v>
       </c>
       <c r="J339">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>81300</v>
       </c>
     </row>
@@ -14406,7 +14384,7 @@
         <v>1700</v>
       </c>
       <c r="J340">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>82100</v>
       </c>
     </row>
@@ -14439,7 +14417,7 @@
         <v>1800</v>
       </c>
       <c r="J341">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>70800</v>
       </c>
     </row>
@@ -14472,7 +14450,7 @@
         <v>2100</v>
       </c>
       <c r="J342">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>96654</v>
       </c>
     </row>
@@ -14505,7 +14483,7 @@
         <v>1700</v>
       </c>
       <c r="J343">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>96700</v>
       </c>
     </row>
@@ -14538,7 +14516,7 @@
         <v>1800</v>
       </c>
       <c r="J344">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>83800</v>
       </c>
     </row>
@@ -14571,7 +14549,7 @@
         <v>2100</v>
       </c>
       <c r="J345">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>106784</v>
       </c>
     </row>
@@ -14604,7 +14582,7 @@
         <v>1700</v>
       </c>
       <c r="J346">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>109200</v>
       </c>
     </row>
@@ -14637,7 +14615,7 @@
         <v>1800</v>
       </c>
       <c r="J347">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>96800</v>
       </c>
     </row>
@@ -14670,7 +14648,7 @@
         <v>2100</v>
       </c>
       <c r="J348">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>113071</v>
       </c>
     </row>
@@ -14700,7 +14678,7 @@
         <v>1700</v>
       </c>
       <c r="J349">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>14200</v>
       </c>
     </row>
@@ -14730,7 +14708,7 @@
         <v>1800</v>
       </c>
       <c r="J350">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>15800</v>
       </c>
     </row>
@@ -14760,7 +14738,7 @@
         <v>2100</v>
       </c>
       <c r="J351">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>18140</v>
       </c>
     </row>
@@ -14790,7 +14768,7 @@
         <v>1700</v>
       </c>
       <c r="J352">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>16700</v>
       </c>
     </row>
@@ -14820,7 +14798,7 @@
         <v>1800</v>
       </c>
       <c r="J353">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>17800</v>
       </c>
     </row>
@@ -14850,7 +14828,7 @@
         <v>2100</v>
       </c>
       <c r="J354">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>18300</v>
       </c>
     </row>
@@ -14880,7 +14858,7 @@
         <v>1700</v>
       </c>
       <c r="J355">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>18700</v>
       </c>
     </row>
@@ -14910,7 +14888,7 @@
         <v>1800</v>
       </c>
       <c r="J356">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>19800</v>
       </c>
     </row>
@@ -14940,7 +14918,7 @@
         <v>2100</v>
       </c>
       <c r="J357">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>22892</v>
       </c>
     </row>
@@ -14970,7 +14948,7 @@
         <v>1700</v>
       </c>
       <c r="J358">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>24700</v>
       </c>
     </row>
@@ -15000,7 +14978,7 @@
         <v>1800</v>
       </c>
       <c r="J359">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>24800</v>
       </c>
     </row>
@@ -15030,7 +15008,7 @@
         <v>2100</v>
       </c>
       <c r="J360">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>25950</v>
       </c>
     </row>
@@ -15060,7 +15038,7 @@
         <v>1700</v>
       </c>
       <c r="J361">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>29200</v>
       </c>
     </row>
@@ -15090,7 +15068,7 @@
         <v>1800</v>
       </c>
       <c r="J362">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>29800</v>
       </c>
     </row>
@@ -15120,7 +15098,7 @@
         <v>2100</v>
       </c>
       <c r="J363">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>32485</v>
       </c>
     </row>
@@ -15153,7 +15131,7 @@
         <v>4000</v>
       </c>
       <c r="J364">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>22000</v>
       </c>
     </row>
@@ -15186,7 +15164,7 @@
         <v>2500</v>
       </c>
       <c r="J365">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>18000</v>
       </c>
     </row>
@@ -15219,7 +15197,7 @@
         <v>4000</v>
       </c>
       <c r="J366">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>23800</v>
       </c>
     </row>
@@ -15252,7 +15230,7 @@
         <v>4000</v>
       </c>
       <c r="J367">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>22000</v>
       </c>
     </row>
@@ -15285,7 +15263,7 @@
         <v>2500</v>
       </c>
       <c r="J368">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>20000</v>
       </c>
     </row>
@@ -15318,7 +15296,7 @@
         <v>4000</v>
       </c>
       <c r="J369">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>26000</v>
       </c>
     </row>
@@ -15351,7 +15329,7 @@
         <v>4000</v>
       </c>
       <c r="J370">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>27500</v>
       </c>
     </row>
@@ -15384,7 +15362,7 @@
         <v>2500</v>
       </c>
       <c r="J371">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>22000</v>
       </c>
     </row>
@@ -15417,7 +15395,7 @@
         <v>4000</v>
       </c>
       <c r="J372">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>28200</v>
       </c>
     </row>
@@ -15450,7 +15428,7 @@
         <v>4000</v>
       </c>
       <c r="J373">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>30500</v>
       </c>
     </row>
@@ -15483,7 +15461,7 @@
         <v>2500</v>
       </c>
       <c r="J374">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>25694</v>
       </c>
     </row>
@@ -15516,7 +15494,7 @@
         <v>4000</v>
       </c>
       <c r="J375">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>31500</v>
       </c>
     </row>
@@ -15549,7 +15527,7 @@
         <v>4000</v>
       </c>
       <c r="J376">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>30500</v>
       </c>
     </row>
@@ -15582,7 +15560,7 @@
         <v>2500</v>
       </c>
       <c r="J377">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>28694</v>
       </c>
     </row>
@@ -15615,7 +15593,7 @@
         <v>4000</v>
       </c>
       <c r="J378">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>31500</v>
       </c>
     </row>
@@ -15648,7 +15626,7 @@
         <v>4000</v>
       </c>
       <c r="J379">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>22750</v>
       </c>
     </row>
@@ -15681,7 +15659,7 @@
         <v>2500</v>
       </c>
       <c r="J380">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>18000</v>
       </c>
     </row>
@@ -15714,7 +15692,7 @@
         <v>4000</v>
       </c>
       <c r="J381">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>23800</v>
       </c>
     </row>
@@ -15747,7 +15725,7 @@
         <v>4000</v>
       </c>
       <c r="J382">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>22750</v>
       </c>
     </row>
@@ -15780,7 +15758,7 @@
         <v>2500</v>
       </c>
       <c r="J383">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>20000</v>
       </c>
     </row>
@@ -15813,7 +15791,7 @@
         <v>4000</v>
       </c>
       <c r="J384">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>26000</v>
       </c>
     </row>
@@ -15846,7 +15824,7 @@
         <v>4000</v>
       </c>
       <c r="J385">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>27500</v>
       </c>
     </row>
@@ -15879,7 +15857,7 @@
         <v>2500</v>
       </c>
       <c r="J386">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>22000</v>
       </c>
     </row>
@@ -15912,7 +15890,7 @@
         <v>4000</v>
       </c>
       <c r="J387">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>28200</v>
       </c>
     </row>
@@ -15945,7 +15923,7 @@
         <v>4000</v>
       </c>
       <c r="J388">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>30500</v>
       </c>
     </row>
@@ -15978,7 +15956,7 @@
         <v>2500</v>
       </c>
       <c r="J389">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>25694</v>
       </c>
     </row>
@@ -16011,7 +15989,7 @@
         <v>4000</v>
       </c>
       <c r="J390">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>31500</v>
       </c>
     </row>
@@ -16044,7 +16022,7 @@
         <v>4000</v>
       </c>
       <c r="J391">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>30500</v>
       </c>
     </row>
@@ -16077,7 +16055,7 @@
         <v>2500</v>
       </c>
       <c r="J392">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>28694</v>
       </c>
     </row>
@@ -16110,7 +16088,7 @@
         <v>4000</v>
       </c>
       <c r="J393">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>31500</v>
       </c>
     </row>
@@ -16143,7 +16121,7 @@
         <v>4000</v>
       </c>
       <c r="J394">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>154000</v>
       </c>
     </row>
@@ -16176,7 +16154,7 @@
         <v>2500</v>
       </c>
       <c r="J395">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>87500</v>
       </c>
     </row>
@@ -16209,7 +16187,7 @@
         <v>6500</v>
       </c>
       <c r="J396">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>126500</v>
       </c>
     </row>
@@ -16242,7 +16220,7 @@
         <v>4000</v>
       </c>
       <c r="J397">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>154000</v>
       </c>
     </row>
@@ -16275,7 +16253,7 @@
         <v>2500</v>
       </c>
       <c r="J398">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>102500</v>
       </c>
     </row>
@@ -16308,7 +16286,7 @@
         <v>6500</v>
       </c>
       <c r="J399">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>130500</v>
       </c>
     </row>
@@ -16341,7 +16319,7 @@
         <v>4000</v>
       </c>
       <c r="J400">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>160000</v>
       </c>
     </row>
@@ -16374,7 +16352,7 @@
         <v>2500</v>
       </c>
       <c r="J401">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>117500</v>
       </c>
     </row>
@@ -16407,7 +16385,7 @@
         <v>6500</v>
       </c>
       <c r="J402">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>136500</v>
       </c>
     </row>
@@ -16440,7 +16418,7 @@
         <v>4000</v>
       </c>
       <c r="J403">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>184000</v>
       </c>
     </row>
@@ -16473,7 +16451,7 @@
         <v>2500</v>
       </c>
       <c r="J404">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>142500</v>
       </c>
     </row>
@@ -16506,7 +16484,7 @@
         <v>6500</v>
       </c>
       <c r="J405">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>204100</v>
       </c>
     </row>
@@ -16539,7 +16517,7 @@
         <v>4000</v>
       </c>
       <c r="J406">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>184000</v>
       </c>
     </row>
@@ -16572,7 +16550,7 @@
         <v>2500</v>
       </c>
       <c r="J407">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>177500</v>
       </c>
     </row>
@@ -16605,7 +16583,7 @@
         <v>6500</v>
       </c>
       <c r="J408">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>208100</v>
       </c>
     </row>
@@ -16638,7 +16616,7 @@
         <v>4000</v>
       </c>
       <c r="J409">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>172000</v>
       </c>
     </row>
@@ -16671,7 +16649,7 @@
         <v>2500</v>
       </c>
       <c r="J410">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>102500</v>
       </c>
     </row>
@@ -16704,7 +16682,7 @@
         <v>6500</v>
       </c>
       <c r="J411">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>133000</v>
       </c>
     </row>
@@ -16737,7 +16715,7 @@
         <v>4000</v>
       </c>
       <c r="J412">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>172000</v>
       </c>
     </row>
@@ -16770,7 +16748,7 @@
         <v>2500</v>
       </c>
       <c r="J413">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>117500</v>
       </c>
     </row>
@@ -16803,7 +16781,7 @@
         <v>6500</v>
       </c>
       <c r="J414">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>135200</v>
       </c>
     </row>
@@ -16836,7 +16814,7 @@
         <v>4000</v>
       </c>
       <c r="J415">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>184000</v>
       </c>
     </row>
@@ -16869,7 +16847,7 @@
         <v>2500</v>
       </c>
       <c r="J416">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>132500</v>
       </c>
     </row>
@@ -16902,7 +16880,7 @@
         <v>6500</v>
       </c>
       <c r="J417">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>138500</v>
       </c>
     </row>
@@ -16935,7 +16913,7 @@
         <v>4000</v>
       </c>
       <c r="J418">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>196000</v>
       </c>
     </row>
@@ -16968,7 +16946,7 @@
         <v>2500</v>
       </c>
       <c r="J419">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>159568</v>
       </c>
     </row>
@@ -17001,7 +16979,7 @@
         <v>6500</v>
       </c>
       <c r="J420">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>210000</v>
       </c>
     </row>
@@ -17034,7 +17012,7 @@
         <v>4000</v>
       </c>
       <c r="J421">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>196000</v>
       </c>
     </row>
@@ -17067,7 +17045,7 @@
         <v>2500</v>
       </c>
       <c r="J422">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>185568</v>
       </c>
     </row>
@@ -17100,7 +17078,7 @@
         <v>6500</v>
       </c>
       <c r="J423">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>215500</v>
       </c>
     </row>
@@ -17133,7 +17111,7 @@
         <v>2500</v>
       </c>
       <c r="J424">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>97500</v>
       </c>
     </row>
@@ -17166,7 +17144,7 @@
         <v>6500</v>
       </c>
       <c r="J425">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>144000</v>
       </c>
     </row>
@@ -17199,7 +17177,7 @@
         <v>2500</v>
       </c>
       <c r="J426">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>112500</v>
       </c>
     </row>
@@ -17232,7 +17210,7 @@
         <v>6500</v>
       </c>
       <c r="J427">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>146200</v>
       </c>
     </row>
@@ -17265,7 +17243,7 @@
         <v>2500</v>
       </c>
       <c r="J428">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>127500</v>
       </c>
     </row>
@@ -17298,7 +17276,7 @@
         <v>6500</v>
       </c>
       <c r="J429">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>149500</v>
       </c>
     </row>
@@ -17331,7 +17309,7 @@
         <v>2500</v>
       </c>
       <c r="J430">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>154432</v>
       </c>
     </row>
@@ -17364,7 +17342,7 @@
         <v>6500</v>
       </c>
       <c r="J431">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>237500</v>
       </c>
     </row>
@@ -17397,7 +17375,7 @@
         <v>2500</v>
       </c>
       <c r="J432">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>180432</v>
       </c>
     </row>
@@ -17430,7 +17408,7 @@
         <v>6500</v>
       </c>
       <c r="J433">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>243000</v>
       </c>
     </row>
@@ -17463,7 +17441,7 @@
         <v>2500</v>
       </c>
       <c r="J434">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>97500</v>
       </c>
     </row>
@@ -17496,7 +17474,7 @@
         <v>6500</v>
       </c>
       <c r="J435">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>155000</v>
       </c>
     </row>
@@ -17529,7 +17507,7 @@
         <v>2500</v>
       </c>
       <c r="J436">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>112500</v>
       </c>
     </row>
@@ -17562,7 +17540,7 @@
         <v>6500</v>
       </c>
       <c r="J437">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>157200</v>
       </c>
     </row>
@@ -17595,7 +17573,7 @@
         <v>2500</v>
       </c>
       <c r="J438">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>127500</v>
       </c>
     </row>
@@ -17628,7 +17606,7 @@
         <v>6500</v>
       </c>
       <c r="J439">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>160500</v>
       </c>
     </row>
@@ -17661,7 +17639,7 @@
         <v>2500</v>
       </c>
       <c r="J440">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>154432</v>
       </c>
     </row>
@@ -17694,7 +17672,7 @@
         <v>6500</v>
       </c>
       <c r="J441">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>254000</v>
       </c>
     </row>
@@ -17727,7 +17705,7 @@
         <v>2500</v>
       </c>
       <c r="J442">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>180432</v>
       </c>
     </row>
@@ -17760,7 +17738,7 @@
         <v>6500</v>
       </c>
       <c r="J443">
-        <f>[1]!PriceDelivery[[#This Row],[vehicle]]+[1]!PriceDelivery[[#This Row],[add.point]]</f>
+        <f>PriceDelivery[[#This Row],[vehicle]]+PriceDelivery[[#This Row],[add.point]]</f>
         <v>259500</v>
       </c>
     </row>
@@ -21624,25 +21602,25 @@
     <mergeCell ref="B15:B17"/>
   </mergeCells>
   <conditionalFormatting sqref="D19:D22">
-    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D17">
-    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D29">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D9">
-    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -26720,58 +26698,58 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B8">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B22">
-    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B26">
-    <cfRule type="duplicateValues" dxfId="11" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B33">
-    <cfRule type="duplicateValues" dxfId="10" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B47">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B52 B54:B59">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B72">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B80">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B89">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B98">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B103">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B106">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107:B114">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DomesticTransport/DomesticTransport.xlsx
+++ b/DomesticTransport/DomesticTransport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aevse\Source\repos\DomesticTransport\DomesticTransport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aevse\Source\Repos\DomesticTransport\DomesticTransport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591BFAD3-C368-40A7-A307-EED403CEC363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7BA516-7557-4684-961D-0CC21BD5BC20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AC776459-6745-4339-B7EA-E0E0F9747FA4}"/>
+    <workbookView xWindow="29325" yWindow="1005" windowWidth="22860" windowHeight="11010" activeTab="5" xr2:uid="{AC776459-6745-4339-B7EA-E0E0F9747FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery" sheetId="2" r:id="rId1"/>
@@ -2689,7 +2689,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A1298FBD-3E0C-4829-AA91-D63AF491826E}" name="TableInvoicies" displayName="TableInvoicies" ref="B13:I14" totalsRowShown="0" headerRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A1298FBD-3E0C-4829-AA91-D63AF491826E}" name="TableOrders" displayName="TableOrders" ref="B13:I14" totalsRowShown="0" headerRowDxfId="37">
   <autoFilter ref="B13:I14" xr:uid="{9CC24962-0F87-4500-BB2C-B26DD82344EE}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{8E60E219-8ADB-48B1-A9CF-AF43EFB5E532}" name="№ Доставки"/>
@@ -3096,8 +3096,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="B1:I13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3197,10 +3197,12 @@
       </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3210,7 +3212,7 @@
   <sheetPr codeName="Лист6"/>
   <dimension ref="A1:J542"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
@@ -26760,8 +26762,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="B1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26773,11 +26775,11 @@
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" customWidth="1"/>
     <col min="14" max="14" width="25.28515625" customWidth="1"/>
     <col min="15" max="15" width="13.28515625" customWidth="1"/>

--- a/DomesticTransport/DomesticTransport.xlsx
+++ b/DomesticTransport/DomesticTransport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aevse\Source\Repos\DomesticTransport\DomesticTransport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aevse\Source\repos\DomesticTransport\DomesticTransport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7BA516-7557-4684-961D-0CC21BD5BC20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57815828-7B1D-4157-A31F-C4C30DC9E4BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29325" yWindow="1005" windowWidth="22860" windowHeight="11010" activeTab="5" xr2:uid="{AC776459-6745-4339-B7EA-E0E0F9747FA4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{AC776459-6745-4339-B7EA-E0E0F9747FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery" sheetId="2" r:id="rId1"/>
@@ -1980,89 +1980,6 @@
   <dxfs count="40">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2310,6 +2227,89 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2689,8 +2689,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A1298FBD-3E0C-4829-AA91-D63AF491826E}" name="TableOrders" displayName="TableOrders" ref="B13:I14" totalsRowShown="0" headerRowDxfId="37">
-  <autoFilter ref="B13:I14" xr:uid="{9CC24962-0F87-4500-BB2C-B26DD82344EE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A1298FBD-3E0C-4829-AA91-D63AF491826E}" name="TableOrders" displayName="TableOrders" ref="B10:I11" totalsRowShown="0" headerRowDxfId="37">
+  <autoFilter ref="B10:I11" xr:uid="{9CC24962-0F87-4500-BB2C-B26DD82344EE}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{8E60E219-8ADB-48B1-A9CF-AF43EFB5E532}" name="№ Доставки"/>
     <tableColumn id="2" xr3:uid="{0C480417-9A5C-4A67-90B7-E69215A66717}" name="Накладная"/>
@@ -2758,7 +2758,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C0B60422-EB35-4FB4-BF1B-2F6334DAF9A9}" name="TableTotal" displayName="TableTotal" ref="B2:S3" insertRow="1" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" headerRowCellStyle="Акцент6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C0B60422-EB35-4FB4-BF1B-2F6334DAF9A9}" name="TableTotal" displayName="TableTotal" ref="B2:S3" insertRow="1" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" headerRowCellStyle="Акцент6">
   <autoFilter ref="B2:S3" xr:uid="{6A8CAFF1-DE87-467A-9C9F-EAC45DD35AAA}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{6C78F3B1-C5C6-4E9B-B8B0-E04671622CA4}" name="ID перевозчика"/>
@@ -2789,8 +2789,8 @@
   <autoFilter ref="B2:D25" xr:uid="{DE4A6499-25FE-4A0E-AE62-0DABB7DFBF79}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{29A63BC4-2872-4EA4-B075-ED195D9BE031}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{FF7F5D4D-C144-4DC0-AEA8-3808900FD64A}" name="Компания" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{A6517B15-FFF0-4130-831C-781935AA2468}" name="Получатель письма" dataDxfId="0" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="2" xr3:uid="{FF7F5D4D-C144-4DC0-AEA8-3808900FD64A}" name="Компания" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{A6517B15-FFF0-4130-831C-781935AA2468}" name="Получатель письма" dataDxfId="25" dataCellStyle="Гиперссылка"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3094,9 +3094,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9007937B-86DB-4446-832F-F234A2840685}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="B1:I13"/>
+  <dimension ref="B1:I10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="C2" s="163">
         <f ca="1">TODAY()+1</f>
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -3158,41 +3158,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+    <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -21604,25 +21604,25 @@
     <mergeCell ref="B15:B17"/>
   </mergeCells>
   <conditionalFormatting sqref="D19:D22">
-    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D17">
-    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D29">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D9">
-    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="duplicateValues" dxfId="23" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -26700,58 +26700,58 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="duplicateValues" dxfId="21" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B8">
-    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B22">
-    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B26">
-    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B33">
-    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B47">
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B52 B54:B59">
-    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B72">
-    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B80">
-    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B89">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B98">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B103">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B106">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107:B114">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26762,7 +26762,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="B1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H4" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>

--- a/DomesticTransport/DomesticTransport.xlsx
+++ b/DomesticTransport/DomesticTransport.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aevse\Source\Repos\DomesticTransport\DomesticTransport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Source\Repos\DomesticTransport\DomesticTransport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1903A099-050D-43D8-BB70-FFDE4BF17113}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{AC776459-6745-4339-B7EA-E0E0F9747FA4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12930" windowHeight="6705"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery" sheetId="2" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="weght">Rate!$M$5</definedName>
     <definedName name="weghtCell">Rate!$M$5</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -944,7 +943,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1894,6 +1893,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1912,37 +1912,92 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Excel Built-in Normal" xfId="4" xr:uid="{E86D5BE3-109F-42F2-B062-72D26BC4505E}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="4"/>
     <cellStyle name="Акцент3" xfId="5" builtinId="37"/>
     <cellStyle name="Акцент6" xfId="6" builtinId="49"/>
     <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2" xr:uid="{0D8B4E41-A43D-4735-80FC-A622F3AB536B}"/>
-    <cellStyle name="Обычный 4" xfId="1" xr:uid="{6D1EACBA-287E-493D-A31F-3D0C6DD7000A}"/>
+    <cellStyle name="Обычный 2" xfId="2"/>
+    <cellStyle name="Обычный 4" xfId="1"/>
   </cellStyles>
   <dxfs count="39">
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="11"/>
+        <color theme="0"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top/>
         <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2196,89 +2251,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="9" tint="0.39997558519241921"/>
@@ -2322,8 +2294,6 @@
         <sz val="10"/>
         <color theme="0"/>
         <name val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2362,8 +2332,6 @@
         <sz val="10"/>
         <color indexed="9"/>
         <name val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -2399,8 +2367,25 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -2424,41 +2409,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E3245CE-8CB7-440C-8A99-A387ADEE7331}" name="TableCarrier" displayName="TableCarrier" ref="B5:H6" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B5:H6" xr:uid="{DEB12404-07BD-4FAF-83D7-6873DABB45B9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TableCarrier" displayName="TableCarrier" ref="B5:H6" totalsRowShown="0" headerRowDxfId="38">
+  <autoFilter ref="B5:H6"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{64C38326-B884-4325-8A47-3CF76FF099B6}" name="№ Доставки"/>
-    <tableColumn id="6" xr3:uid="{FEDCB64B-82B1-4C9E-9EEB-F53217E4637A}" name="Компания"/>
-    <tableColumn id="4" xr3:uid="{7417DAF0-71D1-45F1-82D7-33F47D829C20}" name="Марка авто"/>
-    <tableColumn id="8" xr3:uid="{510D2F31-046A-4033-9FB6-AE6640DBFF64}" name="Тоннаж"/>
-    <tableColumn id="3" xr3:uid="{E1396E0F-5B45-4BC6-A158-315D942BD00A}" name="Вес доставки"/>
-    <tableColumn id="5" xr3:uid="{B9EF59F9-8682-4A39-927F-F15D58B47664}" name="Стоимость товаров"/>
-    <tableColumn id="7" xr3:uid="{FEEFBF4E-D4C2-4544-85D3-3F06E352AFC2}" name="Стоимость доставки"/>
+    <tableColumn id="1" name="№ Доставки"/>
+    <tableColumn id="6" name="Компания"/>
+    <tableColumn id="4" name="Марка авто"/>
+    <tableColumn id="8" name="Тоннаж"/>
+    <tableColumn id="3" name="Вес доставки"/>
+    <tableColumn id="5" name="Стоимость товаров"/>
+    <tableColumn id="7" name="Стоимость доставки"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A1298FBD-3E0C-4829-AA91-D63AF491826E}" name="TableOrders" displayName="TableOrders" ref="B10:I11" totalsRowShown="0" headerRowDxfId="38">
-  <autoFilter ref="B10:I11" xr:uid="{9CC24962-0F87-4500-BB2C-B26DD82344EE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TableOrders" displayName="TableOrders" ref="B10:I11" totalsRowShown="0" headerRowDxfId="37">
+  <autoFilter ref="B10:I11"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{8E60E219-8ADB-48B1-A9CF-AF43EFB5E532}" name="№ Доставки"/>
-    <tableColumn id="2" xr3:uid="{0C480417-9A5C-4A67-90B7-E69215A66717}" name="Накладная"/>
-    <tableColumn id="3" xr3:uid="{F4CF124F-2E32-452D-A812-ED185FAE6CE1}" name="ID Получателя"/>
-    <tableColumn id="4" xr3:uid="{FDB39A13-F31C-425A-A896-CEEDA012F19B}" name="Адрес"/>
-    <tableColumn id="5" xr3:uid="{3FC51D7E-32E2-4359-996D-239B1FACFB4D}" name="Маршрут"/>
-    <tableColumn id="6" xr3:uid="{3FE52EE4-7FF0-4E5C-B44B-D132FB630934}" name="Колличество паллет"/>
-    <tableColumn id="8" xr3:uid="{50E3B879-A171-45D7-A925-1D1E08A707A7}" name="Вес нетто"/>
-    <tableColumn id="7" xr3:uid="{36573115-E5BA-4072-B379-0897EE672340}" name="Стоимость товаров"/>
+    <tableColumn id="1" name="№ Доставки"/>
+    <tableColumn id="2" name="Накладная"/>
+    <tableColumn id="3" name="ID Получателя"/>
+    <tableColumn id="4" name="Адрес"/>
+    <tableColumn id="5" name="Маршрут"/>
+    <tableColumn id="6" name="Колличество паллет"/>
+    <tableColumn id="8" name="Вес нетто"/>
+    <tableColumn id="7" name="Стоимость товаров"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0E832B09-3D36-4DE3-8E20-EF81C85F4B4E}" name="PriceDelivery" displayName="PriceDelivery" ref="A3:J527" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" headerRowCellStyle="Обычный 4">
-  <autoFilter ref="A3:J527" xr:uid="{B91DA1D3-97D0-4C48-8AC3-5F7DFC63E4C8}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="PriceDelivery" displayName="PriceDelivery" ref="A3:J527" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" headerRowCellStyle="Обычный 4">
+  <autoFilter ref="A3:J527">
     <filterColumn colId="2">
       <filters>
         <filter val="MSK"/>
@@ -2470,88 +2455,88 @@
       </customFilters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:J426">
+  <sortState ref="A13:J426">
     <sortCondition ref="F3:F527"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{57E9D84A-CCE5-461A-ACD7-BDE3E51D6143}" name="Place of shipment"/>
-    <tableColumn id="2" xr3:uid="{EA4DF697-D4EF-4C3B-B94C-BCDC2A46B591}" name="Place of delivery"/>
-    <tableColumn id="3" xr3:uid="{6800B9FA-1686-4221-853B-E2FFC11D654A}" name="City"/>
-    <tableColumn id="4" xr3:uid="{8A5CA31A-BB55-4171-9623-4FBD8B91DC24}" name="Country of delivery"/>
-    <tableColumn id="5" xr3:uid="{A748CA42-0E37-4AD5-B1E3-8D595CA08D71}" name="Country of delivery2"/>
-    <tableColumn id="6" xr3:uid="{3EBE0F75-00AA-4CA7-8E6A-ECBC67CB58EE}" name="Company"/>
-    <tableColumn id="7" xr3:uid="{63E92DBC-C612-44AB-8710-DE5D3A67E602}" name="tonnage, t"/>
-    <tableColumn id="8" xr3:uid="{7956AE7A-C21C-4293-AB21-1C09E993025E}" name="vehicle"/>
-    <tableColumn id="9" xr3:uid="{485FC7AA-9B80-40AC-B112-7709C94F7992}" name="add.point"/>
-    <tableColumn id="10" xr3:uid="{76EEE4BC-710C-4EA7-9DD0-0BBB946AB005}" name="vehicle + add.point" dataDxfId="35"/>
+    <tableColumn id="1" name="Place of shipment"/>
+    <tableColumn id="2" name="Place of delivery"/>
+    <tableColumn id="3" name="City"/>
+    <tableColumn id="4" name="Country of delivery"/>
+    <tableColumn id="5" name="Country of delivery2"/>
+    <tableColumn id="6" name="Company"/>
+    <tableColumn id="7" name="tonnage, t"/>
+    <tableColumn id="8" name="vehicle"/>
+    <tableColumn id="9" name="add.point"/>
+    <tableColumn id="10" name="vehicle + add.point" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{6A36CA48-51F0-4212-A000-6CAA37B4755A}" name="TableRoutes" displayName="TableRoutes" ref="A1:J115" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32">
-  <autoFilter ref="A1:J115" xr:uid="{00CBBFBD-BD9E-42F8-8B7E-FE2310A2C83B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="TableRoutes" displayName="TableRoutes" ref="A1:J115" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31">
+  <autoFilter ref="A1:J115"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{A37757C1-D62A-4B25-A367-C4F2545FB39C}" name="Id route"/>
-    <tableColumn id="2" xr3:uid="{C576587B-9FF1-4321-8EFA-E0BDDF28607A}" name="Priority route"/>
-    <tableColumn id="3" xr3:uid="{067BC0D3-E773-4C50-AA43-24E4D7FE8B65}" name="Priority point"/>
-    <tableColumn id="4" xr3:uid="{9199F0DD-7634-46F4-80A2-39B07927B9E6}" name="Номер клиента"/>
-    <tableColumn id="5" xr3:uid="{386BE280-F236-4F23-91EF-DACF36A94FDD}" name="Получатель материала"/>
-    <tableColumn id="6" xr3:uid="{CB367FA0-361A-4CB3-B175-CFDAD63FDC61}" name="Клиент"/>
-    <tableColumn id="7" xr3:uid="{297706F8-D3AA-4B0F-ACD6-C16C02E896DD}" name="Город"/>
-    <tableColumn id="8" xr3:uid="{EFDF7186-D2AD-4353-8080-6B4776836818}" name="Маршрут"/>
-    <tableColumn id="9" xr3:uid="{C5AC18C4-36CD-46E5-807D-6F2F35975187}" name="City"/>
-    <tableColumn id="10" xr3:uid="{C231C9F8-9468-47DA-B38E-EBD3C3FF19F2}" name="Направление"/>
+    <tableColumn id="1" name="Id route"/>
+    <tableColumn id="2" name="Priority route"/>
+    <tableColumn id="3" name="Priority point"/>
+    <tableColumn id="4" name="Номер клиента"/>
+    <tableColumn id="5" name="Получатель материала"/>
+    <tableColumn id="6" name="Клиент"/>
+    <tableColumn id="7" name="Город"/>
+    <tableColumn id="8" name="Маршрут"/>
+    <tableColumn id="9" name="City"/>
+    <tableColumn id="10" name="Направление"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9A862C54-5BC7-4DC8-939D-1D0F0DB1B1F7}" name="TableCity" displayName="TableCity" ref="L1:L23" totalsRowShown="0" tableBorderDxfId="31">
-  <autoFilter ref="L1:L23" xr:uid="{F0D971AA-AC8C-4605-83A2-6B61E5764DD2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TableCity" displayName="TableCity" ref="L1:L23" totalsRowShown="0" tableBorderDxfId="30">
+  <autoFilter ref="L1:L23"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{5B2341CD-B68D-4499-9CEE-95E3E8C87B87}" name="City"/>
+    <tableColumn id="1" name="City"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C0B60422-EB35-4FB4-BF1B-2F6334DAF9A9}" name="TableTotal" displayName="TableTotal" ref="B2:S3" insertRow="1" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28" headerRowCellStyle="Акцент6">
-  <autoFilter ref="B2:S3" xr:uid="{6A8CAFF1-DE87-467A-9C9F-EAC45DD35AAA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TableTotal" displayName="TableTotal" ref="B2:S3" insertRow="1" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" headerRowCellStyle="Акцент6">
+  <autoFilter ref="B2:S3"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{6C78F3B1-C5C6-4E9B-B8B0-E04671622CA4}" name="ID перевозчика"/>
-    <tableColumn id="2" xr3:uid="{BA3EE1B9-A449-4C76-BA29-EF661E1D0006}" name="Перевозчик"/>
-    <tableColumn id="3" xr3:uid="{8B7BF35C-053A-4C44-B5A9-B88BF5470C9F}" name="Тип ТС, тонн"/>
-    <tableColumn id="4" xr3:uid="{BF16FAC5-F108-477D-B1D3-B92B94546501}" name="Водитель (ФИО)"/>
-    <tableColumn id="5" xr3:uid="{54BBD1CE-9AE6-4609-A60C-6F4DA7DCD090}" name="Номер,марка"/>
-    <tableColumn id="6" xr3:uid="{2E743CB0-5F1B-44CA-AFBC-1FD854C7AECB}" name="Телефон водителя"/>
-    <tableColumn id="7" xr3:uid="{447EAE18-1927-4BE1-ACB9-0DC6C5FB9079}" name="Город"/>
-    <tableColumn id="8" xr3:uid="{DC155929-54C6-48B2-B800-F45AA778DB3F}" name="Направление"/>
-    <tableColumn id="9" xr3:uid="{C80BAA24-1703-4B74-83EA-81EB619A2AA5}" name="Порядок выгрузки"/>
-    <tableColumn id="10" xr3:uid="{FCEB4CBC-88B0-4C1C-AC3A-AE7E32295157}" name="Номер грузополучателя"/>
-    <tableColumn id="11" xr3:uid="{54E300DB-20F0-4C65-9BA6-257FC795676A}" name="Номер накладной"/>
-    <tableColumn id="12" xr3:uid="{01CC1E2D-C742-499B-8F92-BEEE940E715B}" name="Номер поставки"/>
-    <tableColumn id="13" xr3:uid="{98CC41F0-1707-4F46-957A-EF8273E7EF92}" name="Грузополучатель"/>
-    <tableColumn id="14" xr3:uid="{7DA8917E-060C-495E-8F73-047F872106D7}" name="Брутто вес"/>
-    <tableColumn id="15" xr3:uid="{6088F66E-C1D1-4BCA-BD6B-BC837D87D448}" name="Нетто вес"/>
-    <tableColumn id="16" xr3:uid="{8A11F2BD-31A7-469F-B7C0-0ED8CE5EFE9F}" name="Кол-во паллет"/>
-    <tableColumn id="17" xr3:uid="{35A73885-7EFC-4D39-9BC8-4341757C83E0}" name="Стоимость поставки"/>
-    <tableColumn id="18" xr3:uid="{4299B292-9ABA-4875-998F-986B00EE5C86}" name="Стоимость доставки"/>
+    <tableColumn id="1" name="ID перевозчика"/>
+    <tableColumn id="2" name="Перевозчик"/>
+    <tableColumn id="3" name="Тип ТС, тонн"/>
+    <tableColumn id="4" name="Водитель (ФИО)"/>
+    <tableColumn id="5" name="Номер,марка"/>
+    <tableColumn id="6" name="Телефон водителя"/>
+    <tableColumn id="7" name="Город"/>
+    <tableColumn id="8" name="Направление"/>
+    <tableColumn id="9" name="Порядок выгрузки"/>
+    <tableColumn id="10" name="Номер грузополучателя"/>
+    <tableColumn id="11" name="Номер накладной"/>
+    <tableColumn id="12" name="Номер поставки"/>
+    <tableColumn id="13" name="Грузополучатель"/>
+    <tableColumn id="14" name="Брутто вес"/>
+    <tableColumn id="15" name="Нетто вес"/>
+    <tableColumn id="16" name="Кол-во паллет"/>
+    <tableColumn id="17" name="Стоимость поставки"/>
+    <tableColumn id="18" name="Стоимость доставки"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{831D85DE-6D3B-420B-AC1F-E9FEED9646DD}" name="Таблица4" displayName="Таблица4" ref="B2:D25" totalsRowShown="0">
-  <autoFilter ref="B2:D25" xr:uid="{DE4A6499-25FE-4A0E-AE62-0DABB7DFBF79}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B2:D25" totalsRowShown="0">
+  <autoFilter ref="B2:D25"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{29A63BC4-2872-4EA4-B075-ED195D9BE031}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{FF7F5D4D-C144-4DC0-AEA8-3808900FD64A}" name="Компания" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{A6517B15-FFF0-4130-831C-781935AA2468}" name="Получатель письма" dataDxfId="26" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Компания" dataDxfId="1"/>
+    <tableColumn id="3" name="Получатель письма" dataDxfId="0" dataCellStyle="Гиперссылка"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2853,7 +2838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9007937B-86DB-4446-832F-F234A2840685}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
   <dimension ref="B1:I10"/>
   <sheetViews>
@@ -2881,7 +2866,7 @@
       </c>
       <c r="C2" s="160">
         <f ca="1">TODAY()+1</f>
-        <v>43904</v>
+        <v>43908</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2897,25 +2882,25 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="173" t="s">
+      <c r="B5" s="167" t="s">
         <v>235</v>
       </c>
-      <c r="C5" s="173" t="s">
+      <c r="C5" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="173" t="s">
+      <c r="D5" s="167" t="s">
         <v>234</v>
       </c>
-      <c r="E5" s="173" t="s">
+      <c r="E5" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="173" t="s">
+      <c r="F5" s="167" t="s">
         <v>233</v>
       </c>
-      <c r="G5" s="173" t="s">
+      <c r="G5" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="173" t="s">
+      <c r="H5" s="167" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2969,7 +2954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED890B8B-86AE-4973-89A7-EA4F62A8B1DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист6"/>
   <dimension ref="A1:J527"/>
   <sheetViews>
@@ -18747,7 +18732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67A1708-3085-4C0B-B20B-14DE5D5EB1E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:O114"/>
   <sheetViews>
@@ -22864,7 +22849,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{974BA38D-DA35-4357-9E2E-DBF87D9FA2F8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
       <formula1>$L$2:$L$23</formula1>
     </dataValidation>
   </dataValidations>
@@ -22878,7 +22863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2A8660-FA2E-487C-BB12-9A558B42F740}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист4"/>
   <dimension ref="B1:Q29"/>
   <sheetViews>
@@ -22957,7 +22942,7 @@
       </c>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="168" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="72">
@@ -23002,12 +22987,12 @@
       <c r="P2" s="65">
         <v>1</v>
       </c>
-      <c r="Q2" s="170" t="s">
+      <c r="Q2" s="171" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="168"/>
+      <c r="B3" s="169"/>
       <c r="C3" s="72">
         <v>94206</v>
       </c>
@@ -23050,10 +23035,10 @@
       <c r="P3" s="65">
         <v>2</v>
       </c>
-      <c r="Q3" s="171"/>
+      <c r="Q3" s="172"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="168"/>
+      <c r="B4" s="169"/>
       <c r="C4" s="72">
         <v>92587</v>
       </c>
@@ -23096,10 +23081,10 @@
       <c r="P4" s="65">
         <v>3</v>
       </c>
-      <c r="Q4" s="171"/>
+      <c r="Q4" s="172"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="169"/>
+      <c r="B5" s="170"/>
       <c r="C5" s="72">
         <v>83838</v>
       </c>
@@ -23142,10 +23127,10 @@
       <c r="P5" s="65">
         <v>4</v>
       </c>
-      <c r="Q5" s="171"/>
+      <c r="Q5" s="172"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="167" t="s">
+      <c r="B6" s="168" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="64">
@@ -23190,10 +23175,10 @@
       <c r="P6" s="57">
         <v>1</v>
       </c>
-      <c r="Q6" s="171"/>
+      <c r="Q6" s="172"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="168"/>
+      <c r="B7" s="169"/>
       <c r="C7" s="64">
         <v>73499</v>
       </c>
@@ -23236,10 +23221,10 @@
       <c r="P7" s="57">
         <v>2</v>
       </c>
-      <c r="Q7" s="171"/>
+      <c r="Q7" s="172"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="168"/>
+      <c r="B8" s="169"/>
       <c r="C8" s="64">
         <v>90317</v>
       </c>
@@ -23282,10 +23267,10 @@
       <c r="P8" s="57">
         <v>3</v>
       </c>
-      <c r="Q8" s="171"/>
+      <c r="Q8" s="172"/>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="169"/>
+      <c r="B9" s="170"/>
       <c r="C9" s="64">
         <v>56096</v>
       </c>
@@ -23328,10 +23313,10 @@
       <c r="P9" s="57">
         <v>4</v>
       </c>
-      <c r="Q9" s="171"/>
+      <c r="Q9" s="172"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="167" t="s">
+      <c r="B10" s="168" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="56">
@@ -23376,10 +23361,10 @@
       <c r="P10" s="49">
         <v>1</v>
       </c>
-      <c r="Q10" s="171"/>
+      <c r="Q10" s="172"/>
     </row>
     <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="169"/>
+      <c r="B11" s="170"/>
       <c r="C11" s="56">
         <v>83805</v>
       </c>
@@ -23422,13 +23407,13 @@
       <c r="P11" s="49">
         <v>2</v>
       </c>
-      <c r="Q11" s="172"/>
+      <c r="Q11" s="173"/>
     </row>
     <row r="12" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="21"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="167" t="s">
+      <c r="B13" s="168" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="48"/>
@@ -23471,12 +23456,12 @@
       <c r="P13" s="38">
         <v>1</v>
       </c>
-      <c r="Q13" s="170" t="s">
+      <c r="Q13" s="171" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="169"/>
+      <c r="B14" s="170"/>
       <c r="C14" s="45">
         <v>56205</v>
       </c>
@@ -23519,10 +23504,10 @@
       <c r="P14" s="38">
         <v>2</v>
       </c>
-      <c r="Q14" s="171"/>
+      <c r="Q14" s="172"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="167" t="s">
+      <c r="B15" s="168" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="37">
@@ -23567,10 +23552,10 @@
       <c r="P15" s="30">
         <v>1</v>
       </c>
-      <c r="Q15" s="171"/>
+      <c r="Q15" s="172"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="168"/>
+      <c r="B16" s="169"/>
       <c r="C16" s="37">
         <v>91020</v>
       </c>
@@ -23613,10 +23598,10 @@
       <c r="P16" s="30">
         <v>2</v>
       </c>
-      <c r="Q16" s="171"/>
+      <c r="Q16" s="172"/>
     </row>
     <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="169"/>
+      <c r="B17" s="170"/>
       <c r="C17" s="37">
         <v>84183</v>
       </c>
@@ -23659,13 +23644,13 @@
       <c r="P17" s="30">
         <v>3</v>
       </c>
-      <c r="Q17" s="172"/>
+      <c r="Q17" s="173"/>
     </row>
     <row r="18" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="21"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="167" t="s">
+      <c r="B19" s="168" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="29">
@@ -23710,12 +23695,12 @@
       <c r="P19" s="22">
         <v>1</v>
       </c>
-      <c r="Q19" s="170" t="s">
+      <c r="Q19" s="171" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="168"/>
+      <c r="B20" s="169"/>
       <c r="C20" s="29">
         <v>56161</v>
       </c>
@@ -23758,10 +23743,10 @@
       <c r="P20" s="22">
         <v>2</v>
       </c>
-      <c r="Q20" s="171"/>
+      <c r="Q20" s="172"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="168"/>
+      <c r="B21" s="169"/>
       <c r="C21" s="29">
         <v>59425</v>
       </c>
@@ -23804,10 +23789,10 @@
       <c r="P21" s="22">
         <v>3</v>
       </c>
-      <c r="Q21" s="171"/>
+      <c r="Q21" s="172"/>
     </row>
     <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="169"/>
+      <c r="B22" s="170"/>
       <c r="C22" s="29">
         <v>94012</v>
       </c>
@@ -23850,13 +23835,13 @@
       <c r="P22" s="22">
         <v>4</v>
       </c>
-      <c r="Q22" s="172"/>
+      <c r="Q22" s="173"/>
     </row>
     <row r="23" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="21"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="167" t="s">
+      <c r="B24" s="168" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="18">
@@ -23901,12 +23886,12 @@
       <c r="P24" s="11">
         <v>1</v>
       </c>
-      <c r="Q24" s="170" t="s">
+      <c r="Q24" s="171" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="168"/>
+      <c r="B25" s="169"/>
       <c r="C25" s="18">
         <v>60102</v>
       </c>
@@ -23949,10 +23934,10 @@
       <c r="P25" s="11">
         <v>2</v>
       </c>
-      <c r="Q25" s="171"/>
+      <c r="Q25" s="172"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="168"/>
+      <c r="B26" s="169"/>
       <c r="C26" s="20">
         <v>57317</v>
       </c>
@@ -23995,10 +23980,10 @@
       <c r="P26" s="11">
         <v>3</v>
       </c>
-      <c r="Q26" s="171"/>
+      <c r="Q26" s="172"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="168"/>
+      <c r="B27" s="169"/>
       <c r="C27" s="18">
         <v>78258</v>
       </c>
@@ -24041,10 +24026,10 @@
       <c r="P27" s="11">
         <v>4</v>
       </c>
-      <c r="Q27" s="171"/>
+      <c r="Q27" s="172"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="168"/>
+      <c r="B28" s="169"/>
       <c r="C28" s="18">
         <v>59019</v>
       </c>
@@ -24087,10 +24072,10 @@
       <c r="P28" s="11">
         <v>5</v>
       </c>
-      <c r="Q28" s="171"/>
+      <c r="Q28" s="172"/>
     </row>
     <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="169"/>
+      <c r="B29" s="170"/>
       <c r="C29" s="18">
         <v>92968</v>
       </c>
@@ -24133,7 +24118,7 @@
       <c r="P29" s="11">
         <v>6</v>
       </c>
-      <c r="Q29" s="172"/>
+      <c r="Q29" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -24150,25 +24135,25 @@
     <mergeCell ref="B15:B17"/>
   </mergeCells>
   <conditionalFormatting sqref="D19:D22">
-    <cfRule type="duplicateValues" dxfId="25" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D17">
-    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D29">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D9">
-    <cfRule type="duplicateValues" dxfId="20" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="duplicateValues" dxfId="19" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -24176,7 +24161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C656078C-5788-473C-A81C-C0AA8668C0B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:N114"/>
   <sheetViews>
@@ -29246,65 +29231,65 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="duplicateValues" dxfId="18" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="duplicateValues" dxfId="17" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B8">
-    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="duplicateValues" dxfId="15" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B22">
-    <cfRule type="duplicateValues" dxfId="13" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B26">
-    <cfRule type="duplicateValues" dxfId="12" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B33">
-    <cfRule type="duplicateValues" dxfId="11" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B47">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B52 B54:B59">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B72">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B80">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B89">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B98">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B103">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B106">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107:B114">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375F6EB9-3D32-44EC-A21F-591B8DAB3347}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
   <dimension ref="B1:S2"/>
   <sheetViews>
@@ -29400,7 +29385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2949FE64-A100-43D3-B687-D859BE56E0C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист7"/>
   <dimension ref="B2:D25"/>
   <sheetViews>
@@ -29611,29 +29596,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{ABCB75C0-C6DC-4692-B622-CAD010CA4644}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{125EF592-2940-4457-B4AA-A808ED5572BC}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{3601E314-0357-4CDD-82ED-A8A13C1C7F87}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{982BCE84-5F9B-449E-AC9C-8B8EF00726E1}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{8A33AE50-C793-4308-8AE5-926983FD5F33}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{CDE3954B-2125-465E-BC85-6541D0297D13}"/>
-    <hyperlink ref="D9" r:id="rId7" xr:uid="{ACA1446B-4571-4078-8F6F-86710EEC22E2}"/>
-    <hyperlink ref="D10" r:id="rId8" xr:uid="{00C2AAF8-6D8C-4DB8-B3C2-4F8411F3E61A}"/>
-    <hyperlink ref="D12" r:id="rId9" xr:uid="{C76B7219-59CC-4FC2-98FA-818B9A437751}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{E5C6E3F2-3CE9-437E-8198-C477003E4D12}"/>
-    <hyperlink ref="D13" r:id="rId11" xr:uid="{7BA44533-8DA0-4E2E-A6A9-FA34990E1128}"/>
-    <hyperlink ref="D14" r:id="rId12" xr:uid="{F6583AFB-5E6C-4E16-A281-7240EC751405}"/>
-    <hyperlink ref="D15" r:id="rId13" xr:uid="{43EADD06-EC99-4CE9-85FA-079CC1E1DED5}"/>
-    <hyperlink ref="D16" r:id="rId14" xr:uid="{93ABC20F-33F4-406C-A5D2-53FCA0922CC6}"/>
-    <hyperlink ref="D17" r:id="rId15" xr:uid="{90679A68-D34E-49D7-943C-759E77C5394B}"/>
-    <hyperlink ref="D19" r:id="rId16" xr:uid="{9C52527F-9E52-430F-8D4C-40194761CFD9}"/>
-    <hyperlink ref="D20" r:id="rId17" xr:uid="{942F00EF-D627-4409-9225-305BB3004270}"/>
-    <hyperlink ref="D21" r:id="rId18" xr:uid="{502AEE33-C162-402B-AD96-31A19B9821BE}"/>
-    <hyperlink ref="D18" r:id="rId19" xr:uid="{240B62BA-F50F-4E1A-B571-C3661075505E}"/>
-    <hyperlink ref="D22" r:id="rId20" xr:uid="{3FB8B1D9-8C64-4BCF-AE74-6ECE0CEC1DAA}"/>
-    <hyperlink ref="D23" r:id="rId21" xr:uid="{B88399ED-1423-4D0F-BA27-20CF89B93469}"/>
-    <hyperlink ref="D24" r:id="rId22" xr:uid="{161AE591-60AF-477F-BF0E-834559336BD0}"/>
-    <hyperlink ref="D25" r:id="rId23" xr:uid="{73BF9B11-4CE6-4485-93FA-9BD72534DF8E}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D7" r:id="rId5"/>
+    <hyperlink ref="D8" r:id="rId6"/>
+    <hyperlink ref="D9" r:id="rId7"/>
+    <hyperlink ref="D10" r:id="rId8"/>
+    <hyperlink ref="D12" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D13" r:id="rId11"/>
+    <hyperlink ref="D14" r:id="rId12"/>
+    <hyperlink ref="D15" r:id="rId13"/>
+    <hyperlink ref="D16" r:id="rId14"/>
+    <hyperlink ref="D17" r:id="rId15"/>
+    <hyperlink ref="D19" r:id="rId16"/>
+    <hyperlink ref="D20" r:id="rId17"/>
+    <hyperlink ref="D21" r:id="rId18"/>
+    <hyperlink ref="D18" r:id="rId19"/>
+    <hyperlink ref="D22" r:id="rId20"/>
+    <hyperlink ref="D23" r:id="rId21"/>
+    <hyperlink ref="D24" r:id="rId22"/>
+    <hyperlink ref="D25" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/DomesticTransport/DomesticTransport.xlsx
+++ b/DomesticTransport/DomesticTransport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12930" windowHeight="6705"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13500" windowHeight="6300"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery" sheetId="2" r:id="rId1"/>
@@ -2843,7 +2843,7 @@
   <dimension ref="B1:I10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2945,7 +2945,7 @@
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>

--- a/DomesticTransport/DomesticTransport.xlsx
+++ b/DomesticTransport/DomesticTransport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13500" windowHeight="6300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13620" windowHeight="6300"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4410" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4411" uniqueCount="278">
   <si>
     <t>Перевозчик</t>
   </si>
@@ -808,9 +808,6 @@
     <t>Вес доставки</t>
   </si>
   <si>
-    <t>Марка авто</t>
-  </si>
-  <si>
     <t>№ Доставки</t>
   </si>
   <si>
@@ -938,6 +935,9 @@
   </si>
   <si>
     <t>Yerevan</t>
+  </si>
+  <si>
+    <t>ID Route</t>
   </si>
 </sst>
 </file>
@@ -1925,83 +1925,6 @@
   <dxfs count="39">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2251,6 +2174,83 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="9" tint="0.39997558519241921"/>
@@ -2414,7 +2414,7 @@
   <tableColumns count="7">
     <tableColumn id="1" name="№ Доставки"/>
     <tableColumn id="6" name="Компания"/>
-    <tableColumn id="4" name="Марка авто"/>
+    <tableColumn id="4" name="ID Route"/>
     <tableColumn id="8" name="Тоннаж"/>
     <tableColumn id="3" name="Вес доставки"/>
     <tableColumn id="5" name="Стоимость товаров"/>
@@ -2425,10 +2425,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TableOrders" displayName="TableOrders" ref="B10:I11" totalsRowShown="0" headerRowDxfId="37">
-  <autoFilter ref="B10:I11"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TableOrders" displayName="TableOrders" ref="B10:J11" totalsRowShown="0" headerRowDxfId="37">
+  <autoFilter ref="B10:J11"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="№ Доставки"/>
+    <tableColumn id="9" name="Порядок выгрузки"/>
     <tableColumn id="2" name="Накладная"/>
     <tableColumn id="3" name="ID Получателя"/>
     <tableColumn id="4" name="Адрес"/>
@@ -2504,7 +2505,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TableTotal" displayName="TableTotal" ref="B2:S3" insertRow="1" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" headerRowCellStyle="Акцент6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TableTotal" displayName="TableTotal" ref="B2:S3" insertRow="1" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" headerRowCellStyle="Акцент6">
   <autoFilter ref="B2:S3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="ID перевозчика"/>
@@ -2535,8 +2536,8 @@
   <autoFilter ref="B2:D25"/>
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Компания" dataDxfId="1"/>
-    <tableColumn id="3" name="Получатель письма" dataDxfId="0" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="2" name="Компания" dataDxfId="26"/>
+    <tableColumn id="3" name="Получатель письма" dataDxfId="25" dataCellStyle="Гиперссылка"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2840,17 +2841,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="B1:I10"/>
+  <dimension ref="B1:J10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
@@ -2859,8 +2860,8 @@
     <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="159" t="s">
         <v>226</v>
       </c>
@@ -2875,21 +2876,21 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="167" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C5" s="167" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="167" t="s">
-        <v>234</v>
+        <v>277</v>
       </c>
       <c r="E5" s="167" t="s">
         <v>3</v>
@@ -2904,7 +2905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
@@ -2916,29 +2917,32 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3383,10 +3387,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" t="s">
         <v>236</v>
-      </c>
-      <c r="C15" t="s">
-        <v>237</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -3812,7 +3816,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C28" t="s">
         <v>94</v>
@@ -3845,10 +3849,10 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
+        <v>238</v>
+      </c>
+      <c r="C29" t="s">
         <v>239</v>
-      </c>
-      <c r="C29" t="s">
-        <v>240</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -3878,10 +3882,10 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
+        <v>240</v>
+      </c>
+      <c r="C30" t="s">
         <v>241</v>
-      </c>
-      <c r="C30" t="s">
-        <v>242</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -4010,10 +4014,10 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
+        <v>235</v>
+      </c>
+      <c r="C34" t="s">
         <v>236</v>
-      </c>
-      <c r="C34" t="s">
-        <v>237</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
@@ -4043,10 +4047,10 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
+        <v>235</v>
+      </c>
+      <c r="C35" t="s">
         <v>236</v>
-      </c>
-      <c r="C35" t="s">
-        <v>237</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -4076,10 +4080,10 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
+        <v>235</v>
+      </c>
+      <c r="C36" t="s">
         <v>236</v>
-      </c>
-      <c r="C36" t="s">
-        <v>237</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -4109,10 +4113,10 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
+        <v>235</v>
+      </c>
+      <c r="C37" t="s">
         <v>236</v>
-      </c>
-      <c r="C37" t="s">
-        <v>237</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -4142,10 +4146,10 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
+        <v>235</v>
+      </c>
+      <c r="C38" t="s">
         <v>236</v>
-      </c>
-      <c r="C38" t="s">
-        <v>237</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
@@ -4175,10 +4179,10 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
+        <v>235</v>
+      </c>
+      <c r="C39" t="s">
         <v>236</v>
-      </c>
-      <c r="C39" t="s">
-        <v>237</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
@@ -4208,10 +4212,10 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
+        <v>235</v>
+      </c>
+      <c r="C40" t="s">
         <v>236</v>
-      </c>
-      <c r="C40" t="s">
-        <v>237</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
@@ -4241,10 +4245,10 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
+        <v>235</v>
+      </c>
+      <c r="C41" t="s">
         <v>236</v>
-      </c>
-      <c r="C41" t="s">
-        <v>237</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>
@@ -4274,10 +4278,10 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
+        <v>235</v>
+      </c>
+      <c r="C42" t="s">
         <v>236</v>
-      </c>
-      <c r="C42" t="s">
-        <v>237</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
@@ -4307,10 +4311,10 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
+        <v>242</v>
+      </c>
+      <c r="C43" t="s">
         <v>243</v>
-      </c>
-      <c r="C43" t="s">
-        <v>244</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
@@ -4340,10 +4344,10 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
+        <v>244</v>
+      </c>
+      <c r="C44" t="s">
         <v>245</v>
-      </c>
-      <c r="C44" t="s">
-        <v>246</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
@@ -4373,7 +4377,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C45" t="s">
         <v>100</v>
@@ -4406,10 +4410,10 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
+        <v>235</v>
+      </c>
+      <c r="C46" t="s">
         <v>236</v>
-      </c>
-      <c r="C46" t="s">
-        <v>237</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
@@ -4439,10 +4443,10 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
+        <v>235</v>
+      </c>
+      <c r="C47" t="s">
         <v>236</v>
-      </c>
-      <c r="C47" t="s">
-        <v>237</v>
       </c>
       <c r="D47" t="s">
         <v>13</v>
@@ -4472,10 +4476,10 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
+        <v>235</v>
+      </c>
+      <c r="C48" t="s">
         <v>236</v>
-      </c>
-      <c r="C48" t="s">
-        <v>237</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
@@ -4505,7 +4509,7 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C49" t="s">
         <v>94</v>
@@ -4538,7 +4542,7 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C50" t="s">
         <v>94</v>
@@ -4571,7 +4575,7 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C51" t="s">
         <v>94</v>
@@ -4604,7 +4608,7 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C52" t="s">
         <v>94</v>
@@ -4637,7 +4641,7 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C53" t="s">
         <v>94</v>
@@ -4670,7 +4674,7 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C54" t="s">
         <v>94</v>
@@ -4703,7 +4707,7 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C55" t="s">
         <v>94</v>
@@ -4736,7 +4740,7 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C56" t="s">
         <v>94</v>
@@ -4769,7 +4773,7 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C57" t="s">
         <v>94</v>
@@ -4802,7 +4806,7 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C58" t="s">
         <v>104</v>
@@ -4835,7 +4839,7 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C59" t="s">
         <v>110</v>
@@ -4868,10 +4872,10 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
+        <v>249</v>
+      </c>
+      <c r="C60" t="s">
         <v>250</v>
-      </c>
-      <c r="C60" t="s">
-        <v>251</v>
       </c>
       <c r="D60" t="s">
         <v>13</v>
@@ -4901,7 +4905,7 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C61" t="s">
         <v>94</v>
@@ -4934,7 +4938,7 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C62" t="s">
         <v>94</v>
@@ -4967,7 +4971,7 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C63" t="s">
         <v>94</v>
@@ -5000,10 +5004,10 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
+        <v>238</v>
+      </c>
+      <c r="C64" t="s">
         <v>239</v>
-      </c>
-      <c r="C64" t="s">
-        <v>240</v>
       </c>
       <c r="D64" t="s">
         <v>13</v>
@@ -5033,10 +5037,10 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
+        <v>238</v>
+      </c>
+      <c r="C65" t="s">
         <v>239</v>
-      </c>
-      <c r="C65" t="s">
-        <v>240</v>
       </c>
       <c r="D65" t="s">
         <v>13</v>
@@ -5066,10 +5070,10 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
+        <v>238</v>
+      </c>
+      <c r="C66" t="s">
         <v>239</v>
-      </c>
-      <c r="C66" t="s">
-        <v>240</v>
       </c>
       <c r="D66" t="s">
         <v>13</v>
@@ -5099,10 +5103,10 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
+        <v>238</v>
+      </c>
+      <c r="C67" t="s">
         <v>239</v>
-      </c>
-      <c r="C67" t="s">
-        <v>240</v>
       </c>
       <c r="D67" t="s">
         <v>13</v>
@@ -5132,10 +5136,10 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
+        <v>238</v>
+      </c>
+      <c r="C68" t="s">
         <v>239</v>
-      </c>
-      <c r="C68" t="s">
-        <v>240</v>
       </c>
       <c r="D68" t="s">
         <v>13</v>
@@ -5165,10 +5169,10 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
+        <v>238</v>
+      </c>
+      <c r="C69" t="s">
         <v>239</v>
-      </c>
-      <c r="C69" t="s">
-        <v>240</v>
       </c>
       <c r="D69" t="s">
         <v>13</v>
@@ -5198,10 +5202,10 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
+        <v>238</v>
+      </c>
+      <c r="C70" t="s">
         <v>239</v>
-      </c>
-      <c r="C70" t="s">
-        <v>240</v>
       </c>
       <c r="D70" t="s">
         <v>13</v>
@@ -5231,10 +5235,10 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
+        <v>238</v>
+      </c>
+      <c r="C71" t="s">
         <v>239</v>
-      </c>
-      <c r="C71" t="s">
-        <v>240</v>
       </c>
       <c r="D71" t="s">
         <v>13</v>
@@ -5264,10 +5268,10 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
+        <v>238</v>
+      </c>
+      <c r="C72" t="s">
         <v>239</v>
-      </c>
-      <c r="C72" t="s">
-        <v>240</v>
       </c>
       <c r="D72" t="s">
         <v>13</v>
@@ -5297,7 +5301,7 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C73" t="s">
         <v>113</v>
@@ -5330,7 +5334,7 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C74" t="s">
         <v>119</v>
@@ -5363,7 +5367,7 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C75" t="s">
         <v>123</v>
@@ -5396,10 +5400,10 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
+        <v>238</v>
+      </c>
+      <c r="C76" t="s">
         <v>239</v>
-      </c>
-      <c r="C76" t="s">
-        <v>240</v>
       </c>
       <c r="D76" t="s">
         <v>13</v>
@@ -5429,10 +5433,10 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
+        <v>238</v>
+      </c>
+      <c r="C77" t="s">
         <v>239</v>
-      </c>
-      <c r="C77" t="s">
-        <v>240</v>
       </c>
       <c r="D77" t="s">
         <v>13</v>
@@ -5462,10 +5466,10 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
+        <v>238</v>
+      </c>
+      <c r="C78" t="s">
         <v>239</v>
-      </c>
-      <c r="C78" t="s">
-        <v>240</v>
       </c>
       <c r="D78" t="s">
         <v>13</v>
@@ -5495,10 +5499,10 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
+        <v>240</v>
+      </c>
+      <c r="C79" t="s">
         <v>241</v>
-      </c>
-      <c r="C79" t="s">
-        <v>242</v>
       </c>
       <c r="D79" t="s">
         <v>13</v>
@@ -5528,10 +5532,10 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
+        <v>240</v>
+      </c>
+      <c r="C80" t="s">
         <v>241</v>
-      </c>
-      <c r="C80" t="s">
-        <v>242</v>
       </c>
       <c r="D80" t="s">
         <v>13</v>
@@ -5561,10 +5565,10 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
+        <v>240</v>
+      </c>
+      <c r="C81" t="s">
         <v>241</v>
-      </c>
-      <c r="C81" t="s">
-        <v>242</v>
       </c>
       <c r="D81" t="s">
         <v>13</v>
@@ -5594,10 +5598,10 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
+        <v>240</v>
+      </c>
+      <c r="C82" t="s">
         <v>241</v>
-      </c>
-      <c r="C82" t="s">
-        <v>242</v>
       </c>
       <c r="D82" t="s">
         <v>13</v>
@@ -5627,10 +5631,10 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
+        <v>240</v>
+      </c>
+      <c r="C83" t="s">
         <v>241</v>
-      </c>
-      <c r="C83" t="s">
-        <v>242</v>
       </c>
       <c r="D83" t="s">
         <v>13</v>
@@ -5660,10 +5664,10 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
+        <v>240</v>
+      </c>
+      <c r="C84" t="s">
         <v>241</v>
-      </c>
-      <c r="C84" t="s">
-        <v>242</v>
       </c>
       <c r="D84" t="s">
         <v>13</v>
@@ -5693,10 +5697,10 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" t="s">
         <v>241</v>
-      </c>
-      <c r="C85" t="s">
-        <v>242</v>
       </c>
       <c r="D85" t="s">
         <v>13</v>
@@ -5726,10 +5730,10 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
+        <v>240</v>
+      </c>
+      <c r="C86" t="s">
         <v>241</v>
-      </c>
-      <c r="C86" t="s">
-        <v>242</v>
       </c>
       <c r="D86" t="s">
         <v>13</v>
@@ -5759,10 +5763,10 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
+        <v>240</v>
+      </c>
+      <c r="C87" t="s">
         <v>241</v>
-      </c>
-      <c r="C87" t="s">
-        <v>242</v>
       </c>
       <c r="D87" t="s">
         <v>13</v>
@@ -5792,7 +5796,7 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C88" t="s">
         <v>124</v>
@@ -5825,7 +5829,7 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C89" t="s">
         <v>128</v>
@@ -5858,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C90" t="s">
         <v>131</v>
@@ -5891,10 +5895,10 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
+        <v>240</v>
+      </c>
+      <c r="C91" t="s">
         <v>241</v>
-      </c>
-      <c r="C91" t="s">
-        <v>242</v>
       </c>
       <c r="D91" t="s">
         <v>13</v>
@@ -5924,10 +5928,10 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
+        <v>240</v>
+      </c>
+      <c r="C92" t="s">
         <v>241</v>
-      </c>
-      <c r="C92" t="s">
-        <v>242</v>
       </c>
       <c r="D92" t="s">
         <v>13</v>
@@ -5957,10 +5961,10 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
+        <v>240</v>
+      </c>
+      <c r="C93" t="s">
         <v>241</v>
-      </c>
-      <c r="C93" t="s">
-        <v>242</v>
       </c>
       <c r="D93" t="s">
         <v>13</v>
@@ -5990,10 +5994,10 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
+        <v>242</v>
+      </c>
+      <c r="C94" t="s">
         <v>243</v>
-      </c>
-      <c r="C94" t="s">
-        <v>244</v>
       </c>
       <c r="D94" t="s">
         <v>13</v>
@@ -6023,10 +6027,10 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
+        <v>242</v>
+      </c>
+      <c r="C95" t="s">
         <v>243</v>
-      </c>
-      <c r="C95" t="s">
-        <v>244</v>
       </c>
       <c r="D95" t="s">
         <v>13</v>
@@ -6056,10 +6060,10 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
+        <v>242</v>
+      </c>
+      <c r="C96" t="s">
         <v>243</v>
-      </c>
-      <c r="C96" t="s">
-        <v>244</v>
       </c>
       <c r="D96" t="s">
         <v>13</v>
@@ -6089,10 +6093,10 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
+        <v>242</v>
+      </c>
+      <c r="C97" t="s">
         <v>243</v>
-      </c>
-      <c r="C97" t="s">
-        <v>244</v>
       </c>
       <c r="D97" t="s">
         <v>13</v>
@@ -6122,10 +6126,10 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
+        <v>242</v>
+      </c>
+      <c r="C98" t="s">
         <v>243</v>
-      </c>
-      <c r="C98" t="s">
-        <v>244</v>
       </c>
       <c r="D98" t="s">
         <v>13</v>
@@ -6155,10 +6159,10 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
+        <v>242</v>
+      </c>
+      <c r="C99" t="s">
         <v>243</v>
-      </c>
-      <c r="C99" t="s">
-        <v>244</v>
       </c>
       <c r="D99" t="s">
         <v>13</v>
@@ -6188,10 +6192,10 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
+        <v>242</v>
+      </c>
+      <c r="C100" t="s">
         <v>243</v>
-      </c>
-      <c r="C100" t="s">
-        <v>244</v>
       </c>
       <c r="D100" t="s">
         <v>13</v>
@@ -6221,10 +6225,10 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
+        <v>242</v>
+      </c>
+      <c r="C101" t="s">
         <v>243</v>
-      </c>
-      <c r="C101" t="s">
-        <v>244</v>
       </c>
       <c r="D101" t="s">
         <v>13</v>
@@ -6254,10 +6258,10 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
+        <v>242</v>
+      </c>
+      <c r="C102" t="s">
         <v>243</v>
-      </c>
-      <c r="C102" t="s">
-        <v>244</v>
       </c>
       <c r="D102" t="s">
         <v>13</v>
@@ -6287,7 +6291,7 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C103" t="s">
         <v>176</v>
@@ -6320,7 +6324,7 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C104" t="s">
         <v>146</v>
@@ -6353,7 +6357,7 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C105" t="s">
         <v>184</v>
@@ -6386,10 +6390,10 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
+        <v>242</v>
+      </c>
+      <c r="C106" t="s">
         <v>243</v>
-      </c>
-      <c r="C106" t="s">
-        <v>244</v>
       </c>
       <c r="D106" t="s">
         <v>13</v>
@@ -6419,10 +6423,10 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
+        <v>242</v>
+      </c>
+      <c r="C107" t="s">
         <v>243</v>
-      </c>
-      <c r="C107" t="s">
-        <v>244</v>
       </c>
       <c r="D107" t="s">
         <v>13</v>
@@ -6452,10 +6456,10 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
+        <v>242</v>
+      </c>
+      <c r="C108" t="s">
         <v>243</v>
-      </c>
-      <c r="C108" t="s">
-        <v>244</v>
       </c>
       <c r="D108" t="s">
         <v>13</v>
@@ -6485,10 +6489,10 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
+        <v>244</v>
+      </c>
+      <c r="C109" t="s">
         <v>245</v>
-      </c>
-      <c r="C109" t="s">
-        <v>246</v>
       </c>
       <c r="D109" t="s">
         <v>13</v>
@@ -6518,10 +6522,10 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
+        <v>244</v>
+      </c>
+      <c r="C110" t="s">
         <v>245</v>
-      </c>
-      <c r="C110" t="s">
-        <v>246</v>
       </c>
       <c r="D110" t="s">
         <v>13</v>
@@ -6551,10 +6555,10 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
+        <v>244</v>
+      </c>
+      <c r="C111" t="s">
         <v>245</v>
-      </c>
-      <c r="C111" t="s">
-        <v>246</v>
       </c>
       <c r="D111" t="s">
         <v>13</v>
@@ -6584,10 +6588,10 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
+        <v>244</v>
+      </c>
+      <c r="C112" t="s">
         <v>245</v>
-      </c>
-      <c r="C112" t="s">
-        <v>246</v>
       </c>
       <c r="D112" t="s">
         <v>13</v>
@@ -6617,10 +6621,10 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
+        <v>244</v>
+      </c>
+      <c r="C113" t="s">
         <v>245</v>
-      </c>
-      <c r="C113" t="s">
-        <v>246</v>
       </c>
       <c r="D113" t="s">
         <v>13</v>
@@ -6650,10 +6654,10 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
+        <v>244</v>
+      </c>
+      <c r="C114" t="s">
         <v>245</v>
-      </c>
-      <c r="C114" t="s">
-        <v>246</v>
       </c>
       <c r="D114" t="s">
         <v>13</v>
@@ -6683,10 +6687,10 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
+        <v>244</v>
+      </c>
+      <c r="C115" t="s">
         <v>245</v>
-      </c>
-      <c r="C115" t="s">
-        <v>246</v>
       </c>
       <c r="D115" t="s">
         <v>13</v>
@@ -6716,10 +6720,10 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
+        <v>244</v>
+      </c>
+      <c r="C116" t="s">
         <v>245</v>
-      </c>
-      <c r="C116" t="s">
-        <v>246</v>
       </c>
       <c r="D116" t="s">
         <v>13</v>
@@ -6749,10 +6753,10 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
+        <v>244</v>
+      </c>
+      <c r="C117" t="s">
         <v>245</v>
-      </c>
-      <c r="C117" t="s">
-        <v>246</v>
       </c>
       <c r="D117" t="s">
         <v>13</v>
@@ -6782,10 +6786,10 @@
         <v>11</v>
       </c>
       <c r="B118" t="s">
+        <v>260</v>
+      </c>
+      <c r="C118" t="s">
         <v>261</v>
-      </c>
-      <c r="C118" t="s">
-        <v>262</v>
       </c>
       <c r="D118" t="s">
         <v>13</v>
@@ -6815,7 +6819,7 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C119" t="s">
         <v>186</v>
@@ -6848,16 +6852,16 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C120" t="s">
         <v>134</v>
       </c>
       <c r="D120" t="s">
+        <v>264</v>
+      </c>
+      <c r="E120" t="s">
         <v>265</v>
-      </c>
-      <c r="E120" t="s">
-        <v>266</v>
       </c>
       <c r="F120" t="s">
         <v>20</v>
@@ -6881,10 +6885,10 @@
         <v>11</v>
       </c>
       <c r="B121" t="s">
+        <v>244</v>
+      </c>
+      <c r="C121" t="s">
         <v>245</v>
-      </c>
-      <c r="C121" t="s">
-        <v>246</v>
       </c>
       <c r="D121" t="s">
         <v>13</v>
@@ -6914,10 +6918,10 @@
         <v>11</v>
       </c>
       <c r="B122" t="s">
+        <v>244</v>
+      </c>
+      <c r="C122" t="s">
         <v>245</v>
-      </c>
-      <c r="C122" t="s">
-        <v>246</v>
       </c>
       <c r="D122" t="s">
         <v>13</v>
@@ -6947,10 +6951,10 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
+        <v>244</v>
+      </c>
+      <c r="C123" t="s">
         <v>245</v>
-      </c>
-      <c r="C123" t="s">
-        <v>246</v>
       </c>
       <c r="D123" t="s">
         <v>13</v>
@@ -6980,7 +6984,7 @@
         <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C124" t="s">
         <v>100</v>
@@ -7013,7 +7017,7 @@
         <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C125" t="s">
         <v>100</v>
@@ -7046,7 +7050,7 @@
         <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C126" t="s">
         <v>100</v>
@@ -7079,7 +7083,7 @@
         <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C127" t="s">
         <v>100</v>
@@ -7112,7 +7116,7 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C128" t="s">
         <v>100</v>
@@ -7145,7 +7149,7 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C129" t="s">
         <v>100</v>
@@ -7178,7 +7182,7 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C130" t="s">
         <v>100</v>
@@ -7211,7 +7215,7 @@
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C131" t="s">
         <v>100</v>
@@ -7244,7 +7248,7 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C132" t="s">
         <v>100</v>
@@ -7277,16 +7281,16 @@
         <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C133" t="s">
         <v>134</v>
       </c>
       <c r="D133" t="s">
+        <v>264</v>
+      </c>
+      <c r="E133" t="s">
         <v>265</v>
-      </c>
-      <c r="E133" t="s">
-        <v>266</v>
       </c>
       <c r="F133" t="s">
         <v>20</v>
@@ -7310,16 +7314,16 @@
         <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C134" t="s">
         <v>168</v>
       </c>
       <c r="D134" t="s">
+        <v>268</v>
+      </c>
+      <c r="E134" t="s">
         <v>269</v>
-      </c>
-      <c r="E134" t="s">
-        <v>270</v>
       </c>
       <c r="F134" t="s">
         <v>20</v>
@@ -7343,16 +7347,16 @@
         <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C135" t="s">
         <v>155</v>
       </c>
       <c r="D135" t="s">
+        <v>268</v>
+      </c>
+      <c r="E135" t="s">
         <v>269</v>
-      </c>
-      <c r="E135" t="s">
-        <v>270</v>
       </c>
       <c r="F135" t="s">
         <v>20</v>
@@ -7376,7 +7380,7 @@
         <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C136" t="s">
         <v>100</v>
@@ -7409,7 +7413,7 @@
         <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C137" t="s">
         <v>100</v>
@@ -7442,7 +7446,7 @@
         <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C138" t="s">
         <v>100</v>
@@ -7475,7 +7479,7 @@
         <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C139" t="s">
         <v>104</v>
@@ -7508,7 +7512,7 @@
         <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C140" t="s">
         <v>104</v>
@@ -7541,7 +7545,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C141" t="s">
         <v>104</v>
@@ -7574,7 +7578,7 @@
         <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C142" t="s">
         <v>104</v>
@@ -7607,7 +7611,7 @@
         <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C143" t="s">
         <v>104</v>
@@ -7640,7 +7644,7 @@
         <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C144" t="s">
         <v>104</v>
@@ -7673,7 +7677,7 @@
         <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C145" t="s">
         <v>104</v>
@@ -7706,7 +7710,7 @@
         <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C146" t="s">
         <v>104</v>
@@ -7739,7 +7743,7 @@
         <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C147" t="s">
         <v>104</v>
@@ -7838,10 +7842,10 @@
         <v>11</v>
       </c>
       <c r="B150" t="s">
+        <v>235</v>
+      </c>
+      <c r="C150" t="s">
         <v>236</v>
-      </c>
-      <c r="C150" t="s">
-        <v>237</v>
       </c>
       <c r="D150" t="s">
         <v>13</v>
@@ -7871,7 +7875,7 @@
         <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C151" t="s">
         <v>104</v>
@@ -7904,7 +7908,7 @@
         <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C152" t="s">
         <v>104</v>
@@ -7937,7 +7941,7 @@
         <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C153" t="s">
         <v>104</v>
@@ -7970,7 +7974,7 @@
         <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C154" t="s">
         <v>110</v>
@@ -8003,7 +8007,7 @@
         <v>11</v>
       </c>
       <c r="B155" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C155" t="s">
         <v>110</v>
@@ -8036,7 +8040,7 @@
         <v>11</v>
       </c>
       <c r="B156" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C156" t="s">
         <v>110</v>
@@ -8069,7 +8073,7 @@
         <v>11</v>
       </c>
       <c r="B157" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C157" t="s">
         <v>110</v>
@@ -8102,7 +8106,7 @@
         <v>11</v>
       </c>
       <c r="B158" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C158" t="s">
         <v>110</v>
@@ -8135,7 +8139,7 @@
         <v>11</v>
       </c>
       <c r="B159" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C159" t="s">
         <v>110</v>
@@ -8168,7 +8172,7 @@
         <v>11</v>
       </c>
       <c r="B160" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C160" t="s">
         <v>110</v>
@@ -8201,7 +8205,7 @@
         <v>11</v>
       </c>
       <c r="B161" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C161" t="s">
         <v>110</v>
@@ -8234,7 +8238,7 @@
         <v>11</v>
       </c>
       <c r="B162" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C162" t="s">
         <v>110</v>
@@ -8267,7 +8271,7 @@
         <v>11</v>
       </c>
       <c r="B163" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C163" t="s">
         <v>94</v>
@@ -8300,10 +8304,10 @@
         <v>11</v>
       </c>
       <c r="B164" t="s">
+        <v>238</v>
+      </c>
+      <c r="C164" t="s">
         <v>239</v>
-      </c>
-      <c r="C164" t="s">
-        <v>240</v>
       </c>
       <c r="D164" t="s">
         <v>13</v>
@@ -8333,10 +8337,10 @@
         <v>11</v>
       </c>
       <c r="B165" t="s">
+        <v>240</v>
+      </c>
+      <c r="C165" t="s">
         <v>241</v>
-      </c>
-      <c r="C165" t="s">
-        <v>242</v>
       </c>
       <c r="D165" t="s">
         <v>13</v>
@@ -8366,7 +8370,7 @@
         <v>11</v>
       </c>
       <c r="B166" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C166" t="s">
         <v>110</v>
@@ -8399,7 +8403,7 @@
         <v>11</v>
       </c>
       <c r="B167" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C167" t="s">
         <v>110</v>
@@ -8432,7 +8436,7 @@
         <v>11</v>
       </c>
       <c r="B168" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C168" t="s">
         <v>110</v>
@@ -8465,10 +8469,10 @@
         <v>11</v>
       </c>
       <c r="B169" t="s">
+        <v>249</v>
+      </c>
+      <c r="C169" t="s">
         <v>250</v>
-      </c>
-      <c r="C169" t="s">
-        <v>251</v>
       </c>
       <c r="D169" t="s">
         <v>13</v>
@@ -8498,10 +8502,10 @@
         <v>11</v>
       </c>
       <c r="B170" t="s">
+        <v>249</v>
+      </c>
+      <c r="C170" t="s">
         <v>250</v>
-      </c>
-      <c r="C170" t="s">
-        <v>251</v>
       </c>
       <c r="D170" t="s">
         <v>13</v>
@@ -8531,10 +8535,10 @@
         <v>11</v>
       </c>
       <c r="B171" t="s">
+        <v>249</v>
+      </c>
+      <c r="C171" t="s">
         <v>250</v>
-      </c>
-      <c r="C171" t="s">
-        <v>251</v>
       </c>
       <c r="D171" t="s">
         <v>13</v>
@@ -8564,10 +8568,10 @@
         <v>11</v>
       </c>
       <c r="B172" t="s">
+        <v>249</v>
+      </c>
+      <c r="C172" t="s">
         <v>250</v>
-      </c>
-      <c r="C172" t="s">
-        <v>251</v>
       </c>
       <c r="D172" t="s">
         <v>13</v>
@@ -8597,10 +8601,10 @@
         <v>11</v>
       </c>
       <c r="B173" t="s">
+        <v>249</v>
+      </c>
+      <c r="C173" t="s">
         <v>250</v>
-      </c>
-      <c r="C173" t="s">
-        <v>251</v>
       </c>
       <c r="D173" t="s">
         <v>13</v>
@@ -8630,10 +8634,10 @@
         <v>11</v>
       </c>
       <c r="B174" t="s">
+        <v>249</v>
+      </c>
+      <c r="C174" t="s">
         <v>250</v>
-      </c>
-      <c r="C174" t="s">
-        <v>251</v>
       </c>
       <c r="D174" t="s">
         <v>13</v>
@@ -8663,10 +8667,10 @@
         <v>11</v>
       </c>
       <c r="B175" t="s">
+        <v>249</v>
+      </c>
+      <c r="C175" t="s">
         <v>250</v>
-      </c>
-      <c r="C175" t="s">
-        <v>251</v>
       </c>
       <c r="D175" t="s">
         <v>13</v>
@@ -8696,10 +8700,10 @@
         <v>11</v>
       </c>
       <c r="B176" t="s">
+        <v>249</v>
+      </c>
+      <c r="C176" t="s">
         <v>250</v>
-      </c>
-      <c r="C176" t="s">
-        <v>251</v>
       </c>
       <c r="D176" t="s">
         <v>13</v>
@@ -8729,10 +8733,10 @@
         <v>11</v>
       </c>
       <c r="B177" t="s">
+        <v>249</v>
+      </c>
+      <c r="C177" t="s">
         <v>250</v>
-      </c>
-      <c r="C177" t="s">
-        <v>251</v>
       </c>
       <c r="D177" t="s">
         <v>13</v>
@@ -8762,10 +8766,10 @@
         <v>11</v>
       </c>
       <c r="B178" t="s">
+        <v>242</v>
+      </c>
+      <c r="C178" t="s">
         <v>243</v>
-      </c>
-      <c r="C178" t="s">
-        <v>244</v>
       </c>
       <c r="D178" t="s">
         <v>13</v>
@@ -8795,10 +8799,10 @@
         <v>11</v>
       </c>
       <c r="B179" t="s">
+        <v>244</v>
+      </c>
+      <c r="C179" t="s">
         <v>245</v>
-      </c>
-      <c r="C179" t="s">
-        <v>246</v>
       </c>
       <c r="D179" t="s">
         <v>13</v>
@@ -8828,7 +8832,7 @@
         <v>11</v>
       </c>
       <c r="B180" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C180" t="s">
         <v>100</v>
@@ -8861,10 +8865,10 @@
         <v>11</v>
       </c>
       <c r="B181" t="s">
+        <v>249</v>
+      </c>
+      <c r="C181" t="s">
         <v>250</v>
-      </c>
-      <c r="C181" t="s">
-        <v>251</v>
       </c>
       <c r="D181" t="s">
         <v>13</v>
@@ -8894,10 +8898,10 @@
         <v>11</v>
       </c>
       <c r="B182" t="s">
+        <v>249</v>
+      </c>
+      <c r="C182" t="s">
         <v>250</v>
-      </c>
-      <c r="C182" t="s">
-        <v>251</v>
       </c>
       <c r="D182" t="s">
         <v>13</v>
@@ -8927,10 +8931,10 @@
         <v>11</v>
       </c>
       <c r="B183" t="s">
+        <v>249</v>
+      </c>
+      <c r="C183" t="s">
         <v>250</v>
-      </c>
-      <c r="C183" t="s">
-        <v>251</v>
       </c>
       <c r="D183" t="s">
         <v>13</v>
@@ -8960,7 +8964,7 @@
         <v>11</v>
       </c>
       <c r="B184" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C184" t="s">
         <v>113</v>
@@ -8993,7 +8997,7 @@
         <v>11</v>
       </c>
       <c r="B185" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C185" t="s">
         <v>113</v>
@@ -9026,7 +9030,7 @@
         <v>11</v>
       </c>
       <c r="B186" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C186" t="s">
         <v>113</v>
@@ -9059,7 +9063,7 @@
         <v>11</v>
       </c>
       <c r="B187" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C187" t="s">
         <v>113</v>
@@ -9092,7 +9096,7 @@
         <v>11</v>
       </c>
       <c r="B188" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C188" t="s">
         <v>113</v>
@@ -9125,7 +9129,7 @@
         <v>11</v>
       </c>
       <c r="B189" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C189" t="s">
         <v>113</v>
@@ -9158,7 +9162,7 @@
         <v>11</v>
       </c>
       <c r="B190" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C190" t="s">
         <v>113</v>
@@ -9191,7 +9195,7 @@
         <v>11</v>
       </c>
       <c r="B191" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C191" t="s">
         <v>113</v>
@@ -9224,7 +9228,7 @@
         <v>11</v>
       </c>
       <c r="B192" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C192" t="s">
         <v>113</v>
@@ -9257,7 +9261,7 @@
         <v>11</v>
       </c>
       <c r="B193" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C193" t="s">
         <v>104</v>
@@ -9290,7 +9294,7 @@
         <v>11</v>
       </c>
       <c r="B194" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C194" t="s">
         <v>110</v>
@@ -9323,10 +9327,10 @@
         <v>11</v>
       </c>
       <c r="B195" t="s">
+        <v>249</v>
+      </c>
+      <c r="C195" t="s">
         <v>250</v>
-      </c>
-      <c r="C195" t="s">
-        <v>251</v>
       </c>
       <c r="D195" t="s">
         <v>13</v>
@@ -9356,7 +9360,7 @@
         <v>11</v>
       </c>
       <c r="B196" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C196" t="s">
         <v>113</v>
@@ -9389,7 +9393,7 @@
         <v>11</v>
       </c>
       <c r="B197" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C197" t="s">
         <v>113</v>
@@ -9422,7 +9426,7 @@
         <v>11</v>
       </c>
       <c r="B198" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C198" t="s">
         <v>113</v>
@@ -9455,7 +9459,7 @@
         <v>11</v>
       </c>
       <c r="B199" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C199" t="s">
         <v>119</v>
@@ -9488,7 +9492,7 @@
         <v>11</v>
       </c>
       <c r="B200" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C200" t="s">
         <v>119</v>
@@ -9521,7 +9525,7 @@
         <v>11</v>
       </c>
       <c r="B201" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C201" t="s">
         <v>119</v>
@@ -9554,7 +9558,7 @@
         <v>11</v>
       </c>
       <c r="B202" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C202" t="s">
         <v>119</v>
@@ -9587,7 +9591,7 @@
         <v>11</v>
       </c>
       <c r="B203" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C203" t="s">
         <v>119</v>
@@ -9620,7 +9624,7 @@
         <v>11</v>
       </c>
       <c r="B204" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C204" t="s">
         <v>119</v>
@@ -9653,7 +9657,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C205" t="s">
         <v>119</v>
@@ -9686,7 +9690,7 @@
         <v>11</v>
       </c>
       <c r="B206" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C206" t="s">
         <v>119</v>
@@ -9719,7 +9723,7 @@
         <v>11</v>
       </c>
       <c r="B207" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C207" t="s">
         <v>119</v>
@@ -9752,7 +9756,7 @@
         <v>11</v>
       </c>
       <c r="B208" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C208" t="s">
         <v>113</v>
@@ -9785,7 +9789,7 @@
         <v>11</v>
       </c>
       <c r="B209" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C209" t="s">
         <v>119</v>
@@ -9818,7 +9822,7 @@
         <v>11</v>
       </c>
       <c r="B210" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C210" t="s">
         <v>123</v>
@@ -9851,7 +9855,7 @@
         <v>11</v>
       </c>
       <c r="B211" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C211" t="s">
         <v>119</v>
@@ -9884,7 +9888,7 @@
         <v>11</v>
       </c>
       <c r="B212" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C212" t="s">
         <v>119</v>
@@ -9917,7 +9921,7 @@
         <v>11</v>
       </c>
       <c r="B213" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C213" t="s">
         <v>119</v>
@@ -9950,7 +9954,7 @@
         <v>11</v>
       </c>
       <c r="B214" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C214" t="s">
         <v>123</v>
@@ -9983,7 +9987,7 @@
         <v>11</v>
       </c>
       <c r="B215" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C215" t="s">
         <v>123</v>
@@ -10016,7 +10020,7 @@
         <v>11</v>
       </c>
       <c r="B216" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C216" t="s">
         <v>123</v>
@@ -10049,7 +10053,7 @@
         <v>11</v>
       </c>
       <c r="B217" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C217" t="s">
         <v>123</v>
@@ -10082,7 +10086,7 @@
         <v>11</v>
       </c>
       <c r="B218" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C218" t="s">
         <v>123</v>
@@ -10115,7 +10119,7 @@
         <v>11</v>
       </c>
       <c r="B219" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C219" t="s">
         <v>123</v>
@@ -10148,7 +10152,7 @@
         <v>11</v>
       </c>
       <c r="B220" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C220" t="s">
         <v>123</v>
@@ -10181,7 +10185,7 @@
         <v>11</v>
       </c>
       <c r="B221" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C221" t="s">
         <v>123</v>
@@ -10214,7 +10218,7 @@
         <v>11</v>
       </c>
       <c r="B222" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C222" t="s">
         <v>123</v>
@@ -10247,7 +10251,7 @@
         <v>11</v>
       </c>
       <c r="B223" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C223" t="s">
         <v>124</v>
@@ -10280,7 +10284,7 @@
         <v>11</v>
       </c>
       <c r="B224" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C224" t="s">
         <v>128</v>
@@ -10313,7 +10317,7 @@
         <v>11</v>
       </c>
       <c r="B225" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C225" t="s">
         <v>131</v>
@@ -10346,7 +10350,7 @@
         <v>11</v>
       </c>
       <c r="B226" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C226" t="s">
         <v>123</v>
@@ -10379,7 +10383,7 @@
         <v>11</v>
       </c>
       <c r="B227" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C227" t="s">
         <v>123</v>
@@ -10412,7 +10416,7 @@
         <v>11</v>
       </c>
       <c r="B228" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C228" t="s">
         <v>123</v>
@@ -10445,7 +10449,7 @@
         <v>11</v>
       </c>
       <c r="B229" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C229" t="s">
         <v>124</v>
@@ -10478,7 +10482,7 @@
         <v>11</v>
       </c>
       <c r="B230" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C230" t="s">
         <v>124</v>
@@ -10511,7 +10515,7 @@
         <v>11</v>
       </c>
       <c r="B231" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C231" t="s">
         <v>124</v>
@@ -10544,7 +10548,7 @@
         <v>11</v>
       </c>
       <c r="B232" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C232" t="s">
         <v>124</v>
@@ -10577,7 +10581,7 @@
         <v>11</v>
       </c>
       <c r="B233" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C233" t="s">
         <v>124</v>
@@ -10610,7 +10614,7 @@
         <v>11</v>
       </c>
       <c r="B234" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C234" t="s">
         <v>124</v>
@@ -10643,7 +10647,7 @@
         <v>11</v>
       </c>
       <c r="B235" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C235" t="s">
         <v>124</v>
@@ -10676,7 +10680,7 @@
         <v>11</v>
       </c>
       <c r="B236" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C236" t="s">
         <v>124</v>
@@ -10709,7 +10713,7 @@
         <v>11</v>
       </c>
       <c r="B237" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C237" t="s">
         <v>124</v>
@@ -10742,7 +10746,7 @@
         <v>11</v>
       </c>
       <c r="B238" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C238" t="s">
         <v>176</v>
@@ -10775,7 +10779,7 @@
         <v>11</v>
       </c>
       <c r="B239" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C239" t="s">
         <v>146</v>
@@ -10808,7 +10812,7 @@
         <v>11</v>
       </c>
       <c r="B240" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C240" t="s">
         <v>184</v>
@@ -10841,7 +10845,7 @@
         <v>11</v>
       </c>
       <c r="B241" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C241" t="s">
         <v>124</v>
@@ -10874,7 +10878,7 @@
         <v>11</v>
       </c>
       <c r="B242" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C242" t="s">
         <v>124</v>
@@ -10907,7 +10911,7 @@
         <v>11</v>
       </c>
       <c r="B243" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C243" t="s">
         <v>124</v>
@@ -10940,7 +10944,7 @@
         <v>11</v>
       </c>
       <c r="B244" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C244" t="s">
         <v>128</v>
@@ -10973,7 +10977,7 @@
         <v>11</v>
       </c>
       <c r="B245" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C245" t="s">
         <v>128</v>
@@ -11006,7 +11010,7 @@
         <v>11</v>
       </c>
       <c r="B246" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C246" t="s">
         <v>128</v>
@@ -11039,7 +11043,7 @@
         <v>11</v>
       </c>
       <c r="B247" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C247" t="s">
         <v>128</v>
@@ -11072,7 +11076,7 @@
         <v>11</v>
       </c>
       <c r="B248" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C248" t="s">
         <v>128</v>
@@ -11105,7 +11109,7 @@
         <v>11</v>
       </c>
       <c r="B249" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C249" t="s">
         <v>128</v>
@@ -11138,7 +11142,7 @@
         <v>11</v>
       </c>
       <c r="B250" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C250" t="s">
         <v>128</v>
@@ -11171,7 +11175,7 @@
         <v>11</v>
       </c>
       <c r="B251" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C251" t="s">
         <v>128</v>
@@ -11204,7 +11208,7 @@
         <v>11</v>
       </c>
       <c r="B252" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C252" t="s">
         <v>128</v>
@@ -11237,10 +11241,10 @@
         <v>11</v>
       </c>
       <c r="B253" t="s">
+        <v>260</v>
+      </c>
+      <c r="C253" t="s">
         <v>261</v>
-      </c>
-      <c r="C253" t="s">
-        <v>262</v>
       </c>
       <c r="D253" t="s">
         <v>13</v>
@@ -11270,7 +11274,7 @@
         <v>11</v>
       </c>
       <c r="B254" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C254" t="s">
         <v>186</v>
@@ -11303,16 +11307,16 @@
         <v>11</v>
       </c>
       <c r="B255" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C255" t="s">
         <v>134</v>
       </c>
       <c r="D255" t="s">
+        <v>264</v>
+      </c>
+      <c r="E255" t="s">
         <v>265</v>
-      </c>
-      <c r="E255" t="s">
-        <v>266</v>
       </c>
       <c r="F255" t="s">
         <v>19</v>
@@ -11336,7 +11340,7 @@
         <v>11</v>
       </c>
       <c r="B256" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C256" t="s">
         <v>128</v>
@@ -11369,7 +11373,7 @@
         <v>11</v>
       </c>
       <c r="B257" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C257" t="s">
         <v>128</v>
@@ -11402,7 +11406,7 @@
         <v>11</v>
       </c>
       <c r="B258" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C258" t="s">
         <v>128</v>
@@ -11435,7 +11439,7 @@
         <v>11</v>
       </c>
       <c r="B259" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C259" t="s">
         <v>131</v>
@@ -11468,7 +11472,7 @@
         <v>11</v>
       </c>
       <c r="B260" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C260" t="s">
         <v>131</v>
@@ -11501,7 +11505,7 @@
         <v>11</v>
       </c>
       <c r="B261" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C261" t="s">
         <v>131</v>
@@ -11534,7 +11538,7 @@
         <v>11</v>
       </c>
       <c r="B262" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C262" t="s">
         <v>131</v>
@@ -11567,7 +11571,7 @@
         <v>11</v>
       </c>
       <c r="B263" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C263" t="s">
         <v>131</v>
@@ -11600,7 +11604,7 @@
         <v>11</v>
       </c>
       <c r="B264" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C264" t="s">
         <v>131</v>
@@ -11633,7 +11637,7 @@
         <v>11</v>
       </c>
       <c r="B265" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C265" t="s">
         <v>131</v>
@@ -11666,7 +11670,7 @@
         <v>11</v>
       </c>
       <c r="B266" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C266" t="s">
         <v>131</v>
@@ -11699,7 +11703,7 @@
         <v>11</v>
       </c>
       <c r="B267" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C267" t="s">
         <v>131</v>
@@ -11732,16 +11736,16 @@
         <v>11</v>
       </c>
       <c r="B268" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C268" t="s">
         <v>134</v>
       </c>
       <c r="D268" t="s">
+        <v>264</v>
+      </c>
+      <c r="E268" t="s">
         <v>265</v>
-      </c>
-      <c r="E268" t="s">
-        <v>266</v>
       </c>
       <c r="F268" t="s">
         <v>19</v>
@@ -11765,16 +11769,16 @@
         <v>11</v>
       </c>
       <c r="B269" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C269" t="s">
         <v>168</v>
       </c>
       <c r="D269" t="s">
+        <v>268</v>
+      </c>
+      <c r="E269" t="s">
         <v>269</v>
-      </c>
-      <c r="E269" t="s">
-        <v>270</v>
       </c>
       <c r="F269" t="s">
         <v>19</v>
@@ -11798,16 +11802,16 @@
         <v>11</v>
       </c>
       <c r="B270" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C270" t="s">
         <v>155</v>
       </c>
       <c r="D270" t="s">
+        <v>268</v>
+      </c>
+      <c r="E270" t="s">
         <v>269</v>
-      </c>
-      <c r="E270" t="s">
-        <v>270</v>
       </c>
       <c r="F270" t="s">
         <v>19</v>
@@ -11831,7 +11835,7 @@
         <v>11</v>
       </c>
       <c r="B271" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C271" t="s">
         <v>131</v>
@@ -11864,7 +11868,7 @@
         <v>11</v>
       </c>
       <c r="B272" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C272" t="s">
         <v>131</v>
@@ -11897,7 +11901,7 @@
         <v>11</v>
       </c>
       <c r="B273" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C273" t="s">
         <v>131</v>
@@ -11930,7 +11934,7 @@
         <v>11</v>
       </c>
       <c r="B274" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C274" t="s">
         <v>176</v>
@@ -11963,7 +11967,7 @@
         <v>11</v>
       </c>
       <c r="B275" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C275" t="s">
         <v>176</v>
@@ -11996,7 +12000,7 @@
         <v>11</v>
       </c>
       <c r="B276" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C276" t="s">
         <v>176</v>
@@ -12029,7 +12033,7 @@
         <v>11</v>
       </c>
       <c r="B277" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C277" t="s">
         <v>176</v>
@@ -12062,7 +12066,7 @@
         <v>11</v>
       </c>
       <c r="B278" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C278" t="s">
         <v>176</v>
@@ -12095,7 +12099,7 @@
         <v>11</v>
       </c>
       <c r="B279" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C279" t="s">
         <v>176</v>
@@ -12128,7 +12132,7 @@
         <v>11</v>
       </c>
       <c r="B280" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C280" t="s">
         <v>176</v>
@@ -12161,7 +12165,7 @@
         <v>11</v>
       </c>
       <c r="B281" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C281" t="s">
         <v>176</v>
@@ -12194,7 +12198,7 @@
         <v>11</v>
       </c>
       <c r="B282" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C282" t="s">
         <v>176</v>
@@ -12227,16 +12231,16 @@
         <v>11</v>
       </c>
       <c r="B283" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C283" t="s">
         <v>165</v>
       </c>
       <c r="D283" t="s">
+        <v>272</v>
+      </c>
+      <c r="E283" t="s">
         <v>273</v>
-      </c>
-      <c r="E283" t="s">
-        <v>274</v>
       </c>
       <c r="F283" t="s">
         <v>19</v>
@@ -12260,16 +12264,16 @@
         <v>11</v>
       </c>
       <c r="B284" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C284" t="s">
         <v>165</v>
       </c>
       <c r="D284" t="s">
+        <v>272</v>
+      </c>
+      <c r="E284" t="s">
         <v>273</v>
-      </c>
-      <c r="E284" t="s">
-        <v>274</v>
       </c>
       <c r="F284" t="s">
         <v>19</v>
@@ -12326,7 +12330,7 @@
         <v>11</v>
       </c>
       <c r="B286" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C286" t="s">
         <v>176</v>
@@ -12359,7 +12363,7 @@
         <v>11</v>
       </c>
       <c r="B287" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C287" t="s">
         <v>176</v>
@@ -12392,7 +12396,7 @@
         <v>11</v>
       </c>
       <c r="B288" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C288" t="s">
         <v>176</v>
@@ -12425,7 +12429,7 @@
         <v>11</v>
       </c>
       <c r="B289" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C289" t="s">
         <v>146</v>
@@ -12458,7 +12462,7 @@
         <v>11</v>
       </c>
       <c r="B290" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C290" t="s">
         <v>146</v>
@@ -12491,7 +12495,7 @@
         <v>11</v>
       </c>
       <c r="B291" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C291" t="s">
         <v>146</v>
@@ -12524,7 +12528,7 @@
         <v>11</v>
       </c>
       <c r="B292" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C292" t="s">
         <v>146</v>
@@ -12557,7 +12561,7 @@
         <v>11</v>
       </c>
       <c r="B293" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C293" t="s">
         <v>146</v>
@@ -12590,7 +12594,7 @@
         <v>11</v>
       </c>
       <c r="B294" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C294" t="s">
         <v>146</v>
@@ -12623,7 +12627,7 @@
         <v>11</v>
       </c>
       <c r="B295" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C295" t="s">
         <v>146</v>
@@ -12656,7 +12660,7 @@
         <v>11</v>
       </c>
       <c r="B296" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C296" t="s">
         <v>146</v>
@@ -12689,7 +12693,7 @@
         <v>11</v>
       </c>
       <c r="B297" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C297" t="s">
         <v>146</v>
@@ -12755,10 +12759,10 @@
         <v>11</v>
       </c>
       <c r="B299" t="s">
+        <v>235</v>
+      </c>
+      <c r="C299" t="s">
         <v>236</v>
-      </c>
-      <c r="C299" t="s">
-        <v>237</v>
       </c>
       <c r="D299" t="s">
         <v>13</v>
@@ -12788,7 +12792,7 @@
         <v>11</v>
       </c>
       <c r="B300" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C300" t="s">
         <v>94</v>
@@ -12821,7 +12825,7 @@
         <v>11</v>
       </c>
       <c r="B301" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C301" t="s">
         <v>146</v>
@@ -12854,7 +12858,7 @@
         <v>11</v>
       </c>
       <c r="B302" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C302" t="s">
         <v>146</v>
@@ -12887,7 +12891,7 @@
         <v>11</v>
       </c>
       <c r="B303" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C303" t="s">
         <v>146</v>
@@ -12920,7 +12924,7 @@
         <v>11</v>
       </c>
       <c r="B304" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C304" t="s">
         <v>184</v>
@@ -12953,7 +12957,7 @@
         <v>11</v>
       </c>
       <c r="B305" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C305" t="s">
         <v>184</v>
@@ -12986,7 +12990,7 @@
         <v>11</v>
       </c>
       <c r="B306" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C306" t="s">
         <v>184</v>
@@ -13019,7 +13023,7 @@
         <v>11</v>
       </c>
       <c r="B307" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C307" t="s">
         <v>184</v>
@@ -13052,7 +13056,7 @@
         <v>11</v>
       </c>
       <c r="B308" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C308" t="s">
         <v>184</v>
@@ -13085,7 +13089,7 @@
         <v>11</v>
       </c>
       <c r="B309" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C309" t="s">
         <v>184</v>
@@ -13118,7 +13122,7 @@
         <v>11</v>
       </c>
       <c r="B310" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C310" t="s">
         <v>184</v>
@@ -13151,7 +13155,7 @@
         <v>11</v>
       </c>
       <c r="B311" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C311" t="s">
         <v>184</v>
@@ -13184,7 +13188,7 @@
         <v>11</v>
       </c>
       <c r="B312" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C312" t="s">
         <v>184</v>
@@ -13217,10 +13221,10 @@
         <v>11</v>
       </c>
       <c r="B313" t="s">
+        <v>238</v>
+      </c>
+      <c r="C313" t="s">
         <v>239</v>
-      </c>
-      <c r="C313" t="s">
-        <v>240</v>
       </c>
       <c r="D313" t="s">
         <v>13</v>
@@ -13250,10 +13254,10 @@
         <v>11</v>
       </c>
       <c r="B314" t="s">
+        <v>240</v>
+      </c>
+      <c r="C314" t="s">
         <v>241</v>
-      </c>
-      <c r="C314" t="s">
-        <v>242</v>
       </c>
       <c r="D314" t="s">
         <v>13</v>
@@ -13283,10 +13287,10 @@
         <v>11</v>
       </c>
       <c r="B315" t="s">
+        <v>242</v>
+      </c>
+      <c r="C315" t="s">
         <v>243</v>
-      </c>
-      <c r="C315" t="s">
-        <v>244</v>
       </c>
       <c r="D315" t="s">
         <v>13</v>
@@ -13316,7 +13320,7 @@
         <v>11</v>
       </c>
       <c r="B316" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C316" t="s">
         <v>184</v>
@@ -13349,7 +13353,7 @@
         <v>11</v>
       </c>
       <c r="B317" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C317" t="s">
         <v>184</v>
@@ -13382,7 +13386,7 @@
         <v>11</v>
       </c>
       <c r="B318" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C318" t="s">
         <v>184</v>
@@ -13415,10 +13419,10 @@
         <v>11</v>
       </c>
       <c r="B319" t="s">
+        <v>260</v>
+      </c>
+      <c r="C319" t="s">
         <v>261</v>
-      </c>
-      <c r="C319" t="s">
-        <v>262</v>
       </c>
       <c r="D319" t="s">
         <v>13</v>
@@ -13448,10 +13452,10 @@
         <v>11</v>
       </c>
       <c r="B320" t="s">
+        <v>260</v>
+      </c>
+      <c r="C320" t="s">
         <v>261</v>
-      </c>
-      <c r="C320" t="s">
-        <v>262</v>
       </c>
       <c r="D320" t="s">
         <v>13</v>
@@ -13481,10 +13485,10 @@
         <v>11</v>
       </c>
       <c r="B321" t="s">
+        <v>260</v>
+      </c>
+      <c r="C321" t="s">
         <v>261</v>
-      </c>
-      <c r="C321" t="s">
-        <v>262</v>
       </c>
       <c r="D321" t="s">
         <v>13</v>
@@ -13514,10 +13518,10 @@
         <v>11</v>
       </c>
       <c r="B322" t="s">
+        <v>260</v>
+      </c>
+      <c r="C322" t="s">
         <v>261</v>
-      </c>
-      <c r="C322" t="s">
-        <v>262</v>
       </c>
       <c r="D322" t="s">
         <v>13</v>
@@ -13547,10 +13551,10 @@
         <v>11</v>
       </c>
       <c r="B323" t="s">
+        <v>260</v>
+      </c>
+      <c r="C323" t="s">
         <v>261</v>
-      </c>
-      <c r="C323" t="s">
-        <v>262</v>
       </c>
       <c r="D323" t="s">
         <v>13</v>
@@ -13580,10 +13584,10 @@
         <v>11</v>
       </c>
       <c r="B324" t="s">
+        <v>260</v>
+      </c>
+      <c r="C324" t="s">
         <v>261</v>
-      </c>
-      <c r="C324" t="s">
-        <v>262</v>
       </c>
       <c r="D324" t="s">
         <v>13</v>
@@ -13613,10 +13617,10 @@
         <v>11</v>
       </c>
       <c r="B325" t="s">
+        <v>260</v>
+      </c>
+      <c r="C325" t="s">
         <v>261</v>
-      </c>
-      <c r="C325" t="s">
-        <v>262</v>
       </c>
       <c r="D325" t="s">
         <v>13</v>
@@ -13646,10 +13650,10 @@
         <v>11</v>
       </c>
       <c r="B326" t="s">
+        <v>260</v>
+      </c>
+      <c r="C326" t="s">
         <v>261</v>
-      </c>
-      <c r="C326" t="s">
-        <v>262</v>
       </c>
       <c r="D326" t="s">
         <v>13</v>
@@ -13679,10 +13683,10 @@
         <v>11</v>
       </c>
       <c r="B327" t="s">
+        <v>260</v>
+      </c>
+      <c r="C327" t="s">
         <v>261</v>
-      </c>
-      <c r="C327" t="s">
-        <v>262</v>
       </c>
       <c r="D327" t="s">
         <v>13</v>
@@ -13712,10 +13716,10 @@
         <v>11</v>
       </c>
       <c r="B328" t="s">
+        <v>244</v>
+      </c>
+      <c r="C328" t="s">
         <v>245</v>
-      </c>
-      <c r="C328" t="s">
-        <v>246</v>
       </c>
       <c r="D328" t="s">
         <v>13</v>
@@ -13745,7 +13749,7 @@
         <v>11</v>
       </c>
       <c r="B329" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C329" t="s">
         <v>100</v>
@@ -13778,7 +13782,7 @@
         <v>11</v>
       </c>
       <c r="B330" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C330" t="s">
         <v>104</v>
@@ -13811,10 +13815,10 @@
         <v>11</v>
       </c>
       <c r="B331" t="s">
+        <v>260</v>
+      </c>
+      <c r="C331" t="s">
         <v>261</v>
-      </c>
-      <c r="C331" t="s">
-        <v>262</v>
       </c>
       <c r="D331" t="s">
         <v>13</v>
@@ -13844,10 +13848,10 @@
         <v>11</v>
       </c>
       <c r="B332" t="s">
+        <v>260</v>
+      </c>
+      <c r="C332" t="s">
         <v>261</v>
-      </c>
-      <c r="C332" t="s">
-        <v>262</v>
       </c>
       <c r="D332" t="s">
         <v>13</v>
@@ -13877,10 +13881,10 @@
         <v>11</v>
       </c>
       <c r="B333" t="s">
+        <v>260</v>
+      </c>
+      <c r="C333" t="s">
         <v>261</v>
-      </c>
-      <c r="C333" t="s">
-        <v>262</v>
       </c>
       <c r="D333" t="s">
         <v>13</v>
@@ -13910,7 +13914,7 @@
         <v>11</v>
       </c>
       <c r="B334" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C334" t="s">
         <v>186</v>
@@ -13943,7 +13947,7 @@
         <v>11</v>
       </c>
       <c r="B335" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C335" t="s">
         <v>186</v>
@@ -13976,7 +13980,7 @@
         <v>11</v>
       </c>
       <c r="B336" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C336" t="s">
         <v>186</v>
@@ -14009,7 +14013,7 @@
         <v>11</v>
       </c>
       <c r="B337" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C337" t="s">
         <v>186</v>
@@ -14042,7 +14046,7 @@
         <v>11</v>
       </c>
       <c r="B338" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C338" t="s">
         <v>186</v>
@@ -14075,7 +14079,7 @@
         <v>11</v>
       </c>
       <c r="B339" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C339" t="s">
         <v>186</v>
@@ -14108,7 +14112,7 @@
         <v>11</v>
       </c>
       <c r="B340" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C340" t="s">
         <v>186</v>
@@ -14141,7 +14145,7 @@
         <v>11</v>
       </c>
       <c r="B341" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C341" t="s">
         <v>186</v>
@@ -14174,7 +14178,7 @@
         <v>11</v>
       </c>
       <c r="B342" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C342" t="s">
         <v>186</v>
@@ -14207,7 +14211,7 @@
         <v>11</v>
       </c>
       <c r="B343" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C343" t="s">
         <v>110</v>
@@ -14240,10 +14244,10 @@
         <v>11</v>
       </c>
       <c r="B344" t="s">
+        <v>249</v>
+      </c>
+      <c r="C344" t="s">
         <v>250</v>
-      </c>
-      <c r="C344" t="s">
-        <v>251</v>
       </c>
       <c r="D344" t="s">
         <v>13</v>
@@ -14273,7 +14277,7 @@
         <v>11</v>
       </c>
       <c r="B345" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C345" t="s">
         <v>113</v>
@@ -14306,7 +14310,7 @@
         <v>11</v>
       </c>
       <c r="B346" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C346" t="s">
         <v>186</v>
@@ -14339,7 +14343,7 @@
         <v>11</v>
       </c>
       <c r="B347" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C347" t="s">
         <v>186</v>
@@ -14372,7 +14376,7 @@
         <v>11</v>
       </c>
       <c r="B348" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C348" t="s">
         <v>186</v>
@@ -14405,16 +14409,16 @@
         <v>11</v>
       </c>
       <c r="B349" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C349" t="s">
         <v>134</v>
       </c>
       <c r="D349" t="s">
+        <v>264</v>
+      </c>
+      <c r="E349" t="s">
         <v>265</v>
-      </c>
-      <c r="E349" t="s">
-        <v>266</v>
       </c>
       <c r="F349" t="s">
         <v>20</v>
@@ -14438,16 +14442,16 @@
         <v>11</v>
       </c>
       <c r="B350" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C350" t="s">
         <v>134</v>
       </c>
       <c r="D350" t="s">
+        <v>264</v>
+      </c>
+      <c r="E350" t="s">
         <v>265</v>
-      </c>
-      <c r="E350" t="s">
-        <v>266</v>
       </c>
       <c r="F350" t="s">
         <v>19</v>
@@ -14471,16 +14475,16 @@
         <v>11</v>
       </c>
       <c r="B351" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C351" t="s">
         <v>134</v>
       </c>
       <c r="D351" t="s">
+        <v>264</v>
+      </c>
+      <c r="E351" t="s">
         <v>265</v>
-      </c>
-      <c r="E351" t="s">
-        <v>266</v>
       </c>
       <c r="F351" t="s">
         <v>18</v>
@@ -14504,16 +14508,16 @@
         <v>11</v>
       </c>
       <c r="B352" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C352" t="s">
         <v>134</v>
       </c>
       <c r="D352" t="s">
+        <v>264</v>
+      </c>
+      <c r="E352" t="s">
         <v>265</v>
-      </c>
-      <c r="E352" t="s">
-        <v>266</v>
       </c>
       <c r="F352" t="s">
         <v>20</v>
@@ -14537,16 +14541,16 @@
         <v>11</v>
       </c>
       <c r="B353" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C353" t="s">
         <v>134</v>
       </c>
       <c r="D353" t="s">
+        <v>264</v>
+      </c>
+      <c r="E353" t="s">
         <v>265</v>
-      </c>
-      <c r="E353" t="s">
-        <v>266</v>
       </c>
       <c r="F353" t="s">
         <v>19</v>
@@ -14570,16 +14574,16 @@
         <v>11</v>
       </c>
       <c r="B354" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C354" t="s">
         <v>134</v>
       </c>
       <c r="D354" t="s">
+        <v>264</v>
+      </c>
+      <c r="E354" t="s">
         <v>265</v>
-      </c>
-      <c r="E354" t="s">
-        <v>266</v>
       </c>
       <c r="F354" t="s">
         <v>18</v>
@@ -14603,16 +14607,16 @@
         <v>11</v>
       </c>
       <c r="B355" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C355" t="s">
         <v>134</v>
       </c>
       <c r="D355" t="s">
+        <v>264</v>
+      </c>
+      <c r="E355" t="s">
         <v>265</v>
-      </c>
-      <c r="E355" t="s">
-        <v>266</v>
       </c>
       <c r="F355" t="s">
         <v>20</v>
@@ -14636,16 +14640,16 @@
         <v>11</v>
       </c>
       <c r="B356" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C356" t="s">
         <v>134</v>
       </c>
       <c r="D356" t="s">
+        <v>264</v>
+      </c>
+      <c r="E356" t="s">
         <v>265</v>
-      </c>
-      <c r="E356" t="s">
-        <v>266</v>
       </c>
       <c r="F356" t="s">
         <v>19</v>
@@ -14669,16 +14673,16 @@
         <v>11</v>
       </c>
       <c r="B357" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C357" t="s">
         <v>134</v>
       </c>
       <c r="D357" t="s">
+        <v>264</v>
+      </c>
+      <c r="E357" t="s">
         <v>265</v>
-      </c>
-      <c r="E357" t="s">
-        <v>266</v>
       </c>
       <c r="F357" t="s">
         <v>18</v>
@@ -14702,7 +14706,7 @@
         <v>11</v>
       </c>
       <c r="B358" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C358" t="s">
         <v>119</v>
@@ -14735,7 +14739,7 @@
         <v>11</v>
       </c>
       <c r="B359" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C359" t="s">
         <v>123</v>
@@ -14768,7 +14772,7 @@
         <v>11</v>
       </c>
       <c r="B360" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C360" t="s">
         <v>124</v>
@@ -14801,16 +14805,16 @@
         <v>11</v>
       </c>
       <c r="B361" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C361" t="s">
         <v>134</v>
       </c>
       <c r="D361" t="s">
+        <v>264</v>
+      </c>
+      <c r="E361" t="s">
         <v>265</v>
-      </c>
-      <c r="E361" t="s">
-        <v>266</v>
       </c>
       <c r="F361" t="s">
         <v>20</v>
@@ -14834,16 +14838,16 @@
         <v>11</v>
       </c>
       <c r="B362" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C362" t="s">
         <v>134</v>
       </c>
       <c r="D362" t="s">
+        <v>264</v>
+      </c>
+      <c r="E362" t="s">
         <v>265</v>
-      </c>
-      <c r="E362" t="s">
-        <v>266</v>
       </c>
       <c r="F362" t="s">
         <v>19</v>
@@ -14867,16 +14871,16 @@
         <v>11</v>
       </c>
       <c r="B363" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C363" t="s">
         <v>134</v>
       </c>
       <c r="D363" t="s">
+        <v>264</v>
+      </c>
+      <c r="E363" t="s">
         <v>265</v>
-      </c>
-      <c r="E363" t="s">
-        <v>266</v>
       </c>
       <c r="F363" t="s">
         <v>18</v>
@@ -14900,16 +14904,16 @@
         <v>11</v>
       </c>
       <c r="B364" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C364" t="s">
         <v>134</v>
       </c>
       <c r="D364" t="s">
+        <v>264</v>
+      </c>
+      <c r="E364" t="s">
         <v>265</v>
-      </c>
-      <c r="E364" t="s">
-        <v>266</v>
       </c>
       <c r="F364" t="s">
         <v>20</v>
@@ -14933,16 +14937,16 @@
         <v>11</v>
       </c>
       <c r="B365" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C365" t="s">
         <v>134</v>
       </c>
       <c r="D365" t="s">
+        <v>264</v>
+      </c>
+      <c r="E365" t="s">
         <v>265</v>
-      </c>
-      <c r="E365" t="s">
-        <v>266</v>
       </c>
       <c r="F365" t="s">
         <v>19</v>
@@ -14966,16 +14970,16 @@
         <v>11</v>
       </c>
       <c r="B366" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C366" t="s">
         <v>134</v>
       </c>
       <c r="D366" t="s">
+        <v>264</v>
+      </c>
+      <c r="E366" t="s">
         <v>265</v>
-      </c>
-      <c r="E366" t="s">
-        <v>266</v>
       </c>
       <c r="F366" t="s">
         <v>18</v>
@@ -14999,16 +15003,16 @@
         <v>11</v>
       </c>
       <c r="B367" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C367" t="s">
         <v>134</v>
       </c>
       <c r="D367" t="s">
+        <v>264</v>
+      </c>
+      <c r="E367" t="s">
         <v>265</v>
-      </c>
-      <c r="E367" t="s">
-        <v>266</v>
       </c>
       <c r="F367" t="s">
         <v>20</v>
@@ -15032,16 +15036,16 @@
         <v>11</v>
       </c>
       <c r="B368" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C368" t="s">
         <v>134</v>
       </c>
       <c r="D368" t="s">
+        <v>264</v>
+      </c>
+      <c r="E368" t="s">
         <v>265</v>
-      </c>
-      <c r="E368" t="s">
-        <v>266</v>
       </c>
       <c r="F368" t="s">
         <v>19</v>
@@ -15065,16 +15069,16 @@
         <v>11</v>
       </c>
       <c r="B369" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C369" t="s">
         <v>134</v>
       </c>
       <c r="D369" t="s">
+        <v>264</v>
+      </c>
+      <c r="E369" t="s">
         <v>265</v>
-      </c>
-      <c r="E369" t="s">
-        <v>266</v>
       </c>
       <c r="F369" t="s">
         <v>18</v>
@@ -15098,16 +15102,16 @@
         <v>11</v>
       </c>
       <c r="B370" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C370" t="s">
         <v>134</v>
       </c>
       <c r="D370" t="s">
+        <v>264</v>
+      </c>
+      <c r="E370" t="s">
         <v>265</v>
-      </c>
-      <c r="E370" t="s">
-        <v>266</v>
       </c>
       <c r="F370" t="s">
         <v>20</v>
@@ -15131,16 +15135,16 @@
         <v>11</v>
       </c>
       <c r="B371" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C371" t="s">
         <v>134</v>
       </c>
       <c r="D371" t="s">
+        <v>264</v>
+      </c>
+      <c r="E371" t="s">
         <v>265</v>
-      </c>
-      <c r="E371" t="s">
-        <v>266</v>
       </c>
       <c r="F371" t="s">
         <v>19</v>
@@ -15164,16 +15168,16 @@
         <v>11</v>
       </c>
       <c r="B372" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C372" t="s">
         <v>134</v>
       </c>
       <c r="D372" t="s">
+        <v>264</v>
+      </c>
+      <c r="E372" t="s">
         <v>265</v>
-      </c>
-      <c r="E372" t="s">
-        <v>266</v>
       </c>
       <c r="F372" t="s">
         <v>18</v>
@@ -15197,7 +15201,7 @@
         <v>11</v>
       </c>
       <c r="B373" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C373" t="s">
         <v>128</v>
@@ -15230,7 +15234,7 @@
         <v>11</v>
       </c>
       <c r="B374" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C374" t="s">
         <v>131</v>
@@ -15263,7 +15267,7 @@
         <v>11</v>
       </c>
       <c r="B375" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C375" t="s">
         <v>176</v>
@@ -15296,16 +15300,16 @@
         <v>11</v>
       </c>
       <c r="B376" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C376" t="s">
         <v>134</v>
       </c>
       <c r="D376" t="s">
+        <v>264</v>
+      </c>
+      <c r="E376" t="s">
         <v>265</v>
-      </c>
-      <c r="E376" t="s">
-        <v>266</v>
       </c>
       <c r="F376" t="s">
         <v>20</v>
@@ -15329,16 +15333,16 @@
         <v>11</v>
       </c>
       <c r="B377" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C377" t="s">
         <v>134</v>
       </c>
       <c r="D377" t="s">
+        <v>264</v>
+      </c>
+      <c r="E377" t="s">
         <v>265</v>
-      </c>
-      <c r="E377" t="s">
-        <v>266</v>
       </c>
       <c r="F377" t="s">
         <v>19</v>
@@ -15362,16 +15366,16 @@
         <v>11</v>
       </c>
       <c r="B378" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C378" t="s">
         <v>134</v>
       </c>
       <c r="D378" t="s">
+        <v>264</v>
+      </c>
+      <c r="E378" t="s">
         <v>265</v>
-      </c>
-      <c r="E378" t="s">
-        <v>266</v>
       </c>
       <c r="F378" t="s">
         <v>18</v>
@@ -15395,16 +15399,16 @@
         <v>11</v>
       </c>
       <c r="B379" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C379" t="s">
         <v>168</v>
       </c>
       <c r="D379" t="s">
+        <v>268</v>
+      </c>
+      <c r="E379" t="s">
         <v>269</v>
-      </c>
-      <c r="E379" t="s">
-        <v>270</v>
       </c>
       <c r="F379" t="s">
         <v>20</v>
@@ -15428,16 +15432,16 @@
         <v>11</v>
       </c>
       <c r="B380" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C380" t="s">
         <v>168</v>
       </c>
       <c r="D380" t="s">
+        <v>268</v>
+      </c>
+      <c r="E380" t="s">
         <v>269</v>
-      </c>
-      <c r="E380" t="s">
-        <v>270</v>
       </c>
       <c r="F380" t="s">
         <v>19</v>
@@ -15461,16 +15465,16 @@
         <v>11</v>
       </c>
       <c r="B381" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C381" t="s">
         <v>168</v>
       </c>
       <c r="D381" t="s">
+        <v>268</v>
+      </c>
+      <c r="E381" t="s">
         <v>269</v>
-      </c>
-      <c r="E381" t="s">
-        <v>270</v>
       </c>
       <c r="F381" t="s">
         <v>18</v>
@@ -15494,16 +15498,16 @@
         <v>11</v>
       </c>
       <c r="B382" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C382" t="s">
         <v>168</v>
       </c>
       <c r="D382" t="s">
+        <v>268</v>
+      </c>
+      <c r="E382" t="s">
         <v>269</v>
-      </c>
-      <c r="E382" t="s">
-        <v>270</v>
       </c>
       <c r="F382" t="s">
         <v>20</v>
@@ -15527,16 +15531,16 @@
         <v>11</v>
       </c>
       <c r="B383" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C383" t="s">
         <v>168</v>
       </c>
       <c r="D383" t="s">
+        <v>268</v>
+      </c>
+      <c r="E383" t="s">
         <v>269</v>
-      </c>
-      <c r="E383" t="s">
-        <v>270</v>
       </c>
       <c r="F383" t="s">
         <v>19</v>
@@ -15560,16 +15564,16 @@
         <v>11</v>
       </c>
       <c r="B384" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C384" t="s">
         <v>168</v>
       </c>
       <c r="D384" t="s">
+        <v>268</v>
+      </c>
+      <c r="E384" t="s">
         <v>269</v>
-      </c>
-      <c r="E384" t="s">
-        <v>270</v>
       </c>
       <c r="F384" t="s">
         <v>18</v>
@@ -15593,16 +15597,16 @@
         <v>11</v>
       </c>
       <c r="B385" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C385" t="s">
         <v>168</v>
       </c>
       <c r="D385" t="s">
+        <v>268</v>
+      </c>
+      <c r="E385" t="s">
         <v>269</v>
-      </c>
-      <c r="E385" t="s">
-        <v>270</v>
       </c>
       <c r="F385" t="s">
         <v>20</v>
@@ -15626,16 +15630,16 @@
         <v>11</v>
       </c>
       <c r="B386" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C386" t="s">
         <v>168</v>
       </c>
       <c r="D386" t="s">
+        <v>268</v>
+      </c>
+      <c r="E386" t="s">
         <v>269</v>
-      </c>
-      <c r="E386" t="s">
-        <v>270</v>
       </c>
       <c r="F386" t="s">
         <v>19</v>
@@ -15659,16 +15663,16 @@
         <v>11</v>
       </c>
       <c r="B387" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C387" t="s">
         <v>168</v>
       </c>
       <c r="D387" t="s">
+        <v>268</v>
+      </c>
+      <c r="E387" t="s">
         <v>269</v>
-      </c>
-      <c r="E387" t="s">
-        <v>270</v>
       </c>
       <c r="F387" t="s">
         <v>18</v>
@@ -15692,7 +15696,7 @@
         <v>11</v>
       </c>
       <c r="B388" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C388" t="s">
         <v>146</v>
@@ -15725,7 +15729,7 @@
         <v>11</v>
       </c>
       <c r="B389" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C389" t="s">
         <v>184</v>
@@ -15758,10 +15762,10 @@
         <v>11</v>
       </c>
       <c r="B390" t="s">
+        <v>260</v>
+      </c>
+      <c r="C390" t="s">
         <v>261</v>
-      </c>
-      <c r="C390" t="s">
-        <v>262</v>
       </c>
       <c r="D390" t="s">
         <v>13</v>
@@ -15791,16 +15795,16 @@
         <v>11</v>
       </c>
       <c r="B391" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C391" t="s">
         <v>168</v>
       </c>
       <c r="D391" t="s">
+        <v>268</v>
+      </c>
+      <c r="E391" t="s">
         <v>269</v>
-      </c>
-      <c r="E391" t="s">
-        <v>270</v>
       </c>
       <c r="F391" t="s">
         <v>20</v>
@@ -15824,16 +15828,16 @@
         <v>11</v>
       </c>
       <c r="B392" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C392" t="s">
         <v>168</v>
       </c>
       <c r="D392" t="s">
+        <v>268</v>
+      </c>
+      <c r="E392" t="s">
         <v>269</v>
-      </c>
-      <c r="E392" t="s">
-        <v>270</v>
       </c>
       <c r="F392" t="s">
         <v>19</v>
@@ -15857,16 +15861,16 @@
         <v>11</v>
       </c>
       <c r="B393" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C393" t="s">
         <v>168</v>
       </c>
       <c r="D393" t="s">
+        <v>268</v>
+      </c>
+      <c r="E393" t="s">
         <v>269</v>
-      </c>
-      <c r="E393" t="s">
-        <v>270</v>
       </c>
       <c r="F393" t="s">
         <v>18</v>
@@ -15890,16 +15894,16 @@
         <v>11</v>
       </c>
       <c r="B394" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C394" t="s">
         <v>155</v>
       </c>
       <c r="D394" t="s">
+        <v>268</v>
+      </c>
+      <c r="E394" t="s">
         <v>269</v>
-      </c>
-      <c r="E394" t="s">
-        <v>270</v>
       </c>
       <c r="F394" t="s">
         <v>20</v>
@@ -15923,16 +15927,16 @@
         <v>11</v>
       </c>
       <c r="B395" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C395" t="s">
         <v>155</v>
       </c>
       <c r="D395" t="s">
+        <v>268</v>
+      </c>
+      <c r="E395" t="s">
         <v>269</v>
-      </c>
-      <c r="E395" t="s">
-        <v>270</v>
       </c>
       <c r="F395" t="s">
         <v>19</v>
@@ -15956,16 +15960,16 @@
         <v>11</v>
       </c>
       <c r="B396" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C396" t="s">
         <v>155</v>
       </c>
       <c r="D396" t="s">
+        <v>268</v>
+      </c>
+      <c r="E396" t="s">
         <v>269</v>
-      </c>
-      <c r="E396" t="s">
-        <v>270</v>
       </c>
       <c r="F396" t="s">
         <v>18</v>
@@ -15989,16 +15993,16 @@
         <v>11</v>
       </c>
       <c r="B397" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C397" t="s">
         <v>155</v>
       </c>
       <c r="D397" t="s">
+        <v>268</v>
+      </c>
+      <c r="E397" t="s">
         <v>269</v>
-      </c>
-      <c r="E397" t="s">
-        <v>270</v>
       </c>
       <c r="F397" t="s">
         <v>20</v>
@@ -16022,16 +16026,16 @@
         <v>11</v>
       </c>
       <c r="B398" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C398" t="s">
         <v>155</v>
       </c>
       <c r="D398" t="s">
+        <v>268</v>
+      </c>
+      <c r="E398" t="s">
         <v>269</v>
-      </c>
-      <c r="E398" t="s">
-        <v>270</v>
       </c>
       <c r="F398" t="s">
         <v>19</v>
@@ -16055,16 +16059,16 @@
         <v>11</v>
       </c>
       <c r="B399" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C399" t="s">
         <v>155</v>
       </c>
       <c r="D399" t="s">
+        <v>268</v>
+      </c>
+      <c r="E399" t="s">
         <v>269</v>
-      </c>
-      <c r="E399" t="s">
-        <v>270</v>
       </c>
       <c r="F399" t="s">
         <v>18</v>
@@ -16088,16 +16092,16 @@
         <v>11</v>
       </c>
       <c r="B400" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C400" t="s">
         <v>155</v>
       </c>
       <c r="D400" t="s">
+        <v>268</v>
+      </c>
+      <c r="E400" t="s">
         <v>269</v>
-      </c>
-      <c r="E400" t="s">
-        <v>270</v>
       </c>
       <c r="F400" t="s">
         <v>20</v>
@@ -16121,16 +16125,16 @@
         <v>11</v>
       </c>
       <c r="B401" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C401" t="s">
         <v>155</v>
       </c>
       <c r="D401" t="s">
+        <v>268</v>
+      </c>
+      <c r="E401" t="s">
         <v>269</v>
-      </c>
-      <c r="E401" t="s">
-        <v>270</v>
       </c>
       <c r="F401" t="s">
         <v>19</v>
@@ -16154,16 +16158,16 @@
         <v>11</v>
       </c>
       <c r="B402" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C402" t="s">
         <v>155</v>
       </c>
       <c r="D402" t="s">
+        <v>268</v>
+      </c>
+      <c r="E402" t="s">
         <v>269</v>
-      </c>
-      <c r="E402" t="s">
-        <v>270</v>
       </c>
       <c r="F402" t="s">
         <v>18</v>
@@ -16187,7 +16191,7 @@
         <v>11</v>
       </c>
       <c r="B403" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C403" t="s">
         <v>186</v>
@@ -16220,16 +16224,16 @@
         <v>11</v>
       </c>
       <c r="B404" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C404" t="s">
         <v>134</v>
       </c>
       <c r="D404" t="s">
+        <v>264</v>
+      </c>
+      <c r="E404" t="s">
         <v>265</v>
-      </c>
-      <c r="E404" t="s">
-        <v>266</v>
       </c>
       <c r="F404" t="s">
         <v>18</v>
@@ -16253,16 +16257,16 @@
         <v>11</v>
       </c>
       <c r="B405" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C405" t="s">
         <v>134</v>
       </c>
       <c r="D405" t="s">
+        <v>264</v>
+      </c>
+      <c r="E405" t="s">
         <v>265</v>
-      </c>
-      <c r="E405" t="s">
-        <v>266</v>
       </c>
       <c r="F405" t="s">
         <v>18</v>
@@ -16286,16 +16290,16 @@
         <v>11</v>
       </c>
       <c r="B406" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C406" t="s">
         <v>155</v>
       </c>
       <c r="D406" t="s">
+        <v>268</v>
+      </c>
+      <c r="E406" t="s">
         <v>269</v>
-      </c>
-      <c r="E406" t="s">
-        <v>270</v>
       </c>
       <c r="F406" t="s">
         <v>20</v>
@@ -16319,16 +16323,16 @@
         <v>11</v>
       </c>
       <c r="B407" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C407" t="s">
         <v>155</v>
       </c>
       <c r="D407" t="s">
+        <v>268</v>
+      </c>
+      <c r="E407" t="s">
         <v>269</v>
-      </c>
-      <c r="E407" t="s">
-        <v>270</v>
       </c>
       <c r="F407" t="s">
         <v>19</v>
@@ -16352,16 +16356,16 @@
         <v>11</v>
       </c>
       <c r="B408" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C408" t="s">
         <v>155</v>
       </c>
       <c r="D408" t="s">
+        <v>268</v>
+      </c>
+      <c r="E408" t="s">
         <v>269</v>
-      </c>
-      <c r="E408" t="s">
-        <v>270</v>
       </c>
       <c r="F408" t="s">
         <v>18</v>
@@ -16385,16 +16389,16 @@
         <v>11</v>
       </c>
       <c r="B409" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C409" t="s">
         <v>165</v>
       </c>
       <c r="D409" t="s">
+        <v>272</v>
+      </c>
+      <c r="E409" t="s">
         <v>273</v>
-      </c>
-      <c r="E409" t="s">
-        <v>274</v>
       </c>
       <c r="F409" t="s">
         <v>19</v>
@@ -16418,16 +16422,16 @@
         <v>11</v>
       </c>
       <c r="B410" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C410" t="s">
         <v>165</v>
       </c>
       <c r="D410" t="s">
+        <v>272</v>
+      </c>
+      <c r="E410" t="s">
         <v>273</v>
-      </c>
-      <c r="E410" t="s">
-        <v>274</v>
       </c>
       <c r="F410" t="s">
         <v>18</v>
@@ -16451,16 +16455,16 @@
         <v>11</v>
       </c>
       <c r="B411" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C411" t="s">
         <v>165</v>
       </c>
       <c r="D411" t="s">
+        <v>272</v>
+      </c>
+      <c r="E411" t="s">
         <v>273</v>
-      </c>
-      <c r="E411" t="s">
-        <v>274</v>
       </c>
       <c r="F411" t="s">
         <v>19</v>
@@ -16484,16 +16488,16 @@
         <v>11</v>
       </c>
       <c r="B412" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C412" t="s">
         <v>165</v>
       </c>
       <c r="D412" t="s">
+        <v>272</v>
+      </c>
+      <c r="E412" t="s">
         <v>273</v>
-      </c>
-      <c r="E412" t="s">
-        <v>274</v>
       </c>
       <c r="F412" t="s">
         <v>18</v>
@@ -16517,16 +16521,16 @@
         <v>11</v>
       </c>
       <c r="B413" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C413" t="s">
         <v>165</v>
       </c>
       <c r="D413" t="s">
+        <v>272</v>
+      </c>
+      <c r="E413" t="s">
         <v>273</v>
-      </c>
-      <c r="E413" t="s">
-        <v>274</v>
       </c>
       <c r="F413" t="s">
         <v>19</v>
@@ -16550,16 +16554,16 @@
         <v>11</v>
       </c>
       <c r="B414" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C414" t="s">
         <v>165</v>
       </c>
       <c r="D414" t="s">
+        <v>272</v>
+      </c>
+      <c r="E414" t="s">
         <v>273</v>
-      </c>
-      <c r="E414" t="s">
-        <v>274</v>
       </c>
       <c r="F414" t="s">
         <v>18</v>
@@ -16583,16 +16587,16 @@
         <v>11</v>
       </c>
       <c r="B415" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C415" t="s">
         <v>168</v>
       </c>
       <c r="D415" t="s">
+        <v>268</v>
+      </c>
+      <c r="E415" t="s">
         <v>269</v>
-      </c>
-      <c r="E415" t="s">
-        <v>270</v>
       </c>
       <c r="F415" t="s">
         <v>18</v>
@@ -16616,16 +16620,16 @@
         <v>11</v>
       </c>
       <c r="B416" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C416" t="s">
         <v>155</v>
       </c>
       <c r="D416" t="s">
+        <v>268</v>
+      </c>
+      <c r="E416" t="s">
         <v>269</v>
-      </c>
-      <c r="E416" t="s">
-        <v>270</v>
       </c>
       <c r="F416" t="s">
         <v>18</v>
@@ -16649,16 +16653,16 @@
         <v>11</v>
       </c>
       <c r="B417" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C417" t="s">
         <v>165</v>
       </c>
       <c r="D417" t="s">
+        <v>272</v>
+      </c>
+      <c r="E417" t="s">
         <v>273</v>
-      </c>
-      <c r="E417" t="s">
-        <v>274</v>
       </c>
       <c r="F417" t="s">
         <v>19</v>
@@ -16682,16 +16686,16 @@
         <v>11</v>
       </c>
       <c r="B418" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C418" t="s">
         <v>165</v>
       </c>
       <c r="D418" t="s">
+        <v>272</v>
+      </c>
+      <c r="E418" t="s">
         <v>273</v>
-      </c>
-      <c r="E418" t="s">
-        <v>274</v>
       </c>
       <c r="F418" t="s">
         <v>18</v>
@@ -16715,16 +16719,16 @@
         <v>11</v>
       </c>
       <c r="B419" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C419" t="s">
         <v>165</v>
       </c>
       <c r="D419" t="s">
+        <v>272</v>
+      </c>
+      <c r="E419" t="s">
         <v>273</v>
-      </c>
-      <c r="E419" t="s">
-        <v>274</v>
       </c>
       <c r="F419" t="s">
         <v>19</v>
@@ -16748,16 +16752,16 @@
         <v>11</v>
       </c>
       <c r="B420" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C420" t="s">
         <v>165</v>
       </c>
       <c r="D420" t="s">
+        <v>272</v>
+      </c>
+      <c r="E420" t="s">
         <v>273</v>
-      </c>
-      <c r="E420" t="s">
-        <v>274</v>
       </c>
       <c r="F420" t="s">
         <v>18</v>
@@ -16781,16 +16785,16 @@
         <v>11</v>
       </c>
       <c r="B421" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C421" t="s">
         <v>165</v>
       </c>
       <c r="D421" t="s">
+        <v>272</v>
+      </c>
+      <c r="E421" t="s">
         <v>273</v>
-      </c>
-      <c r="E421" t="s">
-        <v>274</v>
       </c>
       <c r="F421" t="s">
         <v>19</v>
@@ -16814,16 +16818,16 @@
         <v>11</v>
       </c>
       <c r="B422" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C422" t="s">
         <v>165</v>
       </c>
       <c r="D422" t="s">
+        <v>272</v>
+      </c>
+      <c r="E422" t="s">
         <v>273</v>
-      </c>
-      <c r="E422" t="s">
-        <v>274</v>
       </c>
       <c r="F422" t="s">
         <v>18</v>
@@ -16847,16 +16851,16 @@
         <v>11</v>
       </c>
       <c r="B423" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C423" t="s">
         <v>165</v>
       </c>
       <c r="D423" t="s">
+        <v>272</v>
+      </c>
+      <c r="E423" t="s">
         <v>273</v>
-      </c>
-      <c r="E423" t="s">
-        <v>274</v>
       </c>
       <c r="F423" t="s">
         <v>19</v>
@@ -16880,16 +16884,16 @@
         <v>11</v>
       </c>
       <c r="B424" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C424" t="s">
         <v>165</v>
       </c>
       <c r="D424" t="s">
+        <v>272</v>
+      </c>
+      <c r="E424" t="s">
         <v>273</v>
-      </c>
-      <c r="E424" t="s">
-        <v>274</v>
       </c>
       <c r="F424" t="s">
         <v>18</v>
@@ -16913,16 +16917,16 @@
         <v>11</v>
       </c>
       <c r="B425" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C425" t="s">
         <v>165</v>
       </c>
       <c r="D425" t="s">
+        <v>272</v>
+      </c>
+      <c r="E425" t="s">
         <v>273</v>
-      </c>
-      <c r="E425" t="s">
-        <v>274</v>
       </c>
       <c r="F425" t="s">
         <v>18</v>
@@ -16946,16 +16950,16 @@
         <v>11</v>
       </c>
       <c r="B426" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C426" t="s">
         <v>165</v>
       </c>
       <c r="D426" t="s">
+        <v>272</v>
+      </c>
+      <c r="E426" t="s">
         <v>273</v>
-      </c>
-      <c r="E426" t="s">
-        <v>274</v>
       </c>
       <c r="F426" t="s">
         <v>18</v>
@@ -16979,16 +16983,16 @@
         <v>11</v>
       </c>
       <c r="B427" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C427" t="s">
         <v>165</v>
       </c>
       <c r="D427" t="s">
+        <v>272</v>
+      </c>
+      <c r="E427" t="s">
         <v>273</v>
-      </c>
-      <c r="E427" t="s">
-        <v>274</v>
       </c>
       <c r="F427" t="s">
         <v>19</v>
@@ -17012,16 +17016,16 @@
         <v>11</v>
       </c>
       <c r="B428" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C428" t="s">
         <v>165</v>
       </c>
       <c r="D428" t="s">
+        <v>272</v>
+      </c>
+      <c r="E428" t="s">
         <v>273</v>
-      </c>
-      <c r="E428" t="s">
-        <v>274</v>
       </c>
       <c r="F428" t="s">
         <v>18</v>
@@ -17042,7 +17046,7 @@
     </row>
     <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B429" t="s">
         <v>168</v>
@@ -17059,10 +17063,10 @@
     </row>
     <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
+        <v>275</v>
+      </c>
+      <c r="B430" t="s">
         <v>276</v>
-      </c>
-      <c r="B430" t="s">
-        <v>277</v>
       </c>
       <c r="F430" t="s">
         <v>19</v>
@@ -17076,10 +17080,10 @@
     </row>
     <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
+        <v>275</v>
+      </c>
+      <c r="B431" t="s">
         <v>276</v>
-      </c>
-      <c r="B431" t="s">
-        <v>277</v>
       </c>
       <c r="F431" t="s">
         <v>18</v>
@@ -17093,7 +17097,7 @@
     </row>
     <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B432" t="s">
         <v>168</v>
@@ -17110,10 +17114,10 @@
     </row>
     <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
+        <v>275</v>
+      </c>
+      <c r="B433" t="s">
         <v>276</v>
-      </c>
-      <c r="B433" t="s">
-        <v>277</v>
       </c>
       <c r="F433" t="s">
         <v>19</v>
@@ -17127,10 +17131,10 @@
     </row>
     <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
+        <v>275</v>
+      </c>
+      <c r="B434" t="s">
         <v>276</v>
-      </c>
-      <c r="B434" t="s">
-        <v>277</v>
       </c>
       <c r="F434" t="s">
         <v>18</v>
@@ -17144,7 +17148,7 @@
     </row>
     <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B435" t="s">
         <v>168</v>
@@ -17161,10 +17165,10 @@
     </row>
     <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
+        <v>275</v>
+      </c>
+      <c r="B436" t="s">
         <v>276</v>
-      </c>
-      <c r="B436" t="s">
-        <v>277</v>
       </c>
       <c r="F436" t="s">
         <v>19</v>
@@ -17178,10 +17182,10 @@
     </row>
     <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
+        <v>275</v>
+      </c>
+      <c r="B437" t="s">
         <v>276</v>
-      </c>
-      <c r="B437" t="s">
-        <v>277</v>
       </c>
       <c r="F437" t="s">
         <v>18</v>
@@ -17195,7 +17199,7 @@
     </row>
     <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B438" t="s">
         <v>168</v>
@@ -17212,10 +17216,10 @@
     </row>
     <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
+        <v>275</v>
+      </c>
+      <c r="B439" t="s">
         <v>276</v>
-      </c>
-      <c r="B439" t="s">
-        <v>277</v>
       </c>
       <c r="F439" t="s">
         <v>19</v>
@@ -17229,10 +17233,10 @@
     </row>
     <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
+        <v>275</v>
+      </c>
+      <c r="B440" t="s">
         <v>276</v>
-      </c>
-      <c r="B440" t="s">
-        <v>277</v>
       </c>
       <c r="F440" t="s">
         <v>18</v>
@@ -17246,7 +17250,7 @@
     </row>
     <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B441" t="s">
         <v>168</v>
@@ -17263,10 +17267,10 @@
     </row>
     <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
+        <v>275</v>
+      </c>
+      <c r="B442" t="s">
         <v>276</v>
-      </c>
-      <c r="B442" t="s">
-        <v>277</v>
       </c>
       <c r="F442" t="s">
         <v>19</v>
@@ -17280,10 +17284,10 @@
     </row>
     <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
+        <v>275</v>
+      </c>
+      <c r="B443" t="s">
         <v>276</v>
-      </c>
-      <c r="B443" t="s">
-        <v>277</v>
       </c>
       <c r="F443" t="s">
         <v>18</v>
@@ -17297,7 +17301,7 @@
     </row>
     <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B444" t="s">
         <v>168</v>
@@ -17314,10 +17318,10 @@
     </row>
     <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
+        <v>275</v>
+      </c>
+      <c r="B445" t="s">
         <v>276</v>
-      </c>
-      <c r="B445" t="s">
-        <v>277</v>
       </c>
       <c r="F445" t="s">
         <v>19</v>
@@ -17331,10 +17335,10 @@
     </row>
     <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
+        <v>275</v>
+      </c>
+      <c r="B446" t="s">
         <v>276</v>
-      </c>
-      <c r="B446" t="s">
-        <v>277</v>
       </c>
       <c r="F446" t="s">
         <v>18</v>
@@ -17348,7 +17352,7 @@
     </row>
     <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B447" t="s">
         <v>168</v>
@@ -17365,10 +17369,10 @@
     </row>
     <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
+        <v>275</v>
+      </c>
+      <c r="B448" t="s">
         <v>276</v>
-      </c>
-      <c r="B448" t="s">
-        <v>277</v>
       </c>
       <c r="F448" t="s">
         <v>19</v>
@@ -17382,10 +17386,10 @@
     </row>
     <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
+        <v>275</v>
+      </c>
+      <c r="B449" t="s">
         <v>276</v>
-      </c>
-      <c r="B449" t="s">
-        <v>277</v>
       </c>
       <c r="F449" t="s">
         <v>18</v>
@@ -17399,7 +17403,7 @@
     </row>
     <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B450" t="s">
         <v>168</v>
@@ -17416,10 +17420,10 @@
     </row>
     <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
+        <v>275</v>
+      </c>
+      <c r="B451" t="s">
         <v>276</v>
-      </c>
-      <c r="B451" t="s">
-        <v>277</v>
       </c>
       <c r="F451" t="s">
         <v>19</v>
@@ -17433,10 +17437,10 @@
     </row>
     <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
+        <v>275</v>
+      </c>
+      <c r="B452" t="s">
         <v>276</v>
-      </c>
-      <c r="B452" t="s">
-        <v>277</v>
       </c>
       <c r="F452" t="s">
         <v>18</v>
@@ -17450,7 +17454,7 @@
     </row>
     <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B453" t="s">
         <v>168</v>
@@ -17467,10 +17471,10 @@
     </row>
     <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
+        <v>275</v>
+      </c>
+      <c r="B454" t="s">
         <v>276</v>
-      </c>
-      <c r="B454" t="s">
-        <v>277</v>
       </c>
       <c r="F454" t="s">
         <v>19</v>
@@ -17484,10 +17488,10 @@
     </row>
     <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
+        <v>275</v>
+      </c>
+      <c r="B455" t="s">
         <v>276</v>
-      </c>
-      <c r="B455" t="s">
-        <v>277</v>
       </c>
       <c r="F455" t="s">
         <v>18</v>
@@ -17501,7 +17505,7 @@
     </row>
     <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B456" t="s">
         <v>168</v>
@@ -17518,10 +17522,10 @@
     </row>
     <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
+        <v>275</v>
+      </c>
+      <c r="B457" t="s">
         <v>276</v>
-      </c>
-      <c r="B457" t="s">
-        <v>277</v>
       </c>
       <c r="F457" t="s">
         <v>19</v>
@@ -17535,10 +17539,10 @@
     </row>
     <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
+        <v>275</v>
+      </c>
+      <c r="B458" t="s">
         <v>276</v>
-      </c>
-      <c r="B458" t="s">
-        <v>277</v>
       </c>
       <c r="F458" t="s">
         <v>18</v>
@@ -17552,7 +17556,7 @@
     </row>
     <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B459" t="s">
         <v>168</v>
@@ -17569,10 +17573,10 @@
     </row>
     <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
+        <v>275</v>
+      </c>
+      <c r="B460" t="s">
         <v>276</v>
-      </c>
-      <c r="B460" t="s">
-        <v>277</v>
       </c>
       <c r="F460" t="s">
         <v>19</v>
@@ -17586,10 +17590,10 @@
     </row>
     <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
+        <v>275</v>
+      </c>
+      <c r="B461" t="s">
         <v>276</v>
-      </c>
-      <c r="B461" t="s">
-        <v>277</v>
       </c>
       <c r="F461" t="s">
         <v>18</v>
@@ -17603,7 +17607,7 @@
     </row>
     <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B462" t="s">
         <v>168</v>
@@ -17620,10 +17624,10 @@
     </row>
     <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
+        <v>275</v>
+      </c>
+      <c r="B463" t="s">
         <v>276</v>
-      </c>
-      <c r="B463" t="s">
-        <v>277</v>
       </c>
       <c r="F463" t="s">
         <v>19</v>
@@ -17637,10 +17641,10 @@
     </row>
     <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
+        <v>275</v>
+      </c>
+      <c r="B464" t="s">
         <v>276</v>
-      </c>
-      <c r="B464" t="s">
-        <v>277</v>
       </c>
       <c r="F464" t="s">
         <v>18</v>
@@ -17654,7 +17658,7 @@
     </row>
     <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B465" t="s">
         <v>168</v>
@@ -17671,10 +17675,10 @@
     </row>
     <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
+        <v>275</v>
+      </c>
+      <c r="B466" t="s">
         <v>276</v>
-      </c>
-      <c r="B466" t="s">
-        <v>277</v>
       </c>
       <c r="F466" t="s">
         <v>19</v>
@@ -17688,10 +17692,10 @@
     </row>
     <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
+        <v>275</v>
+      </c>
+      <c r="B467" t="s">
         <v>276</v>
-      </c>
-      <c r="B467" t="s">
-        <v>277</v>
       </c>
       <c r="F467" t="s">
         <v>18</v>
@@ -17705,7 +17709,7 @@
     </row>
     <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B468" t="s">
         <v>168</v>
@@ -17722,10 +17726,10 @@
     </row>
     <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
+        <v>275</v>
+      </c>
+      <c r="B469" t="s">
         <v>276</v>
-      </c>
-      <c r="B469" t="s">
-        <v>277</v>
       </c>
       <c r="F469" t="s">
         <v>19</v>
@@ -17739,10 +17743,10 @@
     </row>
     <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
+        <v>275</v>
+      </c>
+      <c r="B470" t="s">
         <v>276</v>
-      </c>
-      <c r="B470" t="s">
-        <v>277</v>
       </c>
       <c r="F470" t="s">
         <v>18</v>
@@ -17756,7 +17760,7 @@
     </row>
     <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B471" t="s">
         <v>168</v>
@@ -17773,10 +17777,10 @@
     </row>
     <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
+        <v>275</v>
+      </c>
+      <c r="B472" t="s">
         <v>276</v>
-      </c>
-      <c r="B472" t="s">
-        <v>277</v>
       </c>
       <c r="F472" t="s">
         <v>19</v>
@@ -17790,10 +17794,10 @@
     </row>
     <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
+        <v>275</v>
+      </c>
+      <c r="B473" t="s">
         <v>276</v>
-      </c>
-      <c r="B473" t="s">
-        <v>277</v>
       </c>
       <c r="F473" t="s">
         <v>18</v>
@@ -17807,7 +17811,7 @@
     </row>
     <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B474" t="s">
         <v>168</v>
@@ -17824,10 +17828,10 @@
     </row>
     <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
+        <v>275</v>
+      </c>
+      <c r="B475" t="s">
         <v>276</v>
-      </c>
-      <c r="B475" t="s">
-        <v>277</v>
       </c>
       <c r="F475" t="s">
         <v>19</v>
@@ -17841,10 +17845,10 @@
     </row>
     <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
+        <v>275</v>
+      </c>
+      <c r="B476" t="s">
         <v>276</v>
-      </c>
-      <c r="B476" t="s">
-        <v>277</v>
       </c>
       <c r="F476" t="s">
         <v>18</v>
@@ -17858,7 +17862,7 @@
     </row>
     <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B477" t="s">
         <v>168</v>
@@ -17875,10 +17879,10 @@
     </row>
     <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
+        <v>275</v>
+      </c>
+      <c r="B478" t="s">
         <v>276</v>
-      </c>
-      <c r="B478" t="s">
-        <v>277</v>
       </c>
       <c r="F478" t="s">
         <v>19</v>
@@ -17892,10 +17896,10 @@
     </row>
     <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
+        <v>275</v>
+      </c>
+      <c r="B479" t="s">
         <v>276</v>
-      </c>
-      <c r="B479" t="s">
-        <v>277</v>
       </c>
       <c r="F479" t="s">
         <v>18</v>
@@ -17909,7 +17913,7 @@
     </row>
     <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B480" t="s">
         <v>168</v>
@@ -17926,10 +17930,10 @@
     </row>
     <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
+        <v>275</v>
+      </c>
+      <c r="B481" t="s">
         <v>276</v>
-      </c>
-      <c r="B481" t="s">
-        <v>277</v>
       </c>
       <c r="F481" t="s">
         <v>19</v>
@@ -17943,10 +17947,10 @@
     </row>
     <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
+        <v>275</v>
+      </c>
+      <c r="B482" t="s">
         <v>276</v>
-      </c>
-      <c r="B482" t="s">
-        <v>277</v>
       </c>
       <c r="F482" t="s">
         <v>18</v>
@@ -17960,7 +17964,7 @@
     </row>
     <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B483" t="s">
         <v>168</v>
@@ -17977,10 +17981,10 @@
     </row>
     <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
+        <v>275</v>
+      </c>
+      <c r="B484" t="s">
         <v>276</v>
-      </c>
-      <c r="B484" t="s">
-        <v>277</v>
       </c>
       <c r="F484" t="s">
         <v>19</v>
@@ -17994,10 +17998,10 @@
     </row>
     <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
+        <v>275</v>
+      </c>
+      <c r="B485" t="s">
         <v>276</v>
-      </c>
-      <c r="B485" t="s">
-        <v>277</v>
       </c>
       <c r="F485" t="s">
         <v>18</v>
@@ -18011,7 +18015,7 @@
     </row>
     <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B486" t="s">
         <v>168</v>
@@ -18028,10 +18032,10 @@
     </row>
     <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
+        <v>275</v>
+      </c>
+      <c r="B487" t="s">
         <v>276</v>
-      </c>
-      <c r="B487" t="s">
-        <v>277</v>
       </c>
       <c r="F487" t="s">
         <v>19</v>
@@ -18045,10 +18049,10 @@
     </row>
     <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
+        <v>275</v>
+      </c>
+      <c r="B488" t="s">
         <v>276</v>
-      </c>
-      <c r="B488" t="s">
-        <v>277</v>
       </c>
       <c r="F488" t="s">
         <v>18</v>
@@ -18062,7 +18066,7 @@
     </row>
     <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B489" t="s">
         <v>168</v>
@@ -18079,10 +18083,10 @@
     </row>
     <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
+        <v>275</v>
+      </c>
+      <c r="B490" t="s">
         <v>276</v>
-      </c>
-      <c r="B490" t="s">
-        <v>277</v>
       </c>
       <c r="F490" t="s">
         <v>19</v>
@@ -18096,10 +18100,10 @@
     </row>
     <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
+        <v>275</v>
+      </c>
+      <c r="B491" t="s">
         <v>276</v>
-      </c>
-      <c r="B491" t="s">
-        <v>277</v>
       </c>
       <c r="F491" t="s">
         <v>18</v>
@@ -18113,7 +18117,7 @@
     </row>
     <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B492" t="s">
         <v>168</v>
@@ -18130,10 +18134,10 @@
     </row>
     <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
+        <v>275</v>
+      </c>
+      <c r="B493" t="s">
         <v>276</v>
-      </c>
-      <c r="B493" t="s">
-        <v>277</v>
       </c>
       <c r="F493" t="s">
         <v>19</v>
@@ -18147,10 +18151,10 @@
     </row>
     <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
+        <v>275</v>
+      </c>
+      <c r="B494" t="s">
         <v>276</v>
-      </c>
-      <c r="B494" t="s">
-        <v>277</v>
       </c>
       <c r="F494" t="s">
         <v>18</v>
@@ -18164,7 +18168,7 @@
     </row>
     <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B495" t="s">
         <v>168</v>
@@ -18181,10 +18185,10 @@
     </row>
     <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
+        <v>275</v>
+      </c>
+      <c r="B496" t="s">
         <v>276</v>
-      </c>
-      <c r="B496" t="s">
-        <v>277</v>
       </c>
       <c r="F496" t="s">
         <v>19</v>
@@ -18198,10 +18202,10 @@
     </row>
     <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
+        <v>275</v>
+      </c>
+      <c r="B497" t="s">
         <v>276</v>
-      </c>
-      <c r="B497" t="s">
-        <v>277</v>
       </c>
       <c r="F497" t="s">
         <v>18</v>
@@ -18215,7 +18219,7 @@
     </row>
     <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B498" t="s">
         <v>168</v>
@@ -18232,10 +18236,10 @@
     </row>
     <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
+        <v>275</v>
+      </c>
+      <c r="B499" t="s">
         <v>276</v>
-      </c>
-      <c r="B499" t="s">
-        <v>277</v>
       </c>
       <c r="F499" t="s">
         <v>19</v>
@@ -18249,10 +18253,10 @@
     </row>
     <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
+        <v>275</v>
+      </c>
+      <c r="B500" t="s">
         <v>276</v>
-      </c>
-      <c r="B500" t="s">
-        <v>277</v>
       </c>
       <c r="F500" t="s">
         <v>18</v>
@@ -18266,7 +18270,7 @@
     </row>
     <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B501" t="s">
         <v>168</v>
@@ -18283,10 +18287,10 @@
     </row>
     <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
+        <v>275</v>
+      </c>
+      <c r="B502" t="s">
         <v>276</v>
-      </c>
-      <c r="B502" t="s">
-        <v>277</v>
       </c>
       <c r="F502" t="s">
         <v>19</v>
@@ -18300,10 +18304,10 @@
     </row>
     <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
+        <v>275</v>
+      </c>
+      <c r="B503" t="s">
         <v>276</v>
-      </c>
-      <c r="B503" t="s">
-        <v>277</v>
       </c>
       <c r="F503" t="s">
         <v>18</v>
@@ -18317,7 +18321,7 @@
     </row>
     <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B504" t="s">
         <v>168</v>
@@ -18334,10 +18338,10 @@
     </row>
     <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
+        <v>275</v>
+      </c>
+      <c r="B505" t="s">
         <v>276</v>
-      </c>
-      <c r="B505" t="s">
-        <v>277</v>
       </c>
       <c r="F505" t="s">
         <v>19</v>
@@ -18351,10 +18355,10 @@
     </row>
     <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
+        <v>275</v>
+      </c>
+      <c r="B506" t="s">
         <v>276</v>
-      </c>
-      <c r="B506" t="s">
-        <v>277</v>
       </c>
       <c r="F506" t="s">
         <v>18</v>
@@ -18368,7 +18372,7 @@
     </row>
     <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B507" t="s">
         <v>168</v>
@@ -18385,10 +18389,10 @@
     </row>
     <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
+        <v>275</v>
+      </c>
+      <c r="B508" t="s">
         <v>276</v>
-      </c>
-      <c r="B508" t="s">
-        <v>277</v>
       </c>
       <c r="F508" t="s">
         <v>19</v>
@@ -18402,10 +18406,10 @@
     </row>
     <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
+        <v>275</v>
+      </c>
+      <c r="B509" t="s">
         <v>276</v>
-      </c>
-      <c r="B509" t="s">
-        <v>277</v>
       </c>
       <c r="F509" t="s">
         <v>18</v>
@@ -18419,7 +18423,7 @@
     </row>
     <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B510" t="s">
         <v>168</v>
@@ -18436,10 +18440,10 @@
     </row>
     <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
+        <v>275</v>
+      </c>
+      <c r="B511" t="s">
         <v>276</v>
-      </c>
-      <c r="B511" t="s">
-        <v>277</v>
       </c>
       <c r="F511" t="s">
         <v>19</v>
@@ -18453,10 +18457,10 @@
     </row>
     <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
+        <v>275</v>
+      </c>
+      <c r="B512" t="s">
         <v>276</v>
-      </c>
-      <c r="B512" t="s">
-        <v>277</v>
       </c>
       <c r="F512" t="s">
         <v>18</v>
@@ -18470,7 +18474,7 @@
     </row>
     <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B513" t="s">
         <v>168</v>
@@ -18487,10 +18491,10 @@
     </row>
     <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
+        <v>275</v>
+      </c>
+      <c r="B514" t="s">
         <v>276</v>
-      </c>
-      <c r="B514" t="s">
-        <v>277</v>
       </c>
       <c r="F514" t="s">
         <v>19</v>
@@ -18504,10 +18508,10 @@
     </row>
     <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
+        <v>275</v>
+      </c>
+      <c r="B515" t="s">
         <v>276</v>
-      </c>
-      <c r="B515" t="s">
-        <v>277</v>
       </c>
       <c r="F515" t="s">
         <v>18</v>
@@ -18521,7 +18525,7 @@
     </row>
     <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B516" t="s">
         <v>168</v>
@@ -18538,10 +18542,10 @@
     </row>
     <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
+        <v>275</v>
+      </c>
+      <c r="B517" t="s">
         <v>276</v>
-      </c>
-      <c r="B517" t="s">
-        <v>277</v>
       </c>
       <c r="F517" t="s">
         <v>19</v>
@@ -18555,10 +18559,10 @@
     </row>
     <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
+        <v>275</v>
+      </c>
+      <c r="B518" t="s">
         <v>276</v>
-      </c>
-      <c r="B518" t="s">
-        <v>277</v>
       </c>
       <c r="F518" t="s">
         <v>18</v>
@@ -18572,7 +18576,7 @@
     </row>
     <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B519" t="s">
         <v>168</v>
@@ -18589,10 +18593,10 @@
     </row>
     <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
+        <v>275</v>
+      </c>
+      <c r="B520" t="s">
         <v>276</v>
-      </c>
-      <c r="B520" t="s">
-        <v>277</v>
       </c>
       <c r="F520" t="s">
         <v>19</v>
@@ -18606,10 +18610,10 @@
     </row>
     <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
+        <v>275</v>
+      </c>
+      <c r="B521" t="s">
         <v>276</v>
-      </c>
-      <c r="B521" t="s">
-        <v>277</v>
       </c>
       <c r="F521" t="s">
         <v>18</v>
@@ -18623,7 +18627,7 @@
     </row>
     <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B522" t="s">
         <v>168</v>
@@ -18640,10 +18644,10 @@
     </row>
     <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
+        <v>275</v>
+      </c>
+      <c r="B523" t="s">
         <v>276</v>
-      </c>
-      <c r="B523" t="s">
-        <v>277</v>
       </c>
       <c r="F523" t="s">
         <v>19</v>
@@ -18657,10 +18661,10 @@
     </row>
     <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
+        <v>275</v>
+      </c>
+      <c r="B524" t="s">
         <v>276</v>
-      </c>
-      <c r="B524" t="s">
-        <v>277</v>
       </c>
       <c r="F524" t="s">
         <v>18</v>
@@ -18674,7 +18678,7 @@
     </row>
     <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B525" t="s">
         <v>168</v>
@@ -18691,10 +18695,10 @@
     </row>
     <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
+        <v>275</v>
+      </c>
+      <c r="B526" t="s">
         <v>276</v>
-      </c>
-      <c r="B526" t="s">
-        <v>277</v>
       </c>
       <c r="F526" t="s">
         <v>19</v>
@@ -18708,10 +18712,10 @@
     </row>
     <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
+        <v>275</v>
+      </c>
+      <c r="B527" t="s">
         <v>276</v>
-      </c>
-      <c r="B527" t="s">
-        <v>277</v>
       </c>
       <c r="F527" t="s">
         <v>18</v>
@@ -24135,25 +24139,25 @@
     <mergeCell ref="B15:B17"/>
   </mergeCells>
   <conditionalFormatting sqref="D19:D22">
-    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D17">
-    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D29">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D9">
-    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="duplicateValues" dxfId="23" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -29231,58 +29235,58 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="duplicateValues" dxfId="21" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B8">
-    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B22">
-    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B26">
-    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B33">
-    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B47">
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B52 B54:B59">
-    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B72">
-    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B80">
-    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B89">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B98">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B103">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B106">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107:B114">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DomesticTransport/DomesticTransport.xlsx
+++ b/DomesticTransport/DomesticTransport.xlsx
@@ -1914,6 +1914,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1932,9 +1935,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel Built-in Normal" xfId="4"/>
@@ -1949,40 +1949,78 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
       <font>
+        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
+        <sz val="11"/>
+        <color theme="0"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top/>
         <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2236,83 +2274,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="9" tint="0.39997558519241921"/>
@@ -2420,6 +2381,45 @@
       </border>
       <protection locked="0" hidden="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2434,7 +2434,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TableCarrier" displayName="TableCarrier" ref="B5:H6" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TableCarrier" displayName="TableCarrier" ref="B5:H6" totalsRowShown="0" headerRowDxfId="38">
   <autoFilter ref="B5:H6"/>
   <tableColumns count="7">
     <tableColumn id="1" name="№ Доставки"/>
@@ -2450,7 +2450,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TableOrders" displayName="TableOrders" ref="B10:K11" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TableOrders" displayName="TableOrders" ref="B10:K11" totalsRowShown="0" headerRowDxfId="37">
   <autoFilter ref="B10:K11"/>
   <tableColumns count="10">
     <tableColumn id="1" name="№ Доставки"/>
@@ -2469,7 +2469,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="PriceDelivery" displayName="PriceDelivery" ref="A3:J527" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" headerRowCellStyle="Обычный 4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="PriceDelivery" displayName="PriceDelivery" ref="A3:J527" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" headerRowCellStyle="Обычный 4">
   <autoFilter ref="A3:J527">
     <filterColumn colId="2">
       <filters>
@@ -2495,14 +2495,14 @@
     <tableColumn id="7" name="tonnage, t"/>
     <tableColumn id="8" name="vehicle"/>
     <tableColumn id="9" name="add.point"/>
-    <tableColumn id="10" name="vehicle + add.point" dataDxfId="36"/>
+    <tableColumn id="10" name="vehicle + add.point" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="TableRoutes" displayName="TableRoutes" ref="A1:J115" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="TableRoutes" displayName="TableRoutes" ref="A1:J115" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31">
   <autoFilter ref="A1:J115"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Id route"/>
@@ -2521,7 +2521,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TableCity" displayName="TableCity" ref="L1:L23" totalsRowShown="0" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TableCity" displayName="TableCity" ref="L1:L23" totalsRowShown="0" tableBorderDxfId="30">
   <autoFilter ref="L1:L23"/>
   <tableColumns count="1">
     <tableColumn id="1" name="City"/>
@@ -2531,7 +2531,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TableTotal" displayName="TableTotal" ref="B2:S3" insertRow="1" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29" headerRowCellStyle="Акцент6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TableTotal" displayName="TableTotal" ref="B2:S3" insertRow="1" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" headerRowCellStyle="Акцент6">
   <autoFilter ref="B2:S3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="ID перевозчика"/>
@@ -2562,8 +2562,8 @@
   <autoFilter ref="B2:D25"/>
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Компания" dataDxfId="28"/>
-    <tableColumn id="3" name="Получатель письма" dataDxfId="27" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="2" name="Компания" dataDxfId="1"/>
+    <tableColumn id="3" name="Получатель письма" dataDxfId="0" dataCellStyle="Гиперссылка"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2870,7 +2870,7 @@
   <dimension ref="B1:K10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2906,30 +2906,30 @@
     </row>
     <row r="3" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="174" t="s">
+      <c r="B4" s="168" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="173" t="s">
+      <c r="B5" s="167" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="173" t="s">
+      <c r="C5" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="173" t="s">
+      <c r="D5" s="167" t="s">
         <v>276</v>
       </c>
-      <c r="E5" s="173" t="s">
+      <c r="E5" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="173" t="s">
+      <c r="F5" s="167" t="s">
         <v>232</v>
       </c>
-      <c r="G5" s="173" t="s">
+      <c r="G5" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="173" t="s">
+      <c r="H5" s="167" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2946,34 +2946,34 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="172" t="s">
+      <c r="B10" s="166" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="172" t="s">
+      <c r="C10" s="166" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="172" t="s">
+      <c r="D10" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="172" t="s">
+      <c r="E10" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="172" t="s">
+      <c r="F10" s="166" t="s">
         <v>278</v>
       </c>
-      <c r="G10" s="172" t="s">
+      <c r="G10" s="166" t="s">
         <v>86</v>
       </c>
-      <c r="H10" s="172" t="s">
+      <c r="H10" s="166" t="s">
         <v>277</v>
       </c>
-      <c r="I10" s="172" t="s">
+      <c r="I10" s="166" t="s">
         <v>227</v>
       </c>
-      <c r="J10" s="172" t="s">
+      <c r="J10" s="166" t="s">
         <v>228</v>
       </c>
-      <c r="K10" s="172" t="s">
+      <c r="K10" s="166" t="s">
         <v>10</v>
       </c>
     </row>
@@ -22977,7 +22977,7 @@
       </c>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="169" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="71">
@@ -23022,12 +23022,12 @@
       <c r="P2" s="64">
         <v>1</v>
       </c>
-      <c r="Q2" s="169" t="s">
+      <c r="Q2" s="172" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="167"/>
+      <c r="B3" s="170"/>
       <c r="C3" s="71">
         <v>94206</v>
       </c>
@@ -23070,10 +23070,10 @@
       <c r="P3" s="64">
         <v>2</v>
       </c>
-      <c r="Q3" s="170"/>
+      <c r="Q3" s="173"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="167"/>
+      <c r="B4" s="170"/>
       <c r="C4" s="71">
         <v>92587</v>
       </c>
@@ -23116,10 +23116,10 @@
       <c r="P4" s="64">
         <v>3</v>
       </c>
-      <c r="Q4" s="170"/>
+      <c r="Q4" s="173"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="168"/>
+      <c r="B5" s="171"/>
       <c r="C5" s="71">
         <v>83838</v>
       </c>
@@ -23162,10 +23162,10 @@
       <c r="P5" s="64">
         <v>4</v>
       </c>
-      <c r="Q5" s="170"/>
+      <c r="Q5" s="173"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="166" t="s">
+      <c r="B6" s="169" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="63">
@@ -23210,10 +23210,10 @@
       <c r="P6" s="56">
         <v>1</v>
       </c>
-      <c r="Q6" s="170"/>
+      <c r="Q6" s="173"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="167"/>
+      <c r="B7" s="170"/>
       <c r="C7" s="63">
         <v>73499</v>
       </c>
@@ -23256,10 +23256,10 @@
       <c r="P7" s="56">
         <v>2</v>
       </c>
-      <c r="Q7" s="170"/>
+      <c r="Q7" s="173"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="167"/>
+      <c r="B8" s="170"/>
       <c r="C8" s="63">
         <v>90317</v>
       </c>
@@ -23302,10 +23302,10 @@
       <c r="P8" s="56">
         <v>3</v>
       </c>
-      <c r="Q8" s="170"/>
+      <c r="Q8" s="173"/>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="168"/>
+      <c r="B9" s="171"/>
       <c r="C9" s="63">
         <v>56096</v>
       </c>
@@ -23348,10 +23348,10 @@
       <c r="P9" s="56">
         <v>4</v>
       </c>
-      <c r="Q9" s="170"/>
+      <c r="Q9" s="173"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="166" t="s">
+      <c r="B10" s="169" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="55">
@@ -23396,10 +23396,10 @@
       <c r="P10" s="48">
         <v>1</v>
       </c>
-      <c r="Q10" s="170"/>
+      <c r="Q10" s="173"/>
     </row>
     <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="168"/>
+      <c r="B11" s="171"/>
       <c r="C11" s="55">
         <v>83805</v>
       </c>
@@ -23442,13 +23442,13 @@
       <c r="P11" s="48">
         <v>2</v>
       </c>
-      <c r="Q11" s="171"/>
+      <c r="Q11" s="174"/>
     </row>
     <row r="12" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="20"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="166" t="s">
+      <c r="B13" s="169" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="47"/>
@@ -23491,12 +23491,12 @@
       <c r="P13" s="37">
         <v>1</v>
       </c>
-      <c r="Q13" s="169" t="s">
+      <c r="Q13" s="172" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="168"/>
+      <c r="B14" s="171"/>
       <c r="C14" s="44">
         <v>56205</v>
       </c>
@@ -23539,10 +23539,10 @@
       <c r="P14" s="37">
         <v>2</v>
       </c>
-      <c r="Q14" s="170"/>
+      <c r="Q14" s="173"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="166" t="s">
+      <c r="B15" s="169" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="36">
@@ -23587,10 +23587,10 @@
       <c r="P15" s="29">
         <v>1</v>
       </c>
-      <c r="Q15" s="170"/>
+      <c r="Q15" s="173"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="167"/>
+      <c r="B16" s="170"/>
       <c r="C16" s="36">
         <v>91020</v>
       </c>
@@ -23633,10 +23633,10 @@
       <c r="P16" s="29">
         <v>2</v>
       </c>
-      <c r="Q16" s="170"/>
+      <c r="Q16" s="173"/>
     </row>
     <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="168"/>
+      <c r="B17" s="171"/>
       <c r="C17" s="36">
         <v>84183</v>
       </c>
@@ -23679,13 +23679,13 @@
       <c r="P17" s="29">
         <v>3</v>
       </c>
-      <c r="Q17" s="171"/>
+      <c r="Q17" s="174"/>
     </row>
     <row r="18" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="20"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="166" t="s">
+      <c r="B19" s="169" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="28">
@@ -23730,12 +23730,12 @@
       <c r="P19" s="21">
         <v>1</v>
       </c>
-      <c r="Q19" s="169" t="s">
+      <c r="Q19" s="172" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="167"/>
+      <c r="B20" s="170"/>
       <c r="C20" s="28">
         <v>56161</v>
       </c>
@@ -23778,10 +23778,10 @@
       <c r="P20" s="21">
         <v>2</v>
       </c>
-      <c r="Q20" s="170"/>
+      <c r="Q20" s="173"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="167"/>
+      <c r="B21" s="170"/>
       <c r="C21" s="28">
         <v>59425</v>
       </c>
@@ -23824,10 +23824,10 @@
       <c r="P21" s="21">
         <v>3</v>
       </c>
-      <c r="Q21" s="170"/>
+      <c r="Q21" s="173"/>
     </row>
     <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="168"/>
+      <c r="B22" s="171"/>
       <c r="C22" s="28">
         <v>94012</v>
       </c>
@@ -23870,13 +23870,13 @@
       <c r="P22" s="21">
         <v>4</v>
       </c>
-      <c r="Q22" s="171"/>
+      <c r="Q22" s="174"/>
     </row>
     <row r="23" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="20"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="166" t="s">
+      <c r="B24" s="169" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="17">
@@ -23921,12 +23921,12 @@
       <c r="P24" s="10">
         <v>1</v>
       </c>
-      <c r="Q24" s="169" t="s">
+      <c r="Q24" s="172" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="167"/>
+      <c r="B25" s="170"/>
       <c r="C25" s="17">
         <v>60102</v>
       </c>
@@ -23969,10 +23969,10 @@
       <c r="P25" s="10">
         <v>2</v>
       </c>
-      <c r="Q25" s="170"/>
+      <c r="Q25" s="173"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="167"/>
+      <c r="B26" s="170"/>
       <c r="C26" s="19">
         <v>57317</v>
       </c>
@@ -24015,10 +24015,10 @@
       <c r="P26" s="10">
         <v>3</v>
       </c>
-      <c r="Q26" s="170"/>
+      <c r="Q26" s="173"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="167"/>
+      <c r="B27" s="170"/>
       <c r="C27" s="17">
         <v>78258</v>
       </c>
@@ -24061,10 +24061,10 @@
       <c r="P27" s="10">
         <v>4</v>
       </c>
-      <c r="Q27" s="170"/>
+      <c r="Q27" s="173"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="167"/>
+      <c r="B28" s="170"/>
       <c r="C28" s="17">
         <v>59019</v>
       </c>
@@ -24107,10 +24107,10 @@
       <c r="P28" s="10">
         <v>5</v>
       </c>
-      <c r="Q28" s="170"/>
+      <c r="Q28" s="173"/>
     </row>
     <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="168"/>
+      <c r="B29" s="171"/>
       <c r="C29" s="17">
         <v>92968</v>
       </c>
@@ -24153,7 +24153,7 @@
       <c r="P29" s="10">
         <v>6</v>
       </c>
-      <c r="Q29" s="171"/>
+      <c r="Q29" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -24170,25 +24170,25 @@
     <mergeCell ref="B15:B17"/>
   </mergeCells>
   <conditionalFormatting sqref="D19:D22">
-    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D17">
-    <cfRule type="duplicateValues" dxfId="24" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D29">
-    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D9">
-    <cfRule type="duplicateValues" dxfId="21" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="duplicateValues" dxfId="20" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -29266,58 +29266,58 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="duplicateValues" dxfId="19" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="duplicateValues" dxfId="18" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B8">
-    <cfRule type="duplicateValues" dxfId="17" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="duplicateValues" dxfId="16" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B22">
-    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B26">
-    <cfRule type="duplicateValues" dxfId="13" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B33">
-    <cfRule type="duplicateValues" dxfId="12" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B47">
-    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B52 B54:B59">
-    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B72">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B80">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B89">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B98">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B103">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B106">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107:B114">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DomesticTransport/DomesticTransport.xlsx
+++ b/DomesticTransport/DomesticTransport.xlsx
@@ -2870,7 +2870,7 @@
   <dimension ref="B1:K10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DomesticTransport/DomesticTransport.xlsx
+++ b/DomesticTransport/DomesticTransport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13215" windowHeight="6300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13065" windowHeight="6300"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery" sheetId="2" r:id="rId1"/>

--- a/DomesticTransport/DomesticTransport.xlsx
+++ b/DomesticTransport/DomesticTransport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13065" windowHeight="6300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14250" windowHeight="7005" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery" sheetId="2" r:id="rId1"/>
@@ -1941,6 +1941,12 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1959,12 +1965,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel Built-in Normal" xfId="4"/>
@@ -1976,6 +1976,83 @@
     <cellStyle name="Обычный 4" xfId="1"/>
   </cellStyles>
   <dxfs count="39">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2225,83 +2302,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2558,7 +2558,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TableTotal" displayName="TableTotal" ref="B2:U3" insertRow="1" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" headerRowCellStyle="Акцент6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TableTotal" displayName="TableTotal" ref="B2:U3" insertRow="1" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" headerRowCellStyle="Акцент6">
   <autoFilter ref="B2:U3"/>
   <tableColumns count="20">
     <tableColumn id="20" name="Дата доставки"/>
@@ -2591,8 +2591,8 @@
   <autoFilter ref="B2:D25"/>
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Компания" dataDxfId="26"/>
-    <tableColumn id="3" name="Получатель письма" dataDxfId="25" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="2" name="Компания" dataDxfId="1"/>
+    <tableColumn id="3" name="Получатель письма" dataDxfId="0" dataCellStyle="Гиперссылка"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2898,8 +2898,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="B1:I10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="C2" s="159">
         <f ca="1">TODAY()+1</f>
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -22996,7 +22996,7 @@
       </c>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="171" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="71">
@@ -23041,12 +23041,12 @@
       <c r="P2" s="64">
         <v>1</v>
       </c>
-      <c r="Q2" s="172" t="s">
+      <c r="Q2" s="174" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="170"/>
+      <c r="B3" s="172"/>
       <c r="C3" s="71">
         <v>94206</v>
       </c>
@@ -23089,10 +23089,10 @@
       <c r="P3" s="64">
         <v>2</v>
       </c>
-      <c r="Q3" s="173"/>
+      <c r="Q3" s="175"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="170"/>
+      <c r="B4" s="172"/>
       <c r="C4" s="71">
         <v>92587</v>
       </c>
@@ -23135,10 +23135,10 @@
       <c r="P4" s="64">
         <v>3</v>
       </c>
-      <c r="Q4" s="173"/>
+      <c r="Q4" s="175"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="171"/>
+      <c r="B5" s="173"/>
       <c r="C5" s="71">
         <v>83838</v>
       </c>
@@ -23181,10 +23181,10 @@
       <c r="P5" s="64">
         <v>4</v>
       </c>
-      <c r="Q5" s="173"/>
+      <c r="Q5" s="175"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="169" t="s">
+      <c r="B6" s="171" t="s">
         <v>55</v>
       </c>
       <c r="C6" s="63">
@@ -23229,10 +23229,10 @@
       <c r="P6" s="56">
         <v>1</v>
       </c>
-      <c r="Q6" s="173"/>
+      <c r="Q6" s="175"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="170"/>
+      <c r="B7" s="172"/>
       <c r="C7" s="63">
         <v>73499</v>
       </c>
@@ -23275,10 +23275,10 @@
       <c r="P7" s="56">
         <v>2</v>
       </c>
-      <c r="Q7" s="173"/>
+      <c r="Q7" s="175"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="170"/>
+      <c r="B8" s="172"/>
       <c r="C8" s="63">
         <v>90317</v>
       </c>
@@ -23321,10 +23321,10 @@
       <c r="P8" s="56">
         <v>3</v>
       </c>
-      <c r="Q8" s="173"/>
+      <c r="Q8" s="175"/>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="171"/>
+      <c r="B9" s="173"/>
       <c r="C9" s="63">
         <v>56096</v>
       </c>
@@ -23367,10 +23367,10 @@
       <c r="P9" s="56">
         <v>4</v>
       </c>
-      <c r="Q9" s="173"/>
+      <c r="Q9" s="175"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="169" t="s">
+      <c r="B10" s="171" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="55">
@@ -23415,10 +23415,10 @@
       <c r="P10" s="48">
         <v>1</v>
       </c>
-      <c r="Q10" s="173"/>
+      <c r="Q10" s="175"/>
     </row>
     <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="171"/>
+      <c r="B11" s="173"/>
       <c r="C11" s="55">
         <v>83805</v>
       </c>
@@ -23461,13 +23461,13 @@
       <c r="P11" s="48">
         <v>2</v>
       </c>
-      <c r="Q11" s="174"/>
+      <c r="Q11" s="176"/>
     </row>
     <row r="12" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="20"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="169" t="s">
+      <c r="B13" s="171" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="47"/>
@@ -23510,12 +23510,12 @@
       <c r="P13" s="37">
         <v>1</v>
       </c>
-      <c r="Q13" s="172" t="s">
+      <c r="Q13" s="174" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="171"/>
+      <c r="B14" s="173"/>
       <c r="C14" s="44">
         <v>56205</v>
       </c>
@@ -23558,10 +23558,10 @@
       <c r="P14" s="37">
         <v>2</v>
       </c>
-      <c r="Q14" s="173"/>
+      <c r="Q14" s="175"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="169" t="s">
+      <c r="B15" s="171" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="36">
@@ -23606,10 +23606,10 @@
       <c r="P15" s="29">
         <v>1</v>
       </c>
-      <c r="Q15" s="173"/>
+      <c r="Q15" s="175"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="170"/>
+      <c r="B16" s="172"/>
       <c r="C16" s="36">
         <v>91020</v>
       </c>
@@ -23652,10 +23652,10 @@
       <c r="P16" s="29">
         <v>2</v>
       </c>
-      <c r="Q16" s="173"/>
+      <c r="Q16" s="175"/>
     </row>
     <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="171"/>
+      <c r="B17" s="173"/>
       <c r="C17" s="36">
         <v>84183</v>
       </c>
@@ -23698,13 +23698,13 @@
       <c r="P17" s="29">
         <v>3</v>
       </c>
-      <c r="Q17" s="174"/>
+      <c r="Q17" s="176"/>
     </row>
     <row r="18" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="20"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="169" t="s">
+      <c r="B19" s="171" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="28">
@@ -23749,12 +23749,12 @@
       <c r="P19" s="21">
         <v>1</v>
       </c>
-      <c r="Q19" s="172" t="s">
+      <c r="Q19" s="174" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="170"/>
+      <c r="B20" s="172"/>
       <c r="C20" s="28">
         <v>56161</v>
       </c>
@@ -23797,10 +23797,10 @@
       <c r="P20" s="21">
         <v>2</v>
       </c>
-      <c r="Q20" s="173"/>
+      <c r="Q20" s="175"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="170"/>
+      <c r="B21" s="172"/>
       <c r="C21" s="28">
         <v>59425</v>
       </c>
@@ -23843,10 +23843,10 @@
       <c r="P21" s="21">
         <v>3</v>
       </c>
-      <c r="Q21" s="173"/>
+      <c r="Q21" s="175"/>
     </row>
     <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="171"/>
+      <c r="B22" s="173"/>
       <c r="C22" s="28">
         <v>94012</v>
       </c>
@@ -23889,13 +23889,13 @@
       <c r="P22" s="21">
         <v>4</v>
       </c>
-      <c r="Q22" s="174"/>
+      <c r="Q22" s="176"/>
     </row>
     <row r="23" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="20"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="169" t="s">
+      <c r="B24" s="171" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="17">
@@ -23940,12 +23940,12 @@
       <c r="P24" s="10">
         <v>1</v>
       </c>
-      <c r="Q24" s="172" t="s">
+      <c r="Q24" s="174" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="170"/>
+      <c r="B25" s="172"/>
       <c r="C25" s="17">
         <v>60102</v>
       </c>
@@ -23988,10 +23988,10 @@
       <c r="P25" s="10">
         <v>2</v>
       </c>
-      <c r="Q25" s="173"/>
+      <c r="Q25" s="175"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="170"/>
+      <c r="B26" s="172"/>
       <c r="C26" s="19">
         <v>57317</v>
       </c>
@@ -24034,10 +24034,10 @@
       <c r="P26" s="10">
         <v>3</v>
       </c>
-      <c r="Q26" s="173"/>
+      <c r="Q26" s="175"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="170"/>
+      <c r="B27" s="172"/>
       <c r="C27" s="17">
         <v>78258</v>
       </c>
@@ -24080,10 +24080,10 @@
       <c r="P27" s="10">
         <v>4</v>
       </c>
-      <c r="Q27" s="173"/>
+      <c r="Q27" s="175"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="170"/>
+      <c r="B28" s="172"/>
       <c r="C28" s="17">
         <v>59019</v>
       </c>
@@ -24126,10 +24126,10 @@
       <c r="P28" s="10">
         <v>5</v>
       </c>
-      <c r="Q28" s="173"/>
+      <c r="Q28" s="175"/>
     </row>
     <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="171"/>
+      <c r="B29" s="173"/>
       <c r="C29" s="17">
         <v>92968</v>
       </c>
@@ -24172,7 +24172,7 @@
       <c r="P29" s="10">
         <v>6</v>
       </c>
-      <c r="Q29" s="174"/>
+      <c r="Q29" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -24189,25 +24189,25 @@
     <mergeCell ref="B15:B17"/>
   </mergeCells>
   <conditionalFormatting sqref="D19:D22">
-    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D17">
-    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D29">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D9">
-    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -29285,58 +29285,58 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B8">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B22">
-    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B26">
-    <cfRule type="duplicateValues" dxfId="11" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B33">
-    <cfRule type="duplicateValues" dxfId="10" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B47">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B52 B54:B59">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B72">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B80">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B89">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B98">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B103">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B106">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107:B114">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29347,23 +29347,23 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="B1:U2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="14.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="16.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="15.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="20.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="12.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.5703125" bestFit="1" customWidth="1"/>
@@ -29378,28 +29378,28 @@
   <sheetData>
     <row r="1" spans="2:21" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="175" t="s">
+      <c r="B2" s="169" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="160" t="s">
+      <c r="C2" s="170" t="s">
         <v>211</v>
       </c>
-      <c r="D2" s="176" t="s">
+      <c r="D2" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="176" t="s">
+      <c r="E2" s="170" t="s">
         <v>212</v>
       </c>
-      <c r="F2" s="176" t="s">
+      <c r="F2" s="170" t="s">
         <v>213</v>
       </c>
-      <c r="G2" s="176" t="s">
+      <c r="G2" s="170" t="s">
         <v>214</v>
       </c>
-      <c r="H2" s="176" t="s">
+      <c r="H2" s="170" t="s">
         <v>215</v>
       </c>
-      <c r="I2" s="176" t="s">
+      <c r="I2" s="160" t="s">
         <v>277</v>
       </c>
       <c r="J2" s="160" t="s">

--- a/DomesticTransport/DomesticTransport.xlsx
+++ b/DomesticTransport/DomesticTransport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14250" windowHeight="7005" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14250" windowHeight="7005"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery" sheetId="2" r:id="rId1"/>
@@ -1978,83 +1978,6 @@
   <dxfs count="39">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2304,6 +2227,83 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="9" tint="0.39997558519241921"/>
@@ -2486,10 +2486,10 @@
     <tableColumn id="9" name="Порядок выгрузки"/>
     <tableColumn id="2" name="Доставка"/>
     <tableColumn id="3" name="ID Получателя"/>
-    <tableColumn id="4" name="Получатель"/>
     <tableColumn id="10" name="Город"/>
     <tableColumn id="5" name="ID Маршрута"/>
     <tableColumn id="8" name="Вес нетто"/>
+    <tableColumn id="4" name="Получатель"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2558,7 +2558,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TableTotal" displayName="TableTotal" ref="B2:U3" insertRow="1" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" headerRowCellStyle="Акцент6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TableTotal" displayName="TableTotal" ref="B2:U3" insertRow="1" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" headerRowCellStyle="Акцент6">
   <autoFilter ref="B2:U3"/>
   <tableColumns count="20">
     <tableColumn id="20" name="Дата доставки"/>
@@ -2591,8 +2591,8 @@
   <autoFilter ref="B2:D25"/>
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Компания" dataDxfId="1"/>
-    <tableColumn id="3" name="Получатель письма" dataDxfId="0" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="2" name="Компания" dataDxfId="26"/>
+    <tableColumn id="3" name="Получатель письма" dataDxfId="25" dataCellStyle="Гиперссылка"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2898,8 +2898,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="B1:I10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2912,7 +2912,7 @@
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46" customWidth="1"/>
     <col min="10" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2984,16 +2984,16 @@
         <v>6</v>
       </c>
       <c r="F10" s="166" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="166" t="s">
+        <v>274</v>
+      </c>
+      <c r="H10" s="166" t="s">
+        <v>225</v>
+      </c>
+      <c r="I10" s="166" t="s">
         <v>275</v>
-      </c>
-      <c r="G10" s="166" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="166" t="s">
-        <v>274</v>
-      </c>
-      <c r="I10" s="166" t="s">
-        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -24189,25 +24189,25 @@
     <mergeCell ref="B15:B17"/>
   </mergeCells>
   <conditionalFormatting sqref="D19:D22">
-    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D17">
-    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D29">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D9">
-    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="duplicateValues" dxfId="23" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -29285,58 +29285,58 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="duplicateValues" dxfId="21" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B8">
-    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B22">
-    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B26">
-    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B33">
-    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B47">
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B52 B54:B59">
-    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B72">
-    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B80">
-    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B89">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B98">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B103">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B106">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107:B114">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29347,10 +29347,10 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="B1:U2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>

--- a/DomesticTransport/DomesticTransport.xlsx
+++ b/DomesticTransport/DomesticTransport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Source\Repos\DomesticTransport\DomesticTransport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\DomesticTransport\DomesticTransport\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4411" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4526" uniqueCount="280">
   <si>
     <t>Перевозчик</t>
   </si>
@@ -929,9 +929,6 @@
     <t>ID Route</t>
   </si>
   <si>
-    <t>ID Маршрута</t>
-  </si>
-  <si>
     <t>Получатель</t>
   </si>
   <si>
@@ -943,12 +940,18 @@
   <si>
     <t>Доставка</t>
   </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1150,6 +1153,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1488,7 +1497,7 @@
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1940,6 +1949,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel Built-in Normal" xfId="4"/>
@@ -1950,7 +1962,286 @@
     <cellStyle name="Обычный 2" xfId="2"/>
     <cellStyle name="Обычный 4" xfId="1"/>
   </cellStyles>
-  <dxfs count="86">
+  <dxfs count="87">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2275,256 +2566,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2879,18 +2920,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -3020,62 +3049,63 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TableCarrier" displayName="TableCarrier" ref="B5:G6" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TableCarrier" displayName="TableCarrier" ref="B5:G6" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
   <autoFilter ref="B5:G6"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="№ Доставки" dataDxfId="83"/>
-    <tableColumn id="6" name="Компания" dataDxfId="82"/>
-    <tableColumn id="4" name="ID Route" dataDxfId="81"/>
-    <tableColumn id="8" name="Тоннаж" dataDxfId="80"/>
-    <tableColumn id="3" name="Вес доставки" dataDxfId="79"/>
-    <tableColumn id="7" name="Стоимость доставки" dataDxfId="78"/>
+    <tableColumn id="1" name="№ Доставки" dataDxfId="84"/>
+    <tableColumn id="6" name="Компания" dataDxfId="83"/>
+    <tableColumn id="4" name="ID Route" dataDxfId="82"/>
+    <tableColumn id="8" name="Тоннаж" dataDxfId="81"/>
+    <tableColumn id="3" name="Вес доставки" dataDxfId="80"/>
+    <tableColumn id="7" name="Стоимость доставки" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TableOrders" displayName="TableOrders" ref="B10:I11" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
-  <autoFilter ref="B10:I11"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="№ Доставки" dataDxfId="75"/>
-    <tableColumn id="2" name="Доставка" dataDxfId="74"/>
-    <tableColumn id="5" name="ID Маршрута" dataDxfId="73"/>
-    <tableColumn id="9" name="Порядок выгрузки" dataDxfId="72"/>
-    <tableColumn id="8" name="Вес нетто" dataDxfId="71"/>
-    <tableColumn id="3" name="ID Получателя" dataDxfId="70"/>
-    <tableColumn id="10" name="Город" dataDxfId="69"/>
-    <tableColumn id="4" name="Получатель" dataDxfId="68"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TableOrders" displayName="TableOrders" ref="B10:J11" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
+  <autoFilter ref="B10:J11"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="№ Доставки" dataDxfId="76"/>
+    <tableColumn id="2" name="Доставка" dataDxfId="75"/>
+    <tableColumn id="5" name="ID Route" dataDxfId="74"/>
+    <tableColumn id="9" name="Порядок выгрузки" dataDxfId="73"/>
+    <tableColumn id="8" name="Вес нетто" dataDxfId="72"/>
+    <tableColumn id="3" name="ID Получателя" dataDxfId="71"/>
+    <tableColumn id="4" name="Получатель" dataDxfId="25"/>
+    <tableColumn id="10" name="Город" dataDxfId="70"/>
+    <tableColumn id="6" name="Маршрут" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="PriceDelivery" displayName="PriceDelivery" ref="A3:J527" totalsRowShown="0" headerRowDxfId="67" dataDxfId="65" headerRowBorderDxfId="66" headerRowCellStyle="Обычный 4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="PriceDelivery" displayName="PriceDelivery" ref="A3:J527" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68" headerRowCellStyle="Обычный 4">
   <sortState ref="A13:J426">
     <sortCondition ref="F3:F527"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="Place of shipment" dataDxfId="64"/>
-    <tableColumn id="2" name="Place of delivery" dataDxfId="63"/>
-    <tableColumn id="3" name="City" dataDxfId="62"/>
-    <tableColumn id="4" name="Country of delivery" dataDxfId="61"/>
-    <tableColumn id="5" name="Country of delivery2" dataDxfId="60"/>
-    <tableColumn id="6" name="Company" dataDxfId="59"/>
-    <tableColumn id="7" name="tonnage, t" dataDxfId="58"/>
-    <tableColumn id="8" name="vehicle" dataDxfId="57"/>
-    <tableColumn id="9" name="add.point" dataDxfId="56"/>
-    <tableColumn id="10" name="vehicle + add.point" dataDxfId="55"/>
+    <tableColumn id="1" name="Place of shipment" dataDxfId="66"/>
+    <tableColumn id="2" name="Place of delivery" dataDxfId="65"/>
+    <tableColumn id="3" name="City" dataDxfId="64"/>
+    <tableColumn id="4" name="Country of delivery" dataDxfId="63"/>
+    <tableColumn id="5" name="Country of delivery2" dataDxfId="62"/>
+    <tableColumn id="6" name="Company" dataDxfId="61"/>
+    <tableColumn id="7" name="tonnage, t" dataDxfId="60"/>
+    <tableColumn id="8" name="vehicle" dataDxfId="59"/>
+    <tableColumn id="9" name="add.point" dataDxfId="58"/>
+    <tableColumn id="10" name="vehicle + add.point" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="TableRoutes" displayName="TableRoutes" ref="A1:J115" totalsRowShown="0" headerRowDxfId="54" headerRowBorderDxfId="53" tableBorderDxfId="52">
-  <autoFilter ref="A1:J115"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="TableRoutes" displayName="TableRoutes" ref="A1:K115" totalsRowShown="0" headerRowDxfId="56" headerRowBorderDxfId="55" tableBorderDxfId="54">
+  <autoFilter ref="A1:K115"/>
+  <tableColumns count="11">
     <tableColumn id="1" name="Id route"/>
     <tableColumn id="2" name="Priority route"/>
     <tableColumn id="3" name="Priority point"/>
@@ -3086,14 +3116,15 @@
     <tableColumn id="8" name="Маршрут"/>
     <tableColumn id="9" name="City"/>
     <tableColumn id="10" name="Направление"/>
+    <tableColumn id="11" name="Add"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TableCity" displayName="TableCity" ref="L1:L23" totalsRowShown="0" tableBorderDxfId="51">
-  <autoFilter ref="L1:L23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TableCity" displayName="TableCity" ref="M1:M23" totalsRowShown="0" tableBorderDxfId="53">
+  <autoFilter ref="M1:M23"/>
   <tableColumns count="1">
     <tableColumn id="1" name="City"/>
   </tableColumns>
@@ -3102,29 +3133,29 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TableTotal" displayName="TableTotal" ref="B2:U3" insertRow="1" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" headerRowCellStyle="Акцент6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TableTotal" displayName="TableTotal" ref="B2:U3" insertRow="1" totalsRowShown="0" headerRowDxfId="52" dataDxfId="50" headerRowBorderDxfId="51" tableBorderDxfId="49" headerRowCellStyle="Акцент6">
   <autoFilter ref="B2:U3"/>
   <tableColumns count="20">
-    <tableColumn id="20" name="Дата доставки" dataDxfId="21"/>
-    <tableColumn id="1" name="ID перевозчика" dataDxfId="20"/>
-    <tableColumn id="2" name="Перевозчик" dataDxfId="19"/>
-    <tableColumn id="3" name="Тип ТС, тонн" dataDxfId="18"/>
-    <tableColumn id="4" name="Водитель (ФИО)" dataDxfId="17"/>
-    <tableColumn id="5" name="Номер,марка" dataDxfId="16"/>
-    <tableColumn id="6" name="Телефон водителя" dataDxfId="15"/>
-    <tableColumn id="19" name="№ Авто" dataDxfId="14"/>
-    <tableColumn id="7" name="Город" dataDxfId="13"/>
-    <tableColumn id="8" name="Направление" dataDxfId="12"/>
-    <tableColumn id="9" name="Порядок выгрузки" dataDxfId="11"/>
-    <tableColumn id="10" name="Номер грузополучателя" dataDxfId="10"/>
-    <tableColumn id="11" name="Номер накладной" dataDxfId="9"/>
-    <tableColumn id="12" name="Номер поставки" dataDxfId="8"/>
-    <tableColumn id="13" name="Грузополучатель" dataDxfId="7"/>
-    <tableColumn id="14" name="Брутто вес" dataDxfId="6"/>
-    <tableColumn id="15" name="Нетто вес" dataDxfId="5"/>
-    <tableColumn id="16" name="Кол-во паллет" dataDxfId="4"/>
-    <tableColumn id="17" name="Стоимость поставки" dataDxfId="3"/>
-    <tableColumn id="18" name="Стоимость доставки" dataDxfId="2"/>
+    <tableColumn id="20" name="Дата доставки" dataDxfId="48"/>
+    <tableColumn id="1" name="ID перевозчика" dataDxfId="47"/>
+    <tableColumn id="2" name="Перевозчик" dataDxfId="46"/>
+    <tableColumn id="3" name="Тип ТС, тонн" dataDxfId="45"/>
+    <tableColumn id="4" name="Водитель (ФИО)" dataDxfId="44"/>
+    <tableColumn id="5" name="Номер,марка" dataDxfId="43"/>
+    <tableColumn id="6" name="Телефон водителя" dataDxfId="42"/>
+    <tableColumn id="19" name="№ Авто" dataDxfId="41"/>
+    <tableColumn id="7" name="Город" dataDxfId="40"/>
+    <tableColumn id="8" name="Направление" dataDxfId="39"/>
+    <tableColumn id="9" name="Порядок выгрузки" dataDxfId="38"/>
+    <tableColumn id="10" name="Номер грузополучателя" dataDxfId="37"/>
+    <tableColumn id="11" name="Номер накладной" dataDxfId="36"/>
+    <tableColumn id="12" name="Номер поставки" dataDxfId="35"/>
+    <tableColumn id="13" name="Грузополучатель" dataDxfId="34"/>
+    <tableColumn id="14" name="Брутто вес" dataDxfId="33"/>
+    <tableColumn id="15" name="Нетто вес" dataDxfId="32"/>
+    <tableColumn id="16" name="Кол-во паллет" dataDxfId="31"/>
+    <tableColumn id="17" name="Стоимость поставки" dataDxfId="30"/>
+    <tableColumn id="18" name="Стоимость доставки" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -3135,8 +3166,8 @@
   <autoFilter ref="B2:D25"/>
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Компания" dataDxfId="1"/>
-    <tableColumn id="3" name="Получатель письма" dataDxfId="0" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="2" name="Компания" dataDxfId="28"/>
+    <tableColumn id="3" name="Получатель письма" dataDxfId="27" dataCellStyle="Гиперссылка"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3440,10 +3471,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="B1:I10"/>
+  <dimension ref="B1:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3453,29 +3484,30 @@
     <col min="3" max="5" width="18.28515625" style="161" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" style="161" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" style="161" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="161" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46" style="161" customWidth="1"/>
-    <col min="10" max="11" width="18.42578125" style="161" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" style="161" customWidth="1"/>
+    <col min="9" max="9" width="9" style="161" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="161" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="161" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="161"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="163" t="s">
         <v>224</v>
       </c>
       <c r="C2" s="164">
         <f ca="1">TODAY()+1</f>
-        <v>43910</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="165" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="162" t="s">
         <v>230</v>
       </c>
@@ -3495,20 +3527,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="166" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="161" t="s">
         <v>230</v>
       </c>
       <c r="C10" s="161" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D10" s="161" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E10" s="161" t="s">
         <v>77</v>
@@ -3520,10 +3552,13 @@
         <v>6</v>
       </c>
       <c r="H10" s="161" t="s">
+        <v>274</v>
+      </c>
+      <c r="I10" s="161" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="161" t="s">
-        <v>275</v>
+      <c r="J10" s="161" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -19813,10 +19848,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист3"/>
-  <dimension ref="A1:O114"/>
+  <dimension ref="A1:P114"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="K115" sqref="K115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19836,7 +19871,7 @@
     <col min="15" max="15" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="156" t="s">
         <v>227</v>
       </c>
@@ -19867,11 +19902,14 @@
       <c r="J1" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="K1" s="176" t="s">
+        <v>278</v>
+      </c>
+      <c r="M1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -19902,15 +19940,18 @@
       <c r="J2" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="160"/>
-      <c r="L2" t="s">
+      <c r="K2" t="s">
+        <v>279</v>
+      </c>
+      <c r="L2" s="160"/>
+      <c r="M2" t="s">
         <v>14</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>120024301</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -19941,15 +19982,18 @@
       <c r="J3" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="160"/>
-      <c r="L3" t="s">
+      <c r="K3" t="s">
+        <v>279</v>
+      </c>
+      <c r="L3" s="160"/>
+      <c r="M3" t="s">
         <v>12</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>120024306</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -19980,15 +20024,18 @@
       <c r="J4" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="160"/>
-      <c r="L4" t="s">
+      <c r="K4" t="s">
+        <v>279</v>
+      </c>
+      <c r="L4" s="160"/>
+      <c r="M4" t="s">
         <v>92</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>120021905</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -20019,15 +20066,18 @@
       <c r="J5" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="160"/>
-      <c r="L5" t="s">
+      <c r="K5" t="s">
+        <v>279</v>
+      </c>
+      <c r="L5" s="160"/>
+      <c r="M5" t="s">
         <v>98</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>120026321</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -20058,15 +20108,18 @@
       <c r="J6" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="160"/>
-      <c r="L6" t="s">
+      <c r="K6" t="s">
+        <v>279</v>
+      </c>
+      <c r="L6" s="160"/>
+      <c r="M6" t="s">
         <v>102</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>120025885</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -20097,15 +20150,18 @@
       <c r="J7" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="160"/>
-      <c r="L7" t="s">
+      <c r="K7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L7" s="160"/>
+      <c r="M7" t="s">
         <v>108</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>91020</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -20136,15 +20192,18 @@
       <c r="J8" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="160"/>
-      <c r="L8" t="s">
+      <c r="K8" t="s">
+        <v>279</v>
+      </c>
+      <c r="L8" s="160"/>
+      <c r="M8" t="s">
         <v>111</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>120029370</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -20172,15 +20231,18 @@
       <c r="J9" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="160"/>
-      <c r="L9" t="s">
+      <c r="K9" t="s">
+        <v>279</v>
+      </c>
+      <c r="L9" s="160"/>
+      <c r="M9" t="s">
         <v>117</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>120028781</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -20211,15 +20273,18 @@
       <c r="J10" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="160"/>
-      <c r="L10" t="s">
+      <c r="K10" t="s">
+        <v>279</v>
+      </c>
+      <c r="L10" s="160"/>
+      <c r="M10" t="s">
         <v>121</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>120027759</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -20250,15 +20315,18 @@
       <c r="J11" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="160"/>
-      <c r="L11" t="s">
+      <c r="K11" t="s">
+        <v>279</v>
+      </c>
+      <c r="L11" s="160"/>
+      <c r="M11" t="s">
         <v>122</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>120026389</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -20289,15 +20357,18 @@
       <c r="J12" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="160"/>
-      <c r="L12" t="s">
+      <c r="K12" t="s">
+        <v>279</v>
+      </c>
+      <c r="L12" s="160"/>
+      <c r="M12" t="s">
         <v>126</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>120021605</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -20328,15 +20399,18 @@
       <c r="J13" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="160"/>
-      <c r="L13" t="s">
+      <c r="K13" t="s">
+        <v>279</v>
+      </c>
+      <c r="L13" s="160"/>
+      <c r="M13" t="s">
         <v>129</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>120025666</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -20367,15 +20441,18 @@
       <c r="J14" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="160"/>
-      <c r="L14" t="s">
+      <c r="K14" t="s">
+        <v>279</v>
+      </c>
+      <c r="L14" s="160"/>
+      <c r="M14" t="s">
         <v>132</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>60102</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -20406,15 +20483,18 @@
       <c r="J15" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="160"/>
-      <c r="L15" t="s">
+      <c r="K15" t="s">
+        <v>279</v>
+      </c>
+      <c r="L15" s="160"/>
+      <c r="M15" t="s">
         <v>144</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>120022426</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -20445,15 +20525,18 @@
       <c r="J16" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="160"/>
-      <c r="L16" t="s">
+      <c r="K16" t="s">
+        <v>279</v>
+      </c>
+      <c r="L16" s="160"/>
+      <c r="M16" t="s">
         <v>153</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>78258</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -20484,15 +20567,18 @@
       <c r="J17" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="160"/>
-      <c r="L17" t="s">
+      <c r="K17" t="s">
+        <v>279</v>
+      </c>
+      <c r="L17" s="160"/>
+      <c r="M17" t="s">
         <v>163</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>120022423</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -20523,15 +20609,18 @@
       <c r="J18" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="160"/>
-      <c r="L18" t="s">
+      <c r="K18" t="s">
+        <v>279</v>
+      </c>
+      <c r="L18" s="160"/>
+      <c r="M18" t="s">
         <v>166</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>120024225</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6</v>
       </c>
@@ -20562,15 +20651,18 @@
       <c r="J19" t="s">
         <v>64</v>
       </c>
-      <c r="K19" s="160"/>
-      <c r="L19" t="s">
+      <c r="K19" t="s">
+        <v>279</v>
+      </c>
+      <c r="L19" s="160"/>
+      <c r="M19" t="s">
         <v>169</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>120026206</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
@@ -20601,15 +20693,18 @@
       <c r="J20" t="s">
         <v>64</v>
       </c>
-      <c r="K20" s="160"/>
-      <c r="L20" t="s">
+      <c r="K20" t="s">
+        <v>279</v>
+      </c>
+      <c r="L20" s="160"/>
+      <c r="M20" t="s">
         <v>174</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>120025752</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6</v>
       </c>
@@ -20640,15 +20735,18 @@
       <c r="J21" t="s">
         <v>64</v>
       </c>
-      <c r="K21" s="160"/>
-      <c r="L21" t="s">
+      <c r="K21" t="s">
+        <v>279</v>
+      </c>
+      <c r="L21" s="160"/>
+      <c r="M21" t="s">
         <v>179</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>120024261</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
@@ -20679,15 +20777,18 @@
       <c r="J22" t="s">
         <v>64</v>
       </c>
-      <c r="K22" s="160"/>
-      <c r="L22" t="s">
+      <c r="K22" t="s">
+        <v>279</v>
+      </c>
+      <c r="L22" s="160"/>
+      <c r="M22" t="s">
         <v>182</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>120022424</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7</v>
       </c>
@@ -20718,15 +20819,18 @@
       <c r="J23" t="s">
         <v>70</v>
       </c>
-      <c r="K23" s="160"/>
-      <c r="L23" t="s">
+      <c r="K23" t="s">
+        <v>279</v>
+      </c>
+      <c r="L23" s="160"/>
+      <c r="M23" t="s">
         <v>184</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>120022493</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7</v>
       </c>
@@ -20757,12 +20861,15 @@
       <c r="J24" t="s">
         <v>70</v>
       </c>
-      <c r="K24" s="160"/>
-      <c r="O24">
+      <c r="K24" t="s">
+        <v>279</v>
+      </c>
+      <c r="L24" s="160"/>
+      <c r="P24">
         <v>120026430</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>7</v>
       </c>
@@ -20793,12 +20900,15 @@
       <c r="J25" t="s">
         <v>70</v>
       </c>
-      <c r="K25" s="160"/>
-      <c r="O25">
+      <c r="K25" t="s">
+        <v>279</v>
+      </c>
+      <c r="L25" s="160"/>
+      <c r="P25">
         <v>120028098</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7</v>
       </c>
@@ -20829,12 +20939,15 @@
       <c r="J26" t="s">
         <v>70</v>
       </c>
-      <c r="K26" s="160"/>
-      <c r="O26">
+      <c r="K26" t="s">
+        <v>279</v>
+      </c>
+      <c r="L26" s="160"/>
+      <c r="P26">
         <v>120026747</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8</v>
       </c>
@@ -20865,11 +20978,14 @@
       <c r="J27" t="s">
         <v>93</v>
       </c>
-      <c r="O27">
+      <c r="K27" t="s">
+        <v>279</v>
+      </c>
+      <c r="P27">
         <v>120024302</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8</v>
       </c>
@@ -20900,11 +21016,14 @@
       <c r="J28" t="s">
         <v>93</v>
       </c>
-      <c r="O28">
+      <c r="K28" t="s">
+        <v>279</v>
+      </c>
+      <c r="P28">
         <v>120025788</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8</v>
       </c>
@@ -20935,11 +21054,14 @@
       <c r="J29" t="s">
         <v>93</v>
       </c>
-      <c r="O29">
+      <c r="K29" t="s">
+        <v>279</v>
+      </c>
+      <c r="P29">
         <v>120030442</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>8</v>
       </c>
@@ -20970,11 +21092,14 @@
       <c r="J30" t="s">
         <v>93</v>
       </c>
-      <c r="O30">
+      <c r="K30" t="s">
+        <v>279</v>
+      </c>
+      <c r="P30">
         <v>120025708</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8</v>
       </c>
@@ -21005,11 +21130,14 @@
       <c r="J31" t="s">
         <v>93</v>
       </c>
-      <c r="O31">
+      <c r="K31" t="s">
+        <v>279</v>
+      </c>
+      <c r="P31">
         <v>120030449</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>8</v>
       </c>
@@ -21040,11 +21168,14 @@
       <c r="J32" t="s">
         <v>93</v>
       </c>
-      <c r="O32">
+      <c r="K32" t="s">
+        <v>279</v>
+      </c>
+      <c r="P32">
         <v>120024614</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
@@ -21075,11 +21206,14 @@
       <c r="J33" t="s">
         <v>93</v>
       </c>
-      <c r="O33">
+      <c r="K33" t="s">
+        <v>279</v>
+      </c>
+      <c r="P33">
         <v>120025332</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -21110,11 +21244,14 @@
       <c r="J34" t="s">
         <v>100</v>
       </c>
-      <c r="O34">
+      <c r="K34" t="s">
+        <v>279</v>
+      </c>
+      <c r="P34">
         <v>120022887</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9</v>
       </c>
@@ -21145,11 +21282,14 @@
       <c r="J35" t="s">
         <v>100</v>
       </c>
-      <c r="O35">
+      <c r="K35" t="s">
+        <v>279</v>
+      </c>
+      <c r="P35">
         <v>120030455</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9</v>
       </c>
@@ -21180,11 +21320,14 @@
       <c r="J36" t="s">
         <v>100</v>
       </c>
-      <c r="O36">
+      <c r="K36" t="s">
+        <v>279</v>
+      </c>
+      <c r="P36">
         <v>120026345</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9</v>
       </c>
@@ -21215,11 +21358,14 @@
       <c r="J37" t="s">
         <v>100</v>
       </c>
-      <c r="O37">
+      <c r="K37" t="s">
+        <v>279</v>
+      </c>
+      <c r="P37">
         <v>120029380</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>9</v>
       </c>
@@ -21250,11 +21396,14 @@
       <c r="J38" t="s">
         <v>100</v>
       </c>
-      <c r="O38">
+      <c r="K38" t="s">
+        <v>279</v>
+      </c>
+      <c r="P38">
         <v>93587</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9</v>
       </c>
@@ -21285,11 +21434,14 @@
       <c r="J39" t="s">
         <v>100</v>
       </c>
-      <c r="O39">
+      <c r="K39" t="s">
+        <v>279</v>
+      </c>
+      <c r="P39">
         <v>120022985</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9</v>
       </c>
@@ -21320,11 +21472,14 @@
       <c r="J40" t="s">
         <v>100</v>
       </c>
-      <c r="O40">
+      <c r="K40" t="s">
+        <v>279</v>
+      </c>
+      <c r="P40">
         <v>92663</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>9</v>
       </c>
@@ -21355,11 +21510,14 @@
       <c r="J41" t="s">
         <v>100</v>
       </c>
-      <c r="O41">
+      <c r="K41" t="s">
+        <v>279</v>
+      </c>
+      <c r="P41">
         <v>120024040</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>9</v>
       </c>
@@ -21390,11 +21548,14 @@
       <c r="J42" t="s">
         <v>100</v>
       </c>
-      <c r="O42">
+      <c r="K42" t="s">
+        <v>279</v>
+      </c>
+      <c r="P42">
         <v>120030364</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9</v>
       </c>
@@ -21425,11 +21586,14 @@
       <c r="J43" t="s">
         <v>100</v>
       </c>
-      <c r="O43">
+      <c r="K43" t="s">
+        <v>279</v>
+      </c>
+      <c r="P43">
         <v>120024886</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>9</v>
       </c>
@@ -21460,11 +21624,14 @@
       <c r="J44" t="s">
         <v>100</v>
       </c>
-      <c r="O44">
+      <c r="K44" t="s">
+        <v>279</v>
+      </c>
+      <c r="P44">
         <v>120028580</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>9</v>
       </c>
@@ -21495,11 +21662,14 @@
       <c r="J45" t="s">
         <v>100</v>
       </c>
-      <c r="O45">
+      <c r="K45" t="s">
+        <v>279</v>
+      </c>
+      <c r="P45">
         <v>120024376</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9</v>
       </c>
@@ -21530,11 +21700,14 @@
       <c r="J46" t="s">
         <v>100</v>
       </c>
-      <c r="O46">
+      <c r="K46" t="s">
+        <v>279</v>
+      </c>
+      <c r="P46">
         <v>120027072</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>9</v>
       </c>
@@ -21565,11 +21738,14 @@
       <c r="J47" t="s">
         <v>100</v>
       </c>
-      <c r="O47">
+      <c r="K47" t="s">
+        <v>279</v>
+      </c>
+      <c r="P47">
         <v>120030386</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>10</v>
       </c>
@@ -21600,11 +21776,14 @@
       <c r="J48" t="s">
         <v>112</v>
       </c>
-      <c r="O48">
+      <c r="K48" t="s">
+        <v>279</v>
+      </c>
+      <c r="P48">
         <v>120030443</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>10</v>
       </c>
@@ -21635,11 +21814,14 @@
       <c r="J49" t="s">
         <v>112</v>
       </c>
-      <c r="O49">
+      <c r="K49" t="s">
+        <v>279</v>
+      </c>
+      <c r="P49">
         <v>120025707</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10</v>
       </c>
@@ -21670,11 +21852,14 @@
       <c r="J50" t="s">
         <v>112</v>
       </c>
-      <c r="O50">
+      <c r="K50" t="s">
+        <v>279</v>
+      </c>
+      <c r="P50">
         <v>120029381</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10</v>
       </c>
@@ -21705,11 +21890,14 @@
       <c r="J51" t="s">
         <v>112</v>
       </c>
-      <c r="O51">
+      <c r="K51" t="s">
+        <v>279</v>
+      </c>
+      <c r="P51">
         <v>94010</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10</v>
       </c>
@@ -21740,11 +21928,14 @@
       <c r="J52" t="s">
         <v>112</v>
       </c>
-      <c r="O52">
+      <c r="K52" t="s">
+        <v>279</v>
+      </c>
+      <c r="P52">
         <v>120025498</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>10</v>
       </c>
@@ -21775,11 +21966,14 @@
       <c r="J53" t="s">
         <v>112</v>
       </c>
-      <c r="O53">
+      <c r="K53" t="s">
+        <v>279</v>
+      </c>
+      <c r="P53">
         <v>120030883</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>10</v>
       </c>
@@ -21810,11 +22004,14 @@
       <c r="J54" t="s">
         <v>112</v>
       </c>
-      <c r="O54">
+      <c r="K54" t="s">
+        <v>279</v>
+      </c>
+      <c r="P54">
         <v>120022936</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10</v>
       </c>
@@ -21845,11 +22042,14 @@
       <c r="J55" t="s">
         <v>112</v>
       </c>
-      <c r="O55">
+      <c r="K55" t="s">
+        <v>279</v>
+      </c>
+      <c r="P55">
         <v>120028579</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10</v>
       </c>
@@ -21880,11 +22080,14 @@
       <c r="J56" t="s">
         <v>112</v>
       </c>
-      <c r="O56">
+      <c r="K56" t="s">
+        <v>279</v>
+      </c>
+      <c r="P56">
         <v>120029262</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>10</v>
       </c>
@@ -21915,11 +22118,14 @@
       <c r="J57" t="s">
         <v>112</v>
       </c>
-      <c r="O57">
+      <c r="K57" t="s">
+        <v>279</v>
+      </c>
+      <c r="P57">
         <v>120030302</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>10</v>
       </c>
@@ -21950,11 +22156,14 @@
       <c r="J58" t="s">
         <v>112</v>
       </c>
-      <c r="O58">
+      <c r="K58" t="s">
+        <v>279</v>
+      </c>
+      <c r="P58">
         <v>99830</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>10</v>
       </c>
@@ -21985,11 +22194,14 @@
       <c r="J59" t="s">
         <v>112</v>
       </c>
-      <c r="O59">
+      <c r="K59" t="s">
+        <v>279</v>
+      </c>
+      <c r="P59">
         <v>120024307</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>11</v>
       </c>
@@ -22020,11 +22232,14 @@
       <c r="J60" t="s">
         <v>123</v>
       </c>
-      <c r="O60">
+      <c r="K60" t="s">
+        <v>279</v>
+      </c>
+      <c r="P60">
         <v>120029260</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>11</v>
       </c>
@@ -22055,11 +22270,14 @@
       <c r="J61" t="s">
         <v>123</v>
       </c>
-      <c r="O61">
+      <c r="K61" t="s">
+        <v>279</v>
+      </c>
+      <c r="P61">
         <v>120029384</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>11</v>
       </c>
@@ -22090,11 +22308,14 @@
       <c r="J62" t="s">
         <v>123</v>
       </c>
-      <c r="O62">
+      <c r="K62" t="s">
+        <v>279</v>
+      </c>
+      <c r="P62">
         <v>120024255</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>11</v>
       </c>
@@ -22125,11 +22346,14 @@
       <c r="J63" t="s">
         <v>123</v>
       </c>
-      <c r="O63">
+      <c r="K63" t="s">
+        <v>279</v>
+      </c>
+      <c r="P63">
         <v>120030466</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>11</v>
       </c>
@@ -22160,11 +22384,14 @@
       <c r="J64" t="s">
         <v>123</v>
       </c>
-      <c r="O64">
+      <c r="K64" t="s">
+        <v>279</v>
+      </c>
+      <c r="P64">
         <v>79014</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>11</v>
       </c>
@@ -22195,11 +22422,14 @@
       <c r="J65" t="s">
         <v>123</v>
       </c>
-      <c r="O65">
+      <c r="K65" t="s">
+        <v>279</v>
+      </c>
+      <c r="P65">
         <v>120022938</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>11</v>
       </c>
@@ -22230,11 +22460,14 @@
       <c r="J66" t="s">
         <v>123</v>
       </c>
-      <c r="O66">
+      <c r="K66" t="s">
+        <v>279</v>
+      </c>
+      <c r="P66">
         <v>120029383</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>11</v>
       </c>
@@ -22265,11 +22498,14 @@
       <c r="J67" t="s">
         <v>123</v>
       </c>
-      <c r="O67">
+      <c r="K67" t="s">
+        <v>279</v>
+      </c>
+      <c r="P67">
         <v>120024626</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>11</v>
       </c>
@@ -22300,11 +22536,14 @@
       <c r="J68" t="s">
         <v>123</v>
       </c>
-      <c r="O68">
+      <c r="K68" t="s">
+        <v>279</v>
+      </c>
+      <c r="P68">
         <v>120023289</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>11</v>
       </c>
@@ -22335,11 +22574,14 @@
       <c r="J69" t="s">
         <v>123</v>
       </c>
-      <c r="O69">
+      <c r="K69" t="s">
+        <v>279</v>
+      </c>
+      <c r="P69">
         <v>120025009</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>11</v>
       </c>
@@ -22370,11 +22612,14 @@
       <c r="J70" t="s">
         <v>123</v>
       </c>
-      <c r="O70">
+      <c r="K70" t="s">
+        <v>279</v>
+      </c>
+      <c r="P70">
         <v>120024863</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>11</v>
       </c>
@@ -22405,11 +22650,14 @@
       <c r="J71" t="s">
         <v>123</v>
       </c>
-      <c r="O71">
+      <c r="K71" t="s">
+        <v>279</v>
+      </c>
+      <c r="P71">
         <v>120027901</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>11</v>
       </c>
@@ -22440,11 +22688,14 @@
       <c r="J72" t="s">
         <v>123</v>
       </c>
-      <c r="O72">
+      <c r="K72" t="s">
+        <v>279</v>
+      </c>
+      <c r="P72">
         <v>120024375</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>12</v>
       </c>
@@ -22475,11 +22726,14 @@
       <c r="J73" t="s">
         <v>133</v>
       </c>
-      <c r="O73">
+      <c r="K73" t="s">
+        <v>279</v>
+      </c>
+      <c r="P73">
         <v>120026573</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>12</v>
       </c>
@@ -22510,11 +22764,14 @@
       <c r="J74" t="s">
         <v>133</v>
       </c>
-      <c r="O74">
+      <c r="K74" t="s">
+        <v>279</v>
+      </c>
+      <c r="P74">
         <v>120026488</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>12</v>
       </c>
@@ -22545,11 +22802,14 @@
       <c r="J75" t="s">
         <v>133</v>
       </c>
-      <c r="O75">
+      <c r="K75" t="s">
+        <v>279</v>
+      </c>
+      <c r="P75">
         <v>32990</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>12</v>
       </c>
@@ -22580,11 +22840,14 @@
       <c r="J76" t="s">
         <v>133</v>
       </c>
-      <c r="O76">
+      <c r="K76" t="s">
+        <v>279</v>
+      </c>
+      <c r="P76">
         <v>120026491</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>12</v>
       </c>
@@ -22615,11 +22878,14 @@
       <c r="J77" t="s">
         <v>133</v>
       </c>
-      <c r="O77">
+      <c r="K77" t="s">
+        <v>279</v>
+      </c>
+      <c r="P77">
         <v>120026492</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>12</v>
       </c>
@@ -22650,11 +22916,14 @@
       <c r="J78" t="s">
         <v>133</v>
       </c>
-      <c r="O78">
+      <c r="K78" t="s">
+        <v>279</v>
+      </c>
+      <c r="P78">
         <v>47722</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>12</v>
       </c>
@@ -22685,11 +22954,14 @@
       <c r="J79" t="s">
         <v>133</v>
       </c>
-      <c r="O79">
+      <c r="K79" t="s">
+        <v>279</v>
+      </c>
+      <c r="P79">
         <v>120026489</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>12</v>
       </c>
@@ -22720,11 +22992,14 @@
       <c r="J80" t="s">
         <v>133</v>
       </c>
-      <c r="O80">
+      <c r="K80" t="s">
+        <v>279</v>
+      </c>
+      <c r="P80">
         <v>120026487</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>13</v>
       </c>
@@ -22755,11 +23030,14 @@
       <c r="J81" t="s">
         <v>145</v>
       </c>
-      <c r="O81">
+      <c r="K81" t="s">
+        <v>279</v>
+      </c>
+      <c r="P81">
         <v>120027482</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>13</v>
       </c>
@@ -22790,11 +23068,14 @@
       <c r="J82" t="s">
         <v>145</v>
       </c>
-      <c r="O82">
+      <c r="K82" t="s">
+        <v>279</v>
+      </c>
+      <c r="P82">
         <v>120030467</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>13</v>
       </c>
@@ -22825,11 +23106,14 @@
       <c r="J83" t="s">
         <v>145</v>
       </c>
-      <c r="O83">
+      <c r="K83" t="s">
+        <v>279</v>
+      </c>
+      <c r="P83">
         <v>120027824</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>13</v>
       </c>
@@ -22860,11 +23144,14 @@
       <c r="J84" t="s">
         <v>145</v>
       </c>
-      <c r="O84">
+      <c r="K84" t="s">
+        <v>279</v>
+      </c>
+      <c r="P84">
         <v>90005</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>13</v>
       </c>
@@ -22895,11 +23182,14 @@
       <c r="J85" t="s">
         <v>145</v>
       </c>
-      <c r="O85">
+      <c r="K85" t="s">
+        <v>279</v>
+      </c>
+      <c r="P85">
         <v>120028904</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>13</v>
       </c>
@@ -22930,11 +23220,14 @@
       <c r="J86" t="s">
         <v>145</v>
       </c>
-      <c r="O86">
+      <c r="K86" t="s">
+        <v>279</v>
+      </c>
+      <c r="P86">
         <v>120024377</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>13</v>
       </c>
@@ -22965,11 +23258,14 @@
       <c r="J87" t="s">
         <v>145</v>
       </c>
-      <c r="O87">
+      <c r="K87" t="s">
+        <v>279</v>
+      </c>
+      <c r="P87">
         <v>120024969</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>13</v>
       </c>
@@ -23000,11 +23296,14 @@
       <c r="J88" t="s">
         <v>145</v>
       </c>
-      <c r="O88">
+      <c r="K88" t="s">
+        <v>279</v>
+      </c>
+      <c r="P88">
         <v>120024892</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>13</v>
       </c>
@@ -23035,11 +23334,14 @@
       <c r="J89" t="s">
         <v>145</v>
       </c>
-      <c r="O89">
+      <c r="K89" t="s">
+        <v>279</v>
+      </c>
+      <c r="P89">
         <v>99677</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>14</v>
       </c>
@@ -23070,11 +23372,14 @@
       <c r="J90" t="s">
         <v>154</v>
       </c>
-      <c r="O90">
+      <c r="K90" t="s">
+        <v>279</v>
+      </c>
+      <c r="P90">
         <v>59421</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>14</v>
       </c>
@@ -23105,11 +23410,14 @@
       <c r="J91" t="s">
         <v>154</v>
       </c>
-      <c r="O91">
+      <c r="K91" t="s">
+        <v>279</v>
+      </c>
+      <c r="P91">
         <v>82946</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>14</v>
       </c>
@@ -23140,11 +23448,14 @@
       <c r="J92" t="s">
         <v>154</v>
       </c>
-      <c r="O92">
+      <c r="K92" t="s">
+        <v>279</v>
+      </c>
+      <c r="P92">
         <v>97324</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>14</v>
       </c>
@@ -23175,11 +23486,14 @@
       <c r="J93" t="s">
         <v>154</v>
       </c>
-      <c r="O93">
+      <c r="K93" t="s">
+        <v>279</v>
+      </c>
+      <c r="P93">
         <v>120026634</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>14</v>
       </c>
@@ -23210,11 +23524,14 @@
       <c r="J94" t="s">
         <v>154</v>
       </c>
-      <c r="O94">
+      <c r="K94" t="s">
+        <v>279</v>
+      </c>
+      <c r="P94">
         <v>120027080</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>14</v>
       </c>
@@ -23245,11 +23562,14 @@
       <c r="J95" t="s">
         <v>154</v>
       </c>
-      <c r="O95">
+      <c r="K95" t="s">
+        <v>279</v>
+      </c>
+      <c r="P95">
         <v>120027441</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>14</v>
       </c>
@@ -23280,11 +23600,14 @@
       <c r="J96" t="s">
         <v>154</v>
       </c>
-      <c r="O96">
+      <c r="K96" t="s">
+        <v>279</v>
+      </c>
+      <c r="P96">
         <v>120027806</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>14</v>
       </c>
@@ -23315,11 +23638,14 @@
       <c r="J97" t="s">
         <v>154</v>
       </c>
-      <c r="O97">
+      <c r="K97" t="s">
+        <v>279</v>
+      </c>
+      <c r="P97">
         <v>120026620</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>14</v>
       </c>
@@ -23350,11 +23676,14 @@
       <c r="J98" t="s">
         <v>154</v>
       </c>
-      <c r="O98">
+      <c r="K98" t="s">
+        <v>279</v>
+      </c>
+      <c r="P98">
         <v>120026626</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>15</v>
       </c>
@@ -23385,11 +23714,14 @@
       <c r="J99" t="s">
         <v>167</v>
       </c>
-      <c r="O99">
+      <c r="K99" t="s">
+        <v>279</v>
+      </c>
+      <c r="P99">
         <v>96078</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>15</v>
       </c>
@@ -23420,11 +23752,14 @@
       <c r="J100" t="s">
         <v>167</v>
       </c>
-      <c r="O100">
+      <c r="K100" t="s">
+        <v>279</v>
+      </c>
+      <c r="P100">
         <v>120027103</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>15</v>
       </c>
@@ -23455,11 +23790,14 @@
       <c r="J101" t="s">
         <v>167</v>
       </c>
-      <c r="O101">
+      <c r="K101" t="s">
+        <v>279</v>
+      </c>
+      <c r="P101">
         <v>120027696</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>15</v>
       </c>
@@ -23490,11 +23828,14 @@
       <c r="J102" t="s">
         <v>167</v>
       </c>
-      <c r="O102">
+      <c r="K102" t="s">
+        <v>279</v>
+      </c>
+      <c r="P102">
         <v>120029269</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>15</v>
       </c>
@@ -23525,11 +23866,14 @@
       <c r="J103" t="s">
         <v>167</v>
       </c>
-      <c r="O103">
+      <c r="K103" t="s">
+        <v>279</v>
+      </c>
+      <c r="P103">
         <v>120030188</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>16</v>
       </c>
@@ -23560,11 +23904,14 @@
       <c r="J104" t="s">
         <v>170</v>
       </c>
-      <c r="O104">
+      <c r="K104" t="s">
+        <v>279</v>
+      </c>
+      <c r="P104">
         <v>120030568</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>16</v>
       </c>
@@ -23595,11 +23942,14 @@
       <c r="J105" t="s">
         <v>170</v>
       </c>
-      <c r="O105">
+      <c r="K105" t="s">
+        <v>279</v>
+      </c>
+      <c r="P105">
         <v>120030573</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>16</v>
       </c>
@@ -23630,11 +23980,14 @@
       <c r="J106" t="s">
         <v>170</v>
       </c>
-      <c r="O106">
+      <c r="K106" t="s">
+        <v>279</v>
+      </c>
+      <c r="P106">
         <v>120030639</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>17</v>
       </c>
@@ -23665,11 +24018,14 @@
       <c r="J107" t="s">
         <v>175</v>
       </c>
-      <c r="O107">
+      <c r="K107" t="s">
+        <v>279</v>
+      </c>
+      <c r="P107">
         <v>99802</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>17</v>
       </c>
@@ -23700,11 +24056,14 @@
       <c r="J108" t="s">
         <v>175</v>
       </c>
-      <c r="O108">
+      <c r="K108" t="s">
+        <v>279</v>
+      </c>
+      <c r="P108">
         <v>120022942</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>17</v>
       </c>
@@ -23735,11 +24094,14 @@
       <c r="J109" t="s">
         <v>175</v>
       </c>
-      <c r="O109">
+      <c r="K109" t="s">
+        <v>279</v>
+      </c>
+      <c r="P109">
         <v>120027412</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>18</v>
       </c>
@@ -23770,11 +24132,14 @@
       <c r="J110" t="s">
         <v>175</v>
       </c>
-      <c r="O110">
+      <c r="K110" t="s">
+        <v>279</v>
+      </c>
+      <c r="P110">
         <v>120027481</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>18</v>
       </c>
@@ -23805,11 +24170,14 @@
       <c r="J111" t="s">
         <v>175</v>
       </c>
-      <c r="O111">
+      <c r="K111" t="s">
+        <v>279</v>
+      </c>
+      <c r="P111">
         <v>120028362</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>19</v>
       </c>
@@ -23840,11 +24208,14 @@
       <c r="J112" t="s">
         <v>175</v>
       </c>
-      <c r="O112">
+      <c r="K112" t="s">
+        <v>279</v>
+      </c>
+      <c r="P112">
         <v>120022957</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>19</v>
       </c>
@@ -23875,11 +24246,14 @@
       <c r="J113" t="s">
         <v>175</v>
       </c>
-      <c r="O113">
+      <c r="K113" t="s">
+        <v>279</v>
+      </c>
+      <c r="P113">
         <v>120029638</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>20</v>
       </c>
@@ -23910,7 +24284,10 @@
       <c r="J114" t="s">
         <v>175</v>
       </c>
-      <c r="O114">
+      <c r="K114" t="s">
+        <v>279</v>
+      </c>
+      <c r="P114">
         <v>92536</v>
       </c>
     </row>
@@ -23929,7 +24306,7 @@
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
-      <formula1>$L$2:$L$23</formula1>
+      <formula1>$M$2:$M$23</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25214,25 +25591,25 @@
     <mergeCell ref="B15:B17"/>
   </mergeCells>
   <conditionalFormatting sqref="D19:D22">
-    <cfRule type="duplicateValues" dxfId="50" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="duplicateValues" dxfId="49" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D17">
-    <cfRule type="duplicateValues" dxfId="48" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="duplicateValues" dxfId="47" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D29">
-    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D9">
-    <cfRule type="duplicateValues" dxfId="45" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="duplicateValues" dxfId="44" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -30310,58 +30687,58 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="duplicateValues" dxfId="43" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="duplicateValues" dxfId="42" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B8">
-    <cfRule type="duplicateValues" dxfId="41" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="duplicateValues" dxfId="40" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="duplicateValues" dxfId="39" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B22">
-    <cfRule type="duplicateValues" dxfId="38" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B26">
-    <cfRule type="duplicateValues" dxfId="37" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B33">
-    <cfRule type="duplicateValues" dxfId="36" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B47">
-    <cfRule type="duplicateValues" dxfId="35" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B52 B54:B59">
-    <cfRule type="duplicateValues" dxfId="34" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="33" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B72">
-    <cfRule type="duplicateValues" dxfId="32" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B80">
-    <cfRule type="duplicateValues" dxfId="31" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B89">
-    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B98">
-    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B103">
-    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B106">
-    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107:B114">
-    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30427,7 +30804,7 @@
         <v>215</v>
       </c>
       <c r="I2" s="169" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J2" s="169" t="s">
         <v>84</v>

--- a/DomesticTransport/DomesticTransport.xlsx
+++ b/DomesticTransport/DomesticTransport.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\DomesticTransport\DomesticTransport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Msol\domestic\DomesticTransport\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="7005"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="7005" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4526" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4526" uniqueCount="279">
   <si>
     <t>Перевозчик</t>
   </si>
@@ -933,9 +933,6 @@
   </si>
   <si>
     <t>Доставки</t>
-  </si>
-  <si>
-    <t>№ Авто</t>
   </si>
   <si>
     <t>Доставка</t>
@@ -1931,6 +1928,9 @@
     <xf numFmtId="0" fontId="23" fillId="13" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1949,9 +1949,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel Built-in Normal" xfId="4"/>
@@ -1963,285 +1960,6 @@
     <cellStyle name="Обычный 4" xfId="1"/>
   </cellStyles>
   <dxfs count="87">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2568,6 +2286,256 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="9" tint="0.39997558519241921"/>
@@ -2815,6 +2783,35 @@
         <horizontal/>
       </border>
       <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3073,37 +3070,37 @@
     <tableColumn id="9" name="Порядок выгрузки" dataDxfId="73"/>
     <tableColumn id="8" name="Вес нетто" dataDxfId="72"/>
     <tableColumn id="3" name="ID Получателя" dataDxfId="71"/>
-    <tableColumn id="4" name="Получатель" dataDxfId="25"/>
-    <tableColumn id="10" name="Город" dataDxfId="70"/>
-    <tableColumn id="6" name="Маршрут" dataDxfId="26"/>
+    <tableColumn id="4" name="Получатель" dataDxfId="70"/>
+    <tableColumn id="10" name="Город" dataDxfId="69"/>
+    <tableColumn id="6" name="Маршрут" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="PriceDelivery" displayName="PriceDelivery" ref="A3:J527" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68" headerRowCellStyle="Обычный 4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="PriceDelivery" displayName="PriceDelivery" ref="A3:J527" totalsRowShown="0" headerRowDxfId="67" dataDxfId="65" headerRowBorderDxfId="66" headerRowCellStyle="Обычный 4">
   <sortState ref="A13:J426">
     <sortCondition ref="F3:F527"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="Place of shipment" dataDxfId="66"/>
-    <tableColumn id="2" name="Place of delivery" dataDxfId="65"/>
-    <tableColumn id="3" name="City" dataDxfId="64"/>
-    <tableColumn id="4" name="Country of delivery" dataDxfId="63"/>
-    <tableColumn id="5" name="Country of delivery2" dataDxfId="62"/>
-    <tableColumn id="6" name="Company" dataDxfId="61"/>
-    <tableColumn id="7" name="tonnage, t" dataDxfId="60"/>
-    <tableColumn id="8" name="vehicle" dataDxfId="59"/>
-    <tableColumn id="9" name="add.point" dataDxfId="58"/>
-    <tableColumn id="10" name="vehicle + add.point" dataDxfId="57"/>
+    <tableColumn id="1" name="Place of shipment" dataDxfId="64"/>
+    <tableColumn id="2" name="Place of delivery" dataDxfId="63"/>
+    <tableColumn id="3" name="City" dataDxfId="62"/>
+    <tableColumn id="4" name="Country of delivery" dataDxfId="61"/>
+    <tableColumn id="5" name="Country of delivery2" dataDxfId="60"/>
+    <tableColumn id="6" name="Company" dataDxfId="59"/>
+    <tableColumn id="7" name="tonnage, t" dataDxfId="58"/>
+    <tableColumn id="8" name="vehicle" dataDxfId="57"/>
+    <tableColumn id="9" name="add.point" dataDxfId="56"/>
+    <tableColumn id="10" name="vehicle + add.point" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="TableRoutes" displayName="TableRoutes" ref="A1:K115" totalsRowShown="0" headerRowDxfId="56" headerRowBorderDxfId="55" tableBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="TableRoutes" displayName="TableRoutes" ref="A1:K115" totalsRowShown="0" headerRowDxfId="54" headerRowBorderDxfId="53" tableBorderDxfId="52">
   <autoFilter ref="A1:K115"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Id route"/>
@@ -3123,7 +3120,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TableCity" displayName="TableCity" ref="M1:M23" totalsRowShown="0" tableBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TableCity" displayName="TableCity" ref="M1:M23" totalsRowShown="0" tableBorderDxfId="51">
   <autoFilter ref="M1:M23"/>
   <tableColumns count="1">
     <tableColumn id="1" name="City"/>
@@ -3133,29 +3130,29 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TableTotal" displayName="TableTotal" ref="B2:U3" insertRow="1" totalsRowShown="0" headerRowDxfId="52" dataDxfId="50" headerRowBorderDxfId="51" tableBorderDxfId="49" headerRowCellStyle="Акцент6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TableTotal" displayName="TableTotal" ref="B2:U3" insertRow="1" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" headerRowCellStyle="Акцент6">
   <autoFilter ref="B2:U3"/>
   <tableColumns count="20">
-    <tableColumn id="20" name="Дата доставки" dataDxfId="48"/>
-    <tableColumn id="1" name="ID перевозчика" dataDxfId="47"/>
-    <tableColumn id="2" name="Перевозчик" dataDxfId="46"/>
-    <tableColumn id="3" name="Тип ТС, тонн" dataDxfId="45"/>
-    <tableColumn id="4" name="Водитель (ФИО)" dataDxfId="44"/>
-    <tableColumn id="5" name="Номер,марка" dataDxfId="43"/>
-    <tableColumn id="6" name="Телефон водителя" dataDxfId="42"/>
-    <tableColumn id="19" name="№ Авто" dataDxfId="41"/>
-    <tableColumn id="7" name="Город" dataDxfId="40"/>
-    <tableColumn id="8" name="Направление" dataDxfId="39"/>
-    <tableColumn id="9" name="Порядок выгрузки" dataDxfId="38"/>
-    <tableColumn id="10" name="Номер грузополучателя" dataDxfId="37"/>
-    <tableColumn id="11" name="Номер накладной" dataDxfId="36"/>
-    <tableColumn id="12" name="Номер поставки" dataDxfId="35"/>
-    <tableColumn id="13" name="Грузополучатель" dataDxfId="34"/>
-    <tableColumn id="14" name="Брутто вес" dataDxfId="33"/>
-    <tableColumn id="15" name="Нетто вес" dataDxfId="32"/>
-    <tableColumn id="16" name="Кол-во паллет" dataDxfId="31"/>
-    <tableColumn id="17" name="Стоимость поставки" dataDxfId="30"/>
-    <tableColumn id="18" name="Стоимость доставки" dataDxfId="29"/>
+    <tableColumn id="20" name="Дата доставки" dataDxfId="21"/>
+    <tableColumn id="1" name="ID перевозчика" dataDxfId="20"/>
+    <tableColumn id="2" name="Перевозчик" dataDxfId="19"/>
+    <tableColumn id="3" name="Тип ТС, тонн" dataDxfId="18"/>
+    <tableColumn id="4" name="Водитель (ФИО)" dataDxfId="17"/>
+    <tableColumn id="5" name="Номер,марка" dataDxfId="16"/>
+    <tableColumn id="6" name="Телефон водителя" dataDxfId="15"/>
+    <tableColumn id="19" name="№ Доставки" dataDxfId="14"/>
+    <tableColumn id="7" name="Город" dataDxfId="13"/>
+    <tableColumn id="8" name="Направление" dataDxfId="12"/>
+    <tableColumn id="9" name="Порядок выгрузки" dataDxfId="11"/>
+    <tableColumn id="10" name="Номер грузополучателя" dataDxfId="10"/>
+    <tableColumn id="11" name="Номер накладной" dataDxfId="9"/>
+    <tableColumn id="12" name="Номер поставки" dataDxfId="8"/>
+    <tableColumn id="13" name="Грузополучатель" dataDxfId="7"/>
+    <tableColumn id="14" name="Брутто вес" dataDxfId="6"/>
+    <tableColumn id="15" name="Нетто вес" dataDxfId="5"/>
+    <tableColumn id="16" name="Кол-во паллет" dataDxfId="4"/>
+    <tableColumn id="17" name="Стоимость поставки" dataDxfId="3"/>
+    <tableColumn id="18" name="Стоимость доставки" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -3166,8 +3163,8 @@
   <autoFilter ref="B2:D25"/>
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Компания" dataDxfId="28"/>
-    <tableColumn id="3" name="Получатель письма" dataDxfId="27" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="2" name="Компания" dataDxfId="1"/>
+    <tableColumn id="3" name="Получатель письма" dataDxfId="0" dataCellStyle="Гиперссылка"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3473,8 +3470,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="B1:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3498,7 +3495,7 @@
       </c>
       <c r="C2" s="164">
         <f ca="1">TODAY()+1</f>
-        <v>43911</v>
+        <v>43914</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3537,7 +3534,7 @@
         <v>230</v>
       </c>
       <c r="C10" s="161" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D10" s="161" t="s">
         <v>273</v>
@@ -19902,8 +19899,8 @@
       <c r="J1" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="176" t="s">
-        <v>278</v>
+      <c r="K1" s="170" t="s">
+        <v>277</v>
       </c>
       <c r="M1" t="s">
         <v>26</v>
@@ -19941,7 +19938,7 @@
         <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L2" s="160"/>
       <c r="M2" t="s">
@@ -19983,7 +19980,7 @@
         <v>43</v>
       </c>
       <c r="K3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L3" s="160"/>
       <c r="M3" t="s">
@@ -20025,7 +20022,7 @@
         <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L4" s="160"/>
       <c r="M4" t="s">
@@ -20067,7 +20064,7 @@
         <v>43</v>
       </c>
       <c r="K5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L5" s="160"/>
       <c r="M5" t="s">
@@ -20109,7 +20106,7 @@
         <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L6" s="160"/>
       <c r="M6" t="s">
@@ -20151,7 +20148,7 @@
         <v>50</v>
       </c>
       <c r="K7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L7" s="160"/>
       <c r="M7" t="s">
@@ -20193,7 +20190,7 @@
         <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L8" s="160"/>
       <c r="M8" t="s">
@@ -20232,7 +20229,7 @@
         <v>56</v>
       </c>
       <c r="K9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L9" s="160"/>
       <c r="M9" t="s">
@@ -20274,7 +20271,7 @@
         <v>56</v>
       </c>
       <c r="K10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L10" s="160"/>
       <c r="M10" t="s">
@@ -20316,7 +20313,7 @@
         <v>60</v>
       </c>
       <c r="K11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L11" s="160"/>
       <c r="M11" t="s">
@@ -20358,7 +20355,7 @@
         <v>60</v>
       </c>
       <c r="K12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L12" s="160"/>
       <c r="M12" t="s">
@@ -20400,7 +20397,7 @@
         <v>30</v>
       </c>
       <c r="K13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L13" s="160"/>
       <c r="M13" t="s">
@@ -20442,7 +20439,7 @@
         <v>30</v>
       </c>
       <c r="K14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L14" s="160"/>
       <c r="M14" t="s">
@@ -20484,7 +20481,7 @@
         <v>30</v>
       </c>
       <c r="K15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L15" s="160"/>
       <c r="M15" t="s">
@@ -20526,7 +20523,7 @@
         <v>30</v>
       </c>
       <c r="K16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L16" s="160"/>
       <c r="M16" t="s">
@@ -20568,7 +20565,7 @@
         <v>30</v>
       </c>
       <c r="K17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L17" s="160"/>
       <c r="M17" t="s">
@@ -20610,7 +20607,7 @@
         <v>30</v>
       </c>
       <c r="K18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L18" s="160"/>
       <c r="M18" t="s">
@@ -20652,7 +20649,7 @@
         <v>64</v>
       </c>
       <c r="K19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L19" s="160"/>
       <c r="M19" t="s">
@@ -20694,7 +20691,7 @@
         <v>64</v>
       </c>
       <c r="K20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L20" s="160"/>
       <c r="M20" t="s">
@@ -20736,7 +20733,7 @@
         <v>64</v>
       </c>
       <c r="K21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L21" s="160"/>
       <c r="M21" t="s">
@@ -20778,7 +20775,7 @@
         <v>64</v>
       </c>
       <c r="K22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L22" s="160"/>
       <c r="M22" t="s">
@@ -20820,7 +20817,7 @@
         <v>70</v>
       </c>
       <c r="K23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L23" s="160"/>
       <c r="M23" t="s">
@@ -20862,7 +20859,7 @@
         <v>70</v>
       </c>
       <c r="K24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L24" s="160"/>
       <c r="P24">
@@ -20901,7 +20898,7 @@
         <v>70</v>
       </c>
       <c r="K25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L25" s="160"/>
       <c r="P25">
@@ -20940,7 +20937,7 @@
         <v>70</v>
       </c>
       <c r="K26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L26" s="160"/>
       <c r="P26">
@@ -20979,7 +20976,7 @@
         <v>93</v>
       </c>
       <c r="K27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P27">
         <v>120024302</v>
@@ -21017,7 +21014,7 @@
         <v>93</v>
       </c>
       <c r="K28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P28">
         <v>120025788</v>
@@ -21055,7 +21052,7 @@
         <v>93</v>
       </c>
       <c r="K29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P29">
         <v>120030442</v>
@@ -21093,7 +21090,7 @@
         <v>93</v>
       </c>
       <c r="K30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P30">
         <v>120025708</v>
@@ -21131,7 +21128,7 @@
         <v>93</v>
       </c>
       <c r="K31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P31">
         <v>120030449</v>
@@ -21169,7 +21166,7 @@
         <v>93</v>
       </c>
       <c r="K32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P32">
         <v>120024614</v>
@@ -21207,7 +21204,7 @@
         <v>93</v>
       </c>
       <c r="K33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P33">
         <v>120025332</v>
@@ -21245,7 +21242,7 @@
         <v>100</v>
       </c>
       <c r="K34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P34">
         <v>120022887</v>
@@ -21283,7 +21280,7 @@
         <v>100</v>
       </c>
       <c r="K35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P35">
         <v>120030455</v>
@@ -21321,7 +21318,7 @@
         <v>100</v>
       </c>
       <c r="K36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P36">
         <v>120026345</v>
@@ -21359,7 +21356,7 @@
         <v>100</v>
       </c>
       <c r="K37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P37">
         <v>120029380</v>
@@ -21397,7 +21394,7 @@
         <v>100</v>
       </c>
       <c r="K38" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P38">
         <v>93587</v>
@@ -21435,7 +21432,7 @@
         <v>100</v>
       </c>
       <c r="K39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P39">
         <v>120022985</v>
@@ -21473,7 +21470,7 @@
         <v>100</v>
       </c>
       <c r="K40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P40">
         <v>92663</v>
@@ -21511,7 +21508,7 @@
         <v>100</v>
       </c>
       <c r="K41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P41">
         <v>120024040</v>
@@ -21549,7 +21546,7 @@
         <v>100</v>
       </c>
       <c r="K42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P42">
         <v>120030364</v>
@@ -21587,7 +21584,7 @@
         <v>100</v>
       </c>
       <c r="K43" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P43">
         <v>120024886</v>
@@ -21625,7 +21622,7 @@
         <v>100</v>
       </c>
       <c r="K44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P44">
         <v>120028580</v>
@@ -21663,7 +21660,7 @@
         <v>100</v>
       </c>
       <c r="K45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P45">
         <v>120024376</v>
@@ -21701,7 +21698,7 @@
         <v>100</v>
       </c>
       <c r="K46" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P46">
         <v>120027072</v>
@@ -21739,7 +21736,7 @@
         <v>100</v>
       </c>
       <c r="K47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P47">
         <v>120030386</v>
@@ -21777,7 +21774,7 @@
         <v>112</v>
       </c>
       <c r="K48" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P48">
         <v>120030443</v>
@@ -21815,7 +21812,7 @@
         <v>112</v>
       </c>
       <c r="K49" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P49">
         <v>120025707</v>
@@ -21853,7 +21850,7 @@
         <v>112</v>
       </c>
       <c r="K50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P50">
         <v>120029381</v>
@@ -21891,7 +21888,7 @@
         <v>112</v>
       </c>
       <c r="K51" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P51">
         <v>94010</v>
@@ -21929,7 +21926,7 @@
         <v>112</v>
       </c>
       <c r="K52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P52">
         <v>120025498</v>
@@ -21967,7 +21964,7 @@
         <v>112</v>
       </c>
       <c r="K53" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P53">
         <v>120030883</v>
@@ -22005,7 +22002,7 @@
         <v>112</v>
       </c>
       <c r="K54" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P54">
         <v>120022936</v>
@@ -22043,7 +22040,7 @@
         <v>112</v>
       </c>
       <c r="K55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P55">
         <v>120028579</v>
@@ -22081,7 +22078,7 @@
         <v>112</v>
       </c>
       <c r="K56" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P56">
         <v>120029262</v>
@@ -22119,7 +22116,7 @@
         <v>112</v>
       </c>
       <c r="K57" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P57">
         <v>120030302</v>
@@ -22157,7 +22154,7 @@
         <v>112</v>
       </c>
       <c r="K58" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P58">
         <v>99830</v>
@@ -22195,7 +22192,7 @@
         <v>112</v>
       </c>
       <c r="K59" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P59">
         <v>120024307</v>
@@ -22233,7 +22230,7 @@
         <v>123</v>
       </c>
       <c r="K60" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P60">
         <v>120029260</v>
@@ -22271,7 +22268,7 @@
         <v>123</v>
       </c>
       <c r="K61" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P61">
         <v>120029384</v>
@@ -22309,7 +22306,7 @@
         <v>123</v>
       </c>
       <c r="K62" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P62">
         <v>120024255</v>
@@ -22347,7 +22344,7 @@
         <v>123</v>
       </c>
       <c r="K63" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P63">
         <v>120030466</v>
@@ -22385,7 +22382,7 @@
         <v>123</v>
       </c>
       <c r="K64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P64">
         <v>79014</v>
@@ -22423,7 +22420,7 @@
         <v>123</v>
       </c>
       <c r="K65" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P65">
         <v>120022938</v>
@@ -22461,7 +22458,7 @@
         <v>123</v>
       </c>
       <c r="K66" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P66">
         <v>120029383</v>
@@ -22499,7 +22496,7 @@
         <v>123</v>
       </c>
       <c r="K67" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P67">
         <v>120024626</v>
@@ -22537,7 +22534,7 @@
         <v>123</v>
       </c>
       <c r="K68" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P68">
         <v>120023289</v>
@@ -22575,7 +22572,7 @@
         <v>123</v>
       </c>
       <c r="K69" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P69">
         <v>120025009</v>
@@ -22613,7 +22610,7 @@
         <v>123</v>
       </c>
       <c r="K70" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P70">
         <v>120024863</v>
@@ -22651,7 +22648,7 @@
         <v>123</v>
       </c>
       <c r="K71" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P71">
         <v>120027901</v>
@@ -22689,7 +22686,7 @@
         <v>123</v>
       </c>
       <c r="K72" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P72">
         <v>120024375</v>
@@ -22727,7 +22724,7 @@
         <v>133</v>
       </c>
       <c r="K73" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P73">
         <v>120026573</v>
@@ -22765,7 +22762,7 @@
         <v>133</v>
       </c>
       <c r="K74" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P74">
         <v>120026488</v>
@@ -22803,7 +22800,7 @@
         <v>133</v>
       </c>
       <c r="K75" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P75">
         <v>32990</v>
@@ -22841,7 +22838,7 @@
         <v>133</v>
       </c>
       <c r="K76" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P76">
         <v>120026491</v>
@@ -22879,7 +22876,7 @@
         <v>133</v>
       </c>
       <c r="K77" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P77">
         <v>120026492</v>
@@ -22917,7 +22914,7 @@
         <v>133</v>
       </c>
       <c r="K78" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P78">
         <v>47722</v>
@@ -22955,7 +22952,7 @@
         <v>133</v>
       </c>
       <c r="K79" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P79">
         <v>120026489</v>
@@ -22993,7 +22990,7 @@
         <v>133</v>
       </c>
       <c r="K80" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P80">
         <v>120026487</v>
@@ -23031,7 +23028,7 @@
         <v>145</v>
       </c>
       <c r="K81" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P81">
         <v>120027482</v>
@@ -23069,7 +23066,7 @@
         <v>145</v>
       </c>
       <c r="K82" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P82">
         <v>120030467</v>
@@ -23107,7 +23104,7 @@
         <v>145</v>
       </c>
       <c r="K83" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P83">
         <v>120027824</v>
@@ -23145,7 +23142,7 @@
         <v>145</v>
       </c>
       <c r="K84" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P84">
         <v>90005</v>
@@ -23183,7 +23180,7 @@
         <v>145</v>
       </c>
       <c r="K85" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P85">
         <v>120028904</v>
@@ -23221,7 +23218,7 @@
         <v>145</v>
       </c>
       <c r="K86" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P86">
         <v>120024377</v>
@@ -23259,7 +23256,7 @@
         <v>145</v>
       </c>
       <c r="K87" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P87">
         <v>120024969</v>
@@ -23297,7 +23294,7 @@
         <v>145</v>
       </c>
       <c r="K88" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P88">
         <v>120024892</v>
@@ -23335,7 +23332,7 @@
         <v>145</v>
       </c>
       <c r="K89" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P89">
         <v>99677</v>
@@ -23373,7 +23370,7 @@
         <v>154</v>
       </c>
       <c r="K90" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P90">
         <v>59421</v>
@@ -23411,7 +23408,7 @@
         <v>154</v>
       </c>
       <c r="K91" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P91">
         <v>82946</v>
@@ -23449,7 +23446,7 @@
         <v>154</v>
       </c>
       <c r="K92" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P92">
         <v>97324</v>
@@ -23487,7 +23484,7 @@
         <v>154</v>
       </c>
       <c r="K93" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P93">
         <v>120026634</v>
@@ -23525,7 +23522,7 @@
         <v>154</v>
       </c>
       <c r="K94" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P94">
         <v>120027080</v>
@@ -23563,7 +23560,7 @@
         <v>154</v>
       </c>
       <c r="K95" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P95">
         <v>120027441</v>
@@ -23601,7 +23598,7 @@
         <v>154</v>
       </c>
       <c r="K96" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P96">
         <v>120027806</v>
@@ -23639,7 +23636,7 @@
         <v>154</v>
       </c>
       <c r="K97" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P97">
         <v>120026620</v>
@@ -23677,7 +23674,7 @@
         <v>154</v>
       </c>
       <c r="K98" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P98">
         <v>120026626</v>
@@ -23715,7 +23712,7 @@
         <v>167</v>
       </c>
       <c r="K99" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P99">
         <v>96078</v>
@@ -23753,7 +23750,7 @@
         <v>167</v>
       </c>
       <c r="K100" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P100">
         <v>120027103</v>
@@ -23791,7 +23788,7 @@
         <v>167</v>
       </c>
       <c r="K101" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P101">
         <v>120027696</v>
@@ -23829,7 +23826,7 @@
         <v>167</v>
       </c>
       <c r="K102" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P102">
         <v>120029269</v>
@@ -23867,7 +23864,7 @@
         <v>167</v>
       </c>
       <c r="K103" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P103">
         <v>120030188</v>
@@ -23905,7 +23902,7 @@
         <v>170</v>
       </c>
       <c r="K104" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P104">
         <v>120030568</v>
@@ -23943,7 +23940,7 @@
         <v>170</v>
       </c>
       <c r="K105" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P105">
         <v>120030573</v>
@@ -23981,7 +23978,7 @@
         <v>170</v>
       </c>
       <c r="K106" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P106">
         <v>120030639</v>
@@ -24019,7 +24016,7 @@
         <v>175</v>
       </c>
       <c r="K107" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P107">
         <v>99802</v>
@@ -24057,7 +24054,7 @@
         <v>175</v>
       </c>
       <c r="K108" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P108">
         <v>120022942</v>
@@ -24095,7 +24092,7 @@
         <v>175</v>
       </c>
       <c r="K109" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P109">
         <v>120027412</v>
@@ -24133,7 +24130,7 @@
         <v>175</v>
       </c>
       <c r="K110" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P110">
         <v>120027481</v>
@@ -24171,7 +24168,7 @@
         <v>175</v>
       </c>
       <c r="K111" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P111">
         <v>120028362</v>
@@ -24209,7 +24206,7 @@
         <v>175</v>
       </c>
       <c r="K112" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P112">
         <v>120022957</v>
@@ -24247,7 +24244,7 @@
         <v>175</v>
       </c>
       <c r="K113" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P113">
         <v>120029638</v>
@@ -24285,7 +24282,7 @@
         <v>175</v>
       </c>
       <c r="K114" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P114">
         <v>92536</v>
@@ -24398,7 +24395,7 @@
       </c>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="171" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="69">
@@ -24443,12 +24440,12 @@
       <c r="P2" s="62">
         <v>1</v>
       </c>
-      <c r="Q2" s="173" t="s">
+      <c r="Q2" s="174" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="171"/>
+      <c r="B3" s="172"/>
       <c r="C3" s="69">
         <v>94206</v>
       </c>
@@ -24491,10 +24488,10 @@
       <c r="P3" s="62">
         <v>2</v>
       </c>
-      <c r="Q3" s="174"/>
+      <c r="Q3" s="175"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="171"/>
+      <c r="B4" s="172"/>
       <c r="C4" s="69">
         <v>92587</v>
       </c>
@@ -24537,10 +24534,10 @@
       <c r="P4" s="62">
         <v>3</v>
       </c>
-      <c r="Q4" s="174"/>
+      <c r="Q4" s="175"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="172"/>
+      <c r="B5" s="173"/>
       <c r="C5" s="69">
         <v>83838</v>
       </c>
@@ -24583,10 +24580,10 @@
       <c r="P5" s="62">
         <v>4</v>
       </c>
-      <c r="Q5" s="174"/>
+      <c r="Q5" s="175"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="170" t="s">
+      <c r="B6" s="171" t="s">
         <v>55</v>
       </c>
       <c r="C6" s="61">
@@ -24631,10 +24628,10 @@
       <c r="P6" s="54">
         <v>1</v>
       </c>
-      <c r="Q6" s="174"/>
+      <c r="Q6" s="175"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="171"/>
+      <c r="B7" s="172"/>
       <c r="C7" s="61">
         <v>73499</v>
       </c>
@@ -24677,10 +24674,10 @@
       <c r="P7" s="54">
         <v>2</v>
       </c>
-      <c r="Q7" s="174"/>
+      <c r="Q7" s="175"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="171"/>
+      <c r="B8" s="172"/>
       <c r="C8" s="61">
         <v>90317</v>
       </c>
@@ -24723,10 +24720,10 @@
       <c r="P8" s="54">
         <v>3</v>
       </c>
-      <c r="Q8" s="174"/>
+      <c r="Q8" s="175"/>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="172"/>
+      <c r="B9" s="173"/>
       <c r="C9" s="61">
         <v>56096</v>
       </c>
@@ -24769,10 +24766,10 @@
       <c r="P9" s="54">
         <v>4</v>
       </c>
-      <c r="Q9" s="174"/>
+      <c r="Q9" s="175"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="170" t="s">
+      <c r="B10" s="171" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="53">
@@ -24817,10 +24814,10 @@
       <c r="P10" s="46">
         <v>1</v>
       </c>
-      <c r="Q10" s="174"/>
+      <c r="Q10" s="175"/>
     </row>
     <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="172"/>
+      <c r="B11" s="173"/>
       <c r="C11" s="53">
         <v>83805</v>
       </c>
@@ -24863,13 +24860,13 @@
       <c r="P11" s="46">
         <v>2</v>
       </c>
-      <c r="Q11" s="175"/>
+      <c r="Q11" s="176"/>
     </row>
     <row r="12" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="18"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="170" t="s">
+      <c r="B13" s="171" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="45"/>
@@ -24912,12 +24909,12 @@
       <c r="P13" s="35">
         <v>1</v>
       </c>
-      <c r="Q13" s="173" t="s">
+      <c r="Q13" s="174" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="172"/>
+      <c r="B14" s="173"/>
       <c r="C14" s="42">
         <v>56205</v>
       </c>
@@ -24960,10 +24957,10 @@
       <c r="P14" s="35">
         <v>2</v>
       </c>
-      <c r="Q14" s="174"/>
+      <c r="Q14" s="175"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="170" t="s">
+      <c r="B15" s="171" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="34">
@@ -25008,10 +25005,10 @@
       <c r="P15" s="27">
         <v>1</v>
       </c>
-      <c r="Q15" s="174"/>
+      <c r="Q15" s="175"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="171"/>
+      <c r="B16" s="172"/>
       <c r="C16" s="34">
         <v>91020</v>
       </c>
@@ -25054,10 +25051,10 @@
       <c r="P16" s="27">
         <v>2</v>
       </c>
-      <c r="Q16" s="174"/>
+      <c r="Q16" s="175"/>
     </row>
     <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="172"/>
+      <c r="B17" s="173"/>
       <c r="C17" s="34">
         <v>84183</v>
       </c>
@@ -25100,13 +25097,13 @@
       <c r="P17" s="27">
         <v>3</v>
       </c>
-      <c r="Q17" s="175"/>
+      <c r="Q17" s="176"/>
     </row>
     <row r="18" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="18"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="170" t="s">
+      <c r="B19" s="171" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="26">
@@ -25151,12 +25148,12 @@
       <c r="P19" s="19">
         <v>1</v>
       </c>
-      <c r="Q19" s="173" t="s">
+      <c r="Q19" s="174" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="171"/>
+      <c r="B20" s="172"/>
       <c r="C20" s="26">
         <v>56161</v>
       </c>
@@ -25199,10 +25196,10 @@
       <c r="P20" s="19">
         <v>2</v>
       </c>
-      <c r="Q20" s="174"/>
+      <c r="Q20" s="175"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="171"/>
+      <c r="B21" s="172"/>
       <c r="C21" s="26">
         <v>59425</v>
       </c>
@@ -25245,10 +25242,10 @@
       <c r="P21" s="19">
         <v>3</v>
       </c>
-      <c r="Q21" s="174"/>
+      <c r="Q21" s="175"/>
     </row>
     <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="172"/>
+      <c r="B22" s="173"/>
       <c r="C22" s="26">
         <v>94012</v>
       </c>
@@ -25291,13 +25288,13 @@
       <c r="P22" s="19">
         <v>4</v>
       </c>
-      <c r="Q22" s="175"/>
+      <c r="Q22" s="176"/>
     </row>
     <row r="23" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="18"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="170" t="s">
+      <c r="B24" s="171" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="15">
@@ -25342,12 +25339,12 @@
       <c r="P24" s="8">
         <v>1</v>
       </c>
-      <c r="Q24" s="173" t="s">
+      <c r="Q24" s="174" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="171"/>
+      <c r="B25" s="172"/>
       <c r="C25" s="15">
         <v>60102</v>
       </c>
@@ -25390,10 +25387,10 @@
       <c r="P25" s="8">
         <v>2</v>
       </c>
-      <c r="Q25" s="174"/>
+      <c r="Q25" s="175"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="171"/>
+      <c r="B26" s="172"/>
       <c r="C26" s="17">
         <v>57317</v>
       </c>
@@ -25436,10 +25433,10 @@
       <c r="P26" s="8">
         <v>3</v>
       </c>
-      <c r="Q26" s="174"/>
+      <c r="Q26" s="175"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="171"/>
+      <c r="B27" s="172"/>
       <c r="C27" s="15">
         <v>78258</v>
       </c>
@@ -25482,10 +25479,10 @@
       <c r="P27" s="8">
         <v>4</v>
       </c>
-      <c r="Q27" s="174"/>
+      <c r="Q27" s="175"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="171"/>
+      <c r="B28" s="172"/>
       <c r="C28" s="15">
         <v>59019</v>
       </c>
@@ -25528,10 +25525,10 @@
       <c r="P28" s="8">
         <v>5</v>
       </c>
-      <c r="Q28" s="174"/>
+      <c r="Q28" s="175"/>
     </row>
     <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="172"/>
+      <c r="B29" s="173"/>
       <c r="C29" s="15">
         <v>92968</v>
       </c>
@@ -25574,7 +25571,7 @@
       <c r="P29" s="8">
         <v>6</v>
       </c>
-      <c r="Q29" s="175"/>
+      <c r="Q29" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -25591,25 +25588,25 @@
     <mergeCell ref="B15:B17"/>
   </mergeCells>
   <conditionalFormatting sqref="D19:D22">
-    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D17">
-    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D29">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D9">
-    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -30687,58 +30684,58 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B8">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B22">
-    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B26">
-    <cfRule type="duplicateValues" dxfId="11" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B33">
-    <cfRule type="duplicateValues" dxfId="10" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B47">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B52 B54:B59">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B72">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B80">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B89">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B98">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B103">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B106">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107:B114">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30749,10 +30746,10 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="B1:U2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -30804,7 +30801,7 @@
         <v>215</v>
       </c>
       <c r="I2" s="169" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="J2" s="169" t="s">
         <v>84</v>

--- a/DomesticTransport/DomesticTransport.xlsx
+++ b/DomesticTransport/DomesticTransport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="7005" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="7005"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery" sheetId="2" r:id="rId1"/>
@@ -18,14 +18,16 @@
     <sheet name="ZoneCustomer" sheetId="4" state="hidden" r:id="rId4"/>
     <sheet name="Customers" sheetId="5" state="hidden" r:id="rId5"/>
     <sheet name="Отгрузка" sheetId="1" r:id="rId6"/>
-    <sheet name="ShippingCompany" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="Сообщения" sheetId="11" r:id="rId7"/>
+    <sheet name="ShippingCompany" sheetId="7" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="DateDelivery">Delivery!$C$2</definedName>
+    <definedName name="MessageText">Сообщения!$B$3</definedName>
     <definedName name="weght">Rate!$M$5</definedName>
     <definedName name="weghtCell">Rate!$M$5</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4526" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4539" uniqueCount="287">
   <si>
     <t>Перевозчик</t>
   </si>
@@ -943,12 +945,37 @@
   <si>
     <t>Manual</t>
   </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тема </t>
+  </si>
+  <si>
+    <t>Копия</t>
+  </si>
+  <si>
+    <t>Текст сообщения</t>
+  </si>
+  <si>
+    <t> Коллеги добрый день. 
+В приложении отгрузка на [date], прошу принять к работе и прислать до 17-00.</t>
+  </si>
+  <si>
+    <t>a@ya.ru</t>
+  </si>
+  <si>
+    <t>b@mail.com</t>
+  </si>
+  <si>
+    <t>aevseev@micro-solution.ru</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1156,6 +1183,16 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1494,7 +1531,7 @@
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1949,6 +1986,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel Built-in Normal" xfId="4"/>
@@ -1960,6 +2004,256 @@
     <cellStyle name="Обычный 4" xfId="1"/>
   </cellStyles>
   <dxfs count="87">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2284,256 +2578,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border outline="0">
@@ -3130,41 +3174,52 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TableTotal" displayName="TableTotal" ref="B2:U3" insertRow="1" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" headerRowCellStyle="Акцент6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TableTotal" displayName="TableTotal" ref="B2:U3" insertRow="1" totalsRowShown="0" headerRowDxfId="50" dataDxfId="48" headerRowBorderDxfId="49" tableBorderDxfId="47" headerRowCellStyle="Акцент6">
   <autoFilter ref="B2:U3"/>
   <tableColumns count="20">
-    <tableColumn id="20" name="Дата доставки" dataDxfId="21"/>
-    <tableColumn id="1" name="ID перевозчика" dataDxfId="20"/>
-    <tableColumn id="2" name="Перевозчик" dataDxfId="19"/>
-    <tableColumn id="3" name="Тип ТС, тонн" dataDxfId="18"/>
-    <tableColumn id="4" name="Водитель (ФИО)" dataDxfId="17"/>
-    <tableColumn id="5" name="Номер,марка" dataDxfId="16"/>
-    <tableColumn id="6" name="Телефон водителя" dataDxfId="15"/>
-    <tableColumn id="19" name="№ Доставки" dataDxfId="14"/>
-    <tableColumn id="7" name="Город" dataDxfId="13"/>
-    <tableColumn id="8" name="Направление" dataDxfId="12"/>
-    <tableColumn id="9" name="Порядок выгрузки" dataDxfId="11"/>
-    <tableColumn id="10" name="Номер грузополучателя" dataDxfId="10"/>
-    <tableColumn id="11" name="Номер накладной" dataDxfId="9"/>
-    <tableColumn id="12" name="Номер поставки" dataDxfId="8"/>
-    <tableColumn id="13" name="Грузополучатель" dataDxfId="7"/>
-    <tableColumn id="14" name="Брутто вес" dataDxfId="6"/>
-    <tableColumn id="15" name="Нетто вес" dataDxfId="5"/>
-    <tableColumn id="16" name="Кол-во паллет" dataDxfId="4"/>
-    <tableColumn id="17" name="Стоимость поставки" dataDxfId="3"/>
-    <tableColumn id="18" name="Стоимость доставки" dataDxfId="2"/>
+    <tableColumn id="20" name="Дата доставки" dataDxfId="46"/>
+    <tableColumn id="1" name="ID перевозчика" dataDxfId="45"/>
+    <tableColumn id="2" name="Перевозчик" dataDxfId="44"/>
+    <tableColumn id="3" name="Тип ТС, тонн" dataDxfId="43"/>
+    <tableColumn id="4" name="Водитель (ФИО)" dataDxfId="42"/>
+    <tableColumn id="5" name="Номер,марка" dataDxfId="41"/>
+    <tableColumn id="6" name="Телефон водителя" dataDxfId="40"/>
+    <tableColumn id="19" name="№ Доставки" dataDxfId="39"/>
+    <tableColumn id="7" name="Город" dataDxfId="38"/>
+    <tableColumn id="8" name="Направление" dataDxfId="37"/>
+    <tableColumn id="9" name="Порядок выгрузки" dataDxfId="36"/>
+    <tableColumn id="10" name="Номер грузополучателя" dataDxfId="35"/>
+    <tableColumn id="11" name="Номер накладной" dataDxfId="34"/>
+    <tableColumn id="12" name="Номер поставки" dataDxfId="33"/>
+    <tableColumn id="13" name="Грузополучатель" dataDxfId="32"/>
+    <tableColumn id="14" name="Брутто вес" dataDxfId="31"/>
+    <tableColumn id="15" name="Нетто вес" dataDxfId="30"/>
+    <tableColumn id="16" name="Кол-во паллет" dataDxfId="29"/>
+    <tableColumn id="17" name="Стоимость поставки" dataDxfId="28"/>
+    <tableColumn id="18" name="Стоимость доставки" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Таблица8" displayName="Таблица8" ref="A6:B9" totalsRowShown="0">
+  <autoFilter ref="A6:B9"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Компания"/>
+    <tableColumn id="2" name="Email"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B2:D25" totalsRowShown="0">
   <autoFilter ref="B2:D25"/>
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Компания" dataDxfId="1"/>
-    <tableColumn id="3" name="Получатель письма" dataDxfId="0" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="2" name="Компания" dataDxfId="26"/>
+    <tableColumn id="3" name="Получатель письма" dataDxfId="25" dataCellStyle="Гиперссылка"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3470,8 +3525,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="B1:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3495,7 +3550,7 @@
       </c>
       <c r="C2" s="164">
         <f ca="1">TODAY()+1</f>
-        <v>43914</v>
+        <v>43917</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3522,6 +3577,17 @@
       </c>
       <c r="G5" s="162" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="161">
+        <v>1</v>
+      </c>
+      <c r="C6" s="161" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="161">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
@@ -3575,7 +3641,7 @@
   <dimension ref="A1:J527"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25588,25 +25654,25 @@
     <mergeCell ref="B15:B17"/>
   </mergeCells>
   <conditionalFormatting sqref="D19:D22">
-    <cfRule type="duplicateValues" dxfId="50" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="duplicateValues" dxfId="49" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D17">
-    <cfRule type="duplicateValues" dxfId="48" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="duplicateValues" dxfId="47" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D29">
-    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D9">
-    <cfRule type="duplicateValues" dxfId="45" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="duplicateValues" dxfId="44" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -30684,58 +30750,58 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="duplicateValues" dxfId="43" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="duplicateValues" dxfId="42" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B8">
-    <cfRule type="duplicateValues" dxfId="41" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="duplicateValues" dxfId="40" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="duplicateValues" dxfId="39" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B22">
-    <cfRule type="duplicateValues" dxfId="38" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B26">
-    <cfRule type="duplicateValues" dxfId="37" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B33">
-    <cfRule type="duplicateValues" dxfId="36" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B47">
-    <cfRule type="duplicateValues" dxfId="35" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B52 B54:B59">
-    <cfRule type="duplicateValues" dxfId="34" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="33" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B72">
-    <cfRule type="duplicateValues" dxfId="32" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B80">
-    <cfRule type="duplicateValues" dxfId="31" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B89">
-    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B98">
-    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B103">
-    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B106">
-    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107:B114">
-    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30746,10 +30812,10 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="B1:U2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -30849,6 +30915,89 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист8"/>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="178" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="178" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="178" t="s">
+        <v>282</v>
+      </c>
+      <c r="B3" s="177" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="177"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="179" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="179" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="179" t="s">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
+    <hyperlink ref="B9" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист7"/>
   <dimension ref="B2:D25"/>

--- a/DomesticTransport/DomesticTransport.xlsx
+++ b/DomesticTransport/DomesticTransport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="7005"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="7005" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4539" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4542" uniqueCount="290">
   <si>
     <t>Перевозчик</t>
   </si>
@@ -970,6 +970,29 @@
   <si>
     <t>aevseev@micro-solution.ru</t>
   </si>
+  <si>
+    <t>Подпись</t>
+  </si>
+  <si>
+    <t>Заявка грузоперевозки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Regards,  
+Alexey Potapkin  
+Transport management   
+Bitmap  
+OOO Schaeffler Russland  
+1. Kasatschi Pereulok 7  
+119017 Moscow  
+Tel.     +7 (495) 120-01-72   
+Mob.  +7 (916) 420-10-80  
+potapaex@schaeffler.com   ·  www.schaeffler.com ·  www.schaeffler.de  
+Registered Seat: Herzogenaurach, Commercial Register: AG Fürth HRB 14738  
+Chairman of the Supervisory Board: Georg F. W. Schaeffler  
+Board of Managing Directors:   
+Klaus Rosenfeld (CEO), Prof. Dr. Peter Gutzmer (Deputy CEO), Dietmar Heinrich, Prof. Dr. Peter Pleus, Andreas Schick, Corinna Schittenhelm, Michael Soeding, Dr. Stefan Spindler, Matthias Zink 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -1531,7 +1554,7 @@
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1968,6 +1991,13 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1986,13 +2016,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel Built-in Normal" xfId="4"/>
@@ -2004,256 +2030,6 @@
     <cellStyle name="Обычный 4" xfId="1"/>
   </cellStyles>
   <dxfs count="87">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2578,6 +2354,256 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border outline="0">
@@ -3174,36 +3200,36 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TableTotal" displayName="TableTotal" ref="B2:U3" insertRow="1" totalsRowShown="0" headerRowDxfId="50" dataDxfId="48" headerRowBorderDxfId="49" tableBorderDxfId="47" headerRowCellStyle="Акцент6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TableTotal" displayName="TableTotal" ref="B2:U3" insertRow="1" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" headerRowCellStyle="Акцент6">
   <autoFilter ref="B2:U3"/>
   <tableColumns count="20">
-    <tableColumn id="20" name="Дата доставки" dataDxfId="46"/>
-    <tableColumn id="1" name="ID перевозчика" dataDxfId="45"/>
-    <tableColumn id="2" name="Перевозчик" dataDxfId="44"/>
-    <tableColumn id="3" name="Тип ТС, тонн" dataDxfId="43"/>
-    <tableColumn id="4" name="Водитель (ФИО)" dataDxfId="42"/>
-    <tableColumn id="5" name="Номер,марка" dataDxfId="41"/>
-    <tableColumn id="6" name="Телефон водителя" dataDxfId="40"/>
-    <tableColumn id="19" name="№ Доставки" dataDxfId="39"/>
-    <tableColumn id="7" name="Город" dataDxfId="38"/>
-    <tableColumn id="8" name="Направление" dataDxfId="37"/>
-    <tableColumn id="9" name="Порядок выгрузки" dataDxfId="36"/>
-    <tableColumn id="10" name="Номер грузополучателя" dataDxfId="35"/>
-    <tableColumn id="11" name="Номер накладной" dataDxfId="34"/>
-    <tableColumn id="12" name="Номер поставки" dataDxfId="33"/>
-    <tableColumn id="13" name="Грузополучатель" dataDxfId="32"/>
-    <tableColumn id="14" name="Брутто вес" dataDxfId="31"/>
-    <tableColumn id="15" name="Нетто вес" dataDxfId="30"/>
-    <tableColumn id="16" name="Кол-во паллет" dataDxfId="29"/>
-    <tableColumn id="17" name="Стоимость поставки" dataDxfId="28"/>
-    <tableColumn id="18" name="Стоимость доставки" dataDxfId="27"/>
+    <tableColumn id="20" name="Дата доставки" dataDxfId="21"/>
+    <tableColumn id="1" name="ID перевозчика" dataDxfId="20"/>
+    <tableColumn id="2" name="Перевозчик" dataDxfId="19"/>
+    <tableColumn id="3" name="Тип ТС, тонн" dataDxfId="18"/>
+    <tableColumn id="4" name="Водитель (ФИО)" dataDxfId="17"/>
+    <tableColumn id="5" name="Номер,марка" dataDxfId="16"/>
+    <tableColumn id="6" name="Телефон водителя" dataDxfId="15"/>
+    <tableColumn id="19" name="№ Доставки" dataDxfId="14"/>
+    <tableColumn id="7" name="Город" dataDxfId="13"/>
+    <tableColumn id="8" name="Направление" dataDxfId="12"/>
+    <tableColumn id="9" name="Порядок выгрузки" dataDxfId="11"/>
+    <tableColumn id="10" name="Номер грузополучателя" dataDxfId="10"/>
+    <tableColumn id="11" name="Номер накладной" dataDxfId="9"/>
+    <tableColumn id="12" name="Номер поставки" dataDxfId="8"/>
+    <tableColumn id="13" name="Грузополучатель" dataDxfId="7"/>
+    <tableColumn id="14" name="Брутто вес" dataDxfId="6"/>
+    <tableColumn id="15" name="Нетто вес" dataDxfId="5"/>
+    <tableColumn id="16" name="Кол-во паллет" dataDxfId="4"/>
+    <tableColumn id="17" name="Стоимость поставки" dataDxfId="3"/>
+    <tableColumn id="18" name="Стоимость доставки" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Таблица8" displayName="Таблица8" ref="A6:B9" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="TableEmail" displayName="TableEmail" ref="A6:B9" totalsRowShown="0">
   <autoFilter ref="A6:B9"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Компания"/>
@@ -3218,8 +3244,8 @@
   <autoFilter ref="B2:D25"/>
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Компания" dataDxfId="26"/>
-    <tableColumn id="3" name="Получатель письма" dataDxfId="25" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="2" name="Компания" dataDxfId="1"/>
+    <tableColumn id="3" name="Получатель письма" dataDxfId="0" dataCellStyle="Гиперссылка"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3525,7 +3551,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="B1:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -24461,7 +24487,7 @@
       </c>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="174" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="69">
@@ -24506,12 +24532,12 @@
       <c r="P2" s="62">
         <v>1</v>
       </c>
-      <c r="Q2" s="174" t="s">
+      <c r="Q2" s="177" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="172"/>
+      <c r="B3" s="175"/>
       <c r="C3" s="69">
         <v>94206</v>
       </c>
@@ -24554,10 +24580,10 @@
       <c r="P3" s="62">
         <v>2</v>
       </c>
-      <c r="Q3" s="175"/>
+      <c r="Q3" s="178"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="172"/>
+      <c r="B4" s="175"/>
       <c r="C4" s="69">
         <v>92587</v>
       </c>
@@ -24600,10 +24626,10 @@
       <c r="P4" s="62">
         <v>3</v>
       </c>
-      <c r="Q4" s="175"/>
+      <c r="Q4" s="178"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="173"/>
+      <c r="B5" s="176"/>
       <c r="C5" s="69">
         <v>83838</v>
       </c>
@@ -24646,10 +24672,10 @@
       <c r="P5" s="62">
         <v>4</v>
       </c>
-      <c r="Q5" s="175"/>
+      <c r="Q5" s="178"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="171" t="s">
+      <c r="B6" s="174" t="s">
         <v>55</v>
       </c>
       <c r="C6" s="61">
@@ -24694,10 +24720,10 @@
       <c r="P6" s="54">
         <v>1</v>
       </c>
-      <c r="Q6" s="175"/>
+      <c r="Q6" s="178"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="172"/>
+      <c r="B7" s="175"/>
       <c r="C7" s="61">
         <v>73499</v>
       </c>
@@ -24740,10 +24766,10 @@
       <c r="P7" s="54">
         <v>2</v>
       </c>
-      <c r="Q7" s="175"/>
+      <c r="Q7" s="178"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="172"/>
+      <c r="B8" s="175"/>
       <c r="C8" s="61">
         <v>90317</v>
       </c>
@@ -24786,10 +24812,10 @@
       <c r="P8" s="54">
         <v>3</v>
       </c>
-      <c r="Q8" s="175"/>
+      <c r="Q8" s="178"/>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="173"/>
+      <c r="B9" s="176"/>
       <c r="C9" s="61">
         <v>56096</v>
       </c>
@@ -24832,10 +24858,10 @@
       <c r="P9" s="54">
         <v>4</v>
       </c>
-      <c r="Q9" s="175"/>
+      <c r="Q9" s="178"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="171" t="s">
+      <c r="B10" s="174" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="53">
@@ -24880,10 +24906,10 @@
       <c r="P10" s="46">
         <v>1</v>
       </c>
-      <c r="Q10" s="175"/>
+      <c r="Q10" s="178"/>
     </row>
     <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="173"/>
+      <c r="B11" s="176"/>
       <c r="C11" s="53">
         <v>83805</v>
       </c>
@@ -24926,13 +24952,13 @@
       <c r="P11" s="46">
         <v>2</v>
       </c>
-      <c r="Q11" s="176"/>
+      <c r="Q11" s="179"/>
     </row>
     <row r="12" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="18"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="171" t="s">
+      <c r="B13" s="174" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="45"/>
@@ -24975,12 +25001,12 @@
       <c r="P13" s="35">
         <v>1</v>
       </c>
-      <c r="Q13" s="174" t="s">
+      <c r="Q13" s="177" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="173"/>
+      <c r="B14" s="176"/>
       <c r="C14" s="42">
         <v>56205</v>
       </c>
@@ -25023,10 +25049,10 @@
       <c r="P14" s="35">
         <v>2</v>
       </c>
-      <c r="Q14" s="175"/>
+      <c r="Q14" s="178"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="171" t="s">
+      <c r="B15" s="174" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="34">
@@ -25071,10 +25097,10 @@
       <c r="P15" s="27">
         <v>1</v>
       </c>
-      <c r="Q15" s="175"/>
+      <c r="Q15" s="178"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="172"/>
+      <c r="B16" s="175"/>
       <c r="C16" s="34">
         <v>91020</v>
       </c>
@@ -25117,10 +25143,10 @@
       <c r="P16" s="27">
         <v>2</v>
       </c>
-      <c r="Q16" s="175"/>
+      <c r="Q16" s="178"/>
     </row>
     <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="173"/>
+      <c r="B17" s="176"/>
       <c r="C17" s="34">
         <v>84183</v>
       </c>
@@ -25163,13 +25189,13 @@
       <c r="P17" s="27">
         <v>3</v>
       </c>
-      <c r="Q17" s="176"/>
+      <c r="Q17" s="179"/>
     </row>
     <row r="18" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="18"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="171" t="s">
+      <c r="B19" s="174" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="26">
@@ -25214,12 +25240,12 @@
       <c r="P19" s="19">
         <v>1</v>
       </c>
-      <c r="Q19" s="174" t="s">
+      <c r="Q19" s="177" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="172"/>
+      <c r="B20" s="175"/>
       <c r="C20" s="26">
         <v>56161</v>
       </c>
@@ -25262,10 +25288,10 @@
       <c r="P20" s="19">
         <v>2</v>
       </c>
-      <c r="Q20" s="175"/>
+      <c r="Q20" s="178"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="172"/>
+      <c r="B21" s="175"/>
       <c r="C21" s="26">
         <v>59425</v>
       </c>
@@ -25308,10 +25334,10 @@
       <c r="P21" s="19">
         <v>3</v>
       </c>
-      <c r="Q21" s="175"/>
+      <c r="Q21" s="178"/>
     </row>
     <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="173"/>
+      <c r="B22" s="176"/>
       <c r="C22" s="26">
         <v>94012</v>
       </c>
@@ -25354,13 +25380,13 @@
       <c r="P22" s="19">
         <v>4</v>
       </c>
-      <c r="Q22" s="176"/>
+      <c r="Q22" s="179"/>
     </row>
     <row r="23" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="18"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="171" t="s">
+      <c r="B24" s="174" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="15">
@@ -25405,12 +25431,12 @@
       <c r="P24" s="8">
         <v>1</v>
       </c>
-      <c r="Q24" s="174" t="s">
+      <c r="Q24" s="177" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="172"/>
+      <c r="B25" s="175"/>
       <c r="C25" s="15">
         <v>60102</v>
       </c>
@@ -25453,10 +25479,10 @@
       <c r="P25" s="8">
         <v>2</v>
       </c>
-      <c r="Q25" s="175"/>
+      <c r="Q25" s="178"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="172"/>
+      <c r="B26" s="175"/>
       <c r="C26" s="17">
         <v>57317</v>
       </c>
@@ -25499,10 +25525,10 @@
       <c r="P26" s="8">
         <v>3</v>
       </c>
-      <c r="Q26" s="175"/>
+      <c r="Q26" s="178"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="172"/>
+      <c r="B27" s="175"/>
       <c r="C27" s="15">
         <v>78258</v>
       </c>
@@ -25545,10 +25571,10 @@
       <c r="P27" s="8">
         <v>4</v>
       </c>
-      <c r="Q27" s="175"/>
+      <c r="Q27" s="178"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="172"/>
+      <c r="B28" s="175"/>
       <c r="C28" s="15">
         <v>59019</v>
       </c>
@@ -25591,10 +25617,10 @@
       <c r="P28" s="8">
         <v>5</v>
       </c>
-      <c r="Q28" s="175"/>
+      <c r="Q28" s="178"/>
     </row>
     <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="173"/>
+      <c r="B29" s="176"/>
       <c r="C29" s="15">
         <v>92968</v>
       </c>
@@ -25637,7 +25663,7 @@
       <c r="P29" s="8">
         <v>6</v>
       </c>
-      <c r="Q29" s="176"/>
+      <c r="Q29" s="179"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -25654,25 +25680,25 @@
     <mergeCell ref="B15:B17"/>
   </mergeCells>
   <conditionalFormatting sqref="D19:D22">
-    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D17">
-    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D29">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D9">
-    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -30750,58 +30776,58 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B8">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B22">
-    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B26">
-    <cfRule type="duplicateValues" dxfId="11" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B33">
-    <cfRule type="duplicateValues" dxfId="10" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B47">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B52 B54:B59">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B72">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B80">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B89">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B98">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B103">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B106">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107:B114">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30919,38 +30945,49 @@
   <sheetPr codeName="Лист8"/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="2" max="2" width="81.140625" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="172" t="s">
         <v>280</v>
       </c>
+      <c r="B1" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="172" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="178" t="s">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="172" t="s">
         <v>282</v>
       </c>
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="171" t="s">
         <v>283</v>
       </c>
     </row>
+    <row r="4" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="172" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" s="180" t="s">
+        <v>289</v>
+      </c>
+    </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E5" s="177"/>
+      <c r="E5" s="171"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -30964,7 +31001,7 @@
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="179" t="s">
+      <c r="B7" s="173" t="s">
         <v>284</v>
       </c>
     </row>
@@ -30972,7 +31009,7 @@
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="179" t="s">
+      <c r="B8" s="173" t="s">
         <v>285</v>
       </c>
     </row>
@@ -30980,7 +31017,7 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="179" t="s">
+      <c r="B9" s="173" t="s">
         <v>286</v>
       </c>
     </row>

--- a/DomesticTransport/DomesticTransport.xlsx
+++ b/DomesticTransport/DomesticTransport.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="7005" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="7005"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery" sheetId="2" r:id="rId1"/>
     <sheet name="Rate" sheetId="3" r:id="rId2"/>
-    <sheet name="Routes" sheetId="10" r:id="rId3"/>
-    <sheet name="ZoneCustomer" sheetId="4" state="hidden" r:id="rId4"/>
-    <sheet name="Customers" sheetId="5" state="hidden" r:id="rId5"/>
-    <sheet name="Отгрузка" sheetId="1" r:id="rId6"/>
-    <sheet name="Сообщения" sheetId="11" r:id="rId7"/>
-    <sheet name="ShippingCompany" sheetId="7" state="hidden" r:id="rId8"/>
+    <sheet name="Rate Intrnational" sheetId="12" r:id="rId3"/>
+    <sheet name="Routes" sheetId="10" r:id="rId4"/>
+    <sheet name="ZoneCustomer" sheetId="4" state="hidden" r:id="rId5"/>
+    <sheet name="Customers" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="Отгрузка" sheetId="1" r:id="rId7"/>
+    <sheet name="Сообщения" sheetId="11" r:id="rId8"/>
+    <sheet name="ShippingCompany" sheetId="7" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="DateDelivery">Delivery!$C$2</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4542" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4546" uniqueCount="290">
   <si>
     <t>Перевозчик</t>
   </si>
@@ -962,15 +963,6 @@
 В приложении отгрузка на [date], прошу принять к работе и прислать до 17-00.</t>
   </si>
   <si>
-    <t>a@ya.ru</t>
-  </si>
-  <si>
-    <t>b@mail.com</t>
-  </si>
-  <si>
-    <t>aevseev@micro-solution.ru</t>
-  </si>
-  <si>
     <t>Подпись</t>
   </si>
   <si>
@@ -992,6 +984,15 @@
 Board of Managing Directors:   
 Klaus Rosenfeld (CEO), Prof. Dr. Peter Gutzmer (Deputy CEO), Dietmar Heinrich, Prof. Dr. Peter Pleus, Andreas Schick, Corinna Schittenhelm, Michael Soeding, Dr. Stefan Spindler, Matthias Zink 
 </t>
+  </si>
+  <si>
+    <t>GTLS@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crafter@schaeffler.com </t>
+  </si>
+  <si>
+    <t>QB@qb.com</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1219,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1299,6 +1300,12 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -1554,7 +1561,7 @@
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1998,6 +2005,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2016,8 +2026,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2029,7 +2051,376 @@
     <cellStyle name="Обычный 2" xfId="2"/>
     <cellStyle name="Обычный 4" xfId="1"/>
   </cellStyles>
-  <dxfs count="87">
+  <dxfs count="95">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2354,256 +2745,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border outline="0">
@@ -3116,61 +3257,75 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TableCarrier" displayName="TableCarrier" ref="B5:G6" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TableCarrier" displayName="TableCarrier" ref="B5:G6" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
   <autoFilter ref="B5:G6"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="№ Доставки" dataDxfId="84"/>
-    <tableColumn id="6" name="Компания" dataDxfId="83"/>
-    <tableColumn id="4" name="ID Route" dataDxfId="82"/>
-    <tableColumn id="8" name="Тоннаж" dataDxfId="81"/>
-    <tableColumn id="3" name="Вес доставки" dataDxfId="80"/>
-    <tableColumn id="7" name="Стоимость доставки" dataDxfId="79"/>
+    <tableColumn id="1" name="№ Доставки" dataDxfId="92"/>
+    <tableColumn id="6" name="Компания" dataDxfId="91"/>
+    <tableColumn id="4" name="ID Route" dataDxfId="90"/>
+    <tableColumn id="8" name="Тоннаж" dataDxfId="89"/>
+    <tableColumn id="3" name="Вес доставки" dataDxfId="88"/>
+    <tableColumn id="7" name="Стоимость доставки" dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TableOrders" displayName="TableOrders" ref="B10:J11" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TableOrders" displayName="TableOrders" ref="B10:J11" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
   <autoFilter ref="B10:J11"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="№ Доставки" dataDxfId="76"/>
-    <tableColumn id="2" name="Доставка" dataDxfId="75"/>
-    <tableColumn id="5" name="ID Route" dataDxfId="74"/>
-    <tableColumn id="9" name="Порядок выгрузки" dataDxfId="73"/>
-    <tableColumn id="8" name="Вес нетто" dataDxfId="72"/>
-    <tableColumn id="3" name="ID Получателя" dataDxfId="71"/>
-    <tableColumn id="4" name="Получатель" dataDxfId="70"/>
-    <tableColumn id="10" name="Город" dataDxfId="69"/>
-    <tableColumn id="6" name="Маршрут" dataDxfId="68"/>
+    <tableColumn id="1" name="№ Доставки" dataDxfId="84"/>
+    <tableColumn id="2" name="Доставка" dataDxfId="83"/>
+    <tableColumn id="5" name="ID Route" dataDxfId="82"/>
+    <tableColumn id="9" name="Порядок выгрузки" dataDxfId="81"/>
+    <tableColumn id="8" name="Вес нетто" dataDxfId="80"/>
+    <tableColumn id="3" name="ID Получателя" dataDxfId="79"/>
+    <tableColumn id="4" name="Получатель" dataDxfId="78"/>
+    <tableColumn id="10" name="Город" dataDxfId="77"/>
+    <tableColumn id="6" name="Маршрут" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="PriceDelivery" displayName="PriceDelivery" ref="A3:J527" totalsRowShown="0" headerRowDxfId="67" dataDxfId="65" headerRowBorderDxfId="66" headerRowCellStyle="Обычный 4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="PriceDelivery" displayName="PriceDelivery" ref="A3:J428" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" headerRowCellStyle="Обычный 4">
   <sortState ref="A13:J426">
     <sortCondition ref="F3:F527"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="Place of shipment" dataDxfId="64"/>
-    <tableColumn id="2" name="Place of delivery" dataDxfId="63"/>
-    <tableColumn id="3" name="City" dataDxfId="62"/>
-    <tableColumn id="4" name="Country of delivery" dataDxfId="61"/>
-    <tableColumn id="5" name="Country of delivery2" dataDxfId="60"/>
-    <tableColumn id="6" name="Company" dataDxfId="59"/>
-    <tableColumn id="7" name="tonnage, t" dataDxfId="58"/>
-    <tableColumn id="8" name="vehicle" dataDxfId="57"/>
-    <tableColumn id="9" name="add.point" dataDxfId="56"/>
-    <tableColumn id="10" name="vehicle + add.point" dataDxfId="55"/>
+    <tableColumn id="1" name="Place of shipment" dataDxfId="72"/>
+    <tableColumn id="2" name="Place of delivery" dataDxfId="71"/>
+    <tableColumn id="3" name="City" dataDxfId="70"/>
+    <tableColumn id="4" name="Country of delivery" dataDxfId="69"/>
+    <tableColumn id="5" name="Country of delivery2" dataDxfId="68"/>
+    <tableColumn id="6" name="Company" dataDxfId="67"/>
+    <tableColumn id="7" name="tonnage, t" dataDxfId="66"/>
+    <tableColumn id="8" name="vehicle" dataDxfId="65"/>
+    <tableColumn id="9" name="add.point" dataDxfId="64"/>
+    <tableColumn id="10" name="vehicle + add.point" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="TableRoutes" displayName="TableRoutes" ref="A1:K115" totalsRowShown="0" headerRowDxfId="54" headerRowBorderDxfId="53" tableBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TableRateInternational" displayName="TableRateInternational" ref="A1:E100" totalsRowShown="0" dataDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="A1:E100"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Place of shipment" dataDxfId="5"/>
+    <tableColumn id="2" name="Place of delivery" dataDxfId="4"/>
+    <tableColumn id="3" name="Company" dataDxfId="3"/>
+    <tableColumn id="4" name="tonnage, t" dataDxfId="2"/>
+    <tableColumn id="5" name="vehicle" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="TableRoutes" displayName="TableRoutes" ref="A1:K115" totalsRowShown="0" headerRowDxfId="62" headerRowBorderDxfId="61" tableBorderDxfId="60">
   <autoFilter ref="A1:K115"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Id route"/>
@@ -3189,8 +3344,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TableCity" displayName="TableCity" ref="M1:M23" totalsRowShown="0" tableBorderDxfId="51">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TableCity" displayName="TableCity" ref="M1:M23" totalsRowShown="0" tableBorderDxfId="59">
   <autoFilter ref="M1:M23"/>
   <tableColumns count="1">
     <tableColumn id="1" name="City"/>
@@ -3199,36 +3354,36 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TableTotal" displayName="TableTotal" ref="B2:U3" insertRow="1" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" headerRowCellStyle="Акцент6">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TableTotal" displayName="TableTotal" ref="B2:U3" insertRow="1" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55" headerRowCellStyle="Акцент6">
   <autoFilter ref="B2:U3"/>
   <tableColumns count="20">
-    <tableColumn id="20" name="Дата доставки" dataDxfId="21"/>
-    <tableColumn id="1" name="ID перевозчика" dataDxfId="20"/>
-    <tableColumn id="2" name="Перевозчик" dataDxfId="19"/>
-    <tableColumn id="3" name="Тип ТС, тонн" dataDxfId="18"/>
-    <tableColumn id="4" name="Водитель (ФИО)" dataDxfId="17"/>
-    <tableColumn id="5" name="Номер,марка" dataDxfId="16"/>
-    <tableColumn id="6" name="Телефон водителя" dataDxfId="15"/>
-    <tableColumn id="19" name="№ Доставки" dataDxfId="14"/>
-    <tableColumn id="7" name="Город" dataDxfId="13"/>
-    <tableColumn id="8" name="Направление" dataDxfId="12"/>
-    <tableColumn id="9" name="Порядок выгрузки" dataDxfId="11"/>
-    <tableColumn id="10" name="Номер грузополучателя" dataDxfId="10"/>
-    <tableColumn id="11" name="Номер накладной" dataDxfId="9"/>
-    <tableColumn id="12" name="Номер поставки" dataDxfId="8"/>
-    <tableColumn id="13" name="Грузополучатель" dataDxfId="7"/>
-    <tableColumn id="14" name="Брутто вес" dataDxfId="6"/>
-    <tableColumn id="15" name="Нетто вес" dataDxfId="5"/>
-    <tableColumn id="16" name="Кол-во паллет" dataDxfId="4"/>
-    <tableColumn id="17" name="Стоимость поставки" dataDxfId="3"/>
-    <tableColumn id="18" name="Стоимость доставки" dataDxfId="2"/>
+    <tableColumn id="20" name="Дата доставки" dataDxfId="54"/>
+    <tableColumn id="1" name="ID перевозчика" dataDxfId="53"/>
+    <tableColumn id="2" name="Перевозчик" dataDxfId="52"/>
+    <tableColumn id="3" name="Тип ТС, тонн" dataDxfId="51"/>
+    <tableColumn id="4" name="Водитель (ФИО)" dataDxfId="50"/>
+    <tableColumn id="5" name="Номер,марка" dataDxfId="49"/>
+    <tableColumn id="6" name="Телефон водителя" dataDxfId="48"/>
+    <tableColumn id="19" name="№ Доставки" dataDxfId="47"/>
+    <tableColumn id="7" name="Город" dataDxfId="46"/>
+    <tableColumn id="8" name="Направление" dataDxfId="45"/>
+    <tableColumn id="9" name="Порядок выгрузки" dataDxfId="44"/>
+    <tableColumn id="10" name="Номер грузополучателя" dataDxfId="43"/>
+    <tableColumn id="11" name="Номер накладной" dataDxfId="42"/>
+    <tableColumn id="12" name="Номер поставки" dataDxfId="41"/>
+    <tableColumn id="13" name="Грузополучатель" dataDxfId="40"/>
+    <tableColumn id="14" name="Брутто вес" dataDxfId="39"/>
+    <tableColumn id="15" name="Нетто вес" dataDxfId="38"/>
+    <tableColumn id="16" name="Кол-во паллет" dataDxfId="37"/>
+    <tableColumn id="17" name="Стоимость поставки" dataDxfId="36"/>
+    <tableColumn id="18" name="Стоимость доставки" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="TableEmail" displayName="TableEmail" ref="A6:B9" totalsRowShown="0">
   <autoFilter ref="A6:B9"/>
   <tableColumns count="2">
@@ -3239,13 +3394,13 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="B2:D25" totalsRowShown="0">
   <autoFilter ref="B2:D25"/>
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Компания" dataDxfId="1"/>
-    <tableColumn id="3" name="Получатель письма" dataDxfId="0" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="2" name="Компания" dataDxfId="34"/>
+    <tableColumn id="3" name="Получатель письма" dataDxfId="33" dataCellStyle="Гиперссылка"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3551,8 +3706,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="B1:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3605,17 +3760,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="161">
-        <v>1</v>
-      </c>
-      <c r="C6" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="161">
-        <v>3</v>
-      </c>
-    </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="166" t="s">
         <v>5</v>
@@ -3664,10 +3808,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист6"/>
-  <dimension ref="A1:J527"/>
+  <dimension ref="A1:J428"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
+      <selection activeCell="A3" sqref="A3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17748,2184 +17892,6 @@
         <v>259500</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A429" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B429" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C429" s="161"/>
-      <c r="D429" s="161"/>
-      <c r="E429" s="161"/>
-      <c r="F429" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G429" s="161">
-        <v>0.1</v>
-      </c>
-      <c r="H429" s="161">
-        <v>9000</v>
-      </c>
-      <c r="I429" s="161"/>
-      <c r="J429" s="161"/>
-    </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A430" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B430" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C430" s="161"/>
-      <c r="D430" s="161"/>
-      <c r="E430" s="161"/>
-      <c r="F430" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G430" s="161">
-        <v>0.1</v>
-      </c>
-      <c r="H430" s="161">
-        <v>10000</v>
-      </c>
-      <c r="I430" s="161"/>
-      <c r="J430" s="161"/>
-    </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A431" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B431" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C431" s="161"/>
-      <c r="D431" s="161"/>
-      <c r="E431" s="161"/>
-      <c r="F431" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G431" s="161">
-        <v>0.1</v>
-      </c>
-      <c r="H431" s="161">
-        <v>13996</v>
-      </c>
-      <c r="I431" s="161"/>
-      <c r="J431" s="161"/>
-    </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A432" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B432" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C432" s="161"/>
-      <c r="D432" s="161"/>
-      <c r="E432" s="161"/>
-      <c r="F432" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G432" s="161">
-        <v>0.2</v>
-      </c>
-      <c r="H432" s="161">
-        <v>8322</v>
-      </c>
-      <c r="I432" s="161"/>
-      <c r="J432" s="161"/>
-    </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A433" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B433" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C433" s="161"/>
-      <c r="D433" s="161"/>
-      <c r="E433" s="161"/>
-      <c r="F433" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G433" s="161">
-        <v>0.2</v>
-      </c>
-      <c r="H433" s="161">
-        <v>9790</v>
-      </c>
-      <c r="I433" s="161"/>
-      <c r="J433" s="161"/>
-    </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A434" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B434" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C434" s="161"/>
-      <c r="D434" s="161"/>
-      <c r="E434" s="161"/>
-      <c r="F434" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G434" s="161">
-        <v>0.2</v>
-      </c>
-      <c r="H434" s="161">
-        <v>11681</v>
-      </c>
-      <c r="I434" s="161"/>
-      <c r="J434" s="161"/>
-    </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A435" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B435" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C435" s="161"/>
-      <c r="D435" s="161"/>
-      <c r="E435" s="161"/>
-      <c r="F435" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G435" s="161">
-        <v>0.3</v>
-      </c>
-      <c r="H435" s="161">
-        <v>8079</v>
-      </c>
-      <c r="I435" s="161"/>
-      <c r="J435" s="161"/>
-    </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A436" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B436" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C436" s="161"/>
-      <c r="D436" s="161"/>
-      <c r="E436" s="161"/>
-      <c r="F436" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G436" s="161">
-        <v>0.3</v>
-      </c>
-      <c r="H436" s="161">
-        <v>9505</v>
-      </c>
-      <c r="I436" s="161"/>
-      <c r="J436" s="161"/>
-    </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A437" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B437" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C437" s="161"/>
-      <c r="D437" s="161"/>
-      <c r="E437" s="161"/>
-      <c r="F437" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G437" s="161">
-        <v>0.3</v>
-      </c>
-      <c r="H437" s="161">
-        <v>10541</v>
-      </c>
-      <c r="I437" s="161"/>
-      <c r="J437" s="161"/>
-    </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A438" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B438" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C438" s="161"/>
-      <c r="D438" s="161"/>
-      <c r="E438" s="161"/>
-      <c r="F438" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G438" s="161">
-        <v>0.4</v>
-      </c>
-      <c r="H438" s="161">
-        <v>7844</v>
-      </c>
-      <c r="I438" s="161"/>
-      <c r="J438" s="161"/>
-    </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A439" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B439" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C439" s="161"/>
-      <c r="D439" s="161"/>
-      <c r="E439" s="161"/>
-      <c r="F439" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G439" s="161">
-        <v>0.4</v>
-      </c>
-      <c r="H439" s="161">
-        <v>9228</v>
-      </c>
-      <c r="I439" s="161"/>
-      <c r="J439" s="161"/>
-    </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A440" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B440" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C440" s="161"/>
-      <c r="D440" s="161"/>
-      <c r="E440" s="161"/>
-      <c r="F440" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G440" s="161">
-        <v>0.4</v>
-      </c>
-      <c r="H440" s="161">
-        <v>9844</v>
-      </c>
-      <c r="I440" s="161"/>
-      <c r="J440" s="161"/>
-    </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A441" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B441" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C441" s="161"/>
-      <c r="D441" s="161"/>
-      <c r="E441" s="161"/>
-      <c r="F441" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G441" s="161">
-        <v>0.5</v>
-      </c>
-      <c r="H441" s="161">
-        <v>7616</v>
-      </c>
-      <c r="I441" s="161"/>
-      <c r="J441" s="161"/>
-    </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A442" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B442" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C442" s="161"/>
-      <c r="D442" s="161"/>
-      <c r="E442" s="161"/>
-      <c r="F442" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G442" s="161">
-        <v>0.5</v>
-      </c>
-      <c r="H442" s="161">
-        <v>8959</v>
-      </c>
-      <c r="I442" s="161"/>
-      <c r="J442" s="161"/>
-    </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A443" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B443" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C443" s="161"/>
-      <c r="D443" s="161"/>
-      <c r="E443" s="161"/>
-      <c r="F443" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G443" s="161">
-        <v>0.5</v>
-      </c>
-      <c r="H443" s="161">
-        <v>9993</v>
-      </c>
-      <c r="I443" s="161"/>
-      <c r="J443" s="161"/>
-    </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A444" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B444" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C444" s="161"/>
-      <c r="D444" s="161"/>
-      <c r="E444" s="161"/>
-      <c r="F444" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G444" s="161">
-        <v>0.6</v>
-      </c>
-      <c r="H444" s="161">
-        <v>7394</v>
-      </c>
-      <c r="I444" s="161"/>
-      <c r="J444" s="161"/>
-    </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A445" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B445" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C445" s="161"/>
-      <c r="D445" s="161"/>
-      <c r="E445" s="161"/>
-      <c r="F445" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G445" s="161">
-        <v>0.6</v>
-      </c>
-      <c r="H445" s="161">
-        <v>8698</v>
-      </c>
-      <c r="I445" s="161"/>
-      <c r="J445" s="161"/>
-    </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A446" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B446" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C446" s="161"/>
-      <c r="D446" s="161"/>
-      <c r="E446" s="161"/>
-      <c r="F446" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G446" s="161">
-        <v>0.6</v>
-      </c>
-      <c r="H446" s="161">
-        <v>9600</v>
-      </c>
-      <c r="I446" s="161"/>
-      <c r="J446" s="161"/>
-    </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A447" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B447" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C447" s="161"/>
-      <c r="D447" s="161"/>
-      <c r="E447" s="161"/>
-      <c r="F447" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G447" s="161">
-        <v>0.7</v>
-      </c>
-      <c r="H447" s="161">
-        <v>7178</v>
-      </c>
-      <c r="I447" s="161"/>
-      <c r="J447" s="161"/>
-    </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A448" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B448" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C448" s="161"/>
-      <c r="D448" s="161"/>
-      <c r="E448" s="161"/>
-      <c r="F448" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G448" s="161">
-        <v>0.7</v>
-      </c>
-      <c r="H448" s="161">
-        <v>8445</v>
-      </c>
-      <c r="I448" s="161"/>
-      <c r="J448" s="161"/>
-    </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A449" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B449" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C449" s="161"/>
-      <c r="D449" s="161"/>
-      <c r="E449" s="161"/>
-      <c r="F449" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G449" s="161">
-        <v>0.7</v>
-      </c>
-      <c r="H449" s="161">
-        <v>9296</v>
-      </c>
-      <c r="I449" s="161"/>
-      <c r="J449" s="161"/>
-    </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A450" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B450" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C450" s="161"/>
-      <c r="D450" s="161"/>
-      <c r="E450" s="161"/>
-      <c r="F450" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G450" s="161">
-        <v>0.8</v>
-      </c>
-      <c r="H450" s="161">
-        <v>6969</v>
-      </c>
-      <c r="I450" s="161"/>
-      <c r="J450" s="161"/>
-    </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A451" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B451" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C451" s="161"/>
-      <c r="D451" s="161"/>
-      <c r="E451" s="161"/>
-      <c r="F451" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G451" s="161">
-        <v>0.8</v>
-      </c>
-      <c r="H451" s="161">
-        <v>8199</v>
-      </c>
-      <c r="I451" s="161"/>
-      <c r="J451" s="161"/>
-    </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A452" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B452" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C452" s="161"/>
-      <c r="D452" s="161"/>
-      <c r="E452" s="161"/>
-      <c r="F452" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G452" s="161">
-        <v>0.8</v>
-      </c>
-      <c r="H452" s="161">
-        <v>9078</v>
-      </c>
-      <c r="I452" s="161"/>
-      <c r="J452" s="161"/>
-    </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A453" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B453" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C453" s="161"/>
-      <c r="D453" s="161"/>
-      <c r="E453" s="161"/>
-      <c r="F453" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G453" s="161">
-        <v>0.9</v>
-      </c>
-      <c r="H453" s="161">
-        <v>6766</v>
-      </c>
-      <c r="I453" s="161"/>
-      <c r="J453" s="161"/>
-    </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A454" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B454" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C454" s="161"/>
-      <c r="D454" s="161"/>
-      <c r="E454" s="161"/>
-      <c r="F454" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G454" s="161">
-        <v>0.9</v>
-      </c>
-      <c r="H454" s="161">
-        <v>7960</v>
-      </c>
-      <c r="I454" s="161"/>
-      <c r="J454" s="161"/>
-    </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A455" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B455" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C455" s="161"/>
-      <c r="D455" s="161"/>
-      <c r="E455" s="161"/>
-      <c r="F455" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G455" s="161">
-        <v>0.9</v>
-      </c>
-      <c r="H455" s="161">
-        <v>8167</v>
-      </c>
-      <c r="I455" s="161"/>
-      <c r="J455" s="161"/>
-    </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A456" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B456" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C456" s="161"/>
-      <c r="D456" s="161"/>
-      <c r="E456" s="161"/>
-      <c r="F456" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G456" s="161">
-        <v>1</v>
-      </c>
-      <c r="H456" s="161">
-        <v>6569</v>
-      </c>
-      <c r="I456" s="161"/>
-      <c r="J456" s="161"/>
-    </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A457" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B457" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C457" s="161"/>
-      <c r="D457" s="161"/>
-      <c r="E457" s="161"/>
-      <c r="F457" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G457" s="161">
-        <v>1</v>
-      </c>
-      <c r="H457" s="161">
-        <v>7728</v>
-      </c>
-      <c r="I457" s="161"/>
-      <c r="J457" s="161"/>
-    </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A458" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B458" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C458" s="161"/>
-      <c r="D458" s="161"/>
-      <c r="E458" s="161"/>
-      <c r="F458" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G458" s="161">
-        <v>1</v>
-      </c>
-      <c r="H458" s="161">
-        <v>7350</v>
-      </c>
-      <c r="I458" s="161"/>
-      <c r="J458" s="161"/>
-    </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A459" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B459" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C459" s="161"/>
-      <c r="D459" s="161"/>
-      <c r="E459" s="161"/>
-      <c r="F459" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G459" s="161">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H459" s="161">
-        <v>6378</v>
-      </c>
-      <c r="I459" s="161"/>
-      <c r="J459" s="161"/>
-    </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A460" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B460" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C460" s="161"/>
-      <c r="D460" s="161"/>
-      <c r="E460" s="161"/>
-      <c r="F460" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G460" s="161">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H460" s="161">
-        <v>7503</v>
-      </c>
-      <c r="I460" s="161"/>
-      <c r="J460" s="161"/>
-    </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A461" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B461" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C461" s="161"/>
-      <c r="D461" s="161"/>
-      <c r="E461" s="161"/>
-      <c r="F461" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G461" s="161">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H461" s="161">
-        <v>6682</v>
-      </c>
-      <c r="I461" s="161"/>
-      <c r="J461" s="161"/>
-    </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A462" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B462" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C462" s="161"/>
-      <c r="D462" s="161"/>
-      <c r="E462" s="161"/>
-      <c r="F462" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G462" s="161">
-        <v>1.2</v>
-      </c>
-      <c r="H462" s="161">
-        <v>6192</v>
-      </c>
-      <c r="I462" s="161"/>
-      <c r="J462" s="161"/>
-    </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A463" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B463" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C463" s="161"/>
-      <c r="D463" s="161"/>
-      <c r="E463" s="161"/>
-      <c r="F463" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G463" s="161">
-        <v>1.2</v>
-      </c>
-      <c r="H463" s="161">
-        <v>7285</v>
-      </c>
-      <c r="I463" s="161"/>
-      <c r="J463" s="161"/>
-    </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A464" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B464" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C464" s="161"/>
-      <c r="D464" s="161"/>
-      <c r="E464" s="161"/>
-      <c r="F464" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G464" s="161">
-        <v>1.2</v>
-      </c>
-      <c r="H464" s="161">
-        <v>6125</v>
-      </c>
-      <c r="I464" s="161"/>
-      <c r="J464" s="161"/>
-    </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A465" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B465" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C465" s="161"/>
-      <c r="D465" s="161"/>
-      <c r="E465" s="161"/>
-      <c r="F465" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G465" s="161">
-        <v>1.3</v>
-      </c>
-      <c r="H465" s="161">
-        <v>6012</v>
-      </c>
-      <c r="I465" s="161"/>
-      <c r="J465" s="161"/>
-    </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A466" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B466" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C466" s="161"/>
-      <c r="D466" s="161"/>
-      <c r="E466" s="161"/>
-      <c r="F466" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G466" s="161">
-        <v>1.3</v>
-      </c>
-      <c r="H466" s="161">
-        <v>7073</v>
-      </c>
-      <c r="I466" s="161"/>
-      <c r="J466" s="161"/>
-    </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A467" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B467" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C467" s="161"/>
-      <c r="D467" s="161"/>
-      <c r="E467" s="161"/>
-      <c r="F467" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G467" s="161">
-        <v>1.3</v>
-      </c>
-      <c r="H467" s="161">
-        <v>5654</v>
-      </c>
-      <c r="I467" s="161"/>
-      <c r="J467" s="161"/>
-    </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A468" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B468" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C468" s="161"/>
-      <c r="D468" s="161"/>
-      <c r="E468" s="161"/>
-      <c r="F468" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G468" s="161">
-        <v>1.4</v>
-      </c>
-      <c r="H468" s="161">
-        <v>5837</v>
-      </c>
-      <c r="I468" s="161"/>
-      <c r="J468" s="161"/>
-    </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A469" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B469" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C469" s="161"/>
-      <c r="D469" s="161"/>
-      <c r="E469" s="161"/>
-      <c r="F469" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G469" s="161">
-        <v>1.4</v>
-      </c>
-      <c r="H469" s="161">
-        <v>6867</v>
-      </c>
-      <c r="I469" s="161"/>
-      <c r="J469" s="161"/>
-    </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A470" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B470" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C470" s="161"/>
-      <c r="D470" s="161"/>
-      <c r="E470" s="161"/>
-      <c r="F470" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G470" s="161">
-        <v>1.4</v>
-      </c>
-      <c r="H470" s="161">
-        <v>5250</v>
-      </c>
-      <c r="I470" s="161"/>
-      <c r="J470" s="161"/>
-    </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A471" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B471" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C471" s="161"/>
-      <c r="D471" s="161"/>
-      <c r="E471" s="161"/>
-      <c r="F471" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G471" s="161">
-        <v>1.5</v>
-      </c>
-      <c r="H471" s="161">
-        <v>5667</v>
-      </c>
-      <c r="I471" s="161"/>
-      <c r="J471" s="161"/>
-    </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A472" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B472" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C472" s="161"/>
-      <c r="D472" s="161"/>
-      <c r="E472" s="161"/>
-      <c r="F472" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G472" s="161">
-        <v>1.5</v>
-      </c>
-      <c r="H472" s="161">
-        <v>6667</v>
-      </c>
-      <c r="I472" s="161"/>
-      <c r="J472" s="161"/>
-    </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A473" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B473" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C473" s="161"/>
-      <c r="D473" s="161"/>
-      <c r="E473" s="161"/>
-      <c r="F473" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G473" s="161">
-        <v>1.5</v>
-      </c>
-      <c r="H473" s="161">
-        <v>4900</v>
-      </c>
-      <c r="I473" s="161"/>
-      <c r="J473" s="161"/>
-    </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A474" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B474" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C474" s="161"/>
-      <c r="D474" s="161"/>
-      <c r="E474" s="161"/>
-      <c r="F474" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G474" s="161">
-        <v>1.6</v>
-      </c>
-      <c r="H474" s="161">
-        <v>5469</v>
-      </c>
-      <c r="I474" s="161"/>
-      <c r="J474" s="161"/>
-    </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A475" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B475" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C475" s="161"/>
-      <c r="D475" s="161"/>
-      <c r="E475" s="161"/>
-      <c r="F475" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G475" s="161">
-        <v>1.6</v>
-      </c>
-      <c r="H475" s="161">
-        <v>6563</v>
-      </c>
-      <c r="I475" s="161"/>
-      <c r="J475" s="161"/>
-    </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A476" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B476" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C476" s="161"/>
-      <c r="D476" s="161"/>
-      <c r="E476" s="161"/>
-      <c r="F476" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G476" s="161">
-        <v>1.6</v>
-      </c>
-      <c r="H476" s="161">
-        <v>6759</v>
-      </c>
-      <c r="I476" s="161"/>
-      <c r="J476" s="161"/>
-    </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A477" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B477" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C477" s="161"/>
-      <c r="D477" s="161"/>
-      <c r="E477" s="161"/>
-      <c r="F477" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G477" s="161">
-        <v>1.7</v>
-      </c>
-      <c r="H477" s="161">
-        <v>5279</v>
-      </c>
-      <c r="I477" s="161"/>
-      <c r="J477" s="161"/>
-    </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A478" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B478" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C478" s="161"/>
-      <c r="D478" s="161"/>
-      <c r="E478" s="161"/>
-      <c r="F478" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G478" s="161">
-        <v>1.7</v>
-      </c>
-      <c r="H478" s="161">
-        <v>6335</v>
-      </c>
-      <c r="I478" s="161"/>
-      <c r="J478" s="161"/>
-    </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A479" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B479" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C479" s="161"/>
-      <c r="D479" s="161"/>
-      <c r="E479" s="161"/>
-      <c r="F479" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G479" s="161">
-        <v>1.7</v>
-      </c>
-      <c r="H479" s="161">
-        <v>6362</v>
-      </c>
-      <c r="I479" s="161"/>
-      <c r="J479" s="161"/>
-    </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A480" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B480" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C480" s="161"/>
-      <c r="D480" s="161"/>
-      <c r="E480" s="161"/>
-      <c r="F480" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G480" s="161">
-        <v>1.8</v>
-      </c>
-      <c r="H480" s="161">
-        <v>5096</v>
-      </c>
-      <c r="I480" s="161"/>
-      <c r="J480" s="161"/>
-    </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A481" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B481" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C481" s="161"/>
-      <c r="D481" s="161"/>
-      <c r="E481" s="161"/>
-      <c r="F481" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G481" s="161">
-        <v>1.8</v>
-      </c>
-      <c r="H481" s="161">
-        <v>6115</v>
-      </c>
-      <c r="I481" s="161"/>
-      <c r="J481" s="161"/>
-    </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A482" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B482" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C482" s="161"/>
-      <c r="D482" s="161"/>
-      <c r="E482" s="161"/>
-      <c r="F482" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G482" s="161">
-        <v>1.8</v>
-      </c>
-      <c r="H482" s="161">
-        <v>6008</v>
-      </c>
-      <c r="I482" s="161"/>
-      <c r="J482" s="161"/>
-    </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A483" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B483" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C483" s="161"/>
-      <c r="D483" s="161"/>
-      <c r="E483" s="161"/>
-      <c r="F483" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G483" s="161">
-        <v>1.9</v>
-      </c>
-      <c r="H483" s="161">
-        <v>4919</v>
-      </c>
-      <c r="I483" s="161"/>
-      <c r="J483" s="161"/>
-    </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A484" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B484" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C484" s="161"/>
-      <c r="D484" s="161"/>
-      <c r="E484" s="161"/>
-      <c r="F484" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G484" s="161">
-        <v>1.9</v>
-      </c>
-      <c r="H484" s="161">
-        <v>5902</v>
-      </c>
-      <c r="I484" s="161"/>
-      <c r="J484" s="161"/>
-    </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A485" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B485" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C485" s="161"/>
-      <c r="D485" s="161"/>
-      <c r="E485" s="161"/>
-      <c r="F485" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G485" s="161">
-        <v>1.9</v>
-      </c>
-      <c r="H485" s="161">
-        <v>5692</v>
-      </c>
-      <c r="I485" s="161"/>
-      <c r="J485" s="161"/>
-    </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A486" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B486" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C486" s="161"/>
-      <c r="D486" s="161"/>
-      <c r="E486" s="161"/>
-      <c r="F486" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G486" s="161">
-        <v>2</v>
-      </c>
-      <c r="H486" s="161">
-        <v>4748</v>
-      </c>
-      <c r="I486" s="161"/>
-      <c r="J486" s="161"/>
-    </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A487" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B487" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C487" s="161"/>
-      <c r="D487" s="161"/>
-      <c r="E487" s="161"/>
-      <c r="F487" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G487" s="161">
-        <v>2</v>
-      </c>
-      <c r="H487" s="161">
-        <v>5697</v>
-      </c>
-      <c r="I487" s="161"/>
-      <c r="J487" s="161"/>
-    </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A488" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B488" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C488" s="161"/>
-      <c r="D488" s="161"/>
-      <c r="E488" s="161"/>
-      <c r="F488" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G488" s="161">
-        <v>2</v>
-      </c>
-      <c r="H488" s="161">
-        <v>5408</v>
-      </c>
-      <c r="I488" s="161"/>
-      <c r="J488" s="161"/>
-    </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A489" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B489" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C489" s="161"/>
-      <c r="D489" s="161"/>
-      <c r="E489" s="161"/>
-      <c r="F489" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G489" s="161">
-        <v>2.1</v>
-      </c>
-      <c r="H489" s="161">
-        <v>4583</v>
-      </c>
-      <c r="I489" s="161"/>
-      <c r="J489" s="161"/>
-    </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A490" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B490" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C490" s="161"/>
-      <c r="D490" s="161"/>
-      <c r="E490" s="161"/>
-      <c r="F490" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G490" s="161">
-        <v>2.1</v>
-      </c>
-      <c r="H490" s="161">
-        <v>5499</v>
-      </c>
-      <c r="I490" s="161"/>
-      <c r="J490" s="161"/>
-    </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A491" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B491" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C491" s="161"/>
-      <c r="D491" s="161"/>
-      <c r="E491" s="161"/>
-      <c r="F491" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G491" s="161">
-        <v>2.1</v>
-      </c>
-      <c r="H491" s="161">
-        <v>5150</v>
-      </c>
-      <c r="I491" s="161"/>
-      <c r="J491" s="161"/>
-    </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A492" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B492" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C492" s="161"/>
-      <c r="D492" s="161"/>
-      <c r="E492" s="161"/>
-      <c r="F492" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G492" s="161">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H492" s="161">
-        <v>4423</v>
-      </c>
-      <c r="I492" s="161"/>
-      <c r="J492" s="161"/>
-    </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A493" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B493" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C493" s="161"/>
-      <c r="D493" s="161"/>
-      <c r="E493" s="161"/>
-      <c r="F493" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G493" s="161">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H493" s="161">
-        <v>5308</v>
-      </c>
-      <c r="I493" s="161"/>
-      <c r="J493" s="161"/>
-    </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A494" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B494" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C494" s="161"/>
-      <c r="D494" s="161"/>
-      <c r="E494" s="161"/>
-      <c r="F494" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G494" s="161">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H494" s="161">
-        <v>4916</v>
-      </c>
-      <c r="I494" s="161"/>
-      <c r="J494" s="161"/>
-    </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A495" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B495" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C495" s="161"/>
-      <c r="D495" s="161"/>
-      <c r="E495" s="161"/>
-      <c r="F495" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G495" s="161">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H495" s="161">
-        <v>4270</v>
-      </c>
-      <c r="I495" s="161"/>
-      <c r="J495" s="161"/>
-    </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A496" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B496" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C496" s="161"/>
-      <c r="D496" s="161"/>
-      <c r="E496" s="161"/>
-      <c r="F496" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G496" s="161">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H496" s="161">
-        <v>5124</v>
-      </c>
-      <c r="I496" s="161"/>
-      <c r="J496" s="161"/>
-    </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A497" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B497" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C497" s="161"/>
-      <c r="D497" s="161"/>
-      <c r="E497" s="161"/>
-      <c r="F497" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G497" s="161">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H497" s="161">
-        <v>4702</v>
-      </c>
-      <c r="I497" s="161"/>
-      <c r="J497" s="161"/>
-    </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A498" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B498" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C498" s="161"/>
-      <c r="D498" s="161"/>
-      <c r="E498" s="161"/>
-      <c r="F498" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G498" s="161">
-        <v>2.4</v>
-      </c>
-      <c r="H498" s="161">
-        <v>4121</v>
-      </c>
-      <c r="I498" s="161"/>
-      <c r="J498" s="161"/>
-    </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A499" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B499" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C499" s="161"/>
-      <c r="D499" s="161"/>
-      <c r="E499" s="161"/>
-      <c r="F499" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G499" s="161">
-        <v>2.4</v>
-      </c>
-      <c r="H499" s="161">
-        <v>4946</v>
-      </c>
-      <c r="I499" s="161"/>
-      <c r="J499" s="161"/>
-    </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A500" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B500" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C500" s="161"/>
-      <c r="D500" s="161"/>
-      <c r="E500" s="161"/>
-      <c r="F500" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G500" s="161">
-        <v>2.4</v>
-      </c>
-      <c r="H500" s="161">
-        <v>4506</v>
-      </c>
-      <c r="I500" s="161"/>
-      <c r="J500" s="161"/>
-    </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A501" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B501" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C501" s="161"/>
-      <c r="D501" s="161"/>
-      <c r="E501" s="161"/>
-      <c r="F501" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G501" s="161">
-        <v>2.5</v>
-      </c>
-      <c r="H501" s="161">
-        <v>3978</v>
-      </c>
-      <c r="I501" s="161"/>
-      <c r="J501" s="161"/>
-    </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A502" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B502" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C502" s="161"/>
-      <c r="D502" s="161"/>
-      <c r="E502" s="161"/>
-      <c r="F502" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G502" s="161">
-        <v>2.5</v>
-      </c>
-      <c r="H502" s="161">
-        <v>4774</v>
-      </c>
-      <c r="I502" s="161"/>
-      <c r="J502" s="161"/>
-    </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A503" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B503" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C503" s="161"/>
-      <c r="D503" s="161"/>
-      <c r="E503" s="161"/>
-      <c r="F503" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G503" s="161">
-        <v>2.5</v>
-      </c>
-      <c r="H503" s="161">
-        <v>4326</v>
-      </c>
-      <c r="I503" s="161"/>
-      <c r="J503" s="161"/>
-    </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A504" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B504" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C504" s="161"/>
-      <c r="D504" s="161"/>
-      <c r="E504" s="161"/>
-      <c r="F504" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G504" s="161">
-        <v>2.6</v>
-      </c>
-      <c r="H504" s="161">
-        <v>3840</v>
-      </c>
-      <c r="I504" s="161"/>
-      <c r="J504" s="161"/>
-    </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A505" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B505" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C505" s="161"/>
-      <c r="D505" s="161"/>
-      <c r="E505" s="161"/>
-      <c r="F505" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G505" s="161">
-        <v>2.6</v>
-      </c>
-      <c r="H505" s="161">
-        <v>4608</v>
-      </c>
-      <c r="I505" s="161"/>
-      <c r="J505" s="161"/>
-    </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A506" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B506" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C506" s="161"/>
-      <c r="D506" s="161"/>
-      <c r="E506" s="161"/>
-      <c r="F506" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G506" s="161">
-        <v>2.6</v>
-      </c>
-      <c r="H506" s="161">
-        <v>4160</v>
-      </c>
-      <c r="I506" s="161"/>
-      <c r="J506" s="161"/>
-    </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A507" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B507" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C507" s="161"/>
-      <c r="D507" s="161"/>
-      <c r="E507" s="161"/>
-      <c r="F507" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G507" s="161">
-        <v>2.7</v>
-      </c>
-      <c r="H507" s="161">
-        <v>3706</v>
-      </c>
-      <c r="I507" s="161"/>
-      <c r="J507" s="161"/>
-    </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A508" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B508" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C508" s="161"/>
-      <c r="D508" s="161"/>
-      <c r="E508" s="161"/>
-      <c r="F508" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G508" s="161">
-        <v>2.7</v>
-      </c>
-      <c r="H508" s="161">
-        <v>4448</v>
-      </c>
-      <c r="I508" s="161"/>
-      <c r="J508" s="161"/>
-    </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A509" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B509" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C509" s="161"/>
-      <c r="D509" s="161"/>
-      <c r="E509" s="161"/>
-      <c r="F509" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G509" s="161">
-        <v>2.7</v>
-      </c>
-      <c r="H509" s="161">
-        <v>4006</v>
-      </c>
-      <c r="I509" s="161"/>
-      <c r="J509" s="161"/>
-    </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A510" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B510" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C510" s="161"/>
-      <c r="D510" s="161"/>
-      <c r="E510" s="161"/>
-      <c r="F510" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G510" s="161">
-        <v>2.8</v>
-      </c>
-      <c r="H510" s="161">
-        <v>3578</v>
-      </c>
-      <c r="I510" s="161"/>
-      <c r="J510" s="161"/>
-    </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A511" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B511" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C511" s="161"/>
-      <c r="D511" s="161"/>
-      <c r="E511" s="161"/>
-      <c r="F511" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G511" s="161">
-        <v>2.8</v>
-      </c>
-      <c r="H511" s="161">
-        <v>4293</v>
-      </c>
-      <c r="I511" s="161"/>
-      <c r="J511" s="161"/>
-    </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A512" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B512" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C512" s="161"/>
-      <c r="D512" s="161"/>
-      <c r="E512" s="161"/>
-      <c r="F512" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G512" s="161">
-        <v>2.8</v>
-      </c>
-      <c r="H512" s="161">
-        <v>3863</v>
-      </c>
-      <c r="I512" s="161"/>
-      <c r="J512" s="161"/>
-    </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A513" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B513" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C513" s="161"/>
-      <c r="D513" s="161"/>
-      <c r="E513" s="161"/>
-      <c r="F513" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G513" s="161">
-        <v>2.9</v>
-      </c>
-      <c r="H513" s="161">
-        <v>3453</v>
-      </c>
-      <c r="I513" s="161"/>
-      <c r="J513" s="161"/>
-    </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A514" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B514" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C514" s="161"/>
-      <c r="D514" s="161"/>
-      <c r="E514" s="161"/>
-      <c r="F514" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G514" s="161">
-        <v>2.9</v>
-      </c>
-      <c r="H514" s="161">
-        <v>4144</v>
-      </c>
-      <c r="I514" s="161"/>
-      <c r="J514" s="161"/>
-    </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A515" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B515" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C515" s="161"/>
-      <c r="D515" s="161"/>
-      <c r="E515" s="161"/>
-      <c r="F515" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G515" s="161">
-        <v>2.9</v>
-      </c>
-      <c r="H515" s="161">
-        <v>3729</v>
-      </c>
-      <c r="I515" s="161"/>
-      <c r="J515" s="161"/>
-    </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A516" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B516" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C516" s="161"/>
-      <c r="D516" s="161"/>
-      <c r="E516" s="161"/>
-      <c r="F516" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G516" s="161">
-        <v>3</v>
-      </c>
-      <c r="H516" s="161">
-        <v>3333</v>
-      </c>
-      <c r="I516" s="161"/>
-      <c r="J516" s="161"/>
-    </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A517" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B517" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C517" s="161"/>
-      <c r="D517" s="161"/>
-      <c r="E517" s="161"/>
-      <c r="F517" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G517" s="161">
-        <v>3</v>
-      </c>
-      <c r="H517" s="161">
-        <v>4000</v>
-      </c>
-      <c r="I517" s="161"/>
-      <c r="J517" s="161"/>
-    </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A518" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B518" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C518" s="161"/>
-      <c r="D518" s="161"/>
-      <c r="E518" s="161"/>
-      <c r="F518" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G518" s="161">
-        <v>3</v>
-      </c>
-      <c r="H518" s="161">
-        <v>3605</v>
-      </c>
-      <c r="I518" s="161"/>
-      <c r="J518" s="161"/>
-    </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A519" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B519" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C519" s="161"/>
-      <c r="D519" s="161"/>
-      <c r="E519" s="161"/>
-      <c r="F519" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G519" s="161">
-        <v>3.1</v>
-      </c>
-      <c r="H519" s="161">
-        <v>3258</v>
-      </c>
-      <c r="I519" s="161"/>
-      <c r="J519" s="161"/>
-    </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A520" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B520" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C520" s="161"/>
-      <c r="D520" s="161"/>
-      <c r="E520" s="161"/>
-      <c r="F520" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G520" s="161">
-        <v>3.1</v>
-      </c>
-      <c r="H520" s="161">
-        <v>3967</v>
-      </c>
-      <c r="I520" s="161"/>
-      <c r="J520" s="161"/>
-    </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A521" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B521" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C521" s="161"/>
-      <c r="D521" s="161"/>
-      <c r="E521" s="161"/>
-      <c r="F521" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G521" s="161">
-        <v>3.1</v>
-      </c>
-      <c r="H521" s="161">
-        <v>3827</v>
-      </c>
-      <c r="I521" s="161"/>
-      <c r="J521" s="161"/>
-    </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A522" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B522" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C522" s="161"/>
-      <c r="D522" s="161"/>
-      <c r="E522" s="161"/>
-      <c r="F522" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G522" s="161">
-        <v>3.2</v>
-      </c>
-      <c r="H522" s="161">
-        <v>3199</v>
-      </c>
-      <c r="I522" s="161"/>
-      <c r="J522" s="161"/>
-    </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A523" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B523" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C523" s="161"/>
-      <c r="D523" s="161"/>
-      <c r="E523" s="161"/>
-      <c r="F523" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G523" s="161">
-        <v>3.2</v>
-      </c>
-      <c r="H523" s="161">
-        <v>3895</v>
-      </c>
-      <c r="I523" s="161"/>
-      <c r="J523" s="161"/>
-    </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A524" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B524" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C524" s="161"/>
-      <c r="D524" s="161"/>
-      <c r="E524" s="161"/>
-      <c r="F524" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G524" s="161">
-        <v>3.2</v>
-      </c>
-      <c r="H524" s="161">
-        <v>3708</v>
-      </c>
-      <c r="I524" s="161"/>
-      <c r="J524" s="161"/>
-    </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A525" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B525" s="161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C525" s="161"/>
-      <c r="D525" s="161"/>
-      <c r="E525" s="161"/>
-      <c r="F525" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G525" s="161">
-        <v>3.3</v>
-      </c>
-      <c r="H525" s="161">
-        <v>3141</v>
-      </c>
-      <c r="I525" s="161"/>
-      <c r="J525" s="161"/>
-    </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A526" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B526" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C526" s="161"/>
-      <c r="D526" s="161"/>
-      <c r="E526" s="161"/>
-      <c r="F526" s="161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G526" s="161">
-        <v>3.3</v>
-      </c>
-      <c r="H526" s="161">
-        <v>3824</v>
-      </c>
-      <c r="I526" s="161"/>
-      <c r="J526" s="161"/>
-    </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A527" s="161" t="s">
-        <v>271</v>
-      </c>
-      <c r="B527" s="161" t="s">
-        <v>272</v>
-      </c>
-      <c r="C527" s="161"/>
-      <c r="D527" s="161"/>
-      <c r="E527" s="161"/>
-      <c r="F527" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G527" s="161">
-        <v>3.3</v>
-      </c>
-      <c r="H527" s="161">
-        <v>3595</v>
-      </c>
-      <c r="I527" s="161"/>
-      <c r="J527" s="161"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -19936,11 +17902,1736 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="184" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="185" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="186" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="186" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="187" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" s="182" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="182">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="182">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="181">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="181">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="182" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="182">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="182">
+        <v>13996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="181" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="181">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="181">
+        <v>8322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="182">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="182">
+        <v>9790</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" s="181" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="181">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="181">
+        <v>11681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="182" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="182">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="182">
+        <v>8079</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="181">
+        <v>0.3</v>
+      </c>
+      <c r="E9" s="181">
+        <v>9505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" s="182" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="182">
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="182">
+        <v>10541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" s="181" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="181">
+        <v>0.4</v>
+      </c>
+      <c r="E11" s="181">
+        <v>7844</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C12" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="182">
+        <v>0.4</v>
+      </c>
+      <c r="E12" s="182">
+        <v>9228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B13" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C13" s="181" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="181">
+        <v>0.4</v>
+      </c>
+      <c r="E13" s="181">
+        <v>9844</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B14" s="182" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="182">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="182">
+        <v>7616</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B15" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="181">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="181">
+        <v>8959</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B16" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C16" s="182" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="182">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="182">
+        <v>9993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B17" s="181" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="181">
+        <v>0.6</v>
+      </c>
+      <c r="E17" s="181">
+        <v>7394</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B18" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C18" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="182">
+        <v>0.6</v>
+      </c>
+      <c r="E18" s="182">
+        <v>8698</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B19" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C19" s="181" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="181">
+        <v>0.6</v>
+      </c>
+      <c r="E19" s="181">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B20" s="182" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="182">
+        <v>0.7</v>
+      </c>
+      <c r="E20" s="182">
+        <v>7178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B21" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C21" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="181">
+        <v>0.7</v>
+      </c>
+      <c r="E21" s="181">
+        <v>8445</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C22" s="182" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="182">
+        <v>0.7</v>
+      </c>
+      <c r="E22" s="182">
+        <v>9296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B23" s="181" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="181">
+        <v>0.8</v>
+      </c>
+      <c r="E23" s="181">
+        <v>6969</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B24" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C24" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="182">
+        <v>0.8</v>
+      </c>
+      <c r="E24" s="182">
+        <v>8199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B25" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C25" s="181" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="181">
+        <v>0.8</v>
+      </c>
+      <c r="E25" s="181">
+        <v>9078</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B26" s="182" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="182">
+        <v>0.9</v>
+      </c>
+      <c r="E26" s="182">
+        <v>6766</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B27" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C27" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="181">
+        <v>0.9</v>
+      </c>
+      <c r="E27" s="181">
+        <v>7960</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B28" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C28" s="182" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="182">
+        <v>0.9</v>
+      </c>
+      <c r="E28" s="182">
+        <v>8167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B29" s="181" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="181">
+        <v>1</v>
+      </c>
+      <c r="E29" s="181">
+        <v>6569</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B30" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C30" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="182">
+        <v>1</v>
+      </c>
+      <c r="E30" s="182">
+        <v>7728</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B31" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C31" s="181" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="181">
+        <v>1</v>
+      </c>
+      <c r="E31" s="181">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B32" s="182" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="182">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E32" s="182">
+        <v>6378</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B33" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C33" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="181">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E33" s="181">
+        <v>7503</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B34" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C34" s="182" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="182">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E34" s="182">
+        <v>6682</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B35" s="181" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="181">
+        <v>1.2</v>
+      </c>
+      <c r="E35" s="181">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B36" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C36" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="182">
+        <v>1.2</v>
+      </c>
+      <c r="E36" s="182">
+        <v>7285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B37" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C37" s="181" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="181">
+        <v>1.2</v>
+      </c>
+      <c r="E37" s="181">
+        <v>6125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B38" s="182" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="182">
+        <v>1.3</v>
+      </c>
+      <c r="E38" s="182">
+        <v>6012</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B39" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C39" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="181">
+        <v>1.3</v>
+      </c>
+      <c r="E39" s="181">
+        <v>7073</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B40" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C40" s="182" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="182">
+        <v>1.3</v>
+      </c>
+      <c r="E40" s="182">
+        <v>5654</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B41" s="181" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="181">
+        <v>1.4</v>
+      </c>
+      <c r="E41" s="181">
+        <v>5837</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B42" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C42" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="182">
+        <v>1.4</v>
+      </c>
+      <c r="E42" s="182">
+        <v>6867</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B43" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C43" s="181" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="181">
+        <v>1.4</v>
+      </c>
+      <c r="E43" s="181">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B44" s="182" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="E44" s="182">
+        <v>5667</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B45" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C45" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="181">
+        <v>1.5</v>
+      </c>
+      <c r="E45" s="181">
+        <v>6667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B46" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C46" s="182" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="182">
+        <v>1.5</v>
+      </c>
+      <c r="E46" s="182">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B47" s="181" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="181">
+        <v>1.6</v>
+      </c>
+      <c r="E47" s="181">
+        <v>5469</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B48" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C48" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="182">
+        <v>1.6</v>
+      </c>
+      <c r="E48" s="182">
+        <v>6563</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B49" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C49" s="181" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="181">
+        <v>1.6</v>
+      </c>
+      <c r="E49" s="181">
+        <v>6759</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B50" s="182" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="182">
+        <v>1.7</v>
+      </c>
+      <c r="E50" s="182">
+        <v>5279</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B51" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C51" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="181">
+        <v>1.7</v>
+      </c>
+      <c r="E51" s="181">
+        <v>6335</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B52" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C52" s="182" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="182">
+        <v>1.7</v>
+      </c>
+      <c r="E52" s="182">
+        <v>6362</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B53" s="181" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="181">
+        <v>1.8</v>
+      </c>
+      <c r="E53" s="181">
+        <v>5096</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B54" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C54" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="182">
+        <v>1.8</v>
+      </c>
+      <c r="E54" s="182">
+        <v>6115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B55" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C55" s="181" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="181">
+        <v>1.8</v>
+      </c>
+      <c r="E55" s="181">
+        <v>6008</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B56" s="182" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="182">
+        <v>1.9</v>
+      </c>
+      <c r="E56" s="182">
+        <v>4919</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B57" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C57" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="181">
+        <v>1.9</v>
+      </c>
+      <c r="E57" s="181">
+        <v>5902</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B58" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C58" s="182" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="182">
+        <v>1.9</v>
+      </c>
+      <c r="E58" s="182">
+        <v>5692</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B59" s="181" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="181">
+        <v>2</v>
+      </c>
+      <c r="E59" s="181">
+        <v>4748</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B60" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C60" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="182">
+        <v>2</v>
+      </c>
+      <c r="E60" s="182">
+        <v>5697</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B61" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C61" s="181" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="181">
+        <v>2</v>
+      </c>
+      <c r="E61" s="181">
+        <v>5408</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B62" s="182" t="s">
+        <v>166</v>
+      </c>
+      <c r="C62" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="182">
+        <v>2.1</v>
+      </c>
+      <c r="E62" s="182">
+        <v>4583</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B63" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C63" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="181">
+        <v>2.1</v>
+      </c>
+      <c r="E63" s="181">
+        <v>5499</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B64" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C64" s="182" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="182">
+        <v>2.1</v>
+      </c>
+      <c r="E64" s="182">
+        <v>5150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B65" s="181" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="181">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E65" s="181">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B66" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C66" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="182">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E66" s="182">
+        <v>5308</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B67" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C67" s="181" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="181">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E67" s="181">
+        <v>4916</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B68" s="182" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="182">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E68" s="182">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B69" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C69" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="181">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E69" s="181">
+        <v>5124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B70" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C70" s="182" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="182">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E70" s="182">
+        <v>4702</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B71" s="181" t="s">
+        <v>166</v>
+      </c>
+      <c r="C71" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="181">
+        <v>2.4</v>
+      </c>
+      <c r="E71" s="181">
+        <v>4121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B72" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C72" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="182">
+        <v>2.4</v>
+      </c>
+      <c r="E72" s="182">
+        <v>4946</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B73" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C73" s="181" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="181">
+        <v>2.4</v>
+      </c>
+      <c r="E73" s="181">
+        <v>4506</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B74" s="182" t="s">
+        <v>166</v>
+      </c>
+      <c r="C74" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="182">
+        <v>2.5</v>
+      </c>
+      <c r="E74" s="182">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B75" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C75" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="181">
+        <v>2.5</v>
+      </c>
+      <c r="E75" s="181">
+        <v>4774</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B76" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C76" s="182" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="182">
+        <v>2.5</v>
+      </c>
+      <c r="E76" s="182">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B77" s="181" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="181">
+        <v>2.6</v>
+      </c>
+      <c r="E77" s="181">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B78" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C78" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="182">
+        <v>2.6</v>
+      </c>
+      <c r="E78" s="182">
+        <v>4608</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B79" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C79" s="181" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="181">
+        <v>2.6</v>
+      </c>
+      <c r="E79" s="181">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B80" s="182" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="182">
+        <v>2.7</v>
+      </c>
+      <c r="E80" s="182">
+        <v>3706</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B81" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C81" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="181">
+        <v>2.7</v>
+      </c>
+      <c r="E81" s="181">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B82" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C82" s="182" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" s="182">
+        <v>2.7</v>
+      </c>
+      <c r="E82" s="182">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B83" s="181" t="s">
+        <v>166</v>
+      </c>
+      <c r="C83" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" s="181">
+        <v>2.8</v>
+      </c>
+      <c r="E83" s="181">
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B84" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C84" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="182">
+        <v>2.8</v>
+      </c>
+      <c r="E84" s="182">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B85" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C85" s="181" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="181">
+        <v>2.8</v>
+      </c>
+      <c r="E85" s="181">
+        <v>3863</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B86" s="182" t="s">
+        <v>166</v>
+      </c>
+      <c r="C86" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="182">
+        <v>2.9</v>
+      </c>
+      <c r="E86" s="182">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B87" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C87" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="181">
+        <v>2.9</v>
+      </c>
+      <c r="E87" s="181">
+        <v>4144</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B88" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C88" s="182" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="182">
+        <v>2.9</v>
+      </c>
+      <c r="E88" s="182">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B89" s="181" t="s">
+        <v>166</v>
+      </c>
+      <c r="C89" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="181">
+        <v>3</v>
+      </c>
+      <c r="E89" s="181">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B90" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C90" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="182">
+        <v>3</v>
+      </c>
+      <c r="E90" s="182">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B91" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C91" s="181" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="181">
+        <v>3</v>
+      </c>
+      <c r="E91" s="181">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B92" s="182" t="s">
+        <v>166</v>
+      </c>
+      <c r="C92" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="182">
+        <v>3.1</v>
+      </c>
+      <c r="E92" s="182">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B93" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C93" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="181">
+        <v>3.1</v>
+      </c>
+      <c r="E93" s="181">
+        <v>3967</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B94" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C94" s="182" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="182">
+        <v>3.1</v>
+      </c>
+      <c r="E94" s="182">
+        <v>3827</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B95" s="181" t="s">
+        <v>166</v>
+      </c>
+      <c r="C95" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="181">
+        <v>3.2</v>
+      </c>
+      <c r="E95" s="181">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B96" s="182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C96" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" s="182">
+        <v>3.2</v>
+      </c>
+      <c r="E96" s="182">
+        <v>3895</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B97" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C97" s="181" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="181">
+        <v>3.2</v>
+      </c>
+      <c r="E97" s="181">
+        <v>3708</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B98" s="182" t="s">
+        <v>166</v>
+      </c>
+      <c r="C98" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" s="182">
+        <v>3.3</v>
+      </c>
+      <c r="E98" s="182">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="181" t="s">
+        <v>271</v>
+      </c>
+      <c r="B99" s="181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C99" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="181">
+        <v>3.3</v>
+      </c>
+      <c r="E99" s="181">
+        <v>3824</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="183" t="s">
+        <v>271</v>
+      </c>
+      <c r="B100" s="183" t="s">
+        <v>272</v>
+      </c>
+      <c r="C100" s="183" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="183">
+        <v>3.3</v>
+      </c>
+      <c r="E100" s="183">
+        <v>3595</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист3"/>
-  <dimension ref="A1:P114"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="K115" sqref="K115"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19960,7 +19651,7 @@
     <col min="15" max="15" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="156" t="s">
         <v>227</v>
       </c>
@@ -19998,7 +19689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20036,11 +19727,8 @@
       <c r="M2" t="s">
         <v>14</v>
       </c>
-      <c r="P2">
-        <v>120024301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -20078,11 +19766,8 @@
       <c r="M3" t="s">
         <v>12</v>
       </c>
-      <c r="P3">
-        <v>120024306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -20120,11 +19805,8 @@
       <c r="M4" t="s">
         <v>92</v>
       </c>
-      <c r="P4">
-        <v>120021905</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -20162,11 +19844,8 @@
       <c r="M5" t="s">
         <v>98</v>
       </c>
-      <c r="P5">
-        <v>120026321</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -20204,11 +19883,8 @@
       <c r="M6" t="s">
         <v>102</v>
       </c>
-      <c r="P6">
-        <v>120025885</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -20246,11 +19922,8 @@
       <c r="M7" t="s">
         <v>108</v>
       </c>
-      <c r="P7">
-        <v>91020</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -20288,11 +19961,8 @@
       <c r="M8" t="s">
         <v>111</v>
       </c>
-      <c r="P8">
-        <v>120029370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -20327,11 +19997,8 @@
       <c r="M9" t="s">
         <v>117</v>
       </c>
-      <c r="P9">
-        <v>120028781</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -20369,11 +20036,8 @@
       <c r="M10" t="s">
         <v>121</v>
       </c>
-      <c r="P10">
-        <v>120027759</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -20411,11 +20075,8 @@
       <c r="M11" t="s">
         <v>122</v>
       </c>
-      <c r="P11">
-        <v>120026389</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -20453,11 +20114,8 @@
       <c r="M12" t="s">
         <v>126</v>
       </c>
-      <c r="P12">
-        <v>120021605</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -20495,11 +20153,8 @@
       <c r="M13" t="s">
         <v>129</v>
       </c>
-      <c r="P13">
-        <v>120025666</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -20537,11 +20192,8 @@
       <c r="M14" t="s">
         <v>132</v>
       </c>
-      <c r="P14">
-        <v>60102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -20579,11 +20231,8 @@
       <c r="M15" t="s">
         <v>144</v>
       </c>
-      <c r="P15">
-        <v>120022426</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -20621,11 +20270,8 @@
       <c r="M16" t="s">
         <v>153</v>
       </c>
-      <c r="P16">
-        <v>78258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -20663,11 +20309,8 @@
       <c r="M17" t="s">
         <v>163</v>
       </c>
-      <c r="P17">
-        <v>120022423</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -20705,11 +20348,8 @@
       <c r="M18" t="s">
         <v>166</v>
       </c>
-      <c r="P18">
-        <v>120024225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6</v>
       </c>
@@ -20747,11 +20387,8 @@
       <c r="M19" t="s">
         <v>169</v>
       </c>
-      <c r="P19">
-        <v>120026206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
@@ -20789,11 +20426,8 @@
       <c r="M20" t="s">
         <v>174</v>
       </c>
-      <c r="P20">
-        <v>120025752</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6</v>
       </c>
@@ -20831,11 +20465,8 @@
       <c r="M21" t="s">
         <v>179</v>
       </c>
-      <c r="P21">
-        <v>120024261</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
@@ -20873,11 +20504,8 @@
       <c r="M22" t="s">
         <v>182</v>
       </c>
-      <c r="P22">
-        <v>120022424</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7</v>
       </c>
@@ -20915,11 +20543,8 @@
       <c r="M23" t="s">
         <v>184</v>
       </c>
-      <c r="P23">
-        <v>120022493</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7</v>
       </c>
@@ -20954,11 +20579,8 @@
         <v>278</v>
       </c>
       <c r="L24" s="160"/>
-      <c r="P24">
-        <v>120026430</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>7</v>
       </c>
@@ -20993,11 +20615,8 @@
         <v>278</v>
       </c>
       <c r="L25" s="160"/>
-      <c r="P25">
-        <v>120028098</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7</v>
       </c>
@@ -21032,11 +20651,8 @@
         <v>278</v>
       </c>
       <c r="L26" s="160"/>
-      <c r="P26">
-        <v>120026747</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8</v>
       </c>
@@ -21070,11 +20686,8 @@
       <c r="K27" t="s">
         <v>278</v>
       </c>
-      <c r="P27">
-        <v>120024302</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8</v>
       </c>
@@ -21108,11 +20721,8 @@
       <c r="K28" t="s">
         <v>278</v>
       </c>
-      <c r="P28">
-        <v>120025788</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8</v>
       </c>
@@ -21146,11 +20756,8 @@
       <c r="K29" t="s">
         <v>278</v>
       </c>
-      <c r="P29">
-        <v>120030442</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>8</v>
       </c>
@@ -21184,11 +20791,8 @@
       <c r="K30" t="s">
         <v>278</v>
       </c>
-      <c r="P30">
-        <v>120025708</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8</v>
       </c>
@@ -21222,11 +20826,8 @@
       <c r="K31" t="s">
         <v>278</v>
       </c>
-      <c r="P31">
-        <v>120030449</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>8</v>
       </c>
@@ -21260,11 +20861,8 @@
       <c r="K32" t="s">
         <v>278</v>
       </c>
-      <c r="P32">
-        <v>120024614</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
@@ -21298,11 +20896,8 @@
       <c r="K33" t="s">
         <v>278</v>
       </c>
-      <c r="P33">
-        <v>120025332</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -21336,11 +20931,8 @@
       <c r="K34" t="s">
         <v>278</v>
       </c>
-      <c r="P34">
-        <v>120022887</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9</v>
       </c>
@@ -21374,11 +20966,8 @@
       <c r="K35" t="s">
         <v>278</v>
       </c>
-      <c r="P35">
-        <v>120030455</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9</v>
       </c>
@@ -21412,11 +21001,8 @@
       <c r="K36" t="s">
         <v>278</v>
       </c>
-      <c r="P36">
-        <v>120026345</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9</v>
       </c>
@@ -21450,11 +21036,8 @@
       <c r="K37" t="s">
         <v>278</v>
       </c>
-      <c r="P37">
-        <v>120029380</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>9</v>
       </c>
@@ -21488,11 +21071,8 @@
       <c r="K38" t="s">
         <v>278</v>
       </c>
-      <c r="P38">
-        <v>93587</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9</v>
       </c>
@@ -21526,11 +21106,8 @@
       <c r="K39" t="s">
         <v>278</v>
       </c>
-      <c r="P39">
-        <v>120022985</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9</v>
       </c>
@@ -21564,11 +21141,8 @@
       <c r="K40" t="s">
         <v>278</v>
       </c>
-      <c r="P40">
-        <v>92663</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>9</v>
       </c>
@@ -21602,11 +21176,8 @@
       <c r="K41" t="s">
         <v>278</v>
       </c>
-      <c r="P41">
-        <v>120024040</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>9</v>
       </c>
@@ -21640,11 +21211,8 @@
       <c r="K42" t="s">
         <v>278</v>
       </c>
-      <c r="P42">
-        <v>120030364</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9</v>
       </c>
@@ -21678,11 +21246,8 @@
       <c r="K43" t="s">
         <v>278</v>
       </c>
-      <c r="P43">
-        <v>120024886</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>9</v>
       </c>
@@ -21716,11 +21281,8 @@
       <c r="K44" t="s">
         <v>278</v>
       </c>
-      <c r="P44">
-        <v>120028580</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>9</v>
       </c>
@@ -21754,11 +21316,8 @@
       <c r="K45" t="s">
         <v>278</v>
       </c>
-      <c r="P45">
-        <v>120024376</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9</v>
       </c>
@@ -21792,11 +21351,8 @@
       <c r="K46" t="s">
         <v>278</v>
       </c>
-      <c r="P46">
-        <v>120027072</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>9</v>
       </c>
@@ -21830,11 +21386,8 @@
       <c r="K47" t="s">
         <v>278</v>
       </c>
-      <c r="P47">
-        <v>120030386</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>10</v>
       </c>
@@ -21868,11 +21421,8 @@
       <c r="K48" t="s">
         <v>278</v>
       </c>
-      <c r="P48">
-        <v>120030443</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>10</v>
       </c>
@@ -21906,11 +21456,8 @@
       <c r="K49" t="s">
         <v>278</v>
       </c>
-      <c r="P49">
-        <v>120025707</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10</v>
       </c>
@@ -21944,11 +21491,8 @@
       <c r="K50" t="s">
         <v>278</v>
       </c>
-      <c r="P50">
-        <v>120029381</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10</v>
       </c>
@@ -21982,11 +21526,8 @@
       <c r="K51" t="s">
         <v>278</v>
       </c>
-      <c r="P51">
-        <v>94010</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10</v>
       </c>
@@ -22020,11 +21561,8 @@
       <c r="K52" t="s">
         <v>278</v>
       </c>
-      <c r="P52">
-        <v>120025498</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>10</v>
       </c>
@@ -22058,11 +21596,8 @@
       <c r="K53" t="s">
         <v>278</v>
       </c>
-      <c r="P53">
-        <v>120030883</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>10</v>
       </c>
@@ -22096,11 +21631,8 @@
       <c r="K54" t="s">
         <v>278</v>
       </c>
-      <c r="P54">
-        <v>120022936</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10</v>
       </c>
@@ -22134,11 +21666,8 @@
       <c r="K55" t="s">
         <v>278</v>
       </c>
-      <c r="P55">
-        <v>120028579</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10</v>
       </c>
@@ -22172,11 +21701,8 @@
       <c r="K56" t="s">
         <v>278</v>
       </c>
-      <c r="P56">
-        <v>120029262</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>10</v>
       </c>
@@ -22210,11 +21736,8 @@
       <c r="K57" t="s">
         <v>278</v>
       </c>
-      <c r="P57">
-        <v>120030302</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>10</v>
       </c>
@@ -22248,11 +21771,8 @@
       <c r="K58" t="s">
         <v>278</v>
       </c>
-      <c r="P58">
-        <v>99830</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>10</v>
       </c>
@@ -22286,11 +21806,8 @@
       <c r="K59" t="s">
         <v>278</v>
       </c>
-      <c r="P59">
-        <v>120024307</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>11</v>
       </c>
@@ -22324,11 +21841,8 @@
       <c r="K60" t="s">
         <v>278</v>
       </c>
-      <c r="P60">
-        <v>120029260</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>11</v>
       </c>
@@ -22362,11 +21876,8 @@
       <c r="K61" t="s">
         <v>278</v>
       </c>
-      <c r="P61">
-        <v>120029384</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>11</v>
       </c>
@@ -22400,11 +21911,8 @@
       <c r="K62" t="s">
         <v>278</v>
       </c>
-      <c r="P62">
-        <v>120024255</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>11</v>
       </c>
@@ -22438,11 +21946,8 @@
       <c r="K63" t="s">
         <v>278</v>
       </c>
-      <c r="P63">
-        <v>120030466</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>11</v>
       </c>
@@ -22476,11 +21981,8 @@
       <c r="K64" t="s">
         <v>278</v>
       </c>
-      <c r="P64">
-        <v>79014</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>11</v>
       </c>
@@ -22514,11 +22016,8 @@
       <c r="K65" t="s">
         <v>278</v>
       </c>
-      <c r="P65">
-        <v>120022938</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>11</v>
       </c>
@@ -22552,11 +22051,8 @@
       <c r="K66" t="s">
         <v>278</v>
       </c>
-      <c r="P66">
-        <v>120029383</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>11</v>
       </c>
@@ -22590,11 +22086,8 @@
       <c r="K67" t="s">
         <v>278</v>
       </c>
-      <c r="P67">
-        <v>120024626</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>11</v>
       </c>
@@ -22628,11 +22121,8 @@
       <c r="K68" t="s">
         <v>278</v>
       </c>
-      <c r="P68">
-        <v>120023289</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>11</v>
       </c>
@@ -22666,11 +22156,8 @@
       <c r="K69" t="s">
         <v>278</v>
       </c>
-      <c r="P69">
-        <v>120025009</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>11</v>
       </c>
@@ -22704,11 +22191,8 @@
       <c r="K70" t="s">
         <v>278</v>
       </c>
-      <c r="P70">
-        <v>120024863</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>11</v>
       </c>
@@ -22742,11 +22226,8 @@
       <c r="K71" t="s">
         <v>278</v>
       </c>
-      <c r="P71">
-        <v>120027901</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>11</v>
       </c>
@@ -22780,11 +22261,8 @@
       <c r="K72" t="s">
         <v>278</v>
       </c>
-      <c r="P72">
-        <v>120024375</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>12</v>
       </c>
@@ -22818,11 +22296,8 @@
       <c r="K73" t="s">
         <v>278</v>
       </c>
-      <c r="P73">
-        <v>120026573</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>12</v>
       </c>
@@ -22856,11 +22331,8 @@
       <c r="K74" t="s">
         <v>278</v>
       </c>
-      <c r="P74">
-        <v>120026488</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>12</v>
       </c>
@@ -22894,11 +22366,8 @@
       <c r="K75" t="s">
         <v>278</v>
       </c>
-      <c r="P75">
-        <v>32990</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>12</v>
       </c>
@@ -22932,11 +22401,8 @@
       <c r="K76" t="s">
         <v>278</v>
       </c>
-      <c r="P76">
-        <v>120026491</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>12</v>
       </c>
@@ -22970,11 +22436,8 @@
       <c r="K77" t="s">
         <v>278</v>
       </c>
-      <c r="P77">
-        <v>120026492</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>12</v>
       </c>
@@ -23008,11 +22471,8 @@
       <c r="K78" t="s">
         <v>278</v>
       </c>
-      <c r="P78">
-        <v>47722</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>12</v>
       </c>
@@ -23046,11 +22506,8 @@
       <c r="K79" t="s">
         <v>278</v>
       </c>
-      <c r="P79">
-        <v>120026489</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>12</v>
       </c>
@@ -23084,11 +22541,8 @@
       <c r="K80" t="s">
         <v>278</v>
       </c>
-      <c r="P80">
-        <v>120026487</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>13</v>
       </c>
@@ -23122,11 +22576,8 @@
       <c r="K81" t="s">
         <v>278</v>
       </c>
-      <c r="P81">
-        <v>120027482</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>13</v>
       </c>
@@ -23160,11 +22611,8 @@
       <c r="K82" t="s">
         <v>278</v>
       </c>
-      <c r="P82">
-        <v>120030467</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>13</v>
       </c>
@@ -23198,11 +22646,8 @@
       <c r="K83" t="s">
         <v>278</v>
       </c>
-      <c r="P83">
-        <v>120027824</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>13</v>
       </c>
@@ -23236,11 +22681,8 @@
       <c r="K84" t="s">
         <v>278</v>
       </c>
-      <c r="P84">
-        <v>90005</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>13</v>
       </c>
@@ -23274,11 +22716,8 @@
       <c r="K85" t="s">
         <v>278</v>
       </c>
-      <c r="P85">
-        <v>120028904</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>13</v>
       </c>
@@ -23312,11 +22751,8 @@
       <c r="K86" t="s">
         <v>278</v>
       </c>
-      <c r="P86">
-        <v>120024377</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>13</v>
       </c>
@@ -23350,11 +22786,8 @@
       <c r="K87" t="s">
         <v>278</v>
       </c>
-      <c r="P87">
-        <v>120024969</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>13</v>
       </c>
@@ -23388,11 +22821,8 @@
       <c r="K88" t="s">
         <v>278</v>
       </c>
-      <c r="P88">
-        <v>120024892</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>13</v>
       </c>
@@ -23426,11 +22856,8 @@
       <c r="K89" t="s">
         <v>278</v>
       </c>
-      <c r="P89">
-        <v>99677</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>14</v>
       </c>
@@ -23464,11 +22891,8 @@
       <c r="K90" t="s">
         <v>278</v>
       </c>
-      <c r="P90">
-        <v>59421</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>14</v>
       </c>
@@ -23502,11 +22926,8 @@
       <c r="K91" t="s">
         <v>278</v>
       </c>
-      <c r="P91">
-        <v>82946</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>14</v>
       </c>
@@ -23540,11 +22961,8 @@
       <c r="K92" t="s">
         <v>278</v>
       </c>
-      <c r="P92">
-        <v>97324</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>14</v>
       </c>
@@ -23578,11 +22996,8 @@
       <c r="K93" t="s">
         <v>278</v>
       </c>
-      <c r="P93">
-        <v>120026634</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>14</v>
       </c>
@@ -23616,11 +23031,8 @@
       <c r="K94" t="s">
         <v>278</v>
       </c>
-      <c r="P94">
-        <v>120027080</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>14</v>
       </c>
@@ -23654,11 +23066,8 @@
       <c r="K95" t="s">
         <v>278</v>
       </c>
-      <c r="P95">
-        <v>120027441</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>14</v>
       </c>
@@ -23692,11 +23101,8 @@
       <c r="K96" t="s">
         <v>278</v>
       </c>
-      <c r="P96">
-        <v>120027806</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>14</v>
       </c>
@@ -23730,11 +23136,8 @@
       <c r="K97" t="s">
         <v>278</v>
       </c>
-      <c r="P97">
-        <v>120026620</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>14</v>
       </c>
@@ -23768,11 +23171,8 @@
       <c r="K98" t="s">
         <v>278</v>
       </c>
-      <c r="P98">
-        <v>120026626</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>15</v>
       </c>
@@ -23806,11 +23206,8 @@
       <c r="K99" t="s">
         <v>278</v>
       </c>
-      <c r="P99">
-        <v>96078</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>15</v>
       </c>
@@ -23844,11 +23241,8 @@
       <c r="K100" t="s">
         <v>278</v>
       </c>
-      <c r="P100">
-        <v>120027103</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>15</v>
       </c>
@@ -23882,11 +23276,8 @@
       <c r="K101" t="s">
         <v>278</v>
       </c>
-      <c r="P101">
-        <v>120027696</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>15</v>
       </c>
@@ -23920,11 +23311,8 @@
       <c r="K102" t="s">
         <v>278</v>
       </c>
-      <c r="P102">
-        <v>120029269</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>15</v>
       </c>
@@ -23958,11 +23346,8 @@
       <c r="K103" t="s">
         <v>278</v>
       </c>
-      <c r="P103">
-        <v>120030188</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>16</v>
       </c>
@@ -23996,11 +23381,8 @@
       <c r="K104" t="s">
         <v>278</v>
       </c>
-      <c r="P104">
-        <v>120030568</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>16</v>
       </c>
@@ -24034,11 +23416,8 @@
       <c r="K105" t="s">
         <v>278</v>
       </c>
-      <c r="P105">
-        <v>120030573</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>16</v>
       </c>
@@ -24072,11 +23451,8 @@
       <c r="K106" t="s">
         <v>278</v>
       </c>
-      <c r="P106">
-        <v>120030639</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>17</v>
       </c>
@@ -24110,11 +23486,8 @@
       <c r="K107" t="s">
         <v>278</v>
       </c>
-      <c r="P107">
-        <v>99802</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>17</v>
       </c>
@@ -24148,11 +23521,8 @@
       <c r="K108" t="s">
         <v>278</v>
       </c>
-      <c r="P108">
-        <v>120022942</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>17</v>
       </c>
@@ -24186,11 +23556,8 @@
       <c r="K109" t="s">
         <v>278</v>
       </c>
-      <c r="P109">
-        <v>120027412</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>18</v>
       </c>
@@ -24224,11 +23591,8 @@
       <c r="K110" t="s">
         <v>278</v>
       </c>
-      <c r="P110">
-        <v>120027481</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>18</v>
       </c>
@@ -24262,11 +23626,8 @@
       <c r="K111" t="s">
         <v>278</v>
       </c>
-      <c r="P111">
-        <v>120028362</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>19</v>
       </c>
@@ -24300,11 +23661,8 @@
       <c r="K112" t="s">
         <v>278</v>
       </c>
-      <c r="P112">
-        <v>120022957</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>19</v>
       </c>
@@ -24338,11 +23696,8 @@
       <c r="K113" t="s">
         <v>278</v>
       </c>
-      <c r="P113">
-        <v>120029638</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>20</v>
       </c>
@@ -24375,9 +23730,6 @@
       </c>
       <c r="K114" t="s">
         <v>278</v>
-      </c>
-      <c r="P114">
-        <v>92536</v>
       </c>
     </row>
   </sheetData>
@@ -24393,7 +23745,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
       <formula1>$M$2:$M$23</formula1>
     </dataValidation>
@@ -24407,7 +23759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист4"/>
   <dimension ref="B1:Q29"/>
@@ -24487,7 +23839,7 @@
       </c>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="175" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="69">
@@ -24532,12 +23884,12 @@
       <c r="P2" s="62">
         <v>1</v>
       </c>
-      <c r="Q2" s="177" t="s">
+      <c r="Q2" s="178" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="175"/>
+      <c r="B3" s="176"/>
       <c r="C3" s="69">
         <v>94206</v>
       </c>
@@ -24580,10 +23932,10 @@
       <c r="P3" s="62">
         <v>2</v>
       </c>
-      <c r="Q3" s="178"/>
+      <c r="Q3" s="179"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="175"/>
+      <c r="B4" s="176"/>
       <c r="C4" s="69">
         <v>92587</v>
       </c>
@@ -24626,10 +23978,10 @@
       <c r="P4" s="62">
         <v>3</v>
       </c>
-      <c r="Q4" s="178"/>
+      <c r="Q4" s="179"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="176"/>
+      <c r="B5" s="177"/>
       <c r="C5" s="69">
         <v>83838</v>
       </c>
@@ -24672,10 +24024,10 @@
       <c r="P5" s="62">
         <v>4</v>
       </c>
-      <c r="Q5" s="178"/>
+      <c r="Q5" s="179"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="174" t="s">
+      <c r="B6" s="175" t="s">
         <v>55</v>
       </c>
       <c r="C6" s="61">
@@ -24720,10 +24072,10 @@
       <c r="P6" s="54">
         <v>1</v>
       </c>
-      <c r="Q6" s="178"/>
+      <c r="Q6" s="179"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="175"/>
+      <c r="B7" s="176"/>
       <c r="C7" s="61">
         <v>73499</v>
       </c>
@@ -24766,10 +24118,10 @@
       <c r="P7" s="54">
         <v>2</v>
       </c>
-      <c r="Q7" s="178"/>
+      <c r="Q7" s="179"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="175"/>
+      <c r="B8" s="176"/>
       <c r="C8" s="61">
         <v>90317</v>
       </c>
@@ -24812,10 +24164,10 @@
       <c r="P8" s="54">
         <v>3</v>
       </c>
-      <c r="Q8" s="178"/>
+      <c r="Q8" s="179"/>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="176"/>
+      <c r="B9" s="177"/>
       <c r="C9" s="61">
         <v>56096</v>
       </c>
@@ -24858,10 +24210,10 @@
       <c r="P9" s="54">
         <v>4</v>
       </c>
-      <c r="Q9" s="178"/>
+      <c r="Q9" s="179"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="174" t="s">
+      <c r="B10" s="175" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="53">
@@ -24906,10 +24258,10 @@
       <c r="P10" s="46">
         <v>1</v>
       </c>
-      <c r="Q10" s="178"/>
+      <c r="Q10" s="179"/>
     </row>
     <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="176"/>
+      <c r="B11" s="177"/>
       <c r="C11" s="53">
         <v>83805</v>
       </c>
@@ -24952,13 +24304,13 @@
       <c r="P11" s="46">
         <v>2</v>
       </c>
-      <c r="Q11" s="179"/>
+      <c r="Q11" s="180"/>
     </row>
     <row r="12" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="18"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="174" t="s">
+      <c r="B13" s="175" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="45"/>
@@ -25001,12 +24353,12 @@
       <c r="P13" s="35">
         <v>1</v>
       </c>
-      <c r="Q13" s="177" t="s">
+      <c r="Q13" s="178" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="176"/>
+      <c r="B14" s="177"/>
       <c r="C14" s="42">
         <v>56205</v>
       </c>
@@ -25049,10 +24401,10 @@
       <c r="P14" s="35">
         <v>2</v>
       </c>
-      <c r="Q14" s="178"/>
+      <c r="Q14" s="179"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="174" t="s">
+      <c r="B15" s="175" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="34">
@@ -25097,10 +24449,10 @@
       <c r="P15" s="27">
         <v>1</v>
       </c>
-      <c r="Q15" s="178"/>
+      <c r="Q15" s="179"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="175"/>
+      <c r="B16" s="176"/>
       <c r="C16" s="34">
         <v>91020</v>
       </c>
@@ -25143,10 +24495,10 @@
       <c r="P16" s="27">
         <v>2</v>
       </c>
-      <c r="Q16" s="178"/>
+      <c r="Q16" s="179"/>
     </row>
     <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="176"/>
+      <c r="B17" s="177"/>
       <c r="C17" s="34">
         <v>84183</v>
       </c>
@@ -25189,13 +24541,13 @@
       <c r="P17" s="27">
         <v>3</v>
       </c>
-      <c r="Q17" s="179"/>
+      <c r="Q17" s="180"/>
     </row>
     <row r="18" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="18"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="174" t="s">
+      <c r="B19" s="175" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="26">
@@ -25240,12 +24592,12 @@
       <c r="P19" s="19">
         <v>1</v>
       </c>
-      <c r="Q19" s="177" t="s">
+      <c r="Q19" s="178" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="175"/>
+      <c r="B20" s="176"/>
       <c r="C20" s="26">
         <v>56161</v>
       </c>
@@ -25288,10 +24640,10 @@
       <c r="P20" s="19">
         <v>2</v>
       </c>
-      <c r="Q20" s="178"/>
+      <c r="Q20" s="179"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="175"/>
+      <c r="B21" s="176"/>
       <c r="C21" s="26">
         <v>59425</v>
       </c>
@@ -25334,10 +24686,10 @@
       <c r="P21" s="19">
         <v>3</v>
       </c>
-      <c r="Q21" s="178"/>
+      <c r="Q21" s="179"/>
     </row>
     <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="176"/>
+      <c r="B22" s="177"/>
       <c r="C22" s="26">
         <v>94012</v>
       </c>
@@ -25380,13 +24732,13 @@
       <c r="P22" s="19">
         <v>4</v>
       </c>
-      <c r="Q22" s="179"/>
+      <c r="Q22" s="180"/>
     </row>
     <row r="23" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="18"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="174" t="s">
+      <c r="B24" s="175" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="15">
@@ -25431,12 +24783,12 @@
       <c r="P24" s="8">
         <v>1</v>
       </c>
-      <c r="Q24" s="177" t="s">
+      <c r="Q24" s="178" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="175"/>
+      <c r="B25" s="176"/>
       <c r="C25" s="15">
         <v>60102</v>
       </c>
@@ -25479,10 +24831,10 @@
       <c r="P25" s="8">
         <v>2</v>
       </c>
-      <c r="Q25" s="178"/>
+      <c r="Q25" s="179"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="175"/>
+      <c r="B26" s="176"/>
       <c r="C26" s="17">
         <v>57317</v>
       </c>
@@ -25525,10 +24877,10 @@
       <c r="P26" s="8">
         <v>3</v>
       </c>
-      <c r="Q26" s="178"/>
+      <c r="Q26" s="179"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="175"/>
+      <c r="B27" s="176"/>
       <c r="C27" s="15">
         <v>78258</v>
       </c>
@@ -25571,10 +24923,10 @@
       <c r="P27" s="8">
         <v>4</v>
       </c>
-      <c r="Q27" s="178"/>
+      <c r="Q27" s="179"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="175"/>
+      <c r="B28" s="176"/>
       <c r="C28" s="15">
         <v>59019</v>
       </c>
@@ -25617,10 +24969,10 @@
       <c r="P28" s="8">
         <v>5</v>
       </c>
-      <c r="Q28" s="178"/>
+      <c r="Q28" s="179"/>
     </row>
     <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="176"/>
+      <c r="B29" s="177"/>
       <c r="C29" s="15">
         <v>92968</v>
       </c>
@@ -25663,7 +25015,7 @@
       <c r="P29" s="8">
         <v>6</v>
       </c>
-      <c r="Q29" s="179"/>
+      <c r="Q29" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -25680,32 +25032,32 @@
     <mergeCell ref="B15:B17"/>
   </mergeCells>
   <conditionalFormatting sqref="D19:D22">
-    <cfRule type="duplicateValues" dxfId="50" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="duplicateValues" dxfId="49" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D17">
-    <cfRule type="duplicateValues" dxfId="48" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="duplicateValues" dxfId="47" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D29">
-    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D9">
-    <cfRule type="duplicateValues" dxfId="45" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="duplicateValues" dxfId="44" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:N114"/>
@@ -30776,64 +30128,64 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="duplicateValues" dxfId="43" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="duplicateValues" dxfId="42" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B8">
-    <cfRule type="duplicateValues" dxfId="41" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="duplicateValues" dxfId="40" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="duplicateValues" dxfId="39" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B22">
-    <cfRule type="duplicateValues" dxfId="38" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B26">
-    <cfRule type="duplicateValues" dxfId="37" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B33">
-    <cfRule type="duplicateValues" dxfId="36" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B47">
-    <cfRule type="duplicateValues" dxfId="35" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B52 B54:B59">
-    <cfRule type="duplicateValues" dxfId="34" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="33" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B72">
-    <cfRule type="duplicateValues" dxfId="32" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B80">
-    <cfRule type="duplicateValues" dxfId="31" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B89">
-    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B98">
-    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B103">
-    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B106">
-    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107:B114">
-    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
   <dimension ref="B1:U2"/>
@@ -30940,13 +30292,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист8"/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30962,7 +30314,7 @@
         <v>280</v>
       </c>
       <c r="B1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -30980,10 +30332,10 @@
     </row>
     <row r="4" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="172" t="s">
-        <v>287</v>
-      </c>
-      <c r="B4" s="180" t="s">
-        <v>289</v>
+        <v>284</v>
+      </c>
+      <c r="B4" s="174" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -31002,7 +30354,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="173" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -31010,7 +30362,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="173" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -31018,7 +30370,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="173" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -31034,7 +30386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист7"/>
   <dimension ref="B2:D25"/>

--- a/DomesticTransport/DomesticTransport.xlsx
+++ b/DomesticTransport/DomesticTransport.xlsx
@@ -5,16 +5,16 @@
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Msol\domestic\DomesticTransport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\Sheffler\DomesticTransport\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="7005"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="7005" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery" sheetId="2" r:id="rId1"/>
     <sheet name="Rate" sheetId="3" r:id="rId2"/>
-    <sheet name="Rate Intrnational" sheetId="12" r:id="rId3"/>
+    <sheet name="Rate Inetrnational" sheetId="12" r:id="rId3"/>
     <sheet name="Routes" sheetId="10" r:id="rId4"/>
     <sheet name="ZoneCustomer" sheetId="4" state="hidden" r:id="rId5"/>
     <sheet name="Customers" sheetId="5" state="hidden" r:id="rId6"/>
@@ -24,7 +24,7 @@
   </sheets>
   <definedNames>
     <definedName name="DateDelivery">Delivery!$C$2</definedName>
-    <definedName name="MessageText">Сообщения!$B$3</definedName>
+    <definedName name="MessageText">Сообщения!$B$10</definedName>
     <definedName name="weght">Rate!$M$5</definedName>
     <definedName name="weghtCell">Rate!$M$5</definedName>
   </definedNames>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4546" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4558" uniqueCount="299">
   <si>
     <t>Перевозчик</t>
   </si>
@@ -963,27 +963,7 @@
 В приложении отгрузка на [date], прошу принять к работе и прислать до 17-00.</t>
   </si>
   <si>
-    <t>Подпись</t>
-  </si>
-  <si>
     <t>Заявка грузоперевозки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best Regards,  
-Alexey Potapkin  
-Transport management   
-Bitmap  
-OOO Schaeffler Russland  
-1. Kasatschi Pereulok 7  
-119017 Moscow  
-Tel.     +7 (495) 120-01-72   
-Mob.  +7 (916) 420-10-80  
-potapaex@schaeffler.com   ·  www.schaeffler.com ·  www.schaeffler.de  
-Registered Seat: Herzogenaurach, Commercial Register: AG Fürth HRB 14738  
-Chairman of the Supervisory Board: Georg F. W. Schaeffler  
-Board of Managing Directors:   
-Klaus Rosenfeld (CEO), Prof. Dr. Peter Gutzmer (Deputy CEO), Dietmar Heinrich, Prof. Dr. Peter Pleus, Andreas Schick, Corinna Schittenhelm, Michael Soeding, Dr. Stefan Spindler, Matthias Zink 
-</t>
   </si>
   <si>
     <t>GTLS@gmail.com</t>
@@ -994,12 +974,57 @@
   <si>
     <t>QB@qb.com</t>
   </si>
+  <si>
+    <t>Ответственное лицо</t>
+  </si>
+  <si>
+    <t>Тел</t>
+  </si>
+  <si>
+    <t>Адрес</t>
+  </si>
+  <si>
+    <t>OOO Schaeffler Russland</t>
+  </si>
+  <si>
+    <t>1. Kasatschi Pereulok 7</t>
+  </si>
+  <si>
+    <t>Alexey Potapkin</t>
+  </si>
+  <si>
+    <r>
+      <t>potapaex@schaeffler.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">   ·  www.schaeffler.com ·  www.schaeffler.de</t>
+    </r>
+  </si>
+  <si>
+    <t>Моб</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (495) 120-01-72 </t>
+  </si>
+  <si>
+    <t>+7 (916) 420-10-80</t>
+  </si>
+  <si>
+    <t>119017 Moscow</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1218,8 +1243,40 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1306,6 +1363,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1561,7 +1624,7 @@
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2001,12 +2064,30 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2026,21 +2107,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel Built-in Normal" xfId="4"/>
@@ -2052,375 +2118,6 @@
     <cellStyle name="Обычный 4" xfId="1"/>
   </cellStyles>
   <dxfs count="95">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2747,6 +2444,256 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="9" tint="0.39997558519241921"/>
@@ -2802,6 +2749,125 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3311,21 +3377,21 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TableRateInternational" displayName="TableRateInternational" ref="A1:E100" totalsRowShown="0" dataDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TableRateInternational" displayName="TableRateInternational" ref="A1:E100" totalsRowShown="0" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60">
   <autoFilter ref="A1:E100"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Place of shipment" dataDxfId="5"/>
-    <tableColumn id="2" name="Place of delivery" dataDxfId="4"/>
-    <tableColumn id="3" name="Company" dataDxfId="3"/>
-    <tableColumn id="4" name="tonnage, t" dataDxfId="2"/>
-    <tableColumn id="5" name="vehicle" dataDxfId="1"/>
+    <tableColumn id="1" name="Place of shipment" dataDxfId="59"/>
+    <tableColumn id="2" name="Place of delivery" dataDxfId="58"/>
+    <tableColumn id="3" name="Company" dataDxfId="57"/>
+    <tableColumn id="4" name="tonnage, t" dataDxfId="56"/>
+    <tableColumn id="5" name="vehicle" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="TableRoutes" displayName="TableRoutes" ref="A1:K115" totalsRowShown="0" headerRowDxfId="62" headerRowBorderDxfId="61" tableBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="TableRoutes" displayName="TableRoutes" ref="A1:K115" totalsRowShown="0" headerRowDxfId="54" headerRowBorderDxfId="53" tableBorderDxfId="52">
   <autoFilter ref="A1:K115"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Id route"/>
@@ -3345,7 +3411,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TableCity" displayName="TableCity" ref="M1:M23" totalsRowShown="0" tableBorderDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TableCity" displayName="TableCity" ref="M1:M23" totalsRowShown="0" tableBorderDxfId="51">
   <autoFilter ref="M1:M23"/>
   <tableColumns count="1">
     <tableColumn id="1" name="City"/>
@@ -3355,37 +3421,37 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TableTotal" displayName="TableTotal" ref="B2:U3" insertRow="1" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55" headerRowCellStyle="Акцент6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TableTotal" displayName="TableTotal" ref="B2:U3" insertRow="1" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" headerRowCellStyle="Акцент6">
   <autoFilter ref="B2:U3"/>
   <tableColumns count="20">
-    <tableColumn id="20" name="Дата доставки" dataDxfId="54"/>
-    <tableColumn id="1" name="ID перевозчика" dataDxfId="53"/>
-    <tableColumn id="2" name="Перевозчик" dataDxfId="52"/>
-    <tableColumn id="3" name="Тип ТС, тонн" dataDxfId="51"/>
-    <tableColumn id="4" name="Водитель (ФИО)" dataDxfId="50"/>
-    <tableColumn id="5" name="Номер,марка" dataDxfId="49"/>
-    <tableColumn id="6" name="Телефон водителя" dataDxfId="48"/>
-    <tableColumn id="19" name="№ Доставки" dataDxfId="47"/>
-    <tableColumn id="7" name="Город" dataDxfId="46"/>
-    <tableColumn id="8" name="Направление" dataDxfId="45"/>
-    <tableColumn id="9" name="Порядок выгрузки" dataDxfId="44"/>
-    <tableColumn id="10" name="Номер грузополучателя" dataDxfId="43"/>
-    <tableColumn id="11" name="Номер накладной" dataDxfId="42"/>
-    <tableColumn id="12" name="Номер поставки" dataDxfId="41"/>
-    <tableColumn id="13" name="Грузополучатель" dataDxfId="40"/>
-    <tableColumn id="14" name="Брутто вес" dataDxfId="39"/>
-    <tableColumn id="15" name="Нетто вес" dataDxfId="38"/>
-    <tableColumn id="16" name="Кол-во паллет" dataDxfId="37"/>
-    <tableColumn id="17" name="Стоимость поставки" dataDxfId="36"/>
-    <tableColumn id="18" name="Стоимость доставки" dataDxfId="35"/>
+    <tableColumn id="20" name="Дата доставки" dataDxfId="21"/>
+    <tableColumn id="1" name="ID перевозчика" dataDxfId="20"/>
+    <tableColumn id="2" name="Перевозчик" dataDxfId="19"/>
+    <tableColumn id="3" name="Тип ТС, тонн" dataDxfId="18"/>
+    <tableColumn id="4" name="Водитель (ФИО)" dataDxfId="17"/>
+    <tableColumn id="5" name="Номер,марка" dataDxfId="16"/>
+    <tableColumn id="6" name="Телефон водителя" dataDxfId="15"/>
+    <tableColumn id="19" name="№ Доставки" dataDxfId="14"/>
+    <tableColumn id="7" name="Город" dataDxfId="13"/>
+    <tableColumn id="8" name="Направление" dataDxfId="12"/>
+    <tableColumn id="9" name="Порядок выгрузки" dataDxfId="11"/>
+    <tableColumn id="10" name="Номер грузополучателя" dataDxfId="10"/>
+    <tableColumn id="11" name="Номер накладной" dataDxfId="9"/>
+    <tableColumn id="12" name="Номер поставки" dataDxfId="8"/>
+    <tableColumn id="13" name="Грузополучатель" dataDxfId="7"/>
+    <tableColumn id="14" name="Брутто вес" dataDxfId="6"/>
+    <tableColumn id="15" name="Нетто вес" dataDxfId="5"/>
+    <tableColumn id="16" name="Кол-во паллет" dataDxfId="4"/>
+    <tableColumn id="17" name="Стоимость поставки" dataDxfId="3"/>
+    <tableColumn id="18" name="Стоимость доставки" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="TableEmail" displayName="TableEmail" ref="A6:B9" totalsRowShown="0">
-  <autoFilter ref="A6:B9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="TableEmail" displayName="TableEmail" ref="A12:B15" totalsRowShown="0">
+  <autoFilter ref="A12:B15"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Компания"/>
     <tableColumn id="2" name="Email"/>
@@ -3399,8 +3465,8 @@
   <autoFilter ref="B2:D25"/>
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Компания" dataDxfId="34"/>
-    <tableColumn id="3" name="Получатель письма" dataDxfId="33" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="2" name="Компания" dataDxfId="1"/>
+    <tableColumn id="3" name="Получатель письма" dataDxfId="0" dataCellStyle="Гиперссылка"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3706,8 +3772,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="B1:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3731,7 +3797,7 @@
       </c>
       <c r="C2" s="164">
         <f ca="1">TODAY()+1</f>
-        <v>43917</v>
+        <v>43921</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3810,13 +3876,13 @@
   <sheetPr codeName="Лист6"/>
   <dimension ref="A1:J428"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J3"/>
+    <sheetView showGridLines="0" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.140625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
@@ -17902,10 +17968,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист9"/>
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17918,1702 +17985,1702 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="185" t="s">
+      <c r="B1" s="177" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="186" t="s">
+      <c r="C1" s="178" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="186" t="s">
+      <c r="D1" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="187" t="s">
+      <c r="E1" s="179" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="174" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="182" t="s">
+      <c r="C2" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="182">
+      <c r="D2" s="174">
         <v>0.1</v>
       </c>
-      <c r="E2" s="182">
+      <c r="E2" s="174">
         <v>9000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C3" s="181" t="s">
+      <c r="C3" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="181">
+      <c r="D3" s="173">
         <v>0.1</v>
       </c>
-      <c r="E3" s="181">
+      <c r="E3" s="173">
         <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="182" t="s">
+      <c r="A4" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B4" s="182" t="s">
+      <c r="B4" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="C4" s="182" t="s">
+      <c r="C4" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="182">
+      <c r="D4" s="174">
         <v>0.1</v>
       </c>
-      <c r="E4" s="182">
+      <c r="E4" s="174">
         <v>13996</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="181" t="s">
+      <c r="A5" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B5" s="181" t="s">
+      <c r="B5" s="173" t="s">
         <v>166</v>
       </c>
-      <c r="C5" s="181" t="s">
+      <c r="C5" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="181">
+      <c r="D5" s="173">
         <v>0.2</v>
       </c>
-      <c r="E5" s="181">
+      <c r="E5" s="173">
         <v>8322</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="182" t="s">
+      <c r="A6" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B6" s="182" t="s">
+      <c r="B6" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="C6" s="182" t="s">
+      <c r="C6" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="182">
+      <c r="D6" s="174">
         <v>0.2</v>
       </c>
-      <c r="E6" s="182">
+      <c r="E6" s="174">
         <v>9790</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="181" t="s">
+      <c r="A7" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B7" s="181" t="s">
+      <c r="B7" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C7" s="181" t="s">
+      <c r="C7" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="181">
+      <c r="D7" s="173">
         <v>0.2</v>
       </c>
-      <c r="E7" s="181">
+      <c r="E7" s="173">
         <v>11681</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="182" t="s">
+      <c r="A8" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B8" s="182" t="s">
+      <c r="B8" s="174" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="182" t="s">
+      <c r="C8" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="182">
+      <c r="D8" s="174">
         <v>0.3</v>
       </c>
-      <c r="E8" s="182">
+      <c r="E8" s="174">
         <v>8079</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="181" t="s">
+      <c r="A9" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B9" s="181" t="s">
+      <c r="B9" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C9" s="181" t="s">
+      <c r="C9" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="181">
+      <c r="D9" s="173">
         <v>0.3</v>
       </c>
-      <c r="E9" s="181">
+      <c r="E9" s="173">
         <v>9505</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="182" t="s">
+      <c r="A10" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B10" s="182" t="s">
+      <c r="B10" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="C10" s="182" t="s">
+      <c r="C10" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="182">
+      <c r="D10" s="174">
         <v>0.3</v>
       </c>
-      <c r="E10" s="182">
+      <c r="E10" s="174">
         <v>10541</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="181" t="s">
+      <c r="A11" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B11" s="181" t="s">
+      <c r="B11" s="173" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="181" t="s">
+      <c r="C11" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="181">
+      <c r="D11" s="173">
         <v>0.4</v>
       </c>
-      <c r="E11" s="181">
+      <c r="E11" s="173">
         <v>7844</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="182" t="s">
+      <c r="A12" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B12" s="182" t="s">
+      <c r="B12" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="C12" s="182" t="s">
+      <c r="C12" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="182">
+      <c r="D12" s="174">
         <v>0.4</v>
       </c>
-      <c r="E12" s="182">
+      <c r="E12" s="174">
         <v>9228</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="181" t="s">
+      <c r="A13" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B13" s="181" t="s">
+      <c r="B13" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C13" s="181" t="s">
+      <c r="C13" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="181">
+      <c r="D13" s="173">
         <v>0.4</v>
       </c>
-      <c r="E13" s="181">
+      <c r="E13" s="173">
         <v>9844</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="182" t="s">
+      <c r="A14" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B14" s="182" t="s">
+      <c r="B14" s="174" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="182" t="s">
+      <c r="C14" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="182">
+      <c r="D14" s="174">
         <v>0.5</v>
       </c>
-      <c r="E14" s="182">
+      <c r="E14" s="174">
         <v>7616</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="181" t="s">
+      <c r="A15" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B15" s="181" t="s">
+      <c r="B15" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C15" s="181" t="s">
+      <c r="C15" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="181">
+      <c r="D15" s="173">
         <v>0.5</v>
       </c>
-      <c r="E15" s="181">
+      <c r="E15" s="173">
         <v>8959</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="182" t="s">
+      <c r="A16" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B16" s="182" t="s">
+      <c r="B16" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="C16" s="182" t="s">
+      <c r="C16" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="182">
+      <c r="D16" s="174">
         <v>0.5</v>
       </c>
-      <c r="E16" s="182">
+      <c r="E16" s="174">
         <v>9993</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="181" t="s">
+      <c r="A17" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B17" s="181" t="s">
+      <c r="B17" s="173" t="s">
         <v>166</v>
       </c>
-      <c r="C17" s="181" t="s">
+      <c r="C17" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="181">
+      <c r="D17" s="173">
         <v>0.6</v>
       </c>
-      <c r="E17" s="181">
+      <c r="E17" s="173">
         <v>7394</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="182" t="s">
+      <c r="A18" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B18" s="182" t="s">
+      <c r="B18" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="C18" s="182" t="s">
+      <c r="C18" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="182">
+      <c r="D18" s="174">
         <v>0.6</v>
       </c>
-      <c r="E18" s="182">
+      <c r="E18" s="174">
         <v>8698</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="181" t="s">
+      <c r="A19" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B19" s="181" t="s">
+      <c r="B19" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C19" s="181" t="s">
+      <c r="C19" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="181">
+      <c r="D19" s="173">
         <v>0.6</v>
       </c>
-      <c r="E19" s="181">
+      <c r="E19" s="173">
         <v>9600</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="182" t="s">
+      <c r="A20" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B20" s="182" t="s">
+      <c r="B20" s="174" t="s">
         <v>166</v>
       </c>
-      <c r="C20" s="182" t="s">
+      <c r="C20" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="182">
+      <c r="D20" s="174">
         <v>0.7</v>
       </c>
-      <c r="E20" s="182">
+      <c r="E20" s="174">
         <v>7178</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="181" t="s">
+      <c r="A21" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B21" s="181" t="s">
+      <c r="B21" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C21" s="181" t="s">
+      <c r="C21" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="181">
+      <c r="D21" s="173">
         <v>0.7</v>
       </c>
-      <c r="E21" s="181">
+      <c r="E21" s="173">
         <v>8445</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="182" t="s">
+      <c r="A22" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B22" s="182" t="s">
+      <c r="B22" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="C22" s="182" t="s">
+      <c r="C22" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="182">
+      <c r="D22" s="174">
         <v>0.7</v>
       </c>
-      <c r="E22" s="182">
+      <c r="E22" s="174">
         <v>9296</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="181" t="s">
+      <c r="A23" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B23" s="181" t="s">
+      <c r="B23" s="173" t="s">
         <v>166</v>
       </c>
-      <c r="C23" s="181" t="s">
+      <c r="C23" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="181">
+      <c r="D23" s="173">
         <v>0.8</v>
       </c>
-      <c r="E23" s="181">
+      <c r="E23" s="173">
         <v>6969</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="182" t="s">
+      <c r="A24" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B24" s="182" t="s">
+      <c r="B24" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="C24" s="182" t="s">
+      <c r="C24" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="182">
+      <c r="D24" s="174">
         <v>0.8</v>
       </c>
-      <c r="E24" s="182">
+      <c r="E24" s="174">
         <v>8199</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="181" t="s">
+      <c r="A25" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B25" s="181" t="s">
+      <c r="B25" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C25" s="181" t="s">
+      <c r="C25" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="181">
+      <c r="D25" s="173">
         <v>0.8</v>
       </c>
-      <c r="E25" s="181">
+      <c r="E25" s="173">
         <v>9078</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="182" t="s">
+      <c r="A26" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B26" s="182" t="s">
+      <c r="B26" s="174" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="182" t="s">
+      <c r="C26" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="182">
+      <c r="D26" s="174">
         <v>0.9</v>
       </c>
-      <c r="E26" s="182">
+      <c r="E26" s="174">
         <v>6766</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="181" t="s">
+      <c r="A27" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B27" s="181" t="s">
+      <c r="B27" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C27" s="181" t="s">
+      <c r="C27" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="181">
+      <c r="D27" s="173">
         <v>0.9</v>
       </c>
-      <c r="E27" s="181">
+      <c r="E27" s="173">
         <v>7960</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B28" s="182" t="s">
+      <c r="B28" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="C28" s="182" t="s">
+      <c r="C28" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="182">
+      <c r="D28" s="174">
         <v>0.9</v>
       </c>
-      <c r="E28" s="182">
+      <c r="E28" s="174">
         <v>8167</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="181" t="s">
+      <c r="A29" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B29" s="181" t="s">
+      <c r="B29" s="173" t="s">
         <v>166</v>
       </c>
-      <c r="C29" s="181" t="s">
+      <c r="C29" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="181">
-        <v>1</v>
-      </c>
-      <c r="E29" s="181">
+      <c r="D29" s="173">
+        <v>1</v>
+      </c>
+      <c r="E29" s="173">
         <v>6569</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="182" t="s">
+      <c r="A30" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B30" s="182" t="s">
+      <c r="B30" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="C30" s="182" t="s">
+      <c r="C30" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="182">
-        <v>1</v>
-      </c>
-      <c r="E30" s="182">
+      <c r="D30" s="174">
+        <v>1</v>
+      </c>
+      <c r="E30" s="174">
         <v>7728</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="181" t="s">
+      <c r="A31" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B31" s="181" t="s">
+      <c r="B31" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C31" s="181" t="s">
+      <c r="C31" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="181">
-        <v>1</v>
-      </c>
-      <c r="E31" s="181">
+      <c r="D31" s="173">
+        <v>1</v>
+      </c>
+      <c r="E31" s="173">
         <v>7350</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="182" t="s">
+      <c r="A32" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B32" s="182" t="s">
+      <c r="B32" s="174" t="s">
         <v>166</v>
       </c>
-      <c r="C32" s="182" t="s">
+      <c r="C32" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="182">
+      <c r="D32" s="174">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E32" s="182">
+      <c r="E32" s="174">
         <v>6378</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="181" t="s">
+      <c r="A33" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B33" s="181" t="s">
+      <c r="B33" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C33" s="181" t="s">
+      <c r="C33" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="181">
+      <c r="D33" s="173">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E33" s="181">
+      <c r="E33" s="173">
         <v>7503</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="182" t="s">
+      <c r="A34" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B34" s="182" t="s">
+      <c r="B34" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="C34" s="182" t="s">
+      <c r="C34" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="182">
+      <c r="D34" s="174">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E34" s="182">
+      <c r="E34" s="174">
         <v>6682</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="181" t="s">
+      <c r="A35" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B35" s="181" t="s">
+      <c r="B35" s="173" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="181" t="s">
+      <c r="C35" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="181">
+      <c r="D35" s="173">
         <v>1.2</v>
       </c>
-      <c r="E35" s="181">
+      <c r="E35" s="173">
         <v>6192</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="182" t="s">
+      <c r="A36" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B36" s="182" t="s">
+      <c r="B36" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="C36" s="182" t="s">
+      <c r="C36" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="182">
+      <c r="D36" s="174">
         <v>1.2</v>
       </c>
-      <c r="E36" s="182">
+      <c r="E36" s="174">
         <v>7285</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="181" t="s">
+      <c r="A37" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B37" s="181" t="s">
+      <c r="B37" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C37" s="181" t="s">
+      <c r="C37" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="181">
+      <c r="D37" s="173">
         <v>1.2</v>
       </c>
-      <c r="E37" s="181">
+      <c r="E37" s="173">
         <v>6125</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="182" t="s">
+      <c r="A38" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B38" s="182" t="s">
+      <c r="B38" s="174" t="s">
         <v>166</v>
       </c>
-      <c r="C38" s="182" t="s">
+      <c r="C38" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="182">
+      <c r="D38" s="174">
         <v>1.3</v>
       </c>
-      <c r="E38" s="182">
+      <c r="E38" s="174">
         <v>6012</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="181" t="s">
+      <c r="A39" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B39" s="181" t="s">
+      <c r="B39" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C39" s="181" t="s">
+      <c r="C39" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="181">
+      <c r="D39" s="173">
         <v>1.3</v>
       </c>
-      <c r="E39" s="181">
+      <c r="E39" s="173">
         <v>7073</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="182" t="s">
+      <c r="A40" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B40" s="182" t="s">
+      <c r="B40" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="C40" s="182" t="s">
+      <c r="C40" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="182">
+      <c r="D40" s="174">
         <v>1.3</v>
       </c>
-      <c r="E40" s="182">
+      <c r="E40" s="174">
         <v>5654</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="181" t="s">
+      <c r="A41" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B41" s="181" t="s">
+      <c r="B41" s="173" t="s">
         <v>166</v>
       </c>
-      <c r="C41" s="181" t="s">
+      <c r="C41" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="181">
+      <c r="D41" s="173">
         <v>1.4</v>
       </c>
-      <c r="E41" s="181">
+      <c r="E41" s="173">
         <v>5837</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="182" t="s">
+      <c r="A42" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B42" s="182" t="s">
+      <c r="B42" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="C42" s="182" t="s">
+      <c r="C42" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="182">
+      <c r="D42" s="174">
         <v>1.4</v>
       </c>
-      <c r="E42" s="182">
+      <c r="E42" s="174">
         <v>6867</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="181" t="s">
+      <c r="A43" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B43" s="181" t="s">
+      <c r="B43" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C43" s="181" t="s">
+      <c r="C43" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="181">
+      <c r="D43" s="173">
         <v>1.4</v>
       </c>
-      <c r="E43" s="181">
+      <c r="E43" s="173">
         <v>5250</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="182" t="s">
+      <c r="A44" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B44" s="182" t="s">
+      <c r="B44" s="174" t="s">
         <v>166</v>
       </c>
-      <c r="C44" s="182" t="s">
+      <c r="C44" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="182">
+      <c r="D44" s="174">
         <v>1.5</v>
       </c>
-      <c r="E44" s="182">
+      <c r="E44" s="174">
         <v>5667</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="181" t="s">
+      <c r="A45" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B45" s="181" t="s">
+      <c r="B45" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C45" s="181" t="s">
+      <c r="C45" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="181">
+      <c r="D45" s="173">
         <v>1.5</v>
       </c>
-      <c r="E45" s="181">
+      <c r="E45" s="173">
         <v>6667</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="182" t="s">
+      <c r="A46" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B46" s="182" t="s">
+      <c r="B46" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="C46" s="182" t="s">
+      <c r="C46" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="182">
+      <c r="D46" s="174">
         <v>1.5</v>
       </c>
-      <c r="E46" s="182">
+      <c r="E46" s="174">
         <v>4900</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="181" t="s">
+      <c r="A47" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B47" s="181" t="s">
+      <c r="B47" s="173" t="s">
         <v>166</v>
       </c>
-      <c r="C47" s="181" t="s">
+      <c r="C47" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="181">
+      <c r="D47" s="173">
         <v>1.6</v>
       </c>
-      <c r="E47" s="181">
+      <c r="E47" s="173">
         <v>5469</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="182" t="s">
+      <c r="A48" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B48" s="182" t="s">
+      <c r="B48" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="C48" s="182" t="s">
+      <c r="C48" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="182">
+      <c r="D48" s="174">
         <v>1.6</v>
       </c>
-      <c r="E48" s="182">
+      <c r="E48" s="174">
         <v>6563</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="181" t="s">
+      <c r="A49" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B49" s="181" t="s">
+      <c r="B49" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C49" s="181" t="s">
+      <c r="C49" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="181">
+      <c r="D49" s="173">
         <v>1.6</v>
       </c>
-      <c r="E49" s="181">
+      <c r="E49" s="173">
         <v>6759</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="182" t="s">
+      <c r="A50" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B50" s="182" t="s">
+      <c r="B50" s="174" t="s">
         <v>166</v>
       </c>
-      <c r="C50" s="182" t="s">
+      <c r="C50" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="182">
+      <c r="D50" s="174">
         <v>1.7</v>
       </c>
-      <c r="E50" s="182">
+      <c r="E50" s="174">
         <v>5279</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="181" t="s">
+      <c r="A51" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B51" s="181" t="s">
+      <c r="B51" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C51" s="181" t="s">
+      <c r="C51" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="181">
+      <c r="D51" s="173">
         <v>1.7</v>
       </c>
-      <c r="E51" s="181">
+      <c r="E51" s="173">
         <v>6335</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="182" t="s">
+      <c r="A52" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B52" s="182" t="s">
+      <c r="B52" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="C52" s="182" t="s">
+      <c r="C52" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="182">
+      <c r="D52" s="174">
         <v>1.7</v>
       </c>
-      <c r="E52" s="182">
+      <c r="E52" s="174">
         <v>6362</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="181" t="s">
+      <c r="A53" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B53" s="181" t="s">
+      <c r="B53" s="173" t="s">
         <v>166</v>
       </c>
-      <c r="C53" s="181" t="s">
+      <c r="C53" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="181">
+      <c r="D53" s="173">
         <v>1.8</v>
       </c>
-      <c r="E53" s="181">
+      <c r="E53" s="173">
         <v>5096</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="182" t="s">
+      <c r="A54" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B54" s="182" t="s">
+      <c r="B54" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="C54" s="182" t="s">
+      <c r="C54" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="182">
+      <c r="D54" s="174">
         <v>1.8</v>
       </c>
-      <c r="E54" s="182">
+      <c r="E54" s="174">
         <v>6115</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="181" t="s">
+      <c r="A55" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B55" s="181" t="s">
+      <c r="B55" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C55" s="181" t="s">
+      <c r="C55" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="181">
+      <c r="D55" s="173">
         <v>1.8</v>
       </c>
-      <c r="E55" s="181">
+      <c r="E55" s="173">
         <v>6008</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="182" t="s">
+      <c r="A56" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B56" s="182" t="s">
+      <c r="B56" s="174" t="s">
         <v>166</v>
       </c>
-      <c r="C56" s="182" t="s">
+      <c r="C56" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="182">
+      <c r="D56" s="174">
         <v>1.9</v>
       </c>
-      <c r="E56" s="182">
+      <c r="E56" s="174">
         <v>4919</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="181" t="s">
+      <c r="A57" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B57" s="181" t="s">
+      <c r="B57" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C57" s="181" t="s">
+      <c r="C57" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="181">
+      <c r="D57" s="173">
         <v>1.9</v>
       </c>
-      <c r="E57" s="181">
+      <c r="E57" s="173">
         <v>5902</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="182" t="s">
+      <c r="A58" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B58" s="182" t="s">
+      <c r="B58" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="C58" s="182" t="s">
+      <c r="C58" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="D58" s="182">
+      <c r="D58" s="174">
         <v>1.9</v>
       </c>
-      <c r="E58" s="182">
+      <c r="E58" s="174">
         <v>5692</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="181" t="s">
+      <c r="A59" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B59" s="181" t="s">
+      <c r="B59" s="173" t="s">
         <v>166</v>
       </c>
-      <c r="C59" s="181" t="s">
+      <c r="C59" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="181">
+      <c r="D59" s="173">
         <v>2</v>
       </c>
-      <c r="E59" s="181">
+      <c r="E59" s="173">
         <v>4748</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="182" t="s">
+      <c r="A60" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B60" s="182" t="s">
+      <c r="B60" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="C60" s="182" t="s">
+      <c r="C60" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="182">
+      <c r="D60" s="174">
         <v>2</v>
       </c>
-      <c r="E60" s="182">
+      <c r="E60" s="174">
         <v>5697</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="181" t="s">
+      <c r="A61" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B61" s="181" t="s">
+      <c r="B61" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C61" s="181" t="s">
+      <c r="C61" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="181">
+      <c r="D61" s="173">
         <v>2</v>
       </c>
-      <c r="E61" s="181">
+      <c r="E61" s="173">
         <v>5408</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="182" t="s">
+      <c r="A62" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B62" s="182" t="s">
+      <c r="B62" s="174" t="s">
         <v>166</v>
       </c>
-      <c r="C62" s="182" t="s">
+      <c r="C62" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="182">
+      <c r="D62" s="174">
         <v>2.1</v>
       </c>
-      <c r="E62" s="182">
+      <c r="E62" s="174">
         <v>4583</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="181" t="s">
+      <c r="A63" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B63" s="181" t="s">
+      <c r="B63" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C63" s="181" t="s">
+      <c r="C63" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="181">
+      <c r="D63" s="173">
         <v>2.1</v>
       </c>
-      <c r="E63" s="181">
+      <c r="E63" s="173">
         <v>5499</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="182" t="s">
+      <c r="A64" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B64" s="182" t="s">
+      <c r="B64" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="C64" s="182" t="s">
+      <c r="C64" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="182">
+      <c r="D64" s="174">
         <v>2.1</v>
       </c>
-      <c r="E64" s="182">
+      <c r="E64" s="174">
         <v>5150</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="181" t="s">
+      <c r="A65" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B65" s="181" t="s">
+      <c r="B65" s="173" t="s">
         <v>166</v>
       </c>
-      <c r="C65" s="181" t="s">
+      <c r="C65" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D65" s="181">
+      <c r="D65" s="173">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E65" s="181">
+      <c r="E65" s="173">
         <v>4423</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="182" t="s">
+      <c r="A66" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B66" s="182" t="s">
+      <c r="B66" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="C66" s="182" t="s">
+      <c r="C66" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="182">
+      <c r="D66" s="174">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E66" s="182">
+      <c r="E66" s="174">
         <v>5308</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="181" t="s">
+      <c r="A67" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B67" s="181" t="s">
+      <c r="B67" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C67" s="181" t="s">
+      <c r="C67" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="181">
+      <c r="D67" s="173">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E67" s="181">
+      <c r="E67" s="173">
         <v>4916</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="182" t="s">
+      <c r="A68" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B68" s="182" t="s">
+      <c r="B68" s="174" t="s">
         <v>166</v>
       </c>
-      <c r="C68" s="182" t="s">
+      <c r="C68" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="182">
+      <c r="D68" s="174">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E68" s="182">
+      <c r="E68" s="174">
         <v>4270</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="181" t="s">
+      <c r="A69" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B69" s="181" t="s">
+      <c r="B69" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C69" s="181" t="s">
+      <c r="C69" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D69" s="181">
+      <c r="D69" s="173">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E69" s="181">
+      <c r="E69" s="173">
         <v>5124</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="182" t="s">
+      <c r="A70" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B70" s="182" t="s">
+      <c r="B70" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="C70" s="182" t="s">
+      <c r="C70" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="D70" s="182">
+      <c r="D70" s="174">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E70" s="182">
+      <c r="E70" s="174">
         <v>4702</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="181" t="s">
+      <c r="A71" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B71" s="181" t="s">
+      <c r="B71" s="173" t="s">
         <v>166</v>
       </c>
-      <c r="C71" s="181" t="s">
+      <c r="C71" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D71" s="181">
+      <c r="D71" s="173">
         <v>2.4</v>
       </c>
-      <c r="E71" s="181">
+      <c r="E71" s="173">
         <v>4121</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="182" t="s">
+      <c r="A72" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B72" s="182" t="s">
+      <c r="B72" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="C72" s="182" t="s">
+      <c r="C72" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D72" s="182">
+      <c r="D72" s="174">
         <v>2.4</v>
       </c>
-      <c r="E72" s="182">
+      <c r="E72" s="174">
         <v>4946</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="181" t="s">
+      <c r="A73" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B73" s="181" t="s">
+      <c r="B73" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C73" s="181" t="s">
+      <c r="C73" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="181">
+      <c r="D73" s="173">
         <v>2.4</v>
       </c>
-      <c r="E73" s="181">
+      <c r="E73" s="173">
         <v>4506</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="182" t="s">
+      <c r="A74" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B74" s="182" t="s">
+      <c r="B74" s="174" t="s">
         <v>166</v>
       </c>
-      <c r="C74" s="182" t="s">
+      <c r="C74" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D74" s="182">
+      <c r="D74" s="174">
         <v>2.5</v>
       </c>
-      <c r="E74" s="182">
+      <c r="E74" s="174">
         <v>3978</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="181" t="s">
+      <c r="A75" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B75" s="181" t="s">
+      <c r="B75" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C75" s="181" t="s">
+      <c r="C75" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="181">
+      <c r="D75" s="173">
         <v>2.5</v>
       </c>
-      <c r="E75" s="181">
+      <c r="E75" s="173">
         <v>4774</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="182" t="s">
+      <c r="A76" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B76" s="182" t="s">
+      <c r="B76" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="C76" s="182" t="s">
+      <c r="C76" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="D76" s="182">
+      <c r="D76" s="174">
         <v>2.5</v>
       </c>
-      <c r="E76" s="182">
+      <c r="E76" s="174">
         <v>4326</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="181" t="s">
+      <c r="A77" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B77" s="181" t="s">
+      <c r="B77" s="173" t="s">
         <v>166</v>
       </c>
-      <c r="C77" s="181" t="s">
+      <c r="C77" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D77" s="181">
+      <c r="D77" s="173">
         <v>2.6</v>
       </c>
-      <c r="E77" s="181">
+      <c r="E77" s="173">
         <v>3840</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="182" t="s">
+      <c r="A78" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B78" s="182" t="s">
+      <c r="B78" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="C78" s="182" t="s">
+      <c r="C78" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="182">
+      <c r="D78" s="174">
         <v>2.6</v>
       </c>
-      <c r="E78" s="182">
+      <c r="E78" s="174">
         <v>4608</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="181" t="s">
+      <c r="A79" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B79" s="181" t="s">
+      <c r="B79" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C79" s="181" t="s">
+      <c r="C79" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="181">
+      <c r="D79" s="173">
         <v>2.6</v>
       </c>
-      <c r="E79" s="181">
+      <c r="E79" s="173">
         <v>4160</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="182" t="s">
+      <c r="A80" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B80" s="182" t="s">
+      <c r="B80" s="174" t="s">
         <v>166</v>
       </c>
-      <c r="C80" s="182" t="s">
+      <c r="C80" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="182">
+      <c r="D80" s="174">
         <v>2.7</v>
       </c>
-      <c r="E80" s="182">
+      <c r="E80" s="174">
         <v>3706</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="181" t="s">
+      <c r="A81" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B81" s="181" t="s">
+      <c r="B81" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C81" s="181" t="s">
+      <c r="C81" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="181">
+      <c r="D81" s="173">
         <v>2.7</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="173">
         <v>4448</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="182" t="s">
+      <c r="A82" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B82" s="182" t="s">
+      <c r="B82" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="C82" s="182" t="s">
+      <c r="C82" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="D82" s="182">
+      <c r="D82" s="174">
         <v>2.7</v>
       </c>
-      <c r="E82" s="182">
+      <c r="E82" s="174">
         <v>4006</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="181" t="s">
+      <c r="A83" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B83" s="181" t="s">
+      <c r="B83" s="173" t="s">
         <v>166</v>
       </c>
-      <c r="C83" s="181" t="s">
+      <c r="C83" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D83" s="181">
+      <c r="D83" s="173">
         <v>2.8</v>
       </c>
-      <c r="E83" s="181">
+      <c r="E83" s="173">
         <v>3578</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="182" t="s">
+      <c r="A84" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B84" s="182" t="s">
+      <c r="B84" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="C84" s="182" t="s">
+      <c r="C84" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D84" s="182">
+      <c r="D84" s="174">
         <v>2.8</v>
       </c>
-      <c r="E84" s="182">
+      <c r="E84" s="174">
         <v>4293</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="181" t="s">
+      <c r="A85" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B85" s="181" t="s">
+      <c r="B85" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C85" s="181" t="s">
+      <c r="C85" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="D85" s="181">
+      <c r="D85" s="173">
         <v>2.8</v>
       </c>
-      <c r="E85" s="181">
+      <c r="E85" s="173">
         <v>3863</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="182" t="s">
+      <c r="A86" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B86" s="182" t="s">
+      <c r="B86" s="174" t="s">
         <v>166</v>
       </c>
-      <c r="C86" s="182" t="s">
+      <c r="C86" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="182">
+      <c r="D86" s="174">
         <v>2.9</v>
       </c>
-      <c r="E86" s="182">
+      <c r="E86" s="174">
         <v>3453</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="181" t="s">
+      <c r="A87" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B87" s="181" t="s">
+      <c r="B87" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C87" s="181" t="s">
+      <c r="C87" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D87" s="181">
+      <c r="D87" s="173">
         <v>2.9</v>
       </c>
-      <c r="E87" s="181">
+      <c r="E87" s="173">
         <v>4144</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="182" t="s">
+      <c r="A88" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B88" s="182" t="s">
+      <c r="B88" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="C88" s="182" t="s">
+      <c r="C88" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="182">
+      <c r="D88" s="174">
         <v>2.9</v>
       </c>
-      <c r="E88" s="182">
+      <c r="E88" s="174">
         <v>3729</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="181" t="s">
+      <c r="A89" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B89" s="181" t="s">
+      <c r="B89" s="173" t="s">
         <v>166</v>
       </c>
-      <c r="C89" s="181" t="s">
+      <c r="C89" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D89" s="181">
+      <c r="D89" s="173">
         <v>3</v>
       </c>
-      <c r="E89" s="181">
+      <c r="E89" s="173">
         <v>3333</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="182" t="s">
+      <c r="A90" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B90" s="182" t="s">
+      <c r="B90" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="C90" s="182" t="s">
+      <c r="C90" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D90" s="182">
+      <c r="D90" s="174">
         <v>3</v>
       </c>
-      <c r="E90" s="182">
+      <c r="E90" s="174">
         <v>4000</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="181" t="s">
+      <c r="A91" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B91" s="181" t="s">
+      <c r="B91" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C91" s="181" t="s">
+      <c r="C91" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="D91" s="181">
+      <c r="D91" s="173">
         <v>3</v>
       </c>
-      <c r="E91" s="181">
+      <c r="E91" s="173">
         <v>3605</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="182" t="s">
+      <c r="A92" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B92" s="182" t="s">
+      <c r="B92" s="174" t="s">
         <v>166</v>
       </c>
-      <c r="C92" s="182" t="s">
+      <c r="C92" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D92" s="182">
+      <c r="D92" s="174">
         <v>3.1</v>
       </c>
-      <c r="E92" s="182">
+      <c r="E92" s="174">
         <v>3258</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="181" t="s">
+      <c r="A93" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B93" s="181" t="s">
+      <c r="B93" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C93" s="181" t="s">
+      <c r="C93" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D93" s="181">
+      <c r="D93" s="173">
         <v>3.1</v>
       </c>
-      <c r="E93" s="181">
+      <c r="E93" s="173">
         <v>3967</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="182" t="s">
+      <c r="A94" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B94" s="182" t="s">
+      <c r="B94" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="C94" s="182" t="s">
+      <c r="C94" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="D94" s="182">
+      <c r="D94" s="174">
         <v>3.1</v>
       </c>
-      <c r="E94" s="182">
+      <c r="E94" s="174">
         <v>3827</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="181" t="s">
+      <c r="A95" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B95" s="181" t="s">
+      <c r="B95" s="173" t="s">
         <v>166</v>
       </c>
-      <c r="C95" s="181" t="s">
+      <c r="C95" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D95" s="181">
+      <c r="D95" s="173">
         <v>3.2</v>
       </c>
-      <c r="E95" s="181">
+      <c r="E95" s="173">
         <v>3199</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="182" t="s">
+      <c r="A96" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B96" s="182" t="s">
+      <c r="B96" s="174" t="s">
         <v>272</v>
       </c>
-      <c r="C96" s="182" t="s">
+      <c r="C96" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D96" s="182">
+      <c r="D96" s="174">
         <v>3.2</v>
       </c>
-      <c r="E96" s="182">
+      <c r="E96" s="174">
         <v>3895</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="181" t="s">
+      <c r="A97" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B97" s="181" t="s">
+      <c r="B97" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C97" s="181" t="s">
+      <c r="C97" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="D97" s="181">
+      <c r="D97" s="173">
         <v>3.2</v>
       </c>
-      <c r="E97" s="181">
+      <c r="E97" s="173">
         <v>3708</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="182" t="s">
+      <c r="A98" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="B98" s="182" t="s">
+      <c r="B98" s="174" t="s">
         <v>166</v>
       </c>
-      <c r="C98" s="182" t="s">
+      <c r="C98" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="D98" s="182">
+      <c r="D98" s="174">
         <v>3.3</v>
       </c>
-      <c r="E98" s="182">
+      <c r="E98" s="174">
         <v>3141</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="181" t="s">
+      <c r="A99" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B99" s="181" t="s">
+      <c r="B99" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C99" s="181" t="s">
+      <c r="C99" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="D99" s="181">
+      <c r="D99" s="173">
         <v>3.3</v>
       </c>
-      <c r="E99" s="181">
+      <c r="E99" s="173">
         <v>3824</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="183" t="s">
+      <c r="A100" s="175" t="s">
         <v>271</v>
       </c>
-      <c r="B100" s="183" t="s">
+      <c r="B100" s="175" t="s">
         <v>272</v>
       </c>
-      <c r="C100" s="183" t="s">
+      <c r="C100" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="D100" s="183">
+      <c r="D100" s="175">
         <v>3.3</v>
       </c>
-      <c r="E100" s="183">
+      <c r="E100" s="175">
         <v>3595</v>
       </c>
     </row>
@@ -19630,7 +19697,7 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A111" workbookViewId="0">
       <selection activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
@@ -23839,7 +23906,7 @@
       </c>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="175" t="s">
+      <c r="B2" s="185" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="69">
@@ -23884,12 +23951,12 @@
       <c r="P2" s="62">
         <v>1</v>
       </c>
-      <c r="Q2" s="178" t="s">
+      <c r="Q2" s="188" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="176"/>
+      <c r="B3" s="186"/>
       <c r="C3" s="69">
         <v>94206</v>
       </c>
@@ -23932,10 +23999,10 @@
       <c r="P3" s="62">
         <v>2</v>
       </c>
-      <c r="Q3" s="179"/>
+      <c r="Q3" s="189"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="176"/>
+      <c r="B4" s="186"/>
       <c r="C4" s="69">
         <v>92587</v>
       </c>
@@ -23978,10 +24045,10 @@
       <c r="P4" s="62">
         <v>3</v>
       </c>
-      <c r="Q4" s="179"/>
+      <c r="Q4" s="189"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="177"/>
+      <c r="B5" s="187"/>
       <c r="C5" s="69">
         <v>83838</v>
       </c>
@@ -24024,10 +24091,10 @@
       <c r="P5" s="62">
         <v>4</v>
       </c>
-      <c r="Q5" s="179"/>
+      <c r="Q5" s="189"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="175" t="s">
+      <c r="B6" s="185" t="s">
         <v>55</v>
       </c>
       <c r="C6" s="61">
@@ -24072,10 +24139,10 @@
       <c r="P6" s="54">
         <v>1</v>
       </c>
-      <c r="Q6" s="179"/>
+      <c r="Q6" s="189"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="176"/>
+      <c r="B7" s="186"/>
       <c r="C7" s="61">
         <v>73499</v>
       </c>
@@ -24118,10 +24185,10 @@
       <c r="P7" s="54">
         <v>2</v>
       </c>
-      <c r="Q7" s="179"/>
+      <c r="Q7" s="189"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="176"/>
+      <c r="B8" s="186"/>
       <c r="C8" s="61">
         <v>90317</v>
       </c>
@@ -24164,10 +24231,10 @@
       <c r="P8" s="54">
         <v>3</v>
       </c>
-      <c r="Q8" s="179"/>
+      <c r="Q8" s="189"/>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="177"/>
+      <c r="B9" s="187"/>
       <c r="C9" s="61">
         <v>56096</v>
       </c>
@@ -24210,10 +24277,10 @@
       <c r="P9" s="54">
         <v>4</v>
       </c>
-      <c r="Q9" s="179"/>
+      <c r="Q9" s="189"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="175" t="s">
+      <c r="B10" s="185" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="53">
@@ -24258,10 +24325,10 @@
       <c r="P10" s="46">
         <v>1</v>
       </c>
-      <c r="Q10" s="179"/>
+      <c r="Q10" s="189"/>
     </row>
     <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="177"/>
+      <c r="B11" s="187"/>
       <c r="C11" s="53">
         <v>83805</v>
       </c>
@@ -24304,13 +24371,13 @@
       <c r="P11" s="46">
         <v>2</v>
       </c>
-      <c r="Q11" s="180"/>
+      <c r="Q11" s="190"/>
     </row>
     <row r="12" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="18"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="175" t="s">
+      <c r="B13" s="185" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="45"/>
@@ -24353,12 +24420,12 @@
       <c r="P13" s="35">
         <v>1</v>
       </c>
-      <c r="Q13" s="178" t="s">
+      <c r="Q13" s="188" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="177"/>
+      <c r="B14" s="187"/>
       <c r="C14" s="42">
         <v>56205</v>
       </c>
@@ -24401,10 +24468,10 @@
       <c r="P14" s="35">
         <v>2</v>
       </c>
-      <c r="Q14" s="179"/>
+      <c r="Q14" s="189"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="175" t="s">
+      <c r="B15" s="185" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="34">
@@ -24449,10 +24516,10 @@
       <c r="P15" s="27">
         <v>1</v>
       </c>
-      <c r="Q15" s="179"/>
+      <c r="Q15" s="189"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="176"/>
+      <c r="B16" s="186"/>
       <c r="C16" s="34">
         <v>91020</v>
       </c>
@@ -24495,10 +24562,10 @@
       <c r="P16" s="27">
         <v>2</v>
       </c>
-      <c r="Q16" s="179"/>
+      <c r="Q16" s="189"/>
     </row>
     <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="177"/>
+      <c r="B17" s="187"/>
       <c r="C17" s="34">
         <v>84183</v>
       </c>
@@ -24541,13 +24608,13 @@
       <c r="P17" s="27">
         <v>3</v>
       </c>
-      <c r="Q17" s="180"/>
+      <c r="Q17" s="190"/>
     </row>
     <row r="18" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="18"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="175" t="s">
+      <c r="B19" s="185" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="26">
@@ -24592,12 +24659,12 @@
       <c r="P19" s="19">
         <v>1</v>
       </c>
-      <c r="Q19" s="178" t="s">
+      <c r="Q19" s="188" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="176"/>
+      <c r="B20" s="186"/>
       <c r="C20" s="26">
         <v>56161</v>
       </c>
@@ -24640,10 +24707,10 @@
       <c r="P20" s="19">
         <v>2</v>
       </c>
-      <c r="Q20" s="179"/>
+      <c r="Q20" s="189"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="176"/>
+      <c r="B21" s="186"/>
       <c r="C21" s="26">
         <v>59425</v>
       </c>
@@ -24686,10 +24753,10 @@
       <c r="P21" s="19">
         <v>3</v>
       </c>
-      <c r="Q21" s="179"/>
+      <c r="Q21" s="189"/>
     </row>
     <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="177"/>
+      <c r="B22" s="187"/>
       <c r="C22" s="26">
         <v>94012</v>
       </c>
@@ -24732,13 +24799,13 @@
       <c r="P22" s="19">
         <v>4</v>
       </c>
-      <c r="Q22" s="180"/>
+      <c r="Q22" s="190"/>
     </row>
     <row r="23" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="18"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="175" t="s">
+      <c r="B24" s="185" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="15">
@@ -24783,12 +24850,12 @@
       <c r="P24" s="8">
         <v>1</v>
       </c>
-      <c r="Q24" s="178" t="s">
+      <c r="Q24" s="188" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="176"/>
+      <c r="B25" s="186"/>
       <c r="C25" s="15">
         <v>60102</v>
       </c>
@@ -24831,10 +24898,10 @@
       <c r="P25" s="8">
         <v>2</v>
       </c>
-      <c r="Q25" s="179"/>
+      <c r="Q25" s="189"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="176"/>
+      <c r="B26" s="186"/>
       <c r="C26" s="17">
         <v>57317</v>
       </c>
@@ -24877,10 +24944,10 @@
       <c r="P26" s="8">
         <v>3</v>
       </c>
-      <c r="Q26" s="179"/>
+      <c r="Q26" s="189"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="176"/>
+      <c r="B27" s="186"/>
       <c r="C27" s="15">
         <v>78258</v>
       </c>
@@ -24923,10 +24990,10 @@
       <c r="P27" s="8">
         <v>4</v>
       </c>
-      <c r="Q27" s="179"/>
+      <c r="Q27" s="189"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="176"/>
+      <c r="B28" s="186"/>
       <c r="C28" s="15">
         <v>59019</v>
       </c>
@@ -24969,10 +25036,10 @@
       <c r="P28" s="8">
         <v>5</v>
       </c>
-      <c r="Q28" s="179"/>
+      <c r="Q28" s="189"/>
     </row>
     <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="177"/>
+      <c r="B29" s="187"/>
       <c r="C29" s="15">
         <v>92968</v>
       </c>
@@ -25015,7 +25082,7 @@
       <c r="P29" s="8">
         <v>6</v>
       </c>
-      <c r="Q29" s="180"/>
+      <c r="Q29" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -25032,25 +25099,25 @@
     <mergeCell ref="B15:B17"/>
   </mergeCells>
   <conditionalFormatting sqref="D19:D22">
-    <cfRule type="duplicateValues" dxfId="32" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D17">
-    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D29">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D9">
-    <cfRule type="duplicateValues" dxfId="27" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="duplicateValues" dxfId="26" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -30128,58 +30195,58 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="duplicateValues" dxfId="25" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="duplicateValues" dxfId="24" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B8">
-    <cfRule type="duplicateValues" dxfId="23" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="duplicateValues" dxfId="22" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="duplicateValues" dxfId="21" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B22">
-    <cfRule type="duplicateValues" dxfId="20" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B26">
-    <cfRule type="duplicateValues" dxfId="19" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B33">
-    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B47">
-    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B52 B54:B59">
-    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B72">
-    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B80">
-    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B89">
-    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B98">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B103">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B106">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107:B114">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30191,9 +30258,9 @@
   <dimension ref="B1:U2"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomLeft" activeCell="M5" sqref="M5:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -30295,93 +30362,142 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист8"/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="77.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="183" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="181" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="183" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="180" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="183" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="180" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="183" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="180" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="183" t="s">
+        <v>289</v>
+      </c>
+      <c r="B5" s="180" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="183" t="s">
+        <v>295</v>
+      </c>
+      <c r="B6" s="180" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="183" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" s="182" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="184" t="s">
         <v>280</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="184" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="184" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" s="171" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="171"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="172" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="172" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="172" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="172" t="s">
-        <v>282</v>
-      </c>
-      <c r="B3" s="171" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="172" t="s">
-        <v>284</v>
-      </c>
-      <c r="B4" s="174" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E5" s="171"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="173" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="173" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="172" t="s">
         <v>287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="173" t="s">
-        <v>289</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B8" r:id="rId2"/>
-    <hyperlink ref="B9" r:id="rId3"/>
+    <hyperlink ref="B13" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="B15" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>

--- a/DomesticTransport/DomesticTransport.xlsx
+++ b/DomesticTransport/DomesticTransport.xlsx
@@ -28,7 +28,7 @@
     <definedName name="weght">Rate!$M$5</definedName>
     <definedName name="weghtCell">Rate!$M$5</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4558" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4598" uniqueCount="296">
   <si>
     <t>Перевозчик</t>
   </si>
@@ -964,15 +964,6 @@
   </si>
   <si>
     <t>Заявка грузоперевозки</t>
-  </si>
-  <si>
-    <t>GTLS@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crafter@schaeffler.com </t>
-  </si>
-  <si>
-    <t>QB@qb.com</t>
   </si>
   <si>
     <t>Ответственное лицо</t>
@@ -2117,7 +2108,24 @@
     <cellStyle name="Обычный 2" xfId="2"/>
     <cellStyle name="Обычный 4" xfId="1"/>
   </cellStyles>
-  <dxfs count="95">
+  <dxfs count="96">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3323,75 +3331,75 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TableCarrier" displayName="TableCarrier" ref="B5:G6" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TableCarrier" displayName="TableCarrier" ref="B5:G6" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="B5:G6"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="№ Доставки" dataDxfId="92"/>
-    <tableColumn id="6" name="Компания" dataDxfId="91"/>
-    <tableColumn id="4" name="ID Route" dataDxfId="90"/>
-    <tableColumn id="8" name="Тоннаж" dataDxfId="89"/>
-    <tableColumn id="3" name="Вес доставки" dataDxfId="88"/>
-    <tableColumn id="7" name="Стоимость доставки" dataDxfId="87"/>
+    <tableColumn id="1" name="№ Доставки" dataDxfId="93"/>
+    <tableColumn id="6" name="Компания" dataDxfId="92"/>
+    <tableColumn id="4" name="ID Route" dataDxfId="91"/>
+    <tableColumn id="8" name="Тоннаж" dataDxfId="90"/>
+    <tableColumn id="3" name="Вес доставки" dataDxfId="89"/>
+    <tableColumn id="7" name="Стоимость доставки" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TableOrders" displayName="TableOrders" ref="B10:J11" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TableOrders" displayName="TableOrders" ref="B10:J11" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
   <autoFilter ref="B10:J11"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="№ Доставки" dataDxfId="84"/>
-    <tableColumn id="2" name="Доставка" dataDxfId="83"/>
-    <tableColumn id="5" name="ID Route" dataDxfId="82"/>
-    <tableColumn id="9" name="Порядок выгрузки" dataDxfId="81"/>
-    <tableColumn id="8" name="Вес нетто" dataDxfId="80"/>
-    <tableColumn id="3" name="ID Получателя" dataDxfId="79"/>
-    <tableColumn id="4" name="Получатель" dataDxfId="78"/>
-    <tableColumn id="10" name="Город" dataDxfId="77"/>
-    <tableColumn id="6" name="Маршрут" dataDxfId="76"/>
+    <tableColumn id="1" name="№ Доставки" dataDxfId="85"/>
+    <tableColumn id="2" name="Доставка" dataDxfId="84"/>
+    <tableColumn id="5" name="ID Route" dataDxfId="83"/>
+    <tableColumn id="9" name="Порядок выгрузки" dataDxfId="82"/>
+    <tableColumn id="8" name="Вес нетто" dataDxfId="81"/>
+    <tableColumn id="3" name="ID Получателя" dataDxfId="80"/>
+    <tableColumn id="4" name="Получатель" dataDxfId="79"/>
+    <tableColumn id="10" name="Город" dataDxfId="78"/>
+    <tableColumn id="6" name="Маршрут" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="PriceDelivery" displayName="PriceDelivery" ref="A3:J428" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" headerRowCellStyle="Обычный 4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="PriceDelivery" displayName="PriceDelivery" ref="A3:J428" totalsRowShown="0" headerRowDxfId="76" dataDxfId="74" headerRowBorderDxfId="75" headerRowCellStyle="Обычный 4">
   <sortState ref="A13:J426">
     <sortCondition ref="F3:F527"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="Place of shipment" dataDxfId="72"/>
-    <tableColumn id="2" name="Place of delivery" dataDxfId="71"/>
-    <tableColumn id="3" name="City" dataDxfId="70"/>
-    <tableColumn id="4" name="Country of delivery" dataDxfId="69"/>
-    <tableColumn id="5" name="Country of delivery2" dataDxfId="68"/>
-    <tableColumn id="6" name="Company" dataDxfId="67"/>
-    <tableColumn id="7" name="tonnage, t" dataDxfId="66"/>
-    <tableColumn id="8" name="vehicle" dataDxfId="65"/>
-    <tableColumn id="9" name="add.point" dataDxfId="64"/>
-    <tableColumn id="10" name="vehicle + add.point" dataDxfId="63"/>
+    <tableColumn id="1" name="Place of shipment" dataDxfId="73"/>
+    <tableColumn id="2" name="Place of delivery" dataDxfId="72"/>
+    <tableColumn id="3" name="City" dataDxfId="71"/>
+    <tableColumn id="4" name="Country of delivery" dataDxfId="70"/>
+    <tableColumn id="5" name="Country of delivery2" dataDxfId="69"/>
+    <tableColumn id="6" name="Company" dataDxfId="68"/>
+    <tableColumn id="7" name="tonnage, t" dataDxfId="67"/>
+    <tableColumn id="8" name="vehicle" dataDxfId="66"/>
+    <tableColumn id="9" name="add.point" dataDxfId="65"/>
+    <tableColumn id="10" name="vehicle + add.point" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TableRateInternational" displayName="TableRateInternational" ref="A1:E100" totalsRowShown="0" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TableRateInternational" displayName="TableRateInternational" ref="A1:E100" totalsRowShown="0" dataDxfId="62" headerRowBorderDxfId="63" tableBorderDxfId="61">
   <autoFilter ref="A1:E100"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Place of shipment" dataDxfId="59"/>
-    <tableColumn id="2" name="Place of delivery" dataDxfId="58"/>
-    <tableColumn id="3" name="Company" dataDxfId="57"/>
-    <tableColumn id="4" name="tonnage, t" dataDxfId="56"/>
-    <tableColumn id="5" name="vehicle" dataDxfId="55"/>
+    <tableColumn id="1" name="Place of shipment" dataDxfId="60"/>
+    <tableColumn id="2" name="Place of delivery" dataDxfId="59"/>
+    <tableColumn id="3" name="Company" dataDxfId="58"/>
+    <tableColumn id="4" name="tonnage, t" dataDxfId="57"/>
+    <tableColumn id="5" name="vehicle" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="TableRoutes" displayName="TableRoutes" ref="A1:K115" totalsRowShown="0" headerRowDxfId="54" headerRowBorderDxfId="53" tableBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="TableRoutes" displayName="TableRoutes" ref="A1:K115" totalsRowShown="0" headerRowDxfId="55" headerRowBorderDxfId="54" tableBorderDxfId="53">
   <autoFilter ref="A1:K115"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Id route"/>
@@ -3411,7 +3419,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TableCity" displayName="TableCity" ref="M1:M23" totalsRowShown="0" tableBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TableCity" displayName="TableCity" ref="M1:M23" totalsRowShown="0" tableBorderDxfId="52">
   <autoFilter ref="M1:M23"/>
   <tableColumns count="1">
     <tableColumn id="1" name="City"/>
@@ -3421,39 +3429,39 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TableTotal" displayName="TableTotal" ref="B2:U3" insertRow="1" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" headerRowCellStyle="Акцент6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TableTotal" displayName="TableTotal" ref="B2:U3" insertRow="1" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" headerRowCellStyle="Акцент6">
   <autoFilter ref="B2:U3"/>
   <tableColumns count="20">
-    <tableColumn id="20" name="Дата доставки" dataDxfId="21"/>
-    <tableColumn id="1" name="ID перевозчика" dataDxfId="20"/>
-    <tableColumn id="2" name="Перевозчик" dataDxfId="19"/>
-    <tableColumn id="3" name="Тип ТС, тонн" dataDxfId="18"/>
-    <tableColumn id="4" name="Водитель (ФИО)" dataDxfId="17"/>
-    <tableColumn id="5" name="Номер,марка" dataDxfId="16"/>
-    <tableColumn id="6" name="Телефон водителя" dataDxfId="15"/>
-    <tableColumn id="19" name="№ Доставки" dataDxfId="14"/>
-    <tableColumn id="7" name="Город" dataDxfId="13"/>
-    <tableColumn id="8" name="Направление" dataDxfId="12"/>
-    <tableColumn id="9" name="Порядок выгрузки" dataDxfId="11"/>
-    <tableColumn id="10" name="Номер грузополучателя" dataDxfId="10"/>
-    <tableColumn id="11" name="Номер накладной" dataDxfId="9"/>
-    <tableColumn id="12" name="Номер поставки" dataDxfId="8"/>
-    <tableColumn id="13" name="Грузополучатель" dataDxfId="7"/>
-    <tableColumn id="14" name="Брутто вес" dataDxfId="6"/>
-    <tableColumn id="15" name="Нетто вес" dataDxfId="5"/>
-    <tableColumn id="16" name="Кол-во паллет" dataDxfId="4"/>
-    <tableColumn id="17" name="Стоимость поставки" dataDxfId="3"/>
-    <tableColumn id="18" name="Стоимость доставки" dataDxfId="2"/>
+    <tableColumn id="20" name="Дата доставки" dataDxfId="22"/>
+    <tableColumn id="1" name="ID перевозчика" dataDxfId="21"/>
+    <tableColumn id="2" name="Перевозчик" dataDxfId="20"/>
+    <tableColumn id="3" name="Тип ТС, тонн" dataDxfId="19"/>
+    <tableColumn id="4" name="Водитель (ФИО)" dataDxfId="18"/>
+    <tableColumn id="5" name="Номер,марка" dataDxfId="17"/>
+    <tableColumn id="6" name="Телефон водителя" dataDxfId="16"/>
+    <tableColumn id="19" name="№ Доставки" dataDxfId="15"/>
+    <tableColumn id="7" name="Город" dataDxfId="14"/>
+    <tableColumn id="8" name="Направление" dataDxfId="13"/>
+    <tableColumn id="9" name="Порядок выгрузки" dataDxfId="12"/>
+    <tableColumn id="10" name="Номер грузополучателя" dataDxfId="11"/>
+    <tableColumn id="11" name="Номер накладной" dataDxfId="10"/>
+    <tableColumn id="12" name="Номер поставки" dataDxfId="9"/>
+    <tableColumn id="13" name="Грузополучатель" dataDxfId="8"/>
+    <tableColumn id="14" name="Брутто вес" dataDxfId="7"/>
+    <tableColumn id="15" name="Нетто вес" dataDxfId="6"/>
+    <tableColumn id="16" name="Кол-во паллет" dataDxfId="5"/>
+    <tableColumn id="17" name="Стоимость поставки" dataDxfId="4"/>
+    <tableColumn id="18" name="Стоимость доставки" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="TableEmail" displayName="TableEmail" ref="A12:B15" totalsRowShown="0">
-  <autoFilter ref="A12:B15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="TableEmail" displayName="TableEmail" ref="A12:B35" totalsRowShown="0">
+  <autoFilter ref="A12:B35"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Компания"/>
+    <tableColumn id="1" name="Компания" dataDxfId="0"/>
     <tableColumn id="2" name="Email"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3465,8 +3473,8 @@
   <autoFilter ref="B2:D25"/>
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Компания" dataDxfId="1"/>
-    <tableColumn id="3" name="Получатель письма" dataDxfId="0" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="2" name="Компания" dataDxfId="2"/>
+    <tableColumn id="3" name="Получатель письма" dataDxfId="1" dataCellStyle="Гиперссылка"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3773,7 +3781,7 @@
   <dimension ref="B1:J10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3797,7 +3805,7 @@
       </c>
       <c r="C2" s="164">
         <f ca="1">TODAY()+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3876,7 +3884,7 @@
   <sheetPr codeName="Лист6"/>
   <dimension ref="A1:J428"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -25099,25 +25107,25 @@
     <mergeCell ref="B15:B17"/>
   </mergeCells>
   <conditionalFormatting sqref="D19:D22">
-    <cfRule type="duplicateValues" dxfId="50" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="duplicateValues" dxfId="49" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D17">
-    <cfRule type="duplicateValues" dxfId="48" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="duplicateValues" dxfId="47" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D29">
-    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D9">
-    <cfRule type="duplicateValues" dxfId="45" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="duplicateValues" dxfId="44" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -30195,58 +30203,58 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="duplicateValues" dxfId="43" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="duplicateValues" dxfId="42" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B8">
-    <cfRule type="duplicateValues" dxfId="41" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="duplicateValues" dxfId="40" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="duplicateValues" dxfId="39" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B22">
-    <cfRule type="duplicateValues" dxfId="38" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B26">
-    <cfRule type="duplicateValues" dxfId="37" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B33">
-    <cfRule type="duplicateValues" dxfId="36" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B47">
-    <cfRule type="duplicateValues" dxfId="35" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B52 B54:B59">
-    <cfRule type="duplicateValues" dxfId="34" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="33" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:B72">
-    <cfRule type="duplicateValues" dxfId="32" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B80">
-    <cfRule type="duplicateValues" dxfId="31" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B89">
-    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B98">
-    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B103">
-    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B106">
-    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107:B114">
-    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30362,26 +30370,27 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист8"/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="77.28515625" customWidth="1"/>
+    <col min="2" max="2" width="65.5703125" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="183" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B1" s="181" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -30389,15 +30398,15 @@
         <v>2</v>
       </c>
       <c r="B2" s="180" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="183" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B3" s="180" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -30405,23 +30414,23 @@
         <v>84</v>
       </c>
       <c r="B4" s="180" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="183" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B5" s="180" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="183" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B6" s="180" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -30429,7 +30438,7 @@
         <v>279</v>
       </c>
       <c r="B7" s="182" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -30445,7 +30454,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="184" t="s">
         <v>282</v>
       </c>
@@ -30463,41 +30472,269 @@
       <c r="B12" t="s">
         <v>279</v>
       </c>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="154" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="172" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="154"/>
+      <c r="E13" s="172"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="172" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" s="172" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="154"/>
+      <c r="E14" s="172"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="154" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="155" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="154"/>
+      <c r="E15" s="155"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="172" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="172" t="s">
-        <v>287</v>
-      </c>
+      <c r="B16" s="172" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="154"/>
+      <c r="E16" s="172"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="154" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="155" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="154"/>
+      <c r="E17" s="155"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="154" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="155" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="154"/>
+      <c r="E18" s="155"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="154" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" s="155" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="154"/>
+      <c r="E19" s="155"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="154" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" s="155" t="s">
+        <v>194</v>
+      </c>
+      <c r="D20" s="154"/>
+      <c r="E20" s="155"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="154" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" s="155" t="s">
+        <v>195</v>
+      </c>
+      <c r="D21" s="154"/>
+      <c r="E21" s="155"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="154" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22" s="155" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="154"/>
+      <c r="E22" s="155"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="154" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="155" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" s="154"/>
+      <c r="E23" s="155"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="154" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="155" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="154"/>
+      <c r="E24" s="155"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="154" t="s">
+        <v>192</v>
+      </c>
+      <c r="B25" s="155" t="s">
+        <v>199</v>
+      </c>
+      <c r="D25" s="154"/>
+      <c r="E25" s="155"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="154" t="s">
+        <v>192</v>
+      </c>
+      <c r="B26" s="155" t="s">
+        <v>200</v>
+      </c>
+      <c r="D26" s="154"/>
+      <c r="E26" s="155"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="154" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" s="155" t="s">
+        <v>201</v>
+      </c>
+      <c r="D27" s="154"/>
+      <c r="E27" s="155"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="154" t="s">
+        <v>192</v>
+      </c>
+      <c r="B28" s="155" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" s="154"/>
+      <c r="E28" s="155"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="154" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="155" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29" s="154"/>
+      <c r="E29" s="155"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="154" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" s="155" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" s="154"/>
+      <c r="E30" s="155"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="154" t="s">
+        <v>192</v>
+      </c>
+      <c r="B31" s="155" t="s">
+        <v>205</v>
+      </c>
+      <c r="D31" s="154"/>
+      <c r="E31" s="155"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="154" t="s">
+        <v>206</v>
+      </c>
+      <c r="B32" s="155" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" s="154"/>
+      <c r="E32" s="155"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="154" t="s">
+        <v>206</v>
+      </c>
+      <c r="B33" s="155" t="s">
+        <v>208</v>
+      </c>
+      <c r="D33" s="154"/>
+      <c r="E33" s="155"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="154" t="s">
+        <v>206</v>
+      </c>
+      <c r="B34" s="155" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" s="154"/>
+      <c r="E34" s="155"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="154" t="s">
+        <v>206</v>
+      </c>
+      <c r="B35" s="155" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35" s="154"/>
+      <c r="E35" s="155"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B13" r:id="rId1"/>
     <hyperlink ref="B14" r:id="rId2"/>
     <hyperlink ref="B15" r:id="rId3"/>
+    <hyperlink ref="B16" r:id="rId4"/>
+    <hyperlink ref="B17" r:id="rId5"/>
+    <hyperlink ref="B18" r:id="rId6"/>
+    <hyperlink ref="B19" r:id="rId7"/>
+    <hyperlink ref="B20" r:id="rId8"/>
+    <hyperlink ref="B22" r:id="rId9"/>
+    <hyperlink ref="B21" r:id="rId10"/>
+    <hyperlink ref="B23" r:id="rId11"/>
+    <hyperlink ref="B24" r:id="rId12"/>
+    <hyperlink ref="B25" r:id="rId13"/>
+    <hyperlink ref="B26" r:id="rId14"/>
+    <hyperlink ref="B27" r:id="rId15"/>
+    <hyperlink ref="B29" r:id="rId16"/>
+    <hyperlink ref="B30" r:id="rId17"/>
+    <hyperlink ref="B31" r:id="rId18"/>
+    <hyperlink ref="B28" r:id="rId19"/>
+    <hyperlink ref="B32" r:id="rId20"/>
+    <hyperlink ref="B33" r:id="rId21"/>
+    <hyperlink ref="B34" r:id="rId22"/>
+    <hyperlink ref="B35" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId25"/>
   </tableParts>
 </worksheet>
 </file>

--- a/DomesticTransport/DomesticTransport.xlsx
+++ b/DomesticTransport/DomesticTransport.xlsx
@@ -984,6 +984,18 @@
     <t>Alexey Potapkin</t>
   </si>
   <si>
+    <t>Моб</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (495) 120-01-72 </t>
+  </si>
+  <si>
+    <t>+7 (916) 420-10-80</t>
+  </si>
+  <si>
+    <t>119017 Moscow</t>
+  </si>
+  <si>
     <r>
       <t>potapaex@schaeffler.com</t>
     </r>
@@ -995,20 +1007,8 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">   ·  www.schaeffler.com ·  www.schaeffler.de</t>
+      <t xml:space="preserve"> www.schaeffler.com www.schaeffler.de</t>
     </r>
-  </si>
-  <si>
-    <t>Моб</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+7 (495) 120-01-72 </t>
-  </si>
-  <si>
-    <t>+7 (916) 420-10-80</t>
-  </si>
-  <si>
-    <t>119017 Moscow</t>
   </si>
 </sst>
 </file>
@@ -1252,17 +1252,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri Light"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -2073,13 +2072,13 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2118,10 +2117,10 @@
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
+        <u/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color theme="10"/>
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
@@ -2135,10 +2134,10 @@
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color theme="10"/>
+        <color theme="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
@@ -3330,6 +3329,68 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="btnSave"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5991225" y="66675"/>
+          <a:ext cx="1076325" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Сохранить</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TableCarrier" displayName="TableCarrier" ref="B5:G6" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="B5:G6"/>
@@ -3461,7 +3522,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="TableEmail" displayName="TableEmail" ref="A12:B35" totalsRowShown="0">
   <autoFilter ref="A12:B35"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Компания" dataDxfId="0"/>
+    <tableColumn id="1" name="Компания" dataDxfId="2"/>
     <tableColumn id="2" name="Email"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3473,8 +3534,8 @@
   <autoFilter ref="B2:D25"/>
   <tableColumns count="3">
     <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Компания" dataDxfId="2"/>
-    <tableColumn id="3" name="Получатель письма" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="2" name="Компания" dataDxfId="1"/>
+    <tableColumn id="3" name="Получатель письма" dataDxfId="0" dataCellStyle="Гиперссылка"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -30373,12 +30434,12 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="65.5703125" customWidth="1"/>
     <col min="3" max="3" width="4.85546875" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -30386,7 +30447,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="182" t="s">
         <v>285</v>
       </c>
       <c r="B1" s="181" t="s">
@@ -30394,7 +30455,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="182" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="180" t="s">
@@ -30402,7 +30463,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="182" t="s">
         <v>287</v>
       </c>
       <c r="B3" s="180" t="s">
@@ -30410,39 +30471,39 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="183" t="s">
+      <c r="A4" s="182" t="s">
         <v>84</v>
       </c>
       <c r="B4" s="180" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="182" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5" s="180" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="182" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" s="180" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="182" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" s="184" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="183" t="s">
-        <v>286</v>
-      </c>
-      <c r="B5" s="180" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="183" t="s">
-        <v>292</v>
-      </c>
-      <c r="B6" s="180" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="183" t="s">
-        <v>279</v>
-      </c>
-      <c r="B7" s="182" t="s">
-        <v>291</v>
-      </c>
-    </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="184" t="s">
+      <c r="A8" s="183" t="s">
         <v>280</v>
       </c>
       <c r="B8" t="s">
@@ -30450,12 +30511,12 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="184" t="s">
+      <c r="A9" s="183" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="184" t="s">
+      <c r="A10" s="183" t="s">
         <v>282</v>
       </c>
       <c r="B10" s="171" t="s">
@@ -30733,8 +30794,9 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
+  <drawing r:id="rId25"/>
   <tableParts count="1">
-    <tablePart r:id="rId25"/>
+    <tablePart r:id="rId26"/>
   </tableParts>
 </worksheet>
 </file>

--- a/DomesticTransport/DomesticTransport.xlsx
+++ b/DomesticTransport/DomesticTransport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="7005" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13470" windowHeight="7275"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery" sheetId="2" r:id="rId1"/>
@@ -3841,7 +3841,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="B1:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -30433,8 +30433,8 @@
   <sheetPr codeName="Лист8"/>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DomesticTransport/DomesticTransport.xlsx
+++ b/DomesticTransport/DomesticTransport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13470" windowHeight="7275"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13470" windowHeight="5475" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery" sheetId="2" r:id="rId1"/>
@@ -19,12 +19,13 @@
     <sheet name="ZoneCustomer" sheetId="4" state="hidden" r:id="rId5"/>
     <sheet name="Customers" sheetId="5" state="hidden" r:id="rId6"/>
     <sheet name="Отгрузка" sheetId="1" r:id="rId7"/>
-    <sheet name="Сообщения" sheetId="11" r:id="rId8"/>
-    <sheet name="ShippingCompany" sheetId="7" state="hidden" r:id="rId9"/>
+    <sheet name="Mail" sheetId="13" r:id="rId8"/>
+    <sheet name="Лист1" sheetId="14" r:id="rId9"/>
+    <sheet name="ShippingCompany" sheetId="7" state="hidden" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="DateDelivery">Delivery!$C$2</definedName>
-    <definedName name="MessageText">Сообщения!$B$10</definedName>
+    <definedName name="MessageText">#REF!</definedName>
     <definedName name="weght">Rate!$M$5</definedName>
     <definedName name="weghtCell">Rate!$M$5</definedName>
   </definedNames>
@@ -950,7 +951,37 @@
     <t>Email</t>
   </si>
   <si>
+    <t>Ответственное лицо</t>
+  </si>
+  <si>
+    <t>OOO Schaeffler Russland</t>
+  </si>
+  <si>
+    <t>Адрес</t>
+  </si>
+  <si>
+    <t>1. Kasatschi Pereulok 7</t>
+  </si>
+  <si>
+    <t>119017 Moscow</t>
+  </si>
+  <si>
+    <t>Тел</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (495) 120-01-72 </t>
+  </si>
+  <si>
+    <t>Моб</t>
+  </si>
+  <si>
+    <t>+7 (916) 420-10-80</t>
+  </si>
+  <si>
     <t xml:space="preserve">Тема </t>
+  </si>
+  <si>
+    <t>Заявка грузоперевозки</t>
   </si>
   <si>
     <t>Копия</t>
@@ -959,63 +990,20 @@
     <t>Текст сообщения</t>
   </si>
   <si>
-    <t> Коллеги добрый день. 
-В приложении отгрузка на [date], прошу принять к работе и прислать до 17-00.</t>
+    <t> Коллеги добрый день. В приложении отгрузка на [date], прошу принять к работе и прислать до 17-00.</t>
   </si>
   <si>
-    <t>Заявка грузоперевозки</t>
+    <t>Alexey Potapkin 1</t>
   </si>
   <si>
-    <t>Ответственное лицо</t>
-  </si>
-  <si>
-    <t>Тел</t>
-  </si>
-  <si>
-    <t>Адрес</t>
-  </si>
-  <si>
-    <t>OOO Schaeffler Russland</t>
-  </si>
-  <si>
-    <t>1. Kasatschi Pereulok 7</t>
-  </si>
-  <si>
-    <t>Alexey Potapkin</t>
-  </si>
-  <si>
-    <t>Моб</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+7 (495) 120-01-72 </t>
-  </si>
-  <si>
-    <t>+7 (916) 420-10-80</t>
-  </si>
-  <si>
-    <t>119017 Moscow</t>
-  </si>
-  <si>
-    <r>
-      <t>potapaex@schaeffler.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> www.schaeffler.com www.schaeffler.de</t>
-    </r>
+    <t>potapaex@schaeffler.com www.schaeffler.com www.schaeffler.de 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1228,45 +1216,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF1F497D"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1357,8 +1314,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -1605,7 +1568,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
@@ -1613,8 +1576,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2051,10 +2016,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2070,15 +2031,9 @@
     <xf numFmtId="3" fontId="3" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2098,7 +2053,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
+    <cellStyle name="20% — акцент2" xfId="7" builtinId="34"/>
+    <cellStyle name="40% — акцент5" xfId="8" builtinId="47"/>
     <cellStyle name="Excel Built-in Normal" xfId="4"/>
     <cellStyle name="Акцент3" xfId="5" builtinId="37"/>
     <cellStyle name="Акцент6" xfId="6" builtinId="49"/>
@@ -2107,7 +2064,7 @@
     <cellStyle name="Обычный 2" xfId="2"/>
     <cellStyle name="Обычный 4" xfId="1"/>
   </cellStyles>
-  <dxfs count="96">
+  <dxfs count="95">
     <dxf>
       <font>
         <b val="0"/>
@@ -2121,23 +2078,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <color theme="10"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
@@ -3333,26 +3273,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="btnSave"/>
+        <xdr:cNvPr id="2" name="btnSaveReg"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5991225" y="66675"/>
-          <a:ext cx="1076325" cy="295275"/>
+          <a:off x="962025" y="190501"/>
+          <a:ext cx="962025" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3380,7 +3320,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:rPr lang="ru-RU" sz="1100" b="1"/>
             <a:t>Сохранить</a:t>
           </a:r>
         </a:p>
@@ -3392,75 +3332,75 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TableCarrier" displayName="TableCarrier" ref="B5:G6" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TableCarrier" displayName="TableCarrier" ref="B5:G6" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
   <autoFilter ref="B5:G6"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="№ Доставки" dataDxfId="93"/>
-    <tableColumn id="6" name="Компания" dataDxfId="92"/>
-    <tableColumn id="4" name="ID Route" dataDxfId="91"/>
-    <tableColumn id="8" name="Тоннаж" dataDxfId="90"/>
-    <tableColumn id="3" name="Вес доставки" dataDxfId="89"/>
-    <tableColumn id="7" name="Стоимость доставки" dataDxfId="88"/>
+    <tableColumn id="1" name="№ Доставки" dataDxfId="92"/>
+    <tableColumn id="6" name="Компания" dataDxfId="91"/>
+    <tableColumn id="4" name="ID Route" dataDxfId="90"/>
+    <tableColumn id="8" name="Тоннаж" dataDxfId="89"/>
+    <tableColumn id="3" name="Вес доставки" dataDxfId="88"/>
+    <tableColumn id="7" name="Стоимость доставки" dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TableOrders" displayName="TableOrders" ref="B10:J11" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TableOrders" displayName="TableOrders" ref="B10:J11" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
   <autoFilter ref="B10:J11"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="№ Доставки" dataDxfId="85"/>
-    <tableColumn id="2" name="Доставка" dataDxfId="84"/>
-    <tableColumn id="5" name="ID Route" dataDxfId="83"/>
-    <tableColumn id="9" name="Порядок выгрузки" dataDxfId="82"/>
-    <tableColumn id="8" name="Вес нетто" dataDxfId="81"/>
-    <tableColumn id="3" name="ID Получателя" dataDxfId="80"/>
-    <tableColumn id="4" name="Получатель" dataDxfId="79"/>
-    <tableColumn id="10" name="Город" dataDxfId="78"/>
-    <tableColumn id="6" name="Маршрут" dataDxfId="77"/>
+    <tableColumn id="1" name="№ Доставки" dataDxfId="84"/>
+    <tableColumn id="2" name="Доставка" dataDxfId="83"/>
+    <tableColumn id="5" name="ID Route" dataDxfId="82"/>
+    <tableColumn id="9" name="Порядок выгрузки" dataDxfId="81"/>
+    <tableColumn id="8" name="Вес нетто" dataDxfId="80"/>
+    <tableColumn id="3" name="ID Получателя" dataDxfId="79"/>
+    <tableColumn id="4" name="Получатель" dataDxfId="78"/>
+    <tableColumn id="10" name="Город" dataDxfId="77"/>
+    <tableColumn id="6" name="Маршрут" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="PriceDelivery" displayName="PriceDelivery" ref="A3:J428" totalsRowShown="0" headerRowDxfId="76" dataDxfId="74" headerRowBorderDxfId="75" headerRowCellStyle="Обычный 4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="PriceDelivery" displayName="PriceDelivery" ref="A3:J428" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" headerRowCellStyle="Обычный 4">
   <sortState ref="A13:J426">
     <sortCondition ref="F3:F527"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="Place of shipment" dataDxfId="73"/>
-    <tableColumn id="2" name="Place of delivery" dataDxfId="72"/>
-    <tableColumn id="3" name="City" dataDxfId="71"/>
-    <tableColumn id="4" name="Country of delivery" dataDxfId="70"/>
-    <tableColumn id="5" name="Country of delivery2" dataDxfId="69"/>
-    <tableColumn id="6" name="Company" dataDxfId="68"/>
-    <tableColumn id="7" name="tonnage, t" dataDxfId="67"/>
-    <tableColumn id="8" name="vehicle" dataDxfId="66"/>
-    <tableColumn id="9" name="add.point" dataDxfId="65"/>
-    <tableColumn id="10" name="vehicle + add.point" dataDxfId="64"/>
+    <tableColumn id="1" name="Place of shipment" dataDxfId="72"/>
+    <tableColumn id="2" name="Place of delivery" dataDxfId="71"/>
+    <tableColumn id="3" name="City" dataDxfId="70"/>
+    <tableColumn id="4" name="Country of delivery" dataDxfId="69"/>
+    <tableColumn id="5" name="Country of delivery2" dataDxfId="68"/>
+    <tableColumn id="6" name="Company" dataDxfId="67"/>
+    <tableColumn id="7" name="tonnage, t" dataDxfId="66"/>
+    <tableColumn id="8" name="vehicle" dataDxfId="65"/>
+    <tableColumn id="9" name="add.point" dataDxfId="64"/>
+    <tableColumn id="10" name="vehicle + add.point" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TableRateInternational" displayName="TableRateInternational" ref="A1:E100" totalsRowShown="0" dataDxfId="62" headerRowBorderDxfId="63" tableBorderDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="TableRateInternational" displayName="TableRateInternational" ref="A1:E100" totalsRowShown="0" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60">
   <autoFilter ref="A1:E100"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Place of shipment" dataDxfId="60"/>
-    <tableColumn id="2" name="Place of delivery" dataDxfId="59"/>
-    <tableColumn id="3" name="Company" dataDxfId="58"/>
-    <tableColumn id="4" name="tonnage, t" dataDxfId="57"/>
-    <tableColumn id="5" name="vehicle" dataDxfId="56"/>
+    <tableColumn id="1" name="Place of shipment" dataDxfId="59"/>
+    <tableColumn id="2" name="Place of delivery" dataDxfId="58"/>
+    <tableColumn id="3" name="Company" dataDxfId="57"/>
+    <tableColumn id="4" name="tonnage, t" dataDxfId="56"/>
+    <tableColumn id="5" name="vehicle" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="TableRoutes" displayName="TableRoutes" ref="A1:K115" totalsRowShown="0" headerRowDxfId="55" headerRowBorderDxfId="54" tableBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="TableRoutes" displayName="TableRoutes" ref="A1:K115" totalsRowShown="0" headerRowDxfId="54" headerRowBorderDxfId="53" tableBorderDxfId="52">
   <autoFilter ref="A1:K115"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Id route"/>
@@ -3480,7 +3420,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TableCity" displayName="TableCity" ref="M1:M23" totalsRowShown="0" tableBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TableCity" displayName="TableCity" ref="M1:M23" totalsRowShown="0" tableBorderDxfId="51">
   <autoFilter ref="M1:M23"/>
   <tableColumns count="1">
     <tableColumn id="1" name="City"/>
@@ -3490,29 +3430,29 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TableTotal" displayName="TableTotal" ref="B2:U3" insertRow="1" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" headerRowCellStyle="Акцент6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TableTotal" displayName="TableTotal" ref="B2:U3" insertRow="1" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" headerRowCellStyle="Акцент6">
   <autoFilter ref="B2:U3"/>
   <tableColumns count="20">
-    <tableColumn id="20" name="Дата доставки" dataDxfId="22"/>
-    <tableColumn id="1" name="ID перевозчика" dataDxfId="21"/>
-    <tableColumn id="2" name="Перевозчик" dataDxfId="20"/>
-    <tableColumn id="3" name="Тип ТС, тонн" dataDxfId="19"/>
-    <tableColumn id="4" name="Водитель (ФИО)" dataDxfId="18"/>
-    <tableColumn id="5" name="Номер,марка" dataDxfId="17"/>
-    <tableColumn id="6" name="Телефон водителя" dataDxfId="16"/>
-    <tableColumn id="19" name="№ Доставки" dataDxfId="15"/>
-    <tableColumn id="7" name="Город" dataDxfId="14"/>
-    <tableColumn id="8" name="Направление" dataDxfId="13"/>
-    <tableColumn id="9" name="Порядок выгрузки" dataDxfId="12"/>
-    <tableColumn id="10" name="Номер грузополучателя" dataDxfId="11"/>
-    <tableColumn id="11" name="Номер накладной" dataDxfId="10"/>
-    <tableColumn id="12" name="Номер поставки" dataDxfId="9"/>
-    <tableColumn id="13" name="Грузополучатель" dataDxfId="8"/>
-    <tableColumn id="14" name="Брутто вес" dataDxfId="7"/>
-    <tableColumn id="15" name="Нетто вес" dataDxfId="6"/>
-    <tableColumn id="16" name="Кол-во паллет" dataDxfId="5"/>
-    <tableColumn id="17" name="Стоимость поставки" dataDxfId="4"/>
-    <tableColumn id="18" name="Стоимость доставки" dataDxfId="3"/>
+    <tableColumn id="20" name="Дата доставки" dataDxfId="21"/>
+    <tableColumn id="1" name="ID перевозчика" dataDxfId="20"/>
+    <tableColumn id="2" name="Перевозчик" dataDxfId="19"/>
+    <tableColumn id="3" name="Тип ТС, тонн" dataDxfId="18"/>
+    <tableColumn id="4" name="Водитель (ФИО)" dataDxfId="17"/>
+    <tableColumn id="5" name="Номер,марка" dataDxfId="16"/>
+    <tableColumn id="6" name="Телефон водителя" dataDxfId="15"/>
+    <tableColumn id="19" name="№ Доставки" dataDxfId="14"/>
+    <tableColumn id="7" name="Город" dataDxfId="13"/>
+    <tableColumn id="8" name="Направление" dataDxfId="12"/>
+    <tableColumn id="9" name="Порядок выгрузки" dataDxfId="11"/>
+    <tableColumn id="10" name="Номер грузополучателя" dataDxfId="10"/>
+    <tableColumn id="11" name="Номер накладной" dataDxfId="9"/>
+    <tableColumn id="12" name="Номер поставки" dataDxfId="8"/>
+    <tableColumn id="13" name="Грузополучатель" dataDxfId="7"/>
+    <tableColumn id="14" name="Брутто вес" dataDxfId="6"/>
+    <tableColumn id="15" name="Нетто вес" dataDxfId="5"/>
+    <tableColumn id="16" name="Кол-во паллет" dataDxfId="4"/>
+    <tableColumn id="17" name="Стоимость поставки" dataDxfId="3"/>
+    <tableColumn id="18" name="Стоимость доставки" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -3522,10 +3462,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="TableEmail" displayName="TableEmail" ref="A12:B35" totalsRowShown="0">
   <autoFilter ref="A12:B35"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Компания" dataDxfId="2"/>
+    <tableColumn id="1" name="Компания"/>
     <tableColumn id="2" name="Email"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleDark11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3841,8 +3781,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="B1:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3866,7 +3806,7 @@
       </c>
       <c r="C2" s="164">
         <f ca="1">TODAY()+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3936,6 +3876,249 @@
   <tableParts count="2">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист7"/>
+  <dimension ref="B2:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="154" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="154" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="154" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="155" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="154" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="155" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="154" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="155" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="154" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="155" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="154" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="155" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="154" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="155" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="154" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="155" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="154" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="155" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="154" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" s="155" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="154" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="155" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="154" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="155" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="154" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="155" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="154" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" s="155" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="154" t="s">
+        <v>192</v>
+      </c>
+      <c r="D16" s="155" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="154" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="155" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="154" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="155" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="154" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" s="155" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="154" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="155" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="154" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" s="155" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="154" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="155" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="154" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23" s="155" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="154" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" s="155" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="154" t="s">
+        <v>206</v>
+      </c>
+      <c r="D25" s="155" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D7" r:id="rId5"/>
+    <hyperlink ref="D8" r:id="rId6"/>
+    <hyperlink ref="D9" r:id="rId7"/>
+    <hyperlink ref="D10" r:id="rId8"/>
+    <hyperlink ref="D12" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D13" r:id="rId11"/>
+    <hyperlink ref="D14" r:id="rId12"/>
+    <hyperlink ref="D15" r:id="rId13"/>
+    <hyperlink ref="D16" r:id="rId14"/>
+    <hyperlink ref="D17" r:id="rId15"/>
+    <hyperlink ref="D19" r:id="rId16"/>
+    <hyperlink ref="D20" r:id="rId17"/>
+    <hyperlink ref="D21" r:id="rId18"/>
+    <hyperlink ref="D18" r:id="rId19"/>
+    <hyperlink ref="D22" r:id="rId20"/>
+    <hyperlink ref="D23" r:id="rId21"/>
+    <hyperlink ref="D24" r:id="rId22"/>
+    <hyperlink ref="D25" r:id="rId23"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId24"/>
   </tableParts>
 </worksheet>
 </file>
@@ -18041,7 +18224,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18054,1709 +18237,1711 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="174" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="177" t="s">
+      <c r="B1" s="175" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="178" t="s">
+      <c r="C1" s="176" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="178" t="s">
+      <c r="D1" s="176" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="179" t="s">
+      <c r="E1" s="177" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="172" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="174">
+      <c r="D2" s="172">
         <v>0.1</v>
       </c>
-      <c r="E2" s="174">
+      <c r="E2" s="172">
         <v>9000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B3" s="173" t="s">
+      <c r="B3" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C3" s="173" t="s">
+      <c r="C3" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="173">
+      <c r="D3" s="171">
         <v>0.1</v>
       </c>
-      <c r="E3" s="173">
+      <c r="E3" s="171">
         <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="174" t="s">
+      <c r="A4" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B4" s="174" t="s">
+      <c r="B4" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C4" s="174" t="s">
+      <c r="C4" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="174">
+      <c r="D4" s="172">
         <v>0.1</v>
       </c>
-      <c r="E4" s="174">
+      <c r="E4" s="172">
         <v>13996</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B5" s="173" t="s">
+      <c r="B5" s="171" t="s">
         <v>166</v>
       </c>
-      <c r="C5" s="173" t="s">
+      <c r="C5" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="173">
+      <c r="D5" s="171">
         <v>0.2</v>
       </c>
-      <c r="E5" s="173">
+      <c r="E5" s="171">
         <v>8322</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="174" t="s">
+      <c r="A6" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B6" s="174" t="s">
+      <c r="B6" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C6" s="174" t="s">
+      <c r="C6" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="174">
+      <c r="D6" s="172">
         <v>0.2</v>
       </c>
-      <c r="E6" s="174">
+      <c r="E6" s="172">
         <v>9790</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="173" t="s">
+      <c r="A7" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B7" s="173" t="s">
+      <c r="B7" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C7" s="173" t="s">
+      <c r="C7" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="173">
+      <c r="D7" s="171">
         <v>0.2</v>
       </c>
-      <c r="E7" s="173">
+      <c r="E7" s="171">
         <v>11681</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="174" t="s">
+      <c r="A8" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B8" s="174" t="s">
+      <c r="B8" s="172" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="174" t="s">
+      <c r="C8" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="174">
+      <c r="D8" s="172">
         <v>0.3</v>
       </c>
-      <c r="E8" s="174">
+      <c r="E8" s="172">
         <v>8079</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="173" t="s">
+      <c r="A9" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B9" s="173" t="s">
+      <c r="B9" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C9" s="173" t="s">
+      <c r="C9" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="173">
+      <c r="D9" s="171">
         <v>0.3</v>
       </c>
-      <c r="E9" s="173">
+      <c r="E9" s="171">
         <v>9505</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="174" t="s">
+      <c r="A10" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B10" s="174" t="s">
+      <c r="B10" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C10" s="174" t="s">
+      <c r="C10" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="174">
+      <c r="D10" s="172">
         <v>0.3</v>
       </c>
-      <c r="E10" s="174">
+      <c r="E10" s="172">
         <v>10541</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="173" t="s">
+      <c r="A11" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B11" s="173" t="s">
+      <c r="B11" s="171" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="173" t="s">
+      <c r="C11" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="173">
+      <c r="D11" s="171">
         <v>0.4</v>
       </c>
-      <c r="E11" s="173">
+      <c r="E11" s="171">
         <v>7844</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="174" t="s">
+      <c r="A12" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B12" s="174" t="s">
+      <c r="B12" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C12" s="174" t="s">
+      <c r="C12" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="174">
+      <c r="D12" s="172">
         <v>0.4</v>
       </c>
-      <c r="E12" s="174">
+      <c r="E12" s="172">
         <v>9228</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="173" t="s">
+      <c r="A13" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B13" s="173" t="s">
+      <c r="B13" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C13" s="173" t="s">
+      <c r="C13" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="173">
+      <c r="D13" s="171">
         <v>0.4</v>
       </c>
-      <c r="E13" s="173">
+      <c r="E13" s="171">
         <v>9844</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="174" t="s">
+      <c r="A14" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B14" s="174" t="s">
+      <c r="B14" s="172" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="174" t="s">
+      <c r="C14" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="174">
+      <c r="D14" s="172">
         <v>0.5</v>
       </c>
-      <c r="E14" s="174">
+      <c r="E14" s="172">
         <v>7616</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="173" t="s">
+      <c r="A15" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B15" s="173" t="s">
+      <c r="B15" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C15" s="173" t="s">
+      <c r="C15" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="173">
+      <c r="D15" s="171">
         <v>0.5</v>
       </c>
-      <c r="E15" s="173">
+      <c r="E15" s="171">
         <v>8959</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="174" t="s">
+      <c r="A16" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B16" s="174" t="s">
+      <c r="B16" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C16" s="174" t="s">
+      <c r="C16" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="174">
+      <c r="D16" s="172">
         <v>0.5</v>
       </c>
-      <c r="E16" s="174">
+      <c r="E16" s="172">
         <v>9993</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="173" t="s">
+      <c r="A17" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B17" s="173" t="s">
+      <c r="B17" s="171" t="s">
         <v>166</v>
       </c>
-      <c r="C17" s="173" t="s">
+      <c r="C17" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="173">
+      <c r="D17" s="171">
         <v>0.6</v>
       </c>
-      <c r="E17" s="173">
+      <c r="E17" s="171">
         <v>7394</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="174" t="s">
+      <c r="A18" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B18" s="174" t="s">
+      <c r="B18" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C18" s="174" t="s">
+      <c r="C18" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="174">
+      <c r="D18" s="172">
         <v>0.6</v>
       </c>
-      <c r="E18" s="174">
+      <c r="E18" s="172">
         <v>8698</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="173" t="s">
+      <c r="A19" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B19" s="173" t="s">
+      <c r="B19" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C19" s="173" t="s">
+      <c r="C19" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="173">
+      <c r="D19" s="171">
         <v>0.6</v>
       </c>
-      <c r="E19" s="173">
+      <c r="E19" s="171">
         <v>9600</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="174" t="s">
+      <c r="A20" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B20" s="174" t="s">
+      <c r="B20" s="172" t="s">
         <v>166</v>
       </c>
-      <c r="C20" s="174" t="s">
+      <c r="C20" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="174">
+      <c r="D20" s="172">
         <v>0.7</v>
       </c>
-      <c r="E20" s="174">
+      <c r="E20" s="172">
         <v>7178</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="173" t="s">
+      <c r="A21" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B21" s="173" t="s">
+      <c r="B21" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C21" s="173" t="s">
+      <c r="C21" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="173">
+      <c r="D21" s="171">
         <v>0.7</v>
       </c>
-      <c r="E21" s="173">
+      <c r="E21" s="171">
         <v>8445</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="174" t="s">
+      <c r="A22" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B22" s="174" t="s">
+      <c r="B22" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C22" s="174" t="s">
+      <c r="C22" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="174">
+      <c r="D22" s="172">
         <v>0.7</v>
       </c>
-      <c r="E22" s="174">
+      <c r="E22" s="172">
         <v>9296</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="173" t="s">
+      <c r="A23" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B23" s="173" t="s">
+      <c r="B23" s="171" t="s">
         <v>166</v>
       </c>
-      <c r="C23" s="173" t="s">
+      <c r="C23" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="173">
+      <c r="D23" s="171">
         <v>0.8</v>
       </c>
-      <c r="E23" s="173">
+      <c r="E23" s="171">
         <v>6969</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="174" t="s">
+      <c r="A24" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B24" s="174" t="s">
+      <c r="B24" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C24" s="174" t="s">
+      <c r="C24" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="174">
+      <c r="D24" s="172">
         <v>0.8</v>
       </c>
-      <c r="E24" s="174">
+      <c r="E24" s="172">
         <v>8199</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="173" t="s">
+      <c r="A25" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B25" s="173" t="s">
+      <c r="B25" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C25" s="173" t="s">
+      <c r="C25" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="173">
+      <c r="D25" s="171">
         <v>0.8</v>
       </c>
-      <c r="E25" s="173">
+      <c r="E25" s="171">
         <v>9078</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="174" t="s">
+      <c r="A26" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B26" s="174" t="s">
+      <c r="B26" s="172" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="174" t="s">
+      <c r="C26" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="174">
+      <c r="D26" s="172">
         <v>0.9</v>
       </c>
-      <c r="E26" s="174">
+      <c r="E26" s="172">
         <v>6766</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="173" t="s">
+      <c r="A27" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B27" s="173" t="s">
+      <c r="B27" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C27" s="173" t="s">
+      <c r="C27" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="173">
+      <c r="D27" s="171">
         <v>0.9</v>
       </c>
-      <c r="E27" s="173">
+      <c r="E27" s="171">
         <v>7960</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="174" t="s">
+      <c r="A28" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B28" s="174" t="s">
+      <c r="B28" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C28" s="174" t="s">
+      <c r="C28" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="174">
+      <c r="D28" s="172">
         <v>0.9</v>
       </c>
-      <c r="E28" s="174">
+      <c r="E28" s="172">
         <v>8167</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="173" t="s">
+      <c r="A29" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B29" s="173" t="s">
+      <c r="B29" s="171" t="s">
         <v>166</v>
       </c>
-      <c r="C29" s="173" t="s">
+      <c r="C29" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="173">
-        <v>1</v>
-      </c>
-      <c r="E29" s="173">
+      <c r="D29" s="171">
+        <v>1</v>
+      </c>
+      <c r="E29" s="171">
         <v>6569</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="174" t="s">
+      <c r="A30" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B30" s="174" t="s">
+      <c r="B30" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C30" s="174" t="s">
+      <c r="C30" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="174">
-        <v>1</v>
-      </c>
-      <c r="E30" s="174">
+      <c r="D30" s="172">
+        <v>1</v>
+      </c>
+      <c r="E30" s="172">
         <v>7728</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="173" t="s">
+      <c r="A31" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B31" s="173" t="s">
+      <c r="B31" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C31" s="173" t="s">
+      <c r="C31" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="173">
-        <v>1</v>
-      </c>
-      <c r="E31" s="173">
+      <c r="D31" s="171">
+        <v>1</v>
+      </c>
+      <c r="E31" s="171">
         <v>7350</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="174" t="s">
+      <c r="A32" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B32" s="174" t="s">
+      <c r="B32" s="172" t="s">
         <v>166</v>
       </c>
-      <c r="C32" s="174" t="s">
+      <c r="C32" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="174">
+      <c r="D32" s="172">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E32" s="174">
+      <c r="E32" s="172">
         <v>6378</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="173" t="s">
+      <c r="A33" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B33" s="173" t="s">
+      <c r="B33" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C33" s="173" t="s">
+      <c r="C33" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="173">
+      <c r="D33" s="171">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E33" s="173">
+      <c r="E33" s="171">
         <v>7503</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="174" t="s">
+      <c r="A34" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B34" s="174" t="s">
+      <c r="B34" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C34" s="174" t="s">
+      <c r="C34" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="174">
+      <c r="D34" s="172">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E34" s="174">
+      <c r="E34" s="172">
         <v>6682</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="173" t="s">
+      <c r="A35" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B35" s="173" t="s">
+      <c r="B35" s="171" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="173" t="s">
+      <c r="C35" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="173">
+      <c r="D35" s="171">
         <v>1.2</v>
       </c>
-      <c r="E35" s="173">
+      <c r="E35" s="171">
         <v>6192</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="174" t="s">
+      <c r="A36" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B36" s="174" t="s">
+      <c r="B36" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C36" s="174" t="s">
+      <c r="C36" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="174">
+      <c r="D36" s="172">
         <v>1.2</v>
       </c>
-      <c r="E36" s="174">
+      <c r="E36" s="172">
         <v>7285</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="173" t="s">
+      <c r="A37" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B37" s="173" t="s">
+      <c r="B37" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C37" s="173" t="s">
+      <c r="C37" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="173">
+      <c r="D37" s="171">
         <v>1.2</v>
       </c>
-      <c r="E37" s="173">
+      <c r="E37" s="171">
         <v>6125</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="174" t="s">
+      <c r="A38" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B38" s="174" t="s">
+      <c r="B38" s="172" t="s">
         <v>166</v>
       </c>
-      <c r="C38" s="174" t="s">
+      <c r="C38" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="174">
+      <c r="D38" s="172">
         <v>1.3</v>
       </c>
-      <c r="E38" s="174">
+      <c r="E38" s="172">
         <v>6012</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="173" t="s">
+      <c r="A39" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B39" s="173" t="s">
+      <c r="B39" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C39" s="173" t="s">
+      <c r="C39" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="173">
+      <c r="D39" s="171">
         <v>1.3</v>
       </c>
-      <c r="E39" s="173">
+      <c r="E39" s="171">
         <v>7073</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="174" t="s">
+      <c r="A40" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B40" s="174" t="s">
+      <c r="B40" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C40" s="174" t="s">
+      <c r="C40" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="174">
+      <c r="D40" s="172">
         <v>1.3</v>
       </c>
-      <c r="E40" s="174">
+      <c r="E40" s="172">
         <v>5654</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="173" t="s">
+      <c r="A41" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B41" s="173" t="s">
+      <c r="B41" s="171" t="s">
         <v>166</v>
       </c>
-      <c r="C41" s="173" t="s">
+      <c r="C41" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="173">
+      <c r="D41" s="171">
         <v>1.4</v>
       </c>
-      <c r="E41" s="173">
+      <c r="E41" s="171">
         <v>5837</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="174" t="s">
+      <c r="A42" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B42" s="174" t="s">
+      <c r="B42" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C42" s="174" t="s">
+      <c r="C42" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="174">
+      <c r="D42" s="172">
         <v>1.4</v>
       </c>
-      <c r="E42" s="174">
+      <c r="E42" s="172">
         <v>6867</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="173" t="s">
+      <c r="A43" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B43" s="173" t="s">
+      <c r="B43" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C43" s="173" t="s">
+      <c r="C43" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="173">
+      <c r="D43" s="171">
         <v>1.4</v>
       </c>
-      <c r="E43" s="173">
+      <c r="E43" s="171">
         <v>5250</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="174" t="s">
+      <c r="A44" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B44" s="174" t="s">
+      <c r="B44" s="172" t="s">
         <v>166</v>
       </c>
-      <c r="C44" s="174" t="s">
+      <c r="C44" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="174">
+      <c r="D44" s="172">
         <v>1.5</v>
       </c>
-      <c r="E44" s="174">
+      <c r="E44" s="172">
         <v>5667</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="173" t="s">
+      <c r="A45" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B45" s="173" t="s">
+      <c r="B45" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C45" s="173" t="s">
+      <c r="C45" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="173">
+      <c r="D45" s="171">
         <v>1.5</v>
       </c>
-      <c r="E45" s="173">
+      <c r="E45" s="171">
         <v>6667</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="174" t="s">
+      <c r="A46" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B46" s="174" t="s">
+      <c r="B46" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C46" s="174" t="s">
+      <c r="C46" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="174">
+      <c r="D46" s="172">
         <v>1.5</v>
       </c>
-      <c r="E46" s="174">
+      <c r="E46" s="172">
         <v>4900</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="173" t="s">
+      <c r="A47" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B47" s="173" t="s">
+      <c r="B47" s="171" t="s">
         <v>166</v>
       </c>
-      <c r="C47" s="173" t="s">
+      <c r="C47" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="173">
+      <c r="D47" s="171">
         <v>1.6</v>
       </c>
-      <c r="E47" s="173">
+      <c r="E47" s="171">
         <v>5469</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="174" t="s">
+      <c r="A48" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B48" s="174" t="s">
+      <c r="B48" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C48" s="174" t="s">
+      <c r="C48" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="174">
+      <c r="D48" s="172">
         <v>1.6</v>
       </c>
-      <c r="E48" s="174">
+      <c r="E48" s="172">
         <v>6563</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="173" t="s">
+      <c r="A49" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B49" s="173" t="s">
+      <c r="B49" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C49" s="173" t="s">
+      <c r="C49" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="173">
+      <c r="D49" s="171">
         <v>1.6</v>
       </c>
-      <c r="E49" s="173">
+      <c r="E49" s="171">
         <v>6759</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="174" t="s">
+      <c r="A50" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B50" s="174" t="s">
+      <c r="B50" s="172" t="s">
         <v>166</v>
       </c>
-      <c r="C50" s="174" t="s">
+      <c r="C50" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="174">
+      <c r="D50" s="172">
         <v>1.7</v>
       </c>
-      <c r="E50" s="174">
+      <c r="E50" s="172">
         <v>5279</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="173" t="s">
+      <c r="A51" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B51" s="173" t="s">
+      <c r="B51" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C51" s="173" t="s">
+      <c r="C51" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="173">
+      <c r="D51" s="171">
         <v>1.7</v>
       </c>
-      <c r="E51" s="173">
+      <c r="E51" s="171">
         <v>6335</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="174" t="s">
+      <c r="A52" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B52" s="174" t="s">
+      <c r="B52" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C52" s="174" t="s">
+      <c r="C52" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="174">
+      <c r="D52" s="172">
         <v>1.7</v>
       </c>
-      <c r="E52" s="174">
+      <c r="E52" s="172">
         <v>6362</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="173" t="s">
+      <c r="A53" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B53" s="173" t="s">
+      <c r="B53" s="171" t="s">
         <v>166</v>
       </c>
-      <c r="C53" s="173" t="s">
+      <c r="C53" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="173">
+      <c r="D53" s="171">
         <v>1.8</v>
       </c>
-      <c r="E53" s="173">
+      <c r="E53" s="171">
         <v>5096</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="174" t="s">
+      <c r="A54" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B54" s="174" t="s">
+      <c r="B54" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C54" s="174" t="s">
+      <c r="C54" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="174">
+      <c r="D54" s="172">
         <v>1.8</v>
       </c>
-      <c r="E54" s="174">
+      <c r="E54" s="172">
         <v>6115</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="173" t="s">
+      <c r="A55" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B55" s="173" t="s">
+      <c r="B55" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C55" s="173" t="s">
+      <c r="C55" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="173">
+      <c r="D55" s="171">
         <v>1.8</v>
       </c>
-      <c r="E55" s="173">
+      <c r="E55" s="171">
         <v>6008</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="174" t="s">
+      <c r="A56" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B56" s="174" t="s">
+      <c r="B56" s="172" t="s">
         <v>166</v>
       </c>
-      <c r="C56" s="174" t="s">
+      <c r="C56" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="174">
+      <c r="D56" s="172">
         <v>1.9</v>
       </c>
-      <c r="E56" s="174">
+      <c r="E56" s="172">
         <v>4919</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="173" t="s">
+      <c r="A57" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B57" s="173" t="s">
+      <c r="B57" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C57" s="173" t="s">
+      <c r="C57" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="173">
+      <c r="D57" s="171">
         <v>1.9</v>
       </c>
-      <c r="E57" s="173">
+      <c r="E57" s="171">
         <v>5902</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="174" t="s">
+      <c r="A58" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B58" s="174" t="s">
+      <c r="B58" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C58" s="174" t="s">
+      <c r="C58" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="D58" s="174">
+      <c r="D58" s="172">
         <v>1.9</v>
       </c>
-      <c r="E58" s="174">
+      <c r="E58" s="172">
         <v>5692</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="173" t="s">
+      <c r="A59" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B59" s="173" t="s">
+      <c r="B59" s="171" t="s">
         <v>166</v>
       </c>
-      <c r="C59" s="173" t="s">
+      <c r="C59" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="173">
+      <c r="D59" s="171">
         <v>2</v>
       </c>
-      <c r="E59" s="173">
+      <c r="E59" s="171">
         <v>4748</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="174" t="s">
+      <c r="A60" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B60" s="174" t="s">
+      <c r="B60" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C60" s="174" t="s">
+      <c r="C60" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="174">
+      <c r="D60" s="172">
         <v>2</v>
       </c>
-      <c r="E60" s="174">
+      <c r="E60" s="172">
         <v>5697</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="173" t="s">
+      <c r="A61" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B61" s="173" t="s">
+      <c r="B61" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C61" s="173" t="s">
+      <c r="C61" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="173">
+      <c r="D61" s="171">
         <v>2</v>
       </c>
-      <c r="E61" s="173">
+      <c r="E61" s="171">
         <v>5408</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="174" t="s">
+      <c r="A62" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B62" s="174" t="s">
+      <c r="B62" s="172" t="s">
         <v>166</v>
       </c>
-      <c r="C62" s="174" t="s">
+      <c r="C62" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="174">
+      <c r="D62" s="172">
         <v>2.1</v>
       </c>
-      <c r="E62" s="174">
+      <c r="E62" s="172">
         <v>4583</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="173" t="s">
+      <c r="A63" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B63" s="173" t="s">
+      <c r="B63" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C63" s="173" t="s">
+      <c r="C63" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="173">
+      <c r="D63" s="171">
         <v>2.1</v>
       </c>
-      <c r="E63" s="173">
+      <c r="E63" s="171">
         <v>5499</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="174" t="s">
+      <c r="A64" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B64" s="174" t="s">
+      <c r="B64" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C64" s="174" t="s">
+      <c r="C64" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="174">
+      <c r="D64" s="172">
         <v>2.1</v>
       </c>
-      <c r="E64" s="174">
+      <c r="E64" s="172">
         <v>5150</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="173" t="s">
+      <c r="A65" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B65" s="173" t="s">
+      <c r="B65" s="171" t="s">
         <v>166</v>
       </c>
-      <c r="C65" s="173" t="s">
+      <c r="C65" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D65" s="173">
+      <c r="D65" s="171">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E65" s="173">
+      <c r="E65" s="171">
         <v>4423</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="174" t="s">
+      <c r="A66" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B66" s="174" t="s">
+      <c r="B66" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C66" s="174" t="s">
+      <c r="C66" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="174">
+      <c r="D66" s="172">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E66" s="174">
+      <c r="E66" s="172">
         <v>5308</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="173" t="s">
+      <c r="A67" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B67" s="173" t="s">
+      <c r="B67" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C67" s="173" t="s">
+      <c r="C67" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="173">
+      <c r="D67" s="171">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E67" s="173">
+      <c r="E67" s="171">
         <v>4916</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="174" t="s">
+      <c r="A68" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B68" s="174" t="s">
+      <c r="B68" s="172" t="s">
         <v>166</v>
       </c>
-      <c r="C68" s="174" t="s">
+      <c r="C68" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="174">
+      <c r="D68" s="172">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E68" s="174">
+      <c r="E68" s="172">
         <v>4270</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="173" t="s">
+      <c r="A69" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B69" s="173" t="s">
+      <c r="B69" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C69" s="173" t="s">
+      <c r="C69" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D69" s="173">
+      <c r="D69" s="171">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E69" s="173">
+      <c r="E69" s="171">
         <v>5124</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="174" t="s">
+      <c r="A70" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B70" s="174" t="s">
+      <c r="B70" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C70" s="174" t="s">
+      <c r="C70" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="D70" s="174">
+      <c r="D70" s="172">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E70" s="174">
+      <c r="E70" s="172">
         <v>4702</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="173" t="s">
+      <c r="A71" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B71" s="173" t="s">
+      <c r="B71" s="171" t="s">
         <v>166</v>
       </c>
-      <c r="C71" s="173" t="s">
+      <c r="C71" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D71" s="173">
+      <c r="D71" s="171">
         <v>2.4</v>
       </c>
-      <c r="E71" s="173">
+      <c r="E71" s="171">
         <v>4121</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="174" t="s">
+      <c r="A72" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B72" s="174" t="s">
+      <c r="B72" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C72" s="174" t="s">
+      <c r="C72" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D72" s="174">
+      <c r="D72" s="172">
         <v>2.4</v>
       </c>
-      <c r="E72" s="174">
+      <c r="E72" s="172">
         <v>4946</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="173" t="s">
+      <c r="A73" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B73" s="173" t="s">
+      <c r="B73" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C73" s="173" t="s">
+      <c r="C73" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="173">
+      <c r="D73" s="171">
         <v>2.4</v>
       </c>
-      <c r="E73" s="173">
+      <c r="E73" s="171">
         <v>4506</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="174" t="s">
+      <c r="A74" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B74" s="174" t="s">
+      <c r="B74" s="172" t="s">
         <v>166</v>
       </c>
-      <c r="C74" s="174" t="s">
+      <c r="C74" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D74" s="174">
+      <c r="D74" s="172">
         <v>2.5</v>
       </c>
-      <c r="E74" s="174">
+      <c r="E74" s="172">
         <v>3978</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="173" t="s">
+      <c r="A75" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B75" s="173" t="s">
+      <c r="B75" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C75" s="173" t="s">
+      <c r="C75" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="173">
+      <c r="D75" s="171">
         <v>2.5</v>
       </c>
-      <c r="E75" s="173">
+      <c r="E75" s="171">
         <v>4774</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="174" t="s">
+      <c r="A76" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B76" s="174" t="s">
+      <c r="B76" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C76" s="174" t="s">
+      <c r="C76" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="D76" s="174">
+      <c r="D76" s="172">
         <v>2.5</v>
       </c>
-      <c r="E76" s="174">
+      <c r="E76" s="172">
         <v>4326</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="173" t="s">
+      <c r="A77" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B77" s="173" t="s">
+      <c r="B77" s="171" t="s">
         <v>166</v>
       </c>
-      <c r="C77" s="173" t="s">
+      <c r="C77" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D77" s="173">
+      <c r="D77" s="171">
         <v>2.6</v>
       </c>
-      <c r="E77" s="173">
+      <c r="E77" s="171">
         <v>3840</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="174" t="s">
+      <c r="A78" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B78" s="174" t="s">
+      <c r="B78" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C78" s="174" t="s">
+      <c r="C78" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="174">
+      <c r="D78" s="172">
         <v>2.6</v>
       </c>
-      <c r="E78" s="174">
+      <c r="E78" s="172">
         <v>4608</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="173" t="s">
+      <c r="A79" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B79" s="173" t="s">
+      <c r="B79" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C79" s="173" t="s">
+      <c r="C79" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="173">
+      <c r="D79" s="171">
         <v>2.6</v>
       </c>
-      <c r="E79" s="173">
+      <c r="E79" s="171">
         <v>4160</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="174" t="s">
+      <c r="A80" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B80" s="174" t="s">
+      <c r="B80" s="172" t="s">
         <v>166</v>
       </c>
-      <c r="C80" s="174" t="s">
+      <c r="C80" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="174">
+      <c r="D80" s="172">
         <v>2.7</v>
       </c>
-      <c r="E80" s="174">
+      <c r="E80" s="172">
         <v>3706</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="173" t="s">
+      <c r="A81" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B81" s="173" t="s">
+      <c r="B81" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C81" s="173" t="s">
+      <c r="C81" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="173">
+      <c r="D81" s="171">
         <v>2.7</v>
       </c>
-      <c r="E81" s="173">
+      <c r="E81" s="171">
         <v>4448</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="174" t="s">
+      <c r="A82" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B82" s="174" t="s">
+      <c r="B82" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C82" s="174" t="s">
+      <c r="C82" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="D82" s="174">
+      <c r="D82" s="172">
         <v>2.7</v>
       </c>
-      <c r="E82" s="174">
+      <c r="E82" s="172">
         <v>4006</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="173" t="s">
+      <c r="A83" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B83" s="173" t="s">
+      <c r="B83" s="171" t="s">
         <v>166</v>
       </c>
-      <c r="C83" s="173" t="s">
+      <c r="C83" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D83" s="173">
+      <c r="D83" s="171">
         <v>2.8</v>
       </c>
-      <c r="E83" s="173">
+      <c r="E83" s="171">
         <v>3578</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="174" t="s">
+      <c r="A84" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B84" s="174" t="s">
+      <c r="B84" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C84" s="174" t="s">
+      <c r="C84" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D84" s="174">
+      <c r="D84" s="172">
         <v>2.8</v>
       </c>
-      <c r="E84" s="174">
+      <c r="E84" s="172">
         <v>4293</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="173" t="s">
+      <c r="A85" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B85" s="173" t="s">
+      <c r="B85" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C85" s="173" t="s">
+      <c r="C85" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="D85" s="173">
+      <c r="D85" s="171">
         <v>2.8</v>
       </c>
-      <c r="E85" s="173">
+      <c r="E85" s="171">
         <v>3863</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="174" t="s">
+      <c r="A86" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B86" s="174" t="s">
+      <c r="B86" s="172" t="s">
         <v>166</v>
       </c>
-      <c r="C86" s="174" t="s">
+      <c r="C86" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="174">
+      <c r="D86" s="172">
         <v>2.9</v>
       </c>
-      <c r="E86" s="174">
+      <c r="E86" s="172">
         <v>3453</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="173" t="s">
+      <c r="A87" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B87" s="173" t="s">
+      <c r="B87" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C87" s="173" t="s">
+      <c r="C87" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D87" s="173">
+      <c r="D87" s="171">
         <v>2.9</v>
       </c>
-      <c r="E87" s="173">
+      <c r="E87" s="171">
         <v>4144</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="174" t="s">
+      <c r="A88" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B88" s="174" t="s">
+      <c r="B88" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C88" s="174" t="s">
+      <c r="C88" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="174">
+      <c r="D88" s="172">
         <v>2.9</v>
       </c>
-      <c r="E88" s="174">
+      <c r="E88" s="172">
         <v>3729</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="173" t="s">
+      <c r="A89" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B89" s="173" t="s">
+      <c r="B89" s="171" t="s">
         <v>166</v>
       </c>
-      <c r="C89" s="173" t="s">
+      <c r="C89" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D89" s="173">
+      <c r="D89" s="171">
         <v>3</v>
       </c>
-      <c r="E89" s="173">
+      <c r="E89" s="171">
         <v>3333</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="174" t="s">
+      <c r="A90" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B90" s="174" t="s">
+      <c r="B90" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C90" s="174" t="s">
+      <c r="C90" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D90" s="174">
+      <c r="D90" s="172">
         <v>3</v>
       </c>
-      <c r="E90" s="174">
+      <c r="E90" s="172">
         <v>4000</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="173" t="s">
+      <c r="A91" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B91" s="173" t="s">
+      <c r="B91" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C91" s="173" t="s">
+      <c r="C91" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="D91" s="173">
+      <c r="D91" s="171">
         <v>3</v>
       </c>
-      <c r="E91" s="173">
+      <c r="E91" s="171">
         <v>3605</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="174" t="s">
+      <c r="A92" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B92" s="174" t="s">
+      <c r="B92" s="172" t="s">
         <v>166</v>
       </c>
-      <c r="C92" s="174" t="s">
+      <c r="C92" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D92" s="174">
+      <c r="D92" s="172">
         <v>3.1</v>
       </c>
-      <c r="E92" s="174">
+      <c r="E92" s="172">
         <v>3258</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="173" t="s">
+      <c r="A93" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B93" s="173" t="s">
+      <c r="B93" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C93" s="173" t="s">
+      <c r="C93" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D93" s="173">
+      <c r="D93" s="171">
         <v>3.1</v>
       </c>
-      <c r="E93" s="173">
+      <c r="E93" s="171">
         <v>3967</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="174" t="s">
+      <c r="A94" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B94" s="174" t="s">
+      <c r="B94" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C94" s="174" t="s">
+      <c r="C94" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="D94" s="174">
+      <c r="D94" s="172">
         <v>3.1</v>
       </c>
-      <c r="E94" s="174">
+      <c r="E94" s="172">
         <v>3827</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="173" t="s">
+      <c r="A95" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B95" s="173" t="s">
+      <c r="B95" s="171" t="s">
         <v>166</v>
       </c>
-      <c r="C95" s="173" t="s">
+      <c r="C95" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D95" s="173">
+      <c r="D95" s="171">
         <v>3.2</v>
       </c>
-      <c r="E95" s="173">
+      <c r="E95" s="171">
         <v>3199</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="174" t="s">
+      <c r="A96" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B96" s="174" t="s">
+      <c r="B96" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C96" s="174" t="s">
+      <c r="C96" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D96" s="174">
+      <c r="D96" s="172">
         <v>3.2</v>
       </c>
-      <c r="E96" s="174">
+      <c r="E96" s="172">
         <v>3895</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="173" t="s">
+      <c r="A97" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B97" s="173" t="s">
+      <c r="B97" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C97" s="173" t="s">
+      <c r="C97" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="D97" s="173">
+      <c r="D97" s="171">
         <v>3.2</v>
       </c>
-      <c r="E97" s="173">
+      <c r="E97" s="171">
         <v>3708</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="174" t="s">
+      <c r="A98" s="172" t="s">
         <v>271</v>
       </c>
-      <c r="B98" s="174" t="s">
+      <c r="B98" s="172" t="s">
         <v>166</v>
       </c>
-      <c r="C98" s="174" t="s">
+      <c r="C98" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="D98" s="174">
+      <c r="D98" s="172">
         <v>3.3</v>
       </c>
-      <c r="E98" s="174">
+      <c r="E98" s="172">
         <v>3141</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="173" t="s">
+      <c r="A99" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="B99" s="173" t="s">
+      <c r="B99" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="C99" s="173" t="s">
+      <c r="C99" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="D99" s="173">
+      <c r="D99" s="171">
         <v>3.3</v>
       </c>
-      <c r="E99" s="173">
+      <c r="E99" s="171">
         <v>3824</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="175" t="s">
+      <c r="A100" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="B100" s="175" t="s">
+      <c r="B100" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="C100" s="175" t="s">
+      <c r="C100" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="D100" s="175">
+      <c r="D100" s="173">
         <v>3.3</v>
       </c>
-      <c r="E100" s="175">
+      <c r="E100" s="173">
         <v>3595</v>
       </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -23975,7 +24160,7 @@
       </c>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="181" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="69">
@@ -24020,12 +24205,12 @@
       <c r="P2" s="62">
         <v>1</v>
       </c>
-      <c r="Q2" s="188" t="s">
+      <c r="Q2" s="184" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="186"/>
+      <c r="B3" s="182"/>
       <c r="C3" s="69">
         <v>94206</v>
       </c>
@@ -24068,10 +24253,10 @@
       <c r="P3" s="62">
         <v>2</v>
       </c>
-      <c r="Q3" s="189"/>
+      <c r="Q3" s="185"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="186"/>
+      <c r="B4" s="182"/>
       <c r="C4" s="69">
         <v>92587</v>
       </c>
@@ -24114,10 +24299,10 @@
       <c r="P4" s="62">
         <v>3</v>
       </c>
-      <c r="Q4" s="189"/>
+      <c r="Q4" s="185"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="187"/>
+      <c r="B5" s="183"/>
       <c r="C5" s="69">
         <v>83838</v>
       </c>
@@ -24160,10 +24345,10 @@
       <c r="P5" s="62">
         <v>4</v>
       </c>
-      <c r="Q5" s="189"/>
+      <c r="Q5" s="185"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="185" t="s">
+      <c r="B6" s="181" t="s">
         <v>55</v>
       </c>
       <c r="C6" s="61">
@@ -24208,10 +24393,10 @@
       <c r="P6" s="54">
         <v>1</v>
       </c>
-      <c r="Q6" s="189"/>
+      <c r="Q6" s="185"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="186"/>
+      <c r="B7" s="182"/>
       <c r="C7" s="61">
         <v>73499</v>
       </c>
@@ -24254,10 +24439,10 @@
       <c r="P7" s="54">
         <v>2</v>
       </c>
-      <c r="Q7" s="189"/>
+      <c r="Q7" s="185"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="186"/>
+      <c r="B8" s="182"/>
       <c r="C8" s="61">
         <v>90317</v>
       </c>
@@ -24300,10 +24485,10 @@
       <c r="P8" s="54">
         <v>3</v>
       </c>
-      <c r="Q8" s="189"/>
+      <c r="Q8" s="185"/>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="187"/>
+      <c r="B9" s="183"/>
       <c r="C9" s="61">
         <v>56096</v>
       </c>
@@ -24346,10 +24531,10 @@
       <c r="P9" s="54">
         <v>4</v>
       </c>
-      <c r="Q9" s="189"/>
+      <c r="Q9" s="185"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="185" t="s">
+      <c r="B10" s="181" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="53">
@@ -24394,10 +24579,10 @@
       <c r="P10" s="46">
         <v>1</v>
       </c>
-      <c r="Q10" s="189"/>
+      <c r="Q10" s="185"/>
     </row>
     <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="187"/>
+      <c r="B11" s="183"/>
       <c r="C11" s="53">
         <v>83805</v>
       </c>
@@ -24440,13 +24625,13 @@
       <c r="P11" s="46">
         <v>2</v>
       </c>
-      <c r="Q11" s="190"/>
+      <c r="Q11" s="186"/>
     </row>
     <row r="12" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="18"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="185" t="s">
+      <c r="B13" s="181" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="45"/>
@@ -24489,12 +24674,12 @@
       <c r="P13" s="35">
         <v>1</v>
       </c>
-      <c r="Q13" s="188" t="s">
+      <c r="Q13" s="184" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="187"/>
+      <c r="B14" s="183"/>
       <c r="C14" s="42">
         <v>56205</v>
       </c>
@@ -24537,10 +24722,10 @@
       <c r="P14" s="35">
         <v>2</v>
       </c>
-      <c r="Q14" s="189"/>
+      <c r="Q14" s="185"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="185" t="s">
+      <c r="B15" s="181" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="34">
@@ -24585,10 +24770,10 @@
       <c r="P15" s="27">
         <v>1</v>
       </c>
-      <c r="Q15" s="189"/>
+      <c r="Q15" s="185"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="186"/>
+      <c r="B16" s="182"/>
       <c r="C16" s="34">
         <v>91020</v>
       </c>
@@ -24631,10 +24816,10 @@
       <c r="P16" s="27">
         <v>2</v>
       </c>
-      <c r="Q16" s="189"/>
+      <c r="Q16" s="185"/>
     </row>
     <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="187"/>
+      <c r="B17" s="183"/>
       <c r="C17" s="34">
         <v>84183</v>
       </c>
@@ -24677,13 +24862,13 @@
       <c r="P17" s="27">
         <v>3</v>
       </c>
-      <c r="Q17" s="190"/>
+      <c r="Q17" s="186"/>
     </row>
     <row r="18" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="18"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="185" t="s">
+      <c r="B19" s="181" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="26">
@@ -24728,12 +24913,12 @@
       <c r="P19" s="19">
         <v>1</v>
       </c>
-      <c r="Q19" s="188" t="s">
+      <c r="Q19" s="184" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="186"/>
+      <c r="B20" s="182"/>
       <c r="C20" s="26">
         <v>56161</v>
       </c>
@@ -24776,10 +24961,10 @@
       <c r="P20" s="19">
         <v>2</v>
       </c>
-      <c r="Q20" s="189"/>
+      <c r="Q20" s="185"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="186"/>
+      <c r="B21" s="182"/>
       <c r="C21" s="26">
         <v>59425</v>
       </c>
@@ -24822,10 +25007,10 @@
       <c r="P21" s="19">
         <v>3</v>
       </c>
-      <c r="Q21" s="189"/>
+      <c r="Q21" s="185"/>
     </row>
     <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="187"/>
+      <c r="B22" s="183"/>
       <c r="C22" s="26">
         <v>94012</v>
       </c>
@@ -24868,13 +25053,13 @@
       <c r="P22" s="19">
         <v>4</v>
       </c>
-      <c r="Q22" s="190"/>
+      <c r="Q22" s="186"/>
     </row>
     <row r="23" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="18"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="185" t="s">
+      <c r="B24" s="181" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="15">
@@ -24919,12 +25104,12 @@
       <c r="P24" s="8">
         <v>1</v>
       </c>
-      <c r="Q24" s="188" t="s">
+      <c r="Q24" s="184" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="186"/>
+      <c r="B25" s="182"/>
       <c r="C25" s="15">
         <v>60102</v>
       </c>
@@ -24967,10 +25152,10 @@
       <c r="P25" s="8">
         <v>2</v>
       </c>
-      <c r="Q25" s="189"/>
+      <c r="Q25" s="185"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="186"/>
+      <c r="B26" s="182"/>
       <c r="C26" s="17">
         <v>57317</v>
       </c>
@@ -25013,10 +25198,10 @@
       <c r="P26" s="8">
         <v>3</v>
       </c>
-      <c r="Q26" s="189"/>
+      <c r="Q26" s="185"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="186"/>
+      <c r="B27" s="182"/>
       <c r="C27" s="15">
         <v>78258</v>
       </c>
@@ -25059,10 +25244,10 @@
       <c r="P27" s="8">
         <v>4</v>
       </c>
-      <c r="Q27" s="189"/>
+      <c r="Q27" s="185"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent=